--- a/docs/source/_static/structure/IFDAT-LIST.xlsx
+++ b/docs/source/_static/structure/IFDAT-LIST.xlsx
@@ -9,16 +9,16 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ΕΠΙΚΕΦΑΛΙΔΑ" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ΠΕΡΙΕΧΟΜΕΝΑ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ΥΠΟΧΡΕΟΙ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ΜΠΣ" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EO" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ΕΚΔΟΣΕΙΣ ΟΜΟΛΟΓΩΝ ΕΟ" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ΠΕΡΙΕΧΟΜΕΝΑ'!$A$1:$A$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ΥΠΟΧΡΕΟΙ'!$A$1:$F$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EO'!$A$1:$I$255</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ'!$A$1:$D$339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ΜΠΣ'!$A$1:$F$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EO'!$A$1:$J$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ'!$A$1:$D$336</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ΕΚΔΟΣΕΙΣ ΟΜΟΛΟΓΩΝ ΕΟ'!$A$1:$D$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -586,7 +586,7 @@
         <is>
           <t>IFDAT
 ΠΙΝΑΚΑΣ ΥΠΟΧΡΕΩΝ ΦΟΡΕΩΝ
-ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2024-10-22</t>
+ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2024-10-28</t>
         </is>
       </c>
       <c r="D3" s="1" t="n"/>
@@ -1159,12 +1159,12 @@
     </row>
     <row r="2" ht="25" customHeight="1">
       <c r="A2" s="3">
-        <f>HYPERLINK("#ΥΠΟΧΡΕΟΙ!A1", "ΥΠΟΧΡΕΟΙ")</f>
+        <f>HYPERLINK("#ΜΠΣ!A1", "ΜΠΣ")</f>
         <v/>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Υπόχρεοι IFDAT</t>
+          <t>Μονάδες Παροχής Στοιχείων IFDAT</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1239,12 +1239,12 @@
       </c>
       <c r="B1" s="8" t="inlineStr">
         <is>
-          <t>ΚΩΔΙΚΟΙ</t>
+          <t>ΛΟΙΠΟΙ ΚΩΔΙΚΟΙ</t>
         </is>
       </c>
       <c r="C1" s="9" t="inlineStr">
         <is>
-          <t>ΣΥΣΤΑΣΗ</t>
+          <t>ΗΜΕΡΟΜΗΝΙΑ ΣΥΣΤΑΣΗΣ</t>
         </is>
       </c>
       <c r="D1" s="8" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F1" s="8" t="inlineStr">
         <is>
-          <t>ΕΟ ΥΠΟ ΑΝΑΓΓΕΛΙΑ IFDAT</t>
+          <t>ΕΟ ΥΠΟ ΑΝΑΓΓΕΛΙΑ</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>BGR000920101000, TGR094282521, L213800SHGGWDBFVRPS03</t>
+          <t>L213800SHGGWDBFVRPS03, TGR094282521, BGR000920101000</t>
         </is>
       </c>
       <c r="C2" s="11" t="n">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>BGR000352001000, TGR094036844, L213800BEX8X28DTL5391</t>
+          <t>L213800BEX8X28DTL5391, TGR094036844, BGR000352001000</t>
         </is>
       </c>
       <c r="C3" s="13" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>TGR094493219, L213800SMPWZVT6GGQZ69, BGR002292401000</t>
+          <t>TGR094493219, BGR002292401000, L213800SMPWZVT6GGQZ69</t>
         </is>
       </c>
       <c r="C4" s="11" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>TGR099936130, L213800C9JGYAXWYTM652, BGR004307701000</t>
+          <t>BGR004307701000, L213800C9JGYAXWYTM652, TGR099936130</t>
         </is>
       </c>
       <c r="C5" s="13" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>L213800CF8C4B9AKV1Z96, TGR999081601, BGR006314201000</t>
+          <t>BGR006314201000, L213800CF8C4B9AKV1Z96, TGR999081601</t>
         </is>
       </c>
       <c r="C6" s="11" t="n">
@@ -1404,12 +1404,12 @@
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00003, EGRAK00014, EGRAK00124, EGRAK00125, EGRAK00136, EGRAK00139, EGRAK00215, EGRAK00219, EGRAK00253, EGRAK00270, EGRAK00401, EGRAK00428, EGRAK00450, EGRAK00469, EGRAK00512, EGRAK00559, EGRAK00560, EGRAK00823, EGRAK00828, EGRAK00848, EGRAK01004, EGRAK01006, EGRAK01007, EGRAK01014, EGRAK01018, EGRAK01028, EGRAK01044, EGRAK01048, EGRAK01053, EGRAK01077, EGRAK01078, EGRAK01089, EGRAK01091, EGRAK01096, EGRAK01101</t>
+          <t>EGRAK00003, EGRAK00014, EGRAK00124, EGRAK00125, EGRAK00136, EGRAK00139, EGRAK00215, EGRAK00219, EGRAK00253, EGRAK00270, EGRAK00401, EGRAK00428, EGRAK00450, EGRAK00469, EGRAK00512, EGRAK00559, EGRAK00560, EGRAK00823, EGRAK00828, EGRAK00848, EGRAK01004, EGRAK01006, EGRAK01007, EGRAK01014, EGRAK01018, EGRAK01028, EGRAK01044, EGRAK01048, EGRAK01053, EGRAK01077, EGRAK01078, EGRAK01089, EGRAK01091, EGRAK01096</t>
         </is>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00003, EGRAK00014, EGRAK00124, EGRAK00125, EGRAK00136, EGRAK00139, EGRAK00215, EGRAK00219, EGRAK00253, EGRAK00270, EGRAK00401, EGRAK00428, EGRAK00450, EGRAK00469, EGRAK00512, EGRAK00559, EGRAK00560, EGRAK00823, EGRAK00828, EGRAK00848, EGRAK01004, EGRAK01006, EGRAK01007, EGRAK01014, EGRAK01018, EGRAK01028, EGRAK01044, EGRAK01048, EGRAK01053, EGRAK01077, EGRAK01078, EGRAK01089, EGRAK01091, EGRAK01096, EGRAK01101</t>
+          <t>EGRAK00003, EGRAK00014, EGRAK00124, EGRAK00125, EGRAK00136, EGRAK00139, EGRAK00215, EGRAK00219, EGRAK00253, EGRAK00270, EGRAK00401, EGRAK00428, EGRAK00450, EGRAK00469, EGRAK00512, EGRAK00559, EGRAK00560, EGRAK00823, EGRAK00828, EGRAK00848, EGRAK01004, EGRAK01006, EGRAK01007, EGRAK01014, EGRAK01018, EGRAK01028, EGRAK01044, EGRAK01048, EGRAK01053, EGRAK01077, EGRAK01078, EGRAK01089, EGRAK01091, EGRAK01096</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>BGR001003501000, TGR094304867, L213800UWXVWAKFGVLB36</t>
+          <t>TGR094304867, L213800UWXVWAKFGVLB36, BGR001003501000</t>
         </is>
       </c>
       <c r="C7" s="13" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>L213800U6WAX3YXMFVH22, TGR094354938, BGR000942001000</t>
+          <t>TGR094354938, L213800U6WAX3YXMFVH22, BGR000942001000</t>
         </is>
       </c>
       <c r="C8" s="11" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>BGR000832401000, L213800YSZHWSCLXXRI37, TGR094325107</t>
+          <t>L213800YSZHWSCLXXRI37, BGR000832401000, TGR094325107</t>
         </is>
       </c>
       <c r="C9" s="13" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>TGR094351475, L635400S5G5WWGN6B8T87, BGR000918601000</t>
+          <t>L635400S5G5WWGN6B8T87, BGR000918601000, TGR094351475</t>
         </is>
       </c>
       <c r="C10" s="11" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>BGR003581901000, TGR099553209, L213800XXMES8I6GQVQ47</t>
+          <t>L213800XXMES8I6GQVQ47, BGR003581901000, TGR099553209</t>
         </is>
       </c>
       <c r="C11" s="13" t="n">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>BGR003882701000, L213800USGL7Q5UR9M221, TGR099759863</t>
+          <t>L213800USGL7Q5UR9M221, BGR003882701000, TGR099759863</t>
         </is>
       </c>
       <c r="C13" s="13" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>BGR003548801000, L213800U7SBKWW79CBG88, TGR099554901</t>
+          <t>TGR099554901, BGR003548801000, L213800U7SBKWW79CBG88</t>
         </is>
       </c>
       <c r="C15" s="13" t="n">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>TGR998940936, BGR006816701000, L213800P8QPUPE3SOGX14</t>
+          <t>TGR998940936, L213800P8QPUPE3SOGX14, BGR006816701000</t>
         </is>
       </c>
       <c r="C16" s="11" t="n">
@@ -1708,224 +1708,228 @@
     <row r="17" ht="36" customHeight="1">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>EGRAEEAP003</t>
+          <t>EGR998642355</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>BGR003546201000, TGR099555020, L549300XDXYOF57JOFT72</t>
+          <t>TGR998642355, L2138001MKHE9G2UERJ13, BGR007175901000</t>
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>39321</v>
+        <v>39024</v>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Προντέα Ανώνυμη Εταιρεία Επενδύσεων σε Ακίνητη Περιουσία</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr"/>
+          <t>CNL ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΟΡΓΑΝΙΣΜΩΝ ΕΝΑΛΛΑΚΤΙΚΩΝ ΕΠΕΝΔΥΣΕΩΝ</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>EGREKES001</t>
+        </is>
+      </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP003</t>
+          <t>EGREKES001</t>
         </is>
       </c>
     </row>
     <row r="18" ht="36" customHeight="1">
       <c r="A18" s="10" t="inlineStr">
         <is>
-          <t>EGR998279015</t>
+          <t>EGRAEEAP003</t>
         </is>
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>BGR007914601000, TGR998279015</t>
+          <t>BGR003546201000, TGR099555020, L549300XDXYOF57JOFT72</t>
         </is>
       </c>
       <c r="C18" s="11" t="n">
-        <v>39407</v>
+        <v>39321</v>
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS CAPITAL MANAGEMENT ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
-        </is>
-      </c>
-      <c r="E18" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK90005</t>
-        </is>
-      </c>
+          <t>Προντέα Ανώνυμη Εταιρεία Επενδύσεων σε Ακίνητη Περιουσία</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="inlineStr">
         <is>
-          <t>EGRAK90005</t>
+          <t>EGRAEEAP003</t>
         </is>
       </c>
     </row>
     <row r="19" ht="36" customHeight="1">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>EGR998159392</t>
+          <t>EGR998279015</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>TGR998159392, BGR008234001000, L213800ESHXNWYJAEMO70</t>
+          <t>BGR007914601000, TGR998279015</t>
         </is>
       </c>
       <c r="C19" s="13" t="n">
-        <v>39942</v>
+        <v>39407</v>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>ΑΛΦΑ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ - ΑΚΕΣ</t>
+          <t>PIRAEUS CAPITAL MANAGEMENT ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>EGRAK90014</t>
+          <t>EGRAK90005</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>EGRAK90014</t>
+          <t>EGRAK90005</t>
         </is>
       </c>
     </row>
     <row r="20" ht="36" customHeight="1">
       <c r="A20" s="10" t="inlineStr">
         <is>
-          <t>EGRAEEAP005</t>
+          <t>EGR998159392</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>BGR120108101000, L213800QM2ZFRARYU6C87, TGR800397001</t>
+          <t>BGR008234001000, L213800ESHXNWYJAEMO70, TGR998159392</t>
         </is>
       </c>
       <c r="C20" s="11" t="n">
-        <v>40980</v>
+        <v>39942</v>
       </c>
       <c r="D20" s="6" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL INTERNATIONAL ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
-        </is>
-      </c>
-      <c r="E20" s="6" t="inlineStr"/>
+          <t>ΑΛΦΑ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ - ΑΚΕΣ</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK90014</t>
+        </is>
+      </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
-          <t>EGRAEEAP005</t>
+          <t>EGRAK90014</t>
         </is>
       </c>
     </row>
     <row r="21" ht="36" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>EGR800398384</t>
+          <t>EGRAEEAP005</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>BGR120129501000, TGR800398384</t>
+          <t>L213800QM2ZFRARYU6C87, BGR120108101000, TGR800397001</t>
         </is>
       </c>
       <c r="C21" s="13" t="n">
-        <v>40992</v>
+        <v>40980</v>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS JEREMIE TECHNOLOGY CATALYST MANAGEMENT ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>EGRAK01057, EGRAK90007</t>
-        </is>
-      </c>
+          <t>INTERCONTINENTAL INTERNATIONAL ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr"/>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01057, EGRAK90007</t>
+          <t>EGRAEEAP005</t>
         </is>
       </c>
     </row>
     <row r="22" ht="36" customHeight="1">
       <c r="A22" s="10" t="inlineStr">
         <is>
-          <t>EGR800433747</t>
+          <t>EGR800398384</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>TGR800433747, BGR122339001000, L2138006SQBPKYG6GZX87</t>
+          <t>L21380099L8WQI3DI3Y74, TGR800398384, BGR120129501000</t>
         </is>
       </c>
       <c r="C22" s="11" t="n">
-        <v>41162</v>
+        <v>40992</v>
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>Openfund Ανώνυμη Εταιρία Διαχείρισης Αμοιβαίων Κεφαλαίων Επιχειρηματικών Συμμετοχών</t>
+          <t>PIRAEUS JEREMIE TECHNOLOGY CATALYST MANAGEMENT ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E22" s="6" t="inlineStr">
         <is>
-          <t>EGRAK90006</t>
+          <t>EGRAK01057, EGRAK90007</t>
         </is>
       </c>
       <c r="F22" s="6" t="inlineStr">
         <is>
-          <t>EGRAK90006</t>
+          <t>EGRAK01057, EGRAK90007</t>
         </is>
       </c>
     </row>
     <row r="23" ht="36" customHeight="1">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>EGRAEEAP007</t>
+          <t>EGR800433747</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>BGR128686346000, TGR997656128, L213800Q23BDHSW1OQT90</t>
+          <t>TGR800433747, BGR122339001000, L2138006SQBPKYG6GZX87</t>
         </is>
       </c>
       <c r="C23" s="13" t="n">
-        <v>41657</v>
+        <v>41162</v>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>ΜΠΛΕ ΚΕΔΡΟΣ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr"/>
+          <t>Openfund Ανώνυμη Εταιρία Διαχείρισης Αμοιβαίων Κεφαλαίων Επιχειρηματικών Συμμετοχών</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK90006</t>
+        </is>
+      </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP007</t>
+          <t>EGRAK90006</t>
         </is>
       </c>
     </row>
     <row r="24" ht="36" customHeight="1">
       <c r="A24" s="10" t="inlineStr">
         <is>
-          <t>EGREKES001</t>
+          <t>EGRAEEAP007</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>BGR131359701000, L213800DDNBUCO6A2RT84, TGR800596087</t>
+          <t>TGR997656128, BGR128686346000, L213800Q23BDHSW1OQT90</t>
         </is>
       </c>
       <c r="C24" s="11" t="n">
-        <v>41838</v>
+        <v>41657</v>
       </c>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t>CNL CAPITAL ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΚΕΦΑΛΑΙΟΥ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ - ΔΙΑΧΕΙΡΙΣΗΣ ΟΡΓΑΝΙΣΜΩΝ ΕΝΑΛΛΑΚΤΙΚΩΝ ΕΠΕΝΔΥΣΕΩΝ</t>
+          <t>ΜΠΛΕ ΚΕΔΡΟΣ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ</t>
         </is>
       </c>
       <c r="E24" s="6" t="inlineStr"/>
       <c r="F24" s="6" t="inlineStr">
         <is>
-          <t>EGREKES001</t>
+          <t>EGRAEEAP007</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1941,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>L213800TBZBVWRUAOPV78, BGR140330201000, TGR997521479</t>
+          <t>BGR140330201000, TGR997521479, L213800TBZBVWRUAOPV78</t>
         </is>
       </c>
       <c r="C25" s="13" t="n">
@@ -1963,7 +1967,7 @@
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>TGR800792234, BGR141064201000, L213800PZN3W777G7XR07</t>
+          <t>BGR141064201000, L213800PZN3W777G7XR07, TGR800792234</t>
         </is>
       </c>
       <c r="C26" s="11" t="n">
@@ -1993,7 +1997,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>L254900CCGB73PBHKXL72, BGR142754460000, TGR997010182</t>
+          <t>TGR997010182, BGR142754460000, L254900CCGB73PBHKXL72</t>
         </is>
       </c>
       <c r="C27" s="13" t="n">
@@ -2083,7 +2087,7 @@
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>TGR801077433, BGR148547901000, L213800DTEZE6R8BZ9K19</t>
+          <t>TGR801077433, L213800DTEZE6R8BZ9K19, BGR148547901000</t>
         </is>
       </c>
       <c r="C30" s="11" t="n">
@@ -2109,7 +2113,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>BGR152321260000, L213800XKY8GHKN57D970, TGR996899546</t>
+          <t>L213800XKY8GHKN57D970, BGR152321260000, TGR996899546</t>
         </is>
       </c>
       <c r="C31" s="13" t="n">
@@ -2135,7 +2139,7 @@
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>TGR801296814, L9845007855485B71CC46, BGR153787304000</t>
+          <t>BGR153787304000, TGR801296814, L9845007855485B71CC46</t>
         </is>
       </c>
       <c r="C32" s="11" t="n">
@@ -2165,7 +2169,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>TGR801322351, BGR154382104000</t>
+          <t>BGR154382104000, TGR801322351</t>
         </is>
       </c>
       <c r="C33" s="13" t="n">
@@ -2195,7 +2199,7 @@
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>BGR157033507000, L9845003A111B06B9D568, TGR801446716</t>
+          <t>L9845003A111B06B9D568, TGR801446716, BGR157033507000</t>
         </is>
       </c>
       <c r="C34" s="11" t="n">
@@ -2203,7 +2207,7 @@
       </c>
       <c r="D34" s="6" t="inlineStr">
         <is>
-          <t>BLUE GREEN WHITE CAPITAL ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>ROCHELLE CAPITAL MANAGEMENT ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="E34" s="6" t="inlineStr">
@@ -2225,7 +2229,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>TGR801446949, L9845004F1F377E786787, BGR157036301000</t>
+          <t>L9845004F1F377E786787, BGR157036301000, TGR801446949</t>
         </is>
       </c>
       <c r="C35" s="13" t="n">
@@ -2255,7 +2259,7 @@
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>TGR801470046, BGR157511601000, L2138006VXU6UDW7P6H67</t>
+          <t>BGR157511601000, TGR801470046, L2138006VXU6UDW7P6H67</t>
         </is>
       </c>
       <c r="C36" s="11" t="n">
@@ -2285,7 +2289,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>BGR157802360000, TGR996764210</t>
+          <t>TGR996764210, BGR157802360000</t>
         </is>
       </c>
       <c r="C37" s="13" t="n">
@@ -2315,7 +2319,7 @@
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>L213800YJOZGHVAPEJP93, BGR159031301000, TGR801554045</t>
+          <t>BGR159031301000, L213800YJOZGHVAPEJP93, TGR801554045</t>
         </is>
       </c>
       <c r="C38" s="11" t="n">
@@ -2345,7 +2349,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>TGR996805731, L2138006STLTDFRIZTC42, BGR160110060000</t>
+          <t>TGR996805731, BGR160110060000, L2138006STLTDFRIZTC42</t>
         </is>
       </c>
       <c r="C39" s="13" t="n">
@@ -2366,387 +2370,298 @@
     <row r="40" ht="36" customHeight="1">
       <c r="A40" s="10" t="inlineStr">
         <is>
-          <t>EGR801698110</t>
+          <t>EGR094321237</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>TGR801698110, BGR161709401000, LGR984500E6O0A11A6C4E59</t>
+          <t>BGR000861301000, L213800MU91F1752AVM79, TGR094321237</t>
         </is>
       </c>
       <c r="C40" s="11" t="n">
-        <v>44524</v>
+        <v>44635</v>
       </c>
       <c r="D40" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ELBRIDGE CAPITAL MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΗΣΗΣ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΙΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ </t>
-        </is>
-      </c>
-      <c r="E40" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK01103</t>
-        </is>
-      </c>
+          <t>PREMIA ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="inlineStr"/>
       <c r="F40" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01103</t>
+          <t>EGR094321237</t>
         </is>
       </c>
     </row>
     <row r="41" ht="36" customHeight="1">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>EGR094321237</t>
+          <t>EGR801812106</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>BGR000861301000, L213800MU91F1752AVM79, TGR094321237</t>
+          <t>TGR801812106, BGR163809001000</t>
         </is>
       </c>
       <c r="C41" s="13" t="n">
-        <v>44635</v>
+        <v>44665</v>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>PREMIA ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr"/>
+          <t>LSTONE ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK01072</t>
+        </is>
+      </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>EGR094321237</t>
+          <t>EGRAK01072</t>
         </is>
       </c>
     </row>
     <row r="42" ht="36" customHeight="1">
       <c r="A42" s="10" t="inlineStr">
         <is>
-          <t>EGR801812106</t>
+          <t>EGR801878297</t>
         </is>
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
-          <t>TGR801812106, BGR163809001000</t>
+          <t>TGR801878297, BGR165052501000, L984500F87AF5652C5A91</t>
         </is>
       </c>
       <c r="C42" s="11" t="n">
-        <v>44665</v>
+        <v>44760</v>
       </c>
       <c r="D42" s="6" t="inlineStr">
         <is>
-          <t>LSTONE ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>BIG PI ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E42" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01072</t>
+          <t>EGRAK01073</t>
         </is>
       </c>
       <c r="F42" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01072</t>
+          <t>EGRAK01073</t>
         </is>
       </c>
     </row>
     <row r="43" ht="36" customHeight="1">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>EGR801878297</t>
+          <t>EGR802025852</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>TGR801878297, BGR165052501000, L984500F87AF5652C5A91</t>
+          <t>TGR802025852, BGR168398401000,  
+BGR168398401000</t>
         </is>
       </c>
       <c r="C43" s="13" t="n">
-        <v>44760</v>
+        <v>44953</v>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>BIG PI ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>IGROW VENTURE PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ Α.Ε.</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01073</t>
+          <t>EGRAK01100</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01073</t>
+          <t>EGRAK01100</t>
         </is>
       </c>
     </row>
     <row r="44" ht="36" customHeight="1">
       <c r="A44" s="10" t="inlineStr">
         <is>
-          <t>EGR802025852</t>
+          <t>EGR802047322</t>
         </is>
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
-          <t>TGR802025852, BGR168398401000</t>
+          <t>L2138007QOK3W75DIHX50, BGR168862301000, TGR802047322</t>
         </is>
       </c>
       <c r="C44" s="11" t="n">
-        <v>44953</v>
+        <v>44972</v>
       </c>
       <c r="D44" s="6" t="inlineStr">
         <is>
-          <t>IGROW VENTURE PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ Α.Ε.</t>
+          <t>SPOROS Impact Ventures ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ Διαχείρισης Αμοιβαίων Κεφαλαίων Επιχειρηματικών Συμμετοχών</t>
         </is>
       </c>
       <c r="E44" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01100</t>
+          <t>EGRAK01075</t>
         </is>
       </c>
       <c r="F44" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01100</t>
+          <t>EGRAK01075</t>
         </is>
       </c>
     </row>
     <row r="45" ht="36" customHeight="1">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>EGR802047322</t>
+          <t>EGR802071555</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>L2138007QOK3W75DIHX50, TGR802047322, BGR168862301000</t>
+          <t>TGR802071555, BGR169369101000</t>
         </is>
       </c>
       <c r="C45" s="13" t="n">
-        <v>44972</v>
+        <v>44995</v>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>SPOROS Impact Ventures ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ Διαχείρισης Αμοιβαίων Κεφαλαίων Επιχειρηματικών Συμμετοχών</t>
+          <t>FOS CAPITAL MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01075</t>
+          <t>EGRAK01076</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01075</t>
+          <t>EGRAK01076</t>
         </is>
       </c>
     </row>
     <row r="46" ht="36" customHeight="1">
       <c r="A46" s="10" t="inlineStr">
         <is>
-          <t>EGR802071555</t>
+          <t>EGR802177269</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
-          <t>BGR169369101000, TGR802071555</t>
+          <t>L984500EE58FDEBF8BF32, BGR171519601000, TGR802177269</t>
         </is>
       </c>
       <c r="C46" s="11" t="n">
-        <v>44995</v>
+        <v>45114</v>
       </c>
       <c r="D46" s="6" t="inlineStr">
         <is>
-          <t>FOS CAPITAL MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>OIKOS FUND MANAGEMENT ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="E46" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01076</t>
+          <t>EGRAK01074</t>
         </is>
       </c>
       <c r="F46" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01076</t>
+          <t>EGRAK01074</t>
         </is>
       </c>
     </row>
     <row r="47" ht="36" customHeight="1">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>EGR802177269</t>
+          <t>EGR802190685</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>BGR171519601000, L984500EE58FDEBF8BF32, TGR802177269</t>
+          <t>BGR171775701000, TGR802190685</t>
         </is>
       </c>
       <c r="C47" s="13" t="n">
-        <v>45114</v>
+        <v>45134</v>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>OIKOS FUND MANAGEMENT ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
+          <t>APEIRON VENTURES CAPITAL PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01074</t>
+          <t>EGRAK01099</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01074</t>
+          <t>EGRAK01099</t>
         </is>
       </c>
     </row>
     <row r="48" ht="36" customHeight="1">
       <c r="A48" s="10" t="inlineStr">
         <is>
-          <t>EGR802187644</t>
+          <t>EGRMFMC023</t>
         </is>
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
-          <t>TGR802187644, BGR171720006000</t>
+          <t>TGR996542649, BGR173975960000, L213800G7J7NDXVAS3P11</t>
         </is>
       </c>
       <c r="C48" s="11" t="n">
-        <v>45128</v>
+        <v>45278</v>
       </c>
       <c r="D48" s="6" t="inlineStr">
         <is>
-          <t>LOGGERHEAD VENTURES ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΙΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
+          <t>ALPHA TRUST Μονοπρόσωπη Ανώνυμη Εταιρεία Διαχείρισης Αμοιβαίων Κεφαλαίων και Οργανισμών Εναλλακτικών Επενδύσεων</t>
         </is>
       </c>
       <c r="E48" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01104</t>
+          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
         </is>
       </c>
       <c r="F48" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01104</t>
+          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
         </is>
       </c>
     </row>
     <row r="49" ht="36" customHeight="1">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>EGR802190685</t>
+          <t>EGRAEEAP012</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>BGR171775701000, TGR802190685</t>
+          <t>BGR174106158000, TGR996723817</t>
         </is>
       </c>
       <c r="C49" s="13" t="n">
-        <v>45134</v>
+        <v>45287</v>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>APEIRON VENTURES CAPITAL PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>EGRAK01099</t>
-        </is>
-      </c>
+          <t>ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ ΧΑΝΙΩΝ</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr"/>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01099</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="36" customHeight="1">
-      <c r="A50" s="10" t="inlineStr">
-        <is>
-          <t>EGRMFMC023</t>
-        </is>
-      </c>
-      <c r="B50" s="6" t="inlineStr">
-        <is>
-          <t>L213800G7J7NDXVAS3P11, TGR996542649, BGR173975960000</t>
-        </is>
-      </c>
-      <c r="C50" s="11" t="n">
-        <v>45278</v>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
-        <is>
-          <t>ALPHA TRUST Μονοπρόσωπη Ανώνυμη Εταιρεία Διαχείρισης Αμοιβαίων Κεφαλαίων και Οργανισμών Εναλλακτικών Επενδύσεων</t>
-        </is>
-      </c>
-      <c r="E50" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
-        </is>
-      </c>
-      <c r="F50" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="36" customHeight="1">
-      <c r="A51" s="12" t="inlineStr">
-        <is>
           <t>EGRAEEAP012</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>BGR174106158000, TGR996723817</t>
-        </is>
-      </c>
-      <c r="C51" s="13" t="n">
-        <v>45287</v>
-      </c>
-      <c r="D51" s="4" t="inlineStr">
-        <is>
-          <t>ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ ΧΑΝΙΩΝ</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="inlineStr"/>
-      <c r="F51" s="4" t="inlineStr">
-        <is>
-          <t>EGRAEEAP012</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="36" customHeight="1">
-      <c r="A52" s="10" t="inlineStr">
-        <is>
-          <t>EGR802458356</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
-        <is>
-          <t>TGR802458356, BGR176733801000</t>
-        </is>
-      </c>
-      <c r="C52" s="11" t="n">
-        <v>45392</v>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
-        <is>
-          <t>CORALLIA VENTURES MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
-        </is>
-      </c>
-      <c r="E52" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK01102</t>
-        </is>
-      </c>
-      <c r="F52" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK01102</t>
-        </is>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F52"/>
+  <autoFilter ref="A1:F49"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2757,7 +2672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:J251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2773,10 +2688,11 @@
     <col width="27.3" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="14.3" customWidth="1" min="5" max="5"/>
-    <col width="18.2" customWidth="1" min="6" max="6"/>
+    <col width="10.4" customWidth="1" min="6" max="6"/>
     <col width="18.2" customWidth="1" min="7" max="7"/>
-    <col width="50" customWidth="1" min="8" max="8"/>
-    <col width="24.7" customWidth="1" min="9" max="9"/>
+    <col width="18.2" customWidth="1" min="8" max="8"/>
+    <col width="50" customWidth="1" min="9" max="9"/>
+    <col width="19.5" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1">
@@ -2786,12 +2702,12 @@
       </c>
       <c r="B1" s="8" t="inlineStr">
         <is>
-          <t>ΚΩΔΙΚΟΙ</t>
+          <t>ΛΟΙΠΟΙ ΚΩΔΙΚΟΙ</t>
         </is>
       </c>
       <c r="C1" s="9" t="inlineStr">
         <is>
-          <t>ΣΥΣΤΑΣΗ</t>
+          <t>ΗΜΕΡΟΜΗΝΙΑ ΣΥΣΤΑΣΗΣ</t>
         </is>
       </c>
       <c r="D1" s="8" t="inlineStr">
@@ -2806,22 +2722,27 @@
       </c>
       <c r="F1" s="8" t="inlineStr">
         <is>
+          <t>IS_FOF</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
           <t>ΔΙΑΧΕΙΡΙΣΤΗΣ</t>
         </is>
       </c>
-      <c r="G1" s="8" t="inlineStr">
-        <is>
-          <t>ΥΠΟΧΡΕΟΣ</t>
-        </is>
-      </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
-          <t>ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ</t>
+          <t>ΜΠΣ</t>
         </is>
       </c>
       <c r="I1" s="8" t="inlineStr">
         <is>
-          <t>ΕΚΔΟΣΕΙΣ ΟΜΟΛΟΓΩΝ</t>
+          <t>ΙΔΙΕΣ ΜΕΤΟΧΕΣ</t>
+        </is>
+      </c>
+      <c r="J1" s="8" t="inlineStr">
+        <is>
+          <t>ΙΔΙΑ ΟΜΟΛΟΓΑ</t>
         </is>
       </c>
     </row>
@@ -2849,22 +2770,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr"/>
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="I2" s="6" t="inlineStr">
         <is>
           <t>IGRF000220001, IGRF000221009</t>
         </is>
       </c>
-      <c r="I2" s="6" t="inlineStr"/>
+      <c r="J2" s="6" t="inlineStr"/>
     </row>
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="12" t="inlineStr">
@@ -2890,22 +2812,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr"/>
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>IGRF000031002</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="J3" s="4" t="inlineStr"/>
     </row>
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="10" t="inlineStr">
@@ -2931,22 +2854,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>IGRF000149002, IGRF000306008</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="12" t="inlineStr">
@@ -2972,22 +2896,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>IGRF000203007, IGRF000204005</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr"/>
     </row>
     <row r="6" ht="36" customHeight="1">
       <c r="A6" s="10" t="inlineStr">
@@ -3013,22 +2938,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="I6" s="6" t="inlineStr">
         <is>
           <t>IGRF000216009, IGRF000217007</t>
         </is>
       </c>
-      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
     </row>
     <row r="7" ht="36" customHeight="1">
       <c r="A7" s="12" t="inlineStr">
@@ -3054,22 +2980,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>IGRF000158003, IGRF000362001</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="J7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="36" customHeight="1">
       <c r="A8" s="10" t="inlineStr">
@@ -3095,22 +3022,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr"/>
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H8" s="6" t="inlineStr">
+      <c r="I8" s="6" t="inlineStr">
         <is>
           <t>IGRF000148004, IGRF000308004</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="12" t="inlineStr">
@@ -3136,22 +3064,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr"/>
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t>IGRF000211000</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr"/>
+      <c r="J9" s="4" t="inlineStr"/>
     </row>
     <row r="10" ht="36" customHeight="1">
       <c r="A10" s="10" t="inlineStr">
@@ -3177,22 +3106,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr"/>
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H10" s="6" t="inlineStr">
+      <c r="I10" s="6" t="inlineStr">
         <is>
           <t>IGRF000200003, IGRF000201001</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="inlineStr"/>
     </row>
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="12" t="inlineStr">
@@ -3218,22 +3148,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="I11" s="4" t="inlineStr">
         <is>
           <t>IGRF000087004</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr"/>
     </row>
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="10" t="inlineStr">
@@ -3259,22 +3190,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G12" s="6" t="inlineStr">
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="I12" s="6" t="inlineStr">
         <is>
           <t>IGRF000151008, IGRF000313004</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
     </row>
     <row r="13" ht="36" customHeight="1">
       <c r="A13" s="12" t="inlineStr">
@@ -3300,22 +3232,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr"/>
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="I13" s="4" t="inlineStr">
         <is>
           <t>IGRF000023009</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr"/>
+      <c r="J13" s="4" t="inlineStr"/>
     </row>
     <row r="14" ht="36" customHeight="1">
       <c r="A14" s="10" t="inlineStr">
@@ -3341,22 +3274,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="F14" s="6" t="inlineStr"/>
+      <c r="G14" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="H14" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H14" s="6" t="inlineStr">
+      <c r="I14" s="6" t="inlineStr">
         <is>
           <t>IGRF000037009</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15" ht="36" customHeight="1">
       <c r="A15" s="12" t="inlineStr">
@@ -3382,22 +3316,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="I15" s="4" t="inlineStr">
         <is>
           <t>IGRF000078003</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
     </row>
     <row r="16" ht="36" customHeight="1">
       <c r="A16" s="10" t="inlineStr">
@@ -3423,22 +3358,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
+      <c r="F16" s="6" t="inlineStr"/>
+      <c r="G16" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G16" s="6" t="inlineStr">
+      <c r="H16" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H16" s="6" t="inlineStr">
+      <c r="I16" s="6" t="inlineStr">
         <is>
           <t>IGRF000077005</t>
         </is>
       </c>
-      <c r="I16" s="6" t="inlineStr"/>
+      <c r="J16" s="6" t="inlineStr"/>
     </row>
     <row r="17" ht="36" customHeight="1">
       <c r="A17" s="12" t="inlineStr">
@@ -3464,22 +3400,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr">
+      <c r="I17" s="4" t="inlineStr">
         <is>
           <t>IGRF000088002</t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr"/>
+      <c r="J17" s="4" t="inlineStr"/>
     </row>
     <row r="18" ht="36" customHeight="1">
       <c r="A18" s="10" t="inlineStr">
@@ -3505,22 +3442,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F18" s="6" t="inlineStr"/>
+      <c r="G18" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr">
+      <c r="H18" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H18" s="6" t="inlineStr">
+      <c r="I18" s="6" t="inlineStr">
         <is>
           <t>IGRF000287000</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="inlineStr"/>
     </row>
     <row r="19" ht="36" customHeight="1">
       <c r="A19" s="12" t="inlineStr">
@@ -3546,22 +3484,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="H19" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr">
+      <c r="I19" s="4" t="inlineStr">
         <is>
           <t>IGRF000205002, IGRF000206000, IGRF000373008</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr"/>
+      <c r="J19" s="4" t="inlineStr"/>
     </row>
     <row r="20" ht="36" customHeight="1">
       <c r="A20" s="10" t="inlineStr">
@@ -3587,22 +3526,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G20" s="6" t="inlineStr">
+      <c r="H20" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H20" s="6" t="inlineStr">
+      <c r="I20" s="6" t="inlineStr">
         <is>
           <t>IGRF000288008</t>
         </is>
       </c>
-      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
     </row>
     <row r="21" ht="36" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -3628,22 +3568,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="H21" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H21" s="4" t="inlineStr">
+      <c r="I21" s="4" t="inlineStr">
         <is>
           <t>IGRF000143005, IGRF000176005, IGRF000301009</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr"/>
     </row>
     <row r="22" ht="36" customHeight="1">
       <c r="A22" s="10" t="inlineStr">
@@ -3669,22 +3610,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
+      <c r="F22" s="6" t="inlineStr"/>
+      <c r="G22" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G22" s="6" t="inlineStr">
+      <c r="H22" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H22" s="6" t="inlineStr">
+      <c r="I22" s="6" t="inlineStr">
         <is>
           <t>IGRF000142007, IGRF000172004</t>
         </is>
       </c>
-      <c r="I22" s="6" t="inlineStr"/>
+      <c r="J22" s="6" t="inlineStr"/>
     </row>
     <row r="23" ht="36" customHeight="1">
       <c r="A23" s="12" t="inlineStr">
@@ -3710,22 +3652,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr"/>
+      <c r="G23" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="H23" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H23" s="4" t="inlineStr">
+      <c r="I23" s="4" t="inlineStr">
         <is>
           <t>IGRF000004009</t>
         </is>
       </c>
-      <c r="I23" s="4" t="inlineStr"/>
+      <c r="J23" s="4" t="inlineStr"/>
     </row>
     <row r="24" ht="36" customHeight="1">
       <c r="A24" s="10" t="inlineStr">
@@ -3751,22 +3694,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
+      <c r="F24" s="6" t="inlineStr"/>
+      <c r="G24" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G24" s="6" t="inlineStr">
+      <c r="H24" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H24" s="6" t="inlineStr">
+      <c r="I24" s="6" t="inlineStr">
         <is>
           <t>IGRF000006004</t>
         </is>
       </c>
-      <c r="I24" s="6" t="inlineStr"/>
+      <c r="J24" s="6" t="inlineStr"/>
     </row>
     <row r="25" ht="36" customHeight="1">
       <c r="A25" s="12" t="inlineStr">
@@ -3792,22 +3736,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="H25" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H25" s="4" t="inlineStr">
+      <c r="I25" s="4" t="inlineStr">
         <is>
           <t>IGRF000089000</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr"/>
     </row>
     <row r="26" ht="36" customHeight="1">
       <c r="A26" s="10" t="inlineStr">
@@ -3833,22 +3778,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
+      <c r="F26" s="6" t="inlineStr"/>
+      <c r="G26" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G26" s="6" t="inlineStr">
+      <c r="H26" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H26" s="6" t="inlineStr">
+      <c r="I26" s="6" t="inlineStr">
         <is>
           <t>IGRF000024007</t>
         </is>
       </c>
-      <c r="I26" s="6" t="inlineStr"/>
+      <c r="J26" s="6" t="inlineStr"/>
     </row>
     <row r="27" ht="36" customHeight="1">
       <c r="A27" s="12" t="inlineStr">
@@ -3874,22 +3820,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr"/>
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="H27" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H27" s="4" t="inlineStr">
+      <c r="I27" s="4" t="inlineStr">
         <is>
           <t>IGRF000147006, IGRF000309002</t>
         </is>
       </c>
-      <c r="I27" s="4" t="inlineStr"/>
+      <c r="J27" s="4" t="inlineStr"/>
     </row>
     <row r="28" ht="36" customHeight="1">
       <c r="A28" s="10" t="inlineStr">
@@ -3915,22 +3862,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr">
+      <c r="F28" s="6" t="inlineStr"/>
+      <c r="G28" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G28" s="6" t="inlineStr">
+      <c r="H28" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H28" s="6" t="inlineStr">
+      <c r="I28" s="6" t="inlineStr">
         <is>
           <t>IGRF000290004</t>
         </is>
       </c>
-      <c r="I28" s="6" t="inlineStr"/>
+      <c r="J28" s="6" t="inlineStr"/>
     </row>
     <row r="29" ht="36" customHeight="1">
       <c r="A29" s="12" t="inlineStr">
@@ -3956,22 +3904,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="H29" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
+      <c r="I29" s="4" t="inlineStr">
         <is>
           <t>IGRF000062007, IGRF000304003</t>
         </is>
       </c>
-      <c r="I29" s="4" t="inlineStr"/>
+      <c r="J29" s="4" t="inlineStr"/>
     </row>
     <row r="30" ht="36" customHeight="1">
       <c r="A30" s="10" t="inlineStr">
@@ -3997,22 +3946,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
+      <c r="F30" s="6" t="inlineStr"/>
+      <c r="G30" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G30" s="6" t="inlineStr">
+      <c r="H30" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H30" s="6" t="inlineStr">
+      <c r="I30" s="6" t="inlineStr">
         <is>
           <t>IGRF000146008</t>
         </is>
       </c>
-      <c r="I30" s="6" t="inlineStr"/>
+      <c r="J30" s="6" t="inlineStr"/>
     </row>
     <row r="31" ht="36" customHeight="1">
       <c r="A31" s="12" t="inlineStr">
@@ -4038,22 +3988,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="H31" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H31" s="4" t="inlineStr">
+      <c r="I31" s="4" t="inlineStr">
         <is>
           <t>IGRF000103009, IGRF000282001</t>
         </is>
       </c>
-      <c r="I31" s="4" t="inlineStr"/>
+      <c r="J31" s="4" t="inlineStr"/>
     </row>
     <row r="32" ht="36" customHeight="1">
       <c r="A32" s="10" t="inlineStr">
@@ -4079,22 +4030,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
+      <c r="F32" s="6" t="inlineStr"/>
+      <c r="G32" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G32" s="6" t="inlineStr">
+      <c r="H32" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H32" s="6" t="inlineStr">
+      <c r="I32" s="6" t="inlineStr">
         <is>
           <t>IGRF000090008</t>
         </is>
       </c>
-      <c r="I32" s="6" t="inlineStr"/>
+      <c r="J32" s="6" t="inlineStr"/>
     </row>
     <row r="33" ht="36" customHeight="1">
       <c r="A33" s="12" t="inlineStr">
@@ -4120,22 +4072,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr"/>
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="H33" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H33" s="4" t="inlineStr">
+      <c r="I33" s="4" t="inlineStr">
         <is>
           <t>IGRF000209004, IGRF000237005, IGRF000375003</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr"/>
+      <c r="J33" s="4" t="inlineStr"/>
     </row>
     <row r="34" ht="36" customHeight="1">
       <c r="A34" s="10" t="inlineStr">
@@ -4161,22 +4114,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F34" s="6" t="inlineStr">
+      <c r="F34" s="6" t="inlineStr"/>
+      <c r="G34" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G34" s="6" t="inlineStr">
+      <c r="H34" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H34" s="6" t="inlineStr">
+      <c r="I34" s="6" t="inlineStr">
         <is>
           <t>IGRF000065000, IGRF000303005</t>
         </is>
       </c>
-      <c r="I34" s="6" t="inlineStr"/>
+      <c r="J34" s="6" t="inlineStr"/>
     </row>
     <row r="35" ht="36" customHeight="1">
       <c r="A35" s="12" t="inlineStr">
@@ -4202,22 +4156,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="H35" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H35" s="4" t="inlineStr">
+      <c r="I35" s="4" t="inlineStr">
         <is>
           <t>IGRF000107000, IGRF000284007, IGRF000286002</t>
         </is>
       </c>
-      <c r="I35" s="4" t="inlineStr"/>
+      <c r="J35" s="4" t="inlineStr"/>
     </row>
     <row r="36" ht="36" customHeight="1">
       <c r="A36" s="10" t="inlineStr">
@@ -4243,22 +4198,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F36" s="6" t="inlineStr">
+      <c r="F36" s="6" t="inlineStr"/>
+      <c r="G36" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G36" s="6" t="inlineStr">
+      <c r="H36" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H36" s="6" t="inlineStr">
+      <c r="I36" s="6" t="inlineStr">
         <is>
           <t>IGRF000105004, IGRF000265006, IGRF000445004</t>
         </is>
       </c>
-      <c r="I36" s="6" t="inlineStr"/>
+      <c r="J36" s="6" t="inlineStr"/>
     </row>
     <row r="37" ht="36" customHeight="1">
       <c r="A37" s="12" t="inlineStr">
@@ -4284,22 +4240,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr"/>
+      <c r="G37" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="H37" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H37" s="4" t="inlineStr">
+      <c r="I37" s="4" t="inlineStr">
         <is>
           <t>IGRF000104007, IGRF000256005, IGRF000446002</t>
         </is>
       </c>
-      <c r="I37" s="4" t="inlineStr"/>
+      <c r="J37" s="4" t="inlineStr"/>
     </row>
     <row r="38" ht="36" customHeight="1">
       <c r="A38" s="10" t="inlineStr">
@@ -4325,22 +4282,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F38" s="6" t="inlineStr">
+      <c r="F38" s="6" t="inlineStr"/>
+      <c r="G38" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G38" s="6" t="inlineStr">
+      <c r="H38" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H38" s="6" t="inlineStr">
+      <c r="I38" s="6" t="inlineStr">
         <is>
           <t>IGRF000025004</t>
         </is>
       </c>
-      <c r="I38" s="6" t="inlineStr"/>
+      <c r="J38" s="6" t="inlineStr"/>
     </row>
     <row r="39" ht="36" customHeight="1">
       <c r="A39" s="12" t="inlineStr">
@@ -4366,22 +4324,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="H39" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H39" s="4" t="inlineStr">
+      <c r="I39" s="4" t="inlineStr">
         <is>
           <t>IGRF000009008</t>
         </is>
       </c>
-      <c r="I39" s="4" t="inlineStr"/>
+      <c r="J39" s="4" t="inlineStr"/>
     </row>
     <row r="40" ht="36" customHeight="1">
       <c r="A40" s="10" t="inlineStr">
@@ -4407,22 +4366,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr">
+      <c r="F40" s="6" t="inlineStr"/>
+      <c r="G40" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G40" s="6" t="inlineStr">
+      <c r="H40" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H40" s="6" t="inlineStr">
+      <c r="I40" s="6" t="inlineStr">
         <is>
           <t>IGRF000058005, IGRF000302007</t>
         </is>
       </c>
-      <c r="I40" s="6" t="inlineStr"/>
+      <c r="J40" s="6" t="inlineStr"/>
     </row>
     <row r="41" ht="36" customHeight="1">
       <c r="A41" s="12" t="inlineStr">
@@ -4448,22 +4408,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr"/>
+      <c r="G41" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="H41" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="H41" s="4" t="inlineStr">
+      <c r="I41" s="4" t="inlineStr">
         <is>
           <t>IGRF000318003</t>
         </is>
       </c>
-      <c r="I41" s="4" t="inlineStr"/>
+      <c r="J41" s="4" t="inlineStr"/>
     </row>
     <row r="42" ht="36" customHeight="1">
       <c r="A42" s="10" t="inlineStr">
@@ -4489,22 +4450,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F42" s="6" t="inlineStr">
+      <c r="F42" s="6" t="inlineStr"/>
+      <c r="G42" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G42" s="6" t="inlineStr">
+      <c r="H42" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H42" s="6" t="inlineStr">
+      <c r="I42" s="6" t="inlineStr">
         <is>
           <t>IGRF000106002, IGRF000267002, IGRF000269008</t>
         </is>
       </c>
-      <c r="I42" s="6" t="inlineStr"/>
+      <c r="J42" s="6" t="inlineStr"/>
     </row>
     <row r="43" ht="36" customHeight="1">
       <c r="A43" s="12" t="inlineStr">
@@ -4530,22 +4492,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="F43" s="4" t="inlineStr"/>
+      <c r="G43" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="H43" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H43" s="4" t="inlineStr">
+      <c r="I43" s="4" t="inlineStr">
         <is>
           <t>IGRF000002003</t>
         </is>
       </c>
-      <c r="I43" s="4" t="inlineStr"/>
+      <c r="J43" s="4" t="inlineStr"/>
     </row>
     <row r="44" ht="36" customHeight="1">
       <c r="A44" s="10" t="inlineStr">
@@ -4571,22 +4534,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F44" s="6" t="inlineStr">
+      <c r="F44" s="6" t="inlineStr"/>
+      <c r="G44" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G44" s="6" t="inlineStr">
+      <c r="H44" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H44" s="6" t="inlineStr">
+      <c r="I44" s="6" t="inlineStr">
         <is>
           <t>IGRF000064003</t>
         </is>
       </c>
-      <c r="I44" s="6" t="inlineStr"/>
+      <c r="J44" s="6" t="inlineStr"/>
     </row>
     <row r="45" ht="36" customHeight="1">
       <c r="A45" s="12" t="inlineStr">
@@ -4612,22 +4576,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="F45" s="4" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="H45" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="H45" s="4" t="inlineStr">
+      <c r="I45" s="4" t="inlineStr">
         <is>
           <t>IGRF000319001</t>
         </is>
       </c>
-      <c r="I45" s="4" t="inlineStr"/>
+      <c r="J45" s="4" t="inlineStr"/>
     </row>
     <row r="46" ht="36" customHeight="1">
       <c r="A46" s="10" t="inlineStr">
@@ -4653,22 +4618,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F46" s="6" t="inlineStr">
+      <c r="F46" s="6" t="inlineStr"/>
+      <c r="G46" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G46" s="6" t="inlineStr">
+      <c r="H46" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H46" s="6" t="inlineStr">
+      <c r="I46" s="6" t="inlineStr">
         <is>
           <t>IGRF000101003, IGRF000279007, IGRF000281003</t>
         </is>
       </c>
-      <c r="I46" s="6" t="inlineStr"/>
+      <c r="J46" s="6" t="inlineStr"/>
     </row>
     <row r="47" ht="36" customHeight="1">
       <c r="A47" s="12" t="inlineStr">
@@ -4694,22 +4660,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F47" s="4" t="inlineStr">
+      <c r="F47" s="4" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G47" s="4" t="inlineStr">
+      <c r="H47" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H47" s="4" t="inlineStr">
+      <c r="I47" s="4" t="inlineStr">
         <is>
           <t>IGRF000005006</t>
         </is>
       </c>
-      <c r="I47" s="4" t="inlineStr"/>
+      <c r="J47" s="4" t="inlineStr"/>
     </row>
     <row r="48" ht="36" customHeight="1">
       <c r="A48" s="10" t="inlineStr">
@@ -4735,22 +4702,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr">
+      <c r="F48" s="6" t="inlineStr"/>
+      <c r="G48" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G48" s="6" t="inlineStr">
+      <c r="H48" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H48" s="6" t="inlineStr">
+      <c r="I48" s="6" t="inlineStr">
         <is>
           <t>IGRF000034006</t>
         </is>
       </c>
-      <c r="I48" s="6" t="inlineStr"/>
+      <c r="J48" s="6" t="inlineStr"/>
     </row>
     <row r="49" ht="36" customHeight="1">
       <c r="A49" s="12" t="inlineStr">
@@ -4776,22 +4744,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G49" s="4" t="inlineStr">
+      <c r="H49" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H49" s="4" t="inlineStr">
+      <c r="I49" s="4" t="inlineStr">
         <is>
           <t>IGRF000076007</t>
         </is>
       </c>
-      <c r="I49" s="4" t="inlineStr"/>
+      <c r="J49" s="4" t="inlineStr"/>
     </row>
     <row r="50" ht="36" customHeight="1">
       <c r="A50" s="10" t="inlineStr">
@@ -4817,22 +4786,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F50" s="6" t="inlineStr">
+      <c r="F50" s="6" t="inlineStr"/>
+      <c r="G50" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G50" s="6" t="inlineStr">
+      <c r="H50" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H50" s="6" t="inlineStr">
+      <c r="I50" s="6" t="inlineStr">
         <is>
           <t>IGRF000296001</t>
         </is>
       </c>
-      <c r="I50" s="6" t="inlineStr"/>
+      <c r="J50" s="6" t="inlineStr"/>
     </row>
     <row r="51" ht="36" customHeight="1">
       <c r="A51" s="12" t="inlineStr">
@@ -4858,22 +4828,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr">
+      <c r="F51" s="4" t="inlineStr"/>
+      <c r="G51" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G51" s="4" t="inlineStr">
+      <c r="H51" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H51" s="4" t="inlineStr">
+      <c r="I51" s="4" t="inlineStr">
         <is>
           <t>IGRF000144003</t>
         </is>
       </c>
-      <c r="I51" s="4" t="inlineStr"/>
+      <c r="J51" s="4" t="inlineStr"/>
     </row>
     <row r="52" ht="36" customHeight="1">
       <c r="A52" s="10" t="inlineStr">
@@ -4899,22 +4870,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F52" s="6" t="inlineStr">
+      <c r="F52" s="6" t="inlineStr"/>
+      <c r="G52" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G52" s="6" t="inlineStr">
+      <c r="H52" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H52" s="6" t="inlineStr">
+      <c r="I52" s="6" t="inlineStr">
         <is>
           <t>IGRF000010006</t>
         </is>
       </c>
-      <c r="I52" s="6" t="inlineStr"/>
+      <c r="J52" s="6" t="inlineStr"/>
     </row>
     <row r="53" ht="36" customHeight="1">
       <c r="A53" s="12" t="inlineStr">
@@ -4940,22 +4912,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="F53" s="4" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="H53" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H53" s="4" t="inlineStr">
+      <c r="I53" s="4" t="inlineStr">
         <is>
           <t>IGRF000038007</t>
         </is>
       </c>
-      <c r="I53" s="4" t="inlineStr"/>
+      <c r="J53" s="4" t="inlineStr"/>
     </row>
     <row r="54" ht="36" customHeight="1">
       <c r="A54" s="10" t="inlineStr">
@@ -4981,22 +4954,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F54" s="6" t="inlineStr">
+      <c r="F54" s="6" t="inlineStr"/>
+      <c r="G54" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G54" s="6" t="inlineStr">
+      <c r="H54" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H54" s="6" t="inlineStr">
+      <c r="I54" s="6" t="inlineStr">
         <is>
           <t>IGRF000155009</t>
         </is>
       </c>
-      <c r="I54" s="6" t="inlineStr"/>
+      <c r="J54" s="6" t="inlineStr"/>
     </row>
     <row r="55" ht="36" customHeight="1">
       <c r="A55" s="12" t="inlineStr">
@@ -5022,22 +4996,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
+      <c r="F55" s="4" t="inlineStr"/>
+      <c r="G55" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G55" s="4" t="inlineStr">
+      <c r="H55" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H55" s="4" t="inlineStr">
+      <c r="I55" s="4" t="inlineStr">
         <is>
           <t>IGRF000156007</t>
         </is>
       </c>
-      <c r="I55" s="4" t="inlineStr"/>
+      <c r="J55" s="4" t="inlineStr"/>
     </row>
     <row r="56" ht="36" customHeight="1">
       <c r="A56" s="10" t="inlineStr">
@@ -5063,22 +5038,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F56" s="6" t="inlineStr">
+      <c r="F56" s="6" t="inlineStr"/>
+      <c r="G56" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G56" s="6" t="inlineStr">
+      <c r="H56" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H56" s="6" t="inlineStr">
+      <c r="I56" s="6" t="inlineStr">
         <is>
           <t>IGRF000333002, IGRF000340007</t>
         </is>
       </c>
-      <c r="I56" s="6" t="inlineStr"/>
+      <c r="J56" s="6" t="inlineStr"/>
     </row>
     <row r="57" ht="36" customHeight="1">
       <c r="A57" s="12" t="inlineStr">
@@ -5104,22 +5080,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr"/>
+      <c r="G57" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G57" s="4" t="inlineStr">
+      <c r="H57" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H57" s="4" t="inlineStr">
+      <c r="I57" s="4" t="inlineStr">
         <is>
           <t>IGRF000100005, IGRF000270006</t>
         </is>
       </c>
-      <c r="I57" s="4" t="inlineStr"/>
+      <c r="J57" s="4" t="inlineStr"/>
     </row>
     <row r="58" ht="36" customHeight="1">
       <c r="A58" s="10" t="inlineStr">
@@ -5145,22 +5122,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F58" s="6" t="inlineStr">
+      <c r="F58" s="6" t="inlineStr"/>
+      <c r="G58" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="G58" s="6" t="inlineStr">
+      <c r="H58" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="H58" s="6" t="inlineStr">
+      <c r="I58" s="6" t="inlineStr">
         <is>
           <t>IGRF000320009</t>
         </is>
       </c>
-      <c r="I58" s="6" t="inlineStr"/>
+      <c r="J58" s="6" t="inlineStr"/>
     </row>
     <row r="59" ht="36" customHeight="1">
       <c r="A59" s="12" t="inlineStr">
@@ -5170,7 +5148,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>BGR003882701000, L213800USGL7Q5UR9M221, TGR099759863</t>
+          <t>L213800USGL7Q5UR9M221, BGR003882701000, TGR099759863</t>
         </is>
       </c>
       <c r="C59" s="13" t="n">
@@ -5187,17 +5165,18 @@
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr"/>
-      <c r="G59" s="4" t="inlineStr">
+      <c r="G59" s="4" t="inlineStr"/>
+      <c r="H59" s="4" t="inlineStr">
         <is>
           <t>EGRAEEX002</t>
         </is>
       </c>
-      <c r="H59" s="4" t="inlineStr">
+      <c r="I59" s="4" t="inlineStr">
         <is>
           <t>IGRS433003019</t>
         </is>
       </c>
-      <c r="I59" s="4" t="inlineStr"/>
+      <c r="J59" s="4" t="inlineStr"/>
     </row>
     <row r="60" ht="36" customHeight="1">
       <c r="A60" s="10" t="inlineStr">
@@ -5223,22 +5202,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F60" s="6" t="inlineStr">
+      <c r="F60" s="6" t="inlineStr"/>
+      <c r="G60" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G60" s="6" t="inlineStr">
+      <c r="H60" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H60" s="6" t="inlineStr">
+      <c r="I60" s="6" t="inlineStr">
         <is>
           <t>IGRF000096005, IGRF000248002</t>
         </is>
       </c>
-      <c r="I60" s="6" t="inlineStr"/>
+      <c r="J60" s="6" t="inlineStr"/>
     </row>
     <row r="61" ht="36" customHeight="1">
       <c r="A61" s="12" t="inlineStr">
@@ -5264,22 +5244,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
+      <c r="F61" s="4" t="inlineStr"/>
+      <c r="G61" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G61" s="4" t="inlineStr">
+      <c r="H61" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H61" s="4" t="inlineStr">
+      <c r="I61" s="4" t="inlineStr">
         <is>
           <t>IGRF000092004</t>
         </is>
       </c>
-      <c r="I61" s="4" t="inlineStr"/>
+      <c r="J61" s="4" t="inlineStr"/>
     </row>
     <row r="62" ht="36" customHeight="1">
       <c r="A62" s="10" t="inlineStr">
@@ -5305,22 +5286,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F62" s="6" t="inlineStr">
+      <c r="F62" s="6" t="inlineStr"/>
+      <c r="G62" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G62" s="6" t="inlineStr">
+      <c r="H62" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H62" s="6" t="inlineStr">
+      <c r="I62" s="6" t="inlineStr">
         <is>
           <t>IGRF000091006</t>
         </is>
       </c>
-      <c r="I62" s="6" t="inlineStr"/>
+      <c r="J62" s="6" t="inlineStr"/>
     </row>
     <row r="63" ht="36" customHeight="1">
       <c r="A63" s="12" t="inlineStr">
@@ -5346,22 +5328,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F63" s="4" t="inlineStr">
+      <c r="F63" s="4" t="inlineStr"/>
+      <c r="G63" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G63" s="4" t="inlineStr">
+      <c r="H63" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H63" s="4" t="inlineStr">
+      <c r="I63" s="4" t="inlineStr">
         <is>
           <t>IGRF000141009, IGRF000173002, IGRF000300001</t>
         </is>
       </c>
-      <c r="I63" s="4" t="inlineStr"/>
+      <c r="J63" s="4" t="inlineStr"/>
     </row>
     <row r="64" ht="36" customHeight="1">
       <c r="A64" s="10" t="inlineStr">
@@ -5387,22 +5370,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F64" s="6" t="inlineStr">
+      <c r="F64" s="6" t="inlineStr"/>
+      <c r="G64" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G64" s="6" t="inlineStr">
+      <c r="H64" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H64" s="6" t="inlineStr">
+      <c r="I64" s="6" t="inlineStr">
         <is>
           <t>IGRF000334000</t>
         </is>
       </c>
-      <c r="I64" s="6" t="inlineStr"/>
+      <c r="J64" s="6" t="inlineStr"/>
     </row>
     <row r="65" ht="36" customHeight="1">
       <c r="A65" s="12" t="inlineStr">
@@ -5428,22 +5412,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F65" s="4" t="inlineStr">
+      <c r="F65" s="4" t="inlineStr"/>
+      <c r="G65" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G65" s="4" t="inlineStr">
+      <c r="H65" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H65" s="4" t="inlineStr">
+      <c r="I65" s="4" t="inlineStr">
         <is>
           <t>IGRF000001005</t>
         </is>
       </c>
-      <c r="I65" s="4" t="inlineStr"/>
+      <c r="J65" s="4" t="inlineStr"/>
     </row>
     <row r="66" ht="36" customHeight="1">
       <c r="A66" s="10" t="inlineStr">
@@ -5469,22 +5454,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F66" s="6" t="inlineStr">
+      <c r="F66" s="6" t="inlineStr"/>
+      <c r="G66" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G66" s="6" t="inlineStr">
+      <c r="H66" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H66" s="6" t="inlineStr">
+      <c r="I66" s="6" t="inlineStr">
         <is>
           <t>IGRF000097003, IGRF000263001</t>
         </is>
       </c>
-      <c r="I66" s="6" t="inlineStr"/>
+      <c r="J66" s="6" t="inlineStr"/>
     </row>
     <row r="67" ht="36" customHeight="1">
       <c r="A67" s="12" t="inlineStr">
@@ -5510,22 +5496,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F67" s="4" t="inlineStr">
+      <c r="F67" s="4" t="inlineStr"/>
+      <c r="G67" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G67" s="4" t="inlineStr">
+      <c r="H67" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H67" s="4" t="inlineStr">
+      <c r="I67" s="4" t="inlineStr">
         <is>
           <t>IGRF000292000</t>
         </is>
       </c>
-      <c r="I67" s="4" t="inlineStr"/>
+      <c r="J67" s="4" t="inlineStr"/>
     </row>
     <row r="68" ht="36" customHeight="1">
       <c r="A68" s="10" t="inlineStr">
@@ -5551,22 +5538,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F68" s="6" t="inlineStr">
+      <c r="F68" s="6" t="inlineStr"/>
+      <c r="G68" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G68" s="6" t="inlineStr">
+      <c r="H68" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H68" s="6" t="inlineStr">
+      <c r="I68" s="6" t="inlineStr">
         <is>
           <t>IGRF000293008, IGRF000414000</t>
         </is>
       </c>
-      <c r="I68" s="6" t="inlineStr"/>
+      <c r="J68" s="6" t="inlineStr"/>
     </row>
     <row r="69" ht="36" customHeight="1">
       <c r="A69" s="12" t="inlineStr">
@@ -5592,22 +5580,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F69" s="4" t="inlineStr">
+      <c r="F69" s="4" t="inlineStr"/>
+      <c r="G69" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G69" s="4" t="inlineStr">
+      <c r="H69" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H69" s="4" t="inlineStr">
+      <c r="I69" s="4" t="inlineStr">
         <is>
           <t>IGRF000011004</t>
         </is>
       </c>
-      <c r="I69" s="4" t="inlineStr"/>
+      <c r="J69" s="4" t="inlineStr"/>
     </row>
     <row r="70" ht="36" customHeight="1">
       <c r="A70" s="10" t="inlineStr">
@@ -5633,22 +5622,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F70" s="6" t="inlineStr">
+      <c r="F70" s="6" t="inlineStr"/>
+      <c r="G70" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G70" s="6" t="inlineStr">
+      <c r="H70" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H70" s="6" t="inlineStr">
+      <c r="I70" s="6" t="inlineStr">
         <is>
           <t>IGRF000022001</t>
         </is>
       </c>
-      <c r="I70" s="6" t="inlineStr"/>
+      <c r="J70" s="6" t="inlineStr"/>
     </row>
     <row r="71" ht="36" customHeight="1">
       <c r="A71" s="12" t="inlineStr">
@@ -5670,18 +5660,19 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F71" s="4" t="inlineStr">
+      <c r="F71" s="4" t="inlineStr"/>
+      <c r="G71" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC005</t>
         </is>
       </c>
-      <c r="G71" s="4" t="inlineStr">
+      <c r="H71" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC005</t>
         </is>
       </c>
-      <c r="H71" s="4" t="inlineStr"/>
       <c r="I71" s="4" t="inlineStr"/>
+      <c r="J71" s="4" t="inlineStr"/>
     </row>
     <row r="72" ht="36" customHeight="1">
       <c r="A72" s="10" t="inlineStr">
@@ -5691,7 +5682,7 @@
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>BGR003548801000, L213800U7SBKWW79CBG88, TGR099554901</t>
+          <t>TGR099554901, BGR003548801000, L213800U7SBKWW79CBG88</t>
         </is>
       </c>
       <c r="C72" s="11" t="n">
@@ -5708,17 +5699,18 @@
         </is>
       </c>
       <c r="F72" s="6" t="inlineStr"/>
-      <c r="G72" s="6" t="inlineStr">
+      <c r="G72" s="6" t="inlineStr"/>
+      <c r="H72" s="6" t="inlineStr">
         <is>
           <t>EGRAEEAP002</t>
         </is>
       </c>
-      <c r="H72" s="6" t="inlineStr">
+      <c r="I72" s="6" t="inlineStr">
         <is>
           <t>IGRS487003006</t>
         </is>
       </c>
-      <c r="I72" s="6" t="inlineStr"/>
+      <c r="J72" s="6" t="inlineStr"/>
     </row>
     <row r="73" ht="36" customHeight="1">
       <c r="A73" s="12" t="inlineStr">
@@ -5744,22 +5736,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F73" s="4" t="inlineStr">
+      <c r="F73" s="4" t="inlineStr"/>
+      <c r="G73" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G73" s="4" t="inlineStr">
+      <c r="H73" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H73" s="4" t="inlineStr">
+      <c r="I73" s="4" t="inlineStr">
         <is>
           <t>IGRF000032000</t>
         </is>
       </c>
-      <c r="I73" s="4" t="inlineStr"/>
+      <c r="J73" s="4" t="inlineStr"/>
     </row>
     <row r="74" ht="36" customHeight="1">
       <c r="A74" s="10" t="inlineStr">
@@ -5785,22 +5778,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr">
+      <c r="F74" s="6" t="inlineStr"/>
+      <c r="G74" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G74" s="6" t="inlineStr">
+      <c r="H74" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H74" s="6" t="inlineStr">
+      <c r="I74" s="6" t="inlineStr">
         <is>
           <t>IGRF000048006, IGRF000189008</t>
         </is>
       </c>
-      <c r="I74" s="6" t="inlineStr"/>
+      <c r="J74" s="6" t="inlineStr"/>
     </row>
     <row r="75" ht="36" customHeight="1">
       <c r="A75" s="12" t="inlineStr">
@@ -5826,22 +5820,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F75" s="4" t="inlineStr">
+      <c r="F75" s="4" t="inlineStr"/>
+      <c r="G75" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G75" s="4" t="inlineStr">
+      <c r="H75" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H75" s="4" t="inlineStr">
+      <c r="I75" s="4" t="inlineStr">
         <is>
           <t>IGRF000051000, IGRF000197001</t>
         </is>
       </c>
-      <c r="I75" s="4" t="inlineStr"/>
+      <c r="J75" s="4" t="inlineStr"/>
     </row>
     <row r="76" ht="36" customHeight="1">
       <c r="A76" s="10" t="inlineStr">
@@ -5863,18 +5858,19 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F76" s="6" t="inlineStr">
+      <c r="F76" s="6" t="inlineStr"/>
+      <c r="G76" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC005</t>
         </is>
       </c>
-      <c r="G76" s="6" t="inlineStr">
+      <c r="H76" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC005</t>
         </is>
       </c>
-      <c r="H76" s="6" t="inlineStr"/>
       <c r="I76" s="6" t="inlineStr"/>
+      <c r="J76" s="6" t="inlineStr"/>
     </row>
     <row r="77" ht="36" customHeight="1">
       <c r="A77" s="12" t="inlineStr">
@@ -5900,22 +5896,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F77" s="4" t="inlineStr">
+      <c r="F77" s="4" t="inlineStr"/>
+      <c r="G77" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G77" s="4" t="inlineStr">
+      <c r="H77" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H77" s="4" t="inlineStr">
+      <c r="I77" s="4" t="inlineStr">
         <is>
           <t>IGRF000218005, IGRF000239001</t>
         </is>
       </c>
-      <c r="I77" s="4" t="inlineStr"/>
+      <c r="J77" s="4" t="inlineStr"/>
     </row>
     <row r="78" ht="36" customHeight="1">
       <c r="A78" s="10" t="inlineStr">
@@ -5941,22 +5938,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F78" s="6" t="inlineStr">
+      <c r="F78" s="6" t="inlineStr"/>
+      <c r="G78" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G78" s="6" t="inlineStr">
+      <c r="H78" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H78" s="6" t="inlineStr">
+      <c r="I78" s="6" t="inlineStr">
         <is>
           <t>IGRF000138005, IGRF000175007</t>
         </is>
       </c>
-      <c r="I78" s="6" t="inlineStr"/>
+      <c r="J78" s="6" t="inlineStr"/>
     </row>
     <row r="79" ht="36" customHeight="1">
       <c r="A79" s="12" t="inlineStr">
@@ -5982,22 +5980,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F79" s="4" t="inlineStr">
+      <c r="F79" s="4" t="inlineStr"/>
+      <c r="G79" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G79" s="4" t="inlineStr">
+      <c r="H79" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H79" s="4" t="inlineStr">
+      <c r="I79" s="4" t="inlineStr">
         <is>
           <t>IGRF000066008</t>
         </is>
       </c>
-      <c r="I79" s="4" t="inlineStr"/>
+      <c r="J79" s="4" t="inlineStr"/>
     </row>
     <row r="80" ht="36" customHeight="1">
       <c r="A80" s="10" t="inlineStr">
@@ -6023,22 +6022,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F80" s="6" t="inlineStr">
+      <c r="F80" s="6" t="inlineStr"/>
+      <c r="G80" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G80" s="6" t="inlineStr">
+      <c r="H80" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H80" s="6" t="inlineStr">
+      <c r="I80" s="6" t="inlineStr">
         <is>
           <t>IGRF000294006, IGRF000415007</t>
         </is>
       </c>
-      <c r="I80" s="6" t="inlineStr"/>
+      <c r="J80" s="6" t="inlineStr"/>
     </row>
     <row r="81" ht="36" customHeight="1">
       <c r="A81" s="12" t="inlineStr">
@@ -6064,22 +6064,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F81" s="4" t="inlineStr">
+      <c r="F81" s="4" t="inlineStr"/>
+      <c r="G81" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G81" s="4" t="inlineStr">
+      <c r="H81" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H81" s="4" t="inlineStr">
+      <c r="I81" s="4" t="inlineStr">
         <is>
           <t>IGRF000140001</t>
         </is>
       </c>
-      <c r="I81" s="4" t="inlineStr"/>
+      <c r="J81" s="4" t="inlineStr"/>
     </row>
     <row r="82" ht="36" customHeight="1">
       <c r="A82" s="10" t="inlineStr">
@@ -6105,22 +6106,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F82" s="6" t="inlineStr">
+      <c r="F82" s="6" t="inlineStr"/>
+      <c r="G82" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G82" s="6" t="inlineStr">
+      <c r="H82" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H82" s="6" t="inlineStr">
+      <c r="I82" s="6" t="inlineStr">
         <is>
           <t>IGRF000137007, IGRF000192002</t>
         </is>
       </c>
-      <c r="I82" s="6" t="inlineStr"/>
+      <c r="J82" s="6" t="inlineStr"/>
     </row>
     <row r="83" ht="36" customHeight="1">
       <c r="A83" s="12" t="inlineStr">
@@ -6146,22 +6148,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F83" s="4" t="inlineStr">
+      <c r="F83" s="4" t="inlineStr"/>
+      <c r="G83" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="G83" s="4" t="inlineStr">
+      <c r="H83" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="H83" s="4" t="inlineStr">
+      <c r="I83" s="4" t="inlineStr">
         <is>
           <t>IGRF000322005</t>
         </is>
       </c>
-      <c r="I83" s="4" t="inlineStr"/>
+      <c r="J83" s="4" t="inlineStr"/>
     </row>
     <row r="84" ht="36" customHeight="1">
       <c r="A84" s="10" t="inlineStr">
@@ -6187,22 +6190,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F84" s="6" t="inlineStr">
+      <c r="F84" s="6" t="inlineStr"/>
+      <c r="G84" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="G84" s="6" t="inlineStr">
+      <c r="H84" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="H84" s="6" t="inlineStr">
+      <c r="I84" s="6" t="inlineStr">
         <is>
           <t>IGRF000321007</t>
         </is>
       </c>
-      <c r="I84" s="6" t="inlineStr"/>
+      <c r="J84" s="6" t="inlineStr"/>
     </row>
     <row r="85" ht="36" customHeight="1">
       <c r="A85" s="12" t="inlineStr">
@@ -6228,22 +6232,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F85" s="4" t="inlineStr">
+      <c r="F85" s="4" t="inlineStr"/>
+      <c r="G85" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G85" s="4" t="inlineStr">
+      <c r="H85" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H85" s="4" t="inlineStr">
+      <c r="I85" s="4" t="inlineStr">
         <is>
           <t>IGRF000233004, IGRF000234002</t>
         </is>
       </c>
-      <c r="I85" s="4" t="inlineStr"/>
+      <c r="J85" s="4" t="inlineStr"/>
     </row>
     <row r="86" ht="36" customHeight="1">
       <c r="A86" s="10" t="inlineStr">
@@ -6269,22 +6274,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F86" s="6" t="inlineStr">
+      <c r="F86" s="6" t="inlineStr"/>
+      <c r="G86" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G86" s="6" t="inlineStr">
+      <c r="H86" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H86" s="6" t="inlineStr">
+      <c r="I86" s="6" t="inlineStr">
         <is>
           <t>IGRF000227006, IGRF000228004</t>
         </is>
       </c>
-      <c r="I86" s="6" t="inlineStr"/>
+      <c r="J86" s="6" t="inlineStr"/>
     </row>
     <row r="87" ht="36" customHeight="1">
       <c r="A87" s="12" t="inlineStr">
@@ -6310,22 +6316,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F87" s="4" t="inlineStr">
+      <c r="F87" s="4" t="inlineStr"/>
+      <c r="G87" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G87" s="4" t="inlineStr">
+      <c r="H87" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H87" s="4" t="inlineStr">
+      <c r="I87" s="4" t="inlineStr">
         <is>
           <t>IGRF000229002, IGRF000230000</t>
         </is>
       </c>
-      <c r="I87" s="4" t="inlineStr"/>
+      <c r="J87" s="4" t="inlineStr"/>
     </row>
     <row r="88" ht="36" customHeight="1">
       <c r="A88" s="10" t="inlineStr">
@@ -6351,22 +6358,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F88" s="6" t="inlineStr">
+      <c r="F88" s="6" t="inlineStr"/>
+      <c r="G88" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G88" s="6" t="inlineStr">
+      <c r="H88" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H88" s="6" t="inlineStr">
+      <c r="I88" s="6" t="inlineStr">
         <is>
           <t>IGRF000108008, IGRF000260007, IGRF000262003</t>
         </is>
       </c>
-      <c r="I88" s="6" t="inlineStr"/>
+      <c r="J88" s="6" t="inlineStr"/>
     </row>
     <row r="89" ht="36" customHeight="1">
       <c r="A89" s="12" t="inlineStr">
@@ -6392,22 +6400,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F89" s="4" t="inlineStr">
+      <c r="F89" s="4" t="inlineStr"/>
+      <c r="G89" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G89" s="4" t="inlineStr">
+      <c r="H89" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H89" s="4" t="inlineStr">
+      <c r="I89" s="4" t="inlineStr">
         <is>
           <t>IGRF000070000, IGRF000316007</t>
         </is>
       </c>
-      <c r="I89" s="4" t="inlineStr"/>
+      <c r="J89" s="4" t="inlineStr"/>
     </row>
     <row r="90" ht="36" customHeight="1">
       <c r="A90" s="10" t="inlineStr">
@@ -6433,22 +6442,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F90" s="6" t="inlineStr">
+      <c r="F90" s="6" t="inlineStr"/>
+      <c r="G90" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G90" s="6" t="inlineStr">
+      <c r="H90" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H90" s="6" t="inlineStr">
+      <c r="I90" s="6" t="inlineStr">
         <is>
           <t>IGRF000113008, IGRF000272002, IGRF000274008</t>
         </is>
       </c>
-      <c r="I90" s="6" t="inlineStr"/>
+      <c r="J90" s="6" t="inlineStr"/>
     </row>
     <row r="91" ht="36" customHeight="1">
       <c r="A91" s="12" t="inlineStr">
@@ -6474,22 +6484,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F91" s="4" t="inlineStr">
+      <c r="F91" s="4" t="inlineStr"/>
+      <c r="G91" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G91" s="4" t="inlineStr">
+      <c r="H91" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H91" s="4" t="inlineStr">
+      <c r="I91" s="4" t="inlineStr">
         <is>
           <t>IGRF000072006, IGRF000115003</t>
         </is>
       </c>
-      <c r="I91" s="4" t="inlineStr"/>
+      <c r="J91" s="4" t="inlineStr"/>
     </row>
     <row r="92" ht="36" customHeight="1">
       <c r="A92" s="10" t="inlineStr">
@@ -6515,22 +6526,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F92" s="6" t="inlineStr">
+      <c r="F92" s="6" t="inlineStr"/>
+      <c r="G92" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G92" s="6" t="inlineStr">
+      <c r="H92" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H92" s="6" t="inlineStr">
+      <c r="I92" s="6" t="inlineStr">
         <is>
           <t>IGRF000071008</t>
         </is>
       </c>
-      <c r="I92" s="6" t="inlineStr"/>
+      <c r="J92" s="6" t="inlineStr"/>
     </row>
     <row r="93" ht="36" customHeight="1">
       <c r="A93" s="12" t="inlineStr">
@@ -6556,22 +6568,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F93" s="4" t="inlineStr">
+      <c r="F93" s="4" t="inlineStr"/>
+      <c r="G93" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G93" s="4" t="inlineStr">
+      <c r="H93" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H93" s="4" t="inlineStr">
+      <c r="I93" s="4" t="inlineStr">
         <is>
           <t>IGRF000111002, IGRF000277001</t>
         </is>
       </c>
-      <c r="I93" s="4" t="inlineStr"/>
+      <c r="J93" s="4" t="inlineStr"/>
     </row>
     <row r="94" ht="36" customHeight="1">
       <c r="A94" s="10" t="inlineStr">
@@ -6597,22 +6610,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F94" s="6" t="inlineStr">
+      <c r="F94" s="6" t="inlineStr"/>
+      <c r="G94" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G94" s="6" t="inlineStr">
+      <c r="H94" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H94" s="6" t="inlineStr">
+      <c r="I94" s="6" t="inlineStr">
         <is>
           <t>IGRF000159001, IGRF000331006</t>
         </is>
       </c>
-      <c r="I94" s="6" t="inlineStr"/>
+      <c r="J94" s="6" t="inlineStr"/>
     </row>
     <row r="95" ht="36" customHeight="1">
       <c r="A95" s="12" t="inlineStr">
@@ -6638,22 +6652,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F95" s="4" t="inlineStr">
+      <c r="F95" s="4" t="inlineStr"/>
+      <c r="G95" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G95" s="4" t="inlineStr">
+      <c r="H95" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H95" s="4" t="inlineStr">
+      <c r="I95" s="4" t="inlineStr">
         <is>
           <t>IGRF000099009, IGRF000245008, IGRF000247004</t>
         </is>
       </c>
-      <c r="I95" s="4" t="inlineStr"/>
+      <c r="J95" s="4" t="inlineStr"/>
     </row>
     <row r="96" ht="36" customHeight="1">
       <c r="A96" s="10" t="inlineStr">
@@ -6679,22 +6694,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F96" s="6" t="inlineStr">
+      <c r="F96" s="6" t="inlineStr"/>
+      <c r="G96" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G96" s="6" t="inlineStr">
+      <c r="H96" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H96" s="6" t="inlineStr">
+      <c r="I96" s="6" t="inlineStr">
         <is>
           <t>IGRF000029006</t>
         </is>
       </c>
-      <c r="I96" s="6" t="inlineStr"/>
+      <c r="J96" s="6" t="inlineStr"/>
     </row>
     <row r="97" ht="36" customHeight="1">
       <c r="A97" s="12" t="inlineStr">
@@ -6720,22 +6736,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F97" s="4" t="inlineStr">
+      <c r="F97" s="4" t="inlineStr"/>
+      <c r="G97" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G97" s="4" t="inlineStr">
+      <c r="H97" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H97" s="4" t="inlineStr">
+      <c r="I97" s="4" t="inlineStr">
         <is>
           <t>IGRF000036001</t>
         </is>
       </c>
-      <c r="I97" s="4" t="inlineStr"/>
+      <c r="J97" s="4" t="inlineStr"/>
     </row>
     <row r="98" ht="36" customHeight="1">
       <c r="A98" s="10" t="inlineStr">
@@ -6761,22 +6778,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F98" s="6" t="inlineStr">
+      <c r="F98" s="6" t="inlineStr"/>
+      <c r="G98" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G98" s="6" t="inlineStr">
+      <c r="H98" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H98" s="6" t="inlineStr">
+      <c r="I98" s="6" t="inlineStr">
         <is>
           <t>IGRF000045002</t>
         </is>
       </c>
-      <c r="I98" s="6" t="inlineStr"/>
+      <c r="J98" s="6" t="inlineStr"/>
     </row>
     <row r="99" ht="36" customHeight="1">
       <c r="A99" s="12" t="inlineStr">
@@ -6802,22 +6820,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F99" s="4" t="inlineStr">
+      <c r="F99" s="4" t="inlineStr"/>
+      <c r="G99" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G99" s="4" t="inlineStr">
+      <c r="H99" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H99" s="4" t="inlineStr">
+      <c r="I99" s="4" t="inlineStr">
         <is>
           <t>IGRF000030004</t>
         </is>
       </c>
-      <c r="I99" s="4" t="inlineStr"/>
+      <c r="J99" s="4" t="inlineStr"/>
     </row>
     <row r="100" ht="36" customHeight="1">
       <c r="A100" s="10" t="inlineStr">
@@ -6843,22 +6862,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F100" s="6" t="inlineStr">
+      <c r="F100" s="6" t="inlineStr"/>
+      <c r="G100" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G100" s="6" t="inlineStr">
+      <c r="H100" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H100" s="6" t="inlineStr">
+      <c r="I100" s="6" t="inlineStr">
         <is>
           <t>IGRF000212008, IGRF000213006, IGRF000381001</t>
         </is>
       </c>
-      <c r="I100" s="6" t="inlineStr"/>
+      <c r="J100" s="6" t="inlineStr"/>
     </row>
     <row r="101" ht="36" customHeight="1">
       <c r="A101" s="12" t="inlineStr">
@@ -6884,22 +6904,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F101" s="4" t="inlineStr">
+      <c r="F101" s="4" t="inlineStr"/>
+      <c r="G101" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G101" s="4" t="inlineStr">
+      <c r="H101" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H101" s="4" t="inlineStr">
+      <c r="I101" s="4" t="inlineStr">
         <is>
           <t>IGRF000289006</t>
         </is>
       </c>
-      <c r="I101" s="4" t="inlineStr"/>
+      <c r="J101" s="4" t="inlineStr"/>
     </row>
     <row r="102" ht="36" customHeight="1">
       <c r="A102" s="10" t="inlineStr">
@@ -6925,22 +6946,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F102" s="6" t="inlineStr">
+      <c r="F102" s="6" t="inlineStr"/>
+      <c r="G102" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G102" s="6" t="inlineStr">
+      <c r="H102" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H102" s="6" t="inlineStr">
+      <c r="I102" s="6" t="inlineStr">
         <is>
           <t>IGRF000291002</t>
         </is>
       </c>
-      <c r="I102" s="6" t="inlineStr"/>
+      <c r="J102" s="6" t="inlineStr"/>
     </row>
     <row r="103" ht="36" customHeight="1">
       <c r="A103" s="12" t="inlineStr">
@@ -6966,22 +6988,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F103" s="4" t="inlineStr">
+      <c r="F103" s="4" t="inlineStr"/>
+      <c r="G103" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G103" s="4" t="inlineStr">
+      <c r="H103" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H103" s="4" t="inlineStr">
+      <c r="I103" s="4" t="inlineStr">
         <is>
           <t>IGRF000094000, IGRF000254000</t>
         </is>
       </c>
-      <c r="I103" s="4" t="inlineStr"/>
+      <c r="J103" s="4" t="inlineStr"/>
     </row>
     <row r="104" ht="36" customHeight="1">
       <c r="A104" s="10" t="inlineStr">
@@ -7007,22 +7030,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F104" s="6" t="inlineStr">
+      <c r="F104" s="6" t="inlineStr"/>
+      <c r="G104" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G104" s="6" t="inlineStr">
+      <c r="H104" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H104" s="6" t="inlineStr">
+      <c r="I104" s="6" t="inlineStr">
         <is>
           <t>IGRF000095007, IGRF000250008</t>
         </is>
       </c>
-      <c r="I104" s="6" t="inlineStr"/>
+      <c r="J104" s="6" t="inlineStr"/>
     </row>
     <row r="105" ht="36" customHeight="1">
       <c r="A105" s="12" t="inlineStr">
@@ -7048,22 +7072,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F105" s="4" t="inlineStr">
+      <c r="F105" s="4" t="inlineStr"/>
+      <c r="G105" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G105" s="4" t="inlineStr">
+      <c r="H105" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H105" s="4" t="inlineStr">
+      <c r="I105" s="4" t="inlineStr">
         <is>
           <t>IGRF000110004, IGRF000328002</t>
         </is>
       </c>
-      <c r="I105" s="4" t="inlineStr"/>
+      <c r="J105" s="4" t="inlineStr"/>
     </row>
     <row r="106" ht="36" customHeight="1">
       <c r="A106" s="10" t="inlineStr">
@@ -7089,22 +7114,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F106" s="6" t="inlineStr">
+      <c r="F106" s="6" t="inlineStr"/>
+      <c r="G106" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G106" s="6" t="inlineStr">
+      <c r="H106" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H106" s="6" t="inlineStr">
+      <c r="I106" s="6" t="inlineStr">
         <is>
           <t>IGRF000098001, IGRF000252004</t>
         </is>
       </c>
-      <c r="I106" s="6" t="inlineStr"/>
+      <c r="J106" s="6" t="inlineStr"/>
     </row>
     <row r="107" ht="36" customHeight="1">
       <c r="A107" s="12" t="inlineStr">
@@ -7130,22 +7156,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F107" s="4" t="inlineStr">
+      <c r="F107" s="4" t="inlineStr"/>
+      <c r="G107" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G107" s="4" t="inlineStr">
+      <c r="H107" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H107" s="4" t="inlineStr">
+      <c r="I107" s="4" t="inlineStr">
         <is>
           <t>IGRF000014008</t>
         </is>
       </c>
-      <c r="I107" s="4" t="inlineStr"/>
+      <c r="J107" s="4" t="inlineStr"/>
     </row>
     <row r="108" ht="36" customHeight="1">
       <c r="A108" s="10" t="inlineStr">
@@ -7171,22 +7198,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F108" s="6" t="inlineStr">
+      <c r="F108" s="6" t="inlineStr"/>
+      <c r="G108" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G108" s="6" t="inlineStr">
+      <c r="H108" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H108" s="6" t="inlineStr">
+      <c r="I108" s="6" t="inlineStr">
         <is>
           <t>IGRF000295003</t>
         </is>
       </c>
-      <c r="I108" s="6" t="inlineStr"/>
+      <c r="J108" s="6" t="inlineStr"/>
     </row>
     <row r="109" ht="36" customHeight="1">
       <c r="A109" s="12" t="inlineStr">
@@ -7213,17 +7241,18 @@
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr"/>
-      <c r="G109" s="4" t="inlineStr">
+      <c r="G109" s="4" t="inlineStr"/>
+      <c r="H109" s="4" t="inlineStr">
         <is>
           <t>EGRAEEAP003</t>
         </is>
       </c>
-      <c r="H109" s="4" t="inlineStr">
+      <c r="I109" s="4" t="inlineStr">
         <is>
           <t>IGRS509003018</t>
         </is>
       </c>
-      <c r="I109" s="4" t="inlineStr">
+      <c r="J109" s="4" t="inlineStr">
         <is>
           <t>IGRC5091217D9</t>
         </is>
@@ -7253,22 +7282,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F110" s="6" t="inlineStr">
+      <c r="F110" s="6" t="inlineStr"/>
+      <c r="G110" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G110" s="6" t="inlineStr">
+      <c r="H110" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H110" s="6" t="inlineStr">
+      <c r="I110" s="6" t="inlineStr">
         <is>
           <t>IGRF000153004</t>
         </is>
       </c>
-      <c r="I110" s="6" t="inlineStr"/>
+      <c r="J110" s="6" t="inlineStr"/>
     </row>
     <row r="111" ht="36" customHeight="1">
       <c r="A111" s="12" t="inlineStr">
@@ -7294,22 +7324,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F111" s="4" t="inlineStr">
+      <c r="F111" s="4" t="inlineStr"/>
+      <c r="G111" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G111" s="4" t="inlineStr">
+      <c r="H111" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H111" s="4" t="inlineStr">
+      <c r="I111" s="4" t="inlineStr">
         <is>
           <t>IGRF000084001</t>
         </is>
       </c>
-      <c r="I111" s="4" t="inlineStr"/>
+      <c r="J111" s="4" t="inlineStr"/>
     </row>
     <row r="112" ht="36" customHeight="1">
       <c r="A112" s="10" t="inlineStr">
@@ -7335,22 +7366,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F112" s="6" t="inlineStr">
+      <c r="F112" s="6" t="inlineStr"/>
+      <c r="G112" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G112" s="6" t="inlineStr">
+      <c r="H112" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H112" s="6" t="inlineStr">
+      <c r="I112" s="6" t="inlineStr">
         <is>
           <t>IGRF000336005</t>
         </is>
       </c>
-      <c r="I112" s="6" t="inlineStr"/>
+      <c r="J112" s="6" t="inlineStr"/>
     </row>
     <row r="113" ht="36" customHeight="1">
       <c r="A113" s="12" t="inlineStr">
@@ -7376,22 +7408,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F113" s="4" t="inlineStr">
+      <c r="F113" s="4" t="inlineStr"/>
+      <c r="G113" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G113" s="4" t="inlineStr">
+      <c r="H113" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H113" s="4" t="inlineStr">
+      <c r="I113" s="4" t="inlineStr">
         <is>
           <t>IGRF000444007</t>
         </is>
       </c>
-      <c r="I113" s="4" t="inlineStr"/>
+      <c r="J113" s="4" t="inlineStr"/>
     </row>
     <row r="114" ht="36" customHeight="1">
       <c r="A114" s="10" t="inlineStr">
@@ -7413,22 +7446,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F114" s="6" t="inlineStr">
+      <c r="F114" s="6" t="inlineStr"/>
+      <c r="G114" s="6" t="inlineStr">
         <is>
           <t>EGR998159392</t>
         </is>
       </c>
-      <c r="G114" s="6" t="inlineStr">
+      <c r="H114" s="6" t="inlineStr">
         <is>
           <t>EGR998159392</t>
         </is>
       </c>
-      <c r="H114" s="6" t="inlineStr">
+      <c r="I114" s="6" t="inlineStr">
         <is>
           <t>PEGRAK90014_SHR</t>
         </is>
       </c>
-      <c r="I114" s="6" t="inlineStr"/>
+      <c r="J114" s="6" t="inlineStr"/>
     </row>
     <row r="115" ht="36" customHeight="1">
       <c r="A115" s="12" t="inlineStr">
@@ -7454,22 +7488,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F115" s="4" t="inlineStr">
+      <c r="F115" s="4" t="inlineStr"/>
+      <c r="G115" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G115" s="4" t="inlineStr">
+      <c r="H115" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H115" s="4" t="inlineStr">
+      <c r="I115" s="4" t="inlineStr">
         <is>
           <t>IGRF000067006</t>
         </is>
       </c>
-      <c r="I115" s="4" t="inlineStr"/>
+      <c r="J115" s="4" t="inlineStr"/>
     </row>
     <row r="116" ht="36" customHeight="1">
       <c r="A116" s="10" t="inlineStr">
@@ -7495,22 +7530,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F116" s="6" t="inlineStr">
+      <c r="F116" s="6" t="inlineStr"/>
+      <c r="G116" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G116" s="6" t="inlineStr">
+      <c r="H116" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H116" s="6" t="inlineStr">
+      <c r="I116" s="6" t="inlineStr">
         <is>
           <t>IGRF000339009</t>
         </is>
       </c>
-      <c r="I116" s="6" t="inlineStr"/>
+      <c r="J116" s="6" t="inlineStr"/>
     </row>
     <row r="117" ht="36" customHeight="1">
       <c r="A117" s="12" t="inlineStr">
@@ -7532,22 +7568,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F117" s="4" t="inlineStr">
+      <c r="F117" s="4" t="inlineStr"/>
+      <c r="G117" s="4" t="inlineStr">
         <is>
           <t>EGR998279015</t>
         </is>
       </c>
-      <c r="G117" s="4" t="inlineStr">
+      <c r="H117" s="4" t="inlineStr">
         <is>
           <t>EGR998279015</t>
         </is>
       </c>
-      <c r="H117" s="4" t="inlineStr">
+      <c r="I117" s="4" t="inlineStr">
         <is>
           <t>PEGRAK90005_SHR</t>
         </is>
       </c>
-      <c r="I117" s="4" t="inlineStr"/>
+      <c r="J117" s="4" t="inlineStr"/>
     </row>
     <row r="118" ht="36" customHeight="1">
       <c r="A118" s="10" t="inlineStr">
@@ -7569,22 +7606,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F118" s="6" t="inlineStr">
+      <c r="F118" s="6" t="inlineStr"/>
+      <c r="G118" s="6" t="inlineStr">
         <is>
           <t>EGRAEPEY059</t>
         </is>
       </c>
-      <c r="G118" s="6" t="inlineStr">
+      <c r="H118" s="6" t="inlineStr">
         <is>
           <t>EGRAEPEY059</t>
         </is>
       </c>
-      <c r="H118" s="6" t="inlineStr">
+      <c r="I118" s="6" t="inlineStr">
         <is>
           <t>PEGRAK90012_SHR</t>
         </is>
       </c>
-      <c r="I118" s="6" t="inlineStr"/>
+      <c r="J118" s="6" t="inlineStr"/>
     </row>
     <row r="119" ht="36" customHeight="1">
       <c r="A119" s="12" t="inlineStr">
@@ -7610,22 +7648,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F119" s="4" t="inlineStr">
+      <c r="F119" s="4" t="inlineStr"/>
+      <c r="G119" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G119" s="4" t="inlineStr">
+      <c r="H119" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H119" s="4" t="inlineStr">
+      <c r="I119" s="4" t="inlineStr">
         <is>
           <t>IGRF000298007, IGRF000416005</t>
         </is>
       </c>
-      <c r="I119" s="4" t="inlineStr"/>
+      <c r="J119" s="4" t="inlineStr"/>
     </row>
     <row r="120" ht="36" customHeight="1">
       <c r="A120" s="10" t="inlineStr">
@@ -7651,22 +7690,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F120" s="6" t="inlineStr">
+      <c r="F120" s="6" t="inlineStr"/>
+      <c r="G120" s="6" t="inlineStr">
         <is>
           <t>EGR999984680</t>
         </is>
       </c>
-      <c r="G120" s="6" t="inlineStr">
+      <c r="H120" s="6" t="inlineStr">
         <is>
           <t>EGR999984680</t>
         </is>
       </c>
-      <c r="H120" s="6" t="inlineStr">
+      <c r="I120" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01061_SHR</t>
         </is>
       </c>
-      <c r="I120" s="6" t="inlineStr"/>
+      <c r="J120" s="6" t="inlineStr"/>
     </row>
     <row r="121" ht="36" customHeight="1">
       <c r="A121" s="12" t="inlineStr">
@@ -7692,22 +7732,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F121" s="4" t="inlineStr">
+      <c r="F121" s="4" t="inlineStr"/>
+      <c r="G121" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G121" s="4" t="inlineStr">
+      <c r="H121" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H121" s="4" t="inlineStr">
+      <c r="I121" s="4" t="inlineStr">
         <is>
           <t>IGRF000068004</t>
         </is>
       </c>
-      <c r="I121" s="4" t="inlineStr"/>
+      <c r="J121" s="4" t="inlineStr"/>
     </row>
     <row r="122" ht="36" customHeight="1">
       <c r="A122" s="10" t="inlineStr">
@@ -7733,22 +7774,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F122" s="6" t="inlineStr">
+      <c r="F122" s="6" t="inlineStr"/>
+      <c r="G122" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G122" s="6" t="inlineStr">
+      <c r="H122" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H122" s="6" t="inlineStr">
+      <c r="I122" s="6" t="inlineStr">
         <is>
           <t>IGRF000061009, IGRF000327004</t>
         </is>
       </c>
-      <c r="I122" s="6" t="inlineStr"/>
+      <c r="J122" s="6" t="inlineStr"/>
     </row>
     <row r="123" ht="36" customHeight="1">
       <c r="A123" s="12" t="inlineStr">
@@ -7774,22 +7816,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F123" s="4" t="inlineStr">
+      <c r="F123" s="4" t="inlineStr"/>
+      <c r="G123" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G123" s="4" t="inlineStr">
+      <c r="H123" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H123" s="4" t="inlineStr">
+      <c r="I123" s="4" t="inlineStr">
         <is>
           <t>IGRF000335007</t>
         </is>
       </c>
-      <c r="I123" s="4" t="inlineStr"/>
+      <c r="J123" s="4" t="inlineStr"/>
     </row>
     <row r="124" ht="36" customHeight="1">
       <c r="A124" s="10" t="inlineStr">
@@ -7815,22 +7858,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F124" s="6" t="inlineStr">
+      <c r="F124" s="6" t="inlineStr"/>
+      <c r="G124" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G124" s="6" t="inlineStr">
+      <c r="H124" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H124" s="6" t="inlineStr">
+      <c r="I124" s="6" t="inlineStr">
         <is>
           <t>IGRF000063005, IGRF000305000</t>
         </is>
       </c>
-      <c r="I124" s="6" t="inlineStr"/>
+      <c r="J124" s="6" t="inlineStr"/>
     </row>
     <row r="125" ht="36" customHeight="1">
       <c r="A125" s="12" t="inlineStr">
@@ -7856,22 +7900,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F125" s="4" t="inlineStr">
+      <c r="F125" s="4" t="inlineStr"/>
+      <c r="G125" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G125" s="4" t="inlineStr">
+      <c r="H125" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H125" s="4" t="inlineStr">
+      <c r="I125" s="4" t="inlineStr">
         <is>
           <t>IGRF000112000, IGRF000258001</t>
         </is>
       </c>
-      <c r="I125" s="4" t="inlineStr"/>
+      <c r="J125" s="4" t="inlineStr"/>
     </row>
     <row r="126" ht="36" customHeight="1">
       <c r="A126" s="10" t="inlineStr">
@@ -7881,7 +7926,7 @@
       </c>
       <c r="B126" s="6" t="inlineStr">
         <is>
-          <t>BGR120108101000, L213800QM2ZFRARYU6C87, TGR800397001</t>
+          <t>L213800QM2ZFRARYU6C87, BGR120108101000, TGR800397001</t>
         </is>
       </c>
       <c r="C126" s="11" t="n">
@@ -7898,17 +7943,18 @@
         </is>
       </c>
       <c r="F126" s="6" t="inlineStr"/>
-      <c r="G126" s="6" t="inlineStr">
+      <c r="G126" s="6" t="inlineStr"/>
+      <c r="H126" s="6" t="inlineStr">
         <is>
           <t>EGRAEEAP005</t>
         </is>
       </c>
-      <c r="H126" s="6" t="inlineStr">
+      <c r="I126" s="6" t="inlineStr">
         <is>
           <t>IGRS516003001</t>
         </is>
       </c>
-      <c r="I126" s="6" t="inlineStr"/>
+      <c r="J126" s="6" t="inlineStr"/>
     </row>
     <row r="127" ht="36" customHeight="1">
       <c r="A127" s="12" t="inlineStr">
@@ -7934,22 +7980,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F127" s="4" t="inlineStr">
+      <c r="F127" s="4" t="inlineStr"/>
+      <c r="G127" s="4" t="inlineStr">
         <is>
           <t>EGR800398384</t>
         </is>
       </c>
-      <c r="G127" s="4" t="inlineStr">
+      <c r="H127" s="4" t="inlineStr">
         <is>
           <t>EGR800398384</t>
         </is>
       </c>
-      <c r="H127" s="4" t="inlineStr">
+      <c r="I127" s="4" t="inlineStr">
         <is>
           <t>PEGRAK90007_SHR</t>
         </is>
       </c>
-      <c r="I127" s="4" t="inlineStr"/>
+      <c r="J127" s="4" t="inlineStr"/>
     </row>
     <row r="128" ht="36" customHeight="1">
       <c r="A128" s="10" t="inlineStr">
@@ -7975,22 +8022,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F128" s="6" t="inlineStr">
+      <c r="F128" s="6" t="inlineStr"/>
+      <c r="G128" s="6" t="inlineStr">
         <is>
           <t>EGR800433747</t>
         </is>
       </c>
-      <c r="G128" s="6" t="inlineStr">
+      <c r="H128" s="6" t="inlineStr">
         <is>
           <t>EGR800433747</t>
         </is>
       </c>
-      <c r="H128" s="6" t="inlineStr">
+      <c r="I128" s="6" t="inlineStr">
         <is>
           <t>PEGRAK90006_SHR</t>
         </is>
       </c>
-      <c r="I128" s="6" t="inlineStr"/>
+      <c r="J128" s="6" t="inlineStr"/>
     </row>
     <row r="129" ht="36" customHeight="1">
       <c r="A129" s="12" t="inlineStr">
@@ -8016,22 +8064,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F129" s="4" t="inlineStr">
+      <c r="F129" s="4" t="inlineStr"/>
+      <c r="G129" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G129" s="4" t="inlineStr">
+      <c r="H129" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H129" s="4" t="inlineStr">
+      <c r="I129" s="4" t="inlineStr">
         <is>
           <t>IGRF000081007</t>
         </is>
       </c>
-      <c r="I129" s="4" t="inlineStr"/>
+      <c r="J129" s="4" t="inlineStr"/>
     </row>
     <row r="130" ht="36" customHeight="1">
       <c r="A130" s="10" t="inlineStr">
@@ -8057,22 +8106,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F130" s="6" t="inlineStr">
+      <c r="F130" s="6" t="inlineStr"/>
+      <c r="G130" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G130" s="6" t="inlineStr">
+      <c r="H130" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H130" s="6" t="inlineStr">
+      <c r="I130" s="6" t="inlineStr">
         <is>
           <t>IGRF000215001</t>
         </is>
       </c>
-      <c r="I130" s="6" t="inlineStr"/>
+      <c r="J130" s="6" t="inlineStr"/>
     </row>
     <row r="131" ht="36" customHeight="1">
       <c r="A131" s="12" t="inlineStr">
@@ -8082,7 +8132,7 @@
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>BGR128686346000, TGR997656128, L213800Q23BDHSW1OQT90</t>
+          <t>TGR997656128, BGR128686346000, L213800Q23BDHSW1OQT90</t>
         </is>
       </c>
       <c r="C131" s="13" t="n">
@@ -8099,17 +8149,18 @@
         </is>
       </c>
       <c r="F131" s="4" t="inlineStr"/>
-      <c r="G131" s="4" t="inlineStr">
+      <c r="G131" s="4" t="inlineStr"/>
+      <c r="H131" s="4" t="inlineStr">
         <is>
           <t>EGRAEEAP007</t>
         </is>
       </c>
-      <c r="H131" s="4" t="inlineStr">
+      <c r="I131" s="4" t="inlineStr">
         <is>
           <t>IGRS524003001</t>
         </is>
       </c>
-      <c r="I131" s="4" t="inlineStr"/>
+      <c r="J131" s="4" t="inlineStr"/>
     </row>
     <row r="132" ht="36" customHeight="1">
       <c r="A132" s="10" t="inlineStr">
@@ -8135,22 +8186,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F132" s="6" t="inlineStr">
+      <c r="F132" s="6" t="inlineStr"/>
+      <c r="G132" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G132" s="6" t="inlineStr">
+      <c r="H132" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H132" s="6" t="inlineStr">
+      <c r="I132" s="6" t="inlineStr">
         <is>
           <t>IGRF000093002</t>
         </is>
       </c>
-      <c r="I132" s="6" t="inlineStr"/>
+      <c r="J132" s="6" t="inlineStr"/>
     </row>
     <row r="133" ht="36" customHeight="1">
       <c r="A133" s="12" t="inlineStr">
@@ -8160,7 +8212,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>BGR131359701000, L213800DDNBUCO6A2RT84, TGR800596087</t>
+          <t>L213800DDNBUCO6A2RT84, BGR131359701000, TGR800596087</t>
         </is>
       </c>
       <c r="C133" s="13" t="n">
@@ -8176,22 +8228,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F133" s="4" t="inlineStr">
+      <c r="F133" s="4" t="inlineStr"/>
+      <c r="G133" s="4" t="inlineStr">
         <is>
           <t>EGR998642355</t>
         </is>
       </c>
-      <c r="G133" s="4" t="inlineStr">
-        <is>
-          <t>EGREKES001</t>
-        </is>
-      </c>
       <c r="H133" s="4" t="inlineStr">
         <is>
+          <t>EGR998642355</t>
+        </is>
+      </c>
+      <c r="I133" s="4" t="inlineStr">
+        <is>
           <t>IGRS520003005</t>
         </is>
       </c>
-      <c r="I133" s="4" t="inlineStr"/>
+      <c r="J133" s="4" t="inlineStr"/>
     </row>
     <row r="134" ht="36" customHeight="1">
       <c r="A134" s="10" t="inlineStr">
@@ -8217,22 +8270,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F134" s="6" t="inlineStr">
+      <c r="F134" s="6" t="inlineStr"/>
+      <c r="G134" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G134" s="6" t="inlineStr">
+      <c r="H134" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H134" s="6" t="inlineStr">
+      <c r="I134" s="6" t="inlineStr">
         <is>
           <t>IGRF000214004</t>
         </is>
       </c>
-      <c r="I134" s="6" t="inlineStr"/>
+      <c r="J134" s="6" t="inlineStr"/>
     </row>
     <row r="135" ht="36" customHeight="1">
       <c r="A135" s="12" t="inlineStr">
@@ -8258,22 +8312,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F135" s="4" t="inlineStr">
+      <c r="F135" s="4" t="inlineStr"/>
+      <c r="G135" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G135" s="4" t="inlineStr">
+      <c r="H135" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H135" s="4" t="inlineStr">
+      <c r="I135" s="4" t="inlineStr">
         <is>
           <t>IGRF000135001, IGRF000136009</t>
         </is>
       </c>
-      <c r="I135" s="4" t="inlineStr"/>
+      <c r="J135" s="4" t="inlineStr"/>
     </row>
     <row r="136" ht="36" customHeight="1">
       <c r="A136" s="10" t="inlineStr">
@@ -8299,22 +8354,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F136" s="6" t="inlineStr">
+      <c r="F136" s="6" t="inlineStr"/>
+      <c r="G136" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G136" s="6" t="inlineStr">
+      <c r="H136" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H136" s="6" t="inlineStr">
+      <c r="I136" s="6" t="inlineStr">
         <is>
           <t>IGRF000154002</t>
         </is>
       </c>
-      <c r="I136" s="6" t="inlineStr"/>
+      <c r="J136" s="6" t="inlineStr"/>
     </row>
     <row r="137" ht="36" customHeight="1">
       <c r="A137" s="12" t="inlineStr">
@@ -8324,7 +8380,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>L213800TBZBVWRUAOPV78, BGR140330201000, TGR997521479</t>
+          <t>BGR140330201000, TGR997521479, L213800TBZBVWRUAOPV78</t>
         </is>
       </c>
       <c r="C137" s="13" t="n">
@@ -8341,17 +8397,18 @@
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr"/>
-      <c r="G137" s="4" t="inlineStr">
+      <c r="G137" s="4" t="inlineStr"/>
+      <c r="H137" s="4" t="inlineStr">
         <is>
           <t>EGRAEEAP006</t>
         </is>
       </c>
-      <c r="H137" s="4" t="inlineStr">
+      <c r="I137" s="4" t="inlineStr">
         <is>
           <t>IGRS517003000</t>
         </is>
       </c>
-      <c r="I137" s="4" t="inlineStr"/>
+      <c r="J137" s="4" t="inlineStr"/>
     </row>
     <row r="138" ht="36" customHeight="1">
       <c r="A138" s="10" t="inlineStr">
@@ -8377,22 +8434,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F138" s="6" t="inlineStr">
+      <c r="F138" s="6" t="inlineStr"/>
+      <c r="G138" s="6" t="inlineStr">
         <is>
           <t>EGR800792234</t>
         </is>
       </c>
-      <c r="G138" s="6" t="inlineStr">
+      <c r="H138" s="6" t="inlineStr">
         <is>
           <t>EGR800792234</t>
         </is>
       </c>
-      <c r="H138" s="6" t="inlineStr">
+      <c r="I138" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01062_SHR</t>
         </is>
       </c>
-      <c r="I138" s="6" t="inlineStr"/>
+      <c r="J138" s="6" t="inlineStr"/>
     </row>
     <row r="139" ht="36" customHeight="1">
       <c r="A139" s="12" t="inlineStr">
@@ -8418,22 +8476,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F139" s="4" t="inlineStr">
+      <c r="F139" s="4" t="inlineStr"/>
+      <c r="G139" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G139" s="4" t="inlineStr">
+      <c r="H139" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H139" s="4" t="inlineStr">
+      <c r="I139" s="4" t="inlineStr">
         <is>
           <t>IGRF000163003</t>
         </is>
       </c>
-      <c r="I139" s="4" t="inlineStr"/>
+      <c r="J139" s="4" t="inlineStr"/>
     </row>
     <row r="140" ht="36" customHeight="1">
       <c r="A140" s="10" t="inlineStr">
@@ -8459,22 +8518,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F140" s="6" t="inlineStr">
+      <c r="F140" s="6" t="inlineStr"/>
+      <c r="G140" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G140" s="6" t="inlineStr">
+      <c r="H140" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H140" s="6" t="inlineStr">
+      <c r="I140" s="6" t="inlineStr">
         <is>
           <t>IGRF000162005</t>
         </is>
       </c>
-      <c r="I140" s="6" t="inlineStr"/>
+      <c r="J140" s="6" t="inlineStr"/>
     </row>
     <row r="141" ht="36" customHeight="1">
       <c r="A141" s="12" t="inlineStr">
@@ -8500,22 +8560,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F141" s="4" t="inlineStr">
+      <c r="F141" s="4" t="inlineStr"/>
+      <c r="G141" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G141" s="4" t="inlineStr">
+      <c r="H141" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H141" s="4" t="inlineStr">
+      <c r="I141" s="4" t="inlineStr">
         <is>
           <t>IGRF000164001, IGRF000177003</t>
         </is>
       </c>
-      <c r="I141" s="4" t="inlineStr"/>
+      <c r="J141" s="4" t="inlineStr"/>
     </row>
     <row r="142" ht="36" customHeight="1">
       <c r="A142" s="10" t="inlineStr">
@@ -8541,22 +8602,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F142" s="6" t="inlineStr">
+      <c r="F142" s="6" t="inlineStr"/>
+      <c r="G142" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G142" s="6" t="inlineStr">
+      <c r="H142" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H142" s="6" t="inlineStr">
+      <c r="I142" s="6" t="inlineStr">
         <is>
           <t>IGRF000166006, IGRF000167004, IGRF000178001</t>
         </is>
       </c>
-      <c r="I142" s="6" t="inlineStr"/>
+      <c r="J142" s="6" t="inlineStr"/>
     </row>
     <row r="143" ht="36" customHeight="1">
       <c r="A143" s="12" t="inlineStr">
@@ -8582,22 +8644,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F143" s="4" t="inlineStr">
+      <c r="F143" s="4" t="inlineStr"/>
+      <c r="G143" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G143" s="4" t="inlineStr">
+      <c r="H143" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H143" s="4" t="inlineStr">
+      <c r="I143" s="4" t="inlineStr">
         <is>
           <t>IGRF000168002, IGRF000169000, IGRF000179009</t>
         </is>
       </c>
-      <c r="I143" s="4" t="inlineStr"/>
+      <c r="J143" s="4" t="inlineStr"/>
     </row>
     <row r="144" ht="36" customHeight="1">
       <c r="A144" s="10" t="inlineStr">
@@ -8623,22 +8686,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F144" s="6" t="inlineStr">
+      <c r="F144" s="6" t="inlineStr"/>
+      <c r="G144" s="6" t="inlineStr">
         <is>
           <t>EGR800911079</t>
         </is>
       </c>
-      <c r="G144" s="6" t="inlineStr">
+      <c r="H144" s="6" t="inlineStr">
         <is>
           <t>EGR800911079</t>
         </is>
       </c>
-      <c r="H144" s="6" t="inlineStr">
+      <c r="I144" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01070_SHR</t>
         </is>
       </c>
-      <c r="I144" s="6" t="inlineStr"/>
+      <c r="J144" s="6" t="inlineStr"/>
     </row>
     <row r="145" ht="36" customHeight="1">
       <c r="A145" s="12" t="inlineStr">
@@ -8660,22 +8724,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F145" s="4" t="inlineStr">
+      <c r="F145" s="4" t="inlineStr"/>
+      <c r="G145" s="4" t="inlineStr">
         <is>
           <t>EGR800903737</t>
         </is>
       </c>
-      <c r="G145" s="4" t="inlineStr">
+      <c r="H145" s="4" t="inlineStr">
         <is>
           <t>EGR800903737</t>
         </is>
       </c>
-      <c r="H145" s="4" t="inlineStr">
+      <c r="I145" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01064_SHR</t>
         </is>
       </c>
-      <c r="I145" s="4" t="inlineStr"/>
+      <c r="J145" s="4" t="inlineStr"/>
     </row>
     <row r="146" ht="36" customHeight="1">
       <c r="A146" s="10" t="inlineStr">
@@ -8701,22 +8766,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F146" s="6" t="inlineStr">
+      <c r="F146" s="6" t="inlineStr"/>
+      <c r="G146" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G146" s="6" t="inlineStr">
+      <c r="H146" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H146" s="6" t="inlineStr">
+      <c r="I146" s="6" t="inlineStr">
         <is>
           <t>IGRF000181005, IGRF000385002</t>
         </is>
       </c>
-      <c r="I146" s="6" t="inlineStr"/>
+      <c r="J146" s="6" t="inlineStr"/>
     </row>
     <row r="147" ht="36" customHeight="1">
       <c r="A147" s="12" t="inlineStr">
@@ -8742,22 +8808,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F147" s="4" t="inlineStr">
+      <c r="F147" s="4" t="inlineStr"/>
+      <c r="G147" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G147" s="4" t="inlineStr">
+      <c r="H147" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H147" s="4" t="inlineStr">
+      <c r="I147" s="4" t="inlineStr">
         <is>
           <t>IGRF000243003, IGRF000244001</t>
         </is>
       </c>
-      <c r="I147" s="4" t="inlineStr"/>
+      <c r="J147" s="4" t="inlineStr"/>
     </row>
     <row r="148" ht="36" customHeight="1">
       <c r="A148" s="10" t="inlineStr">
@@ -8767,7 +8834,7 @@
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
-          <t>TGR801077433, BGR148547901000, L213800DTEZE6R8BZ9K19</t>
+          <t>TGR801077433, L213800DTEZE6R8BZ9K19, BGR148547901000</t>
         </is>
       </c>
       <c r="C148" s="11" t="n">
@@ -8784,17 +8851,18 @@
         </is>
       </c>
       <c r="F148" s="6" t="inlineStr"/>
-      <c r="G148" s="6" t="inlineStr">
+      <c r="G148" s="6" t="inlineStr"/>
+      <c r="H148" s="6" t="inlineStr">
         <is>
           <t>EGRAEEAP008</t>
         </is>
       </c>
-      <c r="H148" s="6" t="inlineStr">
+      <c r="I148" s="6" t="inlineStr">
         <is>
           <t>IGRS535003008</t>
         </is>
       </c>
-      <c r="I148" s="6" t="inlineStr"/>
+      <c r="J148" s="6" t="inlineStr"/>
     </row>
     <row r="149" ht="36" customHeight="1">
       <c r="A149" s="12" t="inlineStr">
@@ -8820,22 +8888,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F149" s="4" t="inlineStr">
+      <c r="F149" s="4" t="inlineStr"/>
+      <c r="G149" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G149" s="4" t="inlineStr">
+      <c r="H149" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H149" s="4" t="inlineStr">
+      <c r="I149" s="4" t="inlineStr">
         <is>
           <t>IGRF000170008, IGRF000171006</t>
         </is>
       </c>
-      <c r="I149" s="4" t="inlineStr"/>
+      <c r="J149" s="4" t="inlineStr"/>
     </row>
     <row r="150" ht="36" customHeight="1">
       <c r="A150" s="10" t="inlineStr">
@@ -8861,22 +8930,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F150" s="6" t="inlineStr">
+      <c r="F150" s="6" t="inlineStr"/>
+      <c r="G150" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G150" s="6" t="inlineStr">
+      <c r="H150" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H150" s="6" t="inlineStr">
+      <c r="I150" s="6" t="inlineStr">
         <is>
           <t>IGRF000332004</t>
         </is>
       </c>
-      <c r="I150" s="6" t="inlineStr"/>
+      <c r="J150" s="6" t="inlineStr"/>
     </row>
     <row r="151" ht="36" customHeight="1">
       <c r="A151" s="12" t="inlineStr">
@@ -8902,22 +8972,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F151" s="4" t="inlineStr">
+      <c r="F151" s="4" t="inlineStr"/>
+      <c r="G151" s="4" t="inlineStr">
         <is>
           <t>EGR999984680</t>
         </is>
       </c>
-      <c r="G151" s="4" t="inlineStr">
+      <c r="H151" s="4" t="inlineStr">
         <is>
           <t>EGR999984680</t>
         </is>
       </c>
-      <c r="H151" s="4" t="inlineStr">
+      <c r="I151" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01068_SHR</t>
         </is>
       </c>
-      <c r="I151" s="4" t="inlineStr"/>
+      <c r="J151" s="4" t="inlineStr"/>
     </row>
     <row r="152" ht="36" customHeight="1">
       <c r="A152" s="10" t="inlineStr">
@@ -8927,7 +8998,7 @@
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>BGR152321260000, L213800XKY8GHKN57D970, TGR996899546</t>
+          <t>L213800XKY8GHKN57D970, BGR152321260000, TGR996899546</t>
         </is>
       </c>
       <c r="C152" s="11" t="n">
@@ -8944,17 +9015,18 @@
         </is>
       </c>
       <c r="F152" s="6" t="inlineStr"/>
-      <c r="G152" s="6" t="inlineStr">
+      <c r="G152" s="6" t="inlineStr"/>
+      <c r="H152" s="6" t="inlineStr">
         <is>
           <t>EGRAEEAP010</t>
         </is>
       </c>
-      <c r="H152" s="6" t="inlineStr">
+      <c r="I152" s="6" t="inlineStr">
         <is>
           <t>IGRS824003008</t>
         </is>
       </c>
-      <c r="I152" s="6" t="inlineStr">
+      <c r="J152" s="6" t="inlineStr">
         <is>
           <t>IGRC824121CD0</t>
         </is>
@@ -8984,22 +9056,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F153" s="4" t="inlineStr">
+      <c r="F153" s="4" t="inlineStr"/>
+      <c r="G153" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G153" s="4" t="inlineStr">
+      <c r="H153" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H153" s="4" t="inlineStr">
+      <c r="I153" s="4" t="inlineStr">
         <is>
           <t>IGRF000329000</t>
         </is>
       </c>
-      <c r="I153" s="4" t="inlineStr"/>
+      <c r="J153" s="4" t="inlineStr"/>
     </row>
     <row r="154" ht="36" customHeight="1">
       <c r="A154" s="10" t="inlineStr">
@@ -9025,22 +9098,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F154" s="6" t="inlineStr">
+      <c r="F154" s="6" t="inlineStr"/>
+      <c r="G154" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G154" s="6" t="inlineStr">
+      <c r="H154" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H154" s="6" t="inlineStr">
+      <c r="I154" s="6" t="inlineStr">
         <is>
           <t>IGRF000323003, IGRF000324001, IGRF000325008, IGRF000326006</t>
         </is>
       </c>
-      <c r="I154" s="6" t="inlineStr"/>
+      <c r="J154" s="6" t="inlineStr"/>
     </row>
     <row r="155" ht="36" customHeight="1">
       <c r="A155" s="12" t="inlineStr">
@@ -9062,22 +9136,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F155" s="4" t="inlineStr">
+      <c r="F155" s="4" t="inlineStr"/>
+      <c r="G155" s="4" t="inlineStr">
         <is>
           <t>EGR801322351</t>
         </is>
       </c>
-      <c r="G155" s="4" t="inlineStr">
+      <c r="H155" s="4" t="inlineStr">
         <is>
           <t>EGR801322351</t>
         </is>
       </c>
-      <c r="H155" s="4" t="inlineStr">
+      <c r="I155" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01069_SHR</t>
         </is>
       </c>
-      <c r="I155" s="4" t="inlineStr"/>
+      <c r="J155" s="4" t="inlineStr"/>
     </row>
     <row r="156" ht="36" customHeight="1">
       <c r="A156" s="10" t="inlineStr">
@@ -9103,22 +9178,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F156" s="6" t="inlineStr">
+      <c r="F156" s="6" t="inlineStr"/>
+      <c r="G156" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G156" s="6" t="inlineStr">
+      <c r="H156" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H156" s="6" t="inlineStr">
+      <c r="I156" s="6" t="inlineStr">
         <is>
           <t>IGRF000337003</t>
         </is>
       </c>
-      <c r="I156" s="6" t="inlineStr"/>
+      <c r="J156" s="6" t="inlineStr"/>
     </row>
     <row r="157" ht="36" customHeight="1">
       <c r="A157" s="12" t="inlineStr">
@@ -9144,22 +9220,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F157" s="4" t="inlineStr">
+      <c r="F157" s="4" t="inlineStr"/>
+      <c r="G157" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="G157" s="4" t="inlineStr">
+      <c r="H157" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="H157" s="4" t="inlineStr">
+      <c r="I157" s="4" t="inlineStr">
         <is>
           <t>IGRF000338001</t>
         </is>
       </c>
-      <c r="I157" s="4" t="inlineStr"/>
+      <c r="J157" s="4" t="inlineStr"/>
     </row>
     <row r="158" ht="36" customHeight="1">
       <c r="A158" s="10" t="inlineStr">
@@ -9185,22 +9262,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F158" s="6" t="inlineStr">
+      <c r="F158" s="6" t="inlineStr"/>
+      <c r="G158" s="6" t="inlineStr">
         <is>
           <t>EGR800792234</t>
         </is>
       </c>
-      <c r="G158" s="6" t="inlineStr">
+      <c r="H158" s="6" t="inlineStr">
         <is>
           <t>EGR800792234</t>
         </is>
       </c>
-      <c r="H158" s="6" t="inlineStr">
+      <c r="I158" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01063_SHR</t>
         </is>
       </c>
-      <c r="I158" s="6" t="inlineStr"/>
+      <c r="J158" s="6" t="inlineStr"/>
     </row>
     <row r="159" ht="36" customHeight="1">
       <c r="A159" s="12" t="inlineStr">
@@ -9226,22 +9304,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F159" s="4" t="inlineStr">
+      <c r="F159" s="4" t="inlineStr"/>
+      <c r="G159" s="4" t="inlineStr">
         <is>
           <t>EGR801446949</t>
         </is>
       </c>
-      <c r="G159" s="4" t="inlineStr">
+      <c r="H159" s="4" t="inlineStr">
         <is>
           <t>EGR801446949</t>
         </is>
       </c>
-      <c r="H159" s="4" t="inlineStr">
+      <c r="I159" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01060_SHR</t>
         </is>
       </c>
-      <c r="I159" s="4" t="inlineStr"/>
+      <c r="J159" s="4" t="inlineStr"/>
     </row>
     <row r="160" ht="36" customHeight="1">
       <c r="A160" s="10" t="inlineStr">
@@ -9263,22 +9342,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F160" s="6" t="inlineStr">
+      <c r="F160" s="6" t="inlineStr"/>
+      <c r="G160" s="6" t="inlineStr">
         <is>
           <t>EGR801446716</t>
         </is>
       </c>
-      <c r="G160" s="6" t="inlineStr">
+      <c r="H160" s="6" t="inlineStr">
         <is>
           <t>EGR801446716</t>
         </is>
       </c>
-      <c r="H160" s="6" t="inlineStr">
+      <c r="I160" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01058_SHR</t>
         </is>
       </c>
-      <c r="I160" s="6" t="inlineStr"/>
+      <c r="J160" s="6" t="inlineStr"/>
     </row>
     <row r="161" ht="36" customHeight="1">
       <c r="A161" s="12" t="inlineStr">
@@ -9304,22 +9384,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F161" s="4" t="inlineStr">
+      <c r="F161" s="4" t="inlineStr"/>
+      <c r="G161" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G161" s="4" t="inlineStr">
+      <c r="H161" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H161" s="4" t="inlineStr">
+      <c r="I161" s="4" t="inlineStr">
         <is>
           <t>IGRF000341005</t>
         </is>
       </c>
-      <c r="I161" s="4" t="inlineStr"/>
+      <c r="J161" s="4" t="inlineStr"/>
     </row>
     <row r="162" ht="36" customHeight="1">
       <c r="A162" s="10" t="inlineStr">
@@ -9345,22 +9426,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F162" s="6" t="inlineStr">
+      <c r="F162" s="6" t="inlineStr"/>
+      <c r="G162" s="6" t="inlineStr">
         <is>
           <t>EGR801296864</t>
         </is>
       </c>
-      <c r="G162" s="6" t="inlineStr">
+      <c r="H162" s="6" t="inlineStr">
         <is>
           <t>EGR801296864</t>
         </is>
       </c>
-      <c r="H162" s="6" t="inlineStr">
+      <c r="I162" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01027_SHR</t>
         </is>
       </c>
-      <c r="I162" s="6" t="inlineStr"/>
+      <c r="J162" s="6" t="inlineStr"/>
     </row>
     <row r="163" ht="36" customHeight="1">
       <c r="A163" s="12" t="inlineStr">
@@ -9386,22 +9468,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F163" s="4" t="inlineStr">
+      <c r="F163" s="4" t="inlineStr"/>
+      <c r="G163" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G163" s="4" t="inlineStr">
+      <c r="H163" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H163" s="4" t="inlineStr">
+      <c r="I163" s="4" t="inlineStr">
         <is>
           <t>IGRF000342003, PEGRAK01102_SHR</t>
         </is>
       </c>
-      <c r="I163" s="4" t="inlineStr"/>
+      <c r="J163" s="4" t="inlineStr"/>
     </row>
     <row r="164" ht="36" customHeight="1">
       <c r="A164" s="10" t="inlineStr">
@@ -9423,22 +9506,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F164" s="6" t="inlineStr">
+      <c r="F164" s="6" t="inlineStr"/>
+      <c r="G164" s="6" t="inlineStr">
         <is>
           <t>EGR801470046</t>
         </is>
       </c>
-      <c r="G164" s="6" t="inlineStr">
+      <c r="H164" s="6" t="inlineStr">
         <is>
           <t>EGR801470046</t>
         </is>
       </c>
-      <c r="H164" s="6" t="inlineStr">
+      <c r="I164" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01066_SHR</t>
         </is>
       </c>
-      <c r="I164" s="6" t="inlineStr"/>
+      <c r="J164" s="6" t="inlineStr"/>
     </row>
     <row r="165" ht="36" customHeight="1">
       <c r="A165" s="12" t="inlineStr">
@@ -9464,22 +9548,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F165" s="4" t="inlineStr">
+      <c r="F165" s="4" t="inlineStr"/>
+      <c r="G165" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G165" s="4" t="inlineStr">
+      <c r="H165" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H165" s="4" t="inlineStr">
+      <c r="I165" s="4" t="inlineStr">
         <is>
           <t>IGRF000343001</t>
         </is>
       </c>
-      <c r="I165" s="4" t="inlineStr"/>
+      <c r="J165" s="4" t="inlineStr"/>
     </row>
     <row r="166" ht="36" customHeight="1">
       <c r="A166" s="10" t="inlineStr">
@@ -9505,22 +9590,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F166" s="6" t="inlineStr">
+      <c r="F166" s="6" t="inlineStr"/>
+      <c r="G166" s="6" t="inlineStr">
         <is>
           <t>EGR801554045</t>
         </is>
       </c>
-      <c r="G166" s="6" t="inlineStr">
+      <c r="H166" s="6" t="inlineStr">
         <is>
           <t>EGR801554045</t>
         </is>
       </c>
-      <c r="H166" s="6" t="inlineStr">
+      <c r="I166" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01059_SHR</t>
         </is>
       </c>
-      <c r="I166" s="6" t="inlineStr"/>
+      <c r="J166" s="6" t="inlineStr"/>
     </row>
     <row r="167" ht="36" customHeight="1">
       <c r="A167" s="12" t="inlineStr">
@@ -9530,7 +9616,7 @@
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>TGR996805731, L2138006STLTDFRIZTC42, BGR160110060000</t>
+          <t>TGR996805731, BGR160110060000, L2138006STLTDFRIZTC42</t>
         </is>
       </c>
       <c r="C167" s="13" t="n">
@@ -9547,17 +9633,18 @@
         </is>
       </c>
       <c r="F167" s="4" t="inlineStr"/>
-      <c r="G167" s="4" t="inlineStr">
+      <c r="G167" s="4" t="inlineStr"/>
+      <c r="H167" s="4" t="inlineStr">
         <is>
           <t>EGRAEEAP009</t>
         </is>
       </c>
-      <c r="H167" s="4" t="inlineStr">
+      <c r="I167" s="4" t="inlineStr">
         <is>
           <t>IGRS534003009</t>
         </is>
       </c>
-      <c r="I167" s="4" t="inlineStr"/>
+      <c r="J167" s="4" t="inlineStr"/>
     </row>
     <row r="168" ht="36" customHeight="1">
       <c r="A168" s="10" t="inlineStr">
@@ -9583,22 +9670,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F168" s="6" t="inlineStr">
+      <c r="F168" s="6" t="inlineStr"/>
+      <c r="G168" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G168" s="6" t="inlineStr">
+      <c r="H168" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H168" s="6" t="inlineStr">
+      <c r="I168" s="6" t="inlineStr">
         <is>
           <t>IGRF000351004, IGRF000352002, IGRF000494002</t>
         </is>
       </c>
-      <c r="I168" s="6" t="inlineStr"/>
+      <c r="J168" s="6" t="inlineStr"/>
     </row>
     <row r="169" ht="36" customHeight="1">
       <c r="A169" s="12" t="inlineStr">
@@ -9624,22 +9712,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F169" s="4" t="inlineStr">
+      <c r="F169" s="4" t="inlineStr"/>
+      <c r="G169" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G169" s="4" t="inlineStr">
+      <c r="H169" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H169" s="4" t="inlineStr">
+      <c r="I169" s="4" t="inlineStr">
         <is>
           <t>IGRF000353000</t>
         </is>
       </c>
-      <c r="I169" s="4" t="inlineStr"/>
+      <c r="J169" s="4" t="inlineStr"/>
     </row>
     <row r="170" ht="36" customHeight="1">
       <c r="A170" s="10" t="inlineStr">
@@ -9665,22 +9754,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F170" s="6" t="inlineStr">
+      <c r="F170" s="6" t="inlineStr"/>
+      <c r="G170" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G170" s="6" t="inlineStr">
+      <c r="H170" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H170" s="6" t="inlineStr">
+      <c r="I170" s="6" t="inlineStr">
         <is>
           <t>IGRF000356003</t>
         </is>
       </c>
-      <c r="I170" s="6" t="inlineStr"/>
+      <c r="J170" s="6" t="inlineStr"/>
     </row>
     <row r="171" ht="36" customHeight="1">
       <c r="A171" s="12" t="inlineStr">
@@ -9706,22 +9796,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F171" s="4" t="inlineStr">
+      <c r="F171" s="4" t="inlineStr"/>
+      <c r="G171" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G171" s="4" t="inlineStr">
+      <c r="H171" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H171" s="4" t="inlineStr">
+      <c r="I171" s="4" t="inlineStr">
         <is>
           <t>IGRF000363009</t>
         </is>
       </c>
-      <c r="I171" s="4" t="inlineStr"/>
+      <c r="J171" s="4" t="inlineStr"/>
     </row>
     <row r="172" ht="36" customHeight="1">
       <c r="A172" s="10" t="inlineStr">
@@ -9747,22 +9838,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F172" s="6" t="inlineStr">
+      <c r="F172" s="6" t="inlineStr"/>
+      <c r="G172" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G172" s="6" t="inlineStr">
+      <c r="H172" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H172" s="6" t="inlineStr">
+      <c r="I172" s="6" t="inlineStr">
         <is>
           <t>IGRF000365004, IGRF000367000</t>
         </is>
       </c>
-      <c r="I172" s="6" t="inlineStr"/>
+      <c r="J172" s="6" t="inlineStr"/>
     </row>
     <row r="173" ht="36" customHeight="1">
       <c r="A173" s="12" t="inlineStr">
@@ -9788,22 +9880,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F173" s="4" t="inlineStr">
+      <c r="F173" s="4" t="inlineStr"/>
+      <c r="G173" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G173" s="4" t="inlineStr">
+      <c r="H173" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H173" s="4" t="inlineStr">
+      <c r="I173" s="4" t="inlineStr">
         <is>
           <t>IGRF000377009, IGRF000378007, IGRF000379005</t>
         </is>
       </c>
-      <c r="I173" s="4" t="inlineStr"/>
+      <c r="J173" s="4" t="inlineStr"/>
     </row>
     <row r="174" ht="36" customHeight="1">
       <c r="A174" s="10" t="inlineStr">
@@ -9830,17 +9923,18 @@
         </is>
       </c>
       <c r="F174" s="6" t="inlineStr"/>
-      <c r="G174" s="6" t="inlineStr">
+      <c r="G174" s="6" t="inlineStr"/>
+      <c r="H174" s="6" t="inlineStr">
         <is>
           <t>EGR094321237</t>
         </is>
       </c>
-      <c r="H174" s="6" t="inlineStr">
+      <c r="I174" s="6" t="inlineStr">
         <is>
           <t>IGRS497003012</t>
         </is>
       </c>
-      <c r="I174" s="6" t="inlineStr">
+      <c r="J174" s="6" t="inlineStr">
         <is>
           <t>IGRC4971221B3</t>
         </is>
@@ -9866,22 +9960,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F175" s="4" t="inlineStr">
+      <c r="F175" s="4" t="inlineStr"/>
+      <c r="G175" s="4" t="inlineStr">
         <is>
           <t>EGR996764210</t>
         </is>
       </c>
-      <c r="G175" s="4" t="inlineStr">
+      <c r="H175" s="4" t="inlineStr">
         <is>
           <t>EGR996764210</t>
         </is>
       </c>
-      <c r="H175" s="4" t="inlineStr">
+      <c r="I175" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01067_SHR</t>
         </is>
       </c>
-      <c r="I175" s="4" t="inlineStr"/>
+      <c r="J175" s="4" t="inlineStr"/>
     </row>
     <row r="176" ht="36" customHeight="1">
       <c r="A176" s="10" t="inlineStr">
@@ -9907,22 +10002,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F176" s="6" t="inlineStr">
+      <c r="F176" s="6" t="inlineStr"/>
+      <c r="G176" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G176" s="6" t="inlineStr">
+      <c r="H176" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H176" s="6" t="inlineStr">
+      <c r="I176" s="6" t="inlineStr">
         <is>
           <t>IGRF000386000</t>
         </is>
       </c>
-      <c r="I176" s="6" t="inlineStr"/>
+      <c r="J176" s="6" t="inlineStr"/>
     </row>
     <row r="177" ht="36" customHeight="1">
       <c r="A177" s="12" t="inlineStr">
@@ -9948,22 +10044,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F177" s="4" t="inlineStr">
+      <c r="F177" s="4" t="inlineStr"/>
+      <c r="G177" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G177" s="4" t="inlineStr">
+      <c r="H177" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H177" s="4" t="inlineStr">
+      <c r="I177" s="4" t="inlineStr">
         <is>
           <t>IGRF000389004</t>
         </is>
       </c>
-      <c r="I177" s="4" t="inlineStr"/>
+      <c r="J177" s="4" t="inlineStr"/>
     </row>
     <row r="178" ht="36" customHeight="1">
       <c r="A178" s="10" t="inlineStr">
@@ -9989,22 +10086,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F178" s="6" t="inlineStr">
+      <c r="F178" s="6" t="inlineStr"/>
+      <c r="G178" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G178" s="6" t="inlineStr">
+      <c r="H178" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H178" s="6" t="inlineStr">
+      <c r="I178" s="6" t="inlineStr">
         <is>
           <t>IGRF000390002</t>
         </is>
       </c>
-      <c r="I178" s="6" t="inlineStr"/>
+      <c r="J178" s="6" t="inlineStr"/>
     </row>
     <row r="179" ht="36" customHeight="1">
       <c r="A179" s="12" t="inlineStr">
@@ -10030,22 +10128,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F179" s="4" t="inlineStr">
+      <c r="F179" s="4" t="inlineStr"/>
+      <c r="G179" s="4" t="inlineStr">
         <is>
           <t>EGR800398384</t>
         </is>
       </c>
-      <c r="G179" s="4" t="inlineStr">
+      <c r="H179" s="4" t="inlineStr">
         <is>
           <t>EGR800398384</t>
         </is>
       </c>
-      <c r="H179" s="4" t="inlineStr">
+      <c r="I179" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01057_SHR</t>
         </is>
       </c>
-      <c r="I179" s="4" t="inlineStr"/>
+      <c r="J179" s="4" t="inlineStr"/>
     </row>
     <row r="180" ht="36" customHeight="1">
       <c r="A180" s="10" t="inlineStr">
@@ -10071,22 +10170,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F180" s="6" t="inlineStr">
+      <c r="F180" s="6" t="inlineStr"/>
+      <c r="G180" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G180" s="6" t="inlineStr">
+      <c r="H180" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H180" s="6" t="inlineStr">
+      <c r="I180" s="6" t="inlineStr">
         <is>
           <t>IGRF000392008</t>
         </is>
       </c>
-      <c r="I180" s="6" t="inlineStr"/>
+      <c r="J180" s="6" t="inlineStr"/>
     </row>
     <row r="181" ht="36" customHeight="1">
       <c r="A181" s="12" t="inlineStr">
@@ -10108,22 +10208,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F181" s="4" t="inlineStr">
+      <c r="F181" s="4" t="inlineStr"/>
+      <c r="G181" s="4" t="inlineStr">
         <is>
           <t>EGR801812106</t>
         </is>
       </c>
-      <c r="G181" s="4" t="inlineStr">
+      <c r="H181" s="4" t="inlineStr">
         <is>
           <t>EGR801812106</t>
         </is>
       </c>
-      <c r="H181" s="4" t="inlineStr">
+      <c r="I181" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01072_SHR</t>
         </is>
       </c>
-      <c r="I181" s="4" t="inlineStr"/>
+      <c r="J181" s="4" t="inlineStr"/>
     </row>
     <row r="182" ht="36" customHeight="1">
       <c r="A182" s="10" t="inlineStr">
@@ -10149,22 +10250,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F182" s="6" t="inlineStr">
+      <c r="F182" s="6" t="inlineStr"/>
+      <c r="G182" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G182" s="6" t="inlineStr">
+      <c r="H182" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H182" s="6" t="inlineStr">
+      <c r="I182" s="6" t="inlineStr">
         <is>
           <t>IGRF000394004</t>
         </is>
       </c>
-      <c r="I182" s="6" t="inlineStr"/>
+      <c r="J182" s="6" t="inlineStr"/>
     </row>
     <row r="183" ht="36" customHeight="1">
       <c r="A183" s="12" t="inlineStr">
@@ -10190,22 +10292,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F183" s="4" t="inlineStr">
+      <c r="F183" s="4" t="inlineStr"/>
+      <c r="G183" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G183" s="4" t="inlineStr">
+      <c r="H183" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H183" s="4" t="inlineStr">
+      <c r="I183" s="4" t="inlineStr">
         <is>
           <t>IGRF000393006</t>
         </is>
       </c>
-      <c r="I183" s="4" t="inlineStr"/>
+      <c r="J183" s="4" t="inlineStr"/>
     </row>
     <row r="184" ht="36" customHeight="1">
       <c r="A184" s="10" t="inlineStr">
@@ -10231,22 +10334,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F184" s="6" t="inlineStr">
+      <c r="F184" s="6" t="inlineStr"/>
+      <c r="G184" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G184" s="6" t="inlineStr">
+      <c r="H184" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H184" s="6" t="inlineStr">
+      <c r="I184" s="6" t="inlineStr">
         <is>
           <t>IGRF000395001</t>
         </is>
       </c>
-      <c r="I184" s="6" t="inlineStr"/>
+      <c r="J184" s="6" t="inlineStr"/>
     </row>
     <row r="185" ht="36" customHeight="1">
       <c r="A185" s="12" t="inlineStr">
@@ -10272,22 +10376,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F185" s="4" t="inlineStr">
+      <c r="F185" s="4" t="inlineStr"/>
+      <c r="G185" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G185" s="4" t="inlineStr">
+      <c r="H185" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H185" s="4" t="inlineStr">
+      <c r="I185" s="4" t="inlineStr">
         <is>
           <t>IGRF000397007</t>
         </is>
       </c>
-      <c r="I185" s="4" t="inlineStr"/>
+      <c r="J185" s="4" t="inlineStr"/>
     </row>
     <row r="186" ht="36" customHeight="1">
       <c r="A186" s="10" t="inlineStr">
@@ -10313,22 +10418,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F186" s="6" t="inlineStr">
+      <c r="F186" s="6" t="inlineStr"/>
+      <c r="G186" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G186" s="6" t="inlineStr">
+      <c r="H186" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H186" s="6" t="inlineStr">
+      <c r="I186" s="6" t="inlineStr">
         <is>
           <t>IGRF000408002</t>
         </is>
       </c>
-      <c r="I186" s="6" t="inlineStr"/>
+      <c r="J186" s="6" t="inlineStr"/>
     </row>
     <row r="187" ht="36" customHeight="1">
       <c r="A187" s="12" t="inlineStr">
@@ -10350,22 +10456,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F187" s="4" t="inlineStr">
+      <c r="F187" s="4" t="inlineStr"/>
+      <c r="G187" s="4" t="inlineStr">
         <is>
           <t>EGR801878297</t>
         </is>
       </c>
-      <c r="G187" s="4" t="inlineStr">
+      <c r="H187" s="4" t="inlineStr">
         <is>
           <t>EGR801878297</t>
         </is>
       </c>
-      <c r="H187" s="4" t="inlineStr">
+      <c r="I187" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01073_SHR</t>
         </is>
       </c>
-      <c r="I187" s="4" t="inlineStr"/>
+      <c r="J187" s="4" t="inlineStr"/>
     </row>
     <row r="188" ht="36" customHeight="1">
       <c r="A188" s="10" t="inlineStr">
@@ -10391,22 +10498,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F188" s="6" t="inlineStr">
+      <c r="F188" s="6" t="inlineStr"/>
+      <c r="G188" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G188" s="6" t="inlineStr">
+      <c r="H188" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H188" s="6" t="inlineStr">
+      <c r="I188" s="6" t="inlineStr">
         <is>
           <t>IGRF000411006</t>
         </is>
       </c>
-      <c r="I188" s="6" t="inlineStr"/>
+      <c r="J188" s="6" t="inlineStr"/>
     </row>
     <row r="189" ht="36" customHeight="1">
       <c r="A189" s="12" t="inlineStr">
@@ -10432,22 +10540,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F189" s="4" t="inlineStr">
+      <c r="F189" s="4" t="inlineStr"/>
+      <c r="G189" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G189" s="4" t="inlineStr">
+      <c r="H189" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H189" s="4" t="inlineStr">
+      <c r="I189" s="4" t="inlineStr">
         <is>
           <t>IGRF000409000</t>
         </is>
       </c>
-      <c r="I189" s="4" t="inlineStr"/>
+      <c r="J189" s="4" t="inlineStr"/>
     </row>
     <row r="190" ht="36" customHeight="1">
       <c r="A190" s="10" t="inlineStr">
@@ -10473,22 +10582,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F190" s="6" t="inlineStr">
+      <c r="F190" s="6" t="inlineStr"/>
+      <c r="G190" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G190" s="6" t="inlineStr">
+      <c r="H190" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H190" s="6" t="inlineStr">
+      <c r="I190" s="6" t="inlineStr">
         <is>
           <t>IGRF000417003</t>
         </is>
       </c>
-      <c r="I190" s="6" t="inlineStr"/>
+      <c r="J190" s="6" t="inlineStr"/>
     </row>
     <row r="191" ht="36" customHeight="1">
       <c r="A191" s="12" t="inlineStr">
@@ -10514,22 +10624,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F191" s="4" t="inlineStr">
+      <c r="F191" s="4" t="inlineStr"/>
+      <c r="G191" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G191" s="4" t="inlineStr">
+      <c r="H191" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H191" s="4" t="inlineStr">
+      <c r="I191" s="4" t="inlineStr">
         <is>
           <t>IGRF000412004</t>
         </is>
       </c>
-      <c r="I191" s="4" t="inlineStr"/>
+      <c r="J191" s="4" t="inlineStr"/>
     </row>
     <row r="192" ht="36" customHeight="1">
       <c r="A192" s="10" t="inlineStr">
@@ -10555,22 +10666,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F192" s="6" t="inlineStr">
+      <c r="F192" s="6" t="inlineStr"/>
+      <c r="G192" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G192" s="6" t="inlineStr">
+      <c r="H192" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H192" s="6" t="inlineStr">
+      <c r="I192" s="6" t="inlineStr">
         <is>
           <t>IGRF000418001</t>
         </is>
       </c>
-      <c r="I192" s="6" t="inlineStr"/>
+      <c r="J192" s="6" t="inlineStr"/>
     </row>
     <row r="193" ht="36" customHeight="1">
       <c r="A193" s="12" t="inlineStr">
@@ -10596,22 +10708,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F193" s="4" t="inlineStr">
+      <c r="F193" s="4" t="inlineStr"/>
+      <c r="G193" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G193" s="4" t="inlineStr">
+      <c r="H193" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H193" s="4" t="inlineStr">
+      <c r="I193" s="4" t="inlineStr">
         <is>
           <t>IGRF000423001</t>
         </is>
       </c>
-      <c r="I193" s="4" t="inlineStr"/>
+      <c r="J193" s="4" t="inlineStr"/>
     </row>
     <row r="194" ht="36" customHeight="1">
       <c r="A194" s="10" t="inlineStr">
@@ -10637,22 +10750,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F194" s="6" t="inlineStr">
+      <c r="F194" s="6" t="inlineStr"/>
+      <c r="G194" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G194" s="6" t="inlineStr">
+      <c r="H194" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H194" s="6" t="inlineStr">
+      <c r="I194" s="6" t="inlineStr">
         <is>
           <t>IGRF000422003</t>
         </is>
       </c>
-      <c r="I194" s="6" t="inlineStr"/>
+      <c r="J194" s="6" t="inlineStr"/>
     </row>
     <row r="195" ht="36" customHeight="1">
       <c r="A195" s="12" t="inlineStr">
@@ -10678,22 +10792,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F195" s="4" t="inlineStr">
+      <c r="F195" s="4" t="inlineStr"/>
+      <c r="G195" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G195" s="4" t="inlineStr">
+      <c r="H195" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H195" s="4" t="inlineStr">
+      <c r="I195" s="4" t="inlineStr">
         <is>
           <t>IGRF000421005</t>
         </is>
       </c>
-      <c r="I195" s="4" t="inlineStr"/>
+      <c r="J195" s="4" t="inlineStr"/>
     </row>
     <row r="196" ht="36" customHeight="1">
       <c r="A196" s="10" t="inlineStr">
@@ -10719,22 +10834,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F196" s="6" t="inlineStr">
+      <c r="F196" s="6" t="inlineStr"/>
+      <c r="G196" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G196" s="6" t="inlineStr">
+      <c r="H196" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H196" s="6" t="inlineStr">
+      <c r="I196" s="6" t="inlineStr">
         <is>
           <t>IGRF000430006</t>
         </is>
       </c>
-      <c r="I196" s="6" t="inlineStr"/>
+      <c r="J196" s="6" t="inlineStr"/>
     </row>
     <row r="197" ht="36" customHeight="1">
       <c r="A197" s="12" t="inlineStr">
@@ -10760,22 +10876,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F197" s="4" t="inlineStr">
+      <c r="F197" s="4" t="inlineStr"/>
+      <c r="G197" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G197" s="4" t="inlineStr">
+      <c r="H197" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H197" s="4" t="inlineStr">
+      <c r="I197" s="4" t="inlineStr">
         <is>
           <t>IGRF000428000</t>
         </is>
       </c>
-      <c r="I197" s="4" t="inlineStr"/>
+      <c r="J197" s="4" t="inlineStr"/>
     </row>
     <row r="198" ht="36" customHeight="1">
       <c r="A198" s="10" t="inlineStr">
@@ -10801,22 +10918,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F198" s="6" t="inlineStr">
+      <c r="F198" s="6" t="inlineStr"/>
+      <c r="G198" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G198" s="6" t="inlineStr">
+      <c r="H198" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H198" s="6" t="inlineStr">
+      <c r="I198" s="6" t="inlineStr">
         <is>
           <t>IGRF000426004</t>
         </is>
       </c>
-      <c r="I198" s="6" t="inlineStr"/>
+      <c r="J198" s="6" t="inlineStr"/>
     </row>
     <row r="199" ht="36" customHeight="1">
       <c r="A199" s="12" t="inlineStr">
@@ -10842,22 +10960,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F199" s="4" t="inlineStr">
+      <c r="F199" s="4" t="inlineStr"/>
+      <c r="G199" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G199" s="4" t="inlineStr">
+      <c r="H199" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H199" s="4" t="inlineStr">
+      <c r="I199" s="4" t="inlineStr">
         <is>
           <t>IGRF000432002</t>
         </is>
       </c>
-      <c r="I199" s="4" t="inlineStr"/>
+      <c r="J199" s="4" t="inlineStr"/>
     </row>
     <row r="200" ht="36" customHeight="1">
       <c r="A200" s="10" t="inlineStr">
@@ -10883,22 +11002,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F200" s="6" t="inlineStr">
+      <c r="F200" s="6" t="inlineStr"/>
+      <c r="G200" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G200" s="6" t="inlineStr">
+      <c r="H200" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H200" s="6" t="inlineStr">
+      <c r="I200" s="6" t="inlineStr">
         <is>
           <t>IGRF000433000</t>
         </is>
       </c>
-      <c r="I200" s="6" t="inlineStr"/>
+      <c r="J200" s="6" t="inlineStr"/>
     </row>
     <row r="201" ht="36" customHeight="1">
       <c r="A201" s="12" t="inlineStr">
@@ -10924,22 +11044,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F201" s="4" t="inlineStr">
+      <c r="F201" s="4" t="inlineStr"/>
+      <c r="G201" s="4" t="inlineStr">
         <is>
           <t>EGR800903737</t>
         </is>
       </c>
-      <c r="G201" s="4" t="inlineStr">
+      <c r="H201" s="4" t="inlineStr">
         <is>
           <t>EGR800903737</t>
         </is>
       </c>
-      <c r="H201" s="4" t="inlineStr">
+      <c r="I201" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01065_SHR</t>
         </is>
       </c>
-      <c r="I201" s="4" t="inlineStr"/>
+      <c r="J201" s="4" t="inlineStr"/>
     </row>
     <row r="202" ht="36" customHeight="1">
       <c r="A202" s="10" t="inlineStr">
@@ -10965,22 +11086,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F202" s="6" t="inlineStr">
+      <c r="F202" s="6" t="inlineStr"/>
+      <c r="G202" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G202" s="6" t="inlineStr">
+      <c r="H202" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H202" s="6" t="inlineStr">
+      <c r="I202" s="6" t="inlineStr">
         <is>
           <t>IGRF000434008</t>
         </is>
       </c>
-      <c r="I202" s="6" t="inlineStr"/>
+      <c r="J202" s="6" t="inlineStr"/>
     </row>
     <row r="203" ht="36" customHeight="1">
       <c r="A203" s="12" t="inlineStr">
@@ -11006,22 +11128,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F203" s="4" t="inlineStr">
+      <c r="F203" s="4" t="inlineStr"/>
+      <c r="G203" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G203" s="4" t="inlineStr">
+      <c r="H203" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H203" s="4" t="inlineStr">
+      <c r="I203" s="4" t="inlineStr">
         <is>
           <t>IGRF000437001</t>
         </is>
       </c>
-      <c r="I203" s="4" t="inlineStr"/>
+      <c r="J203" s="4" t="inlineStr"/>
     </row>
     <row r="204" ht="36" customHeight="1">
       <c r="A204" s="10" t="inlineStr">
@@ -11047,22 +11170,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F204" s="6" t="inlineStr">
+      <c r="F204" s="6" t="inlineStr"/>
+      <c r="G204" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G204" s="6" t="inlineStr">
+      <c r="H204" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H204" s="6" t="inlineStr">
+      <c r="I204" s="6" t="inlineStr">
         <is>
           <t>IGRF000441003</t>
         </is>
       </c>
-      <c r="I204" s="6" t="inlineStr"/>
+      <c r="J204" s="6" t="inlineStr"/>
     </row>
     <row r="205" ht="36" customHeight="1">
       <c r="A205" s="12" t="inlineStr">
@@ -11088,22 +11212,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F205" s="4" t="inlineStr">
+      <c r="F205" s="4" t="inlineStr"/>
+      <c r="G205" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G205" s="4" t="inlineStr">
+      <c r="H205" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H205" s="4" t="inlineStr">
+      <c r="I205" s="4" t="inlineStr">
         <is>
           <t>IGRF000436003</t>
         </is>
       </c>
-      <c r="I205" s="4" t="inlineStr"/>
+      <c r="J205" s="4" t="inlineStr"/>
     </row>
     <row r="206" ht="36" customHeight="1">
       <c r="A206" s="10" t="inlineStr">
@@ -11129,22 +11254,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F206" s="6" t="inlineStr">
+      <c r="F206" s="6" t="inlineStr"/>
+      <c r="G206" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G206" s="6" t="inlineStr">
+      <c r="H206" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H206" s="6" t="inlineStr">
+      <c r="I206" s="6" t="inlineStr">
         <is>
           <t>IGRF000440005</t>
         </is>
       </c>
-      <c r="I206" s="6" t="inlineStr"/>
+      <c r="J206" s="6" t="inlineStr"/>
     </row>
     <row r="207" ht="36" customHeight="1">
       <c r="A207" s="12" t="inlineStr">
@@ -11170,22 +11296,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F207" s="4" t="inlineStr">
+      <c r="F207" s="4" t="inlineStr"/>
+      <c r="G207" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G207" s="4" t="inlineStr">
+      <c r="H207" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H207" s="4" t="inlineStr">
+      <c r="I207" s="4" t="inlineStr">
         <is>
           <t>IGRF000439007</t>
         </is>
       </c>
-      <c r="I207" s="4" t="inlineStr"/>
+      <c r="J207" s="4" t="inlineStr"/>
     </row>
     <row r="208" ht="36" customHeight="1">
       <c r="A208" s="10" t="inlineStr">
@@ -11211,22 +11338,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F208" s="6" t="inlineStr">
+      <c r="F208" s="6" t="inlineStr"/>
+      <c r="G208" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G208" s="6" t="inlineStr">
+      <c r="H208" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H208" s="6" t="inlineStr">
+      <c r="I208" s="6" t="inlineStr">
         <is>
           <t>IGRF000443009</t>
         </is>
       </c>
-      <c r="I208" s="6" t="inlineStr"/>
+      <c r="J208" s="6" t="inlineStr"/>
     </row>
     <row r="209" ht="36" customHeight="1">
       <c r="A209" s="12" t="inlineStr">
@@ -11248,22 +11376,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F209" s="4" t="inlineStr">
+      <c r="F209" s="4" t="inlineStr"/>
+      <c r="G209" s="4" t="inlineStr">
         <is>
           <t>EGR800911079</t>
         </is>
       </c>
-      <c r="G209" s="4" t="inlineStr">
+      <c r="H209" s="4" t="inlineStr">
         <is>
           <t>EGR800911079</t>
         </is>
       </c>
-      <c r="H209" s="4" t="inlineStr">
+      <c r="I209" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01071_SHR</t>
         </is>
       </c>
-      <c r="I209" s="4" t="inlineStr"/>
+      <c r="J209" s="4" t="inlineStr"/>
     </row>
     <row r="210" ht="36" customHeight="1">
       <c r="A210" s="10" t="inlineStr">
@@ -11289,22 +11418,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F210" s="6" t="inlineStr">
+      <c r="F210" s="6" t="inlineStr"/>
+      <c r="G210" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G210" s="6" t="inlineStr">
+      <c r="H210" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H210" s="6" t="inlineStr">
+      <c r="I210" s="6" t="inlineStr">
         <is>
           <t>IGRF000448008</t>
         </is>
       </c>
-      <c r="I210" s="6" t="inlineStr"/>
+      <c r="J210" s="6" t="inlineStr"/>
     </row>
     <row r="211" ht="36" customHeight="1">
       <c r="A211" s="12" t="inlineStr">
@@ -11330,22 +11460,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F211" s="4" t="inlineStr">
+      <c r="F211" s="4" t="inlineStr"/>
+      <c r="G211" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G211" s="4" t="inlineStr">
+      <c r="H211" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H211" s="4" t="inlineStr">
+      <c r="I211" s="4" t="inlineStr">
         <is>
           <t>IGRF000447000</t>
         </is>
       </c>
-      <c r="I211" s="4" t="inlineStr"/>
+      <c r="J211" s="4" t="inlineStr"/>
     </row>
     <row r="212" ht="36" customHeight="1">
       <c r="A212" s="10" t="inlineStr">
@@ -11367,22 +11498,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F212" s="6" t="inlineStr">
+      <c r="F212" s="6" t="inlineStr"/>
+      <c r="G212" s="6" t="inlineStr">
         <is>
           <t>EGR802047322</t>
         </is>
       </c>
-      <c r="G212" s="6" t="inlineStr">
+      <c r="H212" s="6" t="inlineStr">
         <is>
           <t>EGR802047322</t>
         </is>
       </c>
-      <c r="H212" s="6" t="inlineStr">
+      <c r="I212" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01075_SHR</t>
         </is>
       </c>
-      <c r="I212" s="6" t="inlineStr"/>
+      <c r="J212" s="6" t="inlineStr"/>
     </row>
     <row r="213" ht="36" customHeight="1">
       <c r="A213" s="12" t="inlineStr">
@@ -11404,22 +11536,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F213" s="4" t="inlineStr">
+      <c r="F213" s="4" t="inlineStr"/>
+      <c r="G213" s="4" t="inlineStr">
         <is>
           <t>EGR802177269</t>
         </is>
       </c>
-      <c r="G213" s="4" t="inlineStr">
+      <c r="H213" s="4" t="inlineStr">
         <is>
           <t>EGR802177269</t>
         </is>
       </c>
-      <c r="H213" s="4" t="inlineStr">
+      <c r="I213" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01074_SHR</t>
         </is>
       </c>
-      <c r="I213" s="4" t="inlineStr"/>
+      <c r="J213" s="4" t="inlineStr"/>
     </row>
     <row r="214" ht="36" customHeight="1">
       <c r="A214" s="10" t="inlineStr">
@@ -11445,22 +11578,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F214" s="6" t="inlineStr">
+      <c r="F214" s="6" t="inlineStr"/>
+      <c r="G214" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G214" s="6" t="inlineStr">
+      <c r="H214" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H214" s="6" t="inlineStr">
+      <c r="I214" s="6" t="inlineStr">
         <is>
           <t>IGRF000449006</t>
         </is>
       </c>
-      <c r="I214" s="6" t="inlineStr"/>
+      <c r="J214" s="6" t="inlineStr"/>
     </row>
     <row r="215" ht="36" customHeight="1">
       <c r="A215" s="12" t="inlineStr">
@@ -11486,22 +11620,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F215" s="4" t="inlineStr">
+      <c r="F215" s="4" t="inlineStr"/>
+      <c r="G215" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G215" s="4" t="inlineStr">
+      <c r="H215" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H215" s="4" t="inlineStr">
+      <c r="I215" s="4" t="inlineStr">
         <is>
           <t>IGRF000450004</t>
         </is>
       </c>
-      <c r="I215" s="4" t="inlineStr"/>
+      <c r="J215" s="4" t="inlineStr"/>
     </row>
     <row r="216" ht="36" customHeight="1">
       <c r="A216" s="10" t="inlineStr">
@@ -11527,22 +11662,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F216" s="6" t="inlineStr">
+      <c r="F216" s="6" t="inlineStr"/>
+      <c r="G216" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G216" s="6" t="inlineStr">
+      <c r="H216" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H216" s="6" t="inlineStr">
+      <c r="I216" s="6" t="inlineStr">
         <is>
           <t>IGRF000451002</t>
         </is>
       </c>
-      <c r="I216" s="6" t="inlineStr"/>
+      <c r="J216" s="6" t="inlineStr"/>
     </row>
     <row r="217" ht="36" customHeight="1">
       <c r="A217" s="12" t="inlineStr">
@@ -11568,22 +11704,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F217" s="4" t="inlineStr">
+      <c r="F217" s="4" t="inlineStr"/>
+      <c r="G217" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G217" s="4" t="inlineStr">
+      <c r="H217" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H217" s="4" t="inlineStr">
+      <c r="I217" s="4" t="inlineStr">
         <is>
           <t>IGRF000454006</t>
         </is>
       </c>
-      <c r="I217" s="4" t="inlineStr"/>
+      <c r="J217" s="4" t="inlineStr"/>
     </row>
     <row r="218" ht="36" customHeight="1">
       <c r="A218" s="10" t="inlineStr">
@@ -11609,22 +11746,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F218" s="6" t="inlineStr">
+      <c r="F218" s="6" t="inlineStr"/>
+      <c r="G218" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G218" s="6" t="inlineStr">
+      <c r="H218" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H218" s="6" t="inlineStr">
+      <c r="I218" s="6" t="inlineStr">
         <is>
           <t>IGRF000453008</t>
         </is>
       </c>
-      <c r="I218" s="6" t="inlineStr"/>
+      <c r="J218" s="6" t="inlineStr"/>
     </row>
     <row r="219" ht="36" customHeight="1">
       <c r="A219" s="12" t="inlineStr">
@@ -11650,22 +11788,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F219" s="4" t="inlineStr">
+      <c r="F219" s="4" t="inlineStr"/>
+      <c r="G219" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G219" s="4" t="inlineStr">
+      <c r="H219" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H219" s="4" t="inlineStr">
+      <c r="I219" s="4" t="inlineStr">
         <is>
           <t>IGRF000455003</t>
         </is>
       </c>
-      <c r="I219" s="4" t="inlineStr"/>
+      <c r="J219" s="4" t="inlineStr"/>
     </row>
     <row r="220" ht="36" customHeight="1">
       <c r="A220" s="10" t="inlineStr">
@@ -11687,22 +11826,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F220" s="6" t="inlineStr">
+      <c r="F220" s="6" t="inlineStr"/>
+      <c r="G220" s="6" t="inlineStr">
         <is>
           <t>EGR802071555</t>
         </is>
       </c>
-      <c r="G220" s="6" t="inlineStr">
+      <c r="H220" s="6" t="inlineStr">
         <is>
           <t>EGR802071555</t>
         </is>
       </c>
-      <c r="H220" s="6" t="inlineStr">
+      <c r="I220" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01076_SHR</t>
         </is>
       </c>
-      <c r="I220" s="6" t="inlineStr"/>
+      <c r="J220" s="6" t="inlineStr"/>
     </row>
     <row r="221" ht="36" customHeight="1">
       <c r="A221" s="12" t="inlineStr">
@@ -11728,22 +11868,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F221" s="4" t="inlineStr">
+      <c r="F221" s="4" t="inlineStr"/>
+      <c r="G221" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G221" s="4" t="inlineStr">
+      <c r="H221" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H221" s="4" t="inlineStr">
+      <c r="I221" s="4" t="inlineStr">
         <is>
           <t>IGRF000457009</t>
         </is>
       </c>
-      <c r="I221" s="4" t="inlineStr"/>
+      <c r="J221" s="4" t="inlineStr"/>
     </row>
     <row r="222" ht="36" customHeight="1">
       <c r="A222" s="10" t="inlineStr">
@@ -11769,22 +11910,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F222" s="6" t="inlineStr">
+      <c r="F222" s="6" t="inlineStr"/>
+      <c r="G222" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G222" s="6" t="inlineStr">
+      <c r="H222" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H222" s="6" t="inlineStr">
+      <c r="I222" s="6" t="inlineStr">
         <is>
           <t>IGRF000459005</t>
         </is>
       </c>
-      <c r="I222" s="6" t="inlineStr"/>
+      <c r="J222" s="6" t="inlineStr"/>
     </row>
     <row r="223" ht="36" customHeight="1">
       <c r="A223" s="12" t="inlineStr">
@@ -11810,22 +11952,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F223" s="4" t="inlineStr">
+      <c r="F223" s="4" t="inlineStr"/>
+      <c r="G223" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G223" s="4" t="inlineStr">
+      <c r="H223" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H223" s="4" t="inlineStr">
+      <c r="I223" s="4" t="inlineStr">
         <is>
           <t>IGRF000460003</t>
         </is>
       </c>
-      <c r="I223" s="4" t="inlineStr"/>
+      <c r="J223" s="4" t="inlineStr"/>
     </row>
     <row r="224" ht="36" customHeight="1">
       <c r="A224" s="10" t="inlineStr">
@@ -11851,22 +11994,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F224" s="6" t="inlineStr">
+      <c r="F224" s="6" t="inlineStr"/>
+      <c r="G224" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G224" s="6" t="inlineStr">
+      <c r="H224" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H224" s="6" t="inlineStr">
+      <c r="I224" s="6" t="inlineStr">
         <is>
           <t>IGRF000462009</t>
         </is>
       </c>
-      <c r="I224" s="6" t="inlineStr"/>
+      <c r="J224" s="6" t="inlineStr"/>
     </row>
     <row r="225" ht="36" customHeight="1">
       <c r="A225" s="12" t="inlineStr">
@@ -11892,22 +12036,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F225" s="4" t="inlineStr">
+      <c r="F225" s="4" t="inlineStr"/>
+      <c r="G225" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G225" s="4" t="inlineStr">
+      <c r="H225" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H225" s="4" t="inlineStr">
+      <c r="I225" s="4" t="inlineStr">
         <is>
           <t>IGRF000464005</t>
         </is>
       </c>
-      <c r="I225" s="4" t="inlineStr"/>
+      <c r="J225" s="4" t="inlineStr"/>
     </row>
     <row r="226" ht="36" customHeight="1">
       <c r="A226" s="10" t="inlineStr">
@@ -11933,22 +12078,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F226" s="6" t="inlineStr">
+      <c r="F226" s="6" t="inlineStr"/>
+      <c r="G226" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G226" s="6" t="inlineStr">
+      <c r="H226" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H226" s="6" t="inlineStr">
+      <c r="I226" s="6" t="inlineStr">
         <is>
           <t>IGRF000466000</t>
         </is>
       </c>
-      <c r="I226" s="6" t="inlineStr"/>
+      <c r="J226" s="6" t="inlineStr"/>
     </row>
     <row r="227" ht="36" customHeight="1">
       <c r="A227" s="12" t="inlineStr">
@@ -11975,17 +12121,18 @@
         </is>
       </c>
       <c r="F227" s="4" t="inlineStr"/>
-      <c r="G227" s="4" t="inlineStr">
+      <c r="G227" s="4" t="inlineStr"/>
+      <c r="H227" s="4" t="inlineStr">
         <is>
           <t>EGRAEEAP012</t>
         </is>
       </c>
-      <c r="H227" s="4" t="inlineStr">
+      <c r="I227" s="4" t="inlineStr">
         <is>
           <t>PEGRAEEAP012_SHR</t>
         </is>
       </c>
-      <c r="I227" s="4" t="inlineStr"/>
+      <c r="J227" s="4" t="inlineStr"/>
     </row>
     <row r="228" ht="36" customHeight="1">
       <c r="A228" s="10" t="inlineStr">
@@ -12011,22 +12158,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F228" s="6" t="inlineStr">
+      <c r="F228" s="6" t="inlineStr"/>
+      <c r="G228" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G228" s="6" t="inlineStr">
+      <c r="H228" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H228" s="6" t="inlineStr">
+      <c r="I228" s="6" t="inlineStr">
         <is>
           <t>IGRF000472008</t>
         </is>
       </c>
-      <c r="I228" s="6" t="inlineStr"/>
+      <c r="J228" s="6" t="inlineStr"/>
     </row>
     <row r="229" ht="36" customHeight="1">
       <c r="A229" s="12" t="inlineStr">
@@ -12052,22 +12200,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F229" s="4" t="inlineStr">
+      <c r="F229" s="4" t="inlineStr"/>
+      <c r="G229" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G229" s="4" t="inlineStr">
+      <c r="H229" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H229" s="4" t="inlineStr">
+      <c r="I229" s="4" t="inlineStr">
         <is>
           <t>IGRF000473006</t>
         </is>
       </c>
-      <c r="I229" s="4" t="inlineStr"/>
+      <c r="J229" s="4" t="inlineStr"/>
     </row>
     <row r="230" ht="36" customHeight="1">
       <c r="A230" s="10" t="inlineStr">
@@ -12093,22 +12242,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F230" s="6" t="inlineStr">
+      <c r="F230" s="6" t="inlineStr"/>
+      <c r="G230" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G230" s="6" t="inlineStr">
+      <c r="H230" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H230" s="6" t="inlineStr">
+      <c r="I230" s="6" t="inlineStr">
         <is>
           <t>IGRF000474004</t>
         </is>
       </c>
-      <c r="I230" s="6" t="inlineStr"/>
+      <c r="J230" s="6" t="inlineStr"/>
     </row>
     <row r="231" ht="36" customHeight="1">
       <c r="A231" s="12" t="inlineStr">
@@ -12134,22 +12284,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F231" s="4" t="inlineStr">
+      <c r="F231" s="4" t="inlineStr"/>
+      <c r="G231" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G231" s="4" t="inlineStr">
+      <c r="H231" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H231" s="4" t="inlineStr">
+      <c r="I231" s="4" t="inlineStr">
         <is>
           <t>IGRF000467008</t>
         </is>
       </c>
-      <c r="I231" s="4" t="inlineStr"/>
+      <c r="J231" s="4" t="inlineStr"/>
     </row>
     <row r="232" ht="36" customHeight="1">
       <c r="A232" s="10" t="inlineStr">
@@ -12175,22 +12326,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F232" s="6" t="inlineStr">
+      <c r="F232" s="6" t="inlineStr"/>
+      <c r="G232" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G232" s="6" t="inlineStr">
+      <c r="H232" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H232" s="6" t="inlineStr">
+      <c r="I232" s="6" t="inlineStr">
         <is>
           <t>IGRF000471000</t>
         </is>
       </c>
-      <c r="I232" s="6" t="inlineStr"/>
+      <c r="J232" s="6" t="inlineStr"/>
     </row>
     <row r="233" ht="36" customHeight="1">
       <c r="A233" s="12" t="inlineStr">
@@ -12216,22 +12368,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F233" s="4" t="inlineStr">
+      <c r="F233" s="4" t="inlineStr"/>
+      <c r="G233" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G233" s="4" t="inlineStr">
+      <c r="H233" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H233" s="4" t="inlineStr">
+      <c r="I233" s="4" t="inlineStr">
         <is>
           <t>IGRF000468006, IGRF000469004, IGRF000470002</t>
         </is>
       </c>
-      <c r="I233" s="4" t="inlineStr"/>
+      <c r="J233" s="4" t="inlineStr"/>
     </row>
     <row r="234" ht="36" customHeight="1">
       <c r="A234" s="10" t="inlineStr">
@@ -12257,22 +12410,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F234" s="6" t="inlineStr">
+      <c r="F234" s="6" t="inlineStr"/>
+      <c r="G234" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G234" s="6" t="inlineStr">
+      <c r="H234" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H234" s="6" t="inlineStr">
+      <c r="I234" s="6" t="inlineStr">
         <is>
           <t>IGRF000475001</t>
         </is>
       </c>
-      <c r="I234" s="6" t="inlineStr"/>
+      <c r="J234" s="6" t="inlineStr"/>
     </row>
     <row r="235" ht="36" customHeight="1">
       <c r="A235" s="12" t="inlineStr">
@@ -12298,22 +12452,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F235" s="4" t="inlineStr">
+      <c r="F235" s="4" t="inlineStr"/>
+      <c r="G235" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G235" s="4" t="inlineStr">
+      <c r="H235" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H235" s="4" t="inlineStr">
+      <c r="I235" s="4" t="inlineStr">
         <is>
           <t>IGRF000482007</t>
         </is>
       </c>
-      <c r="I235" s="4" t="inlineStr"/>
+      <c r="J235" s="4" t="inlineStr"/>
     </row>
     <row r="236" ht="36" customHeight="1">
       <c r="A236" s="10" t="inlineStr">
@@ -12339,22 +12494,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F236" s="6" t="inlineStr">
+      <c r="F236" s="6" t="inlineStr"/>
+      <c r="G236" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G236" s="6" t="inlineStr">
+      <c r="H236" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H236" s="6" t="inlineStr">
+      <c r="I236" s="6" t="inlineStr">
         <is>
           <t>IGRF000479003</t>
         </is>
       </c>
-      <c r="I236" s="6" t="inlineStr"/>
+      <c r="J236" s="6" t="inlineStr"/>
     </row>
     <row r="237" ht="36" customHeight="1">
       <c r="A237" s="12" t="inlineStr">
@@ -12380,22 +12536,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F237" s="4" t="inlineStr">
+      <c r="F237" s="4" t="inlineStr"/>
+      <c r="G237" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G237" s="4" t="inlineStr">
+      <c r="H237" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H237" s="4" t="inlineStr">
+      <c r="I237" s="4" t="inlineStr">
         <is>
           <t>IGRF000478005</t>
         </is>
       </c>
-      <c r="I237" s="4" t="inlineStr"/>
+      <c r="J237" s="4" t="inlineStr"/>
     </row>
     <row r="238" ht="36" customHeight="1">
       <c r="A238" s="10" t="inlineStr">
@@ -12421,22 +12578,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F238" s="6" t="inlineStr">
+      <c r="F238" s="6" t="inlineStr"/>
+      <c r="G238" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G238" s="6" t="inlineStr">
+      <c r="H238" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H238" s="6" t="inlineStr">
+      <c r="I238" s="6" t="inlineStr">
         <is>
           <t>IGRF000480001</t>
         </is>
       </c>
-      <c r="I238" s="6" t="inlineStr"/>
+      <c r="J238" s="6" t="inlineStr"/>
     </row>
     <row r="239" ht="36" customHeight="1">
       <c r="A239" s="12" t="inlineStr">
@@ -12462,22 +12620,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F239" s="4" t="inlineStr">
+      <c r="F239" s="4" t="inlineStr"/>
+      <c r="G239" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G239" s="4" t="inlineStr">
+      <c r="H239" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H239" s="4" t="inlineStr">
+      <c r="I239" s="4" t="inlineStr">
         <is>
           <t>IGRF000477007</t>
         </is>
       </c>
-      <c r="I239" s="4" t="inlineStr"/>
+      <c r="J239" s="4" t="inlineStr"/>
     </row>
     <row r="240" ht="36" customHeight="1">
       <c r="A240" s="10" t="inlineStr">
@@ -12503,22 +12662,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F240" s="6" t="inlineStr">
+      <c r="F240" s="6" t="inlineStr"/>
+      <c r="G240" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G240" s="6" t="inlineStr">
+      <c r="H240" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H240" s="6" t="inlineStr">
+      <c r="I240" s="6" t="inlineStr">
         <is>
           <t>IGRF000481009</t>
         </is>
       </c>
-      <c r="I240" s="6" t="inlineStr"/>
+      <c r="J240" s="6" t="inlineStr"/>
     </row>
     <row r="241" ht="36" customHeight="1">
       <c r="A241" s="12" t="inlineStr">
@@ -12544,22 +12704,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F241" s="4" t="inlineStr">
+      <c r="F241" s="4" t="inlineStr"/>
+      <c r="G241" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G241" s="4" t="inlineStr">
+      <c r="H241" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H241" s="4" t="inlineStr">
+      <c r="I241" s="4" t="inlineStr">
         <is>
           <t>IGRF000486008</t>
         </is>
       </c>
-      <c r="I241" s="4" t="inlineStr"/>
+      <c r="J241" s="4" t="inlineStr"/>
     </row>
     <row r="242" ht="36" customHeight="1">
       <c r="A242" s="10" t="inlineStr">
@@ -12581,22 +12742,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F242" s="6" t="inlineStr">
+      <c r="F242" s="6" t="inlineStr"/>
+      <c r="G242" s="6" t="inlineStr">
         <is>
           <t>EGR802025852</t>
         </is>
       </c>
-      <c r="G242" s="6" t="inlineStr">
+      <c r="H242" s="6" t="inlineStr">
         <is>
           <t>EGR802025852</t>
         </is>
       </c>
-      <c r="H242" s="6" t="inlineStr">
+      <c r="I242" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01100_SHR</t>
         </is>
       </c>
-      <c r="I242" s="6" t="inlineStr"/>
+      <c r="J242" s="6" t="inlineStr"/>
     </row>
     <row r="243" ht="36" customHeight="1">
       <c r="A243" s="12" t="inlineStr">
@@ -12618,22 +12780,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F243" s="4" t="inlineStr">
+      <c r="F243" s="4" t="inlineStr"/>
+      <c r="G243" s="4" t="inlineStr">
         <is>
           <t>EGR802190685</t>
         </is>
       </c>
-      <c r="G243" s="4" t="inlineStr">
+      <c r="H243" s="4" t="inlineStr">
         <is>
           <t>EGR802190685</t>
         </is>
       </c>
-      <c r="H243" s="4" t="inlineStr">
+      <c r="I243" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01099_SHR</t>
         </is>
       </c>
-      <c r="I243" s="4" t="inlineStr"/>
+      <c r="J243" s="4" t="inlineStr"/>
     </row>
     <row r="244" ht="36" customHeight="1">
       <c r="A244" s="10" t="inlineStr">
@@ -12659,22 +12822,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F244" s="6" t="inlineStr">
+      <c r="F244" s="6" t="inlineStr"/>
+      <c r="G244" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G244" s="6" t="inlineStr">
+      <c r="H244" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H244" s="6" t="inlineStr">
+      <c r="I244" s="6" t="inlineStr">
         <is>
           <t>IGRF000487006</t>
         </is>
       </c>
-      <c r="I244" s="6" t="inlineStr"/>
+      <c r="J244" s="6" t="inlineStr"/>
     </row>
     <row r="245" ht="36" customHeight="1">
       <c r="A245" s="12" t="inlineStr">
@@ -12700,22 +12864,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F245" s="4" t="inlineStr">
+      <c r="F245" s="4" t="inlineStr"/>
+      <c r="G245" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G245" s="4" t="inlineStr">
+      <c r="H245" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H245" s="4" t="inlineStr">
+      <c r="I245" s="4" t="inlineStr">
         <is>
           <t>IGRF000490000</t>
         </is>
       </c>
-      <c r="I245" s="4" t="inlineStr"/>
+      <c r="J245" s="4" t="inlineStr"/>
     </row>
     <row r="246" ht="36" customHeight="1">
       <c r="A246" s="10" t="inlineStr">
@@ -12741,22 +12906,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F246" s="6" t="inlineStr">
+      <c r="F246" s="6" t="inlineStr"/>
+      <c r="G246" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G246" s="6" t="inlineStr">
+      <c r="H246" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H246" s="6" t="inlineStr">
+      <c r="I246" s="6" t="inlineStr">
         <is>
           <t>IGRF000489002</t>
         </is>
       </c>
-      <c r="I246" s="6" t="inlineStr"/>
+      <c r="J246" s="6" t="inlineStr"/>
     </row>
     <row r="247" ht="36" customHeight="1">
       <c r="A247" s="12" t="inlineStr">
@@ -12782,22 +12948,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F247" s="4" t="inlineStr">
+      <c r="F247" s="4" t="inlineStr"/>
+      <c r="G247" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G247" s="4" t="inlineStr">
+      <c r="H247" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H247" s="4" t="inlineStr">
+      <c r="I247" s="4" t="inlineStr">
         <is>
           <t>IGRF000491008</t>
         </is>
       </c>
-      <c r="I247" s="4" t="inlineStr"/>
+      <c r="J247" s="4" t="inlineStr"/>
     </row>
     <row r="248" ht="36" customHeight="1">
       <c r="A248" s="10" t="inlineStr">
@@ -12823,110 +12990,125 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F248" s="6" t="inlineStr">
+      <c r="F248" s="6" t="inlineStr"/>
+      <c r="G248" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G248" s="6" t="inlineStr">
+      <c r="H248" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H248" s="6" t="inlineStr">
+      <c r="I248" s="6" t="inlineStr">
         <is>
           <t>IGRF000492006</t>
         </is>
       </c>
-      <c r="I248" s="6" t="inlineStr"/>
+      <c r="J248" s="6" t="inlineStr"/>
     </row>
     <row r="249" ht="36" customHeight="1">
       <c r="A249" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01102</t>
-        </is>
-      </c>
-      <c r="B249" s="4" t="inlineStr"/>
+          <t>EGRAK01096</t>
+        </is>
+      </c>
+      <c r="B249" s="4" t="inlineStr">
+        <is>
+          <t>L21380042AZBV7UBFTB47</t>
+        </is>
+      </c>
       <c r="C249" s="13" t="n">
-        <v>45496</v>
+        <v>45504</v>
       </c>
       <c r="D249" s="4" t="inlineStr">
         <is>
-          <t>CORALLIA VENTURES TT A.K.E.Σ</t>
+          <t>Πειραιώς Α/Κ Στρατηγικής Τακτικού Εισοδήματος 2027 II Ευρωπαϊκό Ομολογιακό</t>
         </is>
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F249" s="4" t="inlineStr">
-        <is>
-          <t>EGR802458356</t>
-        </is>
-      </c>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F249" s="4" t="inlineStr"/>
       <c r="G249" s="4" t="inlineStr">
         <is>
-          <t>EGR802458356</t>
-        </is>
-      </c>
-      <c r="H249" s="4" t="inlineStr"/>
-      <c r="I249" s="4" t="inlineStr"/>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
+      <c r="H249" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
+      <c r="I249" s="4" t="inlineStr">
+        <is>
+          <t>IGRF000493004</t>
+        </is>
+      </c>
+      <c r="J249" s="4" t="inlineStr"/>
     </row>
     <row r="250" ht="36" customHeight="1">
       <c r="A250" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01104</t>
-        </is>
-      </c>
-      <c r="B250" s="6" t="inlineStr"/>
+          <t>EGRAK01097</t>
+        </is>
+      </c>
+      <c r="B250" s="6" t="inlineStr">
+        <is>
+          <t>L213800OA6YI2FW5NXW69</t>
+        </is>
+      </c>
       <c r="C250" s="11" t="n">
-        <v>45502</v>
+        <v>45513</v>
       </c>
       <c r="D250" s="6" t="inlineStr">
         <is>
-          <t>LOGGERHEAD VENTURE FUND VCMF</t>
+          <t>TRITON Target Maturity</t>
         </is>
       </c>
       <c r="E250" s="6" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F250" s="6" t="inlineStr">
-        <is>
-          <t>EGR802187644</t>
-        </is>
-      </c>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F250" s="6" t="inlineStr"/>
       <c r="G250" s="6" t="inlineStr">
         <is>
-          <t>EGR802187644</t>
+          <t>EGRMFMC013</t>
         </is>
       </c>
       <c r="H250" s="6" t="inlineStr">
         <is>
-          <t>PEGRAK01104_SHR</t>
-        </is>
-      </c>
-      <c r="I250" s="6" t="inlineStr"/>
+          <t>EGRMFMC013</t>
+        </is>
+      </c>
+      <c r="I250" s="6" t="inlineStr">
+        <is>
+          <t>IGRF000495009, IGRF000496007</t>
+        </is>
+      </c>
+      <c r="J250" s="6" t="inlineStr"/>
     </row>
     <row r="251" ht="36" customHeight="1">
       <c r="A251" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01096</t>
+          <t>EGRAK01098</t>
         </is>
       </c>
       <c r="B251" s="4" t="inlineStr">
         <is>
-          <t>L21380042AZBV7UBFTB47</t>
+          <t>L213800WRF79PG1L12R79</t>
         </is>
       </c>
       <c r="C251" s="13" t="n">
-        <v>45504</v>
+        <v>45551</v>
       </c>
       <c r="D251" s="4" t="inlineStr">
         <is>
-          <t>Πειραιώς Α/Κ Στρατηγικής Τακτικού Εισοδήματος 2027 II Ευρωπαϊκό Ομολογιακό</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME VIΙ 24months - Ομολογιακό</t>
         </is>
       </c>
       <c r="E251" s="4" t="inlineStr">
@@ -12934,185 +13116,26 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F251" s="4" t="inlineStr">
-        <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
+      <c r="F251" s="4" t="inlineStr"/>
       <c r="G251" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H251" s="4" t="inlineStr">
         <is>
-          <t>IGRF000493004</t>
-        </is>
-      </c>
-      <c r="I251" s="4" t="inlineStr"/>
-    </row>
-    <row r="252" ht="36" customHeight="1">
-      <c r="A252" s="10" t="inlineStr">
-        <is>
-          <t>EGRAK01097</t>
-        </is>
-      </c>
-      <c r="B252" s="6" t="inlineStr">
-        <is>
-          <t>L213800OA6YI2FW5NXW69</t>
-        </is>
-      </c>
-      <c r="C252" s="11" t="n">
-        <v>45513</v>
-      </c>
-      <c r="D252" s="6" t="inlineStr">
-        <is>
-          <t>TRITON Target Maturity</t>
-        </is>
-      </c>
-      <c r="E252" s="6" t="inlineStr">
-        <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="F252" s="6" t="inlineStr">
-        <is>
-          <t>EGRMFMC013</t>
-        </is>
-      </c>
-      <c r="G252" s="6" t="inlineStr">
-        <is>
-          <t>EGRMFMC013</t>
-        </is>
-      </c>
-      <c r="H252" s="6" t="inlineStr">
-        <is>
-          <t>IGRF000495009, IGRF000496007</t>
-        </is>
-      </c>
-      <c r="I252" s="6" t="inlineStr"/>
-    </row>
-    <row r="253" ht="36" customHeight="1">
-      <c r="A253" s="12" t="inlineStr">
-        <is>
-          <t>EGRAK01098</t>
-        </is>
-      </c>
-      <c r="B253" s="4" t="inlineStr">
-        <is>
-          <t>L213800WRF79PG1L12R79</t>
-        </is>
-      </c>
-      <c r="C253" s="13" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D253" s="4" t="inlineStr">
-        <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME VIΙ 24months - Ομολογιακό</t>
-        </is>
-      </c>
-      <c r="E253" s="4" t="inlineStr">
-        <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="F253" s="4" t="inlineStr">
-        <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G253" s="4" t="inlineStr">
-        <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="H253" s="4" t="inlineStr">
+      <c r="I251" s="4" t="inlineStr">
         <is>
           <t>IGRF000497005</t>
         </is>
       </c>
-      <c r="I253" s="4" t="inlineStr"/>
-    </row>
-    <row r="254" ht="36" customHeight="1">
-      <c r="A254" s="10" t="inlineStr">
-        <is>
-          <t>EGRAK01103</t>
-        </is>
-      </c>
-      <c r="B254" s="6" t="inlineStr"/>
-      <c r="C254" s="11" t="n">
-        <v>45552</v>
-      </c>
-      <c r="D254" s="6" t="inlineStr">
-        <is>
-          <t>Elbridge Capital Fund I</t>
-        </is>
-      </c>
-      <c r="E254" s="6" t="inlineStr">
-        <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F254" s="6" t="inlineStr">
-        <is>
-          <t>EGR801698110</t>
-        </is>
-      </c>
-      <c r="G254" s="6" t="inlineStr">
-        <is>
-          <t>EGR801698110</t>
-        </is>
-      </c>
-      <c r="H254" s="6" t="inlineStr">
-        <is>
-          <t>PEGRAK01103_SHR</t>
-        </is>
-      </c>
-      <c r="I254" s="6" t="inlineStr"/>
-    </row>
-    <row r="255" ht="36" customHeight="1">
-      <c r="A255" s="12" t="inlineStr">
-        <is>
-          <t>EGRAK01101</t>
-        </is>
-      </c>
-      <c r="B255" s="4" t="inlineStr">
-        <is>
-          <t>L2138009Q38X6LDR8C221</t>
-        </is>
-      </c>
-      <c r="C255" s="13" t="n">
-        <v>45576</v>
-      </c>
-      <c r="D255" s="4" t="inlineStr">
-        <is>
-          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2029 (IΙI) ΕΥΡΩΠΑΪΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
-        </is>
-      </c>
-      <c r="E255" s="4" t="inlineStr">
-        <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="F255" s="4" t="inlineStr">
-        <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="G255" s="4" t="inlineStr">
-        <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="H255" s="4" t="inlineStr">
-        <is>
-          <t>IGRF000501004</t>
-        </is>
-      </c>
-      <c r="I255" s="4" t="inlineStr"/>
+      <c r="J251" s="4" t="inlineStr"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I255"/>
+  <autoFilter ref="A1:J251"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -13123,7 +13146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D339"/>
+  <dimension ref="A1:D336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -13147,7 +13170,7 @@
       </c>
       <c r="B1" s="9" t="inlineStr">
         <is>
-          <t>ΣΥΣΤΑΣΗ</t>
+          <t>ΗΜΕΡΟΜΗΝΙΑ ΣΥΣΤΑΣΗΣ</t>
         </is>
       </c>
       <c r="C1" s="8" t="inlineStr">
@@ -13157,7 +13180,7 @@
       </c>
       <c r="D1" s="8" t="inlineStr">
         <is>
-          <t>ΕΚΔΟΤΗΣ</t>
+          <t>ΕΚΔΟΤΗΣ-ΕΟ</t>
         </is>
       </c>
     </row>
@@ -19612,67 +19635,75 @@
     <row r="330" ht="36" customHeight="1">
       <c r="A330" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01102_SHR</t>
+          <t>IGRF000493004</t>
         </is>
       </c>
       <c r="B330" s="11" t="n">
-        <v>45496</v>
-      </c>
-      <c r="C330" s="6" t="inlineStr"/>
+        <v>45504</v>
+      </c>
+      <c r="C330" s="6" t="inlineStr">
+        <is>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 (II) EUROPEAN BOND FUND</t>
+        </is>
+      </c>
       <c r="D330" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01002</t>
+          <t>EGRAK01096</t>
         </is>
       </c>
     </row>
     <row r="331" ht="36" customHeight="1">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01104_SHR</t>
+          <t>IGRF000495009</t>
         </is>
       </c>
       <c r="B331" s="13" t="n">
-        <v>45502</v>
-      </c>
-      <c r="C331" s="4" t="inlineStr"/>
+        <v>45513</v>
+      </c>
+      <c r="C331" s="4" t="inlineStr">
+        <is>
+          <t>TRITON Target Maturity Class A</t>
+        </is>
+      </c>
       <c r="D331" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01104</t>
+          <t>EGRAK01097</t>
         </is>
       </c>
     </row>
     <row r="332" ht="36" customHeight="1">
       <c r="A332" s="10" t="inlineStr">
         <is>
-          <t>IGRF000493004</t>
+          <t>IGRF000494002</t>
         </is>
       </c>
       <c r="B332" s="11" t="n">
-        <v>45504</v>
+        <v>45546</v>
       </c>
       <c r="C332" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 (II) EUROPEAN BOND FUND</t>
+          <t>PIRAEUS IDEAS GLOBAL EQUITY FUND (R)</t>
         </is>
       </c>
       <c r="D332" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01096</t>
+          <t>EGRAK01004</t>
         </is>
       </c>
     </row>
     <row r="333" ht="36" customHeight="1">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>IGRF000495009</t>
+          <t>IGRF000496007</t>
         </is>
       </c>
       <c r="B333" s="13" t="n">
-        <v>45513</v>
+        <v>45547</v>
       </c>
       <c r="C333" s="4" t="inlineStr">
         <is>
-          <t>TRITON Target Maturity Class A</t>
+          <t>TRITON Target Maturity Class E</t>
         </is>
       </c>
       <c r="D333" s="4" t="inlineStr">
@@ -19684,115 +19715,53 @@
     <row r="334" ht="36" customHeight="1">
       <c r="A334" s="10" t="inlineStr">
         <is>
-          <t>IGRF000494002</t>
+          <t>IGRF000497005</t>
         </is>
       </c>
       <c r="B334" s="11" t="n">
-        <v>45546</v>
+        <v>45551</v>
       </c>
       <c r="C334" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS IDEAS GLOBAL EQUITY FUND (R)</t>
+          <t>DELOS EXTRA INCOME VII 24MONTHS - BOND FUND</t>
         </is>
       </c>
       <c r="D334" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01004</t>
+          <t>EGRAK01098</t>
         </is>
       </c>
     </row>
     <row r="335" ht="36" customHeight="1">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>IGRF000496007</t>
-        </is>
-      </c>
-      <c r="B335" s="13" t="n">
-        <v>45547</v>
-      </c>
-      <c r="C335" s="4" t="inlineStr">
-        <is>
-          <t>TRITON Target Maturity Class E</t>
-        </is>
-      </c>
+          <t>PEGRAEEAP012_SHR</t>
+        </is>
+      </c>
+      <c r="B335" s="13" t="inlineStr"/>
+      <c r="C335" s="4" t="inlineStr"/>
       <c r="D335" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01097</t>
+          <t>EGRAEEAP012</t>
         </is>
       </c>
     </row>
     <row r="336" ht="36" customHeight="1">
       <c r="A336" s="10" t="inlineStr">
         <is>
-          <t>IGRF000497005</t>
-        </is>
-      </c>
-      <c r="B336" s="11" t="n">
-        <v>45551</v>
-      </c>
-      <c r="C336" s="6" t="inlineStr">
-        <is>
-          <t>DELOS EXTRA INCOME VII 24MONTHS - BOND FUND</t>
-        </is>
-      </c>
+          <t>PEGRAK01102_SHR</t>
+        </is>
+      </c>
+      <c r="B336" s="11" t="inlineStr"/>
+      <c r="C336" s="6" t="inlineStr"/>
       <c r="D336" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01098</t>
-        </is>
-      </c>
-    </row>
-    <row r="337" ht="36" customHeight="1">
-      <c r="A337" s="12" t="inlineStr">
-        <is>
-          <t>PEGRAK01103_SHR</t>
-        </is>
-      </c>
-      <c r="B337" s="13" t="n">
-        <v>45552</v>
-      </c>
-      <c r="C337" s="4" t="inlineStr"/>
-      <c r="D337" s="4" t="inlineStr">
-        <is>
-          <t>EGRAK01103</t>
-        </is>
-      </c>
-    </row>
-    <row r="338" ht="36" customHeight="1">
-      <c r="A338" s="10" t="inlineStr">
-        <is>
-          <t>IGRF000501004</t>
-        </is>
-      </c>
-      <c r="B338" s="11" t="n">
-        <v>45576</v>
-      </c>
-      <c r="C338" s="6" t="inlineStr">
-        <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2029 (III) EUROPEAN BOND FUND</t>
-        </is>
-      </c>
-      <c r="D338" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK01101</t>
-        </is>
-      </c>
-    </row>
-    <row r="339" ht="36" customHeight="1">
-      <c r="A339" s="12" t="inlineStr">
-        <is>
-          <t>PEGRAEEAP012_SHR</t>
-        </is>
-      </c>
-      <c r="B339" s="13" t="inlineStr"/>
-      <c r="C339" s="4" t="inlineStr"/>
-      <c r="D339" s="4" t="inlineStr">
-        <is>
-          <t>EGRAEEAP012</t>
+          <t>EGRAK01002</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D339"/>
+  <autoFilter ref="A1:D336"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -19827,7 +19796,7 @@
       </c>
       <c r="B1" s="9" t="inlineStr">
         <is>
-          <t>ΣΥΣΤΑΣΗ</t>
+          <t>ΗΜΕΡΟΜΗΝΙΑ ΣΥΣΤΑΣΗΣ</t>
         </is>
       </c>
       <c r="C1" s="8" t="inlineStr">
@@ -19837,7 +19806,7 @@
       </c>
       <c r="D1" s="8" t="inlineStr">
         <is>
-          <t>ΕΚΔΟΤΗΣ</t>
+          <t>ΕΚΔΟΤΗΣ-ΕΟ</t>
         </is>
       </c>
     </row>

--- a/docs/source/_static/structure/IFDAT-LIST.xlsx
+++ b/docs/source/_static/structure/IFDAT-LIST.xlsx
@@ -16,9 +16,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ΠΕΡΙΕΧΟΜΕΝΑ'!$A$1:$A$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ΜΠΣ'!$A$1:$F$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EO'!$A$1:$J$251</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ'!$A$1:$D$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ΜΠΣ'!$A$1:$F$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EO'!$A$1:$I$255</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ'!$A$1:$D$341</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ΕΚΔΟΣΕΙΣ ΟΜΟΛΟΓΩΝ ΕΟ'!$A$1:$D$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -586,7 +586,7 @@
         <is>
           <t>IFDAT
 ΠΙΝΑΚΑΣ ΥΠΟΧΡΕΩΝ ΦΟΡΕΩΝ
-ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2024-10-28</t>
+ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2024-10-29</t>
         </is>
       </c>
       <c r="D3" s="1" t="n"/>
@@ -1213,7 +1213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>L213800SHGGWDBFVRPS03, TGR094282521, BGR000920101000</t>
+          <t>TGR094282521, BGR000920101000, L213800SHGGWDBFVRPS03</t>
         </is>
       </c>
       <c r="C2" s="11" t="n">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>L213800BEX8X28DTL5391, TGR094036844, BGR000352001000</t>
+          <t>TGR094036844, L213800BEX8X28DTL5391, BGR000352001000</t>
         </is>
       </c>
       <c r="C3" s="13" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>TGR094493219, BGR002292401000, L213800SMPWZVT6GGQZ69</t>
+          <t>L213800SMPWZVT6GGQZ69, BGR002292401000, TGR094493219</t>
         </is>
       </c>
       <c r="C4" s="11" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>BGR004307701000, L213800C9JGYAXWYTM652, TGR099936130</t>
+          <t>L213800C9JGYAXWYTM652, BGR004307701000, TGR099936130</t>
         </is>
       </c>
       <c r="C5" s="13" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>BGR006314201000, L213800CF8C4B9AKV1Z96, TGR999081601</t>
+          <t>TGR999081601, BGR006314201000, L213800CF8C4B9AKV1Z96</t>
         </is>
       </c>
       <c r="C6" s="11" t="n">
@@ -1404,12 +1404,12 @@
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00003, EGRAK00014, EGRAK00124, EGRAK00125, EGRAK00136, EGRAK00139, EGRAK00215, EGRAK00219, EGRAK00253, EGRAK00270, EGRAK00401, EGRAK00428, EGRAK00450, EGRAK00469, EGRAK00512, EGRAK00559, EGRAK00560, EGRAK00823, EGRAK00828, EGRAK00848, EGRAK01004, EGRAK01006, EGRAK01007, EGRAK01014, EGRAK01018, EGRAK01028, EGRAK01044, EGRAK01048, EGRAK01053, EGRAK01077, EGRAK01078, EGRAK01089, EGRAK01091, EGRAK01096</t>
+          <t>EGRAK00003, EGRAK00014, EGRAK00124, EGRAK00125, EGRAK00136, EGRAK00139, EGRAK00215, EGRAK00219, EGRAK00253, EGRAK00270, EGRAK00401, EGRAK00428, EGRAK00450, EGRAK00469, EGRAK00512, EGRAK00559, EGRAK00560, EGRAK00823, EGRAK00828, EGRAK00848, EGRAK01004, EGRAK01006, EGRAK01007, EGRAK01014, EGRAK01018, EGRAK01028, EGRAK01044, EGRAK01048, EGRAK01053, EGRAK01077, EGRAK01078, EGRAK01089, EGRAK01091, EGRAK01096, EGRAK01101</t>
         </is>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00003, EGRAK00014, EGRAK00124, EGRAK00125, EGRAK00136, EGRAK00139, EGRAK00215, EGRAK00219, EGRAK00253, EGRAK00270, EGRAK00401, EGRAK00428, EGRAK00450, EGRAK00469, EGRAK00512, EGRAK00559, EGRAK00560, EGRAK00823, EGRAK00828, EGRAK00848, EGRAK01004, EGRAK01006, EGRAK01007, EGRAK01014, EGRAK01018, EGRAK01028, EGRAK01044, EGRAK01048, EGRAK01053, EGRAK01077, EGRAK01078, EGRAK01089, EGRAK01091, EGRAK01096</t>
+          <t>EGRAK00003, EGRAK00014, EGRAK00124, EGRAK00125, EGRAK00136, EGRAK00139, EGRAK00215, EGRAK00219, EGRAK00253, EGRAK00270, EGRAK00401, EGRAK00428, EGRAK00450, EGRAK00469, EGRAK00512, EGRAK00559, EGRAK00560, EGRAK00823, EGRAK00828, EGRAK00848, EGRAK01004, EGRAK01006, EGRAK01007, EGRAK01014, EGRAK01018, EGRAK01028, EGRAK01044, EGRAK01048, EGRAK01053, EGRAK01077, EGRAK01078, EGRAK01089, EGRAK01091, EGRAK01096, EGRAK01101</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>TGR094304867, L213800UWXVWAKFGVLB36, BGR001003501000</t>
+          <t>TGR094304867, BGR001003501000, L213800UWXVWAKFGVLB36</t>
         </is>
       </c>
       <c r="C7" s="13" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>TGR094354938, L213800U6WAX3YXMFVH22, BGR000942001000</t>
+          <t>BGR000942001000, L213800U6WAX3YXMFVH22, TGR094354938</t>
         </is>
       </c>
       <c r="C8" s="11" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>L213800YSZHWSCLXXRI37, BGR000832401000, TGR094325107</t>
+          <t>TGR094325107, L213800YSZHWSCLXXRI37, BGR000832401000</t>
         </is>
       </c>
       <c r="C9" s="13" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>L635400S5G5WWGN6B8T87, BGR000918601000, TGR094351475</t>
+          <t>BGR000918601000, L635400S5G5WWGN6B8T87, TGR094351475</t>
         </is>
       </c>
       <c r="C10" s="11" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>L549300JSLNCWDXJT4U81, TGR099760120, BGR003931601000</t>
+          <t>BGR003931601000, TGR099760120, L549300JSLNCWDXJT4U81</t>
         </is>
       </c>
       <c r="C12" s="11" t="n">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>L213800USGL7Q5UR9M221, BGR003882701000, TGR099759863</t>
+          <t>BGR003882701000, TGR099759863, L213800USGL7Q5UR9M221</t>
         </is>
       </c>
       <c r="C13" s="13" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>TGR099554901, BGR003548801000, L213800U7SBKWW79CBG88</t>
+          <t>L213800U7SBKWW79CBG88, TGR099554901, BGR003548801000</t>
         </is>
       </c>
       <c r="C15" s="13" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>TGR998642355, L2138001MKHE9G2UERJ13, BGR007175901000</t>
+          <t>BGR007175901000, TGR998642355, L2138001MKHE9G2UERJ13</t>
         </is>
       </c>
       <c r="C17" s="13" t="n">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>BGR008234001000, L213800ESHXNWYJAEMO70, TGR998159392</t>
+          <t>L213800ESHXNWYJAEMO70, TGR998159392, BGR008234001000</t>
         </is>
       </c>
       <c r="C20" s="11" t="n">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>L213800QM2ZFRARYU6C87, BGR120108101000, TGR800397001</t>
+          <t>L213800QM2ZFRARYU6C87, TGR800397001, BGR120108101000</t>
         </is>
       </c>
       <c r="C21" s="13" t="n">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>TGR800433747, BGR122339001000, L2138006SQBPKYG6GZX87</t>
+          <t>L2138006SQBPKYG6GZX87, BGR122339001000, TGR800433747</t>
         </is>
       </c>
       <c r="C23" s="13" t="n">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>TGR997656128, BGR128686346000, L213800Q23BDHSW1OQT90</t>
+          <t>BGR128686346000, TGR997656128, L213800Q23BDHSW1OQT90</t>
         </is>
       </c>
       <c r="C24" s="11" t="n">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>BGR140330201000, TGR997521479, L213800TBZBVWRUAOPV78</t>
+          <t>TGR997521479, L213800TBZBVWRUAOPV78, BGR140330201000</t>
         </is>
       </c>
       <c r="C25" s="13" t="n">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>TGR997010182, BGR142754460000, L254900CCGB73PBHKXL72</t>
+          <t>BGR142754460000, TGR997010182, L254900CCGB73PBHKXL72</t>
         </is>
       </c>
       <c r="C27" s="13" t="n">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>L9845007DB3RB2B4DN624, BGR144560003000, TGR800903737</t>
+          <t>L9845007DB3RB2B4DN624, TGR800903737, BGR144560003000</t>
         </is>
       </c>
       <c r="C28" s="11" t="n">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>TGR801077433, L213800DTEZE6R8BZ9K19, BGR148547901000</t>
+          <t>TGR801077433, BGR148547901000, L213800DTEZE6R8BZ9K19</t>
         </is>
       </c>
       <c r="C30" s="11" t="n">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>L213800XKY8GHKN57D970, BGR152321260000, TGR996899546</t>
+          <t>L213800XKY8GHKN57D970, TGR996899546, BGR152321260000</t>
         </is>
       </c>
       <c r="C31" s="13" t="n">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>BGR153787304000, TGR801296814, L9845007855485B71CC46</t>
+          <t>BGR153787304000, L9845007855485B71CC46, TGR801296814</t>
         </is>
       </c>
       <c r="C32" s="11" t="n">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>L9845003A111B06B9D568, TGR801446716, BGR157033507000</t>
+          <t>TGR801446716, L9845003A111B06B9D568, BGR157033507000</t>
         </is>
       </c>
       <c r="C34" s="11" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>L9845004F1F377E786787, BGR157036301000, TGR801446949</t>
+          <t>TGR801446949, BGR157036301000, L9845004F1F377E786787</t>
         </is>
       </c>
       <c r="C35" s="13" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>BGR157511601000, TGR801470046, L2138006VXU6UDW7P6H67</t>
+          <t>L2138006VXU6UDW7P6H67, TGR801470046, BGR157511601000</t>
         </is>
       </c>
       <c r="C36" s="11" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>BGR159031301000, L213800YJOZGHVAPEJP93, TGR801554045</t>
+          <t>TGR801554045, L213800YJOZGHVAPEJP93, BGR159031301000</t>
         </is>
       </c>
       <c r="C38" s="11" t="n">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>TGR996805731, BGR160110060000, L2138006STLTDFRIZTC42</t>
+          <t>BGR160110060000, L2138006STLTDFRIZTC42, TGR996805731</t>
         </is>
       </c>
       <c r="C39" s="13" t="n">
@@ -2370,298 +2370,388 @@
     <row r="40" ht="36" customHeight="1">
       <c r="A40" s="10" t="inlineStr">
         <is>
-          <t>EGR094321237</t>
+          <t>EGR801698110</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>BGR000861301000, L213800MU91F1752AVM79, TGR094321237</t>
+          <t>TGR801698110, L984500E6O0A11A6C4E59, BGR161709401000</t>
         </is>
       </c>
       <c r="C40" s="11" t="n">
-        <v>44635</v>
+        <v>44524</v>
       </c>
       <c r="D40" s="6" t="inlineStr">
         <is>
-          <t>PREMIA ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
-        </is>
-      </c>
-      <c r="E40" s="6" t="inlineStr"/>
+          <t xml:space="preserve">ELBRIDGE CAPITAL MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΗΣΗΣ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΙΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ </t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK01103</t>
+        </is>
+      </c>
       <c r="F40" s="6" t="inlineStr">
         <is>
-          <t>EGR094321237</t>
+          <t>EGRAK01103</t>
         </is>
       </c>
     </row>
     <row r="41" ht="36" customHeight="1">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>EGR801812106</t>
+          <t>EGR094321237</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>TGR801812106, BGR163809001000</t>
+          <t>BGR000861301000, L213800MU91F1752AVM79, TGR094321237</t>
         </is>
       </c>
       <c r="C41" s="13" t="n">
-        <v>44665</v>
+        <v>44635</v>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>LSTONE ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>EGRAK01072</t>
-        </is>
-      </c>
+          <t>PREMIA ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr"/>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01072</t>
+          <t>EGR094321237</t>
         </is>
       </c>
     </row>
     <row r="42" ht="36" customHeight="1">
       <c r="A42" s="10" t="inlineStr">
         <is>
-          <t>EGR801878297</t>
+          <t>EGR801812106</t>
         </is>
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
-          <t>TGR801878297, BGR165052501000, L984500F87AF5652C5A91</t>
+          <t>BGR163809001000, TGR801812106</t>
         </is>
       </c>
       <c r="C42" s="11" t="n">
-        <v>44760</v>
+        <v>44665</v>
       </c>
       <c r="D42" s="6" t="inlineStr">
         <is>
-          <t>BIG PI ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>LSTONE ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E42" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01073</t>
+          <t>EGRAK01072</t>
         </is>
       </c>
       <c r="F42" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01073</t>
+          <t>EGRAK01072</t>
         </is>
       </c>
     </row>
     <row r="43" ht="36" customHeight="1">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>EGR802025852</t>
+          <t>EGR801878297</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>TGR802025852, BGR168398401000,  
-BGR168398401000</t>
+          <t>BGR165052501000, TGR801878297, L984500F87AF5652C5A91</t>
         </is>
       </c>
       <c r="C43" s="13" t="n">
-        <v>44953</v>
+        <v>44760</v>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>IGROW VENTURE PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ Α.Ε.</t>
+          <t>BIG PI ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01100</t>
+          <t>EGRAK01073</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01100</t>
+          <t>EGRAK01073</t>
         </is>
       </c>
     </row>
     <row r="44" ht="36" customHeight="1">
       <c r="A44" s="10" t="inlineStr">
         <is>
-          <t>EGR802047322</t>
+          <t>EGR802025852</t>
         </is>
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
-          <t>L2138007QOK3W75DIHX50, BGR168862301000, TGR802047322</t>
+          <t>TGR802025852,  
+BGR168398401000, BGR168398401000</t>
         </is>
       </c>
       <c r="C44" s="11" t="n">
-        <v>44972</v>
+        <v>44953</v>
       </c>
       <c r="D44" s="6" t="inlineStr">
         <is>
-          <t>SPOROS Impact Ventures ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ Διαχείρισης Αμοιβαίων Κεφαλαίων Επιχειρηματικών Συμμετοχών</t>
+          <t>IGROW VENTURE PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ Α.Ε.</t>
         </is>
       </c>
       <c r="E44" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01075</t>
+          <t>EGRAK01100</t>
         </is>
       </c>
       <c r="F44" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01075</t>
+          <t>EGRAK01100</t>
         </is>
       </c>
     </row>
     <row r="45" ht="36" customHeight="1">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>EGR802071555</t>
+          <t>EGR802047322</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>TGR802071555, BGR169369101000</t>
+          <t>BGR168862301000, TGR802047322, L2138007QOK3W75DIHX50</t>
         </is>
       </c>
       <c r="C45" s="13" t="n">
-        <v>44995</v>
+        <v>44972</v>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>FOS CAPITAL MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>SPOROS Impact Ventures ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ Διαχείρισης Αμοιβαίων Κεφαλαίων Επιχειρηματικών Συμμετοχών</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01076</t>
+          <t>EGRAK01075</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01076</t>
+          <t>EGRAK01075</t>
         </is>
       </c>
     </row>
     <row r="46" ht="36" customHeight="1">
       <c r="A46" s="10" t="inlineStr">
         <is>
-          <t>EGR802177269</t>
+          <t>EGR802071555</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
-          <t>L984500EE58FDEBF8BF32, BGR171519601000, TGR802177269</t>
+          <t>TGR802071555, BGR169369101000</t>
         </is>
       </c>
       <c r="C46" s="11" t="n">
-        <v>45114</v>
+        <v>44995</v>
       </c>
       <c r="D46" s="6" t="inlineStr">
         <is>
-          <t>OIKOS FUND MANAGEMENT ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
+          <t>FOS CAPITAL MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E46" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01074</t>
+          <t>EGRAK01076</t>
         </is>
       </c>
       <c r="F46" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01074</t>
+          <t>EGRAK01076</t>
         </is>
       </c>
     </row>
     <row r="47" ht="36" customHeight="1">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>EGR802190685</t>
+          <t>EGR802177269</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>BGR171775701000, TGR802190685</t>
+          <t>BGR171519601000, TGR802177269, L984500EE58FDEBF8BF32</t>
         </is>
       </c>
       <c r="C47" s="13" t="n">
-        <v>45134</v>
+        <v>45114</v>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>APEIRON VENTURES CAPITAL PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>OIKOS FUND MANAGEMENT ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01099</t>
+          <t>EGRAK01074</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01099</t>
+          <t>EGRAK01074</t>
         </is>
       </c>
     </row>
     <row r="48" ht="36" customHeight="1">
       <c r="A48" s="10" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
+          <t>EGR802187644</t>
         </is>
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
-          <t>TGR996542649, BGR173975960000, L213800G7J7NDXVAS3P11</t>
+          <t>TGR802187644, BGR171720006000</t>
         </is>
       </c>
       <c r="C48" s="11" t="n">
-        <v>45278</v>
+        <v>45128</v>
       </c>
       <c r="D48" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TRUST Μονοπρόσωπη Ανώνυμη Εταιρεία Διαχείρισης Αμοιβαίων Κεφαλαίων και Οργανισμών Εναλλακτικών Επενδύσεων</t>
+          <t>LOGGERHEAD VENTURES ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΙΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="E48" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
+          <t>EGRAK01104</t>
         </is>
       </c>
       <c r="F48" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
+          <t>EGRAK01104</t>
         </is>
       </c>
     </row>
     <row r="49" ht="36" customHeight="1">
       <c r="A49" s="12" t="inlineStr">
         <is>
+          <t>EGR802190685</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>BGR171775701000, TGR802190685</t>
+        </is>
+      </c>
+      <c r="C49" s="13" t="n">
+        <v>45134</v>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>APEIRON VENTURES CAPITAL PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK01099</t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK01099</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="36" customHeight="1">
+      <c r="A50" s="10" t="inlineStr">
+        <is>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>L213800G7J7NDXVAS3P11, TGR996542649, BGR173975960000</t>
+        </is>
+      </c>
+      <c r="C50" s="11" t="n">
+        <v>45278</v>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>ALPHA TRUST Μονοπρόσωπη Ανώνυμη Εταιρεία Διαχείρισης Αμοιβαίων Κεφαλαίων και Οργανισμών Εναλλακτικών Επενδύσεων</t>
+        </is>
+      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="36" customHeight="1">
+      <c r="A51" s="12" t="inlineStr">
+        <is>
           <t>EGRAEEAP012</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>BGR174106158000, TGR996723817</t>
         </is>
       </c>
-      <c r="C49" s="13" t="n">
+      <c r="C51" s="13" t="n">
         <v>45287</v>
       </c>
-      <c r="D49" s="4" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ ΧΑΝΙΩΝ</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr"/>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr">
         <is>
           <t>EGRAEEAP012</t>
         </is>
       </c>
     </row>
+    <row r="52" ht="36" customHeight="1">
+      <c r="A52" s="10" t="inlineStr">
+        <is>
+          <t>EGR802458356</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>TGR802458356, BGR176733801000</t>
+        </is>
+      </c>
+      <c r="C52" s="11" t="n">
+        <v>45392</v>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
+        <is>
+          <t>CORALLIA VENTURES MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+        </is>
+      </c>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK01102</t>
+        </is>
+      </c>
+      <c r="F52" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK01102</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F49"/>
+  <autoFilter ref="A1:F52"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2672,7 +2762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:I255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2688,11 +2778,10 @@
     <col width="27.3" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="14.3" customWidth="1" min="5" max="5"/>
-    <col width="10.4" customWidth="1" min="6" max="6"/>
+    <col width="18.2" customWidth="1" min="6" max="6"/>
     <col width="18.2" customWidth="1" min="7" max="7"/>
-    <col width="18.2" customWidth="1" min="8" max="8"/>
-    <col width="50" customWidth="1" min="9" max="9"/>
-    <col width="19.5" customWidth="1" min="10" max="10"/>
+    <col width="50" customWidth="1" min="8" max="8"/>
+    <col width="19.5" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1">
@@ -2722,25 +2811,20 @@
       </c>
       <c r="F1" s="8" t="inlineStr">
         <is>
-          <t>IS_FOF</t>
+          <t>ΔΙΑΧΕΙΡΙΣΤΗΣ</t>
         </is>
       </c>
       <c r="G1" s="8" t="inlineStr">
         <is>
-          <t>ΔΙΑΧΕΙΡΙΣΤΗΣ</t>
+          <t>ΜΠΣ</t>
         </is>
       </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
-          <t>ΜΠΣ</t>
+          <t>ΙΔΙΕΣ ΜΕΤΟΧΕΣ</t>
         </is>
       </c>
       <c r="I1" s="8" t="inlineStr">
-        <is>
-          <t>ΙΔΙΕΣ ΜΕΤΟΧΕΣ</t>
-        </is>
-      </c>
-      <c r="J1" s="8" t="inlineStr">
         <is>
           <t>ΙΔΙΑ ΟΜΟΛΟΓΑ</t>
         </is>
@@ -2770,7 +2854,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr"/>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -2778,15 +2866,10 @@
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I2" s="6" t="inlineStr">
-        <is>
           <t>IGRF000220001, IGRF000221009</t>
         </is>
       </c>
-      <c r="J2" s="6" t="inlineStr"/>
+      <c r="I2" s="6" t="inlineStr"/>
     </row>
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="12" t="inlineStr">
@@ -2812,7 +2895,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -2820,15 +2907,10 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
           <t>IGRF000031002</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr"/>
+      <c r="I3" s="4" t="inlineStr"/>
     </row>
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="10" t="inlineStr">
@@ -2854,7 +2936,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr"/>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -2862,15 +2948,10 @@
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I4" s="6" t="inlineStr">
-        <is>
           <t>IGRF000149002, IGRF000306008</t>
         </is>
       </c>
-      <c r="J4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
     </row>
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="12" t="inlineStr">
@@ -2896,7 +2977,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -2904,15 +2989,10 @@
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
           <t>IGRF000203007, IGRF000204005</t>
         </is>
       </c>
-      <c r="J5" s="4" t="inlineStr"/>
+      <c r="I5" s="4" t="inlineStr"/>
     </row>
     <row r="6" ht="36" customHeight="1">
       <c r="A6" s="10" t="inlineStr">
@@ -2938,7 +3018,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -2946,15 +3030,10 @@
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
           <t>IGRF000216009, IGRF000217007</t>
         </is>
       </c>
-      <c r="J6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
     </row>
     <row r="7" ht="36" customHeight="1">
       <c r="A7" s="12" t="inlineStr">
@@ -2980,7 +3059,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -2988,15 +3071,10 @@
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
           <t>IGRF000158003, IGRF000362001</t>
         </is>
       </c>
-      <c r="J7" s="4" t="inlineStr"/>
+      <c r="I7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="36" customHeight="1">
       <c r="A8" s="10" t="inlineStr">
@@ -3022,7 +3100,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -3030,15 +3112,10 @@
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
           <t>IGRF000148004, IGRF000308004</t>
         </is>
       </c>
-      <c r="J8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
     </row>
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="12" t="inlineStr">
@@ -3064,7 +3141,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -3072,15 +3153,10 @@
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
           <t>IGRF000211000</t>
         </is>
       </c>
-      <c r="J9" s="4" t="inlineStr"/>
+      <c r="I9" s="4" t="inlineStr"/>
     </row>
     <row r="10" ht="36" customHeight="1">
       <c r="A10" s="10" t="inlineStr">
@@ -3106,7 +3182,11 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr"/>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -3114,15 +3194,10 @@
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I10" s="6" t="inlineStr">
-        <is>
           <t>IGRF000200003, IGRF000201001</t>
         </is>
       </c>
-      <c r="J10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="inlineStr"/>
     </row>
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="12" t="inlineStr">
@@ -3148,7 +3223,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC013</t>
+        </is>
+      </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
@@ -3156,15 +3235,10 @@
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
-        </is>
-      </c>
-      <c r="I11" s="4" t="inlineStr">
-        <is>
           <t>IGRF000087004</t>
         </is>
       </c>
-      <c r="J11" s="4" t="inlineStr"/>
+      <c r="I11" s="4" t="inlineStr"/>
     </row>
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="10" t="inlineStr">
@@ -3190,7 +3264,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -3198,15 +3276,10 @@
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I12" s="6" t="inlineStr">
-        <is>
           <t>IGRF000151008, IGRF000313004</t>
         </is>
       </c>
-      <c r="J12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
     </row>
     <row r="13" ht="36" customHeight="1">
       <c r="A13" s="12" t="inlineStr">
@@ -3232,7 +3305,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -3240,15 +3317,10 @@
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I13" s="4" t="inlineStr">
-        <is>
           <t>IGRF000023009</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr"/>
+      <c r="I13" s="4" t="inlineStr"/>
     </row>
     <row r="14" ht="36" customHeight="1">
       <c r="A14" s="10" t="inlineStr">
@@ -3274,7 +3346,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr"/>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -3282,15 +3358,10 @@
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I14" s="6" t="inlineStr">
-        <is>
           <t>IGRF000037009</t>
         </is>
       </c>
-      <c r="J14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
     </row>
     <row r="15" ht="36" customHeight="1">
       <c r="A15" s="12" t="inlineStr">
@@ -3316,7 +3387,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC030</t>
+        </is>
+      </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
@@ -3324,15 +3399,10 @@
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC030</t>
-        </is>
-      </c>
-      <c r="I15" s="4" t="inlineStr">
-        <is>
           <t>IGRF000078003</t>
         </is>
       </c>
-      <c r="J15" s="4" t="inlineStr"/>
+      <c r="I15" s="4" t="inlineStr"/>
     </row>
     <row r="16" ht="36" customHeight="1">
       <c r="A16" s="10" t="inlineStr">
@@ -3358,7 +3428,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr"/>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC030</t>
+        </is>
+      </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
@@ -3366,15 +3440,10 @@
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC030</t>
-        </is>
-      </c>
-      <c r="I16" s="6" t="inlineStr">
-        <is>
           <t>IGRF000077005</t>
         </is>
       </c>
-      <c r="J16" s="6" t="inlineStr"/>
+      <c r="I16" s="6" t="inlineStr"/>
     </row>
     <row r="17" ht="36" customHeight="1">
       <c r="A17" s="12" t="inlineStr">
@@ -3400,7 +3469,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC013</t>
+        </is>
+      </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
@@ -3408,15 +3481,10 @@
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
-        </is>
-      </c>
-      <c r="I17" s="4" t="inlineStr">
-        <is>
           <t>IGRF000088002</t>
         </is>
       </c>
-      <c r="J17" s="4" t="inlineStr"/>
+      <c r="I17" s="4" t="inlineStr"/>
     </row>
     <row r="18" ht="36" customHeight="1">
       <c r="A18" s="10" t="inlineStr">
@@ -3442,7 +3510,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr"/>
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC001</t>
+        </is>
+      </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
@@ -3450,15 +3522,10 @@
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC001</t>
-        </is>
-      </c>
-      <c r="I18" s="6" t="inlineStr">
-        <is>
           <t>IGRF000287000</t>
         </is>
       </c>
-      <c r="J18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
     </row>
     <row r="19" ht="36" customHeight="1">
       <c r="A19" s="12" t="inlineStr">
@@ -3484,7 +3551,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -3492,15 +3563,10 @@
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
           <t>IGRF000205002, IGRF000206000, IGRF000373008</t>
         </is>
       </c>
-      <c r="J19" s="4" t="inlineStr"/>
+      <c r="I19" s="4" t="inlineStr"/>
     </row>
     <row r="20" ht="36" customHeight="1">
       <c r="A20" s="10" t="inlineStr">
@@ -3526,7 +3592,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC001</t>
+        </is>
+      </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
@@ -3534,15 +3604,10 @@
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC001</t>
-        </is>
-      </c>
-      <c r="I20" s="6" t="inlineStr">
-        <is>
           <t>IGRF000288008</t>
         </is>
       </c>
-      <c r="J20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
     </row>
     <row r="21" ht="36" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -3568,7 +3633,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -3576,15 +3645,10 @@
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
           <t>IGRF000143005, IGRF000176005, IGRF000301009</t>
         </is>
       </c>
-      <c r="J21" s="4" t="inlineStr"/>
+      <c r="I21" s="4" t="inlineStr"/>
     </row>
     <row r="22" ht="36" customHeight="1">
       <c r="A22" s="10" t="inlineStr">
@@ -3610,7 +3674,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr"/>
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -3618,15 +3686,10 @@
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I22" s="6" t="inlineStr">
-        <is>
           <t>IGRF000142007, IGRF000172004</t>
         </is>
       </c>
-      <c r="J22" s="6" t="inlineStr"/>
+      <c r="I22" s="6" t="inlineStr"/>
     </row>
     <row r="23" ht="36" customHeight="1">
       <c r="A23" s="12" t="inlineStr">
@@ -3652,7 +3715,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -3660,15 +3727,10 @@
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
           <t>IGRF000004009</t>
         </is>
       </c>
-      <c r="J23" s="4" t="inlineStr"/>
+      <c r="I23" s="4" t="inlineStr"/>
     </row>
     <row r="24" ht="36" customHeight="1">
       <c r="A24" s="10" t="inlineStr">
@@ -3694,7 +3756,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr"/>
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -3702,15 +3768,10 @@
       </c>
       <c r="H24" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I24" s="6" t="inlineStr">
-        <is>
           <t>IGRF000006004</t>
         </is>
       </c>
-      <c r="J24" s="6" t="inlineStr"/>
+      <c r="I24" s="6" t="inlineStr"/>
     </row>
     <row r="25" ht="36" customHeight="1">
       <c r="A25" s="12" t="inlineStr">
@@ -3736,7 +3797,11 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC013</t>
+        </is>
+      </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
@@ -3744,15 +3809,10 @@
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
-        </is>
-      </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
           <t>IGRF000089000</t>
         </is>
       </c>
-      <c r="J25" s="4" t="inlineStr"/>
+      <c r="I25" s="4" t="inlineStr"/>
     </row>
     <row r="26" ht="36" customHeight="1">
       <c r="A26" s="10" t="inlineStr">
@@ -3778,7 +3838,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr"/>
+      <c r="F26" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G26" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -3786,15 +3850,10 @@
       </c>
       <c r="H26" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I26" s="6" t="inlineStr">
-        <is>
           <t>IGRF000024007</t>
         </is>
       </c>
-      <c r="J26" s="6" t="inlineStr"/>
+      <c r="I26" s="6" t="inlineStr"/>
     </row>
     <row r="27" ht="36" customHeight="1">
       <c r="A27" s="12" t="inlineStr">
@@ -3820,7 +3879,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -3828,15 +3891,10 @@
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I27" s="4" t="inlineStr">
-        <is>
           <t>IGRF000147006, IGRF000309002</t>
         </is>
       </c>
-      <c r="J27" s="4" t="inlineStr"/>
+      <c r="I27" s="4" t="inlineStr"/>
     </row>
     <row r="28" ht="36" customHeight="1">
       <c r="A28" s="10" t="inlineStr">
@@ -3862,7 +3920,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr"/>
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC001</t>
+        </is>
+      </c>
       <c r="G28" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
@@ -3870,15 +3932,10 @@
       </c>
       <c r="H28" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC001</t>
-        </is>
-      </c>
-      <c r="I28" s="6" t="inlineStr">
-        <is>
           <t>IGRF000290004</t>
         </is>
       </c>
-      <c r="J28" s="6" t="inlineStr"/>
+      <c r="I28" s="6" t="inlineStr"/>
     </row>
     <row r="29" ht="36" customHeight="1">
       <c r="A29" s="12" t="inlineStr">
@@ -3904,7 +3961,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
@@ -3912,15 +3973,10 @@
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
-        </is>
-      </c>
-      <c r="I29" s="4" t="inlineStr">
-        <is>
           <t>IGRF000062007, IGRF000304003</t>
         </is>
       </c>
-      <c r="J29" s="4" t="inlineStr"/>
+      <c r="I29" s="4" t="inlineStr"/>
     </row>
     <row r="30" ht="36" customHeight="1">
       <c r="A30" s="10" t="inlineStr">
@@ -3946,7 +4002,11 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr"/>
+      <c r="F30" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G30" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -3954,15 +4014,10 @@
       </c>
       <c r="H30" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I30" s="6" t="inlineStr">
-        <is>
           <t>IGRF000146008</t>
         </is>
       </c>
-      <c r="J30" s="6" t="inlineStr"/>
+      <c r="I30" s="6" t="inlineStr"/>
     </row>
     <row r="31" ht="36" customHeight="1">
       <c r="A31" s="12" t="inlineStr">
@@ -3988,7 +4043,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -3996,15 +4055,10 @@
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I31" s="4" t="inlineStr">
-        <is>
           <t>IGRF000103009, IGRF000282001</t>
         </is>
       </c>
-      <c r="J31" s="4" t="inlineStr"/>
+      <c r="I31" s="4" t="inlineStr"/>
     </row>
     <row r="32" ht="36" customHeight="1">
       <c r="A32" s="10" t="inlineStr">
@@ -4030,7 +4084,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr"/>
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC013</t>
+        </is>
+      </c>
       <c r="G32" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
@@ -4038,15 +4096,10 @@
       </c>
       <c r="H32" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
-        </is>
-      </c>
-      <c r="I32" s="6" t="inlineStr">
-        <is>
           <t>IGRF000090008</t>
         </is>
       </c>
-      <c r="J32" s="6" t="inlineStr"/>
+      <c r="I32" s="6" t="inlineStr"/>
     </row>
     <row r="33" ht="36" customHeight="1">
       <c r="A33" s="12" t="inlineStr">
@@ -4072,7 +4125,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -4080,15 +4137,10 @@
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I33" s="4" t="inlineStr">
-        <is>
           <t>IGRF000209004, IGRF000237005, IGRF000375003</t>
         </is>
       </c>
-      <c r="J33" s="4" t="inlineStr"/>
+      <c r="I33" s="4" t="inlineStr"/>
     </row>
     <row r="34" ht="36" customHeight="1">
       <c r="A34" s="10" t="inlineStr">
@@ -4114,7 +4166,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F34" s="6" t="inlineStr"/>
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
       <c r="G34" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
@@ -4122,15 +4178,10 @@
       </c>
       <c r="H34" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
-        </is>
-      </c>
-      <c r="I34" s="6" t="inlineStr">
-        <is>
           <t>IGRF000065000, IGRF000303005</t>
         </is>
       </c>
-      <c r="J34" s="6" t="inlineStr"/>
+      <c r="I34" s="6" t="inlineStr"/>
     </row>
     <row r="35" ht="36" customHeight="1">
       <c r="A35" s="12" t="inlineStr">
@@ -4156,7 +4207,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -4164,15 +4219,10 @@
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I35" s="4" t="inlineStr">
-        <is>
           <t>IGRF000107000, IGRF000284007, IGRF000286002</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr"/>
+      <c r="I35" s="4" t="inlineStr"/>
     </row>
     <row r="36" ht="36" customHeight="1">
       <c r="A36" s="10" t="inlineStr">
@@ -4198,7 +4248,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F36" s="6" t="inlineStr"/>
+      <c r="F36" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G36" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -4206,15 +4260,10 @@
       </c>
       <c r="H36" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I36" s="6" t="inlineStr">
-        <is>
           <t>IGRF000105004, IGRF000265006, IGRF000445004</t>
         </is>
       </c>
-      <c r="J36" s="6" t="inlineStr"/>
+      <c r="I36" s="6" t="inlineStr"/>
     </row>
     <row r="37" ht="36" customHeight="1">
       <c r="A37" s="12" t="inlineStr">
@@ -4240,7 +4289,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -4248,15 +4301,10 @@
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I37" s="4" t="inlineStr">
-        <is>
           <t>IGRF000104007, IGRF000256005, IGRF000446002</t>
         </is>
       </c>
-      <c r="J37" s="4" t="inlineStr"/>
+      <c r="I37" s="4" t="inlineStr"/>
     </row>
     <row r="38" ht="36" customHeight="1">
       <c r="A38" s="10" t="inlineStr">
@@ -4282,7 +4330,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F38" s="6" t="inlineStr"/>
+      <c r="F38" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G38" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -4290,15 +4342,10 @@
       </c>
       <c r="H38" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I38" s="6" t="inlineStr">
-        <is>
           <t>IGRF000025004</t>
         </is>
       </c>
-      <c r="J38" s="6" t="inlineStr"/>
+      <c r="I38" s="6" t="inlineStr"/>
     </row>
     <row r="39" ht="36" customHeight="1">
       <c r="A39" s="12" t="inlineStr">
@@ -4324,7 +4371,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -4332,15 +4383,10 @@
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I39" s="4" t="inlineStr">
-        <is>
           <t>IGRF000009008</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr"/>
+      <c r="I39" s="4" t="inlineStr"/>
     </row>
     <row r="40" ht="36" customHeight="1">
       <c r="A40" s="10" t="inlineStr">
@@ -4366,7 +4412,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr"/>
+      <c r="F40" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
       <c r="G40" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
@@ -4374,15 +4424,10 @@
       </c>
       <c r="H40" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
-        </is>
-      </c>
-      <c r="I40" s="6" t="inlineStr">
-        <is>
           <t>IGRF000058005, IGRF000302007</t>
         </is>
       </c>
-      <c r="J40" s="6" t="inlineStr"/>
+      <c r="I40" s="6" t="inlineStr"/>
     </row>
     <row r="41" ht="36" customHeight="1">
       <c r="A41" s="12" t="inlineStr">
@@ -4408,7 +4453,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC008</t>
+        </is>
+      </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
@@ -4416,15 +4465,10 @@
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC008</t>
-        </is>
-      </c>
-      <c r="I41" s="4" t="inlineStr">
-        <is>
           <t>IGRF000318003</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr"/>
+      <c r="I41" s="4" t="inlineStr"/>
     </row>
     <row r="42" ht="36" customHeight="1">
       <c r="A42" s="10" t="inlineStr">
@@ -4450,7 +4494,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F42" s="6" t="inlineStr"/>
+      <c r="F42" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G42" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -4458,15 +4506,10 @@
       </c>
       <c r="H42" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I42" s="6" t="inlineStr">
-        <is>
           <t>IGRF000106002, IGRF000267002, IGRF000269008</t>
         </is>
       </c>
-      <c r="J42" s="6" t="inlineStr"/>
+      <c r="I42" s="6" t="inlineStr"/>
     </row>
     <row r="43" ht="36" customHeight="1">
       <c r="A43" s="12" t="inlineStr">
@@ -4492,7 +4535,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr"/>
+      <c r="F43" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -4500,15 +4547,10 @@
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I43" s="4" t="inlineStr">
-        <is>
           <t>IGRF000002003</t>
         </is>
       </c>
-      <c r="J43" s="4" t="inlineStr"/>
+      <c r="I43" s="4" t="inlineStr"/>
     </row>
     <row r="44" ht="36" customHeight="1">
       <c r="A44" s="10" t="inlineStr">
@@ -4534,7 +4576,11 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F44" s="6" t="inlineStr"/>
+      <c r="F44" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
       <c r="G44" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
@@ -4542,15 +4588,10 @@
       </c>
       <c r="H44" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
-        </is>
-      </c>
-      <c r="I44" s="6" t="inlineStr">
-        <is>
           <t>IGRF000064003</t>
         </is>
       </c>
-      <c r="J44" s="6" t="inlineStr"/>
+      <c r="I44" s="6" t="inlineStr"/>
     </row>
     <row r="45" ht="36" customHeight="1">
       <c r="A45" s="12" t="inlineStr">
@@ -4576,7 +4617,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr"/>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC008</t>
+        </is>
+      </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
@@ -4584,15 +4629,10 @@
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC008</t>
-        </is>
-      </c>
-      <c r="I45" s="4" t="inlineStr">
-        <is>
           <t>IGRF000319001</t>
         </is>
       </c>
-      <c r="J45" s="4" t="inlineStr"/>
+      <c r="I45" s="4" t="inlineStr"/>
     </row>
     <row r="46" ht="36" customHeight="1">
       <c r="A46" s="10" t="inlineStr">
@@ -4618,7 +4658,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F46" s="6" t="inlineStr"/>
+      <c r="F46" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -4626,15 +4670,10 @@
       </c>
       <c r="H46" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I46" s="6" t="inlineStr">
-        <is>
           <t>IGRF000101003, IGRF000279007, IGRF000281003</t>
         </is>
       </c>
-      <c r="J46" s="6" t="inlineStr"/>
+      <c r="I46" s="6" t="inlineStr"/>
     </row>
     <row r="47" ht="36" customHeight="1">
       <c r="A47" s="12" t="inlineStr">
@@ -4660,7 +4699,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -4668,15 +4711,10 @@
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I47" s="4" t="inlineStr">
-        <is>
           <t>IGRF000005006</t>
         </is>
       </c>
-      <c r="J47" s="4" t="inlineStr"/>
+      <c r="I47" s="4" t="inlineStr"/>
     </row>
     <row r="48" ht="36" customHeight="1">
       <c r="A48" s="10" t="inlineStr">
@@ -4702,7 +4740,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr"/>
+      <c r="F48" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -4710,15 +4752,10 @@
       </c>
       <c r="H48" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I48" s="6" t="inlineStr">
-        <is>
           <t>IGRF000034006</t>
         </is>
       </c>
-      <c r="J48" s="6" t="inlineStr"/>
+      <c r="I48" s="6" t="inlineStr"/>
     </row>
     <row r="49" ht="36" customHeight="1">
       <c r="A49" s="12" t="inlineStr">
@@ -4744,7 +4781,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC030</t>
+        </is>
+      </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
@@ -4752,15 +4793,10 @@
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC030</t>
-        </is>
-      </c>
-      <c r="I49" s="4" t="inlineStr">
-        <is>
           <t>IGRF000076007</t>
         </is>
       </c>
-      <c r="J49" s="4" t="inlineStr"/>
+      <c r="I49" s="4" t="inlineStr"/>
     </row>
     <row r="50" ht="36" customHeight="1">
       <c r="A50" s="10" t="inlineStr">
@@ -4786,7 +4822,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F50" s="6" t="inlineStr"/>
+      <c r="F50" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC001</t>
+        </is>
+      </c>
       <c r="G50" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
@@ -4794,15 +4834,10 @@
       </c>
       <c r="H50" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC001</t>
-        </is>
-      </c>
-      <c r="I50" s="6" t="inlineStr">
-        <is>
           <t>IGRF000296001</t>
         </is>
       </c>
-      <c r="J50" s="6" t="inlineStr"/>
+      <c r="I50" s="6" t="inlineStr"/>
     </row>
     <row r="51" ht="36" customHeight="1">
       <c r="A51" s="12" t="inlineStr">
@@ -4828,7 +4863,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -4836,15 +4875,10 @@
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I51" s="4" t="inlineStr">
-        <is>
           <t>IGRF000144003</t>
         </is>
       </c>
-      <c r="J51" s="4" t="inlineStr"/>
+      <c r="I51" s="4" t="inlineStr"/>
     </row>
     <row r="52" ht="36" customHeight="1">
       <c r="A52" s="10" t="inlineStr">
@@ -4870,7 +4904,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F52" s="6" t="inlineStr"/>
+      <c r="F52" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G52" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -4878,15 +4916,10 @@
       </c>
       <c r="H52" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I52" s="6" t="inlineStr">
-        <is>
           <t>IGRF000010006</t>
         </is>
       </c>
-      <c r="J52" s="6" t="inlineStr"/>
+      <c r="I52" s="6" t="inlineStr"/>
     </row>
     <row r="53" ht="36" customHeight="1">
       <c r="A53" s="12" t="inlineStr">
@@ -4912,7 +4945,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -4920,15 +4957,10 @@
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I53" s="4" t="inlineStr">
-        <is>
           <t>IGRF000038007</t>
         </is>
       </c>
-      <c r="J53" s="4" t="inlineStr"/>
+      <c r="I53" s="4" t="inlineStr"/>
     </row>
     <row r="54" ht="36" customHeight="1">
       <c r="A54" s="10" t="inlineStr">
@@ -4954,7 +4986,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F54" s="6" t="inlineStr"/>
+      <c r="F54" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G54" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -4962,15 +4998,10 @@
       </c>
       <c r="H54" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I54" s="6" t="inlineStr">
-        <is>
           <t>IGRF000155009</t>
         </is>
       </c>
-      <c r="J54" s="6" t="inlineStr"/>
+      <c r="I54" s="6" t="inlineStr"/>
     </row>
     <row r="55" ht="36" customHeight="1">
       <c r="A55" s="12" t="inlineStr">
@@ -4996,7 +5027,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr"/>
+      <c r="F55" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -5004,15 +5039,10 @@
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I55" s="4" t="inlineStr">
-        <is>
           <t>IGRF000156007</t>
         </is>
       </c>
-      <c r="J55" s="4" t="inlineStr"/>
+      <c r="I55" s="4" t="inlineStr"/>
     </row>
     <row r="56" ht="36" customHeight="1">
       <c r="A56" s="10" t="inlineStr">
@@ -5038,7 +5068,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F56" s="6" t="inlineStr"/>
+      <c r="F56" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC018</t>
+        </is>
+      </c>
       <c r="G56" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
@@ -5046,15 +5080,10 @@
       </c>
       <c r="H56" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
-        </is>
-      </c>
-      <c r="I56" s="6" t="inlineStr">
-        <is>
           <t>IGRF000333002, IGRF000340007</t>
         </is>
       </c>
-      <c r="J56" s="6" t="inlineStr"/>
+      <c r="I56" s="6" t="inlineStr"/>
     </row>
     <row r="57" ht="36" customHeight="1">
       <c r="A57" s="12" t="inlineStr">
@@ -5080,7 +5109,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr"/>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -5088,15 +5121,10 @@
       </c>
       <c r="H57" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I57" s="4" t="inlineStr">
-        <is>
           <t>IGRF000100005, IGRF000270006</t>
         </is>
       </c>
-      <c r="J57" s="4" t="inlineStr"/>
+      <c r="I57" s="4" t="inlineStr"/>
     </row>
     <row r="58" ht="36" customHeight="1">
       <c r="A58" s="10" t="inlineStr">
@@ -5122,7 +5150,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F58" s="6" t="inlineStr"/>
+      <c r="F58" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC008</t>
+        </is>
+      </c>
       <c r="G58" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
@@ -5130,15 +5162,10 @@
       </c>
       <c r="H58" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC008</t>
-        </is>
-      </c>
-      <c r="I58" s="6" t="inlineStr">
-        <is>
           <t>IGRF000320009</t>
         </is>
       </c>
-      <c r="J58" s="6" t="inlineStr"/>
+      <c r="I58" s="6" t="inlineStr"/>
     </row>
     <row r="59" ht="36" customHeight="1">
       <c r="A59" s="12" t="inlineStr">
@@ -5148,7 +5175,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>L213800USGL7Q5UR9M221, BGR003882701000, TGR099759863</t>
+          <t>BGR003882701000, TGR099759863, L213800USGL7Q5UR9M221</t>
         </is>
       </c>
       <c r="C59" s="13" t="n">
@@ -5165,18 +5192,17 @@
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr"/>
-      <c r="G59" s="4" t="inlineStr"/>
+      <c r="G59" s="4" t="inlineStr">
+        <is>
+          <t>EGRAEEX002</t>
+        </is>
+      </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEX002</t>
-        </is>
-      </c>
-      <c r="I59" s="4" t="inlineStr">
-        <is>
           <t>IGRS433003019</t>
         </is>
       </c>
-      <c r="J59" s="4" t="inlineStr"/>
+      <c r="I59" s="4" t="inlineStr"/>
     </row>
     <row r="60" ht="36" customHeight="1">
       <c r="A60" s="10" t="inlineStr">
@@ -5202,7 +5228,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F60" s="6" t="inlineStr"/>
+      <c r="F60" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G60" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -5210,15 +5240,10 @@
       </c>
       <c r="H60" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I60" s="6" t="inlineStr">
-        <is>
           <t>IGRF000096005, IGRF000248002</t>
         </is>
       </c>
-      <c r="J60" s="6" t="inlineStr"/>
+      <c r="I60" s="6" t="inlineStr"/>
     </row>
     <row r="61" ht="36" customHeight="1">
       <c r="A61" s="12" t="inlineStr">
@@ -5244,7 +5269,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr"/>
+      <c r="F61" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC013</t>
+        </is>
+      </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
@@ -5252,15 +5281,10 @@
       </c>
       <c r="H61" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
-        </is>
-      </c>
-      <c r="I61" s="4" t="inlineStr">
-        <is>
           <t>IGRF000092004</t>
         </is>
       </c>
-      <c r="J61" s="4" t="inlineStr"/>
+      <c r="I61" s="4" t="inlineStr"/>
     </row>
     <row r="62" ht="36" customHeight="1">
       <c r="A62" s="10" t="inlineStr">
@@ -5286,7 +5310,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F62" s="6" t="inlineStr"/>
+      <c r="F62" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC013</t>
+        </is>
+      </c>
       <c r="G62" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
@@ -5294,15 +5322,10 @@
       </c>
       <c r="H62" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
-        </is>
-      </c>
-      <c r="I62" s="6" t="inlineStr">
-        <is>
           <t>IGRF000091006</t>
         </is>
       </c>
-      <c r="J62" s="6" t="inlineStr"/>
+      <c r="I62" s="6" t="inlineStr"/>
     </row>
     <row r="63" ht="36" customHeight="1">
       <c r="A63" s="12" t="inlineStr">
@@ -5328,7 +5351,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F63" s="4" t="inlineStr"/>
+      <c r="F63" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -5336,15 +5363,10 @@
       </c>
       <c r="H63" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I63" s="4" t="inlineStr">
-        <is>
           <t>IGRF000141009, IGRF000173002, IGRF000300001</t>
         </is>
       </c>
-      <c r="J63" s="4" t="inlineStr"/>
+      <c r="I63" s="4" t="inlineStr"/>
     </row>
     <row r="64" ht="36" customHeight="1">
       <c r="A64" s="10" t="inlineStr">
@@ -5370,7 +5392,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F64" s="6" t="inlineStr"/>
+      <c r="F64" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC018</t>
+        </is>
+      </c>
       <c r="G64" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
@@ -5378,15 +5404,10 @@
       </c>
       <c r="H64" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
-        </is>
-      </c>
-      <c r="I64" s="6" t="inlineStr">
-        <is>
           <t>IGRF000334000</t>
         </is>
       </c>
-      <c r="J64" s="6" t="inlineStr"/>
+      <c r="I64" s="6" t="inlineStr"/>
     </row>
     <row r="65" ht="36" customHeight="1">
       <c r="A65" s="12" t="inlineStr">
@@ -5412,7 +5433,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F65" s="4" t="inlineStr"/>
+      <c r="F65" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -5420,15 +5445,10 @@
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I65" s="4" t="inlineStr">
-        <is>
           <t>IGRF000001005</t>
         </is>
       </c>
-      <c r="J65" s="4" t="inlineStr"/>
+      <c r="I65" s="4" t="inlineStr"/>
     </row>
     <row r="66" ht="36" customHeight="1">
       <c r="A66" s="10" t="inlineStr">
@@ -5454,7 +5474,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F66" s="6" t="inlineStr"/>
+      <c r="F66" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G66" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -5462,15 +5486,10 @@
       </c>
       <c r="H66" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I66" s="6" t="inlineStr">
-        <is>
           <t>IGRF000097003, IGRF000263001</t>
         </is>
       </c>
-      <c r="J66" s="6" t="inlineStr"/>
+      <c r="I66" s="6" t="inlineStr"/>
     </row>
     <row r="67" ht="36" customHeight="1">
       <c r="A67" s="12" t="inlineStr">
@@ -5496,7 +5515,11 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F67" s="4" t="inlineStr"/>
+      <c r="F67" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC001</t>
+        </is>
+      </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
@@ -5504,15 +5527,10 @@
       </c>
       <c r="H67" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC001</t>
-        </is>
-      </c>
-      <c r="I67" s="4" t="inlineStr">
-        <is>
           <t>IGRF000292000</t>
         </is>
       </c>
-      <c r="J67" s="4" t="inlineStr"/>
+      <c r="I67" s="4" t="inlineStr"/>
     </row>
     <row r="68" ht="36" customHeight="1">
       <c r="A68" s="10" t="inlineStr">
@@ -5538,7 +5556,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F68" s="6" t="inlineStr"/>
+      <c r="F68" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC001</t>
+        </is>
+      </c>
       <c r="G68" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
@@ -5546,15 +5568,10 @@
       </c>
       <c r="H68" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC001</t>
-        </is>
-      </c>
-      <c r="I68" s="6" t="inlineStr">
-        <is>
           <t>IGRF000293008, IGRF000414000</t>
         </is>
       </c>
-      <c r="J68" s="6" t="inlineStr"/>
+      <c r="I68" s="6" t="inlineStr"/>
     </row>
     <row r="69" ht="36" customHeight="1">
       <c r="A69" s="12" t="inlineStr">
@@ -5580,7 +5597,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F69" s="4" t="inlineStr"/>
+      <c r="F69" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -5588,15 +5609,10 @@
       </c>
       <c r="H69" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I69" s="4" t="inlineStr">
-        <is>
           <t>IGRF000011004</t>
         </is>
       </c>
-      <c r="J69" s="4" t="inlineStr"/>
+      <c r="I69" s="4" t="inlineStr"/>
     </row>
     <row r="70" ht="36" customHeight="1">
       <c r="A70" s="10" t="inlineStr">
@@ -5622,7 +5638,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F70" s="6" t="inlineStr"/>
+      <c r="F70" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G70" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -5630,15 +5650,10 @@
       </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I70" s="6" t="inlineStr">
-        <is>
           <t>IGRF000022001</t>
         </is>
       </c>
-      <c r="J70" s="6" t="inlineStr"/>
+      <c r="I70" s="6" t="inlineStr"/>
     </row>
     <row r="71" ht="36" customHeight="1">
       <c r="A71" s="12" t="inlineStr">
@@ -5660,7 +5675,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F71" s="4" t="inlineStr"/>
+      <c r="F71" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC005</t>
+        </is>
+      </c>
       <c r="G71" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC005</t>
@@ -5668,11 +5687,10 @@
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC005</t>
+          <t>PEGRAK00809_SHR</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr"/>
-      <c r="J71" s="4" t="inlineStr"/>
     </row>
     <row r="72" ht="36" customHeight="1">
       <c r="A72" s="10" t="inlineStr">
@@ -5682,7 +5700,7 @@
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>TGR099554901, BGR003548801000, L213800U7SBKWW79CBG88</t>
+          <t>L213800U7SBKWW79CBG88, TGR099554901, BGR003548801000</t>
         </is>
       </c>
       <c r="C72" s="11" t="n">
@@ -5699,18 +5717,17 @@
         </is>
       </c>
       <c r="F72" s="6" t="inlineStr"/>
-      <c r="G72" s="6" t="inlineStr"/>
+      <c r="G72" s="6" t="inlineStr">
+        <is>
+          <t>EGRAEEAP002</t>
+        </is>
+      </c>
       <c r="H72" s="6" t="inlineStr">
         <is>
-          <t>EGRAEEAP002</t>
-        </is>
-      </c>
-      <c r="I72" s="6" t="inlineStr">
-        <is>
           <t>IGRS487003006</t>
         </is>
       </c>
-      <c r="J72" s="6" t="inlineStr"/>
+      <c r="I72" s="6" t="inlineStr"/>
     </row>
     <row r="73" ht="36" customHeight="1">
       <c r="A73" s="12" t="inlineStr">
@@ -5736,7 +5753,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F73" s="4" t="inlineStr"/>
+      <c r="F73" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G73" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -5744,15 +5765,10 @@
       </c>
       <c r="H73" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I73" s="4" t="inlineStr">
-        <is>
           <t>IGRF000032000</t>
         </is>
       </c>
-      <c r="J73" s="4" t="inlineStr"/>
+      <c r="I73" s="4" t="inlineStr"/>
     </row>
     <row r="74" ht="36" customHeight="1">
       <c r="A74" s="10" t="inlineStr">
@@ -5778,7 +5794,11 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr"/>
+      <c r="F74" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G74" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -5786,15 +5806,10 @@
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I74" s="6" t="inlineStr">
-        <is>
           <t>IGRF000048006, IGRF000189008</t>
         </is>
       </c>
-      <c r="J74" s="6" t="inlineStr"/>
+      <c r="I74" s="6" t="inlineStr"/>
     </row>
     <row r="75" ht="36" customHeight="1">
       <c r="A75" s="12" t="inlineStr">
@@ -5820,7 +5835,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F75" s="4" t="inlineStr"/>
+      <c r="F75" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -5828,15 +5847,10 @@
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I75" s="4" t="inlineStr">
-        <is>
           <t>IGRF000051000, IGRF000197001</t>
         </is>
       </c>
-      <c r="J75" s="4" t="inlineStr"/>
+      <c r="I75" s="4" t="inlineStr"/>
     </row>
     <row r="76" ht="36" customHeight="1">
       <c r="A76" s="10" t="inlineStr">
@@ -5858,7 +5872,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F76" s="6" t="inlineStr"/>
+      <c r="F76" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC005</t>
+        </is>
+      </c>
       <c r="G76" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC005</t>
@@ -5866,11 +5884,10 @@
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC005</t>
+          <t>PEGRAK00265_SHR</t>
         </is>
       </c>
       <c r="I76" s="6" t="inlineStr"/>
-      <c r="J76" s="6" t="inlineStr"/>
     </row>
     <row r="77" ht="36" customHeight="1">
       <c r="A77" s="12" t="inlineStr">
@@ -5896,7 +5913,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F77" s="4" t="inlineStr"/>
+      <c r="F77" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G77" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -5904,15 +5925,10 @@
       </c>
       <c r="H77" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I77" s="4" t="inlineStr">
-        <is>
           <t>IGRF000218005, IGRF000239001</t>
         </is>
       </c>
-      <c r="J77" s="4" t="inlineStr"/>
+      <c r="I77" s="4" t="inlineStr"/>
     </row>
     <row r="78" ht="36" customHeight="1">
       <c r="A78" s="10" t="inlineStr">
@@ -5938,7 +5954,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F78" s="6" t="inlineStr"/>
+      <c r="F78" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G78" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -5946,15 +5966,10 @@
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I78" s="6" t="inlineStr">
-        <is>
           <t>IGRF000138005, IGRF000175007</t>
         </is>
       </c>
-      <c r="J78" s="6" t="inlineStr"/>
+      <c r="I78" s="6" t="inlineStr"/>
     </row>
     <row r="79" ht="36" customHeight="1">
       <c r="A79" s="12" t="inlineStr">
@@ -5980,7 +5995,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F79" s="4" t="inlineStr"/>
+      <c r="F79" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
       <c r="G79" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
@@ -5988,15 +6007,10 @@
       </c>
       <c r="H79" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
-        </is>
-      </c>
-      <c r="I79" s="4" t="inlineStr">
-        <is>
           <t>IGRF000066008</t>
         </is>
       </c>
-      <c r="J79" s="4" t="inlineStr"/>
+      <c r="I79" s="4" t="inlineStr"/>
     </row>
     <row r="80" ht="36" customHeight="1">
       <c r="A80" s="10" t="inlineStr">
@@ -6022,7 +6036,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F80" s="6" t="inlineStr"/>
+      <c r="F80" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC001</t>
+        </is>
+      </c>
       <c r="G80" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
@@ -6030,15 +6048,10 @@
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC001</t>
-        </is>
-      </c>
-      <c r="I80" s="6" t="inlineStr">
-        <is>
           <t>IGRF000294006, IGRF000415007</t>
         </is>
       </c>
-      <c r="J80" s="6" t="inlineStr"/>
+      <c r="I80" s="6" t="inlineStr"/>
     </row>
     <row r="81" ht="36" customHeight="1">
       <c r="A81" s="12" t="inlineStr">
@@ -6064,7 +6077,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F81" s="4" t="inlineStr"/>
+      <c r="F81" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G81" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -6072,15 +6089,10 @@
       </c>
       <c r="H81" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I81" s="4" t="inlineStr">
-        <is>
           <t>IGRF000140001</t>
         </is>
       </c>
-      <c r="J81" s="4" t="inlineStr"/>
+      <c r="I81" s="4" t="inlineStr"/>
     </row>
     <row r="82" ht="36" customHeight="1">
       <c r="A82" s="10" t="inlineStr">
@@ -6106,7 +6118,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F82" s="6" t="inlineStr"/>
+      <c r="F82" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G82" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -6114,15 +6130,10 @@
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I82" s="6" t="inlineStr">
-        <is>
           <t>IGRF000137007, IGRF000192002</t>
         </is>
       </c>
-      <c r="J82" s="6" t="inlineStr"/>
+      <c r="I82" s="6" t="inlineStr"/>
     </row>
     <row r="83" ht="36" customHeight="1">
       <c r="A83" s="12" t="inlineStr">
@@ -6148,7 +6159,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F83" s="4" t="inlineStr"/>
+      <c r="F83" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC008</t>
+        </is>
+      </c>
       <c r="G83" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
@@ -6156,15 +6171,10 @@
       </c>
       <c r="H83" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC008</t>
-        </is>
-      </c>
-      <c r="I83" s="4" t="inlineStr">
-        <is>
           <t>IGRF000322005</t>
         </is>
       </c>
-      <c r="J83" s="4" t="inlineStr"/>
+      <c r="I83" s="4" t="inlineStr"/>
     </row>
     <row r="84" ht="36" customHeight="1">
       <c r="A84" s="10" t="inlineStr">
@@ -6190,7 +6200,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F84" s="6" t="inlineStr"/>
+      <c r="F84" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC008</t>
+        </is>
+      </c>
       <c r="G84" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
@@ -6198,15 +6212,10 @@
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC008</t>
-        </is>
-      </c>
-      <c r="I84" s="6" t="inlineStr">
-        <is>
           <t>IGRF000321007</t>
         </is>
       </c>
-      <c r="J84" s="6" t="inlineStr"/>
+      <c r="I84" s="6" t="inlineStr"/>
     </row>
     <row r="85" ht="36" customHeight="1">
       <c r="A85" s="12" t="inlineStr">
@@ -6232,7 +6241,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F85" s="4" t="inlineStr"/>
+      <c r="F85" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G85" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -6240,15 +6253,10 @@
       </c>
       <c r="H85" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I85" s="4" t="inlineStr">
-        <is>
           <t>IGRF000233004, IGRF000234002</t>
         </is>
       </c>
-      <c r="J85" s="4" t="inlineStr"/>
+      <c r="I85" s="4" t="inlineStr"/>
     </row>
     <row r="86" ht="36" customHeight="1">
       <c r="A86" s="10" t="inlineStr">
@@ -6274,7 +6282,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F86" s="6" t="inlineStr"/>
+      <c r="F86" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G86" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -6282,15 +6294,10 @@
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I86" s="6" t="inlineStr">
-        <is>
           <t>IGRF000227006, IGRF000228004</t>
         </is>
       </c>
-      <c r="J86" s="6" t="inlineStr"/>
+      <c r="I86" s="6" t="inlineStr"/>
     </row>
     <row r="87" ht="36" customHeight="1">
       <c r="A87" s="12" t="inlineStr">
@@ -6316,7 +6323,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F87" s="4" t="inlineStr"/>
+      <c r="F87" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G87" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -6324,15 +6335,10 @@
       </c>
       <c r="H87" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I87" s="4" t="inlineStr">
-        <is>
           <t>IGRF000229002, IGRF000230000</t>
         </is>
       </c>
-      <c r="J87" s="4" t="inlineStr"/>
+      <c r="I87" s="4" t="inlineStr"/>
     </row>
     <row r="88" ht="36" customHeight="1">
       <c r="A88" s="10" t="inlineStr">
@@ -6358,7 +6364,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F88" s="6" t="inlineStr"/>
+      <c r="F88" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G88" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -6366,15 +6376,10 @@
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I88" s="6" t="inlineStr">
-        <is>
           <t>IGRF000108008, IGRF000260007, IGRF000262003</t>
         </is>
       </c>
-      <c r="J88" s="6" t="inlineStr"/>
+      <c r="I88" s="6" t="inlineStr"/>
     </row>
     <row r="89" ht="36" customHeight="1">
       <c r="A89" s="12" t="inlineStr">
@@ -6400,7 +6405,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F89" s="4" t="inlineStr"/>
+      <c r="F89" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC014</t>
+        </is>
+      </c>
       <c r="G89" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
@@ -6408,15 +6417,10 @@
       </c>
       <c r="H89" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
-        </is>
-      </c>
-      <c r="I89" s="4" t="inlineStr">
-        <is>
           <t>IGRF000070000, IGRF000316007</t>
         </is>
       </c>
-      <c r="J89" s="4" t="inlineStr"/>
+      <c r="I89" s="4" t="inlineStr"/>
     </row>
     <row r="90" ht="36" customHeight="1">
       <c r="A90" s="10" t="inlineStr">
@@ -6442,7 +6446,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F90" s="6" t="inlineStr"/>
+      <c r="F90" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G90" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -6450,15 +6458,10 @@
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I90" s="6" t="inlineStr">
-        <is>
           <t>IGRF000113008, IGRF000272002, IGRF000274008</t>
         </is>
       </c>
-      <c r="J90" s="6" t="inlineStr"/>
+      <c r="I90" s="6" t="inlineStr"/>
     </row>
     <row r="91" ht="36" customHeight="1">
       <c r="A91" s="12" t="inlineStr">
@@ -6484,7 +6487,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F91" s="4" t="inlineStr"/>
+      <c r="F91" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC014</t>
+        </is>
+      </c>
       <c r="G91" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
@@ -6492,15 +6499,10 @@
       </c>
       <c r="H91" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
-        </is>
-      </c>
-      <c r="I91" s="4" t="inlineStr">
-        <is>
           <t>IGRF000072006, IGRF000115003</t>
         </is>
       </c>
-      <c r="J91" s="4" t="inlineStr"/>
+      <c r="I91" s="4" t="inlineStr"/>
     </row>
     <row r="92" ht="36" customHeight="1">
       <c r="A92" s="10" t="inlineStr">
@@ -6526,7 +6528,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F92" s="6" t="inlineStr"/>
+      <c r="F92" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC014</t>
+        </is>
+      </c>
       <c r="G92" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
@@ -6534,15 +6540,10 @@
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
-        </is>
-      </c>
-      <c r="I92" s="6" t="inlineStr">
-        <is>
           <t>IGRF000071008</t>
         </is>
       </c>
-      <c r="J92" s="6" t="inlineStr"/>
+      <c r="I92" s="6" t="inlineStr"/>
     </row>
     <row r="93" ht="36" customHeight="1">
       <c r="A93" s="12" t="inlineStr">
@@ -6568,7 +6569,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F93" s="4" t="inlineStr"/>
+      <c r="F93" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G93" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -6576,15 +6581,10 @@
       </c>
       <c r="H93" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I93" s="4" t="inlineStr">
-        <is>
           <t>IGRF000111002, IGRF000277001</t>
         </is>
       </c>
-      <c r="J93" s="4" t="inlineStr"/>
+      <c r="I93" s="4" t="inlineStr"/>
     </row>
     <row r="94" ht="36" customHeight="1">
       <c r="A94" s="10" t="inlineStr">
@@ -6610,7 +6610,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F94" s="6" t="inlineStr"/>
+      <c r="F94" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G94" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -6618,15 +6622,10 @@
       </c>
       <c r="H94" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I94" s="6" t="inlineStr">
-        <is>
           <t>IGRF000159001, IGRF000331006</t>
         </is>
       </c>
-      <c r="J94" s="6" t="inlineStr"/>
+      <c r="I94" s="6" t="inlineStr"/>
     </row>
     <row r="95" ht="36" customHeight="1">
       <c r="A95" s="12" t="inlineStr">
@@ -6652,7 +6651,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F95" s="4" t="inlineStr"/>
+      <c r="F95" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G95" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -6660,15 +6663,10 @@
       </c>
       <c r="H95" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I95" s="4" t="inlineStr">
-        <is>
           <t>IGRF000099009, IGRF000245008, IGRF000247004</t>
         </is>
       </c>
-      <c r="J95" s="4" t="inlineStr"/>
+      <c r="I95" s="4" t="inlineStr"/>
     </row>
     <row r="96" ht="36" customHeight="1">
       <c r="A96" s="10" t="inlineStr">
@@ -6694,7 +6692,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F96" s="6" t="inlineStr"/>
+      <c r="F96" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G96" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -6702,15 +6704,10 @@
       </c>
       <c r="H96" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I96" s="6" t="inlineStr">
-        <is>
           <t>IGRF000029006</t>
         </is>
       </c>
-      <c r="J96" s="6" t="inlineStr"/>
+      <c r="I96" s="6" t="inlineStr"/>
     </row>
     <row r="97" ht="36" customHeight="1">
       <c r="A97" s="12" t="inlineStr">
@@ -6736,7 +6733,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F97" s="4" t="inlineStr"/>
+      <c r="F97" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G97" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -6744,15 +6745,10 @@
       </c>
       <c r="H97" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I97" s="4" t="inlineStr">
-        <is>
           <t>IGRF000036001</t>
         </is>
       </c>
-      <c r="J97" s="4" t="inlineStr"/>
+      <c r="I97" s="4" t="inlineStr"/>
     </row>
     <row r="98" ht="36" customHeight="1">
       <c r="A98" s="10" t="inlineStr">
@@ -6778,7 +6774,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F98" s="6" t="inlineStr"/>
+      <c r="F98" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G98" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -6786,15 +6786,10 @@
       </c>
       <c r="H98" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I98" s="6" t="inlineStr">
-        <is>
           <t>IGRF000045002</t>
         </is>
       </c>
-      <c r="J98" s="6" t="inlineStr"/>
+      <c r="I98" s="6" t="inlineStr"/>
     </row>
     <row r="99" ht="36" customHeight="1">
       <c r="A99" s="12" t="inlineStr">
@@ -6820,7 +6815,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F99" s="4" t="inlineStr"/>
+      <c r="F99" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G99" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -6828,15 +6827,10 @@
       </c>
       <c r="H99" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I99" s="4" t="inlineStr">
-        <is>
           <t>IGRF000030004</t>
         </is>
       </c>
-      <c r="J99" s="4" t="inlineStr"/>
+      <c r="I99" s="4" t="inlineStr"/>
     </row>
     <row r="100" ht="36" customHeight="1">
       <c r="A100" s="10" t="inlineStr">
@@ -6862,7 +6856,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F100" s="6" t="inlineStr"/>
+      <c r="F100" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G100" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -6870,15 +6868,10 @@
       </c>
       <c r="H100" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I100" s="6" t="inlineStr">
-        <is>
           <t>IGRF000212008, IGRF000213006, IGRF000381001</t>
         </is>
       </c>
-      <c r="J100" s="6" t="inlineStr"/>
+      <c r="I100" s="6" t="inlineStr"/>
     </row>
     <row r="101" ht="36" customHeight="1">
       <c r="A101" s="12" t="inlineStr">
@@ -6904,7 +6897,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F101" s="4" t="inlineStr"/>
+      <c r="F101" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC001</t>
+        </is>
+      </c>
       <c r="G101" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
@@ -6912,15 +6909,10 @@
       </c>
       <c r="H101" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC001</t>
-        </is>
-      </c>
-      <c r="I101" s="4" t="inlineStr">
-        <is>
           <t>IGRF000289006</t>
         </is>
       </c>
-      <c r="J101" s="4" t="inlineStr"/>
+      <c r="I101" s="4" t="inlineStr"/>
     </row>
     <row r="102" ht="36" customHeight="1">
       <c r="A102" s="10" t="inlineStr">
@@ -6946,7 +6938,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F102" s="6" t="inlineStr"/>
+      <c r="F102" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC001</t>
+        </is>
+      </c>
       <c r="G102" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
@@ -6954,15 +6950,10 @@
       </c>
       <c r="H102" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC001</t>
-        </is>
-      </c>
-      <c r="I102" s="6" t="inlineStr">
-        <is>
           <t>IGRF000291002</t>
         </is>
       </c>
-      <c r="J102" s="6" t="inlineStr"/>
+      <c r="I102" s="6" t="inlineStr"/>
     </row>
     <row r="103" ht="36" customHeight="1">
       <c r="A103" s="12" t="inlineStr">
@@ -6988,7 +6979,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F103" s="4" t="inlineStr"/>
+      <c r="F103" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G103" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -6996,15 +6991,10 @@
       </c>
       <c r="H103" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I103" s="4" t="inlineStr">
-        <is>
           <t>IGRF000094000, IGRF000254000</t>
         </is>
       </c>
-      <c r="J103" s="4" t="inlineStr"/>
+      <c r="I103" s="4" t="inlineStr"/>
     </row>
     <row r="104" ht="36" customHeight="1">
       <c r="A104" s="10" t="inlineStr">
@@ -7030,7 +7020,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F104" s="6" t="inlineStr"/>
+      <c r="F104" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G104" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -7038,15 +7032,10 @@
       </c>
       <c r="H104" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I104" s="6" t="inlineStr">
-        <is>
           <t>IGRF000095007, IGRF000250008</t>
         </is>
       </c>
-      <c r="J104" s="6" t="inlineStr"/>
+      <c r="I104" s="6" t="inlineStr"/>
     </row>
     <row r="105" ht="36" customHeight="1">
       <c r="A105" s="12" t="inlineStr">
@@ -7072,7 +7061,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F105" s="4" t="inlineStr"/>
+      <c r="F105" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G105" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -7080,15 +7073,10 @@
       </c>
       <c r="H105" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I105" s="4" t="inlineStr">
-        <is>
           <t>IGRF000110004, IGRF000328002</t>
         </is>
       </c>
-      <c r="J105" s="4" t="inlineStr"/>
+      <c r="I105" s="4" t="inlineStr"/>
     </row>
     <row r="106" ht="36" customHeight="1">
       <c r="A106" s="10" t="inlineStr">
@@ -7114,7 +7102,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F106" s="6" t="inlineStr"/>
+      <c r="F106" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G106" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -7122,15 +7114,10 @@
       </c>
       <c r="H106" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I106" s="6" t="inlineStr">
-        <is>
           <t>IGRF000098001, IGRF000252004</t>
         </is>
       </c>
-      <c r="J106" s="6" t="inlineStr"/>
+      <c r="I106" s="6" t="inlineStr"/>
     </row>
     <row r="107" ht="36" customHeight="1">
       <c r="A107" s="12" t="inlineStr">
@@ -7156,7 +7143,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F107" s="4" t="inlineStr"/>
+      <c r="F107" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G107" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -7164,15 +7155,10 @@
       </c>
       <c r="H107" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I107" s="4" t="inlineStr">
-        <is>
           <t>IGRF000014008</t>
         </is>
       </c>
-      <c r="J107" s="4" t="inlineStr"/>
+      <c r="I107" s="4" t="inlineStr"/>
     </row>
     <row r="108" ht="36" customHeight="1">
       <c r="A108" s="10" t="inlineStr">
@@ -7198,7 +7184,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F108" s="6" t="inlineStr"/>
+      <c r="F108" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC030</t>
+        </is>
+      </c>
       <c r="G108" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
@@ -7206,15 +7196,10 @@
       </c>
       <c r="H108" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC030</t>
-        </is>
-      </c>
-      <c r="I108" s="6" t="inlineStr">
-        <is>
           <t>IGRF000295003</t>
         </is>
       </c>
-      <c r="J108" s="6" t="inlineStr"/>
+      <c r="I108" s="6" t="inlineStr"/>
     </row>
     <row r="109" ht="36" customHeight="1">
       <c r="A109" s="12" t="inlineStr">
@@ -7241,18 +7226,17 @@
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr"/>
-      <c r="G109" s="4" t="inlineStr"/>
+      <c r="G109" s="4" t="inlineStr">
+        <is>
+          <t>EGRAEEAP003</t>
+        </is>
+      </c>
       <c r="H109" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP003</t>
+          <t>IGRS509003018</t>
         </is>
       </c>
       <c r="I109" s="4" t="inlineStr">
-        <is>
-          <t>IGRS509003018</t>
-        </is>
-      </c>
-      <c r="J109" s="4" t="inlineStr">
         <is>
           <t>IGRC5091217D9</t>
         </is>
@@ -7282,7 +7266,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F110" s="6" t="inlineStr"/>
+      <c r="F110" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G110" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -7290,15 +7278,10 @@
       </c>
       <c r="H110" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I110" s="6" t="inlineStr">
-        <is>
           <t>IGRF000153004</t>
         </is>
       </c>
-      <c r="J110" s="6" t="inlineStr"/>
+      <c r="I110" s="6" t="inlineStr"/>
     </row>
     <row r="111" ht="36" customHeight="1">
       <c r="A111" s="12" t="inlineStr">
@@ -7324,7 +7307,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F111" s="4" t="inlineStr"/>
+      <c r="F111" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G111" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -7332,15 +7319,10 @@
       </c>
       <c r="H111" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I111" s="4" t="inlineStr">
-        <is>
           <t>IGRF000084001</t>
         </is>
       </c>
-      <c r="J111" s="4" t="inlineStr"/>
+      <c r="I111" s="4" t="inlineStr"/>
     </row>
     <row r="112" ht="36" customHeight="1">
       <c r="A112" s="10" t="inlineStr">
@@ -7366,7 +7348,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F112" s="6" t="inlineStr"/>
+      <c r="F112" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC018</t>
+        </is>
+      </c>
       <c r="G112" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
@@ -7374,15 +7360,10 @@
       </c>
       <c r="H112" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
-        </is>
-      </c>
-      <c r="I112" s="6" t="inlineStr">
-        <is>
           <t>IGRF000336005</t>
         </is>
       </c>
-      <c r="J112" s="6" t="inlineStr"/>
+      <c r="I112" s="6" t="inlineStr"/>
     </row>
     <row r="113" ht="36" customHeight="1">
       <c r="A113" s="12" t="inlineStr">
@@ -7408,7 +7389,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F113" s="4" t="inlineStr"/>
+      <c r="F113" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G113" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -7416,15 +7401,10 @@
       </c>
       <c r="H113" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I113" s="4" t="inlineStr">
-        <is>
           <t>IGRF000444007</t>
         </is>
       </c>
-      <c r="J113" s="4" t="inlineStr"/>
+      <c r="I113" s="4" t="inlineStr"/>
     </row>
     <row r="114" ht="36" customHeight="1">
       <c r="A114" s="10" t="inlineStr">
@@ -7446,7 +7426,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F114" s="6" t="inlineStr"/>
+      <c r="F114" s="6" t="inlineStr">
+        <is>
+          <t>EGR998159392</t>
+        </is>
+      </c>
       <c r="G114" s="6" t="inlineStr">
         <is>
           <t>EGR998159392</t>
@@ -7454,15 +7438,10 @@
       </c>
       <c r="H114" s="6" t="inlineStr">
         <is>
-          <t>EGR998159392</t>
-        </is>
-      </c>
-      <c r="I114" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK90014_SHR</t>
         </is>
       </c>
-      <c r="J114" s="6" t="inlineStr"/>
+      <c r="I114" s="6" t="inlineStr"/>
     </row>
     <row r="115" ht="36" customHeight="1">
       <c r="A115" s="12" t="inlineStr">
@@ -7488,7 +7467,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F115" s="4" t="inlineStr"/>
+      <c r="F115" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
       <c r="G115" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
@@ -7496,15 +7479,10 @@
       </c>
       <c r="H115" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
-        </is>
-      </c>
-      <c r="I115" s="4" t="inlineStr">
-        <is>
           <t>IGRF000067006</t>
         </is>
       </c>
-      <c r="J115" s="4" t="inlineStr"/>
+      <c r="I115" s="4" t="inlineStr"/>
     </row>
     <row r="116" ht="36" customHeight="1">
       <c r="A116" s="10" t="inlineStr">
@@ -7530,7 +7508,11 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F116" s="6" t="inlineStr"/>
+      <c r="F116" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G116" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -7538,15 +7520,10 @@
       </c>
       <c r="H116" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I116" s="6" t="inlineStr">
-        <is>
           <t>IGRF000339009</t>
         </is>
       </c>
-      <c r="J116" s="6" t="inlineStr"/>
+      <c r="I116" s="6" t="inlineStr"/>
     </row>
     <row r="117" ht="36" customHeight="1">
       <c r="A117" s="12" t="inlineStr">
@@ -7568,7 +7545,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F117" s="4" t="inlineStr"/>
+      <c r="F117" s="4" t="inlineStr">
+        <is>
+          <t>EGR998279015</t>
+        </is>
+      </c>
       <c r="G117" s="4" t="inlineStr">
         <is>
           <t>EGR998279015</t>
@@ -7576,15 +7557,10 @@
       </c>
       <c r="H117" s="4" t="inlineStr">
         <is>
-          <t>EGR998279015</t>
-        </is>
-      </c>
-      <c r="I117" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK90005_SHR</t>
         </is>
       </c>
-      <c r="J117" s="4" t="inlineStr"/>
+      <c r="I117" s="4" t="inlineStr"/>
     </row>
     <row r="118" ht="36" customHeight="1">
       <c r="A118" s="10" t="inlineStr">
@@ -7606,7 +7582,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F118" s="6" t="inlineStr"/>
+      <c r="F118" s="6" t="inlineStr">
+        <is>
+          <t>EGRAEPEY059</t>
+        </is>
+      </c>
       <c r="G118" s="6" t="inlineStr">
         <is>
           <t>EGRAEPEY059</t>
@@ -7614,15 +7594,10 @@
       </c>
       <c r="H118" s="6" t="inlineStr">
         <is>
-          <t>EGRAEPEY059</t>
-        </is>
-      </c>
-      <c r="I118" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK90012_SHR</t>
         </is>
       </c>
-      <c r="J118" s="6" t="inlineStr"/>
+      <c r="I118" s="6" t="inlineStr"/>
     </row>
     <row r="119" ht="36" customHeight="1">
       <c r="A119" s="12" t="inlineStr">
@@ -7648,7 +7623,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F119" s="4" t="inlineStr"/>
+      <c r="F119" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC001</t>
+        </is>
+      </c>
       <c r="G119" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
@@ -7656,15 +7635,10 @@
       </c>
       <c r="H119" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC001</t>
-        </is>
-      </c>
-      <c r="I119" s="4" t="inlineStr">
-        <is>
           <t>IGRF000298007, IGRF000416005</t>
         </is>
       </c>
-      <c r="J119" s="4" t="inlineStr"/>
+      <c r="I119" s="4" t="inlineStr"/>
     </row>
     <row r="120" ht="36" customHeight="1">
       <c r="A120" s="10" t="inlineStr">
@@ -7690,7 +7664,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F120" s="6" t="inlineStr"/>
+      <c r="F120" s="6" t="inlineStr">
+        <is>
+          <t>EGR999984680</t>
+        </is>
+      </c>
       <c r="G120" s="6" t="inlineStr">
         <is>
           <t>EGR999984680</t>
@@ -7698,15 +7676,10 @@
       </c>
       <c r="H120" s="6" t="inlineStr">
         <is>
-          <t>EGR999984680</t>
-        </is>
-      </c>
-      <c r="I120" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK01061_SHR</t>
         </is>
       </c>
-      <c r="J120" s="6" t="inlineStr"/>
+      <c r="I120" s="6" t="inlineStr"/>
     </row>
     <row r="121" ht="36" customHeight="1">
       <c r="A121" s="12" t="inlineStr">
@@ -7732,7 +7705,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F121" s="4" t="inlineStr"/>
+      <c r="F121" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
       <c r="G121" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
@@ -7740,15 +7717,10 @@
       </c>
       <c r="H121" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
-        </is>
-      </c>
-      <c r="I121" s="4" t="inlineStr">
-        <is>
           <t>IGRF000068004</t>
         </is>
       </c>
-      <c r="J121" s="4" t="inlineStr"/>
+      <c r="I121" s="4" t="inlineStr"/>
     </row>
     <row r="122" ht="36" customHeight="1">
       <c r="A122" s="10" t="inlineStr">
@@ -7774,7 +7746,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F122" s="6" t="inlineStr"/>
+      <c r="F122" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
       <c r="G122" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
@@ -7782,15 +7758,10 @@
       </c>
       <c r="H122" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
-        </is>
-      </c>
-      <c r="I122" s="6" t="inlineStr">
-        <is>
           <t>IGRF000061009, IGRF000327004</t>
         </is>
       </c>
-      <c r="J122" s="6" t="inlineStr"/>
+      <c r="I122" s="6" t="inlineStr"/>
     </row>
     <row r="123" ht="36" customHeight="1">
       <c r="A123" s="12" t="inlineStr">
@@ -7816,7 +7787,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F123" s="4" t="inlineStr"/>
+      <c r="F123" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC018</t>
+        </is>
+      </c>
       <c r="G123" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
@@ -7824,15 +7799,10 @@
       </c>
       <c r="H123" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
-        </is>
-      </c>
-      <c r="I123" s="4" t="inlineStr">
-        <is>
           <t>IGRF000335007</t>
         </is>
       </c>
-      <c r="J123" s="4" t="inlineStr"/>
+      <c r="I123" s="4" t="inlineStr"/>
     </row>
     <row r="124" ht="36" customHeight="1">
       <c r="A124" s="10" t="inlineStr">
@@ -7858,7 +7828,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F124" s="6" t="inlineStr"/>
+      <c r="F124" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
       <c r="G124" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
@@ -7866,15 +7840,10 @@
       </c>
       <c r="H124" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
-        </is>
-      </c>
-      <c r="I124" s="6" t="inlineStr">
-        <is>
           <t>IGRF000063005, IGRF000305000</t>
         </is>
       </c>
-      <c r="J124" s="6" t="inlineStr"/>
+      <c r="I124" s="6" t="inlineStr"/>
     </row>
     <row r="125" ht="36" customHeight="1">
       <c r="A125" s="12" t="inlineStr">
@@ -7900,7 +7869,11 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F125" s="4" t="inlineStr"/>
+      <c r="F125" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G125" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -7908,15 +7881,10 @@
       </c>
       <c r="H125" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I125" s="4" t="inlineStr">
-        <is>
           <t>IGRF000112000, IGRF000258001</t>
         </is>
       </c>
-      <c r="J125" s="4" t="inlineStr"/>
+      <c r="I125" s="4" t="inlineStr"/>
     </row>
     <row r="126" ht="36" customHeight="1">
       <c r="A126" s="10" t="inlineStr">
@@ -7926,7 +7894,7 @@
       </c>
       <c r="B126" s="6" t="inlineStr">
         <is>
-          <t>L213800QM2ZFRARYU6C87, BGR120108101000, TGR800397001</t>
+          <t>L213800QM2ZFRARYU6C87, TGR800397001, BGR120108101000</t>
         </is>
       </c>
       <c r="C126" s="11" t="n">
@@ -7943,18 +7911,17 @@
         </is>
       </c>
       <c r="F126" s="6" t="inlineStr"/>
-      <c r="G126" s="6" t="inlineStr"/>
+      <c r="G126" s="6" t="inlineStr">
+        <is>
+          <t>EGRAEEAP005</t>
+        </is>
+      </c>
       <c r="H126" s="6" t="inlineStr">
         <is>
-          <t>EGRAEEAP005</t>
-        </is>
-      </c>
-      <c r="I126" s="6" t="inlineStr">
-        <is>
           <t>IGRS516003001</t>
         </is>
       </c>
-      <c r="J126" s="6" t="inlineStr"/>
+      <c r="I126" s="6" t="inlineStr"/>
     </row>
     <row r="127" ht="36" customHeight="1">
       <c r="A127" s="12" t="inlineStr">
@@ -7980,7 +7947,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F127" s="4" t="inlineStr"/>
+      <c r="F127" s="4" t="inlineStr">
+        <is>
+          <t>EGR800398384</t>
+        </is>
+      </c>
       <c r="G127" s="4" t="inlineStr">
         <is>
           <t>EGR800398384</t>
@@ -7988,15 +7959,10 @@
       </c>
       <c r="H127" s="4" t="inlineStr">
         <is>
-          <t>EGR800398384</t>
-        </is>
-      </c>
-      <c r="I127" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK90007_SHR</t>
         </is>
       </c>
-      <c r="J127" s="4" t="inlineStr"/>
+      <c r="I127" s="4" t="inlineStr"/>
     </row>
     <row r="128" ht="36" customHeight="1">
       <c r="A128" s="10" t="inlineStr">
@@ -8022,7 +7988,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F128" s="6" t="inlineStr"/>
+      <c r="F128" s="6" t="inlineStr">
+        <is>
+          <t>EGR800433747</t>
+        </is>
+      </c>
       <c r="G128" s="6" t="inlineStr">
         <is>
           <t>EGR800433747</t>
@@ -8030,15 +8000,10 @@
       </c>
       <c r="H128" s="6" t="inlineStr">
         <is>
-          <t>EGR800433747</t>
-        </is>
-      </c>
-      <c r="I128" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK90006_SHR</t>
         </is>
       </c>
-      <c r="J128" s="6" t="inlineStr"/>
+      <c r="I128" s="6" t="inlineStr"/>
     </row>
     <row r="129" ht="36" customHeight="1">
       <c r="A129" s="12" t="inlineStr">
@@ -8064,7 +8029,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F129" s="4" t="inlineStr"/>
+      <c r="F129" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
       <c r="G129" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
@@ -8072,15 +8041,10 @@
       </c>
       <c r="H129" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
-        </is>
-      </c>
-      <c r="I129" s="4" t="inlineStr">
-        <is>
           <t>IGRF000081007</t>
         </is>
       </c>
-      <c r="J129" s="4" t="inlineStr"/>
+      <c r="I129" s="4" t="inlineStr"/>
     </row>
     <row r="130" ht="36" customHeight="1">
       <c r="A130" s="10" t="inlineStr">
@@ -8106,7 +8070,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F130" s="6" t="inlineStr"/>
+      <c r="F130" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G130" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -8114,15 +8082,10 @@
       </c>
       <c r="H130" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I130" s="6" t="inlineStr">
-        <is>
           <t>IGRF000215001</t>
         </is>
       </c>
-      <c r="J130" s="6" t="inlineStr"/>
+      <c r="I130" s="6" t="inlineStr"/>
     </row>
     <row r="131" ht="36" customHeight="1">
       <c r="A131" s="12" t="inlineStr">
@@ -8132,7 +8095,7 @@
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>TGR997656128, BGR128686346000, L213800Q23BDHSW1OQT90</t>
+          <t>BGR128686346000, TGR997656128, L213800Q23BDHSW1OQT90</t>
         </is>
       </c>
       <c r="C131" s="13" t="n">
@@ -8149,18 +8112,17 @@
         </is>
       </c>
       <c r="F131" s="4" t="inlineStr"/>
-      <c r="G131" s="4" t="inlineStr"/>
+      <c r="G131" s="4" t="inlineStr">
+        <is>
+          <t>EGRAEEAP007</t>
+        </is>
+      </c>
       <c r="H131" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP007</t>
-        </is>
-      </c>
-      <c r="I131" s="4" t="inlineStr">
-        <is>
           <t>IGRS524003001</t>
         </is>
       </c>
-      <c r="J131" s="4" t="inlineStr"/>
+      <c r="I131" s="4" t="inlineStr"/>
     </row>
     <row r="132" ht="36" customHeight="1">
       <c r="A132" s="10" t="inlineStr">
@@ -8186,7 +8148,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F132" s="6" t="inlineStr"/>
+      <c r="F132" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G132" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -8194,15 +8160,10 @@
       </c>
       <c r="H132" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I132" s="6" t="inlineStr">
-        <is>
           <t>IGRF000093002</t>
         </is>
       </c>
-      <c r="J132" s="6" t="inlineStr"/>
+      <c r="I132" s="6" t="inlineStr"/>
     </row>
     <row r="133" ht="36" customHeight="1">
       <c r="A133" s="12" t="inlineStr">
@@ -8228,7 +8189,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F133" s="4" t="inlineStr"/>
+      <c r="F133" s="4" t="inlineStr">
+        <is>
+          <t>EGR998642355</t>
+        </is>
+      </c>
       <c r="G133" s="4" t="inlineStr">
         <is>
           <t>EGR998642355</t>
@@ -8236,15 +8201,10 @@
       </c>
       <c r="H133" s="4" t="inlineStr">
         <is>
-          <t>EGR998642355</t>
-        </is>
-      </c>
-      <c r="I133" s="4" t="inlineStr">
-        <is>
           <t>IGRS520003005</t>
         </is>
       </c>
-      <c r="J133" s="4" t="inlineStr"/>
+      <c r="I133" s="4" t="inlineStr"/>
     </row>
     <row r="134" ht="36" customHeight="1">
       <c r="A134" s="10" t="inlineStr">
@@ -8270,7 +8230,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F134" s="6" t="inlineStr"/>
+      <c r="F134" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G134" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -8278,15 +8242,10 @@
       </c>
       <c r="H134" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I134" s="6" t="inlineStr">
-        <is>
           <t>IGRF000214004</t>
         </is>
       </c>
-      <c r="J134" s="6" t="inlineStr"/>
+      <c r="I134" s="6" t="inlineStr"/>
     </row>
     <row r="135" ht="36" customHeight="1">
       <c r="A135" s="12" t="inlineStr">
@@ -8312,7 +8271,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F135" s="4" t="inlineStr"/>
+      <c r="F135" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC014</t>
+        </is>
+      </c>
       <c r="G135" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
@@ -8320,15 +8283,10 @@
       </c>
       <c r="H135" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
-        </is>
-      </c>
-      <c r="I135" s="4" t="inlineStr">
-        <is>
           <t>IGRF000135001, IGRF000136009</t>
         </is>
       </c>
-      <c r="J135" s="4" t="inlineStr"/>
+      <c r="I135" s="4" t="inlineStr"/>
     </row>
     <row r="136" ht="36" customHeight="1">
       <c r="A136" s="10" t="inlineStr">
@@ -8354,7 +8312,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F136" s="6" t="inlineStr"/>
+      <c r="F136" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
       <c r="G136" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
@@ -8362,15 +8324,10 @@
       </c>
       <c r="H136" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
-        </is>
-      </c>
-      <c r="I136" s="6" t="inlineStr">
-        <is>
           <t>IGRF000154002</t>
         </is>
       </c>
-      <c r="J136" s="6" t="inlineStr"/>
+      <c r="I136" s="6" t="inlineStr"/>
     </row>
     <row r="137" ht="36" customHeight="1">
       <c r="A137" s="12" t="inlineStr">
@@ -8380,7 +8337,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>BGR140330201000, TGR997521479, L213800TBZBVWRUAOPV78</t>
+          <t>TGR997521479, L213800TBZBVWRUAOPV78, BGR140330201000</t>
         </is>
       </c>
       <c r="C137" s="13" t="n">
@@ -8397,18 +8354,17 @@
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr"/>
-      <c r="G137" s="4" t="inlineStr"/>
+      <c r="G137" s="4" t="inlineStr">
+        <is>
+          <t>EGRAEEAP006</t>
+        </is>
+      </c>
       <c r="H137" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP006</t>
-        </is>
-      </c>
-      <c r="I137" s="4" t="inlineStr">
-        <is>
           <t>IGRS517003000</t>
         </is>
       </c>
-      <c r="J137" s="4" t="inlineStr"/>
+      <c r="I137" s="4" t="inlineStr"/>
     </row>
     <row r="138" ht="36" customHeight="1">
       <c r="A138" s="10" t="inlineStr">
@@ -8434,7 +8390,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F138" s="6" t="inlineStr"/>
+      <c r="F138" s="6" t="inlineStr">
+        <is>
+          <t>EGR800792234</t>
+        </is>
+      </c>
       <c r="G138" s="6" t="inlineStr">
         <is>
           <t>EGR800792234</t>
@@ -8442,15 +8402,10 @@
       </c>
       <c r="H138" s="6" t="inlineStr">
         <is>
-          <t>EGR800792234</t>
-        </is>
-      </c>
-      <c r="I138" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK01062_SHR</t>
         </is>
       </c>
-      <c r="J138" s="6" t="inlineStr"/>
+      <c r="I138" s="6" t="inlineStr"/>
     </row>
     <row r="139" ht="36" customHeight="1">
       <c r="A139" s="12" t="inlineStr">
@@ -8476,7 +8431,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F139" s="4" t="inlineStr"/>
+      <c r="F139" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC014</t>
+        </is>
+      </c>
       <c r="G139" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
@@ -8484,15 +8443,10 @@
       </c>
       <c r="H139" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
-        </is>
-      </c>
-      <c r="I139" s="4" t="inlineStr">
-        <is>
           <t>IGRF000163003</t>
         </is>
       </c>
-      <c r="J139" s="4" t="inlineStr"/>
+      <c r="I139" s="4" t="inlineStr"/>
     </row>
     <row r="140" ht="36" customHeight="1">
       <c r="A140" s="10" t="inlineStr">
@@ -8518,7 +8472,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F140" s="6" t="inlineStr"/>
+      <c r="F140" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC014</t>
+        </is>
+      </c>
       <c r="G140" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
@@ -8526,15 +8484,10 @@
       </c>
       <c r="H140" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
-        </is>
-      </c>
-      <c r="I140" s="6" t="inlineStr">
-        <is>
           <t>IGRF000162005</t>
         </is>
       </c>
-      <c r="J140" s="6" t="inlineStr"/>
+      <c r="I140" s="6" t="inlineStr"/>
     </row>
     <row r="141" ht="36" customHeight="1">
       <c r="A141" s="12" t="inlineStr">
@@ -8560,7 +8513,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F141" s="4" t="inlineStr"/>
+      <c r="F141" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC030</t>
+        </is>
+      </c>
       <c r="G141" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
@@ -8568,15 +8525,10 @@
       </c>
       <c r="H141" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC030</t>
-        </is>
-      </c>
-      <c r="I141" s="4" t="inlineStr">
-        <is>
           <t>IGRF000164001, IGRF000177003</t>
         </is>
       </c>
-      <c r="J141" s="4" t="inlineStr"/>
+      <c r="I141" s="4" t="inlineStr"/>
     </row>
     <row r="142" ht="36" customHeight="1">
       <c r="A142" s="10" t="inlineStr">
@@ -8602,7 +8554,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F142" s="6" t="inlineStr"/>
+      <c r="F142" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC030</t>
+        </is>
+      </c>
       <c r="G142" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
@@ -8610,15 +8566,10 @@
       </c>
       <c r="H142" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC030</t>
-        </is>
-      </c>
-      <c r="I142" s="6" t="inlineStr">
-        <is>
           <t>IGRF000166006, IGRF000167004, IGRF000178001</t>
         </is>
       </c>
-      <c r="J142" s="6" t="inlineStr"/>
+      <c r="I142" s="6" t="inlineStr"/>
     </row>
     <row r="143" ht="36" customHeight="1">
       <c r="A143" s="12" t="inlineStr">
@@ -8644,7 +8595,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F143" s="4" t="inlineStr"/>
+      <c r="F143" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC030</t>
+        </is>
+      </c>
       <c r="G143" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
@@ -8652,15 +8607,10 @@
       </c>
       <c r="H143" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC030</t>
-        </is>
-      </c>
-      <c r="I143" s="4" t="inlineStr">
-        <is>
           <t>IGRF000168002, IGRF000169000, IGRF000179009</t>
         </is>
       </c>
-      <c r="J143" s="4" t="inlineStr"/>
+      <c r="I143" s="4" t="inlineStr"/>
     </row>
     <row r="144" ht="36" customHeight="1">
       <c r="A144" s="10" t="inlineStr">
@@ -8686,7 +8636,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F144" s="6" t="inlineStr"/>
+      <c r="F144" s="6" t="inlineStr">
+        <is>
+          <t>EGR800911079</t>
+        </is>
+      </c>
       <c r="G144" s="6" t="inlineStr">
         <is>
           <t>EGR800911079</t>
@@ -8694,15 +8648,10 @@
       </c>
       <c r="H144" s="6" t="inlineStr">
         <is>
-          <t>EGR800911079</t>
-        </is>
-      </c>
-      <c r="I144" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK01070_SHR</t>
         </is>
       </c>
-      <c r="J144" s="6" t="inlineStr"/>
+      <c r="I144" s="6" t="inlineStr"/>
     </row>
     <row r="145" ht="36" customHeight="1">
       <c r="A145" s="12" t="inlineStr">
@@ -8724,7 +8673,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F145" s="4" t="inlineStr"/>
+      <c r="F145" s="4" t="inlineStr">
+        <is>
+          <t>EGR800903737</t>
+        </is>
+      </c>
       <c r="G145" s="4" t="inlineStr">
         <is>
           <t>EGR800903737</t>
@@ -8732,15 +8685,10 @@
       </c>
       <c r="H145" s="4" t="inlineStr">
         <is>
-          <t>EGR800903737</t>
-        </is>
-      </c>
-      <c r="I145" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK01064_SHR</t>
         </is>
       </c>
-      <c r="J145" s="4" t="inlineStr"/>
+      <c r="I145" s="4" t="inlineStr"/>
     </row>
     <row r="146" ht="36" customHeight="1">
       <c r="A146" s="10" t="inlineStr">
@@ -8766,7 +8714,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F146" s="6" t="inlineStr"/>
+      <c r="F146" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G146" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -8774,15 +8726,10 @@
       </c>
       <c r="H146" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I146" s="6" t="inlineStr">
-        <is>
           <t>IGRF000181005, IGRF000385002</t>
         </is>
       </c>
-      <c r="J146" s="6" t="inlineStr"/>
+      <c r="I146" s="6" t="inlineStr"/>
     </row>
     <row r="147" ht="36" customHeight="1">
       <c r="A147" s="12" t="inlineStr">
@@ -8808,7 +8755,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F147" s="4" t="inlineStr"/>
+      <c r="F147" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G147" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -8816,15 +8767,10 @@
       </c>
       <c r="H147" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I147" s="4" t="inlineStr">
-        <is>
           <t>IGRF000243003, IGRF000244001</t>
         </is>
       </c>
-      <c r="J147" s="4" t="inlineStr"/>
+      <c r="I147" s="4" t="inlineStr"/>
     </row>
     <row r="148" ht="36" customHeight="1">
       <c r="A148" s="10" t="inlineStr">
@@ -8834,7 +8780,7 @@
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
-          <t>TGR801077433, L213800DTEZE6R8BZ9K19, BGR148547901000</t>
+          <t>TGR801077433, BGR148547901000, L213800DTEZE6R8BZ9K19</t>
         </is>
       </c>
       <c r="C148" s="11" t="n">
@@ -8851,18 +8797,17 @@
         </is>
       </c>
       <c r="F148" s="6" t="inlineStr"/>
-      <c r="G148" s="6" t="inlineStr"/>
+      <c r="G148" s="6" t="inlineStr">
+        <is>
+          <t>EGRAEEAP008</t>
+        </is>
+      </c>
       <c r="H148" s="6" t="inlineStr">
         <is>
-          <t>EGRAEEAP008</t>
-        </is>
-      </c>
-      <c r="I148" s="6" t="inlineStr">
-        <is>
           <t>IGRS535003008</t>
         </is>
       </c>
-      <c r="J148" s="6" t="inlineStr"/>
+      <c r="I148" s="6" t="inlineStr"/>
     </row>
     <row r="149" ht="36" customHeight="1">
       <c r="A149" s="12" t="inlineStr">
@@ -8888,7 +8833,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F149" s="4" t="inlineStr"/>
+      <c r="F149" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC030</t>
+        </is>
+      </c>
       <c r="G149" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
@@ -8896,15 +8845,10 @@
       </c>
       <c r="H149" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC030</t>
-        </is>
-      </c>
-      <c r="I149" s="4" t="inlineStr">
-        <is>
           <t>IGRF000170008, IGRF000171006</t>
         </is>
       </c>
-      <c r="J149" s="4" t="inlineStr"/>
+      <c r="I149" s="4" t="inlineStr"/>
     </row>
     <row r="150" ht="36" customHeight="1">
       <c r="A150" s="10" t="inlineStr">
@@ -8930,7 +8874,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F150" s="6" t="inlineStr"/>
+      <c r="F150" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC018</t>
+        </is>
+      </c>
       <c r="G150" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
@@ -8938,15 +8886,10 @@
       </c>
       <c r="H150" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
-        </is>
-      </c>
-      <c r="I150" s="6" t="inlineStr">
-        <is>
           <t>IGRF000332004</t>
         </is>
       </c>
-      <c r="J150" s="6" t="inlineStr"/>
+      <c r="I150" s="6" t="inlineStr"/>
     </row>
     <row r="151" ht="36" customHeight="1">
       <c r="A151" s="12" t="inlineStr">
@@ -8972,7 +8915,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F151" s="4" t="inlineStr"/>
+      <c r="F151" s="4" t="inlineStr">
+        <is>
+          <t>EGR999984680</t>
+        </is>
+      </c>
       <c r="G151" s="4" t="inlineStr">
         <is>
           <t>EGR999984680</t>
@@ -8980,15 +8927,10 @@
       </c>
       <c r="H151" s="4" t="inlineStr">
         <is>
-          <t>EGR999984680</t>
-        </is>
-      </c>
-      <c r="I151" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK01068_SHR</t>
         </is>
       </c>
-      <c r="J151" s="4" t="inlineStr"/>
+      <c r="I151" s="4" t="inlineStr"/>
     </row>
     <row r="152" ht="36" customHeight="1">
       <c r="A152" s="10" t="inlineStr">
@@ -8998,7 +8940,7 @@
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>L213800XKY8GHKN57D970, BGR152321260000, TGR996899546</t>
+          <t>L213800XKY8GHKN57D970, TGR996899546, BGR152321260000</t>
         </is>
       </c>
       <c r="C152" s="11" t="n">
@@ -9015,18 +8957,17 @@
         </is>
       </c>
       <c r="F152" s="6" t="inlineStr"/>
-      <c r="G152" s="6" t="inlineStr"/>
+      <c r="G152" s="6" t="inlineStr">
+        <is>
+          <t>EGRAEEAP010</t>
+        </is>
+      </c>
       <c r="H152" s="6" t="inlineStr">
         <is>
-          <t>EGRAEEAP010</t>
+          <t>IGRS824003008</t>
         </is>
       </c>
       <c r="I152" s="6" t="inlineStr">
-        <is>
-          <t>IGRS824003008</t>
-        </is>
-      </c>
-      <c r="J152" s="6" t="inlineStr">
         <is>
           <t>IGRC824121CD0</t>
         </is>
@@ -9056,7 +8997,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F153" s="4" t="inlineStr"/>
+      <c r="F153" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G153" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -9064,15 +9009,10 @@
       </c>
       <c r="H153" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I153" s="4" t="inlineStr">
-        <is>
           <t>IGRF000329000</t>
         </is>
       </c>
-      <c r="J153" s="4" t="inlineStr"/>
+      <c r="I153" s="4" t="inlineStr"/>
     </row>
     <row r="154" ht="36" customHeight="1">
       <c r="A154" s="10" t="inlineStr">
@@ -9098,7 +9038,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F154" s="6" t="inlineStr"/>
+      <c r="F154" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC030</t>
+        </is>
+      </c>
       <c r="G154" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
@@ -9106,15 +9050,10 @@
       </c>
       <c r="H154" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC030</t>
-        </is>
-      </c>
-      <c r="I154" s="6" t="inlineStr">
-        <is>
           <t>IGRF000323003, IGRF000324001, IGRF000325008, IGRF000326006</t>
         </is>
       </c>
-      <c r="J154" s="6" t="inlineStr"/>
+      <c r="I154" s="6" t="inlineStr"/>
     </row>
     <row r="155" ht="36" customHeight="1">
       <c r="A155" s="12" t="inlineStr">
@@ -9136,7 +9075,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F155" s="4" t="inlineStr"/>
+      <c r="F155" s="4" t="inlineStr">
+        <is>
+          <t>EGR801322351</t>
+        </is>
+      </c>
       <c r="G155" s="4" t="inlineStr">
         <is>
           <t>EGR801322351</t>
@@ -9144,15 +9087,10 @@
       </c>
       <c r="H155" s="4" t="inlineStr">
         <is>
-          <t>EGR801322351</t>
-        </is>
-      </c>
-      <c r="I155" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK01069_SHR</t>
         </is>
       </c>
-      <c r="J155" s="4" t="inlineStr"/>
+      <c r="I155" s="4" t="inlineStr"/>
     </row>
     <row r="156" ht="36" customHeight="1">
       <c r="A156" s="10" t="inlineStr">
@@ -9178,7 +9116,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F156" s="6" t="inlineStr"/>
+      <c r="F156" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G156" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -9186,15 +9128,10 @@
       </c>
       <c r="H156" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I156" s="6" t="inlineStr">
-        <is>
           <t>IGRF000337003</t>
         </is>
       </c>
-      <c r="J156" s="6" t="inlineStr"/>
+      <c r="I156" s="6" t="inlineStr"/>
     </row>
     <row r="157" ht="36" customHeight="1">
       <c r="A157" s="12" t="inlineStr">
@@ -9220,7 +9157,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F157" s="4" t="inlineStr"/>
+      <c r="F157" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC008</t>
+        </is>
+      </c>
       <c r="G157" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
@@ -9228,15 +9169,10 @@
       </c>
       <c r="H157" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC008</t>
-        </is>
-      </c>
-      <c r="I157" s="4" t="inlineStr">
-        <is>
           <t>IGRF000338001</t>
         </is>
       </c>
-      <c r="J157" s="4" t="inlineStr"/>
+      <c r="I157" s="4" t="inlineStr"/>
     </row>
     <row r="158" ht="36" customHeight="1">
       <c r="A158" s="10" t="inlineStr">
@@ -9262,7 +9198,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F158" s="6" t="inlineStr"/>
+      <c r="F158" s="6" t="inlineStr">
+        <is>
+          <t>EGR800792234</t>
+        </is>
+      </c>
       <c r="G158" s="6" t="inlineStr">
         <is>
           <t>EGR800792234</t>
@@ -9270,15 +9210,10 @@
       </c>
       <c r="H158" s="6" t="inlineStr">
         <is>
-          <t>EGR800792234</t>
-        </is>
-      </c>
-      <c r="I158" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK01063_SHR</t>
         </is>
       </c>
-      <c r="J158" s="6" t="inlineStr"/>
+      <c r="I158" s="6" t="inlineStr"/>
     </row>
     <row r="159" ht="36" customHeight="1">
       <c r="A159" s="12" t="inlineStr">
@@ -9304,7 +9239,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F159" s="4" t="inlineStr"/>
+      <c r="F159" s="4" t="inlineStr">
+        <is>
+          <t>EGR801446949</t>
+        </is>
+      </c>
       <c r="G159" s="4" t="inlineStr">
         <is>
           <t>EGR801446949</t>
@@ -9312,15 +9251,10 @@
       </c>
       <c r="H159" s="4" t="inlineStr">
         <is>
-          <t>EGR801446949</t>
-        </is>
-      </c>
-      <c r="I159" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK01060_SHR</t>
         </is>
       </c>
-      <c r="J159" s="4" t="inlineStr"/>
+      <c r="I159" s="4" t="inlineStr"/>
     </row>
     <row r="160" ht="36" customHeight="1">
       <c r="A160" s="10" t="inlineStr">
@@ -9342,7 +9276,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F160" s="6" t="inlineStr"/>
+      <c r="F160" s="6" t="inlineStr">
+        <is>
+          <t>EGR801446716</t>
+        </is>
+      </c>
       <c r="G160" s="6" t="inlineStr">
         <is>
           <t>EGR801446716</t>
@@ -9350,15 +9288,10 @@
       </c>
       <c r="H160" s="6" t="inlineStr">
         <is>
-          <t>EGR801446716</t>
-        </is>
-      </c>
-      <c r="I160" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK01058_SHR</t>
         </is>
       </c>
-      <c r="J160" s="6" t="inlineStr"/>
+      <c r="I160" s="6" t="inlineStr"/>
     </row>
     <row r="161" ht="36" customHeight="1">
       <c r="A161" s="12" t="inlineStr">
@@ -9384,7 +9317,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F161" s="4" t="inlineStr"/>
+      <c r="F161" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
       <c r="G161" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
@@ -9392,15 +9329,10 @@
       </c>
       <c r="H161" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
-        </is>
-      </c>
-      <c r="I161" s="4" t="inlineStr">
-        <is>
           <t>IGRF000341005</t>
         </is>
       </c>
-      <c r="J161" s="4" t="inlineStr"/>
+      <c r="I161" s="4" t="inlineStr"/>
     </row>
     <row r="162" ht="36" customHeight="1">
       <c r="A162" s="10" t="inlineStr">
@@ -9426,7 +9358,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F162" s="6" t="inlineStr"/>
+      <c r="F162" s="6" t="inlineStr">
+        <is>
+          <t>EGR801296864</t>
+        </is>
+      </c>
       <c r="G162" s="6" t="inlineStr">
         <is>
           <t>EGR801296864</t>
@@ -9434,15 +9370,10 @@
       </c>
       <c r="H162" s="6" t="inlineStr">
         <is>
-          <t>EGR801296864</t>
-        </is>
-      </c>
-      <c r="I162" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK01027_SHR</t>
         </is>
       </c>
-      <c r="J162" s="6" t="inlineStr"/>
+      <c r="I162" s="6" t="inlineStr"/>
     </row>
     <row r="163" ht="36" customHeight="1">
       <c r="A163" s="12" t="inlineStr">
@@ -9468,7 +9399,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F163" s="4" t="inlineStr"/>
+      <c r="F163" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC018</t>
+        </is>
+      </c>
       <c r="G163" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
@@ -9476,15 +9411,10 @@
       </c>
       <c r="H163" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
-        </is>
-      </c>
-      <c r="I163" s="4" t="inlineStr">
-        <is>
           <t>IGRF000342003, PEGRAK01102_SHR</t>
         </is>
       </c>
-      <c r="J163" s="4" t="inlineStr"/>
+      <c r="I163" s="4" t="inlineStr"/>
     </row>
     <row r="164" ht="36" customHeight="1">
       <c r="A164" s="10" t="inlineStr">
@@ -9506,7 +9436,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F164" s="6" t="inlineStr"/>
+      <c r="F164" s="6" t="inlineStr">
+        <is>
+          <t>EGR801470046</t>
+        </is>
+      </c>
       <c r="G164" s="6" t="inlineStr">
         <is>
           <t>EGR801470046</t>
@@ -9514,15 +9448,10 @@
       </c>
       <c r="H164" s="6" t="inlineStr">
         <is>
-          <t>EGR801470046</t>
-        </is>
-      </c>
-      <c r="I164" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK01066_SHR</t>
         </is>
       </c>
-      <c r="J164" s="6" t="inlineStr"/>
+      <c r="I164" s="6" t="inlineStr"/>
     </row>
     <row r="165" ht="36" customHeight="1">
       <c r="A165" s="12" t="inlineStr">
@@ -9548,7 +9477,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F165" s="4" t="inlineStr"/>
+      <c r="F165" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC018</t>
+        </is>
+      </c>
       <c r="G165" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
@@ -9556,15 +9489,10 @@
       </c>
       <c r="H165" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
-        </is>
-      </c>
-      <c r="I165" s="4" t="inlineStr">
-        <is>
           <t>IGRF000343001</t>
         </is>
       </c>
-      <c r="J165" s="4" t="inlineStr"/>
+      <c r="I165" s="4" t="inlineStr"/>
     </row>
     <row r="166" ht="36" customHeight="1">
       <c r="A166" s="10" t="inlineStr">
@@ -9590,7 +9518,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F166" s="6" t="inlineStr"/>
+      <c r="F166" s="6" t="inlineStr">
+        <is>
+          <t>EGR801554045</t>
+        </is>
+      </c>
       <c r="G166" s="6" t="inlineStr">
         <is>
           <t>EGR801554045</t>
@@ -9598,15 +9530,10 @@
       </c>
       <c r="H166" s="6" t="inlineStr">
         <is>
-          <t>EGR801554045</t>
-        </is>
-      </c>
-      <c r="I166" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK01059_SHR</t>
         </is>
       </c>
-      <c r="J166" s="6" t="inlineStr"/>
+      <c r="I166" s="6" t="inlineStr"/>
     </row>
     <row r="167" ht="36" customHeight="1">
       <c r="A167" s="12" t="inlineStr">
@@ -9616,7 +9543,7 @@
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>TGR996805731, BGR160110060000, L2138006STLTDFRIZTC42</t>
+          <t>BGR160110060000, L2138006STLTDFRIZTC42, TGR996805731</t>
         </is>
       </c>
       <c r="C167" s="13" t="n">
@@ -9633,18 +9560,17 @@
         </is>
       </c>
       <c r="F167" s="4" t="inlineStr"/>
-      <c r="G167" s="4" t="inlineStr"/>
+      <c r="G167" s="4" t="inlineStr">
+        <is>
+          <t>EGRAEEAP009</t>
+        </is>
+      </c>
       <c r="H167" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP009</t>
-        </is>
-      </c>
-      <c r="I167" s="4" t="inlineStr">
-        <is>
           <t>IGRS534003009</t>
         </is>
       </c>
-      <c r="J167" s="4" t="inlineStr"/>
+      <c r="I167" s="4" t="inlineStr"/>
     </row>
     <row r="168" ht="36" customHeight="1">
       <c r="A168" s="10" t="inlineStr">
@@ -9670,7 +9596,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F168" s="6" t="inlineStr"/>
+      <c r="F168" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G168" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -9678,15 +9608,10 @@
       </c>
       <c r="H168" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I168" s="6" t="inlineStr">
-        <is>
           <t>IGRF000351004, IGRF000352002, IGRF000494002</t>
         </is>
       </c>
-      <c r="J168" s="6" t="inlineStr"/>
+      <c r="I168" s="6" t="inlineStr"/>
     </row>
     <row r="169" ht="36" customHeight="1">
       <c r="A169" s="12" t="inlineStr">
@@ -9712,7 +9637,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F169" s="4" t="inlineStr"/>
+      <c r="F169" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC002</t>
+        </is>
+      </c>
       <c r="G169" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
@@ -9720,15 +9649,10 @@
       </c>
       <c r="H169" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
-        </is>
-      </c>
-      <c r="I169" s="4" t="inlineStr">
-        <is>
           <t>IGRF000353000</t>
         </is>
       </c>
-      <c r="J169" s="4" t="inlineStr"/>
+      <c r="I169" s="4" t="inlineStr"/>
     </row>
     <row r="170" ht="36" customHeight="1">
       <c r="A170" s="10" t="inlineStr">
@@ -9754,7 +9678,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F170" s="6" t="inlineStr"/>
+      <c r="F170" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G170" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -9762,15 +9690,10 @@
       </c>
       <c r="H170" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I170" s="6" t="inlineStr">
-        <is>
           <t>IGRF000356003</t>
         </is>
       </c>
-      <c r="J170" s="6" t="inlineStr"/>
+      <c r="I170" s="6" t="inlineStr"/>
     </row>
     <row r="171" ht="36" customHeight="1">
       <c r="A171" s="12" t="inlineStr">
@@ -9796,7 +9719,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F171" s="4" t="inlineStr"/>
+      <c r="F171" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G171" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -9804,15 +9731,10 @@
       </c>
       <c r="H171" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I171" s="4" t="inlineStr">
-        <is>
           <t>IGRF000363009</t>
         </is>
       </c>
-      <c r="J171" s="4" t="inlineStr"/>
+      <c r="I171" s="4" t="inlineStr"/>
     </row>
     <row r="172" ht="36" customHeight="1">
       <c r="A172" s="10" t="inlineStr">
@@ -9838,7 +9760,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F172" s="6" t="inlineStr"/>
+      <c r="F172" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC014</t>
+        </is>
+      </c>
       <c r="G172" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
@@ -9846,15 +9772,10 @@
       </c>
       <c r="H172" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
-        </is>
-      </c>
-      <c r="I172" s="6" t="inlineStr">
-        <is>
           <t>IGRF000365004, IGRF000367000</t>
         </is>
       </c>
-      <c r="J172" s="6" t="inlineStr"/>
+      <c r="I172" s="6" t="inlineStr"/>
     </row>
     <row r="173" ht="36" customHeight="1">
       <c r="A173" s="12" t="inlineStr">
@@ -9880,7 +9801,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F173" s="4" t="inlineStr"/>
+      <c r="F173" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G173" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -9888,15 +9813,10 @@
       </c>
       <c r="H173" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I173" s="4" t="inlineStr">
-        <is>
           <t>IGRF000377009, IGRF000378007, IGRF000379005</t>
         </is>
       </c>
-      <c r="J173" s="4" t="inlineStr"/>
+      <c r="I173" s="4" t="inlineStr"/>
     </row>
     <row r="174" ht="36" customHeight="1">
       <c r="A174" s="10" t="inlineStr">
@@ -9923,18 +9843,17 @@
         </is>
       </c>
       <c r="F174" s="6" t="inlineStr"/>
-      <c r="G174" s="6" t="inlineStr"/>
+      <c r="G174" s="6" t="inlineStr">
+        <is>
+          <t>EGR094321237</t>
+        </is>
+      </c>
       <c r="H174" s="6" t="inlineStr">
         <is>
-          <t>EGR094321237</t>
+          <t>IGRS497003012</t>
         </is>
       </c>
       <c r="I174" s="6" t="inlineStr">
-        <is>
-          <t>IGRS497003012</t>
-        </is>
-      </c>
-      <c r="J174" s="6" t="inlineStr">
         <is>
           <t>IGRC4971221B3</t>
         </is>
@@ -9960,7 +9879,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F175" s="4" t="inlineStr"/>
+      <c r="F175" s="4" t="inlineStr">
+        <is>
+          <t>EGR996764210</t>
+        </is>
+      </c>
       <c r="G175" s="4" t="inlineStr">
         <is>
           <t>EGR996764210</t>
@@ -9968,15 +9891,10 @@
       </c>
       <c r="H175" s="4" t="inlineStr">
         <is>
-          <t>EGR996764210</t>
-        </is>
-      </c>
-      <c r="I175" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK01067_SHR</t>
         </is>
       </c>
-      <c r="J175" s="4" t="inlineStr"/>
+      <c r="I175" s="4" t="inlineStr"/>
     </row>
     <row r="176" ht="36" customHeight="1">
       <c r="A176" s="10" t="inlineStr">
@@ -10002,7 +9920,11 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F176" s="6" t="inlineStr"/>
+      <c r="F176" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G176" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -10010,15 +9932,10 @@
       </c>
       <c r="H176" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I176" s="6" t="inlineStr">
-        <is>
           <t>IGRF000386000</t>
         </is>
       </c>
-      <c r="J176" s="6" t="inlineStr"/>
+      <c r="I176" s="6" t="inlineStr"/>
     </row>
     <row r="177" ht="36" customHeight="1">
       <c r="A177" s="12" t="inlineStr">
@@ -10044,7 +9961,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F177" s="4" t="inlineStr"/>
+      <c r="F177" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G177" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -10052,15 +9973,10 @@
       </c>
       <c r="H177" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I177" s="4" t="inlineStr">
-        <is>
           <t>IGRF000389004</t>
         </is>
       </c>
-      <c r="J177" s="4" t="inlineStr"/>
+      <c r="I177" s="4" t="inlineStr"/>
     </row>
     <row r="178" ht="36" customHeight="1">
       <c r="A178" s="10" t="inlineStr">
@@ -10086,7 +10002,11 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F178" s="6" t="inlineStr"/>
+      <c r="F178" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G178" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -10094,15 +10014,10 @@
       </c>
       <c r="H178" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I178" s="6" t="inlineStr">
-        <is>
           <t>IGRF000390002</t>
         </is>
       </c>
-      <c r="J178" s="6" t="inlineStr"/>
+      <c r="I178" s="6" t="inlineStr"/>
     </row>
     <row r="179" ht="36" customHeight="1">
       <c r="A179" s="12" t="inlineStr">
@@ -10128,7 +10043,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F179" s="4" t="inlineStr"/>
+      <c r="F179" s="4" t="inlineStr">
+        <is>
+          <t>EGR800398384</t>
+        </is>
+      </c>
       <c r="G179" s="4" t="inlineStr">
         <is>
           <t>EGR800398384</t>
@@ -10136,15 +10055,10 @@
       </c>
       <c r="H179" s="4" t="inlineStr">
         <is>
-          <t>EGR800398384</t>
-        </is>
-      </c>
-      <c r="I179" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK01057_SHR</t>
         </is>
       </c>
-      <c r="J179" s="4" t="inlineStr"/>
+      <c r="I179" s="4" t="inlineStr"/>
     </row>
     <row r="180" ht="36" customHeight="1">
       <c r="A180" s="10" t="inlineStr">
@@ -10170,7 +10084,11 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F180" s="6" t="inlineStr"/>
+      <c r="F180" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G180" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -10178,15 +10096,10 @@
       </c>
       <c r="H180" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I180" s="6" t="inlineStr">
-        <is>
           <t>IGRF000392008</t>
         </is>
       </c>
-      <c r="J180" s="6" t="inlineStr"/>
+      <c r="I180" s="6" t="inlineStr"/>
     </row>
     <row r="181" ht="36" customHeight="1">
       <c r="A181" s="12" t="inlineStr">
@@ -10208,7 +10121,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F181" s="4" t="inlineStr"/>
+      <c r="F181" s="4" t="inlineStr">
+        <is>
+          <t>EGR801812106</t>
+        </is>
+      </c>
       <c r="G181" s="4" t="inlineStr">
         <is>
           <t>EGR801812106</t>
@@ -10216,15 +10133,10 @@
       </c>
       <c r="H181" s="4" t="inlineStr">
         <is>
-          <t>EGR801812106</t>
-        </is>
-      </c>
-      <c r="I181" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK01072_SHR</t>
         </is>
       </c>
-      <c r="J181" s="4" t="inlineStr"/>
+      <c r="I181" s="4" t="inlineStr"/>
     </row>
     <row r="182" ht="36" customHeight="1">
       <c r="A182" s="10" t="inlineStr">
@@ -10250,7 +10162,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F182" s="6" t="inlineStr"/>
+      <c r="F182" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G182" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -10258,15 +10174,10 @@
       </c>
       <c r="H182" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I182" s="6" t="inlineStr">
-        <is>
           <t>IGRF000394004</t>
         </is>
       </c>
-      <c r="J182" s="6" t="inlineStr"/>
+      <c r="I182" s="6" t="inlineStr"/>
     </row>
     <row r="183" ht="36" customHeight="1">
       <c r="A183" s="12" t="inlineStr">
@@ -10292,7 +10203,11 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F183" s="4" t="inlineStr"/>
+      <c r="F183" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G183" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -10300,15 +10215,10 @@
       </c>
       <c r="H183" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I183" s="4" t="inlineStr">
-        <is>
           <t>IGRF000393006</t>
         </is>
       </c>
-      <c r="J183" s="4" t="inlineStr"/>
+      <c r="I183" s="4" t="inlineStr"/>
     </row>
     <row r="184" ht="36" customHeight="1">
       <c r="A184" s="10" t="inlineStr">
@@ -10334,7 +10244,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F184" s="6" t="inlineStr"/>
+      <c r="F184" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G184" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -10342,15 +10256,10 @@
       </c>
       <c r="H184" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I184" s="6" t="inlineStr">
-        <is>
           <t>IGRF000395001</t>
         </is>
       </c>
-      <c r="J184" s="6" t="inlineStr"/>
+      <c r="I184" s="6" t="inlineStr"/>
     </row>
     <row r="185" ht="36" customHeight="1">
       <c r="A185" s="12" t="inlineStr">
@@ -10376,7 +10285,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F185" s="4" t="inlineStr"/>
+      <c r="F185" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G185" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -10384,15 +10297,10 @@
       </c>
       <c r="H185" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I185" s="4" t="inlineStr">
-        <is>
           <t>IGRF000397007</t>
         </is>
       </c>
-      <c r="J185" s="4" t="inlineStr"/>
+      <c r="I185" s="4" t="inlineStr"/>
     </row>
     <row r="186" ht="36" customHeight="1">
       <c r="A186" s="10" t="inlineStr">
@@ -10418,7 +10326,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F186" s="6" t="inlineStr"/>
+      <c r="F186" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G186" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -10426,15 +10338,10 @@
       </c>
       <c r="H186" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I186" s="6" t="inlineStr">
-        <is>
           <t>IGRF000408002</t>
         </is>
       </c>
-      <c r="J186" s="6" t="inlineStr"/>
+      <c r="I186" s="6" t="inlineStr"/>
     </row>
     <row r="187" ht="36" customHeight="1">
       <c r="A187" s="12" t="inlineStr">
@@ -10456,7 +10363,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F187" s="4" t="inlineStr"/>
+      <c r="F187" s="4" t="inlineStr">
+        <is>
+          <t>EGR801878297</t>
+        </is>
+      </c>
       <c r="G187" s="4" t="inlineStr">
         <is>
           <t>EGR801878297</t>
@@ -10464,15 +10375,10 @@
       </c>
       <c r="H187" s="4" t="inlineStr">
         <is>
-          <t>EGR801878297</t>
-        </is>
-      </c>
-      <c r="I187" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK01073_SHR</t>
         </is>
       </c>
-      <c r="J187" s="4" t="inlineStr"/>
+      <c r="I187" s="4" t="inlineStr"/>
     </row>
     <row r="188" ht="36" customHeight="1">
       <c r="A188" s="10" t="inlineStr">
@@ -10498,7 +10404,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F188" s="6" t="inlineStr"/>
+      <c r="F188" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G188" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -10506,15 +10416,10 @@
       </c>
       <c r="H188" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I188" s="6" t="inlineStr">
-        <is>
           <t>IGRF000411006</t>
         </is>
       </c>
-      <c r="J188" s="6" t="inlineStr"/>
+      <c r="I188" s="6" t="inlineStr"/>
     </row>
     <row r="189" ht="36" customHeight="1">
       <c r="A189" s="12" t="inlineStr">
@@ -10540,7 +10445,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F189" s="4" t="inlineStr"/>
+      <c r="F189" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G189" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -10548,15 +10457,10 @@
       </c>
       <c r="H189" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I189" s="4" t="inlineStr">
-        <is>
           <t>IGRF000409000</t>
         </is>
       </c>
-      <c r="J189" s="4" t="inlineStr"/>
+      <c r="I189" s="4" t="inlineStr"/>
     </row>
     <row r="190" ht="36" customHeight="1">
       <c r="A190" s="10" t="inlineStr">
@@ -10582,7 +10486,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F190" s="6" t="inlineStr"/>
+      <c r="F190" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G190" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -10590,15 +10498,10 @@
       </c>
       <c r="H190" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I190" s="6" t="inlineStr">
-        <is>
           <t>IGRF000417003</t>
         </is>
       </c>
-      <c r="J190" s="6" t="inlineStr"/>
+      <c r="I190" s="6" t="inlineStr"/>
     </row>
     <row r="191" ht="36" customHeight="1">
       <c r="A191" s="12" t="inlineStr">
@@ -10624,7 +10527,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F191" s="4" t="inlineStr"/>
+      <c r="F191" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G191" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -10632,15 +10539,10 @@
       </c>
       <c r="H191" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I191" s="4" t="inlineStr">
-        <is>
           <t>IGRF000412004</t>
         </is>
       </c>
-      <c r="J191" s="4" t="inlineStr"/>
+      <c r="I191" s="4" t="inlineStr"/>
     </row>
     <row r="192" ht="36" customHeight="1">
       <c r="A192" s="10" t="inlineStr">
@@ -10666,7 +10568,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F192" s="6" t="inlineStr"/>
+      <c r="F192" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC018</t>
+        </is>
+      </c>
       <c r="G192" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
@@ -10674,15 +10580,10 @@
       </c>
       <c r="H192" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
-        </is>
-      </c>
-      <c r="I192" s="6" t="inlineStr">
-        <is>
           <t>IGRF000418001</t>
         </is>
       </c>
-      <c r="J192" s="6" t="inlineStr"/>
+      <c r="I192" s="6" t="inlineStr"/>
     </row>
     <row r="193" ht="36" customHeight="1">
       <c r="A193" s="12" t="inlineStr">
@@ -10708,7 +10609,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F193" s="4" t="inlineStr"/>
+      <c r="F193" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G193" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -10716,15 +10621,10 @@
       </c>
       <c r="H193" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I193" s="4" t="inlineStr">
-        <is>
           <t>IGRF000423001</t>
         </is>
       </c>
-      <c r="J193" s="4" t="inlineStr"/>
+      <c r="I193" s="4" t="inlineStr"/>
     </row>
     <row r="194" ht="36" customHeight="1">
       <c r="A194" s="10" t="inlineStr">
@@ -10750,7 +10650,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F194" s="6" t="inlineStr"/>
+      <c r="F194" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G194" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -10758,15 +10662,10 @@
       </c>
       <c r="H194" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I194" s="6" t="inlineStr">
-        <is>
           <t>IGRF000422003</t>
         </is>
       </c>
-      <c r="J194" s="6" t="inlineStr"/>
+      <c r="I194" s="6" t="inlineStr"/>
     </row>
     <row r="195" ht="36" customHeight="1">
       <c r="A195" s="12" t="inlineStr">
@@ -10792,7 +10691,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F195" s="4" t="inlineStr"/>
+      <c r="F195" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G195" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -10800,15 +10703,10 @@
       </c>
       <c r="H195" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I195" s="4" t="inlineStr">
-        <is>
           <t>IGRF000421005</t>
         </is>
       </c>
-      <c r="J195" s="4" t="inlineStr"/>
+      <c r="I195" s="4" t="inlineStr"/>
     </row>
     <row r="196" ht="36" customHeight="1">
       <c r="A196" s="10" t="inlineStr">
@@ -10834,7 +10732,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F196" s="6" t="inlineStr"/>
+      <c r="F196" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC013</t>
+        </is>
+      </c>
       <c r="G196" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
@@ -10842,15 +10744,10 @@
       </c>
       <c r="H196" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
-        </is>
-      </c>
-      <c r="I196" s="6" t="inlineStr">
-        <is>
           <t>IGRF000430006</t>
         </is>
       </c>
-      <c r="J196" s="6" t="inlineStr"/>
+      <c r="I196" s="6" t="inlineStr"/>
     </row>
     <row r="197" ht="36" customHeight="1">
       <c r="A197" s="12" t="inlineStr">
@@ -10876,7 +10773,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F197" s="4" t="inlineStr"/>
+      <c r="F197" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC013</t>
+        </is>
+      </c>
       <c r="G197" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
@@ -10884,15 +10785,10 @@
       </c>
       <c r="H197" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
-        </is>
-      </c>
-      <c r="I197" s="4" t="inlineStr">
-        <is>
           <t>IGRF000428000</t>
         </is>
       </c>
-      <c r="J197" s="4" t="inlineStr"/>
+      <c r="I197" s="4" t="inlineStr"/>
     </row>
     <row r="198" ht="36" customHeight="1">
       <c r="A198" s="10" t="inlineStr">
@@ -10918,7 +10814,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F198" s="6" t="inlineStr"/>
+      <c r="F198" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC013</t>
+        </is>
+      </c>
       <c r="G198" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
@@ -10926,15 +10826,10 @@
       </c>
       <c r="H198" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
-        </is>
-      </c>
-      <c r="I198" s="6" t="inlineStr">
-        <is>
           <t>IGRF000426004</t>
         </is>
       </c>
-      <c r="J198" s="6" t="inlineStr"/>
+      <c r="I198" s="6" t="inlineStr"/>
     </row>
     <row r="199" ht="36" customHeight="1">
       <c r="A199" s="12" t="inlineStr">
@@ -10960,7 +10855,11 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F199" s="4" t="inlineStr"/>
+      <c r="F199" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G199" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -10968,15 +10867,10 @@
       </c>
       <c r="H199" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I199" s="4" t="inlineStr">
-        <is>
           <t>IGRF000432002</t>
         </is>
       </c>
-      <c r="J199" s="4" t="inlineStr"/>
+      <c r="I199" s="4" t="inlineStr"/>
     </row>
     <row r="200" ht="36" customHeight="1">
       <c r="A200" s="10" t="inlineStr">
@@ -11002,7 +10896,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F200" s="6" t="inlineStr"/>
+      <c r="F200" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G200" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -11010,15 +10908,10 @@
       </c>
       <c r="H200" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I200" s="6" t="inlineStr">
-        <is>
           <t>IGRF000433000</t>
         </is>
       </c>
-      <c r="J200" s="6" t="inlineStr"/>
+      <c r="I200" s="6" t="inlineStr"/>
     </row>
     <row r="201" ht="36" customHeight="1">
       <c r="A201" s="12" t="inlineStr">
@@ -11044,7 +10937,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F201" s="4" t="inlineStr"/>
+      <c r="F201" s="4" t="inlineStr">
+        <is>
+          <t>EGR800903737</t>
+        </is>
+      </c>
       <c r="G201" s="4" t="inlineStr">
         <is>
           <t>EGR800903737</t>
@@ -11052,15 +10949,10 @@
       </c>
       <c r="H201" s="4" t="inlineStr">
         <is>
-          <t>EGR800903737</t>
-        </is>
-      </c>
-      <c r="I201" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK01065_SHR</t>
         </is>
       </c>
-      <c r="J201" s="4" t="inlineStr"/>
+      <c r="I201" s="4" t="inlineStr"/>
     </row>
     <row r="202" ht="36" customHeight="1">
       <c r="A202" s="10" t="inlineStr">
@@ -11086,7 +10978,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F202" s="6" t="inlineStr"/>
+      <c r="F202" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G202" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -11094,15 +10990,10 @@
       </c>
       <c r="H202" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I202" s="6" t="inlineStr">
-        <is>
           <t>IGRF000434008</t>
         </is>
       </c>
-      <c r="J202" s="6" t="inlineStr"/>
+      <c r="I202" s="6" t="inlineStr"/>
     </row>
     <row r="203" ht="36" customHeight="1">
       <c r="A203" s="12" t="inlineStr">
@@ -11128,7 +11019,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F203" s="4" t="inlineStr"/>
+      <c r="F203" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G203" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -11136,15 +11031,10 @@
       </c>
       <c r="H203" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I203" s="4" t="inlineStr">
-        <is>
           <t>IGRF000437001</t>
         </is>
       </c>
-      <c r="J203" s="4" t="inlineStr"/>
+      <c r="I203" s="4" t="inlineStr"/>
     </row>
     <row r="204" ht="36" customHeight="1">
       <c r="A204" s="10" t="inlineStr">
@@ -11170,7 +11060,11 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F204" s="6" t="inlineStr"/>
+      <c r="F204" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G204" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -11178,15 +11072,10 @@
       </c>
       <c r="H204" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I204" s="6" t="inlineStr">
-        <is>
           <t>IGRF000441003</t>
         </is>
       </c>
-      <c r="J204" s="6" t="inlineStr"/>
+      <c r="I204" s="6" t="inlineStr"/>
     </row>
     <row r="205" ht="36" customHeight="1">
       <c r="A205" s="12" t="inlineStr">
@@ -11212,7 +11101,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F205" s="4" t="inlineStr"/>
+      <c r="F205" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G205" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -11220,15 +11113,10 @@
       </c>
       <c r="H205" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I205" s="4" t="inlineStr">
-        <is>
           <t>IGRF000436003</t>
         </is>
       </c>
-      <c r="J205" s="4" t="inlineStr"/>
+      <c r="I205" s="4" t="inlineStr"/>
     </row>
     <row r="206" ht="36" customHeight="1">
       <c r="A206" s="10" t="inlineStr">
@@ -11254,7 +11142,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F206" s="6" t="inlineStr"/>
+      <c r="F206" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G206" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -11262,15 +11154,10 @@
       </c>
       <c r="H206" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I206" s="6" t="inlineStr">
-        <is>
           <t>IGRF000440005</t>
         </is>
       </c>
-      <c r="J206" s="6" t="inlineStr"/>
+      <c r="I206" s="6" t="inlineStr"/>
     </row>
     <row r="207" ht="36" customHeight="1">
       <c r="A207" s="12" t="inlineStr">
@@ -11296,7 +11183,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F207" s="4" t="inlineStr"/>
+      <c r="F207" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G207" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -11304,15 +11195,10 @@
       </c>
       <c r="H207" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I207" s="4" t="inlineStr">
-        <is>
           <t>IGRF000439007</t>
         </is>
       </c>
-      <c r="J207" s="4" t="inlineStr"/>
+      <c r="I207" s="4" t="inlineStr"/>
     </row>
     <row r="208" ht="36" customHeight="1">
       <c r="A208" s="10" t="inlineStr">
@@ -11338,7 +11224,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F208" s="6" t="inlineStr"/>
+      <c r="F208" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC018</t>
+        </is>
+      </c>
       <c r="G208" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
@@ -11346,15 +11236,10 @@
       </c>
       <c r="H208" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
-        </is>
-      </c>
-      <c r="I208" s="6" t="inlineStr">
-        <is>
           <t>IGRF000443009</t>
         </is>
       </c>
-      <c r="J208" s="6" t="inlineStr"/>
+      <c r="I208" s="6" t="inlineStr"/>
     </row>
     <row r="209" ht="36" customHeight="1">
       <c r="A209" s="12" t="inlineStr">
@@ -11376,7 +11261,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F209" s="4" t="inlineStr"/>
+      <c r="F209" s="4" t="inlineStr">
+        <is>
+          <t>EGR800911079</t>
+        </is>
+      </c>
       <c r="G209" s="4" t="inlineStr">
         <is>
           <t>EGR800911079</t>
@@ -11384,15 +11273,10 @@
       </c>
       <c r="H209" s="4" t="inlineStr">
         <is>
-          <t>EGR800911079</t>
-        </is>
-      </c>
-      <c r="I209" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK01071_SHR</t>
         </is>
       </c>
-      <c r="J209" s="4" t="inlineStr"/>
+      <c r="I209" s="4" t="inlineStr"/>
     </row>
     <row r="210" ht="36" customHeight="1">
       <c r="A210" s="10" t="inlineStr">
@@ -11418,7 +11302,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F210" s="6" t="inlineStr"/>
+      <c r="F210" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G210" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -11426,15 +11314,10 @@
       </c>
       <c r="H210" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I210" s="6" t="inlineStr">
-        <is>
           <t>IGRF000448008</t>
         </is>
       </c>
-      <c r="J210" s="6" t="inlineStr"/>
+      <c r="I210" s="6" t="inlineStr"/>
     </row>
     <row r="211" ht="36" customHeight="1">
       <c r="A211" s="12" t="inlineStr">
@@ -11460,7 +11343,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F211" s="4" t="inlineStr"/>
+      <c r="F211" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G211" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -11468,15 +11355,10 @@
       </c>
       <c r="H211" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I211" s="4" t="inlineStr">
-        <is>
           <t>IGRF000447000</t>
         </is>
       </c>
-      <c r="J211" s="4" t="inlineStr"/>
+      <c r="I211" s="4" t="inlineStr"/>
     </row>
     <row r="212" ht="36" customHeight="1">
       <c r="A212" s="10" t="inlineStr">
@@ -11498,7 +11380,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F212" s="6" t="inlineStr"/>
+      <c r="F212" s="6" t="inlineStr">
+        <is>
+          <t>EGR802047322</t>
+        </is>
+      </c>
       <c r="G212" s="6" t="inlineStr">
         <is>
           <t>EGR802047322</t>
@@ -11506,15 +11392,10 @@
       </c>
       <c r="H212" s="6" t="inlineStr">
         <is>
-          <t>EGR802047322</t>
-        </is>
-      </c>
-      <c r="I212" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK01075_SHR</t>
         </is>
       </c>
-      <c r="J212" s="6" t="inlineStr"/>
+      <c r="I212" s="6" t="inlineStr"/>
     </row>
     <row r="213" ht="36" customHeight="1">
       <c r="A213" s="12" t="inlineStr">
@@ -11536,7 +11417,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F213" s="4" t="inlineStr"/>
+      <c r="F213" s="4" t="inlineStr">
+        <is>
+          <t>EGR802177269</t>
+        </is>
+      </c>
       <c r="G213" s="4" t="inlineStr">
         <is>
           <t>EGR802177269</t>
@@ -11544,15 +11429,10 @@
       </c>
       <c r="H213" s="4" t="inlineStr">
         <is>
-          <t>EGR802177269</t>
-        </is>
-      </c>
-      <c r="I213" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK01074_SHR</t>
         </is>
       </c>
-      <c r="J213" s="4" t="inlineStr"/>
+      <c r="I213" s="4" t="inlineStr"/>
     </row>
     <row r="214" ht="36" customHeight="1">
       <c r="A214" s="10" t="inlineStr">
@@ -11578,7 +11458,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F214" s="6" t="inlineStr"/>
+      <c r="F214" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G214" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -11586,15 +11470,10 @@
       </c>
       <c r="H214" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I214" s="6" t="inlineStr">
-        <is>
           <t>IGRF000449006</t>
         </is>
       </c>
-      <c r="J214" s="6" t="inlineStr"/>
+      <c r="I214" s="6" t="inlineStr"/>
     </row>
     <row r="215" ht="36" customHeight="1">
       <c r="A215" s="12" t="inlineStr">
@@ -11620,7 +11499,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F215" s="4" t="inlineStr"/>
+      <c r="F215" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G215" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -11628,15 +11511,10 @@
       </c>
       <c r="H215" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I215" s="4" t="inlineStr">
-        <is>
           <t>IGRF000450004</t>
         </is>
       </c>
-      <c r="J215" s="4" t="inlineStr"/>
+      <c r="I215" s="4" t="inlineStr"/>
     </row>
     <row r="216" ht="36" customHeight="1">
       <c r="A216" s="10" t="inlineStr">
@@ -11662,7 +11540,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F216" s="6" t="inlineStr"/>
+      <c r="F216" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G216" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -11670,15 +11552,10 @@
       </c>
       <c r="H216" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I216" s="6" t="inlineStr">
-        <is>
           <t>IGRF000451002</t>
         </is>
       </c>
-      <c r="J216" s="6" t="inlineStr"/>
+      <c r="I216" s="6" t="inlineStr"/>
     </row>
     <row r="217" ht="36" customHeight="1">
       <c r="A217" s="12" t="inlineStr">
@@ -11704,7 +11581,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F217" s="4" t="inlineStr"/>
+      <c r="F217" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G217" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -11712,15 +11593,10 @@
       </c>
       <c r="H217" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I217" s="4" t="inlineStr">
-        <is>
           <t>IGRF000454006</t>
         </is>
       </c>
-      <c r="J217" s="4" t="inlineStr"/>
+      <c r="I217" s="4" t="inlineStr"/>
     </row>
     <row r="218" ht="36" customHeight="1">
       <c r="A218" s="10" t="inlineStr">
@@ -11746,7 +11622,11 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F218" s="6" t="inlineStr"/>
+      <c r="F218" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G218" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -11754,15 +11634,10 @@
       </c>
       <c r="H218" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I218" s="6" t="inlineStr">
-        <is>
           <t>IGRF000453008</t>
         </is>
       </c>
-      <c r="J218" s="6" t="inlineStr"/>
+      <c r="I218" s="6" t="inlineStr"/>
     </row>
     <row r="219" ht="36" customHeight="1">
       <c r="A219" s="12" t="inlineStr">
@@ -11788,7 +11663,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F219" s="4" t="inlineStr"/>
+      <c r="F219" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC014</t>
+        </is>
+      </c>
       <c r="G219" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
@@ -11796,15 +11675,10 @@
       </c>
       <c r="H219" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
-        </is>
-      </c>
-      <c r="I219" s="4" t="inlineStr">
-        <is>
           <t>IGRF000455003</t>
         </is>
       </c>
-      <c r="J219" s="4" t="inlineStr"/>
+      <c r="I219" s="4" t="inlineStr"/>
     </row>
     <row r="220" ht="36" customHeight="1">
       <c r="A220" s="10" t="inlineStr">
@@ -11826,7 +11700,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F220" s="6" t="inlineStr"/>
+      <c r="F220" s="6" t="inlineStr">
+        <is>
+          <t>EGR802071555</t>
+        </is>
+      </c>
       <c r="G220" s="6" t="inlineStr">
         <is>
           <t>EGR802071555</t>
@@ -11834,15 +11712,10 @@
       </c>
       <c r="H220" s="6" t="inlineStr">
         <is>
-          <t>EGR802071555</t>
-        </is>
-      </c>
-      <c r="I220" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK01076_SHR</t>
         </is>
       </c>
-      <c r="J220" s="6" t="inlineStr"/>
+      <c r="I220" s="6" t="inlineStr"/>
     </row>
     <row r="221" ht="36" customHeight="1">
       <c r="A221" s="12" t="inlineStr">
@@ -11868,7 +11741,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F221" s="4" t="inlineStr"/>
+      <c r="F221" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G221" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -11876,15 +11753,10 @@
       </c>
       <c r="H221" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I221" s="4" t="inlineStr">
-        <is>
           <t>IGRF000457009</t>
         </is>
       </c>
-      <c r="J221" s="4" t="inlineStr"/>
+      <c r="I221" s="4" t="inlineStr"/>
     </row>
     <row r="222" ht="36" customHeight="1">
       <c r="A222" s="10" t="inlineStr">
@@ -11910,7 +11782,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F222" s="6" t="inlineStr"/>
+      <c r="F222" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G222" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -11918,15 +11794,10 @@
       </c>
       <c r="H222" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I222" s="6" t="inlineStr">
-        <is>
           <t>IGRF000459005</t>
         </is>
       </c>
-      <c r="J222" s="6" t="inlineStr"/>
+      <c r="I222" s="6" t="inlineStr"/>
     </row>
     <row r="223" ht="36" customHeight="1">
       <c r="A223" s="12" t="inlineStr">
@@ -11952,7 +11823,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F223" s="4" t="inlineStr"/>
+      <c r="F223" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G223" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -11960,15 +11835,10 @@
       </c>
       <c r="H223" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I223" s="4" t="inlineStr">
-        <is>
           <t>IGRF000460003</t>
         </is>
       </c>
-      <c r="J223" s="4" t="inlineStr"/>
+      <c r="I223" s="4" t="inlineStr"/>
     </row>
     <row r="224" ht="36" customHeight="1">
       <c r="A224" s="10" t="inlineStr">
@@ -11994,7 +11864,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F224" s="6" t="inlineStr"/>
+      <c r="F224" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC010</t>
+        </is>
+      </c>
       <c r="G224" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
@@ -12002,15 +11876,10 @@
       </c>
       <c r="H224" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
-        </is>
-      </c>
-      <c r="I224" s="6" t="inlineStr">
-        <is>
           <t>IGRF000462009</t>
         </is>
       </c>
-      <c r="J224" s="6" t="inlineStr"/>
+      <c r="I224" s="6" t="inlineStr"/>
     </row>
     <row r="225" ht="36" customHeight="1">
       <c r="A225" s="12" t="inlineStr">
@@ -12036,7 +11905,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F225" s="4" t="inlineStr"/>
+      <c r="F225" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G225" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -12044,15 +11917,10 @@
       </c>
       <c r="H225" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I225" s="4" t="inlineStr">
-        <is>
           <t>IGRF000464005</t>
         </is>
       </c>
-      <c r="J225" s="4" t="inlineStr"/>
+      <c r="I225" s="4" t="inlineStr"/>
     </row>
     <row r="226" ht="36" customHeight="1">
       <c r="A226" s="10" t="inlineStr">
@@ -12078,7 +11946,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F226" s="6" t="inlineStr"/>
+      <c r="F226" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G226" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -12086,15 +11958,10 @@
       </c>
       <c r="H226" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I226" s="6" t="inlineStr">
-        <is>
           <t>IGRF000466000</t>
         </is>
       </c>
-      <c r="J226" s="6" t="inlineStr"/>
+      <c r="I226" s="6" t="inlineStr"/>
     </row>
     <row r="227" ht="36" customHeight="1">
       <c r="A227" s="12" t="inlineStr">
@@ -12121,18 +11988,17 @@
         </is>
       </c>
       <c r="F227" s="4" t="inlineStr"/>
-      <c r="G227" s="4" t="inlineStr"/>
+      <c r="G227" s="4" t="inlineStr">
+        <is>
+          <t>EGRAEEAP012</t>
+        </is>
+      </c>
       <c r="H227" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP012</t>
-        </is>
-      </c>
-      <c r="I227" s="4" t="inlineStr">
-        <is>
           <t>PEGRAEEAP012_SHR</t>
         </is>
       </c>
-      <c r="J227" s="4" t="inlineStr"/>
+      <c r="I227" s="4" t="inlineStr"/>
     </row>
     <row r="228" ht="36" customHeight="1">
       <c r="A228" s="10" t="inlineStr">
@@ -12158,7 +12024,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F228" s="6" t="inlineStr"/>
+      <c r="F228" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G228" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -12166,15 +12036,10 @@
       </c>
       <c r="H228" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I228" s="6" t="inlineStr">
-        <is>
           <t>IGRF000472008</t>
         </is>
       </c>
-      <c r="J228" s="6" t="inlineStr"/>
+      <c r="I228" s="6" t="inlineStr"/>
     </row>
     <row r="229" ht="36" customHeight="1">
       <c r="A229" s="12" t="inlineStr">
@@ -12200,7 +12065,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F229" s="4" t="inlineStr"/>
+      <c r="F229" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G229" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -12208,15 +12077,10 @@
       </c>
       <c r="H229" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I229" s="4" t="inlineStr">
-        <is>
           <t>IGRF000473006</t>
         </is>
       </c>
-      <c r="J229" s="4" t="inlineStr"/>
+      <c r="I229" s="4" t="inlineStr"/>
     </row>
     <row r="230" ht="36" customHeight="1">
       <c r="A230" s="10" t="inlineStr">
@@ -12242,7 +12106,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F230" s="6" t="inlineStr"/>
+      <c r="F230" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G230" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -12250,15 +12118,10 @@
       </c>
       <c r="H230" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I230" s="6" t="inlineStr">
-        <is>
           <t>IGRF000474004</t>
         </is>
       </c>
-      <c r="J230" s="6" t="inlineStr"/>
+      <c r="I230" s="6" t="inlineStr"/>
     </row>
     <row r="231" ht="36" customHeight="1">
       <c r="A231" s="12" t="inlineStr">
@@ -12284,7 +12147,11 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F231" s="4" t="inlineStr"/>
+      <c r="F231" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G231" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -12292,15 +12159,10 @@
       </c>
       <c r="H231" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I231" s="4" t="inlineStr">
-        <is>
           <t>IGRF000467008</t>
         </is>
       </c>
-      <c r="J231" s="4" t="inlineStr"/>
+      <c r="I231" s="4" t="inlineStr"/>
     </row>
     <row r="232" ht="36" customHeight="1">
       <c r="A232" s="10" t="inlineStr">
@@ -12326,7 +12188,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F232" s="6" t="inlineStr"/>
+      <c r="F232" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC018</t>
+        </is>
+      </c>
       <c r="G232" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
@@ -12334,15 +12200,10 @@
       </c>
       <c r="H232" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
-        </is>
-      </c>
-      <c r="I232" s="6" t="inlineStr">
-        <is>
           <t>IGRF000471000</t>
         </is>
       </c>
-      <c r="J232" s="6" t="inlineStr"/>
+      <c r="I232" s="6" t="inlineStr"/>
     </row>
     <row r="233" ht="36" customHeight="1">
       <c r="A233" s="12" t="inlineStr">
@@ -12368,7 +12229,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F233" s="4" t="inlineStr"/>
+      <c r="F233" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G233" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -12376,15 +12241,10 @@
       </c>
       <c r="H233" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I233" s="4" t="inlineStr">
-        <is>
           <t>IGRF000468006, IGRF000469004, IGRF000470002</t>
         </is>
       </c>
-      <c r="J233" s="4" t="inlineStr"/>
+      <c r="I233" s="4" t="inlineStr"/>
     </row>
     <row r="234" ht="36" customHeight="1">
       <c r="A234" s="10" t="inlineStr">
@@ -12410,7 +12270,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F234" s="6" t="inlineStr"/>
+      <c r="F234" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G234" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -12418,15 +12282,10 @@
       </c>
       <c r="H234" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I234" s="6" t="inlineStr">
-        <is>
           <t>IGRF000475001</t>
         </is>
       </c>
-      <c r="J234" s="6" t="inlineStr"/>
+      <c r="I234" s="6" t="inlineStr"/>
     </row>
     <row r="235" ht="36" customHeight="1">
       <c r="A235" s="12" t="inlineStr">
@@ -12452,7 +12311,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F235" s="4" t="inlineStr"/>
+      <c r="F235" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC014</t>
+        </is>
+      </c>
       <c r="G235" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
@@ -12460,15 +12323,10 @@
       </c>
       <c r="H235" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
-        </is>
-      </c>
-      <c r="I235" s="4" t="inlineStr">
-        <is>
           <t>IGRF000482007</t>
         </is>
       </c>
-      <c r="J235" s="4" t="inlineStr"/>
+      <c r="I235" s="4" t="inlineStr"/>
     </row>
     <row r="236" ht="36" customHeight="1">
       <c r="A236" s="10" t="inlineStr">
@@ -12494,7 +12352,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F236" s="6" t="inlineStr"/>
+      <c r="F236" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G236" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -12502,15 +12364,10 @@
       </c>
       <c r="H236" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I236" s="6" t="inlineStr">
-        <is>
           <t>IGRF000479003</t>
         </is>
       </c>
-      <c r="J236" s="6" t="inlineStr"/>
+      <c r="I236" s="6" t="inlineStr"/>
     </row>
     <row r="237" ht="36" customHeight="1">
       <c r="A237" s="12" t="inlineStr">
@@ -12536,7 +12393,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F237" s="4" t="inlineStr"/>
+      <c r="F237" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G237" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -12544,15 +12405,10 @@
       </c>
       <c r="H237" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I237" s="4" t="inlineStr">
-        <is>
           <t>IGRF000478005</t>
         </is>
       </c>
-      <c r="J237" s="4" t="inlineStr"/>
+      <c r="I237" s="4" t="inlineStr"/>
     </row>
     <row r="238" ht="36" customHeight="1">
       <c r="A238" s="10" t="inlineStr">
@@ -12578,7 +12434,11 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F238" s="6" t="inlineStr"/>
+      <c r="F238" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G238" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -12586,15 +12446,10 @@
       </c>
       <c r="H238" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I238" s="6" t="inlineStr">
-        <is>
           <t>IGRF000480001</t>
         </is>
       </c>
-      <c r="J238" s="6" t="inlineStr"/>
+      <c r="I238" s="6" t="inlineStr"/>
     </row>
     <row r="239" ht="36" customHeight="1">
       <c r="A239" s="12" t="inlineStr">
@@ -12620,7 +12475,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F239" s="4" t="inlineStr"/>
+      <c r="F239" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G239" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -12628,15 +12487,10 @@
       </c>
       <c r="H239" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I239" s="4" t="inlineStr">
-        <is>
           <t>IGRF000477007</t>
         </is>
       </c>
-      <c r="J239" s="4" t="inlineStr"/>
+      <c r="I239" s="4" t="inlineStr"/>
     </row>
     <row r="240" ht="36" customHeight="1">
       <c r="A240" s="10" t="inlineStr">
@@ -12662,7 +12516,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F240" s="6" t="inlineStr"/>
+      <c r="F240" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G240" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -12670,15 +12528,10 @@
       </c>
       <c r="H240" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I240" s="6" t="inlineStr">
-        <is>
           <t>IGRF000481009</t>
         </is>
       </c>
-      <c r="J240" s="6" t="inlineStr"/>
+      <c r="I240" s="6" t="inlineStr"/>
     </row>
     <row r="241" ht="36" customHeight="1">
       <c r="A241" s="12" t="inlineStr">
@@ -12704,7 +12557,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F241" s="4" t="inlineStr"/>
+      <c r="F241" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G241" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -12712,15 +12569,10 @@
       </c>
       <c r="H241" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I241" s="4" t="inlineStr">
-        <is>
           <t>IGRF000486008</t>
         </is>
       </c>
-      <c r="J241" s="4" t="inlineStr"/>
+      <c r="I241" s="4" t="inlineStr"/>
     </row>
     <row r="242" ht="36" customHeight="1">
       <c r="A242" s="10" t="inlineStr">
@@ -12742,7 +12594,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F242" s="6" t="inlineStr"/>
+      <c r="F242" s="6" t="inlineStr">
+        <is>
+          <t>EGR802025852</t>
+        </is>
+      </c>
       <c r="G242" s="6" t="inlineStr">
         <is>
           <t>EGR802025852</t>
@@ -12750,15 +12606,10 @@
       </c>
       <c r="H242" s="6" t="inlineStr">
         <is>
-          <t>EGR802025852</t>
-        </is>
-      </c>
-      <c r="I242" s="6" t="inlineStr">
-        <is>
           <t>PEGRAK01100_SHR</t>
         </is>
       </c>
-      <c r="J242" s="6" t="inlineStr"/>
+      <c r="I242" s="6" t="inlineStr"/>
     </row>
     <row r="243" ht="36" customHeight="1">
       <c r="A243" s="12" t="inlineStr">
@@ -12780,7 +12631,11 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F243" s="4" t="inlineStr"/>
+      <c r="F243" s="4" t="inlineStr">
+        <is>
+          <t>EGR802190685</t>
+        </is>
+      </c>
       <c r="G243" s="4" t="inlineStr">
         <is>
           <t>EGR802190685</t>
@@ -12788,15 +12643,10 @@
       </c>
       <c r="H243" s="4" t="inlineStr">
         <is>
-          <t>EGR802190685</t>
-        </is>
-      </c>
-      <c r="I243" s="4" t="inlineStr">
-        <is>
           <t>PEGRAK01099_SHR</t>
         </is>
       </c>
-      <c r="J243" s="4" t="inlineStr"/>
+      <c r="I243" s="4" t="inlineStr"/>
     </row>
     <row r="244" ht="36" customHeight="1">
       <c r="A244" s="10" t="inlineStr">
@@ -12822,7 +12672,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F244" s="6" t="inlineStr"/>
+      <c r="F244" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="G244" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
@@ -12830,15 +12684,10 @@
       </c>
       <c r="H244" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I244" s="6" t="inlineStr">
-        <is>
           <t>IGRF000487006</t>
         </is>
       </c>
-      <c r="J244" s="6" t="inlineStr"/>
+      <c r="I244" s="6" t="inlineStr"/>
     </row>
     <row r="245" ht="36" customHeight="1">
       <c r="A245" s="12" t="inlineStr">
@@ -12864,7 +12713,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F245" s="4" t="inlineStr"/>
+      <c r="F245" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC018</t>
+        </is>
+      </c>
       <c r="G245" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
@@ -12872,15 +12725,10 @@
       </c>
       <c r="H245" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
-        </is>
-      </c>
-      <c r="I245" s="4" t="inlineStr">
-        <is>
           <t>IGRF000490000</t>
         </is>
       </c>
-      <c r="J245" s="4" t="inlineStr"/>
+      <c r="I245" s="4" t="inlineStr"/>
     </row>
     <row r="246" ht="36" customHeight="1">
       <c r="A246" s="10" t="inlineStr">
@@ -12906,7 +12754,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F246" s="6" t="inlineStr"/>
+      <c r="F246" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="G246" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
@@ -12914,15 +12766,10 @@
       </c>
       <c r="H246" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I246" s="6" t="inlineStr">
-        <is>
           <t>IGRF000489002</t>
         </is>
       </c>
-      <c r="J246" s="6" t="inlineStr"/>
+      <c r="I246" s="6" t="inlineStr"/>
     </row>
     <row r="247" ht="36" customHeight="1">
       <c r="A247" s="12" t="inlineStr">
@@ -12948,7 +12795,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F247" s="4" t="inlineStr"/>
+      <c r="F247" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G247" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -12956,15 +12807,10 @@
       </c>
       <c r="H247" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I247" s="4" t="inlineStr">
-        <is>
           <t>IGRF000491008</t>
         </is>
       </c>
-      <c r="J247" s="4" t="inlineStr"/>
+      <c r="I247" s="4" t="inlineStr"/>
     </row>
     <row r="248" ht="36" customHeight="1">
       <c r="A248" s="10" t="inlineStr">
@@ -12990,7 +12836,11 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F248" s="6" t="inlineStr"/>
+      <c r="F248" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
       <c r="G248" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
@@ -12998,144 +12848,288 @@
       </c>
       <c r="H248" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I248" s="6" t="inlineStr">
-        <is>
           <t>IGRF000492006</t>
         </is>
       </c>
-      <c r="J248" s="6" t="inlineStr"/>
+      <c r="I248" s="6" t="inlineStr"/>
     </row>
     <row r="249" ht="36" customHeight="1">
       <c r="A249" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01096</t>
-        </is>
-      </c>
-      <c r="B249" s="4" t="inlineStr">
-        <is>
-          <t>L21380042AZBV7UBFTB47</t>
-        </is>
-      </c>
+          <t>EGRAK01102</t>
+        </is>
+      </c>
+      <c r="B249" s="4" t="inlineStr"/>
       <c r="C249" s="13" t="n">
-        <v>45504</v>
+        <v>45496</v>
       </c>
       <c r="D249" s="4" t="inlineStr">
         <is>
-          <t>Πειραιώς Α/Κ Στρατηγικής Τακτικού Εισοδήματος 2027 II Ευρωπαϊκό Ομολογιακό</t>
+          <t>CORALLIA VENTURES TT A.K.E.Σ</t>
         </is>
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="F249" s="4" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F249" s="4" t="inlineStr">
+        <is>
+          <t>EGR802458356</t>
+        </is>
+      </c>
       <c r="G249" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGR802458356</t>
         </is>
       </c>
       <c r="H249" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
-        </is>
-      </c>
-      <c r="I249" s="4" t="inlineStr">
-        <is>
-          <t>IGRF000493004</t>
-        </is>
-      </c>
-      <c r="J249" s="4" t="inlineStr"/>
+          <t>PEGRAK01102_SHR</t>
+        </is>
+      </c>
+      <c r="I249" s="4" t="inlineStr"/>
     </row>
     <row r="250" ht="36" customHeight="1">
       <c r="A250" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01097</t>
-        </is>
-      </c>
-      <c r="B250" s="6" t="inlineStr">
-        <is>
-          <t>L213800OA6YI2FW5NXW69</t>
-        </is>
-      </c>
+          <t>EGRAK01104</t>
+        </is>
+      </c>
+      <c r="B250" s="6" t="inlineStr"/>
       <c r="C250" s="11" t="n">
-        <v>45513</v>
+        <v>45502</v>
       </c>
       <c r="D250" s="6" t="inlineStr">
         <is>
-          <t>TRITON Target Maturity</t>
+          <t>LOGGERHEAD VENTURE FUND VCMF</t>
         </is>
       </c>
       <c r="E250" s="6" t="inlineStr">
         <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="F250" s="6" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F250" s="6" t="inlineStr">
+        <is>
+          <t>EGR802187644</t>
+        </is>
+      </c>
       <c r="G250" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
+          <t>EGR802187644</t>
         </is>
       </c>
       <c r="H250" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
-        </is>
-      </c>
-      <c r="I250" s="6" t="inlineStr">
-        <is>
-          <t>IGRF000495009, IGRF000496007</t>
-        </is>
-      </c>
-      <c r="J250" s="6" t="inlineStr"/>
+          <t>PEGRAK01104_SHR</t>
+        </is>
+      </c>
+      <c r="I250" s="6" t="inlineStr"/>
     </row>
     <row r="251" ht="36" customHeight="1">
       <c r="A251" s="12" t="inlineStr">
         <is>
+          <t>EGRAK01096</t>
+        </is>
+      </c>
+      <c r="B251" s="4" t="inlineStr">
+        <is>
+          <t>L21380042AZBV7UBFTB47</t>
+        </is>
+      </c>
+      <c r="C251" s="13" t="n">
+        <v>45504</v>
+      </c>
+      <c r="D251" s="4" t="inlineStr">
+        <is>
+          <t>Πειραιώς Α/Κ Στρατηγικής Τακτικού Εισοδήματος 2027 II Ευρωπαϊκό Ομολογιακό</t>
+        </is>
+      </c>
+      <c r="E251" s="4" t="inlineStr">
+        <is>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F251" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
+      <c r="G251" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
+      <c r="H251" s="4" t="inlineStr">
+        <is>
+          <t>IGRF000493004</t>
+        </is>
+      </c>
+      <c r="I251" s="4" t="inlineStr"/>
+    </row>
+    <row r="252" ht="36" customHeight="1">
+      <c r="A252" s="10" t="inlineStr">
+        <is>
+          <t>EGRAK01097</t>
+        </is>
+      </c>
+      <c r="B252" s="6" t="inlineStr">
+        <is>
+          <t>L213800OA6YI2FW5NXW69</t>
+        </is>
+      </c>
+      <c r="C252" s="11" t="n">
+        <v>45513</v>
+      </c>
+      <c r="D252" s="6" t="inlineStr">
+        <is>
+          <t>TRITON Target Maturity</t>
+        </is>
+      </c>
+      <c r="E252" s="6" t="inlineStr">
+        <is>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F252" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC013</t>
+        </is>
+      </c>
+      <c r="G252" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC013</t>
+        </is>
+      </c>
+      <c r="H252" s="6" t="inlineStr">
+        <is>
+          <t>IGRF000495009, IGRF000496007</t>
+        </is>
+      </c>
+      <c r="I252" s="6" t="inlineStr"/>
+    </row>
+    <row r="253" ht="36" customHeight="1">
+      <c r="A253" s="12" t="inlineStr">
+        <is>
           <t>EGRAK01098</t>
         </is>
       </c>
-      <c r="B251" s="4" t="inlineStr">
+      <c r="B253" s="4" t="inlineStr">
         <is>
           <t>L213800WRF79PG1L12R79</t>
         </is>
       </c>
-      <c r="C251" s="13" t="n">
+      <c r="C253" s="13" t="n">
         <v>45551</v>
       </c>
-      <c r="D251" s="4" t="inlineStr">
+      <c r="D253" s="4" t="inlineStr">
         <is>
           <t>ΔΗΛΟΣ EXTRA INCOME VIΙ 24months - Ομολογιακό</t>
         </is>
       </c>
-      <c r="E251" s="4" t="inlineStr">
+      <c r="E253" s="4" t="inlineStr">
         <is>
           <t>BON</t>
         </is>
       </c>
-      <c r="F251" s="4" t="inlineStr"/>
-      <c r="G251" s="4" t="inlineStr">
+      <c r="F253" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H251" s="4" t="inlineStr">
+      <c r="G253" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="I251" s="4" t="inlineStr">
+      <c r="H253" s="4" t="inlineStr">
         <is>
           <t>IGRF000497005</t>
         </is>
       </c>
-      <c r="J251" s="4" t="inlineStr"/>
+      <c r="I253" s="4" t="inlineStr"/>
+    </row>
+    <row r="254" ht="36" customHeight="1">
+      <c r="A254" s="10" t="inlineStr">
+        <is>
+          <t>EGRAK01103</t>
+        </is>
+      </c>
+      <c r="B254" s="6" t="inlineStr"/>
+      <c r="C254" s="11" t="n">
+        <v>45552</v>
+      </c>
+      <c r="D254" s="6" t="inlineStr">
+        <is>
+          <t>Elbridge Capital Fund I</t>
+        </is>
+      </c>
+      <c r="E254" s="6" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F254" s="6" t="inlineStr">
+        <is>
+          <t>EGR801698110</t>
+        </is>
+      </c>
+      <c r="G254" s="6" t="inlineStr">
+        <is>
+          <t>EGR801698110</t>
+        </is>
+      </c>
+      <c r="H254" s="6" t="inlineStr">
+        <is>
+          <t>PEGRAK01103_SHR</t>
+        </is>
+      </c>
+      <c r="I254" s="6" t="inlineStr"/>
+    </row>
+    <row r="255" ht="36" customHeight="1">
+      <c r="A255" s="12" t="inlineStr">
+        <is>
+          <t>EGRAK01101</t>
+        </is>
+      </c>
+      <c r="B255" s="4" t="inlineStr">
+        <is>
+          <t>L2138009Q38X6LDR8C221</t>
+        </is>
+      </c>
+      <c r="C255" s="13" t="n">
+        <v>45576</v>
+      </c>
+      <c r="D255" s="4" t="inlineStr">
+        <is>
+          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2029 (IΙI) ΕΥΡΩΠΑΪΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
+        </is>
+      </c>
+      <c r="E255" s="4" t="inlineStr">
+        <is>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F255" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
+      <c r="G255" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
+      <c r="H255" s="4" t="inlineStr">
+        <is>
+          <t>IGRF000501004</t>
+        </is>
+      </c>
+      <c r="I255" s="4" t="inlineStr"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J251"/>
+  <autoFilter ref="A1:I255"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -13146,7 +13140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D336"/>
+  <dimension ref="A1:D341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -13160,7 +13154,7 @@
     <col width="23.4" customWidth="1" min="1" max="1"/>
     <col width="27.3" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="18.2" customWidth="1" min="4" max="4"/>
+    <col width="33.8" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1">
@@ -19635,75 +19629,67 @@
     <row r="330" ht="36" customHeight="1">
       <c r="A330" s="10" t="inlineStr">
         <is>
-          <t>IGRF000493004</t>
+          <t>PEGRAK01102_SHR</t>
         </is>
       </c>
       <c r="B330" s="11" t="n">
-        <v>45504</v>
-      </c>
-      <c r="C330" s="6" t="inlineStr">
-        <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 (II) EUROPEAN BOND FUND</t>
-        </is>
-      </c>
+        <v>45496</v>
+      </c>
+      <c r="C330" s="6" t="inlineStr"/>
       <c r="D330" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01096</t>
+          <t>EGRAK01002, EGRAK01102</t>
         </is>
       </c>
     </row>
     <row r="331" ht="36" customHeight="1">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>IGRF000495009</t>
+          <t>PEGRAK01104_SHR</t>
         </is>
       </c>
       <c r="B331" s="13" t="n">
-        <v>45513</v>
-      </c>
-      <c r="C331" s="4" t="inlineStr">
-        <is>
-          <t>TRITON Target Maturity Class A</t>
-        </is>
-      </c>
+        <v>45502</v>
+      </c>
+      <c r="C331" s="4" t="inlineStr"/>
       <c r="D331" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01097</t>
+          <t>EGR802187644, EGRAK01104</t>
         </is>
       </c>
     </row>
     <row r="332" ht="36" customHeight="1">
       <c r="A332" s="10" t="inlineStr">
         <is>
-          <t>IGRF000494002</t>
+          <t>IGRF000493004</t>
         </is>
       </c>
       <c r="B332" s="11" t="n">
-        <v>45546</v>
+        <v>45504</v>
       </c>
       <c r="C332" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS IDEAS GLOBAL EQUITY FUND (R)</t>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 (II) EUROPEAN BOND FUND</t>
         </is>
       </c>
       <c r="D332" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01004</t>
+          <t>EGRAK01096</t>
         </is>
       </c>
     </row>
     <row r="333" ht="36" customHeight="1">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>IGRF000496007</t>
+          <t>IGRF000495009</t>
         </is>
       </c>
       <c r="B333" s="13" t="n">
-        <v>45547</v>
+        <v>45513</v>
       </c>
       <c r="C333" s="4" t="inlineStr">
         <is>
-          <t>TRITON Target Maturity Class E</t>
+          <t>TRITON Target Maturity Class A</t>
         </is>
       </c>
       <c r="D333" s="4" t="inlineStr">
@@ -19715,53 +19701,143 @@
     <row r="334" ht="36" customHeight="1">
       <c r="A334" s="10" t="inlineStr">
         <is>
-          <t>IGRF000497005</t>
+          <t>IGRF000494002</t>
         </is>
       </c>
       <c r="B334" s="11" t="n">
-        <v>45551</v>
+        <v>45546</v>
       </c>
       <c r="C334" s="6" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME VII 24MONTHS - BOND FUND</t>
+          <t>PIRAEUS IDEAS GLOBAL EQUITY FUND (R)</t>
         </is>
       </c>
       <c r="D334" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01098</t>
+          <t>EGRAK01004</t>
         </is>
       </c>
     </row>
     <row r="335" ht="36" customHeight="1">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>PEGRAEEAP012_SHR</t>
-        </is>
-      </c>
-      <c r="B335" s="13" t="inlineStr"/>
-      <c r="C335" s="4" t="inlineStr"/>
+          <t>IGRF000496007</t>
+        </is>
+      </c>
+      <c r="B335" s="13" t="n">
+        <v>45547</v>
+      </c>
+      <c r="C335" s="4" t="inlineStr">
+        <is>
+          <t>TRITON Target Maturity Class E</t>
+        </is>
+      </c>
       <c r="D335" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP012</t>
+          <t>EGRAK01097</t>
         </is>
       </c>
     </row>
     <row r="336" ht="36" customHeight="1">
       <c r="A336" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01102_SHR</t>
-        </is>
-      </c>
-      <c r="B336" s="11" t="inlineStr"/>
-      <c r="C336" s="6" t="inlineStr"/>
+          <t>IGRF000497005</t>
+        </is>
+      </c>
+      <c r="B336" s="11" t="n">
+        <v>45551</v>
+      </c>
+      <c r="C336" s="6" t="inlineStr">
+        <is>
+          <t>DELOS EXTRA INCOME VII 24MONTHS - BOND FUND</t>
+        </is>
+      </c>
       <c r="D336" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01002</t>
+          <t>EGRAK01098</t>
+        </is>
+      </c>
+    </row>
+    <row r="337" ht="36" customHeight="1">
+      <c r="A337" s="12" t="inlineStr">
+        <is>
+          <t>PEGRAK01103_SHR</t>
+        </is>
+      </c>
+      <c r="B337" s="13" t="n">
+        <v>45552</v>
+      </c>
+      <c r="C337" s="4" t="inlineStr"/>
+      <c r="D337" s="4" t="inlineStr">
+        <is>
+          <t>EGR801698110, EGRAK01103</t>
+        </is>
+      </c>
+    </row>
+    <row r="338" ht="36" customHeight="1">
+      <c r="A338" s="10" t="inlineStr">
+        <is>
+          <t>IGRF000501004</t>
+        </is>
+      </c>
+      <c r="B338" s="11" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C338" s="6" t="inlineStr">
+        <is>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2029 (III) EUROPEAN BOND FUND</t>
+        </is>
+      </c>
+      <c r="D338" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK01101</t>
+        </is>
+      </c>
+    </row>
+    <row r="339" ht="36" customHeight="1">
+      <c r="A339" s="12" t="inlineStr">
+        <is>
+          <t>PEGRAEEAP012_SHR</t>
+        </is>
+      </c>
+      <c r="B339" s="13" t="inlineStr"/>
+      <c r="C339" s="4" t="inlineStr"/>
+      <c r="D339" s="4" t="inlineStr">
+        <is>
+          <t>EGRAEEAP012</t>
+        </is>
+      </c>
+    </row>
+    <row r="340" ht="36" customHeight="1">
+      <c r="A340" s="10" t="inlineStr">
+        <is>
+          <t>PEGRAK00265_SHR</t>
+        </is>
+      </c>
+      <c r="B340" s="11" t="inlineStr"/>
+      <c r="C340" s="6" t="inlineStr"/>
+      <c r="D340" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK00265</t>
+        </is>
+      </c>
+    </row>
+    <row r="341" ht="36" customHeight="1">
+      <c r="A341" s="12" t="inlineStr">
+        <is>
+          <t>PEGRAK00809_SHR</t>
+        </is>
+      </c>
+      <c r="B341" s="13" t="inlineStr"/>
+      <c r="C341" s="4" t="inlineStr"/>
+      <c r="D341" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK00809</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D336"/>
+  <autoFilter ref="A1:D341"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/docs/source/_static/structure/IFDAT-LIST.xlsx
+++ b/docs/source/_static/structure/IFDAT-LIST.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ΠΕΡΙΕΧΟΜΕΝΑ'!$A$1:$A$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ΜΠΣ'!$A$1:$F$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EO'!$A$1:$I$255</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ'!$A$1:$D$341</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ'!$A$1:$D$339</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ΕΚΔΟΣΕΙΣ ΟΜΟΛΟΓΩΝ ΕΟ'!$A$1:$D$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -586,7 +586,7 @@
         <is>
           <t>IFDAT
 ΠΙΝΑΚΑΣ ΥΠΟΧΡΕΩΝ ΦΟΡΕΩΝ
-ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2024-10-29</t>
+ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2024-11-05</t>
         </is>
       </c>
       <c r="D3" s="1" t="n"/>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>TGR094282521, BGR000920101000, L213800SHGGWDBFVRPS03</t>
+          <t>TGR094282521, L213800SHGGWDBFVRPS03, BGR000920101000</t>
         </is>
       </c>
       <c r="C2" s="11" t="n">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>TGR094036844, L213800BEX8X28DTL5391, BGR000352001000</t>
+          <t>BGR000352001000, L213800BEX8X28DTL5391, TGR094036844</t>
         </is>
       </c>
       <c r="C3" s="13" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>L213800SMPWZVT6GGQZ69, BGR002292401000, TGR094493219</t>
+          <t>BGR002292401000, L213800SMPWZVT6GGQZ69, TGR094493219</t>
         </is>
       </c>
       <c r="C4" s="11" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>L213800C9JGYAXWYTM652, BGR004307701000, TGR099936130</t>
+          <t>BGR004307701000, L213800C9JGYAXWYTM652, TGR099936130</t>
         </is>
       </c>
       <c r="C5" s="13" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>TGR999081601, BGR006314201000, L213800CF8C4B9AKV1Z96</t>
+          <t>TGR999081601, L213800CF8C4B9AKV1Z96, BGR006314201000</t>
         </is>
       </c>
       <c r="C6" s="11" t="n">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>TGR094304867, BGR001003501000, L213800UWXVWAKFGVLB36</t>
+          <t>L213800UWXVWAKFGVLB36, BGR001003501000, TGR094304867</t>
         </is>
       </c>
       <c r="C7" s="13" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>BGR000942001000, L213800U6WAX3YXMFVH22, TGR094354938</t>
+          <t>L213800U6WAX3YXMFVH22, BGR000942001000, TGR094354938</t>
         </is>
       </c>
       <c r="C8" s="11" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>TGR094325107, L213800YSZHWSCLXXRI37, BGR000832401000</t>
+          <t>BGR000832401000, L213800YSZHWSCLXXRI37, TGR094325107</t>
         </is>
       </c>
       <c r="C9" s="13" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>BGR000918601000, L635400S5G5WWGN6B8T87, TGR094351475</t>
+          <t>TGR094351475, BGR000918601000, L635400S5G5WWGN6B8T87</t>
         </is>
       </c>
       <c r="C10" s="11" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>L213800XXMES8I6GQVQ47, BGR003581901000, TGR099553209</t>
+          <t>TGR099553209, L213800XXMES8I6GQVQ47, BGR003581901000</t>
         </is>
       </c>
       <c r="C11" s="13" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>BGR003931601000, TGR099760120, L549300JSLNCWDXJT4U81</t>
+          <t>L549300JSLNCWDXJT4U81, BGR003931601000, TGR099760120</t>
         </is>
       </c>
       <c r="C12" s="11" t="n">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>BGR003882701000, TGR099759863, L213800USGL7Q5UR9M221</t>
+          <t>L213800USGL7Q5UR9M221, BGR003882701000, TGR099759863</t>
         </is>
       </c>
       <c r="C13" s="13" t="n">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>L984500EE5E3BA3F08B21, BGR004373001000, TGR999984680</t>
+          <t>BGR004373001000, L984500EE5E3BA3F08B21, TGR999984680</t>
         </is>
       </c>
       <c r="C14" s="11" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>L213800U7SBKWW79CBG88, TGR099554901, BGR003548801000</t>
+          <t>L213800U7SBKWW79CBG88, BGR003548801000, TGR099554901</t>
         </is>
       </c>
       <c r="C15" s="13" t="n">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>TGR998940936, L213800P8QPUPE3SOGX14, BGR006816701000</t>
+          <t>TGR998940936, BGR006816701000, L213800P8QPUPE3SOGX14</t>
         </is>
       </c>
       <c r="C16" s="11" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>BGR007175901000, TGR998642355, L2138001MKHE9G2UERJ13</t>
+          <t>L2138001MKHE9G2UERJ13, TGR998642355, BGR007175901000</t>
         </is>
       </c>
       <c r="C17" s="13" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>BGR003546201000, TGR099555020, L549300XDXYOF57JOFT72</t>
+          <t>TGR099555020, BGR003546201000, L549300XDXYOF57JOFT72</t>
         </is>
       </c>
       <c r="C18" s="11" t="n">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>L213800ESHXNWYJAEMO70, TGR998159392, BGR008234001000</t>
+          <t>BGR008234001000, TGR998159392, L213800ESHXNWYJAEMO70</t>
         </is>
       </c>
       <c r="C20" s="11" t="n">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>L213800QM2ZFRARYU6C87, TGR800397001, BGR120108101000</t>
+          <t>TGR800397001, BGR120108101000, L213800QM2ZFRARYU6C87</t>
         </is>
       </c>
       <c r="C21" s="13" t="n">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>L21380099L8WQI3DI3Y74, TGR800398384, BGR120129501000</t>
+          <t>BGR120129501000, TGR800398384, L21380099L8WQI3DI3Y74</t>
         </is>
       </c>
       <c r="C22" s="11" t="n">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>L2138006SQBPKYG6GZX87, BGR122339001000, TGR800433747</t>
+          <t>BGR122339001000, L2138006SQBPKYG6GZX87, TGR800433747</t>
         </is>
       </c>
       <c r="C23" s="13" t="n">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>TGR997521479, L213800TBZBVWRUAOPV78, BGR140330201000</t>
+          <t>L213800TBZBVWRUAOPV78, TGR997521479, BGR140330201000</t>
         </is>
       </c>
       <c r="C25" s="13" t="n">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>BGR141064201000, L213800PZN3W777G7XR07, TGR800792234</t>
+          <t>TGR800792234, BGR141064201000, L213800PZN3W777G7XR07</t>
         </is>
       </c>
       <c r="C26" s="11" t="n">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>BGR142754460000, TGR997010182, L254900CCGB73PBHKXL72</t>
+          <t>L254900CCGB73PBHKXL72, BGR142754460000, TGR997010182</t>
         </is>
       </c>
       <c r="C27" s="13" t="n">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>L9845007DB3RB2B4DN624, TGR800903737, BGR144560003000</t>
+          <t>TGR800903737, BGR144560003000, L9845007DB3RB2B4DN624</t>
         </is>
       </c>
       <c r="C28" s="11" t="n">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>BGR144725001000, TGR800911079</t>
+          <t>TGR800911079, BGR144725001000</t>
         </is>
       </c>
       <c r="C29" s="13" t="n">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>TGR801077433, BGR148547901000, L213800DTEZE6R8BZ9K19</t>
+          <t>L213800DTEZE6R8BZ9K19, BGR148547901000, TGR801077433</t>
         </is>
       </c>
       <c r="C30" s="11" t="n">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>L213800XKY8GHKN57D970, TGR996899546, BGR152321260000</t>
+          <t>BGR152321260000, L213800XKY8GHKN57D970, TGR996899546</t>
         </is>
       </c>
       <c r="C31" s="13" t="n">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>BGR153787304000, L9845007855485B71CC46, TGR801296814</t>
+          <t>TGR801296814, BGR153787304000, L9845007855485B71CC46</t>
         </is>
       </c>
       <c r="C32" s="11" t="n">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>BGR154382104000, TGR801322351</t>
+          <t>TGR801322351, BGR154382104000</t>
         </is>
       </c>
       <c r="C33" s="13" t="n">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>TGR801446716, L9845003A111B06B9D568, BGR157033507000</t>
+          <t>L9845003A111B06B9D568, TGR801446716, BGR157033507000</t>
         </is>
       </c>
       <c r="C34" s="11" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>TGR801446949, BGR157036301000, L9845004F1F377E786787</t>
+          <t>TGR801446949, L9845004F1F377E786787, BGR157036301000</t>
         </is>
       </c>
       <c r="C35" s="13" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>L2138006VXU6UDW7P6H67, TGR801470046, BGR157511601000</t>
+          <t>BGR157511601000, TGR801470046, L2138006VXU6UDW7P6H67</t>
         </is>
       </c>
       <c r="C36" s="11" t="n">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>TGR996764210, BGR157802360000</t>
+          <t>BGR157802360000, TGR996764210</t>
         </is>
       </c>
       <c r="C37" s="13" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>TGR801554045, L213800YJOZGHVAPEJP93, BGR159031301000</t>
+          <t>TGR801554045, BGR159031301000, L213800YJOZGHVAPEJP93</t>
         </is>
       </c>
       <c r="C38" s="11" t="n">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>BGR160110060000, L2138006STLTDFRIZTC42, TGR996805731</t>
+          <t>BGR160110060000, TGR996805731, L2138006STLTDFRIZTC42</t>
         </is>
       </c>
       <c r="C39" s="13" t="n">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>TGR801698110, L984500E6O0A11A6C4E59, BGR161709401000</t>
+          <t>L984500E6O0A11A6C4E59, TGR801698110, BGR161709401000</t>
         </is>
       </c>
       <c r="C40" s="11" t="n">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>BGR000861301000, L213800MU91F1752AVM79, TGR094321237</t>
+          <t>L213800MU91F1752AVM79, BGR000861301000, TGR094321237</t>
         </is>
       </c>
       <c r="C41" s="13" t="n">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>BGR165052501000, TGR801878297, L984500F87AF5652C5A91</t>
+          <t>L984500F87AF5652C5A91, BGR165052501000, TGR801878297</t>
         </is>
       </c>
       <c r="C43" s="13" t="n">
@@ -2491,8 +2491,8 @@
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
-          <t>TGR802025852,  
-BGR168398401000, BGR168398401000</t>
+          <t xml:space="preserve"> 
+BGR168398401000, BGR168398401000, TGR802025852</t>
         </is>
       </c>
       <c r="C44" s="11" t="n">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>BGR168862301000, TGR802047322, L2138007QOK3W75DIHX50</t>
+          <t>TGR802047322, BGR168862301000, L2138007QOK3W75DIHX50</t>
         </is>
       </c>
       <c r="C45" s="13" t="n">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>BGR171519601000, TGR802177269, L984500EE58FDEBF8BF32</t>
+          <t>L984500EE58FDEBF8BF32, TGR802177269, BGR171519601000</t>
         </is>
       </c>
       <c r="C47" s="13" t="n">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
-          <t>TGR802187644, BGR171720006000</t>
+          <t>BGR171720006000, TGR802187644</t>
         </is>
       </c>
       <c r="C48" s="11" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>BGR171775701000, TGR802190685</t>
+          <t>TGR802190685, BGR171775701000</t>
         </is>
       </c>
       <c r="C49" s="13" t="n">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
-          <t>L213800G7J7NDXVAS3P11, TGR996542649, BGR173975960000</t>
+          <t>L213800G7J7NDXVAS3P11, BGR173975960000, TGR996542649</t>
         </is>
       </c>
       <c r="C50" s="11" t="n">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>BGR174106158000, TGR996723817</t>
+          <t>TGR996723817, BGR174106158000</t>
         </is>
       </c>
       <c r="C51" s="13" t="n">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
-          <t>TGR802458356, BGR176733801000</t>
+          <t>BGR176733801000, TGR802458356</t>
         </is>
       </c>
       <c r="C52" s="11" t="n">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>BGR003882701000, TGR099759863, L213800USGL7Q5UR9M221</t>
+          <t>L213800USGL7Q5UR9M221, BGR003882701000, TGR099759863</t>
         </is>
       </c>
       <c r="C59" s="13" t="n">
@@ -5685,11 +5685,7 @@
           <t>EGRMFMC005</t>
         </is>
       </c>
-      <c r="H71" s="4" t="inlineStr">
-        <is>
-          <t>PEGRAK00809_SHR</t>
-        </is>
-      </c>
+      <c r="H71" s="4" t="inlineStr"/>
       <c r="I71" s="4" t="inlineStr"/>
     </row>
     <row r="72" ht="36" customHeight="1">
@@ -5700,7 +5696,7 @@
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>L213800U7SBKWW79CBG88, TGR099554901, BGR003548801000</t>
+          <t>L213800U7SBKWW79CBG88, BGR003548801000, TGR099554901</t>
         </is>
       </c>
       <c r="C72" s="11" t="n">
@@ -5882,11 +5878,7 @@
           <t>EGRMFMC005</t>
         </is>
       </c>
-      <c r="H76" s="6" t="inlineStr">
-        <is>
-          <t>PEGRAK00265_SHR</t>
-        </is>
-      </c>
+      <c r="H76" s="6" t="inlineStr"/>
       <c r="I76" s="6" t="inlineStr"/>
     </row>
     <row r="77" ht="36" customHeight="1">
@@ -7209,7 +7201,7 @@
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>BGR003546201000, TGR099555020, L549300XDXYOF57JOFT72</t>
+          <t>TGR099555020, BGR003546201000, L549300XDXYOF57JOFT72</t>
         </is>
       </c>
       <c r="C109" s="13" t="n">
@@ -7894,7 +7886,7 @@
       </c>
       <c r="B126" s="6" t="inlineStr">
         <is>
-          <t>L213800QM2ZFRARYU6C87, TGR800397001, BGR120108101000</t>
+          <t>TGR800397001, BGR120108101000, L213800QM2ZFRARYU6C87</t>
         </is>
       </c>
       <c r="C126" s="11" t="n">
@@ -8173,7 +8165,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>L213800DDNBUCO6A2RT84, BGR131359701000, TGR800596087</t>
+          <t>TGR800596087, L213800DDNBUCO6A2RT84, BGR131359701000</t>
         </is>
       </c>
       <c r="C133" s="13" t="n">
@@ -8337,7 +8329,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>TGR997521479, L213800TBZBVWRUAOPV78, BGR140330201000</t>
+          <t>L213800TBZBVWRUAOPV78, TGR997521479, BGR140330201000</t>
         </is>
       </c>
       <c r="C137" s="13" t="n">
@@ -8780,7 +8772,7 @@
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
-          <t>TGR801077433, BGR148547901000, L213800DTEZE6R8BZ9K19</t>
+          <t>L213800DTEZE6R8BZ9K19, BGR148547901000, TGR801077433</t>
         </is>
       </c>
       <c r="C148" s="11" t="n">
@@ -8940,7 +8932,7 @@
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>L213800XKY8GHKN57D970, TGR996899546, BGR152321260000</t>
+          <t>BGR152321260000, L213800XKY8GHKN57D970, TGR996899546</t>
         </is>
       </c>
       <c r="C152" s="11" t="n">
@@ -9543,7 +9535,7 @@
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>BGR160110060000, L2138006STLTDFRIZTC42, TGR996805731</t>
+          <t>BGR160110060000, TGR996805731, L2138006STLTDFRIZTC42</t>
         </is>
       </c>
       <c r="C167" s="13" t="n">
@@ -9826,7 +9818,7 @@
       </c>
       <c r="B174" s="6" t="inlineStr">
         <is>
-          <t>BGR000861301000, L213800MU91F1752AVM79, TGR094321237</t>
+          <t>L213800MU91F1752AVM79, BGR000861301000, TGR094321237</t>
         </is>
       </c>
       <c r="C174" s="11" t="n">
@@ -11971,7 +11963,7 @@
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t>BGR174106158000, TGR996723817</t>
+          <t>TGR996723817, BGR174106158000</t>
         </is>
       </c>
       <c r="C227" s="13" t="n">
@@ -12883,11 +12875,7 @@
           <t>EGR802458356</t>
         </is>
       </c>
-      <c r="H249" s="4" t="inlineStr">
-        <is>
-          <t>PEGRAK01102_SHR</t>
-        </is>
-      </c>
+      <c r="H249" s="4" t="inlineStr"/>
       <c r="I249" s="4" t="inlineStr"/>
     </row>
     <row r="250" ht="36" customHeight="1">
@@ -13140,7 +13128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D341"/>
+  <dimension ref="A1:D339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -19638,7 +19626,7 @@
       <c r="C330" s="6" t="inlineStr"/>
       <c r="D330" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01002, EGRAK01102</t>
+          <t>EGRAK01002</t>
         </is>
       </c>
     </row>
@@ -19808,36 +19796,8 @@
         </is>
       </c>
     </row>
-    <row r="340" ht="36" customHeight="1">
-      <c r="A340" s="10" t="inlineStr">
-        <is>
-          <t>PEGRAK00265_SHR</t>
-        </is>
-      </c>
-      <c r="B340" s="11" t="inlineStr"/>
-      <c r="C340" s="6" t="inlineStr"/>
-      <c r="D340" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK00265</t>
-        </is>
-      </c>
-    </row>
-    <row r="341" ht="36" customHeight="1">
-      <c r="A341" s="12" t="inlineStr">
-        <is>
-          <t>PEGRAK00809_SHR</t>
-        </is>
-      </c>
-      <c r="B341" s="13" t="inlineStr"/>
-      <c r="C341" s="4" t="inlineStr"/>
-      <c r="D341" s="4" t="inlineStr">
-        <is>
-          <t>EGRAK00809</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D341"/>
+  <autoFilter ref="A1:D339"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/docs/source/_static/structure/IFDAT-LIST.xlsx
+++ b/docs/source/_static/structure/IFDAT-LIST.xlsx
@@ -17,8 +17,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ΠΕΡΙΕΧΟΜΕΝΑ'!$A$1:$A$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ΜΠΣ'!$A$1:$F$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EO'!$A$1:$I$255</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ'!$A$1:$D$339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EO'!$A$1:$I$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ'!$A$1:$D$342</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ΕΚΔΟΣΕΙΣ ΟΜΟΛΟΓΩΝ ΕΟ'!$A$1:$D$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -584,9 +584,9 @@
     <row r="3">
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>IFDAT
-ΠΙΝΑΚΑΣ ΥΠΟΧΡΕΩΝ ΦΟΡΕΩΝ
-ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2024-11-05</t>
+          <t>Μονάδες Παροχής Στοιχείων
+IFDAT
+ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2024-11-20</t>
         </is>
       </c>
       <c r="D3" s="1" t="n"/>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Μετοχές/μερίδια/κατηγορίες μεριδίων που έχουν εκδοθεί από τους ΕΟ</t>
+          <t>Εκδοθέντες μετοχές-μερίδια των ΕΟ</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>Εκδόσεις χρεογράφων των ΕΟ</t>
+          <t>Εκδοθέντα χρεόγραφα των ΕΟ</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>TGR094282521, L213800SHGGWDBFVRPS03, BGR000920101000</t>
+          <t>L213800SHGGWDBFVRPS03, BGR000920101000, TGR094282521</t>
         </is>
       </c>
       <c r="C2" s="11" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00010, EGRAK00108, EGRAK00109, EGRAK00110, EGRAK00201, EGRAK00229, EGRAK00240, EGRAK00422, EGRAK00433, EGRAK00448, EGRAK00780, EGRAK00808, EGRAK00840, EGRAK00889, EGRAK00891, EGRAK00902, EGRAK00903, EGRAK01009, EGRAK01010, EGRAK01015, EGRAK01016, EGRAK01019, EGRAK01032, EGRAK01039, EGRAK01041, EGRAK01045, EGRAK01050, EGRAK01052, EGRAK01055, EGRAK01079, EGRAK01082, EGRAK01088, EGRAK01093</t>
+          <t>EGRAK00010, EGRAK00108, EGRAK00109, EGRAK00110, EGRAK00201, EGRAK00229, EGRAK00240, EGRAK00422, EGRAK00433, EGRAK00448, EGRAK00780, EGRAK00808, EGRAK00840, EGRAK00889, EGRAK00891, EGRAK00902, EGRAK00903, EGRAK01009, EGRAK01010, EGRAK01015, EGRAK01016, EGRAK01019, EGRAK01032, EGRAK01039, EGRAK01041, EGRAK01045, EGRAK01050, EGRAK01052, EGRAK01055, EGRAK01079, EGRAK01082, EGRAK01088, EGRAK01093, EGRAK01105, EGRAK01106</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00010, EGRAK00108, EGRAK00109, EGRAK00110, EGRAK00201, EGRAK00229, EGRAK00240, EGRAK00422, EGRAK00433, EGRAK00448, EGRAK00780, EGRAK00808, EGRAK00840, EGRAK00889, EGRAK00891, EGRAK00902, EGRAK00903, EGRAK01009, EGRAK01010, EGRAK01015, EGRAK01016, EGRAK01019, EGRAK01032, EGRAK01039, EGRAK01041, EGRAK01045, EGRAK01050, EGRAK01052, EGRAK01055, EGRAK01079, EGRAK01082, EGRAK01088, EGRAK01093</t>
+          <t>EGRAK00010, EGRAK00108, EGRAK00109, EGRAK00110, EGRAK00201, EGRAK00229, EGRAK00240, EGRAK00422, EGRAK00433, EGRAK00448, EGRAK00780, EGRAK00808, EGRAK00840, EGRAK00889, EGRAK00891, EGRAK00902, EGRAK00903, EGRAK01009, EGRAK01010, EGRAK01015, EGRAK01016, EGRAK01019, EGRAK01032, EGRAK01039, EGRAK01041, EGRAK01045, EGRAK01050, EGRAK01052, EGRAK01055, EGRAK01079, EGRAK01082, EGRAK01088, EGRAK01093, EGRAK01105, EGRAK01106</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>BGR000352001000, L213800BEX8X28DTL5391, TGR094036844</t>
+          <t>L213800BEX8X28DTL5391, TGR094036844, BGR000352001000</t>
         </is>
       </c>
       <c r="C3" s="13" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>BGR002292401000, L213800SMPWZVT6GGQZ69, TGR094493219</t>
+          <t>TGR094493219, L213800SMPWZVT6GGQZ69, BGR002292401000</t>
         </is>
       </c>
       <c r="C4" s="11" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>BGR004307701000, L213800C9JGYAXWYTM652, TGR099936130</t>
+          <t>TGR099936130, L213800C9JGYAXWYTM652, BGR004307701000</t>
         </is>
       </c>
       <c r="C5" s="13" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>TGR999081601, L213800CF8C4B9AKV1Z96, BGR006314201000</t>
+          <t>TGR999081601, BGR006314201000, L213800CF8C4B9AKV1Z96</t>
         </is>
       </c>
       <c r="C6" s="11" t="n">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>L213800UWXVWAKFGVLB36, BGR001003501000, TGR094304867</t>
+          <t>BGR001003501000, L213800UWXVWAKFGVLB36, TGR094304867</t>
         </is>
       </c>
       <c r="C7" s="13" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>L213800U6WAX3YXMFVH22, BGR000942001000, TGR094354938</t>
+          <t>TGR094354938, BGR000942001000, L213800U6WAX3YXMFVH22</t>
         </is>
       </c>
       <c r="C8" s="11" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>BGR000832401000, L213800YSZHWSCLXXRI37, TGR094325107</t>
+          <t>BGR000832401000, TGR094325107, L213800YSZHWSCLXXRI37</t>
         </is>
       </c>
       <c r="C9" s="13" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>TGR094351475, BGR000918601000, L635400S5G5WWGN6B8T87</t>
+          <t>BGR000918601000, TGR094351475, L635400S5G5WWGN6B8T87</t>
         </is>
       </c>
       <c r="C10" s="11" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>TGR099553209, L213800XXMES8I6GQVQ47, BGR003581901000</t>
+          <t>BGR003581901000, TGR099553209, L213800XXMES8I6GQVQ47</t>
         </is>
       </c>
       <c r="C11" s="13" t="n">
@@ -1554,12 +1554,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00001, EGRAK00129, EGRAK00131, EGRAK00425, EGRAK00570, EGRAK01002, EGRAK01003, EGRAK01022, EGRAK01036, EGRAK01080, EGRAK01092</t>
+          <t>EGRAK00001, EGRAK00129, EGRAK00131, EGRAK00425, EGRAK00570, EGRAK01002, EGRAK01003, EGRAK01022, EGRAK01036, EGRAK01080, EGRAK01092, EGRAK01107</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00001, EGRAK00129, EGRAK00131, EGRAK00425, EGRAK00570, EGRAK01002, EGRAK01003, EGRAK01022, EGRAK01036, EGRAK01080, EGRAK01092</t>
+          <t>EGRAK00001, EGRAK00129, EGRAK00131, EGRAK00425, EGRAK00570, EGRAK01002, EGRAK01003, EGRAK01022, EGRAK01036, EGRAK01080, EGRAK01092, EGRAK01107</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>L549300JSLNCWDXJT4U81, BGR003931601000, TGR099760120</t>
+          <t>TGR099760120, L549300JSLNCWDXJT4U81, BGR003931601000</t>
         </is>
       </c>
       <c r="C12" s="11" t="n">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>L213800USGL7Q5UR9M221, BGR003882701000, TGR099759863</t>
+          <t>L213800USGL7Q5UR9M221, TGR099759863, BGR003882701000</t>
         </is>
       </c>
       <c r="C13" s="13" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>L213800U7SBKWW79CBG88, BGR003548801000, TGR099554901</t>
+          <t>TGR099554901, BGR003548801000, L213800U7SBKWW79CBG88</t>
         </is>
       </c>
       <c r="C15" s="13" t="n">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>TGR998940936, BGR006816701000, L213800P8QPUPE3SOGX14</t>
+          <t>L213800P8QPUPE3SOGX14, BGR006816701000, TGR998940936</t>
         </is>
       </c>
       <c r="C16" s="11" t="n">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>BGR008234001000, TGR998159392, L213800ESHXNWYJAEMO70</t>
+          <t>TGR998159392, L213800ESHXNWYJAEMO70, BGR008234001000</t>
         </is>
       </c>
       <c r="C20" s="11" t="n">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>TGR800397001, BGR120108101000, L213800QM2ZFRARYU6C87</t>
+          <t>TGR800397001, L213800QM2ZFRARYU6C87, BGR120108101000</t>
         </is>
       </c>
       <c r="C21" s="13" t="n">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>BGR122339001000, L2138006SQBPKYG6GZX87, TGR800433747</t>
+          <t>L2138006SQBPKYG6GZX87, TGR800433747, BGR122339001000</t>
         </is>
       </c>
       <c r="C23" s="13" t="n">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>L213800TBZBVWRUAOPV78, TGR997521479, BGR140330201000</t>
+          <t>BGR140330201000, L213800TBZBVWRUAOPV78, TGR997521479</t>
         </is>
       </c>
       <c r="C25" s="13" t="n">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>TGR800792234, BGR141064201000, L213800PZN3W777G7XR07</t>
+          <t>BGR141064201000, L213800PZN3W777G7XR07, TGR800792234</t>
         </is>
       </c>
       <c r="C26" s="11" t="n">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>L254900CCGB73PBHKXL72, BGR142754460000, TGR997010182</t>
+          <t>BGR142754460000, TGR997010182, L254900CCGB73PBHKXL72</t>
         </is>
       </c>
       <c r="C27" s="13" t="n">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>TGR800903737, BGR144560003000, L9845007DB3RB2B4DN624</t>
+          <t>TGR800903737, L9845007DB3RB2B4DN624, BGR144560003000</t>
         </is>
       </c>
       <c r="C28" s="11" t="n">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>BGR152321260000, L213800XKY8GHKN57D970, TGR996899546</t>
+          <t>L213800XKY8GHKN57D970, TGR996899546, BGR152321260000</t>
         </is>
       </c>
       <c r="C31" s="13" t="n">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>TGR801296814, BGR153787304000, L9845007855485B71CC46</t>
+          <t>L9845007855485B71CC46, BGR153787304000, TGR801296814</t>
         </is>
       </c>
       <c r="C32" s="11" t="n">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>TGR801322351, BGR154382104000</t>
+          <t>BGR154382104000, TGR801322351</t>
         </is>
       </c>
       <c r="C33" s="13" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>TGR801446949, L9845004F1F377E786787, BGR157036301000</t>
+          <t>TGR801446949, BGR157036301000, L9845004F1F377E786787</t>
         </is>
       </c>
       <c r="C35" s="13" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>BGR157511601000, TGR801470046, L2138006VXU6UDW7P6H67</t>
+          <t>L2138006VXU6UDW7P6H67, TGR801470046, BGR157511601000</t>
         </is>
       </c>
       <c r="C36" s="11" t="n">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>BGR157802360000, TGR996764210</t>
+          <t>TGR996764210, BGR157802360000</t>
         </is>
       </c>
       <c r="C37" s="13" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>TGR801554045, BGR159031301000, L213800YJOZGHVAPEJP93</t>
+          <t>BGR159031301000, TGR801554045, L213800YJOZGHVAPEJP93</t>
         </is>
       </c>
       <c r="C38" s="11" t="n">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>BGR160110060000, TGR996805731, L2138006STLTDFRIZTC42</t>
+          <t>L2138006STLTDFRIZTC42, TGR996805731, BGR160110060000</t>
         </is>
       </c>
       <c r="C39" s="13" t="n">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>L984500E6O0A11A6C4E59, TGR801698110, BGR161709401000</t>
+          <t>TGR801698110, L984500E6O0A11A6C4E59, BGR161709401000</t>
         </is>
       </c>
       <c r="C40" s="11" t="n">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>TGR802047322, BGR168862301000, L2138007QOK3W75DIHX50</t>
+          <t>BGR168862301000, TGR802047322, L2138007QOK3W75DIHX50</t>
         </is>
       </c>
       <c r="C45" s="13" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
-          <t>TGR802071555, BGR169369101000</t>
+          <t>BGR169369101000, TGR802071555</t>
         </is>
       </c>
       <c r="C46" s="11" t="n">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>L984500EE58FDEBF8BF32, TGR802177269, BGR171519601000</t>
+          <t>TGR802177269, BGR171519601000, L984500EE58FDEBF8BF32</t>
         </is>
       </c>
       <c r="C47" s="13" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>TGR802190685, BGR171775701000</t>
+          <t>BGR171775701000, TGR802190685</t>
         </is>
       </c>
       <c r="C49" s="13" t="n">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
-          <t>L213800G7J7NDXVAS3P11, BGR173975960000, TGR996542649</t>
+          <t>TGR996542649, BGR173975960000, L213800G7J7NDXVAS3P11</t>
         </is>
       </c>
       <c r="C50" s="11" t="n">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>TGR996723817, BGR174106158000</t>
+          <t>BGR174106158000, TGR996723817</t>
         </is>
       </c>
       <c r="C51" s="13" t="n">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
-          <t>BGR176733801000, TGR802458356</t>
+          <t>TGR802458356, BGR176733801000</t>
         </is>
       </c>
       <c r="C52" s="11" t="n">
@@ -2762,7 +2762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:I258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>L213800USGL7Q5UR9M221, BGR003882701000, TGR099759863</t>
+          <t>L213800USGL7Q5UR9M221, TGR099759863, BGR003882701000</t>
         </is>
       </c>
       <c r="C59" s="13" t="n">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>L213800U7SBKWW79CBG88, BGR003548801000, TGR099554901</t>
+          <t>TGR099554901, BGR003548801000, L213800U7SBKWW79CBG88</t>
         </is>
       </c>
       <c r="C72" s="11" t="n">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="B126" s="6" t="inlineStr">
         <is>
-          <t>TGR800397001, BGR120108101000, L213800QM2ZFRARYU6C87</t>
+          <t>TGR800397001, L213800QM2ZFRARYU6C87, BGR120108101000</t>
         </is>
       </c>
       <c r="C126" s="11" t="n">
@@ -8165,7 +8165,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>TGR800596087, L213800DDNBUCO6A2RT84, BGR131359701000</t>
+          <t>TGR800596087, BGR131359701000, L213800DDNBUCO6A2RT84</t>
         </is>
       </c>
       <c r="C133" s="13" t="n">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>L213800TBZBVWRUAOPV78, TGR997521479, BGR140330201000</t>
+          <t>BGR140330201000, L213800TBZBVWRUAOPV78, TGR997521479</t>
         </is>
       </c>
       <c r="C137" s="13" t="n">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>BGR152321260000, L213800XKY8GHKN57D970, TGR996899546</t>
+          <t>L213800XKY8GHKN57D970, TGR996899546, BGR152321260000</t>
         </is>
       </c>
       <c r="C152" s="11" t="n">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="H163" s="4" t="inlineStr">
         <is>
-          <t>IGRF000342003, PEGRAK01102_SHR</t>
+          <t>IGRF000342003</t>
         </is>
       </c>
       <c r="I163" s="4" t="inlineStr"/>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>BGR160110060000, TGR996805731, L2138006STLTDFRIZTC42</t>
+          <t>L2138006STLTDFRIZTC42, TGR996805731, BGR160110060000</t>
         </is>
       </c>
       <c r="C167" s="13" t="n">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t>TGR996723817, BGR174106158000</t>
+          <t>BGR174106158000, TGR996723817</t>
         </is>
       </c>
       <c r="C227" s="13" t="n">
@@ -12875,7 +12875,11 @@
           <t>EGR802458356</t>
         </is>
       </c>
-      <c r="H249" s="4" t="inlineStr"/>
+      <c r="H249" s="4" t="inlineStr">
+        <is>
+          <t>PEGRAK01102_SHR</t>
+        </is>
+      </c>
       <c r="I249" s="4" t="inlineStr"/>
     </row>
     <row r="250" ht="36" customHeight="1">
@@ -13078,46 +13082,169 @@
     <row r="255" ht="36" customHeight="1">
       <c r="A255" s="12" t="inlineStr">
         <is>
+          <t>EGRAK01107</t>
+        </is>
+      </c>
+      <c r="B255" s="4" t="inlineStr">
+        <is>
+          <t>L213800JT7C27QJCI5V97</t>
+        </is>
+      </c>
+      <c r="C255" s="13" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D255" s="4" t="inlineStr">
+        <is>
+          <t>OPTIMA INCOME 2026 ΟΜΟΛΟΓΙΑΚΟ</t>
+        </is>
+      </c>
+      <c r="E255" s="4" t="inlineStr">
+        <is>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F255" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC018</t>
+        </is>
+      </c>
+      <c r="G255" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC018</t>
+        </is>
+      </c>
+      <c r="H255" s="4" t="inlineStr">
+        <is>
+          <t>IGRF000504008</t>
+        </is>
+      </c>
+      <c r="I255" s="4" t="inlineStr"/>
+    </row>
+    <row r="256" ht="36" customHeight="1">
+      <c r="A256" s="10" t="inlineStr">
+        <is>
           <t>EGRAK01101</t>
         </is>
       </c>
-      <c r="B255" s="4" t="inlineStr">
+      <c r="B256" s="6" t="inlineStr">
         <is>
           <t>L2138009Q38X6LDR8C221</t>
         </is>
       </c>
-      <c r="C255" s="13" t="n">
+      <c r="C256" s="11" t="n">
         <v>45576</v>
       </c>
-      <c r="D255" s="4" t="inlineStr">
+      <c r="D256" s="6" t="inlineStr">
         <is>
           <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2029 (IΙI) ΕΥΡΩΠΑΪΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
-      <c r="E255" s="4" t="inlineStr">
+      <c r="E256" s="6" t="inlineStr">
         <is>
           <t>BON</t>
         </is>
       </c>
-      <c r="F255" s="4" t="inlineStr">
+      <c r="F256" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G255" s="4" t="inlineStr">
+      <c r="G256" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H255" s="4" t="inlineStr">
+      <c r="H256" s="6" t="inlineStr">
         <is>
           <t>IGRF000501004</t>
         </is>
       </c>
-      <c r="I255" s="4" t="inlineStr"/>
+      <c r="I256" s="6" t="inlineStr"/>
+    </row>
+    <row r="257" ht="36" customHeight="1">
+      <c r="A257" s="12" t="inlineStr">
+        <is>
+          <t>EGRAK01105</t>
+        </is>
+      </c>
+      <c r="B257" s="4" t="inlineStr">
+        <is>
+          <t>L213800KBA89IGMNLZ852</t>
+        </is>
+      </c>
+      <c r="C257" s="13" t="n">
+        <v>45576</v>
+      </c>
+      <c r="D257" s="4" t="inlineStr">
+        <is>
+          <t>ALPHA TARGET MATURITY VΙΙΙ 2029 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+        </is>
+      </c>
+      <c r="E257" s="4" t="inlineStr">
+        <is>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F257" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
+      <c r="G257" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
+      <c r="H257" s="4" t="inlineStr">
+        <is>
+          <t>IGRF000499001</t>
+        </is>
+      </c>
+      <c r="I257" s="4" t="inlineStr"/>
+    </row>
+    <row r="258" ht="36" customHeight="1">
+      <c r="A258" s="10" t="inlineStr">
+        <is>
+          <t>EGRAK01106</t>
+        </is>
+      </c>
+      <c r="B258" s="6" t="inlineStr">
+        <is>
+          <t>L213800YDYIJARUDYVT64</t>
+        </is>
+      </c>
+      <c r="C258" s="11" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D258" s="6" t="inlineStr">
+        <is>
+          <t>ALPHA BANCASSURANCE EE109 ΣΥΝΘΕΤΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+        </is>
+      </c>
+      <c r="E258" s="6" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="F258" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
+      <c r="G258" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
+      <c r="H258" s="6" t="inlineStr">
+        <is>
+          <t>IGRF000500006</t>
+        </is>
+      </c>
+      <c r="I258" s="6" t="inlineStr"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I255"/>
+  <autoFilter ref="A1:I258"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -13128,7 +13255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D339"/>
+  <dimension ref="A1:D342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -13142,7 +13269,7 @@
     <col width="23.4" customWidth="1" min="1" max="1"/>
     <col width="27.3" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="33.8" customWidth="1" min="4" max="4"/>
+    <col width="18.2" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1">
@@ -19185,47 +19312,43 @@
     <row r="308" ht="36" customHeight="1">
       <c r="A308" s="10" t="inlineStr">
         <is>
-          <t>IGRF000472008</t>
+          <t>PEGRAEEAP012_SHR</t>
         </is>
       </c>
       <c r="B308" s="11" t="n">
-        <v>45307</v>
-      </c>
-      <c r="C308" s="6" t="inlineStr">
-        <is>
-          <t>DELOS EXTRA INCOME II 24months - BOND FUND</t>
-        </is>
-      </c>
+        <v>45287</v>
+      </c>
+      <c r="C308" s="6" t="inlineStr"/>
       <c r="D308" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01081</t>
+          <t>EGRAEEAP012</t>
         </is>
       </c>
     </row>
     <row r="309" ht="36" customHeight="1">
       <c r="A309" s="12" t="inlineStr">
         <is>
-          <t>IGRF000467008</t>
+          <t>IGRF000472008</t>
         </is>
       </c>
       <c r="B309" s="13" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C309" s="4" t="inlineStr">
         <is>
-          <t>ALPHA Bancassurance EE107 Structured Fund</t>
+          <t>DELOS EXTRA INCOME II 24months - BOND FUND</t>
         </is>
       </c>
       <c r="D309" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01079</t>
+          <t>EGRAK01081</t>
         </is>
       </c>
     </row>
     <row r="310" ht="36" customHeight="1">
       <c r="A310" s="10" t="inlineStr">
         <is>
-          <t>IGRF000473006</t>
+          <t>IGRF000467008</t>
         </is>
       </c>
       <c r="B310" s="11" t="n">
@@ -19233,19 +19356,19 @@
       </c>
       <c r="C310" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2029 II EUROREAN BOND FUND</t>
+          <t>ALPHA Bancassurance EE107 Structured Fund</t>
         </is>
       </c>
       <c r="D310" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01077</t>
+          <t>EGRAK01079</t>
         </is>
       </c>
     </row>
     <row r="311" ht="36" customHeight="1">
       <c r="A311" s="12" t="inlineStr">
         <is>
-          <t>IGRF000474004</t>
+          <t>IGRF000473006</t>
         </is>
       </c>
       <c r="B311" s="13" t="n">
@@ -19253,59 +19376,59 @@
       </c>
       <c r="C311" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS INCOME 2026 EUROPEAN BOND FUND</t>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2029 II EUROREAN BOND FUND</t>
         </is>
       </c>
       <c r="D311" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01078</t>
+          <t>EGRAK01077</t>
         </is>
       </c>
     </row>
     <row r="312" ht="36" customHeight="1">
       <c r="A312" s="10" t="inlineStr">
         <is>
-          <t>IGRF000471000</t>
+          <t>IGRF000474004</t>
         </is>
       </c>
       <c r="B312" s="11" t="n">
-        <v>45313</v>
+        <v>45310</v>
       </c>
       <c r="C312" s="6" t="inlineStr">
         <is>
-          <t>Optima income 2028 bond fund</t>
+          <t>PIRAEUS INCOME 2026 EUROPEAN BOND FUND</t>
         </is>
       </c>
       <c r="D312" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01080</t>
+          <t>EGRAK01078</t>
         </is>
       </c>
     </row>
     <row r="313" ht="36" customHeight="1">
       <c r="A313" s="12" t="inlineStr">
         <is>
-          <t>IGRF000468006</t>
+          <t>IGRF000471000</t>
         </is>
       </c>
       <c r="B313" s="13" t="n">
-        <v>45327</v>
+        <v>45313</v>
       </c>
       <c r="C313" s="4" t="inlineStr">
         <is>
-          <t>ALPHA EURO SHORT-TERM BOND FUND Classic</t>
+          <t>Optima income 2028 bond fund</t>
         </is>
       </c>
       <c r="D313" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01082</t>
+          <t>EGRAK01080</t>
         </is>
       </c>
     </row>
     <row r="314" ht="36" customHeight="1">
       <c r="A314" s="10" t="inlineStr">
         <is>
-          <t>IGRF000469004</t>
+          <t>IGRF000468006</t>
         </is>
       </c>
       <c r="B314" s="11" t="n">
@@ -19313,7 +19436,7 @@
       </c>
       <c r="C314" s="6" t="inlineStr">
         <is>
-          <t>ALPHA EURO SHORT-TERM BOND FUND Classic D</t>
+          <t>ALPHA EURO SHORT-TERM BOND FUND Classic</t>
         </is>
       </c>
       <c r="D314" s="6" t="inlineStr">
@@ -19325,7 +19448,7 @@
     <row r="315" ht="36" customHeight="1">
       <c r="A315" s="12" t="inlineStr">
         <is>
-          <t>IGRF000470002</t>
+          <t>IGRF000469004</t>
         </is>
       </c>
       <c r="B315" s="13" t="n">
@@ -19333,7 +19456,7 @@
       </c>
       <c r="C315" s="4" t="inlineStr">
         <is>
-          <t>ALPHA EURO SHORT-TERM BOND FUND Institutional</t>
+          <t>ALPHA EURO SHORT-TERM BOND FUND Classic D</t>
         </is>
       </c>
       <c r="D315" s="4" t="inlineStr">
@@ -19345,47 +19468,47 @@
     <row r="316" ht="36" customHeight="1">
       <c r="A316" s="10" t="inlineStr">
         <is>
-          <t>IGRF000482007</t>
+          <t>IGRF000470002</t>
         </is>
       </c>
       <c r="B316" s="11" t="n">
-        <v>45372</v>
+        <v>45327</v>
       </c>
       <c r="C316" s="6" t="inlineStr">
         <is>
-          <t>3K/BANK OF ATTICA PREMIER INCOME BOND FUND 2026</t>
+          <t>ALPHA EURO SHORT-TERM BOND FUND Institutional</t>
         </is>
       </c>
       <c r="D316" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01087</t>
+          <t>EGRAK01082</t>
         </is>
       </c>
     </row>
     <row r="317" ht="36" customHeight="1">
       <c r="A317" s="12" t="inlineStr">
         <is>
-          <t>IGRF000478005</t>
+          <t>IGRF000482007</t>
         </is>
       </c>
       <c r="B317" s="13" t="n">
-        <v>45377</v>
+        <v>45372</v>
       </c>
       <c r="C317" s="4" t="inlineStr">
         <is>
-          <t>NBG Asset Allocation Balanced - Balanced Fund of Funds</t>
+          <t>3K/BANK OF ATTICA PREMIER INCOME BOND FUND 2026</t>
         </is>
       </c>
       <c r="D317" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01085</t>
+          <t>EGRAK01087</t>
         </is>
       </c>
     </row>
     <row r="318" ht="36" customHeight="1">
       <c r="A318" s="10" t="inlineStr">
         <is>
-          <t>IGRF000479003</t>
+          <t>IGRF000478005</t>
         </is>
       </c>
       <c r="B318" s="11" t="n">
@@ -19393,19 +19516,19 @@
       </c>
       <c r="C318" s="6" t="inlineStr">
         <is>
-          <t>NBG Asset Allocation Conservative -  Balanced Fund of Funds</t>
+          <t>NBG Asset Allocation Balanced - Balanced Fund of Funds</t>
         </is>
       </c>
       <c r="D318" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01084</t>
+          <t>EGRAK01085</t>
         </is>
       </c>
     </row>
     <row r="319" ht="36" customHeight="1">
       <c r="A319" s="12" t="inlineStr">
         <is>
-          <t>IGRF000480001</t>
+          <t>IGRF000479003</t>
         </is>
       </c>
       <c r="B319" s="13" t="n">
@@ -19413,39 +19536,39 @@
       </c>
       <c r="C319" s="4" t="inlineStr">
         <is>
-          <t>NBG Asset Allocation Dynamic - Balanced Fund of Funds</t>
+          <t>NBG Asset Allocation Conservative -  Balanced Fund of Funds</t>
         </is>
       </c>
       <c r="D319" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01086</t>
+          <t>EGRAK01084</t>
         </is>
       </c>
     </row>
     <row r="320" ht="36" customHeight="1">
       <c r="A320" s="10" t="inlineStr">
         <is>
-          <t>IGRF000477007</t>
+          <t>IGRF000480001</t>
         </is>
       </c>
       <c r="B320" s="11" t="n">
-        <v>45379</v>
+        <v>45377</v>
       </c>
       <c r="C320" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY VII 2026 BOND FUND CLASSIC D</t>
+          <t>NBG Asset Allocation Dynamic - Balanced Fund of Funds</t>
         </is>
       </c>
       <c r="D320" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01088</t>
+          <t>EGRAK01086</t>
         </is>
       </c>
     </row>
     <row r="321" ht="36" customHeight="1">
       <c r="A321" s="12" t="inlineStr">
         <is>
-          <t>IGRF000481009</t>
+          <t>IGRF000477007</t>
         </is>
       </c>
       <c r="B321" s="13" t="n">
@@ -19453,351 +19576,417 @@
       </c>
       <c r="C321" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 EUROREAN BOND FUND</t>
+          <t>ALPHA TARGET MATURITY VII 2026 BOND FUND CLASSIC D</t>
         </is>
       </c>
       <c r="D321" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01089</t>
+          <t>EGRAK01088</t>
         </is>
       </c>
     </row>
     <row r="322" ht="36" customHeight="1">
       <c r="A322" s="10" t="inlineStr">
         <is>
-          <t>IGRF000486008</t>
+          <t>IGRF000481009</t>
         </is>
       </c>
       <c r="B322" s="11" t="n">
-        <v>45397</v>
+        <v>45379</v>
       </c>
       <c r="C322" s="6" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME IV 24MONTHS - BOND FUND</t>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 EUROREAN BOND FUND</t>
         </is>
       </c>
       <c r="D322" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01090</t>
+          <t>EGRAK01089</t>
         </is>
       </c>
     </row>
     <row r="323" ht="36" customHeight="1">
       <c r="A323" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01100_SHR</t>
+          <t>IGRF000486008</t>
         </is>
       </c>
       <c r="B323" s="13" t="n">
-        <v>45408</v>
-      </c>
-      <c r="C323" s="4" t="inlineStr"/>
+        <v>45397</v>
+      </c>
+      <c r="C323" s="4" t="inlineStr">
+        <is>
+          <t>DELOS EXTRA INCOME IV 24MONTHS - BOND FUND</t>
+        </is>
+      </c>
       <c r="D323" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01100</t>
+          <t>EGRAK01090</t>
         </is>
       </c>
     </row>
     <row r="324" ht="36" customHeight="1">
       <c r="A324" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01099_SHR</t>
+          <t>PEGRAK01100_SHR</t>
         </is>
       </c>
       <c r="B324" s="11" t="n">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="C324" s="6" t="inlineStr"/>
       <c r="D324" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01099</t>
+          <t>EGRAK01100</t>
         </is>
       </c>
     </row>
     <row r="325" ht="36" customHeight="1">
       <c r="A325" s="12" t="inlineStr">
         <is>
-          <t>IGRF000487006</t>
+          <t>PEGRAK01099_SHR</t>
         </is>
       </c>
       <c r="B325" s="13" t="n">
-        <v>45412</v>
-      </c>
-      <c r="C325" s="4" t="inlineStr">
-        <is>
-          <t>Piraeus Income 2026 (II) European Bond Fund</t>
-        </is>
-      </c>
+        <v>45411</v>
+      </c>
+      <c r="C325" s="4" t="inlineStr"/>
       <c r="D325" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01091</t>
+          <t>EGRAK01099</t>
         </is>
       </c>
     </row>
     <row r="326" ht="36" customHeight="1">
       <c r="A326" s="10" t="inlineStr">
         <is>
-          <t>IGRF000490000</t>
+          <t>IGRF000487006</t>
         </is>
       </c>
       <c r="B326" s="11" t="n">
-        <v>45422</v>
+        <v>45412</v>
       </c>
       <c r="C326" s="6" t="inlineStr">
         <is>
-          <t>OPTIMA INCOME 2029 BOND FUND</t>
+          <t>Piraeus Income 2026 (II) European Bond Fund</t>
         </is>
       </c>
       <c r="D326" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01092</t>
+          <t>EGRAK01091</t>
         </is>
       </c>
     </row>
     <row r="327" ht="36" customHeight="1">
       <c r="A327" s="12" t="inlineStr">
         <is>
-          <t>IGRF000489002</t>
+          <t>IGRF000490000</t>
         </is>
       </c>
       <c r="B327" s="13" t="n">
-        <v>45442</v>
+        <v>45422</v>
       </c>
       <c r="C327" s="4" t="inlineStr">
         <is>
-          <t>ALPHA BANCASSURANCE EE108 STRUCTURED FUND</t>
+          <t>OPTIMA INCOME 2029 BOND FUND</t>
         </is>
       </c>
       <c r="D327" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01093</t>
+          <t>EGRAK01092</t>
         </is>
       </c>
     </row>
     <row r="328" ht="36" customHeight="1">
       <c r="A328" s="10" t="inlineStr">
         <is>
-          <t>IGRF000491008</t>
+          <t>IGRF000489002</t>
         </is>
       </c>
       <c r="B328" s="11" t="n">
-        <v>45446</v>
+        <v>45442</v>
       </c>
       <c r="C328" s="6" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME V 24MONTHS - BOND FUND</t>
+          <t>ALPHA BANCASSURANCE EE108 STRUCTURED FUND</t>
         </is>
       </c>
       <c r="D328" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01094</t>
+          <t>EGRAK01093</t>
         </is>
       </c>
     </row>
     <row r="329" ht="36" customHeight="1">
       <c r="A329" s="12" t="inlineStr">
         <is>
-          <t>IGRF000492006</t>
+          <t>IGRF000491008</t>
         </is>
       </c>
       <c r="B329" s="13" t="n">
-        <v>45492</v>
+        <v>45446</v>
       </c>
       <c r="C329" s="4" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME VI 24MONTHS - BOND FUND</t>
+          <t>DELOS EXTRA INCOME V 24MONTHS - BOND FUND</t>
         </is>
       </c>
       <c r="D329" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01095</t>
+          <t>EGRAK01094</t>
         </is>
       </c>
     </row>
     <row r="330" ht="36" customHeight="1">
       <c r="A330" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01102_SHR</t>
+          <t>IGRF000492006</t>
         </is>
       </c>
       <c r="B330" s="11" t="n">
-        <v>45496</v>
-      </c>
-      <c r="C330" s="6" t="inlineStr"/>
+        <v>45492</v>
+      </c>
+      <c r="C330" s="6" t="inlineStr">
+        <is>
+          <t>DELOS EXTRA INCOME VI 24MONTHS - BOND FUND</t>
+        </is>
+      </c>
       <c r="D330" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01002</t>
+          <t>EGRAK01095</t>
         </is>
       </c>
     </row>
     <row r="331" ht="36" customHeight="1">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01104_SHR</t>
+          <t>PEGRAK01102_SHR</t>
         </is>
       </c>
       <c r="B331" s="13" t="n">
-        <v>45502</v>
+        <v>45496</v>
       </c>
       <c r="C331" s="4" t="inlineStr"/>
       <c r="D331" s="4" t="inlineStr">
         <is>
-          <t>EGR802187644, EGRAK01104</t>
+          <t>EGRAK01102</t>
         </is>
       </c>
     </row>
     <row r="332" ht="36" customHeight="1">
       <c r="A332" s="10" t="inlineStr">
         <is>
-          <t>IGRF000493004</t>
+          <t>PEGRAK01104_SHR</t>
         </is>
       </c>
       <c r="B332" s="11" t="n">
-        <v>45504</v>
-      </c>
-      <c r="C332" s="6" t="inlineStr">
-        <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 (II) EUROPEAN BOND FUND</t>
-        </is>
-      </c>
+        <v>45502</v>
+      </c>
+      <c r="C332" s="6" t="inlineStr"/>
       <c r="D332" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01096</t>
+          <t>EGRAK01104</t>
         </is>
       </c>
     </row>
     <row r="333" ht="36" customHeight="1">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>IGRF000495009</t>
+          <t>IGRF000493004</t>
         </is>
       </c>
       <c r="B333" s="13" t="n">
-        <v>45513</v>
+        <v>45504</v>
       </c>
       <c r="C333" s="4" t="inlineStr">
         <is>
-          <t>TRITON Target Maturity Class A</t>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 (II) EUROPEAN BOND FUND</t>
         </is>
       </c>
       <c r="D333" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01097</t>
+          <t>EGRAK01096</t>
         </is>
       </c>
     </row>
     <row r="334" ht="36" customHeight="1">
       <c r="A334" s="10" t="inlineStr">
         <is>
-          <t>IGRF000494002</t>
+          <t>IGRF000495009</t>
         </is>
       </c>
       <c r="B334" s="11" t="n">
-        <v>45546</v>
+        <v>45513</v>
       </c>
       <c r="C334" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS IDEAS GLOBAL EQUITY FUND (R)</t>
+          <t>TRITON Target Maturity Class A</t>
         </is>
       </c>
       <c r="D334" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01004</t>
+          <t>EGRAK01097</t>
         </is>
       </c>
     </row>
     <row r="335" ht="36" customHeight="1">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>IGRF000496007</t>
+          <t>IGRF000494002</t>
         </is>
       </c>
       <c r="B335" s="13" t="n">
-        <v>45547</v>
+        <v>45546</v>
       </c>
       <c r="C335" s="4" t="inlineStr">
         <is>
-          <t>TRITON Target Maturity Class E</t>
+          <t>PIRAEUS IDEAS GLOBAL EQUITY FUND (R)</t>
         </is>
       </c>
       <c r="D335" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01097</t>
+          <t>EGRAK01004</t>
         </is>
       </c>
     </row>
     <row r="336" ht="36" customHeight="1">
       <c r="A336" s="10" t="inlineStr">
         <is>
-          <t>IGRF000497005</t>
+          <t>IGRF000496007</t>
         </is>
       </c>
       <c r="B336" s="11" t="n">
-        <v>45551</v>
+        <v>45547</v>
       </c>
       <c r="C336" s="6" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME VII 24MONTHS - BOND FUND</t>
+          <t>TRITON Target Maturity Class E</t>
         </is>
       </c>
       <c r="D336" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01098</t>
+          <t>EGRAK01097</t>
         </is>
       </c>
     </row>
     <row r="337" ht="36" customHeight="1">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01103_SHR</t>
+          <t>IGRF000497005</t>
         </is>
       </c>
       <c r="B337" s="13" t="n">
-        <v>45552</v>
-      </c>
-      <c r="C337" s="4" t="inlineStr"/>
+        <v>45551</v>
+      </c>
+      <c r="C337" s="4" t="inlineStr">
+        <is>
+          <t>DELOS EXTRA INCOME VII 24MONTHS - BOND FUND</t>
+        </is>
+      </c>
       <c r="D337" s="4" t="inlineStr">
         <is>
-          <t>EGR801698110, EGRAK01103</t>
+          <t>EGRAK01098</t>
         </is>
       </c>
     </row>
     <row r="338" ht="36" customHeight="1">
       <c r="A338" s="10" t="inlineStr">
         <is>
-          <t>IGRF000501004</t>
+          <t>PEGRAK01103_SHR</t>
         </is>
       </c>
       <c r="B338" s="11" t="n">
-        <v>45576</v>
-      </c>
-      <c r="C338" s="6" t="inlineStr">
-        <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2029 (III) EUROPEAN BOND FUND</t>
-        </is>
-      </c>
+        <v>45552</v>
+      </c>
+      <c r="C338" s="6" t="inlineStr"/>
       <c r="D338" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01101</t>
+          <t>EGRAK01103</t>
         </is>
       </c>
     </row>
     <row r="339" ht="36" customHeight="1">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>PEGRAEEAP012_SHR</t>
-        </is>
-      </c>
-      <c r="B339" s="13" t="inlineStr"/>
-      <c r="C339" s="4" t="inlineStr"/>
+          <t>IGRF000504008</t>
+        </is>
+      </c>
+      <c r="B339" s="13" t="n">
+        <v>45572</v>
+      </c>
+      <c r="C339" s="4" t="inlineStr">
+        <is>
+          <t>OPTIMA INCOME 2026 BOND FUND</t>
+        </is>
+      </c>
       <c r="D339" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP012</t>
+          <t>EGRAK01107</t>
+        </is>
+      </c>
+    </row>
+    <row r="340" ht="36" customHeight="1">
+      <c r="A340" s="10" t="inlineStr">
+        <is>
+          <t>IGRF000499001</t>
+        </is>
+      </c>
+      <c r="B340" s="11" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C340" s="6" t="inlineStr">
+        <is>
+          <t>ALPHA TARGET MATURITY VIII 2029 BOND FUND CLASSIC D</t>
+        </is>
+      </c>
+      <c r="D340" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK01105</t>
+        </is>
+      </c>
+    </row>
+    <row r="341" ht="36" customHeight="1">
+      <c r="A341" s="12" t="inlineStr">
+        <is>
+          <t>IGRF000501004</t>
+        </is>
+      </c>
+      <c r="B341" s="13" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C341" s="4" t="inlineStr">
+        <is>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2029 (III) EUROPEAN BOND FUND</t>
+        </is>
+      </c>
+      <c r="D341" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK01101</t>
+        </is>
+      </c>
+    </row>
+    <row r="342" ht="36" customHeight="1">
+      <c r="A342" s="10" t="inlineStr">
+        <is>
+          <t>IGRF000500006</t>
+        </is>
+      </c>
+      <c r="B342" s="11" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C342" s="6" t="inlineStr">
+        <is>
+          <t>ALPHA BANCASSURANCE EE109 STRUCTURED FUND</t>
+        </is>
+      </c>
+      <c r="D342" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK01106</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D339"/>
+  <autoFilter ref="A1:D342"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/docs/source/_static/structure/IFDAT-LIST.xlsx
+++ b/docs/source/_static/structure/IFDAT-LIST.xlsx
@@ -16,9 +16,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ΠΕΡΙΕΧΟΜΕΝΑ'!$A$1:$A$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ΜΠΣ'!$A$1:$F$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EO'!$A$1:$I$258</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ'!$A$1:$D$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ΜΠΣ'!$A$1:$F$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EO'!$A$1:$I$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ'!$A$1:$D$341</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ΕΚΔΟΣΕΙΣ ΟΜΟΛΟΓΩΝ ΕΟ'!$A$1:$D$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -586,7 +586,7 @@
         <is>
           <t>Μονάδες Παροχής Στοιχείων
 IFDAT
-ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2024-11-20</t>
+ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2024-11-27</t>
         </is>
       </c>
       <c r="D3" s="1" t="n"/>
@@ -1213,7 +1213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>L213800SHGGWDBFVRPS03, BGR000920101000, TGR094282521</t>
+          <t>TGR094282521, L213800SHGGWDBFVRPS03, BGR000920101000</t>
         </is>
       </c>
       <c r="C2" s="11" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00010, EGRAK00108, EGRAK00109, EGRAK00110, EGRAK00201, EGRAK00229, EGRAK00240, EGRAK00422, EGRAK00433, EGRAK00448, EGRAK00780, EGRAK00808, EGRAK00840, EGRAK00889, EGRAK00891, EGRAK00902, EGRAK00903, EGRAK01009, EGRAK01010, EGRAK01015, EGRAK01016, EGRAK01019, EGRAK01032, EGRAK01039, EGRAK01041, EGRAK01045, EGRAK01050, EGRAK01052, EGRAK01055, EGRAK01079, EGRAK01082, EGRAK01088, EGRAK01093, EGRAK01105, EGRAK01106</t>
+          <t>EGRAK00010, EGRAK00108, EGRAK00109, EGRAK00110, EGRAK00201, EGRAK00229, EGRAK00240, EGRAK00422, EGRAK00433, EGRAK00448, EGRAK00780, EGRAK00808, EGRAK00840, EGRAK00889, EGRAK00891, EGRAK00902, EGRAK00903, EGRAK01009, EGRAK01010, EGRAK01015, EGRAK01016, EGRAK01019, EGRAK01032, EGRAK01039, EGRAK01041, EGRAK01045, EGRAK01050, EGRAK01052, EGRAK01055, EGRAK01079, EGRAK01082, EGRAK01088, EGRAK01093, EGRAK01105, EGRAK01106, EGRAK01109</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00010, EGRAK00108, EGRAK00109, EGRAK00110, EGRAK00201, EGRAK00229, EGRAK00240, EGRAK00422, EGRAK00433, EGRAK00448, EGRAK00780, EGRAK00808, EGRAK00840, EGRAK00889, EGRAK00891, EGRAK00902, EGRAK00903, EGRAK01009, EGRAK01010, EGRAK01015, EGRAK01016, EGRAK01019, EGRAK01032, EGRAK01039, EGRAK01041, EGRAK01045, EGRAK01050, EGRAK01052, EGRAK01055, EGRAK01079, EGRAK01082, EGRAK01088, EGRAK01093, EGRAK01105, EGRAK01106</t>
+          <t>EGRAK00010, EGRAK00108, EGRAK00109, EGRAK00110, EGRAK00201, EGRAK00229, EGRAK00240, EGRAK00422, EGRAK00433, EGRAK00448, EGRAK00780, EGRAK00808, EGRAK00840, EGRAK00889, EGRAK00891, EGRAK00902, EGRAK00903, EGRAK01009, EGRAK01010, EGRAK01015, EGRAK01016, EGRAK01019, EGRAK01032, EGRAK01039, EGRAK01041, EGRAK01045, EGRAK01050, EGRAK01052, EGRAK01055, EGRAK01079, EGRAK01082, EGRAK01088, EGRAK01093, EGRAK01105, EGRAK01106, EGRAK01109</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>L213800BEX8X28DTL5391, TGR094036844, BGR000352001000</t>
+          <t>TGR094036844, BGR000352001000, L213800BEX8X28DTL5391</t>
         </is>
       </c>
       <c r="C3" s="13" t="n">
@@ -1314,12 +1314,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00022, EGRAK00115, EGRAK00117, EGRAK00118, EGRAK00224, EGRAK00239, EGRAK00243, EGRAK00261, EGRAK00296, EGRAK00459, EGRAK00473, EGRAK00802, EGRAK00817, EGRAK00822, EGRAK00837, EGRAK00856, EGRAK00909, EGRAK01013, EGRAK01020, EGRAK01026, EGRAK01033, EGRAK01034, EGRAK01040, EGRAK01042, EGRAK01049, EGRAK01051, EGRAK01056, EGRAK01081, EGRAK01083, EGRAK01084, EGRAK01085, EGRAK01086, EGRAK01090, EGRAK01094, EGRAK01095, EGRAK01098</t>
+          <t>EGRAK00022, EGRAK00115, EGRAK00117, EGRAK00118, EGRAK00224, EGRAK00239, EGRAK00243, EGRAK00261, EGRAK00296, EGRAK00459, EGRAK00473, EGRAK00802, EGRAK00817, EGRAK00822, EGRAK00837, EGRAK00856, EGRAK00909, EGRAK01013, EGRAK01020, EGRAK01026, EGRAK01033, EGRAK01034, EGRAK01040, EGRAK01042, EGRAK01049, EGRAK01051, EGRAK01056, EGRAK01081, EGRAK01083, EGRAK01084, EGRAK01085, EGRAK01086, EGRAK01090, EGRAK01094, EGRAK01095, EGRAK01098, EGRAK01108</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00022, EGRAK00115, EGRAK00117, EGRAK00118, EGRAK00224, EGRAK00239, EGRAK00243, EGRAK00261, EGRAK00296, EGRAK00459, EGRAK00473, EGRAK00802, EGRAK00817, EGRAK00822, EGRAK00837, EGRAK00856, EGRAK00909, EGRAK01013, EGRAK01020, EGRAK01026, EGRAK01033, EGRAK01034, EGRAK01040, EGRAK01042, EGRAK01049, EGRAK01051, EGRAK01056, EGRAK01081, EGRAK01083, EGRAK01084, EGRAK01085, EGRAK01086, EGRAK01090, EGRAK01094, EGRAK01095, EGRAK01098</t>
+          <t>EGRAK00022, EGRAK00115, EGRAK00117, EGRAK00118, EGRAK00224, EGRAK00239, EGRAK00243, EGRAK00261, EGRAK00296, EGRAK00459, EGRAK00473, EGRAK00802, EGRAK00817, EGRAK00822, EGRAK00837, EGRAK00856, EGRAK00909, EGRAK01013, EGRAK01020, EGRAK01026, EGRAK01033, EGRAK01034, EGRAK01040, EGRAK01042, EGRAK01049, EGRAK01051, EGRAK01056, EGRAK01081, EGRAK01083, EGRAK01084, EGRAK01085, EGRAK01086, EGRAK01090, EGRAK01094, EGRAK01095, EGRAK01098, EGRAK01108</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>TGR094493219, L213800SMPWZVT6GGQZ69, BGR002292401000</t>
+          <t>BGR002292401000, L213800SMPWZVT6GGQZ69, TGR094493219</t>
         </is>
       </c>
       <c r="C4" s="11" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>TGR099936130, L213800C9JGYAXWYTM652, BGR004307701000</t>
+          <t>BGR004307701000, L213800C9JGYAXWYTM652, TGR099936130</t>
         </is>
       </c>
       <c r="C5" s="13" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>TGR999081601, BGR006314201000, L213800CF8C4B9AKV1Z96</t>
+          <t>BGR006314201000, L213800CF8C4B9AKV1Z96, TGR999081601</t>
         </is>
       </c>
       <c r="C6" s="11" t="n">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>BGR001003501000, L213800UWXVWAKFGVLB36, TGR094304867</t>
+          <t>TGR094304867, L213800UWXVWAKFGVLB36, BGR001003501000</t>
         </is>
       </c>
       <c r="C7" s="13" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>TGR094354938, BGR000942001000, L213800U6WAX3YXMFVH22</t>
+          <t>TGR094354938, L213800U6WAX3YXMFVH22, BGR000942001000</t>
         </is>
       </c>
       <c r="C8" s="11" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>BGR000832401000, TGR094325107, L213800YSZHWSCLXXRI37</t>
+          <t>BGR000832401000, L213800YSZHWSCLXXRI37, TGR094325107</t>
         </is>
       </c>
       <c r="C9" s="13" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>BGR000918601000, TGR094351475, L635400S5G5WWGN6B8T87</t>
+          <t>TGR094351475, BGR000918601000, L635400S5G5WWGN6B8T87</t>
         </is>
       </c>
       <c r="C10" s="11" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>BGR003581901000, TGR099553209, L213800XXMES8I6GQVQ47</t>
+          <t>TGR099553209, BGR003581901000, L213800XXMES8I6GQVQ47</t>
         </is>
       </c>
       <c r="C11" s="13" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>TGR099760120, L549300JSLNCWDXJT4U81, BGR003931601000</t>
+          <t>L549300JSLNCWDXJT4U81, BGR003931601000, TGR099760120</t>
         </is>
       </c>
       <c r="C12" s="11" t="n">
@@ -1596,1162 +1596,1192 @@
     <row r="13" ht="36" customHeight="1">
       <c r="A13" s="12" t="inlineStr">
         <is>
-          <t>EGRAEEX002</t>
+          <t>EGR099757323</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>L213800USGL7Q5UR9M221, TGR099759863, BGR003882701000</t>
+          <t>BGR122032001000, TGR099757323, L9845003A94A6F41EB779</t>
         </is>
       </c>
       <c r="C13" s="13" t="n">
-        <v>36732</v>
+        <v>36656</v>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>ALPHA TRUST- ΑΝΔΡΟΜΕΔΑ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΧΑΡΤΟΦΥΛΑΚΙΟΥ</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr"/>
+          <t>ELIKONOS CAPITAL ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΟΡΓΑΝΙΣΜΩΝ ΕΝΑΛΛΑΚΤΙΚΩΝ ΕΠΕΝΔΥΣΕΩΝ</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK01057</t>
+        </is>
+      </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEX002</t>
+          <t>EGRAK01057</t>
         </is>
       </c>
     </row>
     <row r="14" ht="36" customHeight="1">
       <c r="A14" s="10" t="inlineStr">
         <is>
-          <t>EGR999984680</t>
+          <t>EGRAEEX002</t>
         </is>
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>BGR004373001000, L984500EE5E3BA3F08B21, TGR999984680</t>
+          <t>L213800USGL7Q5UR9M221, BGR003882701000, TGR099759863</t>
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>37069</v>
+        <v>36732</v>
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>ΕΛΛΕΝΙΚ ΚΑΠΙΤΑΛ ΠΑΡΤΝΕΡΣ ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΕΩΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK01061, EGRAK01068</t>
-        </is>
-      </c>
+          <t>ALPHA TRUST- ΑΝΔΡΟΜΕΔΑ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΧΑΡΤΟΦΥΛΑΚΙΟΥ</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01061, EGRAK01068</t>
+          <t>EGRAEEX002</t>
         </is>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1">
       <c r="A15" s="12" t="inlineStr">
         <is>
-          <t>EGRAEEAP002</t>
+          <t>EGR999984680</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>TGR099554901, BGR003548801000, L213800U7SBKWW79CBG88</t>
+          <t>BGR004373001000, TGR999984680, L984500EE5E3BA3F08B21</t>
         </is>
       </c>
       <c r="C15" s="13" t="n">
-        <v>37711</v>
+        <v>37069</v>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>TRASTOR ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr"/>
+          <t>ΕΛΛΕΝΙΚ ΚΑΠΙΤΑΛ ΠΑΡΤΝΕΡΣ ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΕΩΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK01061, EGRAK01068</t>
+        </is>
+      </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP002</t>
+          <t>EGRAK01061, EGRAK01068</t>
         </is>
       </c>
     </row>
     <row r="16" ht="36" customHeight="1">
       <c r="A16" s="10" t="inlineStr">
         <is>
-          <t>EGRAEPEY059</t>
+          <t>EGRAEEAP002</t>
         </is>
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>L213800P8QPUPE3SOGX14, BGR006816701000, TGR998940936</t>
+          <t>L213800U7SBKWW79CBG88, TGR099554901, BGR003548801000</t>
         </is>
       </c>
       <c r="C16" s="11" t="n">
-        <v>38776</v>
+        <v>37711</v>
       </c>
       <c r="D16" s="6" t="inlineStr">
         <is>
-          <t>THETIS CAPITAL ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΠΑΡΟΧΗΣ ΕΠΕΝΔΥΤΙΚΩΝ ΥΠΗΡΕΣΙΩΝ</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK90012</t>
-        </is>
-      </c>
+          <t>TRASTOR ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr"/>
       <c r="F16" s="6" t="inlineStr">
         <is>
-          <t>EGRAK90012</t>
+          <t>EGRAEEAP002</t>
         </is>
       </c>
     </row>
     <row r="17" ht="36" customHeight="1">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>EGR998642355</t>
+          <t>EGRAEPEY059</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>L2138001MKHE9G2UERJ13, TGR998642355, BGR007175901000</t>
+          <t>BGR006816701000, TGR998940936, L213800P8QPUPE3SOGX14</t>
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>39024</v>
+        <v>38776</v>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>CNL ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΟΡΓΑΝΙΣΜΩΝ ΕΝΑΛΛΑΚΤΙΚΩΝ ΕΠΕΝΔΥΣΕΩΝ</t>
+          <t>THETIS CAPITAL ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΠΑΡΟΧΗΣ ΕΠΕΝΔΥΤΙΚΩΝ ΥΠΗΡΕΣΙΩΝ</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>EGREKES001</t>
+          <t>EGRAK90012</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>EGREKES001</t>
+          <t>EGRAK90012</t>
         </is>
       </c>
     </row>
     <row r="18" ht="36" customHeight="1">
       <c r="A18" s="10" t="inlineStr">
         <is>
-          <t>EGRAEEAP003</t>
+          <t>EGR998642355</t>
         </is>
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>TGR099555020, BGR003546201000, L549300XDXYOF57JOFT72</t>
+          <t>TGR998642355, L2138001MKHE9G2UERJ13, BGR007175901000</t>
         </is>
       </c>
       <c r="C18" s="11" t="n">
-        <v>39321</v>
+        <v>39024</v>
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>Προντέα Ανώνυμη Εταιρεία Επενδύσεων σε Ακίνητη Περιουσία</t>
-        </is>
-      </c>
-      <c r="E18" s="6" t="inlineStr"/>
+          <t>CNL ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΟΡΓΑΝΙΣΜΩΝ ΕΝΑΛΛΑΚΤΙΚΩΝ ΕΠΕΝΔΥΣΕΩΝ</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>EGREKES001</t>
+        </is>
+      </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
-          <t>EGRAEEAP003</t>
+          <t>EGREKES001</t>
         </is>
       </c>
     </row>
     <row r="19" ht="36" customHeight="1">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>EGR998279015</t>
+          <t>EGRAEEAP003</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>BGR007914601000, TGR998279015</t>
+          <t>TGR099555020, BGR003546201000, L549300XDXYOF57JOFT72</t>
         </is>
       </c>
       <c r="C19" s="13" t="n">
-        <v>39407</v>
+        <v>39321</v>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS CAPITAL MANAGEMENT ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>EGRAK90005</t>
-        </is>
-      </c>
+          <t>Προντέα Ανώνυμη Εταιρεία Επενδύσεων σε Ακίνητη Περιουσία</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr"/>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>EGRAK90005</t>
+          <t>EGRAEEAP003</t>
         </is>
       </c>
     </row>
     <row r="20" ht="36" customHeight="1">
       <c r="A20" s="10" t="inlineStr">
         <is>
-          <t>EGR998159392</t>
+          <t>EGR998279015</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>TGR998159392, L213800ESHXNWYJAEMO70, BGR008234001000</t>
+          <t>BGR007914601000, TGR998279015</t>
         </is>
       </c>
       <c r="C20" s="11" t="n">
-        <v>39942</v>
+        <v>39407</v>
       </c>
       <c r="D20" s="6" t="inlineStr">
         <is>
-          <t>ΑΛΦΑ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ - ΑΚΕΣ</t>
+          <t>PIRAEUS CAPITAL MANAGEMENT ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="E20" s="6" t="inlineStr">
         <is>
-          <t>EGRAK90014</t>
+          <t>EGRAK90005</t>
         </is>
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
-          <t>EGRAK90014</t>
+          <t>EGRAK90005</t>
         </is>
       </c>
     </row>
     <row r="21" ht="36" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>EGRAEEAP005</t>
+          <t>EGR998159392</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>TGR800397001, L213800QM2ZFRARYU6C87, BGR120108101000</t>
+          <t>L213800ESHXNWYJAEMO70, BGR008234001000, TGR998159392</t>
         </is>
       </c>
       <c r="C21" s="13" t="n">
-        <v>40980</v>
+        <v>39942</v>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>INTERCONTINENTAL INTERNATIONAL ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr"/>
+          <t>ΑΛΦΑ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ - ΑΚΕΣ</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK90014</t>
+        </is>
+      </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP005</t>
+          <t>EGRAK90014</t>
         </is>
       </c>
     </row>
     <row r="22" ht="36" customHeight="1">
       <c r="A22" s="10" t="inlineStr">
         <is>
-          <t>EGR800398384</t>
+          <t>EGRAEEAP005</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>BGR120129501000, TGR800398384, L21380099L8WQI3DI3Y74</t>
+          <t>L213800QM2ZFRARYU6C87, TGR800397001, BGR120108101000</t>
         </is>
       </c>
       <c r="C22" s="11" t="n">
-        <v>40992</v>
+        <v>40980</v>
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS JEREMIE TECHNOLOGY CATALYST MANAGEMENT ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
-        </is>
-      </c>
-      <c r="E22" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK01057, EGRAK90007</t>
-        </is>
-      </c>
+          <t>INTERCONTINENTAL INTERNATIONAL ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01057, EGRAK90007</t>
+          <t>EGRAEEAP005</t>
         </is>
       </c>
     </row>
     <row r="23" ht="36" customHeight="1">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>EGR800433747</t>
+          <t>EGR800398384</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>L2138006SQBPKYG6GZX87, TGR800433747, BGR122339001000</t>
+          <t>TGR800398384, BGR120129501000, L21380099L8WQI3DI3Y74</t>
         </is>
       </c>
       <c r="C23" s="13" t="n">
-        <v>41162</v>
+        <v>40992</v>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Openfund Ανώνυμη Εταιρία Διαχείρισης Αμοιβαίων Κεφαλαίων Επιχειρηματικών Συμμετοχών</t>
+          <t>PIRAEUS JEREMIE TECHNOLOGY CATALYST MANAGEMENT ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>EGRAK90006</t>
+          <t>EGRAK90007</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>EGRAK90006</t>
+          <t>EGRAK90007</t>
         </is>
       </c>
     </row>
     <row r="24" ht="36" customHeight="1">
       <c r="A24" s="10" t="inlineStr">
         <is>
-          <t>EGRAEEAP007</t>
+          <t>EGR800433747</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>BGR128686346000, TGR997656128, L213800Q23BDHSW1OQT90</t>
+          <t>BGR122339001000, L2138006SQBPKYG6GZX87, TGR800433747</t>
         </is>
       </c>
       <c r="C24" s="11" t="n">
-        <v>41657</v>
+        <v>41162</v>
       </c>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t>ΜΠΛΕ ΚΕΔΡΟΣ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ</t>
-        </is>
-      </c>
-      <c r="E24" s="6" t="inlineStr"/>
+          <t>Openfund Ανώνυμη Εταιρία Διαχείρισης Αμοιβαίων Κεφαλαίων Επιχειρηματικών Συμμετοχών</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK90006</t>
+        </is>
+      </c>
       <c r="F24" s="6" t="inlineStr">
         <is>
-          <t>EGRAEEAP007</t>
+          <t>EGRAK90006</t>
         </is>
       </c>
     </row>
     <row r="25" ht="36" customHeight="1">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>EGRAEEAP006</t>
+          <t>EGRAEEAP007</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>BGR140330201000, L213800TBZBVWRUAOPV78, TGR997521479</t>
+          <t>TGR997656128, L213800Q23BDHSW1OQT90, BGR128686346000</t>
         </is>
       </c>
       <c r="C25" s="13" t="n">
-        <v>42664</v>
+        <v>41657</v>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>BriQ Properties Ανώνυμη Εταιρεία Επενδύσεων σε Ακίνητη Περιουσία</t>
+          <t>ΜΠΛΕ ΚΕΔΡΟΣ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr"/>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP006</t>
+          <t>EGRAEEAP007</t>
         </is>
       </c>
     </row>
     <row r="26" ht="36" customHeight="1">
       <c r="A26" s="10" t="inlineStr">
         <is>
-          <t>EGR800792234</t>
+          <t>EGRAEEAP006</t>
         </is>
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>BGR141064201000, L213800PZN3W777G7XR07, TGR800792234</t>
+          <t>L213800TBZBVWRUAOPV78, TGR997521479, BGR140330201000</t>
         </is>
       </c>
       <c r="C26" s="11" t="n">
-        <v>42744</v>
+        <v>42664</v>
       </c>
       <c r="D26" s="6" t="inlineStr">
         <is>
-          <t>Marathon Ανώνυμη Εταιρία Διαχείρισης Αμοιβαίων Κεφαλαίων Επιχειρηματικών Συμμετοχών</t>
-        </is>
-      </c>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK01062, EGRAK01063</t>
-        </is>
-      </c>
+          <t>BriQ Properties Ανώνυμη Εταιρεία Επενδύσεων σε Ακίνητη Περιουσία</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01062, EGRAK01063</t>
+          <t>EGRAEEAP006</t>
         </is>
       </c>
     </row>
     <row r="27" ht="36" customHeight="1">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>EGRMFMC030</t>
+          <t>EGR800792234</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>BGR142754460000, TGR997010182, L254900CCGB73PBHKXL72</t>
+          <t>L213800PZN3W777G7XR07, TGR800792234, BGR141064201000</t>
         </is>
       </c>
       <c r="C27" s="13" t="n">
-        <v>42887</v>
+        <v>42744</v>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>ATHOS ASSET MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ</t>
+          <t>Marathon Ανώνυμη Εταιρία Διαχείρισης Αμοιβαίων Κεφαλαίων Επιχειρηματικών Συμμετοχών</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00238, EGRAK00465, EGRAK00552, EGRAK00553, EGRAK00554, EGRAK00555, EGRAK00592, EGRAK00835, EGRAK00854</t>
+          <t>EGRAK01062, EGRAK01063</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00238, EGRAK00465, EGRAK00552, EGRAK00553, EGRAK00554, EGRAK00555, EGRAK00592, EGRAK00835, EGRAK00854</t>
+          <t>EGRAK01062, EGRAK01063</t>
         </is>
       </c>
     </row>
     <row r="28" ht="36" customHeight="1">
       <c r="A28" s="10" t="inlineStr">
         <is>
-          <t>EGR800903737</t>
+          <t>EGRMFMC030</t>
         </is>
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>TGR800903737, L9845007DB3RB2B4DN624, BGR144560003000</t>
+          <t>L254900CCGB73PBHKXL72, TGR997010182, BGR142754460000</t>
         </is>
       </c>
       <c r="C28" s="11" t="n">
-        <v>43074</v>
+        <v>42887</v>
       </c>
       <c r="D28" s="6" t="inlineStr">
         <is>
-          <t>METAVALLON PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>ATHOS ASSET MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ</t>
         </is>
       </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01064, EGRAK01065</t>
+          <t>EGRAK00238, EGRAK00465, EGRAK00552, EGRAK00553, EGRAK00554, EGRAK00555, EGRAK00592, EGRAK00835, EGRAK00854</t>
         </is>
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01064, EGRAK01065</t>
+          <t>EGRAK00238, EGRAK00465, EGRAK00552, EGRAK00553, EGRAK00554, EGRAK00555, EGRAK00592, EGRAK00835, EGRAK00854</t>
         </is>
       </c>
     </row>
     <row r="29" ht="36" customHeight="1">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>EGR800911079</t>
+          <t>EGR800903737</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>TGR800911079, BGR144725001000</t>
+          <t>TGR800903737, BGR144560003000, L9845007DB3RB2B4DN624</t>
         </is>
       </c>
       <c r="C29" s="13" t="n">
-        <v>43090</v>
+        <v>43074</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>ΓΙΟΥΝΙΦΑΝΤ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>METAVALLON PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01070, EGRAK01071</t>
+          <t>EGRAK01064, EGRAK01065</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01070, EGRAK01071</t>
+          <t>EGRAK01064, EGRAK01065</t>
         </is>
       </c>
     </row>
     <row r="30" ht="36" customHeight="1">
       <c r="A30" s="10" t="inlineStr">
         <is>
-          <t>EGRAEEAP008</t>
+          <t>EGR800911079</t>
         </is>
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>L213800DTEZE6R8BZ9K19, BGR148547901000, TGR801077433</t>
+          <t>TGR800911079, BGR144725001000</t>
         </is>
       </c>
       <c r="C30" s="11" t="n">
-        <v>43448</v>
+        <v>43090</v>
       </c>
       <c r="D30" s="6" t="inlineStr">
         <is>
-          <t>ORILINA PROPERTIES ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
-        </is>
-      </c>
-      <c r="E30" s="6" t="inlineStr"/>
+          <t>ΓΙΟΥΝΙΦΑΝΤ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+        </is>
+      </c>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK01070, EGRAK01071</t>
+        </is>
+      </c>
       <c r="F30" s="6" t="inlineStr">
         <is>
-          <t>EGRAEEAP008</t>
+          <t>EGRAK01070, EGRAK01071</t>
         </is>
       </c>
     </row>
     <row r="31" ht="36" customHeight="1">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>EGRAEEAP010</t>
+          <t>EGRAEEAP008</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>L213800XKY8GHKN57D970, TGR996899546, BGR152321260000</t>
+          <t>L213800DTEZE6R8BZ9K19, TGR801077433, BGR148547901000</t>
         </is>
       </c>
       <c r="C31" s="13" t="n">
-        <v>43752</v>
+        <v>43448</v>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>ΝΟΒΑΛ ΠΡΟΠΕΡΤΥ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
+          <t>ORILINA PROPERTIES ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr"/>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP010</t>
+          <t>EGRAEEAP008</t>
         </is>
       </c>
     </row>
     <row r="32" ht="36" customHeight="1">
       <c r="A32" s="10" t="inlineStr">
         <is>
-          <t>EGR801296864</t>
+          <t>EGRAEEAP010</t>
         </is>
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>L9845007855485B71CC46, BGR153787304000, TGR801296814</t>
+          <t>L213800XKY8GHKN57D970, TGR996899546, BGR152321260000</t>
         </is>
       </c>
       <c r="C32" s="11" t="n">
-        <v>43864</v>
+        <v>43752</v>
       </c>
       <c r="D32" s="6" t="inlineStr">
         <is>
-          <t>THERMI VENTURE CAPITAL MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
-        </is>
-      </c>
-      <c r="E32" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK01027</t>
-        </is>
-      </c>
+          <t>ΝΟΒΑΛ ΠΡΟΠΕΡΤΥ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
+        </is>
+      </c>
+      <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01027</t>
+          <t>EGRAEEAP010</t>
         </is>
       </c>
     </row>
     <row r="33" ht="36" customHeight="1">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>EGR801322351</t>
+          <t>EGR801296864</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>BGR154382104000, TGR801322351</t>
+          <t>TGR801296814, BGR153787304000, L9845007855485B71CC46</t>
         </is>
       </c>
       <c r="C33" s="13" t="n">
-        <v>43896</v>
+        <v>43864</v>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>VENTURE STORIES PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>THERMI VENTURE CAPITAL MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01069</t>
+          <t>EGRAK01027</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01069</t>
+          <t>EGRAK01027</t>
         </is>
       </c>
     </row>
     <row r="34" ht="36" customHeight="1">
       <c r="A34" s="10" t="inlineStr">
         <is>
-          <t>EGR801446716</t>
+          <t>EGR801322351</t>
         </is>
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>L9845003A111B06B9D568, TGR801446716, BGR157033507000</t>
+          <t>BGR154382104000, TGR801322351</t>
         </is>
       </c>
       <c r="C34" s="11" t="n">
-        <v>44141</v>
+        <v>43896</v>
       </c>
       <c r="D34" s="6" t="inlineStr">
         <is>
-          <t>ROCHELLE CAPITAL MANAGEMENT ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
+          <t>VENTURE STORIES PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E34" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01058</t>
+          <t>EGRAK01069</t>
         </is>
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01058</t>
+          <t>EGRAK01069</t>
         </is>
       </c>
     </row>
     <row r="35" ht="36" customHeight="1">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>EGR801446949</t>
+          <t>EGR801446716</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>TGR801446949, BGR157036301000, L9845004F1F377E786787</t>
+          <t>BGR157033507000, TGR801446716, L9845003A111B06B9D568</t>
         </is>
       </c>
       <c r="C35" s="13" t="n">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>GREEK BRANDS VENTURES ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ - ΑΕΔΑΚΕΣ</t>
+          <t>ROCHELLE CAPITAL MANAGEMENT ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01060</t>
+          <t>EGRAK01058</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01060</t>
+          <t>EGRAK01058</t>
         </is>
       </c>
     </row>
     <row r="36" ht="36" customHeight="1">
       <c r="A36" s="10" t="inlineStr">
         <is>
-          <t>EGR801470046</t>
+          <t>EGR801446949</t>
         </is>
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>L2138006VXU6UDW7P6H67, TGR801470046, BGR157511601000</t>
+          <t>TGR801446949, BGR157036301000, L9845004F1F377E786787</t>
         </is>
       </c>
       <c r="C36" s="11" t="n">
-        <v>44179</v>
+        <v>44142</v>
       </c>
       <c r="D36" s="6" t="inlineStr">
         <is>
-          <t>NEW ENERGY PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>GREEK BRANDS VENTURES ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ - ΑΕΔΑΚΕΣ</t>
         </is>
       </c>
       <c r="E36" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01066</t>
+          <t>EGRAK01060</t>
         </is>
       </c>
       <c r="F36" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01066</t>
+          <t>EGRAK01060</t>
         </is>
       </c>
     </row>
     <row r="37" ht="36" customHeight="1">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>EGR996764210</t>
+          <t>EGR801470046</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>TGR996764210, BGR157802360000</t>
+          <t>TGR801470046, BGR157511601000, L2138006VXU6UDW7P6H67</t>
         </is>
       </c>
       <c r="C37" s="13" t="n">
-        <v>44210</v>
+        <v>44179</v>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>ΣΥΜΜΕΤΟΧΕΣ 5G Ανώνυμη Εταιρεία</t>
+          <t>NEW ENERGY PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01067</t>
+          <t>EGRAK01066</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01067</t>
+          <t>EGRAK01066</t>
         </is>
       </c>
     </row>
     <row r="38" ht="36" customHeight="1">
       <c r="A38" s="10" t="inlineStr">
         <is>
-          <t>EGR801554045</t>
+          <t>EGR996764210</t>
         </is>
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>BGR159031301000, TGR801554045, L213800YJOZGHVAPEJP93</t>
+          <t>TGR996764210, BGR157802360000</t>
         </is>
       </c>
       <c r="C38" s="11" t="n">
-        <v>44302</v>
+        <v>44210</v>
       </c>
       <c r="D38" s="6" t="inlineStr">
         <is>
-          <t>SIREC ENERGY CAPITAL PARTNERS ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>ΣΥΜΜΕΤΟΧΕΣ 5G Ανώνυμη Εταιρεία</t>
         </is>
       </c>
       <c r="E38" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01059</t>
+          <t>EGRAK01067</t>
         </is>
       </c>
       <c r="F38" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01059</t>
+          <t>EGRAK01067</t>
         </is>
       </c>
     </row>
     <row r="39" ht="36" customHeight="1">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>EGRAEEAP009</t>
+          <t>EGR801554045</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>L2138006STLTDFRIZTC42, TGR996805731, BGR160110060000</t>
+          <t>BGR159031301000, TGR801554045, L213800YJOZGHVAPEJP93</t>
         </is>
       </c>
       <c r="C39" s="13" t="n">
-        <v>44389</v>
+        <v>44302</v>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>TRADE ESTATES ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="inlineStr"/>
+          <t>SIREC ENERGY CAPITAL PARTNERS ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK01059</t>
+        </is>
+      </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP009</t>
+          <t>EGRAK01059</t>
         </is>
       </c>
     </row>
     <row r="40" ht="36" customHeight="1">
       <c r="A40" s="10" t="inlineStr">
         <is>
-          <t>EGR801698110</t>
+          <t>EGRAEEAP009</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>TGR801698110, L984500E6O0A11A6C4E59, BGR161709401000</t>
+          <t>L2138006STLTDFRIZTC42, BGR160110060000, TGR996805731</t>
         </is>
       </c>
       <c r="C40" s="11" t="n">
-        <v>44524</v>
+        <v>44389</v>
       </c>
       <c r="D40" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ELBRIDGE CAPITAL MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΗΣΗΣ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΙΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ </t>
-        </is>
-      </c>
-      <c r="E40" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK01103</t>
-        </is>
-      </c>
+          <t>TRADE ESTATES ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="inlineStr"/>
       <c r="F40" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01103</t>
+          <t>EGRAEEAP009</t>
         </is>
       </c>
     </row>
     <row r="41" ht="36" customHeight="1">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>EGR094321237</t>
+          <t>EGR801698110</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>L213800MU91F1752AVM79, BGR000861301000, TGR094321237</t>
+          <t>BGR161709401000, TGR801698110, L984500E6O0A11A6C4E59</t>
         </is>
       </c>
       <c r="C41" s="13" t="n">
-        <v>44635</v>
+        <v>44524</v>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>PREMIA ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr"/>
+          <t xml:space="preserve">ELBRIDGE CAPITAL MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΗΣΗΣ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΙΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ </t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK01103</t>
+        </is>
+      </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>EGR094321237</t>
+          <t>EGRAK01103</t>
         </is>
       </c>
     </row>
     <row r="42" ht="36" customHeight="1">
       <c r="A42" s="10" t="inlineStr">
         <is>
-          <t>EGR801812106</t>
+          <t>EGR094321237</t>
         </is>
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
-          <t>BGR163809001000, TGR801812106</t>
+          <t>TGR094321237, L213800MU91F1752AVM79, BGR000861301000</t>
         </is>
       </c>
       <c r="C42" s="11" t="n">
-        <v>44665</v>
+        <v>44635</v>
       </c>
       <c r="D42" s="6" t="inlineStr">
         <is>
-          <t>LSTONE ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
-        </is>
-      </c>
-      <c r="E42" s="6" t="inlineStr">
-        <is>
-          <t>EGRAK01072</t>
-        </is>
-      </c>
+          <t>PREMIA ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="inlineStr"/>
       <c r="F42" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01072</t>
+          <t>EGR094321237</t>
         </is>
       </c>
     </row>
     <row r="43" ht="36" customHeight="1">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>EGR801878297</t>
+          <t>EGR801812106</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>L984500F87AF5652C5A91, BGR165052501000, TGR801878297</t>
+          <t>BGR163809001000, TGR801812106</t>
         </is>
       </c>
       <c r="C43" s="13" t="n">
-        <v>44760</v>
+        <v>44665</v>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>BIG PI ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>LSTONE ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01073</t>
+          <t>EGRAK01072</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01073</t>
+          <t>EGRAK01072</t>
         </is>
       </c>
     </row>
     <row r="44" ht="36" customHeight="1">
       <c r="A44" s="10" t="inlineStr">
         <is>
-          <t>EGR802025852</t>
+          <t>EGR801878297</t>
         </is>
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 
-BGR168398401000, BGR168398401000, TGR802025852</t>
+          <t>TGR801878297, BGR165052501000, L984500F87AF5652C5A91</t>
         </is>
       </c>
       <c r="C44" s="11" t="n">
-        <v>44953</v>
+        <v>44760</v>
       </c>
       <c r="D44" s="6" t="inlineStr">
         <is>
-          <t>IGROW VENTURE PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ Α.Ε.</t>
+          <t>BIG PI ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E44" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01100</t>
+          <t>EGRAK01073</t>
         </is>
       </c>
       <c r="F44" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01100</t>
+          <t>EGRAK01073</t>
         </is>
       </c>
     </row>
     <row r="45" ht="36" customHeight="1">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>EGR802047322</t>
+          <t>EGR802025852</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>BGR168862301000, TGR802047322, L2138007QOK3W75DIHX50</t>
+          <t xml:space="preserve"> 
+BGR168398401000, TGR802025852, BGR168398401000</t>
         </is>
       </c>
       <c r="C45" s="13" t="n">
-        <v>44972</v>
+        <v>44953</v>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>SPOROS Impact Ventures ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ Διαχείρισης Αμοιβαίων Κεφαλαίων Επιχειρηματικών Συμμετοχών</t>
+          <t>IGROW VENTURE PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ Α.Ε.</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01075</t>
+          <t>EGRAK01100</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01075</t>
+          <t>EGRAK01100</t>
         </is>
       </c>
     </row>
     <row r="46" ht="36" customHeight="1">
       <c r="A46" s="10" t="inlineStr">
         <is>
-          <t>EGR802071555</t>
+          <t>EGR802047322</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
-          <t>BGR169369101000, TGR802071555</t>
+          <t>L2138007QOK3W75DIHX50, TGR802047322, BGR168862301000</t>
         </is>
       </c>
       <c r="C46" s="11" t="n">
-        <v>44995</v>
+        <v>44972</v>
       </c>
       <c r="D46" s="6" t="inlineStr">
         <is>
-          <t>FOS CAPITAL MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>SPOROS Impact Ventures ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ Διαχείρισης Αμοιβαίων Κεφαλαίων Επιχειρηματικών Συμμετοχών</t>
         </is>
       </c>
       <c r="E46" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01076</t>
+          <t>EGRAK01075</t>
         </is>
       </c>
       <c r="F46" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01076</t>
+          <t>EGRAK01075</t>
         </is>
       </c>
     </row>
     <row r="47" ht="36" customHeight="1">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>EGR802177269</t>
+          <t>EGR802071555</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>TGR802177269, BGR171519601000, L984500EE58FDEBF8BF32</t>
+          <t>BGR169369101000, TGR802071555</t>
         </is>
       </c>
       <c r="C47" s="13" t="n">
-        <v>45114</v>
+        <v>44995</v>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>OIKOS FUND MANAGEMENT ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
+          <t>FOS CAPITAL MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01074</t>
+          <t>EGRAK01076</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01074</t>
+          <t>EGRAK01076</t>
         </is>
       </c>
     </row>
     <row r="48" ht="36" customHeight="1">
       <c r="A48" s="10" t="inlineStr">
         <is>
-          <t>EGR802187644</t>
+          <t>EGR802177269</t>
         </is>
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
-          <t>BGR171720006000, TGR802187644</t>
+          <t>L984500EE58FDEBF8BF32, TGR802177269, BGR171519601000</t>
         </is>
       </c>
       <c r="C48" s="11" t="n">
-        <v>45128</v>
+        <v>45114</v>
       </c>
       <c r="D48" s="6" t="inlineStr">
         <is>
-          <t>LOGGERHEAD VENTURES ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΙΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
+          <t>OIKOS FUND MANAGEMENT ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="E48" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01104</t>
+          <t>EGRAK01074</t>
         </is>
       </c>
       <c r="F48" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01104</t>
+          <t>EGRAK01074</t>
         </is>
       </c>
     </row>
     <row r="49" ht="36" customHeight="1">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>EGR802190685</t>
+          <t>EGR802187644</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>BGR171775701000, TGR802190685</t>
+          <t>TGR802187644, BGR171720006000</t>
         </is>
       </c>
       <c r="C49" s="13" t="n">
-        <v>45134</v>
+        <v>45128</v>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>APEIRON VENTURES CAPITAL PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
+          <t>LOGGERHEAD VENTURES ΑΜΟΙΒΑΙΑ ΚΕΦΑΛΑΙΑ ΕΠΙΧΕΙΡΙΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01099</t>
+          <t>EGRAK01104</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01099</t>
+          <t>EGRAK01104</t>
         </is>
       </c>
     </row>
     <row r="50" ht="36" customHeight="1">
       <c r="A50" s="10" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
+          <t>EGR802190685</t>
         </is>
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
-          <t>TGR996542649, BGR173975960000, L213800G7J7NDXVAS3P11</t>
+          <t>BGR171775701000, TGR802190685</t>
         </is>
       </c>
       <c r="C50" s="11" t="n">
-        <v>45278</v>
+        <v>45134</v>
       </c>
       <c r="D50" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TRUST Μονοπρόσωπη Ανώνυμη Εταιρεία Διαχείρισης Αμοιβαίων Κεφαλαίων και Οργανισμών Εναλλακτικών Επενδύσεων</t>
+          <t>APEIRON VENTURES CAPITAL PARTNERS ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
       <c r="E50" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
+          <t>EGRAK01099</t>
         </is>
       </c>
       <c r="F50" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
+          <t>EGRAK01099</t>
         </is>
       </c>
     </row>
     <row r="51" ht="36" customHeight="1">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>EGRAEEAP012</t>
+          <t>EGRMFMC023</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>BGR174106158000, TGR996723817</t>
+          <t>L213800G7J7NDXVAS3P11, BGR173975960000, TGR996542649</t>
         </is>
       </c>
       <c r="C51" s="13" t="n">
-        <v>45287</v>
+        <v>45278</v>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ ΧΑΝΙΩΝ</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="inlineStr"/>
+          <t>ALPHA TRUST Μονοπρόσωπη Ανώνυμη Εταιρεία Διαχείρισης Αμοιβαίων Κεφαλαίων και Οργανισμών Εναλλακτικών Επενδύσεων</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
+        </is>
+      </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP012</t>
+          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
         </is>
       </c>
     </row>
     <row r="52" ht="36" customHeight="1">
       <c r="A52" s="10" t="inlineStr">
         <is>
+          <t>EGRAEEAP012</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>TGR996723817, BGR174106158000</t>
+        </is>
+      </c>
+      <c r="C52" s="11" t="n">
+        <v>45287</v>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
+        <is>
+          <t>ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ ΧΑΝΙΩΝ</t>
+        </is>
+      </c>
+      <c r="E52" s="6" t="inlineStr"/>
+      <c r="F52" s="6" t="inlineStr">
+        <is>
+          <t>EGRAEEAP012</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="36" customHeight="1">
+      <c r="A53" s="12" t="inlineStr">
+        <is>
           <t>EGR802458356</t>
         </is>
       </c>
-      <c r="B52" s="6" t="inlineStr">
-        <is>
-          <t>TGR802458356, BGR176733801000</t>
-        </is>
-      </c>
-      <c r="C52" s="11" t="n">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>BGR176733801000, TGR802458356</t>
+        </is>
+      </c>
+      <c r="C53" s="13" t="n">
         <v>45392</v>
       </c>
-      <c r="D52" s="6" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>CORALLIA VENTURES MANAGEMENT ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΔΙΑΧΕΙΡΙΣΗΣ ΑΜΟΙΒΑΙΩΝ ΚΕΦΑΛΑΙΩΝ ΕΠΙΧΕΙΡΗΜΑΤΙΚΩΝ ΣΥΜΜΕΤΟΧΩΝ</t>
         </is>
       </c>
-      <c r="E52" s="6" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr">
         <is>
           <t>EGRAK01102</t>
         </is>
       </c>
-      <c r="F52" s="6" t="inlineStr">
+      <c r="F53" s="4" t="inlineStr">
         <is>
           <t>EGRAK01102</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F52"/>
+  <autoFilter ref="A1:F53"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2762,7 +2792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I258"/>
+  <dimension ref="A1:I260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5175,7 +5205,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>L213800USGL7Q5UR9M221, TGR099759863, BGR003882701000</t>
+          <t>L213800USGL7Q5UR9M221, BGR003882701000, TGR099759863</t>
         </is>
       </c>
       <c r="C59" s="13" t="n">
@@ -5696,7 +5726,7 @@
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>TGR099554901, BGR003548801000, L213800U7SBKWW79CBG88</t>
+          <t>L213800U7SBKWW79CBG88, TGR099554901, BGR003548801000</t>
         </is>
       </c>
       <c r="C72" s="11" t="n">
@@ -6614,7 +6644,7 @@
       </c>
       <c r="H94" s="6" t="inlineStr">
         <is>
-          <t>IGRF000159001, IGRF000331006</t>
+          <t>IGRF000159001</t>
         </is>
       </c>
       <c r="I94" s="6" t="inlineStr"/>
@@ -7886,7 +7916,7 @@
       </c>
       <c r="B126" s="6" t="inlineStr">
         <is>
-          <t>TGR800397001, L213800QM2ZFRARYU6C87, BGR120108101000</t>
+          <t>L213800QM2ZFRARYU6C87, TGR800397001, BGR120108101000</t>
         </is>
       </c>
       <c r="C126" s="11" t="n">
@@ -8087,7 +8117,7 @@
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>BGR128686346000, TGR997656128, L213800Q23BDHSW1OQT90</t>
+          <t>TGR997656128, L213800Q23BDHSW1OQT90, BGR128686346000</t>
         </is>
       </c>
       <c r="C131" s="13" t="n">
@@ -8165,7 +8195,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>TGR800596087, BGR131359701000, L213800DDNBUCO6A2RT84</t>
+          <t>L213800DDNBUCO6A2RT84, TGR800596087, BGR131359701000</t>
         </is>
       </c>
       <c r="C133" s="13" t="n">
@@ -8329,7 +8359,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>BGR140330201000, L213800TBZBVWRUAOPV78, TGR997521479</t>
+          <t>L213800TBZBVWRUAOPV78, TGR997521479, BGR140330201000</t>
         </is>
       </c>
       <c r="C137" s="13" t="n">
@@ -8772,7 +8802,7 @@
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
-          <t>L213800DTEZE6R8BZ9K19, BGR148547901000, TGR801077433</t>
+          <t>L213800DTEZE6R8BZ9K19, TGR801077433, BGR148547901000</t>
         </is>
       </c>
       <c r="C148" s="11" t="n">
@@ -9535,7 +9565,7 @@
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>L2138006STLTDFRIZTC42, TGR996805731, BGR160110060000</t>
+          <t>L2138006STLTDFRIZTC42, BGR160110060000, TGR996805731</t>
         </is>
       </c>
       <c r="C167" s="13" t="n">
@@ -9818,7 +9848,7 @@
       </c>
       <c r="B174" s="6" t="inlineStr">
         <is>
-          <t>L213800MU91F1752AVM79, BGR000861301000, TGR094321237</t>
+          <t>TGR094321237, L213800MU91F1752AVM79, BGR000861301000</t>
         </is>
       </c>
       <c r="C174" s="11" t="n">
@@ -10037,17 +10067,17 @@
       </c>
       <c r="F179" s="4" t="inlineStr">
         <is>
-          <t>EGR800398384</t>
+          <t>EGR099757323</t>
         </is>
       </c>
       <c r="G179" s="4" t="inlineStr">
         <is>
-          <t>EGR800398384</t>
+          <t>EGR099757323</t>
         </is>
       </c>
       <c r="H179" s="4" t="inlineStr">
         <is>
-          <t>PEGRAK01057_SHR</t>
+          <t>IGRF000506003</t>
         </is>
       </c>
       <c r="I179" s="4" t="inlineStr"/>
@@ -11963,7 +11993,7 @@
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t>BGR174106158000, TGR996723817</t>
+          <t>TGR996723817, BGR174106158000</t>
         </is>
       </c>
       <c r="C227" s="13" t="n">
@@ -13243,8 +13273,82 @@
       </c>
       <c r="I258" s="6" t="inlineStr"/>
     </row>
+    <row r="259" ht="36" customHeight="1">
+      <c r="A259" s="12" t="inlineStr">
+        <is>
+          <t>EGRAK01108</t>
+        </is>
+      </c>
+      <c r="B259" s="4" t="inlineStr">
+        <is>
+          <t>L213800AYZH4V1M8L3W41</t>
+        </is>
+      </c>
+      <c r="C259" s="13" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D259" s="4" t="inlineStr">
+        <is>
+          <t>ΔΗΛΟΣ EXTRA INCOME VIII 24months - Ομολογιακό</t>
+        </is>
+      </c>
+      <c r="E259" s="4" t="inlineStr">
+        <is>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F259" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
+      <c r="G259" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
+      <c r="H259" s="4" t="inlineStr"/>
+      <c r="I259" s="4" t="inlineStr"/>
+    </row>
+    <row r="260" ht="36" customHeight="1">
+      <c r="A260" s="10" t="inlineStr">
+        <is>
+          <t>EGRAK01109</t>
+        </is>
+      </c>
+      <c r="B260" s="6" t="inlineStr">
+        <is>
+          <t>L213800RPKB4M79UR6U37</t>
+        </is>
+      </c>
+      <c r="C260" s="11" t="n">
+        <v>45604</v>
+      </c>
+      <c r="D260" s="6" t="inlineStr">
+        <is>
+          <t>ALPHA TARGET MATURITY ΙΧ 2029 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+        </is>
+      </c>
+      <c r="E260" s="6" t="inlineStr">
+        <is>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F260" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
+      <c r="G260" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
+      <c r="H260" s="6" t="inlineStr"/>
+      <c r="I260" s="6" t="inlineStr"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I258"/>
+  <autoFilter ref="A1:I260"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -13255,7 +13359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D342"/>
+  <dimension ref="A1:D341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -16116,27 +16220,27 @@
     <row r="143" ht="36" customHeight="1">
       <c r="A143" s="12" t="inlineStr">
         <is>
-          <t>IGRF000331006</t>
+          <t>IGRF000099009</t>
         </is>
       </c>
       <c r="B143" s="13" t="n">
-        <v>38817</v>
+        <v>38847</v>
       </c>
       <c r="C143" s="4" t="inlineStr">
         <is>
-          <t>EUROPEAN RELIANCE Global Opportunities Foreign Equity Fund (I2)</t>
+          <t>PIRAEUS EUROZONE EQUITY MUTUAL FUND (R)</t>
         </is>
       </c>
       <c r="D143" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00429</t>
+          <t>EGRAK00450</t>
         </is>
       </c>
     </row>
     <row r="144" ht="36" customHeight="1">
       <c r="A144" s="10" t="inlineStr">
         <is>
-          <t>IGRF000099009</t>
+          <t>IGRF000245008</t>
         </is>
       </c>
       <c r="B144" s="11" t="n">
@@ -16144,7 +16248,7 @@
       </c>
       <c r="C144" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS EUROZONE EQUITY MUTUAL FUND (R)</t>
+          <t>PIRAEUS  EUROZONE EQUITY FUND (I)</t>
         </is>
       </c>
       <c r="D144" s="6" t="inlineStr">
@@ -16156,7 +16260,7 @@
     <row r="145" ht="36" customHeight="1">
       <c r="A145" s="12" t="inlineStr">
         <is>
-          <t>IGRF000245008</t>
+          <t>IGRF000247004</t>
         </is>
       </c>
       <c r="B145" s="13" t="n">
@@ -16164,7 +16268,7 @@
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS  EUROZONE EQUITY FUND (I)</t>
+          <t>PIRAEUS  EUROZONE EQUITY FUND (U)</t>
         </is>
       </c>
       <c r="D145" s="4" t="inlineStr">
@@ -16176,27 +16280,27 @@
     <row r="146" ht="36" customHeight="1">
       <c r="A146" s="10" t="inlineStr">
         <is>
-          <t>IGRF000247004</t>
+          <t>IGRF000029006</t>
         </is>
       </c>
       <c r="B146" s="11" t="n">
-        <v>38847</v>
+        <v>38867</v>
       </c>
       <c r="C146" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS  EUROZONE EQUITY FUND (U)</t>
+          <t>DELOS Synthesis Best Blue Bond Fund of Funds</t>
         </is>
       </c>
       <c r="D146" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00450</t>
+          <t>EGRAK00115</t>
         </is>
       </c>
     </row>
     <row r="147" ht="36" customHeight="1">
       <c r="A147" s="12" t="inlineStr">
         <is>
-          <t>IGRF000029006</t>
+          <t>IGRF000036001</t>
         </is>
       </c>
       <c r="B147" s="13" t="n">
@@ -16204,19 +16308,19 @@
       </c>
       <c r="C147" s="4" t="inlineStr">
         <is>
-          <t>DELOS Synthesis Best Blue Bond Fund of Funds</t>
+          <t>DELOS SYNTHESIS BEST YELLOW ESG - BALANCED FUND OF FUNDS</t>
         </is>
       </c>
       <c r="D147" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00115</t>
+          <t>EGRAK00117</t>
         </is>
       </c>
     </row>
     <row r="148" ht="36" customHeight="1">
       <c r="A148" s="10" t="inlineStr">
         <is>
-          <t>IGRF000036001</t>
+          <t>IGRF000045002</t>
         </is>
       </c>
       <c r="B148" s="11" t="n">
@@ -16229,54 +16333,54 @@
       </c>
       <c r="D148" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00117</t>
+          <t>EGRAK00118</t>
         </is>
       </c>
     </row>
     <row r="149" ht="36" customHeight="1">
       <c r="A149" s="12" t="inlineStr">
         <is>
-          <t>IGRF000045002</t>
+          <t>IGRF000030004</t>
         </is>
       </c>
       <c r="B149" s="13" t="n">
-        <v>38867</v>
+        <v>38868</v>
       </c>
       <c r="C149" s="4" t="inlineStr">
         <is>
-          <t>DELOS SYNTHESIS BEST YELLOW ESG - BALANCED FUND OF FUNDS</t>
+          <t>DELOS Dollar (USD) Foreign Bond Fund</t>
         </is>
       </c>
       <c r="D149" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00118</t>
+          <t>EGRAK00261</t>
         </is>
       </c>
     </row>
     <row r="150" ht="36" customHeight="1">
       <c r="A150" s="10" t="inlineStr">
         <is>
-          <t>IGRF000030004</t>
+          <t>IGRF000212008</t>
         </is>
       </c>
       <c r="B150" s="11" t="n">
-        <v>38868</v>
+        <v>38873</v>
       </c>
       <c r="C150" s="6" t="inlineStr">
         <is>
-          <t>DELOS Dollar (USD) Foreign Bond Fund</t>
+          <t>ALPHA GLOBAL ALLOCATION BALANCED FUND Classic</t>
         </is>
       </c>
       <c r="D150" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00261</t>
+          <t>EGRAK00840</t>
         </is>
       </c>
     </row>
     <row r="151" ht="36" customHeight="1">
       <c r="A151" s="12" t="inlineStr">
         <is>
-          <t>IGRF000212008</t>
+          <t>IGRF000213006</t>
         </is>
       </c>
       <c r="B151" s="13" t="n">
@@ -16284,7 +16388,7 @@
       </c>
       <c r="C151" s="4" t="inlineStr">
         <is>
-          <t>ALPHA GLOBAL ALLOCATION BALANCED FUND Classic</t>
+          <t>ALPHA GLOBAL ALLOCATION BALANCED FUND Institutional</t>
         </is>
       </c>
       <c r="D151" s="4" t="inlineStr">
@@ -16296,7 +16400,7 @@
     <row r="152" ht="36" customHeight="1">
       <c r="A152" s="10" t="inlineStr">
         <is>
-          <t>IGRF000213006</t>
+          <t>IGRF000381001</t>
         </is>
       </c>
       <c r="B152" s="11" t="n">
@@ -16304,7 +16408,7 @@
       </c>
       <c r="C152" s="6" t="inlineStr">
         <is>
-          <t>ALPHA GLOBAL ALLOCATION BALANCED FUND Institutional</t>
+          <t>ALPHA GLOBAL ALLOCATION BALANCED FUND Classic D</t>
         </is>
       </c>
       <c r="D152" s="6" t="inlineStr">
@@ -16316,67 +16420,67 @@
     <row r="153" ht="36" customHeight="1">
       <c r="A153" s="12" t="inlineStr">
         <is>
-          <t>IGRF000381001</t>
+          <t>IGRF000289006</t>
         </is>
       </c>
       <c r="B153" s="13" t="n">
-        <v>38873</v>
+        <v>38902</v>
       </c>
       <c r="C153" s="4" t="inlineStr">
         <is>
-          <t>ALPHA GLOBAL ALLOCATION BALANCED FUND Classic D</t>
+          <t>NN EUROPEAN GOVERNMENT BONDS</t>
         </is>
       </c>
       <c r="D153" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00840</t>
+          <t>EGRAK00211</t>
         </is>
       </c>
     </row>
     <row r="154" ht="36" customHeight="1">
       <c r="A154" s="10" t="inlineStr">
         <is>
-          <t>IGRF000289006</t>
+          <t>IGRF000291002</t>
         </is>
       </c>
       <c r="B154" s="11" t="n">
-        <v>38902</v>
+        <v>39064</v>
       </c>
       <c r="C154" s="6" t="inlineStr">
         <is>
-          <t>NN EUROPEAN GOVERNMENT BONDS</t>
+          <t>N FUND OF FUNDS EUROPEAN EQUITY FUNDS</t>
         </is>
       </c>
       <c r="D154" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00211</t>
+          <t>EGRAK00122</t>
         </is>
       </c>
     </row>
     <row r="155" ht="36" customHeight="1">
       <c r="A155" s="12" t="inlineStr">
         <is>
-          <t>IGRF000291002</t>
+          <t>IGRF000094000</t>
         </is>
       </c>
       <c r="B155" s="13" t="n">
-        <v>39064</v>
+        <v>39098</v>
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t>N FUND OF FUNDS EUROPEAN EQUITY FUNDS</t>
+          <t>PIRAEUS BOND FUND OF FUNDS (R)</t>
         </is>
       </c>
       <c r="D155" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00122</t>
+          <t>EGRAK00124</t>
         </is>
       </c>
     </row>
     <row r="156" ht="36" customHeight="1">
       <c r="A156" s="10" t="inlineStr">
         <is>
-          <t>IGRF000094000</t>
+          <t>IGRF000095007</t>
         </is>
       </c>
       <c r="B156" s="11" t="n">
@@ -16384,19 +16488,19 @@
       </c>
       <c r="C156" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS BOND FUND OF FUNDS (R)</t>
+          <t>PIRAEUS EQUITY FUND OF FUNDS (R)</t>
         </is>
       </c>
       <c r="D156" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00124</t>
+          <t>EGRAK00125</t>
         </is>
       </c>
     </row>
     <row r="157" ht="36" customHeight="1">
       <c r="A157" s="12" t="inlineStr">
         <is>
-          <t>IGRF000095007</t>
+          <t>IGRF000110004</t>
         </is>
       </c>
       <c r="B157" s="13" t="n">
@@ -16404,19 +16508,19 @@
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS EQUITY FUND OF FUNDS (R)</t>
+          <t>PIRAEUS INCOME BALANCED FUND (I)</t>
         </is>
       </c>
       <c r="D157" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00125</t>
+          <t>EGRAK00848</t>
         </is>
       </c>
     </row>
     <row r="158" ht="36" customHeight="1">
       <c r="A158" s="10" t="inlineStr">
         <is>
-          <t>IGRF000110004</t>
+          <t>IGRF000250008</t>
         </is>
       </c>
       <c r="B158" s="11" t="n">
@@ -16424,19 +16528,19 @@
       </c>
       <c r="C158" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS INCOME BALANCED FUND (I)</t>
+          <t>PIRAEUS EQUITY FUND OF FUNDS (I)</t>
         </is>
       </c>
       <c r="D158" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00848</t>
+          <t>EGRAK00125</t>
         </is>
       </c>
     </row>
     <row r="159" ht="36" customHeight="1">
       <c r="A159" s="12" t="inlineStr">
         <is>
-          <t>IGRF000250008</t>
+          <t>IGRF000254000</t>
         </is>
       </c>
       <c r="B159" s="13" t="n">
@@ -16444,19 +16548,19 @@
       </c>
       <c r="C159" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS EQUITY FUND OF FUNDS (I)</t>
+          <t>PIRAEUS BOND FUND OF FUNDS (I)</t>
         </is>
       </c>
       <c r="D159" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00125</t>
+          <t>EGRAK00124</t>
         </is>
       </c>
     </row>
     <row r="160" ht="36" customHeight="1">
       <c r="A160" s="10" t="inlineStr">
         <is>
-          <t>IGRF000254000</t>
+          <t>IGRF000328002</t>
         </is>
       </c>
       <c r="B160" s="11" t="n">
@@ -16464,39 +16568,39 @@
       </c>
       <c r="C160" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS BOND FUND OF FUNDS (I)</t>
+          <t>PIRAEUS INCOME BALANCED FUND (R)</t>
         </is>
       </c>
       <c r="D160" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00124</t>
+          <t>EGRAK00848</t>
         </is>
       </c>
     </row>
     <row r="161" ht="36" customHeight="1">
       <c r="A161" s="12" t="inlineStr">
         <is>
-          <t>IGRF000328002</t>
+          <t>IGRF000098001</t>
         </is>
       </c>
       <c r="B161" s="13" t="n">
-        <v>39098</v>
+        <v>39135</v>
       </c>
       <c r="C161" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS INCOME BALANCED FUND (R)</t>
+          <t>PIRAEUS ESG RESPONSIBLE INVESTING BALANCED FUND OF FUNDS (R)</t>
         </is>
       </c>
       <c r="D161" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00848</t>
+          <t>EGRAK00139</t>
         </is>
       </c>
     </row>
     <row r="162" ht="36" customHeight="1">
       <c r="A162" s="10" t="inlineStr">
         <is>
-          <t>IGRF000098001</t>
+          <t>IGRF000252004</t>
         </is>
       </c>
       <c r="B162" s="11" t="n">
@@ -16504,7 +16608,7 @@
       </c>
       <c r="C162" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS ESG RESPONSIBLE INVESTING BALANCED FUND OF FUNDS (R)</t>
+          <t>PIRAEUS ESG RESPONSIBLE INVESTING BALANCED FUND OF FUNDS (I)</t>
         </is>
       </c>
       <c r="D162" s="6" t="inlineStr">
@@ -16516,271 +16620,271 @@
     <row r="163" ht="36" customHeight="1">
       <c r="A163" s="12" t="inlineStr">
         <is>
-          <t>IGRF000252004</t>
+          <t>PEGRAK01062_SHR</t>
         </is>
       </c>
       <c r="B163" s="13" t="n">
-        <v>39135</v>
-      </c>
-      <c r="C163" s="4" t="inlineStr">
-        <is>
-          <t>PIRAEUS ESG RESPONSIBLE INVESTING BALANCED FUND OF FUNDS (I)</t>
-        </is>
-      </c>
+        <v>39200</v>
+      </c>
+      <c r="C163" s="4" t="inlineStr"/>
       <c r="D163" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00139</t>
+          <t>EGRAK01062</t>
         </is>
       </c>
     </row>
     <row r="164" ht="36" customHeight="1">
       <c r="A164" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01062_SHR</t>
+          <t>IGRF000014008</t>
         </is>
       </c>
       <c r="B164" s="11" t="n">
-        <v>39200</v>
-      </c>
-      <c r="C164" s="6" t="inlineStr"/>
+        <v>39260</v>
+      </c>
+      <c r="C164" s="6" t="inlineStr">
+        <is>
+          <t>DELOS Fixed Income Plus - Bond</t>
+        </is>
+      </c>
       <c r="D164" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01062</t>
+          <t>EGRAK00909</t>
         </is>
       </c>
     </row>
     <row r="165" ht="36" customHeight="1">
       <c r="A165" s="12" t="inlineStr">
         <is>
-          <t>IGRF000014008</t>
+          <t>IGRF000295003</t>
         </is>
       </c>
       <c r="B165" s="13" t="n">
-        <v>39260</v>
+        <v>39287</v>
       </c>
       <c r="C165" s="4" t="inlineStr">
         <is>
-          <t>DELOS Fixed Income Plus - Bond</t>
+          <t>GMM WORLD BALANCED FUND</t>
         </is>
       </c>
       <c r="D165" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00909</t>
+          <t>EGRAK00835</t>
         </is>
       </c>
     </row>
     <row r="166" ht="36" customHeight="1">
       <c r="A166" s="10" t="inlineStr">
         <is>
-          <t>IGRF000295003</t>
+          <t>IGRS509003018</t>
         </is>
       </c>
       <c r="B166" s="11" t="n">
-        <v>39287</v>
+        <v>39321</v>
       </c>
       <c r="C166" s="6" t="inlineStr">
         <is>
-          <t>GMM WORLD BALANCED FUND</t>
+          <t xml:space="preserve">NBG PANGAEA REAL ESTATE INVESTMENT COMPANY - COMMON REGISTERED(WITH VOTE) </t>
         </is>
       </c>
       <c r="D166" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00835</t>
+          <t>EGRAEEAP003</t>
         </is>
       </c>
     </row>
     <row r="167" ht="36" customHeight="1">
       <c r="A167" s="12" t="inlineStr">
         <is>
-          <t>IGRS509003018</t>
+          <t>IGRF000153004</t>
         </is>
       </c>
       <c r="B167" s="13" t="n">
-        <v>39321</v>
+        <v>39471</v>
       </c>
       <c r="C167" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">NBG PANGAEA REAL ESTATE INVESTMENT COMPANY - COMMON REGISTERED(WITH VOTE) </t>
+          <t>ALPHA ETF FTSE Athex Large Cap Equity Ucits</t>
         </is>
       </c>
       <c r="D167" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP003</t>
+          <t>EGRAK00780</t>
         </is>
       </c>
     </row>
     <row r="168" ht="36" customHeight="1">
       <c r="A168" s="10" t="inlineStr">
         <is>
-          <t>IGRF000153004</t>
+          <t>IGRF000084001</t>
         </is>
       </c>
       <c r="B168" s="11" t="n">
-        <v>39471</v>
+        <v>39533</v>
       </c>
       <c r="C168" s="6" t="inlineStr">
         <is>
-          <t>ALPHA ETF FTSE Athex Large Cap Equity Ucits</t>
+          <t>N.P. Insurance, New Posidon Balanced</t>
         </is>
       </c>
       <c r="D168" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00780</t>
+          <t>EGRAK00856</t>
         </is>
       </c>
     </row>
     <row r="169" ht="36" customHeight="1">
       <c r="A169" s="12" t="inlineStr">
         <is>
-          <t>IGRF000084001</t>
+          <t>IGRF000336005</t>
         </is>
       </c>
       <c r="B169" s="13" t="n">
-        <v>39533</v>
+        <v>39534</v>
       </c>
       <c r="C169" s="4" t="inlineStr">
         <is>
-          <t>N.P. Insurance, New Posidon Balanced</t>
+          <t>Optima premium selection fund of funds equity</t>
         </is>
       </c>
       <c r="D169" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00856</t>
+          <t>EGRAK00131</t>
         </is>
       </c>
     </row>
     <row r="170" ht="36" customHeight="1">
       <c r="A170" s="10" t="inlineStr">
         <is>
-          <t>IGRF000336005</t>
+          <t>IGRF000444007</t>
         </is>
       </c>
       <c r="B170" s="11" t="n">
-        <v>39534</v>
+        <v>39538</v>
       </c>
       <c r="C170" s="6" t="inlineStr">
         <is>
-          <t>Optima premium selection fund of funds equity</t>
+          <t>ALPHA MELLON BALANCED FUND S</t>
         </is>
       </c>
       <c r="D170" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00131</t>
+          <t>EGRAK00902</t>
         </is>
       </c>
     </row>
     <row r="171" ht="36" customHeight="1">
       <c r="A171" s="12" t="inlineStr">
         <is>
-          <t>IGRF000444007</t>
+          <t>PEGRAK90014_SHR</t>
         </is>
       </c>
       <c r="B171" s="13" t="n">
-        <v>39538</v>
-      </c>
-      <c r="C171" s="4" t="inlineStr">
-        <is>
-          <t>ALPHA MELLON BALANCED FUND S</t>
-        </is>
-      </c>
+        <v>39601</v>
+      </c>
+      <c r="C171" s="4" t="inlineStr"/>
       <c r="D171" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00902</t>
+          <t>EGRAK90014</t>
         </is>
       </c>
     </row>
     <row r="172" ht="36" customHeight="1">
       <c r="A172" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK90014_SHR</t>
+          <t>IGRF000067006</t>
         </is>
       </c>
       <c r="B172" s="11" t="n">
-        <v>39601</v>
-      </c>
-      <c r="C172" s="6" t="inlineStr"/>
+        <v>39667</v>
+      </c>
+      <c r="C172" s="6" t="inlineStr">
+        <is>
+          <t>The Economists' Occupational Pension Balanced Fund</t>
+        </is>
+      </c>
       <c r="D172" s="6" t="inlineStr">
         <is>
-          <t>EGRAK90014</t>
+          <t>EGRAK00850</t>
         </is>
       </c>
     </row>
     <row r="173" ht="36" customHeight="1">
       <c r="A173" s="12" t="inlineStr">
         <is>
-          <t>IGRF000067006</t>
+          <t>IGRF000339009</t>
         </is>
       </c>
       <c r="B173" s="13" t="n">
-        <v>39667</v>
+        <v>39715</v>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>The Economists' Occupational Pension Balanced Fund</t>
+          <t>Alpha Bancassurance EE102 Structured Fund</t>
         </is>
       </c>
       <c r="D173" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00850</t>
+          <t>EGRAK00903</t>
         </is>
       </c>
     </row>
     <row r="174" ht="36" customHeight="1">
       <c r="A174" s="10" t="inlineStr">
         <is>
-          <t>IGRF000339009</t>
+          <t>PEGRAK90005_SHR</t>
         </is>
       </c>
       <c r="B174" s="11" t="n">
-        <v>39715</v>
-      </c>
-      <c r="C174" s="6" t="inlineStr">
-        <is>
-          <t>Alpha Bancassurance EE102 Structured Fund</t>
-        </is>
-      </c>
+        <v>39801</v>
+      </c>
+      <c r="C174" s="6" t="inlineStr"/>
       <c r="D174" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00903</t>
+          <t>EGRAK90005</t>
         </is>
       </c>
     </row>
     <row r="175" ht="36" customHeight="1">
       <c r="A175" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK90005_SHR</t>
+          <t>PEGRAK90012_SHR</t>
         </is>
       </c>
       <c r="B175" s="13" t="n">
-        <v>39801</v>
+        <v>39811</v>
       </c>
       <c r="C175" s="4" t="inlineStr"/>
       <c r="D175" s="4" t="inlineStr">
         <is>
-          <t>EGRAK90005</t>
+          <t>EGRAK90012</t>
         </is>
       </c>
     </row>
     <row r="176" ht="36" customHeight="1">
       <c r="A176" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK90012_SHR</t>
+          <t>IGRF000298007</t>
         </is>
       </c>
       <c r="B176" s="11" t="n">
-        <v>39811</v>
-      </c>
-      <c r="C176" s="6" t="inlineStr"/>
+        <v>39995</v>
+      </c>
+      <c r="C176" s="6" t="inlineStr">
+        <is>
+          <t>NN DEVELOPED EQUITY MARKETS</t>
+        </is>
+      </c>
       <c r="D176" s="6" t="inlineStr">
         <is>
-          <t>EGRAK90012</t>
+          <t>EGRAK00519</t>
         </is>
       </c>
     </row>
     <row r="177" ht="36" customHeight="1">
       <c r="A177" s="12" t="inlineStr">
         <is>
-          <t>IGRF000298007</t>
+          <t>IGRF000416005</t>
         </is>
       </c>
       <c r="B177" s="13" t="n">
@@ -16788,7 +16892,7 @@
       </c>
       <c r="C177" s="4" t="inlineStr">
         <is>
-          <t>NN DEVELOPED EQUITY MARKETS</t>
+          <t>NN DEVELOPED EQUITY MARKETS (N)</t>
         </is>
       </c>
       <c r="D177" s="4" t="inlineStr">
@@ -16800,63 +16904,63 @@
     <row r="178" ht="36" customHeight="1">
       <c r="A178" s="10" t="inlineStr">
         <is>
-          <t>IGRF000416005</t>
+          <t>PEGRAK01061_SHR</t>
         </is>
       </c>
       <c r="B178" s="11" t="n">
-        <v>39995</v>
-      </c>
-      <c r="C178" s="6" t="inlineStr">
-        <is>
-          <t>NN DEVELOPED EQUITY MARKETS (N)</t>
-        </is>
-      </c>
+        <v>40087</v>
+      </c>
+      <c r="C178" s="6" t="inlineStr"/>
       <c r="D178" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00519</t>
+          <t>EGRAK01061</t>
         </is>
       </c>
     </row>
     <row r="179" ht="36" customHeight="1">
       <c r="A179" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01061_SHR</t>
+          <t>IGRF000068004</t>
         </is>
       </c>
       <c r="B179" s="13" t="n">
-        <v>40087</v>
-      </c>
-      <c r="C179" s="4" t="inlineStr"/>
+        <v>40353</v>
+      </c>
+      <c r="C179" s="4" t="inlineStr">
+        <is>
+          <t>S&amp;B PENSION Global Equity Fund of Funds</t>
+        </is>
+      </c>
       <c r="D179" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01061</t>
+          <t>EGRAK00106</t>
         </is>
       </c>
     </row>
     <row r="180" ht="36" customHeight="1">
       <c r="A180" s="10" t="inlineStr">
         <is>
-          <t>IGRF000068004</t>
+          <t>IGRF000061009</t>
         </is>
       </c>
       <c r="B180" s="11" t="n">
-        <v>40353</v>
+        <v>40507</v>
       </c>
       <c r="C180" s="6" t="inlineStr">
         <is>
-          <t>S&amp;B PENSION Global Equity Fund of Funds</t>
+          <t>ALPHA TRUST Global Leaders Foreign Equity Fund - R</t>
         </is>
       </c>
       <c r="D180" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00106</t>
+          <t>EGRAK00443</t>
         </is>
       </c>
     </row>
     <row r="181" ht="36" customHeight="1">
       <c r="A181" s="12" t="inlineStr">
         <is>
-          <t>IGRF000061009</t>
+          <t>IGRF000327004</t>
         </is>
       </c>
       <c r="B181" s="13" t="n">
@@ -16864,7 +16968,7 @@
       </c>
       <c r="C181" s="4" t="inlineStr">
         <is>
-          <t>ALPHA TRUST Global Leaders Foreign Equity Fund - R</t>
+          <t>ALPHA TRUST Global Leaders Foreign Equity Fund - I</t>
         </is>
       </c>
       <c r="D181" s="4" t="inlineStr">
@@ -16876,47 +16980,47 @@
     <row r="182" ht="36" customHeight="1">
       <c r="A182" s="10" t="inlineStr">
         <is>
-          <t>IGRF000327004</t>
+          <t>IGRF000335007</t>
         </is>
       </c>
       <c r="B182" s="11" t="n">
-        <v>40507</v>
+        <v>40644</v>
       </c>
       <c r="C182" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TRUST Global Leaders Foreign Equity Fund - I</t>
+          <t>OPTIMA GLOBAL SELECTION FUND OF FUNDS BALANCED (R)</t>
         </is>
       </c>
       <c r="D182" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00443</t>
+          <t>EGRAK00129</t>
         </is>
       </c>
     </row>
     <row r="183" ht="36" customHeight="1">
       <c r="A183" s="12" t="inlineStr">
         <is>
-          <t>IGRF000335007</t>
+          <t>IGRF000063005</t>
         </is>
       </c>
       <c r="B183" s="13" t="n">
-        <v>40644</v>
+        <v>40735</v>
       </c>
       <c r="C183" s="4" t="inlineStr">
         <is>
-          <t>OPTIMA GLOBAL SELECTION FUND OF FUNDS BALANCED (R)</t>
+          <t>ALPHA TRUST Strategic Bond Fund - R</t>
         </is>
       </c>
       <c r="D183" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00129</t>
+          <t>EGRAK00205</t>
         </is>
       </c>
     </row>
     <row r="184" ht="36" customHeight="1">
       <c r="A184" s="10" t="inlineStr">
         <is>
-          <t>IGRF000063005</t>
+          <t>IGRF000305000</t>
         </is>
       </c>
       <c r="B184" s="11" t="n">
@@ -16924,7 +17028,7 @@
       </c>
       <c r="C184" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TRUST Strategic Bond Fund - R</t>
+          <t>ALPHA TRUST STRATEGIC BOND FUND - I</t>
         </is>
       </c>
       <c r="D184" s="6" t="inlineStr">
@@ -16936,27 +17040,27 @@
     <row r="185" ht="36" customHeight="1">
       <c r="A185" s="12" t="inlineStr">
         <is>
-          <t>IGRF000305000</t>
+          <t>IGRF000112000</t>
         </is>
       </c>
       <c r="B185" s="13" t="n">
-        <v>40735</v>
+        <v>40815</v>
       </c>
       <c r="C185" s="4" t="inlineStr">
         <is>
-          <t>ALPHA TRUST STRATEGIC BOND FUND - I</t>
+          <t>PIRAEUS SHORT-TERM VARIABLE NET ASSET VALUE MONEY MARKET FUND (R)</t>
         </is>
       </c>
       <c r="D185" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00205</t>
+          <t>EGRAK00003</t>
         </is>
       </c>
     </row>
     <row r="186" ht="36" customHeight="1">
       <c r="A186" s="10" t="inlineStr">
         <is>
-          <t>IGRF000112000</t>
+          <t>IGRF000258001</t>
         </is>
       </c>
       <c r="B186" s="11" t="n">
@@ -16964,7 +17068,7 @@
       </c>
       <c r="C186" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS SHORT-TERM VARIABLE NET ASSET VALUE MONEY MARKET FUND (R)</t>
+          <t>PIRAEUS SHORT-TERM VARIABLE NET ASSET VALUE MONEY MARKET FUND (I)</t>
         </is>
       </c>
       <c r="D186" s="6" t="inlineStr">
@@ -16976,219 +17080,219 @@
     <row r="187" ht="36" customHeight="1">
       <c r="A187" s="12" t="inlineStr">
         <is>
-          <t>IGRF000258001</t>
+          <t>IGRS516003001</t>
         </is>
       </c>
       <c r="B187" s="13" t="n">
-        <v>40815</v>
+        <v>40980</v>
       </c>
       <c r="C187" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS SHORT-TERM VARIABLE NET ASSET VALUE MONEY MARKET FUND (I)</t>
+          <t>INTERCONTINENTAL INTERNATIONAL REAL ESTATE INVEST - COMMON REGISTERED(WITH VOTE)</t>
         </is>
       </c>
       <c r="D187" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00003</t>
+          <t>EGRAEEAP005</t>
         </is>
       </c>
     </row>
     <row r="188" ht="36" customHeight="1">
       <c r="A188" s="10" t="inlineStr">
         <is>
-          <t>IGRS516003001</t>
+          <t>PEGRAK90007_SHR</t>
         </is>
       </c>
       <c r="B188" s="11" t="n">
-        <v>40980</v>
-      </c>
-      <c r="C188" s="6" t="inlineStr">
-        <is>
-          <t>INTERCONTINENTAL INTERNATIONAL REAL ESTATE INVEST - COMMON REGISTERED(WITH VOTE)</t>
-        </is>
-      </c>
+        <v>41180</v>
+      </c>
+      <c r="C188" s="6" t="inlineStr"/>
       <c r="D188" s="6" t="inlineStr">
         <is>
-          <t>EGRAEEAP005</t>
+          <t>EGRAK90007</t>
         </is>
       </c>
     </row>
     <row r="189" ht="36" customHeight="1">
       <c r="A189" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK90007_SHR</t>
+          <t>PEGRAK90006_SHR</t>
         </is>
       </c>
       <c r="B189" s="13" t="n">
-        <v>41180</v>
+        <v>41254</v>
       </c>
       <c r="C189" s="4" t="inlineStr"/>
       <c r="D189" s="4" t="inlineStr">
         <is>
-          <t>EGRAK90007</t>
+          <t>EGRAK90006</t>
         </is>
       </c>
     </row>
     <row r="190" ht="36" customHeight="1">
       <c r="A190" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK90006_SHR</t>
+          <t>IGRF000081007</t>
         </is>
       </c>
       <c r="B190" s="11" t="n">
-        <v>41254</v>
-      </c>
-      <c r="C190" s="6" t="inlineStr"/>
+        <v>41456</v>
+      </c>
+      <c r="C190" s="6" t="inlineStr">
+        <is>
+          <t>TEA INTERAMERICAN Global Balanced Fund of Funds</t>
+        </is>
+      </c>
       <c r="D190" s="6" t="inlineStr">
         <is>
-          <t>EGRAK90006</t>
+          <t>EGRAK00135</t>
         </is>
       </c>
     </row>
     <row r="191" ht="36" customHeight="1">
       <c r="A191" s="12" t="inlineStr">
         <is>
-          <t>IGRF000081007</t>
+          <t>IGRF000215001</t>
         </is>
       </c>
       <c r="B191" s="13" t="n">
-        <v>41456</v>
+        <v>41646</v>
       </c>
       <c r="C191" s="4" t="inlineStr">
         <is>
-          <t>TEA INTERAMERICAN Global Balanced Fund of Funds</t>
+          <t>Petrochemical Companies Occupational Pension Fund Global Balanced</t>
         </is>
       </c>
       <c r="D191" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00135</t>
+          <t>EGRAK00889</t>
         </is>
       </c>
     </row>
     <row r="192" ht="36" customHeight="1">
       <c r="A192" s="10" t="inlineStr">
         <is>
-          <t>IGRF000215001</t>
+          <t>IGRS524003001</t>
         </is>
       </c>
       <c r="B192" s="11" t="n">
-        <v>41646</v>
+        <v>41657</v>
       </c>
       <c r="C192" s="6" t="inlineStr">
         <is>
-          <t>Petrochemical Companies Occupational Pension Fund Global Balanced</t>
+          <t xml:space="preserve">SHARES </t>
         </is>
       </c>
       <c r="D192" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00889</t>
+          <t>EGRAEEAP007</t>
         </is>
       </c>
     </row>
     <row r="193" ht="36" customHeight="1">
       <c r="A193" s="12" t="inlineStr">
         <is>
-          <t>IGRS524003001</t>
+          <t>IGRF000475001</t>
         </is>
       </c>
       <c r="B193" s="13" t="n">
-        <v>41657</v>
+        <v>41699</v>
       </c>
       <c r="C193" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHARES </t>
+          <t>DELOS EXTRA INCOME III 24months - Bond Fund</t>
         </is>
       </c>
       <c r="D193" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP007</t>
+          <t>EGRAK01083</t>
         </is>
       </c>
     </row>
     <row r="194" ht="36" customHeight="1">
       <c r="A194" s="10" t="inlineStr">
         <is>
-          <t>IGRF000475001</t>
+          <t>IGRF000093002</t>
         </is>
       </c>
       <c r="B194" s="11" t="n">
-        <v>41699</v>
+        <v>41823</v>
       </c>
       <c r="C194" s="6" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME III 24months - Bond Fund</t>
+          <t>DELOS Greek Growth - Bond Fund</t>
         </is>
       </c>
       <c r="D194" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01083</t>
+          <t>EGRAK00296</t>
         </is>
       </c>
     </row>
     <row r="195" ht="36" customHeight="1">
       <c r="A195" s="12" t="inlineStr">
         <is>
-          <t>IGRF000093002</t>
+          <t>IGRF000214004</t>
         </is>
       </c>
       <c r="B195" s="13" t="n">
-        <v>41823</v>
+        <v>41843</v>
       </c>
       <c r="C195" s="4" t="inlineStr">
         <is>
-          <t>DELOS Greek Growth - Bond Fund</t>
+          <t>DYNAMIS Global Balanced Fund</t>
         </is>
       </c>
       <c r="D195" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00296</t>
+          <t>EGRAK00891</t>
         </is>
       </c>
     </row>
     <row r="196" ht="36" customHeight="1">
       <c r="A196" s="10" t="inlineStr">
         <is>
-          <t>IGRF000214004</t>
+          <t>IGRS520003005</t>
         </is>
       </c>
       <c r="B196" s="11" t="n">
-        <v>41843</v>
+        <v>41850</v>
       </c>
       <c r="C196" s="6" t="inlineStr">
         <is>
-          <t>DYNAMIS Global Balanced Fund</t>
+          <t>SHARES - COMMON REGISTERED WITH RIGHT TO VOTE</t>
         </is>
       </c>
       <c r="D196" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00891</t>
+          <t>EGREKES001</t>
         </is>
       </c>
     </row>
     <row r="197" ht="36" customHeight="1">
       <c r="A197" s="12" t="inlineStr">
         <is>
-          <t>IGRS520003005</t>
+          <t>IGRF000135001</t>
         </is>
       </c>
       <c r="B197" s="13" t="n">
-        <v>41850</v>
+        <v>42150</v>
       </c>
       <c r="C197" s="4" t="inlineStr">
         <is>
-          <t>SHARES - COMMON REGISTERED WITH RIGHT TO VOTE</t>
+          <t>3K A/K Greek Value Domestic Equity Fund</t>
         </is>
       </c>
       <c r="D197" s="4" t="inlineStr">
         <is>
-          <t>EGREKES001</t>
+          <t>EGRAK03186</t>
         </is>
       </c>
     </row>
     <row r="198" ht="36" customHeight="1">
       <c r="A198" s="10" t="inlineStr">
         <is>
-          <t>IGRF000135001</t>
+          <t>IGRF000136009</t>
         </is>
       </c>
       <c r="B198" s="11" t="n">
@@ -17196,7 +17300,7 @@
       </c>
       <c r="C198" s="6" t="inlineStr">
         <is>
-          <t>3K A/K Greek Value Domestic Equity Fund</t>
+          <t>Unit Class for Institutional Investors (I) - 3K Greek Value Domestic Equity</t>
         </is>
       </c>
       <c r="D198" s="6" t="inlineStr">
@@ -17208,67 +17312,67 @@
     <row r="199" ht="36" customHeight="1">
       <c r="A199" s="12" t="inlineStr">
         <is>
-          <t>IGRF000136009</t>
+          <t>IGRF000154002</t>
         </is>
       </c>
       <c r="B199" s="13" t="n">
-        <v>42150</v>
+        <v>42523</v>
       </c>
       <c r="C199" s="4" t="inlineStr">
         <is>
-          <t>Unit Class for Institutional Investors (I) - 3K Greek Value Domestic Equity</t>
+          <t>The Occupational Pension Balanced Fund Of Police-Fire-Port Association</t>
         </is>
       </c>
       <c r="D199" s="4" t="inlineStr">
         <is>
-          <t>EGRAK03186</t>
+          <t>EGRAK00892</t>
         </is>
       </c>
     </row>
     <row r="200" ht="36" customHeight="1">
       <c r="A200" s="10" t="inlineStr">
         <is>
-          <t>IGRF000154002</t>
+          <t>IGRS517003000</t>
         </is>
       </c>
       <c r="B200" s="11" t="n">
-        <v>42523</v>
+        <v>42664</v>
       </c>
       <c r="C200" s="6" t="inlineStr">
         <is>
-          <t>The Occupational Pension Balanced Fund Of Police-Fire-Port Association</t>
+          <t>BRIQ PROPERTIES REAL ESTATE INVESTMENT COMPANY - COMMON REGISTERED(WITH VOTE)</t>
         </is>
       </c>
       <c r="D200" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00892</t>
+          <t>EGRAEEAP006</t>
         </is>
       </c>
     </row>
     <row r="201" ht="36" customHeight="1">
       <c r="A201" s="12" t="inlineStr">
         <is>
-          <t>IGRS517003000</t>
+          <t>IGRF000162005</t>
         </is>
       </c>
       <c r="B201" s="13" t="n">
-        <v>42664</v>
+        <v>42929</v>
       </c>
       <c r="C201" s="4" t="inlineStr">
         <is>
-          <t>BRIQ PROPERTIES REAL ESTATE INVESTMENT COMPANY - COMMON REGISTERED(WITH VOTE)</t>
+          <t>NN HELLAS (I) Bond Fund</t>
         </is>
       </c>
       <c r="D201" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP006</t>
+          <t>EGRAK00551</t>
         </is>
       </c>
     </row>
     <row r="202" ht="36" customHeight="1">
       <c r="A202" s="10" t="inlineStr">
         <is>
-          <t>IGRF000162005</t>
+          <t>IGRF000163003</t>
         </is>
       </c>
       <c r="B202" s="11" t="n">
@@ -17276,39 +17380,39 @@
       </c>
       <c r="C202" s="6" t="inlineStr">
         <is>
-          <t>NN HELLAS (I) Bond Fund</t>
+          <t>NN HELLAS (I) Equity Fund</t>
         </is>
       </c>
       <c r="D202" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00551</t>
+          <t>EGRAK00550</t>
         </is>
       </c>
     </row>
     <row r="203" ht="36" customHeight="1">
       <c r="A203" s="12" t="inlineStr">
         <is>
-          <t>IGRF000163003</t>
+          <t>IGRF000164001</t>
         </is>
       </c>
       <c r="B203" s="13" t="n">
-        <v>42929</v>
+        <v>42950</v>
       </c>
       <c r="C203" s="4" t="inlineStr">
         <is>
-          <t>NN HELLAS (I) Equity Fund</t>
+          <t>ATHOS High Peaks - Greek Equity (class A)</t>
         </is>
       </c>
       <c r="D203" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00550</t>
+          <t>EGRAK00554</t>
         </is>
       </c>
     </row>
     <row r="204" ht="36" customHeight="1">
       <c r="A204" s="10" t="inlineStr">
         <is>
-          <t>IGRF000164001</t>
+          <t>IGRF000177003</t>
         </is>
       </c>
       <c r="B204" s="11" t="n">
@@ -17316,7 +17420,7 @@
       </c>
       <c r="C204" s="6" t="inlineStr">
         <is>
-          <t>ATHOS High Peaks - Greek Equity (class A)</t>
+          <t>ATHOS High Peaks - Greek Equities Fund (Class I)</t>
         </is>
       </c>
       <c r="D204" s="6" t="inlineStr">
@@ -17328,27 +17432,27 @@
     <row r="205" ht="36" customHeight="1">
       <c r="A205" s="12" t="inlineStr">
         <is>
-          <t>IGRF000177003</t>
+          <t>IGRF000166006</t>
         </is>
       </c>
       <c r="B205" s="13" t="n">
-        <v>42950</v>
+        <v>43007</v>
       </c>
       <c r="C205" s="4" t="inlineStr">
         <is>
-          <t>ATHOS High Peaks - Greek Equities Fund (Class I)</t>
+          <t>ATHOS Recovery - Greek Bond (class A)</t>
         </is>
       </c>
       <c r="D205" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00554</t>
+          <t>EGRAK00555</t>
         </is>
       </c>
     </row>
     <row r="206" ht="36" customHeight="1">
       <c r="A206" s="10" t="inlineStr">
         <is>
-          <t>IGRF000166006</t>
+          <t>IGRF000167004</t>
         </is>
       </c>
       <c r="B206" s="11" t="n">
@@ -17356,7 +17460,7 @@
       </c>
       <c r="C206" s="6" t="inlineStr">
         <is>
-          <t>ATHOS Recovery - Greek Bond (class A)</t>
+          <t>ATHOS Recovery - Greek Bond Fund (Class B)</t>
         </is>
       </c>
       <c r="D206" s="6" t="inlineStr">
@@ -17368,7 +17472,7 @@
     <row r="207" ht="36" customHeight="1">
       <c r="A207" s="12" t="inlineStr">
         <is>
-          <t>IGRF000167004</t>
+          <t>IGRF000178001</t>
         </is>
       </c>
       <c r="B207" s="13" t="n">
@@ -17376,7 +17480,7 @@
       </c>
       <c r="C207" s="4" t="inlineStr">
         <is>
-          <t>ATHOS Recovery - Greek Bond Fund (Class B)</t>
+          <t>ATHOS Recovery - Greek Bond Fund (Class I)</t>
         </is>
       </c>
       <c r="D207" s="4" t="inlineStr">
@@ -17388,27 +17492,27 @@
     <row r="208" ht="36" customHeight="1">
       <c r="A208" s="10" t="inlineStr">
         <is>
-          <t>IGRF000178001</t>
+          <t>IGRF000168002</t>
         </is>
       </c>
       <c r="B208" s="11" t="n">
-        <v>43007</v>
+        <v>43025</v>
       </c>
       <c r="C208" s="6" t="inlineStr">
         <is>
-          <t>ATHOS Recovery - Greek Bond Fund (Class I)</t>
+          <t>ATHOS Income Plus Bond Fund (class B)</t>
         </is>
       </c>
       <c r="D208" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00555</t>
+          <t>EGRAK00552</t>
         </is>
       </c>
     </row>
     <row r="209" ht="36" customHeight="1">
       <c r="A209" s="12" t="inlineStr">
         <is>
-          <t>IGRF000168002</t>
+          <t>IGRF000169000</t>
         </is>
       </c>
       <c r="B209" s="13" t="n">
@@ -17416,7 +17520,7 @@
       </c>
       <c r="C209" s="4" t="inlineStr">
         <is>
-          <t>ATHOS Income Plus Bond Fund (class B)</t>
+          <t>ATHOS Income Plus Bond Fund (class A)</t>
         </is>
       </c>
       <c r="D209" s="4" t="inlineStr">
@@ -17428,7 +17532,7 @@
     <row r="210" ht="36" customHeight="1">
       <c r="A210" s="10" t="inlineStr">
         <is>
-          <t>IGRF000169000</t>
+          <t>IGRF000179009</t>
         </is>
       </c>
       <c r="B210" s="11" t="n">
@@ -17436,7 +17540,7 @@
       </c>
       <c r="C210" s="6" t="inlineStr">
         <is>
-          <t>ATHOS Income Plus Bond Fund (class A)</t>
+          <t>ATHOS INCOME PLUS - MONEY MARKET FUND (I</t>
         </is>
       </c>
       <c r="D210" s="6" t="inlineStr">
@@ -17448,59 +17552,59 @@
     <row r="211" ht="36" customHeight="1">
       <c r="A211" s="12" t="inlineStr">
         <is>
-          <t>IGRF000179009</t>
+          <t>PEGRAK01070_SHR</t>
         </is>
       </c>
       <c r="B211" s="13" t="n">
-        <v>43025</v>
-      </c>
-      <c r="C211" s="4" t="inlineStr">
-        <is>
-          <t>ATHOS INCOME PLUS - MONEY MARKET FUND (I</t>
-        </is>
-      </c>
+        <v>43098</v>
+      </c>
+      <c r="C211" s="4" t="inlineStr"/>
       <c r="D211" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00552</t>
+          <t>EGRAK01070</t>
         </is>
       </c>
     </row>
     <row r="212" ht="36" customHeight="1">
       <c r="A212" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01070_SHR</t>
+          <t>PEGRAK01064_SHR</t>
         </is>
       </c>
       <c r="B212" s="11" t="n">
-        <v>43098</v>
+        <v>43099</v>
       </c>
       <c r="C212" s="6" t="inlineStr"/>
       <c r="D212" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01070</t>
+          <t>EGRAK01064</t>
         </is>
       </c>
     </row>
     <row r="213" ht="36" customHeight="1">
       <c r="A213" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01064_SHR</t>
+          <t>IGRF000181005</t>
         </is>
       </c>
       <c r="B213" s="13" t="n">
-        <v>43099</v>
-      </c>
-      <c r="C213" s="4" t="inlineStr"/>
+        <v>43126</v>
+      </c>
+      <c r="C213" s="4" t="inlineStr">
+        <is>
+          <t>European Reliance  Domestic Income in Eur</t>
+        </is>
+      </c>
       <c r="D213" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01064</t>
+          <t>EGRAK00556</t>
         </is>
       </c>
     </row>
     <row r="214" ht="36" customHeight="1">
       <c r="A214" s="10" t="inlineStr">
         <is>
-          <t>IGRF000181005</t>
+          <t>IGRF000385002</t>
         </is>
       </c>
       <c r="B214" s="11" t="n">
@@ -17508,7 +17612,7 @@
       </c>
       <c r="C214" s="6" t="inlineStr">
         <is>
-          <t>European Reliance  Domestic Income in Eur</t>
+          <t>European Reliance Domestic Income in EUR (I)</t>
         </is>
       </c>
       <c r="D214" s="6" t="inlineStr">
@@ -17520,27 +17624,27 @@
     <row r="215" ht="36" customHeight="1">
       <c r="A215" s="12" t="inlineStr">
         <is>
-          <t>IGRF000385002</t>
+          <t>IGRF000243003</t>
         </is>
       </c>
       <c r="B215" s="13" t="n">
-        <v>43126</v>
+        <v>43188</v>
       </c>
       <c r="C215" s="4" t="inlineStr">
         <is>
-          <t>European Reliance Domestic Income in EUR (I)</t>
+          <t>EUROXX HELLENIC RECOVERY BALANCED FUND (R)</t>
         </is>
       </c>
       <c r="D215" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00556</t>
+          <t>EGRAK00560</t>
         </is>
       </c>
     </row>
     <row r="216" ht="36" customHeight="1">
       <c r="A216" s="10" t="inlineStr">
         <is>
-          <t>IGRF000243003</t>
+          <t>IGRF000244001</t>
         </is>
       </c>
       <c r="B216" s="11" t="n">
@@ -17548,7 +17652,7 @@
       </c>
       <c r="C216" s="6" t="inlineStr">
         <is>
-          <t>EUROXX HELLENIC RECOVERY BALANCED FUND (R)</t>
+          <t>EUROXX HELLENIC RECOVERY BALANCED FUND (I)</t>
         </is>
       </c>
       <c r="D216" s="6" t="inlineStr">
@@ -17560,47 +17664,47 @@
     <row r="217" ht="36" customHeight="1">
       <c r="A217" s="12" t="inlineStr">
         <is>
-          <t>IGRF000244001</t>
+          <t>IGRS535003008</t>
         </is>
       </c>
       <c r="B217" s="13" t="n">
-        <v>43188</v>
+        <v>43448</v>
       </c>
       <c r="C217" s="4" t="inlineStr">
         <is>
-          <t>EUROXX HELLENIC RECOVERY BALANCED FUND (I)</t>
+          <t xml:space="preserve">SHARES </t>
         </is>
       </c>
       <c r="D217" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00560</t>
+          <t>EGRAEEAP008</t>
         </is>
       </c>
     </row>
     <row r="218" ht="36" customHeight="1">
       <c r="A218" s="10" t="inlineStr">
         <is>
-          <t>IGRS535003008</t>
+          <t>IGRF000170008</t>
         </is>
       </c>
       <c r="B218" s="11" t="n">
-        <v>43448</v>
+        <v>43528</v>
       </c>
       <c r="C218" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHARES </t>
+          <t>European Bond Fund Target 2027 (Class A)</t>
         </is>
       </c>
       <c r="D218" s="6" t="inlineStr">
         <is>
-          <t>EGRAEEAP008</t>
+          <t>EGRAK00553</t>
         </is>
       </c>
     </row>
     <row r="219" ht="36" customHeight="1">
       <c r="A219" s="12" t="inlineStr">
         <is>
-          <t>IGRF000170008</t>
+          <t>IGRF000171006</t>
         </is>
       </c>
       <c r="B219" s="13" t="n">
@@ -17608,7 +17712,7 @@
       </c>
       <c r="C219" s="4" t="inlineStr">
         <is>
-          <t>European Bond Fund Target 2027 (Class A)</t>
+          <t>European Bond Fund Target 2027 (Class M)</t>
         </is>
       </c>
       <c r="D219" s="4" t="inlineStr">
@@ -17620,103 +17724,103 @@
     <row r="220" ht="36" customHeight="1">
       <c r="A220" s="10" t="inlineStr">
         <is>
-          <t>IGRF000171006</t>
+          <t>IGRF000332004</t>
         </is>
       </c>
       <c r="B220" s="11" t="n">
-        <v>43528</v>
+        <v>43556</v>
       </c>
       <c r="C220" s="6" t="inlineStr">
         <is>
-          <t>European Bond Fund Target 2027 (Class M)</t>
+          <t>Phoenix hellenic equity fund</t>
         </is>
       </c>
       <c r="D220" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00553</t>
+          <t>EGRAK00570</t>
         </is>
       </c>
     </row>
     <row r="221" ht="36" customHeight="1">
       <c r="A221" s="12" t="inlineStr">
         <is>
-          <t>IGRF000332004</t>
+          <t>PEGRAK01068_SHR</t>
         </is>
       </c>
       <c r="B221" s="13" t="n">
         <v>43556</v>
       </c>
-      <c r="C221" s="4" t="inlineStr">
-        <is>
-          <t>Phoenix hellenic equity fund</t>
-        </is>
-      </c>
+      <c r="C221" s="4" t="inlineStr"/>
       <c r="D221" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00570</t>
+          <t>EGRAK01068</t>
         </is>
       </c>
     </row>
     <row r="222" ht="36" customHeight="1">
       <c r="A222" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01068_SHR</t>
+          <t>IGRS824003008</t>
         </is>
       </c>
       <c r="B222" s="11" t="n">
-        <v>43556</v>
-      </c>
-      <c r="C222" s="6" t="inlineStr"/>
+        <v>43752</v>
+      </c>
+      <c r="C222" s="6" t="inlineStr">
+        <is>
+          <t>SHARES</t>
+        </is>
+      </c>
       <c r="D222" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01068</t>
+          <t>EGRAEEAP010</t>
         </is>
       </c>
     </row>
     <row r="223" ht="36" customHeight="1">
       <c r="A223" s="12" t="inlineStr">
         <is>
-          <t>IGRS824003008</t>
+          <t>IGRF000329000</t>
         </is>
       </c>
       <c r="B223" s="13" t="n">
-        <v>43752</v>
+        <v>43859</v>
       </c>
       <c r="C223" s="4" t="inlineStr">
         <is>
-          <t>SHARES</t>
+          <t>PIRAEUS PRIVATE BANKING ESG BALANCED FUND (P)</t>
         </is>
       </c>
       <c r="D223" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP010</t>
+          <t>EGRAK00559</t>
         </is>
       </c>
     </row>
     <row r="224" ht="36" customHeight="1">
       <c r="A224" s="10" t="inlineStr">
         <is>
-          <t>IGRF000329000</t>
+          <t>IGRF000323003</t>
         </is>
       </c>
       <c r="B224" s="11" t="n">
-        <v>43859</v>
+        <v>43900</v>
       </c>
       <c r="C224" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS PRIVATE BANKING ESG BALANCED FUND (P)</t>
+          <t>ATHOS Discovery Global Equities Developed Markets (class A)</t>
         </is>
       </c>
       <c r="D224" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00559</t>
+          <t>EGRAK00592</t>
         </is>
       </c>
     </row>
     <row r="225" ht="36" customHeight="1">
       <c r="A225" s="12" t="inlineStr">
         <is>
-          <t>IGRF000323003</t>
+          <t>IGRF000324001</t>
         </is>
       </c>
       <c r="B225" s="13" t="n">
@@ -17724,7 +17828,7 @@
       </c>
       <c r="C225" s="4" t="inlineStr">
         <is>
-          <t>ATHOS Discovery Global Equities Developed Markets (class A)</t>
+          <t>ATHOS Discovery Global Equities Developed Markets (class B)</t>
         </is>
       </c>
       <c r="D225" s="4" t="inlineStr">
@@ -17736,7 +17840,7 @@
     <row r="226" ht="36" customHeight="1">
       <c r="A226" s="10" t="inlineStr">
         <is>
-          <t>IGRF000324001</t>
+          <t>IGRF000325008</t>
         </is>
       </c>
       <c r="B226" s="11" t="n">
@@ -17744,7 +17848,7 @@
       </c>
       <c r="C226" s="6" t="inlineStr">
         <is>
-          <t>ATHOS Discovery Global Equities Developed Markets (class B)</t>
+          <t>ATHOS Discovery Global Equities Developed Markets (class I</t>
         </is>
       </c>
       <c r="D226" s="6" t="inlineStr">
@@ -17756,7 +17860,7 @@
     <row r="227" ht="36" customHeight="1">
       <c r="A227" s="12" t="inlineStr">
         <is>
-          <t>IGRF000325008</t>
+          <t>IGRF000326006</t>
         </is>
       </c>
       <c r="B227" s="13" t="n">
@@ -17764,7 +17868,7 @@
       </c>
       <c r="C227" s="4" t="inlineStr">
         <is>
-          <t>ATHOS Discovery Global Equities Developed Markets (class I</t>
+          <t>ATHOS Discovery Global Equities Developed Markets (class E-USD)</t>
         </is>
       </c>
       <c r="D227" s="4" t="inlineStr">
@@ -17776,239 +17880,239 @@
     <row r="228" ht="36" customHeight="1">
       <c r="A228" s="10" t="inlineStr">
         <is>
-          <t>IGRF000326006</t>
+          <t>PEGRAK01069_SHR</t>
         </is>
       </c>
       <c r="B228" s="11" t="n">
-        <v>43900</v>
-      </c>
-      <c r="C228" s="6" t="inlineStr">
-        <is>
-          <t>ATHOS Discovery Global Equities Developed Markets (class E-USD)</t>
-        </is>
-      </c>
+        <v>44035</v>
+      </c>
+      <c r="C228" s="6" t="inlineStr"/>
       <c r="D228" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00592</t>
+          <t>EGRAK01069</t>
         </is>
       </c>
     </row>
     <row r="229" ht="36" customHeight="1">
       <c r="A229" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01069_SHR</t>
+          <t>IGRF000337003</t>
         </is>
       </c>
       <c r="B229" s="13" t="n">
-        <v>44035</v>
-      </c>
-      <c r="C229" s="4" t="inlineStr"/>
+        <v>44039</v>
+      </c>
+      <c r="C229" s="4" t="inlineStr">
+        <is>
+          <t>EUROPEAN RELIANCE European Value Fund (R)</t>
+        </is>
+      </c>
       <c r="D229" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01069</t>
+          <t>EGRAK00575</t>
         </is>
       </c>
     </row>
     <row r="230" ht="36" customHeight="1">
       <c r="A230" s="10" t="inlineStr">
         <is>
-          <t>IGRF000337003</t>
+          <t>IGRF000338001</t>
         </is>
       </c>
       <c r="B230" s="11" t="n">
-        <v>44039</v>
+        <v>44105</v>
       </c>
       <c r="C230" s="6" t="inlineStr">
         <is>
-          <t>EUROPEAN RELIANCE European Value Fund (R)</t>
+          <t>Ypsilon Global Growth Equity Fund</t>
         </is>
       </c>
       <c r="D230" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00575</t>
+          <t>EGRAK01000</t>
         </is>
       </c>
     </row>
     <row r="231" ht="36" customHeight="1">
       <c r="A231" s="12" t="inlineStr">
         <is>
-          <t>IGRF000338001</t>
+          <t>PEGRAK01063_SHR</t>
         </is>
       </c>
       <c r="B231" s="13" t="n">
-        <v>44105</v>
-      </c>
-      <c r="C231" s="4" t="inlineStr">
-        <is>
-          <t>Ypsilon Global Growth Equity Fund</t>
-        </is>
-      </c>
+        <v>44131</v>
+      </c>
+      <c r="C231" s="4" t="inlineStr"/>
       <c r="D231" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01000</t>
+          <t>EGRAK01063</t>
         </is>
       </c>
     </row>
     <row r="232" ht="36" customHeight="1">
       <c r="A232" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01063_SHR</t>
+          <t>PEGRAK01060_SHR</t>
         </is>
       </c>
       <c r="B232" s="11" t="n">
-        <v>44131</v>
+        <v>44142</v>
       </c>
       <c r="C232" s="6" t="inlineStr"/>
       <c r="D232" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01063</t>
+          <t>EGRAK01060</t>
         </is>
       </c>
     </row>
     <row r="233" ht="36" customHeight="1">
       <c r="A233" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01060_SHR</t>
+          <t>PEGRAK01058_SHR</t>
         </is>
       </c>
       <c r="B233" s="13" t="n">
-        <v>44142</v>
+        <v>44161</v>
       </c>
       <c r="C233" s="4" t="inlineStr"/>
       <c r="D233" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01060</t>
+          <t>EGRAK01058</t>
         </is>
       </c>
     </row>
     <row r="234" ht="36" customHeight="1">
       <c r="A234" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01058_SHR</t>
+          <t>IGRF000341005</t>
         </is>
       </c>
       <c r="B234" s="11" t="n">
-        <v>44161</v>
-      </c>
-      <c r="C234" s="6" t="inlineStr"/>
+        <v>44267</v>
+      </c>
+      <c r="C234" s="6" t="inlineStr">
+        <is>
+          <t>THE OCCUPATIONAL PENSION BALANCED FUND OF GEOTECHNICAL CHAMBER MEMBERS - INSTITUTIONAL SHARE CLASS</t>
+        </is>
+      </c>
       <c r="D234" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01058</t>
+          <t>EGRAK01001</t>
         </is>
       </c>
     </row>
     <row r="235" ht="36" customHeight="1">
       <c r="A235" s="12" t="inlineStr">
         <is>
-          <t>IGRF000341005</t>
+          <t>PEGRAK01027_SHR</t>
         </is>
       </c>
       <c r="B235" s="13" t="n">
-        <v>44267</v>
-      </c>
-      <c r="C235" s="4" t="inlineStr">
-        <is>
-          <t>THE OCCUPATIONAL PENSION BALANCED FUND OF GEOTECHNICAL CHAMBER MEMBERS - INSTITUTIONAL SHARE CLASS</t>
-        </is>
-      </c>
+        <v>44270</v>
+      </c>
+      <c r="C235" s="4" t="inlineStr"/>
       <c r="D235" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01001</t>
+          <t>EGRAK01027</t>
         </is>
       </c>
     </row>
     <row r="236" ht="36" customHeight="1">
       <c r="A236" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01027_SHR</t>
+          <t>IGRF000342003</t>
         </is>
       </c>
       <c r="B236" s="11" t="n">
-        <v>44270</v>
-      </c>
-      <c r="C236" s="6" t="inlineStr"/>
+        <v>44292</v>
+      </c>
+      <c r="C236" s="6" t="inlineStr">
+        <is>
+          <t>Optima greek balanced fund (R)</t>
+        </is>
+      </c>
       <c r="D236" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01027</t>
+          <t>EGRAK01002</t>
         </is>
       </c>
     </row>
     <row r="237" ht="36" customHeight="1">
       <c r="A237" s="12" t="inlineStr">
         <is>
-          <t>IGRF000342003</t>
+          <t>PEGRAK01066_SHR</t>
         </is>
       </c>
       <c r="B237" s="13" t="n">
-        <v>44292</v>
-      </c>
-      <c r="C237" s="4" t="inlineStr">
-        <is>
-          <t>Optima greek balanced fund (R)</t>
-        </is>
-      </c>
+        <v>44293</v>
+      </c>
+      <c r="C237" s="4" t="inlineStr"/>
       <c r="D237" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01002</t>
+          <t>EGRAK01066</t>
         </is>
       </c>
     </row>
     <row r="238" ht="36" customHeight="1">
       <c r="A238" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01066_SHR</t>
+          <t>IGRF000343001</t>
         </is>
       </c>
       <c r="B238" s="11" t="n">
-        <v>44293</v>
-      </c>
-      <c r="C238" s="6" t="inlineStr"/>
+        <v>44323</v>
+      </c>
+      <c r="C238" s="6" t="inlineStr">
+        <is>
+          <t>Fast Finance Growth and Income Strategy balanced fund (R)</t>
+        </is>
+      </c>
       <c r="D238" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01066</t>
+          <t>EGRAK01003</t>
         </is>
       </c>
     </row>
     <row r="239" ht="36" customHeight="1">
       <c r="A239" s="12" t="inlineStr">
         <is>
-          <t>IGRF000343001</t>
+          <t>PEGRAK01059_SHR</t>
         </is>
       </c>
       <c r="B239" s="13" t="n">
-        <v>44323</v>
-      </c>
-      <c r="C239" s="4" t="inlineStr">
-        <is>
-          <t>Fast Finance Growth and Income Strategy balanced fund (R)</t>
-        </is>
-      </c>
+        <v>44358</v>
+      </c>
+      <c r="C239" s="4" t="inlineStr"/>
       <c r="D239" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01003</t>
+          <t>EGRAK01059</t>
         </is>
       </c>
     </row>
     <row r="240" ht="36" customHeight="1">
       <c r="A240" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01059_SHR</t>
+          <t>IGRF000351004</t>
         </is>
       </c>
       <c r="B240" s="11" t="n">
-        <v>44358</v>
-      </c>
-      <c r="C240" s="6" t="inlineStr"/>
+        <v>44389</v>
+      </c>
+      <c r="C240" s="6" t="inlineStr">
+        <is>
+          <t>PIRAEUS IDEAS GLOBAL EQUITY FUND (I)</t>
+        </is>
+      </c>
       <c r="D240" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01059</t>
+          <t>EGRAK01004</t>
         </is>
       </c>
     </row>
     <row r="241" ht="36" customHeight="1">
       <c r="A241" s="12" t="inlineStr">
         <is>
-          <t>IGRF000351004</t>
+          <t>IGRF000352002</t>
         </is>
       </c>
       <c r="B241" s="13" t="n">
@@ -18016,7 +18120,7 @@
       </c>
       <c r="C241" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS IDEAS GLOBAL EQUITY FUND (I)</t>
+          <t>PIRAEUS IDEAS GLOBAL EQUITY FUND - PRIVATE BANKING</t>
         </is>
       </c>
       <c r="D241" s="4" t="inlineStr">
@@ -18028,7 +18132,7 @@
     <row r="242" ht="36" customHeight="1">
       <c r="A242" s="10" t="inlineStr">
         <is>
-          <t>IGRF000352002</t>
+          <t>IGRS534003009</t>
         </is>
       </c>
       <c r="B242" s="11" t="n">
@@ -18036,99 +18140,99 @@
       </c>
       <c r="C242" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS IDEAS GLOBAL EQUITY FUND - PRIVATE BANKING</t>
+          <t>SHARES</t>
         </is>
       </c>
       <c r="D242" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01004</t>
+          <t>EGRAEEAP009</t>
         </is>
       </c>
     </row>
     <row r="243" ht="36" customHeight="1">
       <c r="A243" s="12" t="inlineStr">
         <is>
-          <t>IGRS534003009</t>
+          <t>IGRF000353000</t>
         </is>
       </c>
       <c r="B243" s="13" t="n">
-        <v>44389</v>
+        <v>44431</v>
       </c>
       <c r="C243" s="4" t="inlineStr">
         <is>
-          <t>SHARES</t>
+          <t>INSTITUTION FOR OCCUPATIONAL RETIREMENT PROVISION OF THE MINISTRY OF FINANCE BALANCED FUND OF FUNDS</t>
         </is>
       </c>
       <c r="D243" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP009</t>
+          <t>EGRAK01005</t>
         </is>
       </c>
     </row>
     <row r="244" ht="36" customHeight="1">
       <c r="A244" s="10" t="inlineStr">
         <is>
-          <t>IGRF000353000</t>
+          <t>IGRF000356003</t>
         </is>
       </c>
       <c r="B244" s="11" t="n">
-        <v>44431</v>
+        <v>44440</v>
       </c>
       <c r="C244" s="6" t="inlineStr">
         <is>
-          <t>INSTITUTION FOR OCCUPATIONAL RETIREMENT PROVISION OF THE MINISTRY OF FINANCE BALANCED FUND OF FUNDS</t>
+          <t>PIRAEUS LOW VOLATILITY BALANCED FUND OF FUNDS (R)</t>
         </is>
       </c>
       <c r="D244" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01005</t>
+          <t>EGRAK01006</t>
         </is>
       </c>
     </row>
     <row r="245" ht="36" customHeight="1">
       <c r="A245" s="12" t="inlineStr">
         <is>
-          <t>IGRF000356003</t>
+          <t>IGRF000363009</t>
         </is>
       </c>
       <c r="B245" s="13" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="C245" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS LOW VOLATILITY BALANCED FUND OF FUNDS (R)</t>
+          <t>PIRAEUS PRIVATE BANKING ESG GREECE EQUITY FUND (P)</t>
         </is>
       </c>
       <c r="D245" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01006</t>
+          <t>EGRAK01007</t>
         </is>
       </c>
     </row>
     <row r="246" ht="36" customHeight="1">
       <c r="A246" s="10" t="inlineStr">
         <is>
-          <t>IGRF000363009</t>
+          <t>IGRF000365004</t>
         </is>
       </c>
       <c r="B246" s="11" t="n">
-        <v>44531</v>
+        <v>44564</v>
       </c>
       <c r="C246" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS PRIVATE BANKING ESG GREECE EQUITY FUND (P)</t>
+          <t>3K Global Equity Fund</t>
         </is>
       </c>
       <c r="D246" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01007</t>
+          <t>EGRAK01008</t>
         </is>
       </c>
     </row>
     <row r="247" ht="36" customHeight="1">
       <c r="A247" s="12" t="inlineStr">
         <is>
-          <t>IGRF000365004</t>
+          <t>IGRF000367000</t>
         </is>
       </c>
       <c r="B247" s="13" t="n">
@@ -18136,7 +18240,7 @@
       </c>
       <c r="C247" s="4" t="inlineStr">
         <is>
-          <t>3K Global Equity Fund</t>
+          <t>3K Global Equity Fund (I) Institutional Investors</t>
         </is>
       </c>
       <c r="D247" s="4" t="inlineStr">
@@ -18148,27 +18252,27 @@
     <row r="248" ht="36" customHeight="1">
       <c r="A248" s="10" t="inlineStr">
         <is>
-          <t>IGRF000367000</t>
+          <t>IGRF000377009</t>
         </is>
       </c>
       <c r="B248" s="11" t="n">
-        <v>44564</v>
+        <v>44594</v>
       </c>
       <c r="C248" s="6" t="inlineStr">
         <is>
-          <t>3K Global Equity Fund (I) Institutional Investors</t>
+          <t>Alpha Conservative Greek Balanced Fund Classic</t>
         </is>
       </c>
       <c r="D248" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01008</t>
+          <t>EGRAK01009</t>
         </is>
       </c>
     </row>
     <row r="249" ht="36" customHeight="1">
       <c r="A249" s="12" t="inlineStr">
         <is>
-          <t>IGRF000377009</t>
+          <t>IGRF000378007</t>
         </is>
       </c>
       <c r="B249" s="13" t="n">
@@ -18176,7 +18280,7 @@
       </c>
       <c r="C249" s="4" t="inlineStr">
         <is>
-          <t>Alpha Conservative Greek Balanced Fund Classic</t>
+          <t>Alpha Conservative Greek Balanced Fund Classic D</t>
         </is>
       </c>
       <c r="D249" s="4" t="inlineStr">
@@ -18188,7 +18292,7 @@
     <row r="250" ht="36" customHeight="1">
       <c r="A250" s="10" t="inlineStr">
         <is>
-          <t>IGRF000378007</t>
+          <t>IGRF000379005</t>
         </is>
       </c>
       <c r="B250" s="11" t="n">
@@ -18196,7 +18300,7 @@
       </c>
       <c r="C250" s="6" t="inlineStr">
         <is>
-          <t>Alpha Conservative Greek Balanced Fund Classic D</t>
+          <t>Alpha Conservative Greek Balanced Fund Institutional</t>
         </is>
       </c>
       <c r="D250" s="6" t="inlineStr">
@@ -18208,175 +18312,179 @@
     <row r="251" ht="36" customHeight="1">
       <c r="A251" s="12" t="inlineStr">
         <is>
-          <t>IGRF000379005</t>
+          <t>IGRS497003012</t>
         </is>
       </c>
       <c r="B251" s="13" t="n">
-        <v>44594</v>
+        <v>44635</v>
       </c>
       <c r="C251" s="4" t="inlineStr">
         <is>
-          <t>Alpha Conservative Greek Balanced Fund Institutional</t>
+          <t>SHARES</t>
         </is>
       </c>
       <c r="D251" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01009</t>
+          <t>EGR094321237</t>
         </is>
       </c>
     </row>
     <row r="252" ht="36" customHeight="1">
       <c r="A252" s="10" t="inlineStr">
         <is>
-          <t>IGRS497003012</t>
+          <t>PEGRAK01067_SHR</t>
         </is>
       </c>
       <c r="B252" s="11" t="n">
-        <v>44635</v>
-      </c>
-      <c r="C252" s="6" t="inlineStr">
-        <is>
-          <t>SHARES</t>
-        </is>
-      </c>
+        <v>44636</v>
+      </c>
+      <c r="C252" s="6" t="inlineStr"/>
       <c r="D252" s="6" t="inlineStr">
         <is>
-          <t>EGR094321237</t>
+          <t>EGRAK01067</t>
         </is>
       </c>
     </row>
     <row r="253" ht="36" customHeight="1">
       <c r="A253" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01067_SHR</t>
+          <t>IGRF000386000</t>
         </is>
       </c>
       <c r="B253" s="13" t="n">
-        <v>44636</v>
-      </c>
-      <c r="C253" s="4" t="inlineStr"/>
+        <v>44713</v>
+      </c>
+      <c r="C253" s="4" t="inlineStr">
+        <is>
+          <t>Alpha Bancassurance EE103 Structured Fund</t>
+        </is>
+      </c>
       <c r="D253" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01067</t>
+          <t>EGRAK01010</t>
         </is>
       </c>
     </row>
     <row r="254" ht="36" customHeight="1">
       <c r="A254" s="10" t="inlineStr">
         <is>
-          <t>IGRF000386000</t>
+          <t>IGRF000389004</t>
         </is>
       </c>
       <c r="B254" s="11" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="C254" s="6" t="inlineStr">
         <is>
-          <t>Alpha Bancassurance EE103 Structured Fund</t>
+          <t>Eurobank DIS GF Target Maturity Domestic Bond Fund</t>
         </is>
       </c>
       <c r="D254" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01010</t>
+          <t>EGRAK01011</t>
         </is>
       </c>
     </row>
     <row r="255" ht="36" customHeight="1">
       <c r="A255" s="12" t="inlineStr">
         <is>
-          <t>IGRF000389004</t>
+          <t>IGRF000390002</t>
         </is>
       </c>
       <c r="B255" s="13" t="n">
-        <v>44805</v>
+        <v>44816</v>
       </c>
       <c r="C255" s="4" t="inlineStr">
         <is>
-          <t>Eurobank DIS GF Target Maturity Domestic Bond Fund</t>
+          <t>EUROBANK GF GLOBAL PROTECT 90 STRUCTURED FUND</t>
         </is>
       </c>
       <c r="D255" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01011</t>
+          <t>EGRAK01012</t>
         </is>
       </c>
     </row>
     <row r="256" ht="36" customHeight="1">
       <c r="A256" s="10" t="inlineStr">
         <is>
-          <t>IGRF000390002</t>
+          <t>IGRF000506003</t>
         </is>
       </c>
       <c r="B256" s="11" t="n">
-        <v>44816</v>
+        <v>44827</v>
       </c>
       <c r="C256" s="6" t="inlineStr">
         <is>
-          <t>EUROBANK GF GLOBAL PROTECT 90 STRUCTURED FUND</t>
+          <t>E3 ALTERNATIVE INVESTMENT FUND</t>
         </is>
       </c>
       <c r="D256" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01012</t>
+          <t>EGRAK01057</t>
         </is>
       </c>
     </row>
     <row r="257" ht="36" customHeight="1">
       <c r="A257" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01057_SHR</t>
+          <t>IGRF000392008</t>
         </is>
       </c>
       <c r="B257" s="13" t="n">
-        <v>44827</v>
-      </c>
-      <c r="C257" s="4" t="inlineStr"/>
+        <v>44846</v>
+      </c>
+      <c r="C257" s="4" t="inlineStr">
+        <is>
+          <t>Alpha Bancassurance EE104 Structured Fund</t>
+        </is>
+      </c>
       <c r="D257" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01057</t>
+          <t>EGRAK01015</t>
         </is>
       </c>
     </row>
     <row r="258" ht="36" customHeight="1">
       <c r="A258" s="10" t="inlineStr">
         <is>
-          <t>IGRF000392008</t>
+          <t>PEGRAK01072_SHR</t>
         </is>
       </c>
       <c r="B258" s="11" t="n">
-        <v>44846</v>
-      </c>
-      <c r="C258" s="6" t="inlineStr">
-        <is>
-          <t>Alpha Bancassurance EE104 Structured Fund</t>
-        </is>
-      </c>
+        <v>44851</v>
+      </c>
+      <c r="C258" s="6" t="inlineStr"/>
       <c r="D258" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01015</t>
+          <t>EGRAK01072</t>
         </is>
       </c>
     </row>
     <row r="259" ht="36" customHeight="1">
       <c r="A259" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01072_SHR</t>
+          <t>IGRF000393006</t>
         </is>
       </c>
       <c r="B259" s="13" t="n">
-        <v>44851</v>
-      </c>
-      <c r="C259" s="4" t="inlineStr"/>
+        <v>44865</v>
+      </c>
+      <c r="C259" s="4" t="inlineStr">
+        <is>
+          <t>Alpha Prosperity I 90-140 Structured Fund</t>
+        </is>
+      </c>
       <c r="D259" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01072</t>
+          <t>EGRAK01016</t>
         </is>
       </c>
     </row>
     <row r="260" ht="36" customHeight="1">
       <c r="A260" s="10" t="inlineStr">
         <is>
-          <t>IGRF000393006</t>
+          <t>IGRF000394004</t>
         </is>
       </c>
       <c r="B260" s="11" t="n">
@@ -18384,235 +18492,235 @@
       </c>
       <c r="C260" s="6" t="inlineStr">
         <is>
-          <t>Alpha Prosperity I 90-140 Structured Fund</t>
+          <t>DELOS EXTRA INCOME 5year - BOND FUND</t>
         </is>
       </c>
       <c r="D260" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01016</t>
+          <t>EGRAK01013</t>
         </is>
       </c>
     </row>
     <row r="261" ht="36" customHeight="1">
       <c r="A261" s="12" t="inlineStr">
         <is>
-          <t>IGRF000394004</t>
+          <t>IGRF000395001</t>
         </is>
       </c>
       <c r="B261" s="13" t="n">
-        <v>44865</v>
+        <v>44873</v>
       </c>
       <c r="C261" s="4" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME 5year - BOND FUND</t>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 DOMESTIC BOND FUND</t>
         </is>
       </c>
       <c r="D261" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01013</t>
+          <t>EGRAK01014</t>
         </is>
       </c>
     </row>
     <row r="262" ht="36" customHeight="1">
       <c r="A262" s="10" t="inlineStr">
         <is>
-          <t>IGRF000395001</t>
+          <t>IGRF000397007</t>
         </is>
       </c>
       <c r="B262" s="11" t="n">
-        <v>44873</v>
+        <v>44879</v>
       </c>
       <c r="C262" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 DOMESTIC BOND FUND</t>
+          <t>EUROBANK DIS GF Target Maturity II Bond Fund</t>
         </is>
       </c>
       <c r="D262" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01014</t>
+          <t>EGRAK01017</t>
         </is>
       </c>
     </row>
     <row r="263" ht="36" customHeight="1">
       <c r="A263" s="12" t="inlineStr">
         <is>
-          <t>IGRF000397007</t>
+          <t>IGRF000408002</t>
         </is>
       </c>
       <c r="B263" s="13" t="n">
-        <v>44879</v>
+        <v>44936</v>
       </c>
       <c r="C263" s="4" t="inlineStr">
         <is>
-          <t>EUROBANK DIS GF Target Maturity II Bond Fund</t>
+          <t>ALPHA TARGET MATURITY I 2028 BOND FUND Classic D</t>
         </is>
       </c>
       <c r="D263" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01017</t>
+          <t>EGRAK01019</t>
         </is>
       </c>
     </row>
     <row r="264" ht="36" customHeight="1">
       <c r="A264" s="10" t="inlineStr">
         <is>
-          <t>IGRF000408002</t>
+          <t>PEGRAK01073_SHR</t>
         </is>
       </c>
       <c r="B264" s="11" t="n">
-        <v>44936</v>
-      </c>
-      <c r="C264" s="6" t="inlineStr">
-        <is>
-          <t>ALPHA TARGET MATURITY I 2028 BOND FUND Classic D</t>
-        </is>
-      </c>
+        <v>44944</v>
+      </c>
+      <c r="C264" s="6" t="inlineStr"/>
       <c r="D264" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01019</t>
+          <t>EGRAK01073</t>
         </is>
       </c>
     </row>
     <row r="265" ht="36" customHeight="1">
       <c r="A265" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01073_SHR</t>
+          <t>IGRF000411006</t>
         </is>
       </c>
       <c r="B265" s="13" t="n">
-        <v>44944</v>
-      </c>
-      <c r="C265" s="4" t="inlineStr"/>
+        <v>44951</v>
+      </c>
+      <c r="C265" s="4" t="inlineStr">
+        <is>
+          <t>EUROBANK DIS GF TARGET MATURITY III BOND FUND</t>
+        </is>
+      </c>
       <c r="D265" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01073</t>
+          <t>EGRAK01021</t>
         </is>
       </c>
     </row>
     <row r="266" ht="36" customHeight="1">
       <c r="A266" s="10" t="inlineStr">
         <is>
-          <t>IGRF000411006</t>
+          <t>IGRF000409000</t>
         </is>
       </c>
       <c r="B266" s="11" t="n">
-        <v>44951</v>
+        <v>44963</v>
       </c>
       <c r="C266" s="6" t="inlineStr">
         <is>
-          <t>EUROBANK DIS GF TARGET MATURITY III BOND FUND</t>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2028 EUROPEAN BOND FUND</t>
         </is>
       </c>
       <c r="D266" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01021</t>
+          <t>EGRAK01018</t>
         </is>
       </c>
     </row>
     <row r="267" ht="36" customHeight="1">
       <c r="A267" s="12" t="inlineStr">
         <is>
-          <t>IGRF000409000</t>
+          <t>IGRF000417003</t>
         </is>
       </c>
       <c r="B267" s="13" t="n">
-        <v>44963</v>
+        <v>44971</v>
       </c>
       <c r="C267" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2028 EUROPEAN BOND FUND</t>
+          <t>DELOS EXTRA INCOME II 5year - BOND FUND</t>
         </is>
       </c>
       <c r="D267" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01018</t>
+          <t>EGRAK01020</t>
         </is>
       </c>
     </row>
     <row r="268" ht="36" customHeight="1">
       <c r="A268" s="10" t="inlineStr">
         <is>
-          <t>IGRF000417003</t>
+          <t>IGRF000412004</t>
         </is>
       </c>
       <c r="B268" s="11" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="C268" s="6" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME II 5year - BOND FUND</t>
+          <t>EUROBANK  GF TARGET MATURITY IV BOND FUND</t>
         </is>
       </c>
       <c r="D268" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01020</t>
+          <t>EGRAK01023</t>
         </is>
       </c>
     </row>
     <row r="269" ht="36" customHeight="1">
       <c r="A269" s="12" t="inlineStr">
         <is>
-          <t>IGRF000412004</t>
+          <t>IGRF000418001</t>
         </is>
       </c>
       <c r="B269" s="13" t="n">
-        <v>44972</v>
+        <v>44977</v>
       </c>
       <c r="C269" s="4" t="inlineStr">
         <is>
-          <t>EUROBANK  GF TARGET MATURITY IV BOND FUND</t>
+          <t>Optima greek income bond fund</t>
         </is>
       </c>
       <c r="D269" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01023</t>
+          <t>EGRAK01022</t>
         </is>
       </c>
     </row>
     <row r="270" ht="36" customHeight="1">
       <c r="A270" s="10" t="inlineStr">
         <is>
-          <t>IGRF000418001</t>
+          <t>IGRF000423001</t>
         </is>
       </c>
       <c r="B270" s="11" t="n">
-        <v>44977</v>
+        <v>45005</v>
       </c>
       <c r="C270" s="6" t="inlineStr">
         <is>
-          <t>Optima greek income bond fund</t>
+          <t>DELOS EXTRA INCOME III 5year - BOND FUND</t>
         </is>
       </c>
       <c r="D270" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01022</t>
+          <t>EGRAK01026</t>
         </is>
       </c>
     </row>
     <row r="271" ht="36" customHeight="1">
       <c r="A271" s="12" t="inlineStr">
         <is>
-          <t>IGRF000423001</t>
+          <t>IGRF000421005</t>
         </is>
       </c>
       <c r="B271" s="13" t="n">
-        <v>45005</v>
+        <v>45019</v>
       </c>
       <c r="C271" s="4" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME III 5year - BOND FUND</t>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2028 II EUROPEAN BOND FUND</t>
         </is>
       </c>
       <c r="D271" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01026</t>
+          <t>EGRAK01048</t>
         </is>
       </c>
     </row>
     <row r="272" ht="36" customHeight="1">
       <c r="A272" s="10" t="inlineStr">
         <is>
-          <t>IGRF000421005</t>
+          <t>IGRF000422003</t>
         </is>
       </c>
       <c r="B272" s="11" t="n">
@@ -18620,39 +18728,39 @@
       </c>
       <c r="C272" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2028 II EUROPEAN BOND FUND</t>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2029 EUROPEAN BOND FUND</t>
         </is>
       </c>
       <c r="D272" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01048</t>
+          <t>EGRAK01028</t>
         </is>
       </c>
     </row>
     <row r="273" ht="36" customHeight="1">
       <c r="A273" s="12" t="inlineStr">
         <is>
-          <t>IGRF000422003</t>
+          <t>IGRF000426004</t>
         </is>
       </c>
       <c r="B273" s="13" t="n">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="C273" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2029 EUROPEAN BOND FUND</t>
+          <t>TRITON Maximizer Conservative Fund of Funds Class A</t>
         </is>
       </c>
       <c r="D273" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01028</t>
+          <t>EGRAK01031</t>
         </is>
       </c>
     </row>
     <row r="274" ht="36" customHeight="1">
       <c r="A274" s="10" t="inlineStr">
         <is>
-          <t>IGRF000426004</t>
+          <t>IGRF000428000</t>
         </is>
       </c>
       <c r="B274" s="11" t="n">
@@ -18660,19 +18768,19 @@
       </c>
       <c r="C274" s="6" t="inlineStr">
         <is>
-          <t>TRITON Maximizer Conservative Fund of Funds Class A</t>
+          <t>TRITON Maximizer Balanced Fund of Funds Class A</t>
         </is>
       </c>
       <c r="D274" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01031</t>
+          <t>EGRAK01030</t>
         </is>
       </c>
     </row>
     <row r="275" ht="36" customHeight="1">
       <c r="A275" s="12" t="inlineStr">
         <is>
-          <t>IGRF000428000</t>
+          <t>IGRF000430006</t>
         </is>
       </c>
       <c r="B275" s="13" t="n">
@@ -18680,135 +18788,135 @@
       </c>
       <c r="C275" s="4" t="inlineStr">
         <is>
-          <t>TRITON Maximizer Balanced Fund of Funds Class A</t>
+          <t>TRITON Maximizer Dynamic Fund of Funds Class A</t>
         </is>
       </c>
       <c r="D275" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01030</t>
+          <t>EGRAK01029</t>
         </is>
       </c>
     </row>
     <row r="276" ht="36" customHeight="1">
       <c r="A276" s="10" t="inlineStr">
         <is>
-          <t>IGRF000430006</t>
+          <t>IGRF000432002</t>
         </is>
       </c>
       <c r="B276" s="11" t="n">
-        <v>45021</v>
+        <v>45044</v>
       </c>
       <c r="C276" s="6" t="inlineStr">
         <is>
-          <t>TRITON Maximizer Dynamic Fund of Funds Class A</t>
+          <t>ALPHA Bancassurance EE105 Structured Fund</t>
         </is>
       </c>
       <c r="D276" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01029</t>
+          <t>EGRAK01032</t>
         </is>
       </c>
     </row>
     <row r="277" ht="36" customHeight="1">
       <c r="A277" s="12" t="inlineStr">
         <is>
-          <t>IGRF000432002</t>
+          <t>IGRF000433000</t>
         </is>
       </c>
       <c r="B277" s="13" t="n">
-        <v>45044</v>
+        <v>45058</v>
       </c>
       <c r="C277" s="4" t="inlineStr">
         <is>
-          <t>ALPHA Bancassurance EE105 Structured Fund</t>
+          <t>DELOS EXTRA INCOME IV 5year - BOND FUND</t>
         </is>
       </c>
       <c r="D277" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01032</t>
+          <t>EGRAK01033</t>
         </is>
       </c>
     </row>
     <row r="278" ht="36" customHeight="1">
       <c r="A278" s="10" t="inlineStr">
         <is>
-          <t>IGRF000433000</t>
+          <t>PEGRAK01065_SHR</t>
         </is>
       </c>
       <c r="B278" s="11" t="n">
-        <v>45058</v>
-      </c>
-      <c r="C278" s="6" t="inlineStr">
-        <is>
-          <t>DELOS EXTRA INCOME IV 5year - BOND FUND</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="C278" s="6" t="inlineStr"/>
       <c r="D278" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01033</t>
+          <t>EGRAK01065</t>
         </is>
       </c>
     </row>
     <row r="279" ht="36" customHeight="1">
       <c r="A279" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01065_SHR</t>
+          <t>IGRF000434008</t>
         </is>
       </c>
       <c r="B279" s="13" t="n">
-        <v>45061</v>
-      </c>
-      <c r="C279" s="4" t="inlineStr"/>
+        <v>45065</v>
+      </c>
+      <c r="C279" s="4" t="inlineStr">
+        <is>
+          <t>DELOS EXTRA INCOME USD 3year - BOND FUND</t>
+        </is>
+      </c>
       <c r="D279" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01065</t>
+          <t>EGRAK01034</t>
         </is>
       </c>
     </row>
     <row r="280" ht="36" customHeight="1">
       <c r="A280" s="10" t="inlineStr">
         <is>
-          <t>IGRF000434008</t>
+          <t>IGRF000437001</t>
         </is>
       </c>
       <c r="B280" s="11" t="n">
-        <v>45065</v>
+        <v>45070</v>
       </c>
       <c r="C280" s="6" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME USD 3year - BOND FUND</t>
+          <t>EUROBANK GF TARGET MATURITY VI BOND FUND</t>
         </is>
       </c>
       <c r="D280" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01034</t>
+          <t>EGRAK01035</t>
         </is>
       </c>
     </row>
     <row r="281" ht="36" customHeight="1">
       <c r="A281" s="12" t="inlineStr">
         <is>
-          <t>IGRF000437001</t>
+          <t>IGRF000436003</t>
         </is>
       </c>
       <c r="B281" s="13" t="n">
-        <v>45070</v>
+        <v>45078</v>
       </c>
       <c r="C281" s="4" t="inlineStr">
         <is>
-          <t>EUROBANK GF TARGET MATURITY VI BOND FUND</t>
+          <t>Eurobank GF Target Maturity V Bond Fund</t>
         </is>
       </c>
       <c r="D281" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01035</t>
+          <t>EGRAK01038</t>
         </is>
       </c>
     </row>
     <row r="282" ht="36" customHeight="1">
       <c r="A282" s="10" t="inlineStr">
         <is>
-          <t>IGRF000436003</t>
+          <t>IGRF000441003</t>
         </is>
       </c>
       <c r="B282" s="11" t="n">
@@ -18816,39 +18924,39 @@
       </c>
       <c r="C282" s="6" t="inlineStr">
         <is>
-          <t>Eurobank GF Target Maturity V Bond Fund</t>
+          <t>Eurobank GF Top 30 Select Structured Fund</t>
         </is>
       </c>
       <c r="D282" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01038</t>
+          <t>EGRAK01037</t>
         </is>
       </c>
     </row>
     <row r="283" ht="36" customHeight="1">
       <c r="A283" s="12" t="inlineStr">
         <is>
-          <t>IGRF000441003</t>
+          <t>IGRF000439007</t>
         </is>
       </c>
       <c r="B283" s="13" t="n">
-        <v>45078</v>
+        <v>45083</v>
       </c>
       <c r="C283" s="4" t="inlineStr">
         <is>
-          <t>Eurobank GF Top 30 Select Structured Fund</t>
+          <t>ALPHA TARGET MATURITY III 2028 BOND FUND Classic D</t>
         </is>
       </c>
       <c r="D283" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01037</t>
+          <t>EGRAK01041</t>
         </is>
       </c>
     </row>
     <row r="284" ht="36" customHeight="1">
       <c r="A284" s="10" t="inlineStr">
         <is>
-          <t>IGRF000439007</t>
+          <t>IGRF000440005</t>
         </is>
       </c>
       <c r="B284" s="11" t="n">
@@ -18856,303 +18964,303 @@
       </c>
       <c r="C284" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY III 2028 BOND FUND Classic D</t>
+          <t>ALPHA MELLON II BALANCED FUND</t>
         </is>
       </c>
       <c r="D284" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01041</t>
+          <t>EGRAK01039</t>
         </is>
       </c>
     </row>
     <row r="285" ht="36" customHeight="1">
       <c r="A285" s="12" t="inlineStr">
         <is>
-          <t>IGRF000440005</t>
+          <t>IGRF000443009</t>
         </is>
       </c>
       <c r="B285" s="13" t="n">
-        <v>45083</v>
+        <v>45089</v>
       </c>
       <c r="C285" s="4" t="inlineStr">
         <is>
-          <t>ALPHA MELLON II BALANCED FUND</t>
+          <t>Optima income bond fund</t>
         </is>
       </c>
       <c r="D285" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01039</t>
+          <t>EGRAK01036</t>
         </is>
       </c>
     </row>
     <row r="286" ht="36" customHeight="1">
       <c r="A286" s="10" t="inlineStr">
         <is>
-          <t>IGRF000443009</t>
+          <t>PEGRAK01071_SHR</t>
         </is>
       </c>
       <c r="B286" s="11" t="n">
-        <v>45089</v>
-      </c>
-      <c r="C286" s="6" t="inlineStr">
-        <is>
-          <t>Optima income bond fund</t>
-        </is>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="C286" s="6" t="inlineStr"/>
       <c r="D286" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01036</t>
+          <t>EGRAK01071</t>
         </is>
       </c>
     </row>
     <row r="287" ht="36" customHeight="1">
       <c r="A287" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01071_SHR</t>
+          <t>IGRF000448008</t>
         </is>
       </c>
       <c r="B287" s="13" t="n">
-        <v>45105</v>
-      </c>
-      <c r="C287" s="4" t="inlineStr"/>
+        <v>45110</v>
+      </c>
+      <c r="C287" s="4" t="inlineStr">
+        <is>
+          <t>DELOS EXTRA INCOME 18months - BOND FUND</t>
+        </is>
+      </c>
       <c r="D287" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01071</t>
+          <t>EGRAK01040</t>
         </is>
       </c>
     </row>
     <row r="288" ht="36" customHeight="1">
       <c r="A288" s="10" t="inlineStr">
         <is>
-          <t>IGRF000448008</t>
+          <t>IGRF000447000</t>
         </is>
       </c>
       <c r="B288" s="11" t="n">
-        <v>45110</v>
+        <v>45114</v>
       </c>
       <c r="C288" s="6" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME 18months - BOND FUND</t>
+          <t>EUROBANK GF HELLAS INVEST DOMESTIC BALANCED FUND</t>
         </is>
       </c>
       <c r="D288" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01040</t>
+          <t>EGRAK01043</t>
         </is>
       </c>
     </row>
     <row r="289" ht="36" customHeight="1">
       <c r="A289" s="12" t="inlineStr">
         <is>
-          <t>IGRF000447000</t>
+          <t>PEGRAK01075_SHR</t>
         </is>
       </c>
       <c r="B289" s="13" t="n">
-        <v>45114</v>
-      </c>
-      <c r="C289" s="4" t="inlineStr">
-        <is>
-          <t>EUROBANK GF HELLAS INVEST DOMESTIC BALANCED FUND</t>
-        </is>
-      </c>
+        <v>45121</v>
+      </c>
+      <c r="C289" s="4" t="inlineStr"/>
       <c r="D289" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01043</t>
+          <t>EGRAK01075</t>
         </is>
       </c>
     </row>
     <row r="290" ht="36" customHeight="1">
       <c r="A290" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01075_SHR</t>
+          <t>PEGRAK01074_SHR</t>
         </is>
       </c>
       <c r="B290" s="11" t="n">
-        <v>45121</v>
+        <v>45133</v>
       </c>
       <c r="C290" s="6" t="inlineStr"/>
       <c r="D290" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01075</t>
+          <t>EGRAK01074</t>
         </is>
       </c>
     </row>
     <row r="291" ht="36" customHeight="1">
       <c r="A291" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01074_SHR</t>
+          <t>IGRF000449006</t>
         </is>
       </c>
       <c r="B291" s="13" t="n">
-        <v>45133</v>
-      </c>
-      <c r="C291" s="4" t="inlineStr"/>
+        <v>45138</v>
+      </c>
+      <c r="C291" s="4" t="inlineStr">
+        <is>
+          <t>DELOS EXTRA INCOME V 5 years - Bond Fund</t>
+        </is>
+      </c>
       <c r="D291" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01074</t>
+          <t>EGRAK01042</t>
         </is>
       </c>
     </row>
     <row r="292" ht="36" customHeight="1">
       <c r="A292" s="10" t="inlineStr">
         <is>
-          <t>IGRF000449006</t>
+          <t>IGRF000450004</t>
         </is>
       </c>
       <c r="B292" s="11" t="n">
-        <v>45138</v>
+        <v>45146</v>
       </c>
       <c r="C292" s="6" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME V 5 years - Bond Fund</t>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2026 EUROPEAN BOND FUND</t>
         </is>
       </c>
       <c r="D292" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01042</t>
+          <t>EGRAK01044</t>
         </is>
       </c>
     </row>
     <row r="293" ht="36" customHeight="1">
       <c r="A293" s="12" t="inlineStr">
         <is>
-          <t>IGRF000450004</t>
+          <t>IGRF000451002</t>
         </is>
       </c>
       <c r="B293" s="13" t="n">
-        <v>45146</v>
+        <v>45166</v>
       </c>
       <c r="C293" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2026 EUROPEAN BOND FUND</t>
+          <t>ALPHA TARGET MATURITY IV 2028 BOND FUND CLASSIC</t>
         </is>
       </c>
       <c r="D293" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01044</t>
+          <t>EGRAK01045</t>
         </is>
       </c>
     </row>
     <row r="294" ht="36" customHeight="1">
       <c r="A294" s="10" t="inlineStr">
         <is>
-          <t>IGRF000451002</t>
+          <t>IGRF000454006</t>
         </is>
       </c>
       <c r="B294" s="11" t="n">
-        <v>45166</v>
+        <v>45173</v>
       </c>
       <c r="C294" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY IV 2028 BOND FUND CLASSIC</t>
+          <t>DELOS EXTRA INCOME II 18months - BOND FUND</t>
         </is>
       </c>
       <c r="D294" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01045</t>
+          <t>EGRAK01049</t>
         </is>
       </c>
     </row>
     <row r="295" ht="36" customHeight="1">
       <c r="A295" s="12" t="inlineStr">
         <is>
-          <t>IGRF000454006</t>
+          <t>IGRF000453008</t>
         </is>
       </c>
       <c r="B295" s="13" t="n">
-        <v>45173</v>
+        <v>45181</v>
       </c>
       <c r="C295" s="4" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME II 18months - BOND FUND</t>
+          <t>ALPHA Bancassurance EE106 Structured Fund</t>
         </is>
       </c>
       <c r="D295" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01049</t>
+          <t>EGRAK01050</t>
         </is>
       </c>
     </row>
     <row r="296" ht="36" customHeight="1">
       <c r="A296" s="10" t="inlineStr">
         <is>
-          <t>IGRF000453008</t>
+          <t>IGRF000455003</t>
         </is>
       </c>
       <c r="B296" s="11" t="n">
-        <v>45181</v>
+        <v>45187</v>
       </c>
       <c r="C296" s="6" t="inlineStr">
         <is>
-          <t>ALPHA Bancassurance EE106 Structured Fund</t>
+          <t>3K/BANK OF ATTICA PREMIER INCOME BOND FUND</t>
         </is>
       </c>
       <c r="D296" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01050</t>
+          <t>EGRAK01047</t>
         </is>
       </c>
     </row>
     <row r="297" ht="36" customHeight="1">
       <c r="A297" s="12" t="inlineStr">
         <is>
-          <t>IGRF000455003</t>
+          <t>PEGRAK01076_SHR</t>
         </is>
       </c>
       <c r="B297" s="13" t="n">
-        <v>45187</v>
-      </c>
-      <c r="C297" s="4" t="inlineStr">
-        <is>
-          <t>3K/BANK OF ATTICA PREMIER INCOME BOND FUND</t>
-        </is>
-      </c>
+        <v>45219</v>
+      </c>
+      <c r="C297" s="4" t="inlineStr"/>
       <c r="D297" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01047</t>
+          <t>EGRAK01076</t>
         </is>
       </c>
     </row>
     <row r="298" ht="36" customHeight="1">
       <c r="A298" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01076_SHR</t>
+          <t>IGRF000457009</t>
         </is>
       </c>
       <c r="B298" s="11" t="n">
-        <v>45219</v>
-      </c>
-      <c r="C298" s="6" t="inlineStr"/>
+        <v>45231</v>
+      </c>
+      <c r="C298" s="6" t="inlineStr">
+        <is>
+          <t>DELOS EXTRA INCOME 24months - BOND FUND</t>
+        </is>
+      </c>
       <c r="D298" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01076</t>
+          <t>EGRAK01051</t>
         </is>
       </c>
     </row>
     <row r="299" ht="36" customHeight="1">
       <c r="A299" s="12" t="inlineStr">
         <is>
-          <t>IGRF000457009</t>
+          <t>IGRF000459005</t>
         </is>
       </c>
       <c r="B299" s="13" t="n">
-        <v>45231</v>
+        <v>45236</v>
       </c>
       <c r="C299" s="4" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME 24months - BOND FUND</t>
+          <t>ALPHA TARGET MATURITY V 2028 BOND FUND CLASSIC D</t>
         </is>
       </c>
       <c r="D299" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01051</t>
+          <t>EGRAK01052</t>
         </is>
       </c>
     </row>
     <row r="300" ht="36" customHeight="1">
       <c r="A300" s="10" t="inlineStr">
         <is>
-          <t>IGRF000459005</t>
+          <t>IGRF000460003</t>
         </is>
       </c>
       <c r="B300" s="11" t="n">
@@ -19160,79 +19268,79 @@
       </c>
       <c r="C300" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY V 2028 BOND FUND CLASSIC D</t>
+          <t>PIRAEUS INCOME 2025 EUROPEAN BOND FUND</t>
         </is>
       </c>
       <c r="D300" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01052</t>
+          <t>EGRAK01053</t>
         </is>
       </c>
     </row>
     <row r="301" ht="36" customHeight="1">
       <c r="A301" s="12" t="inlineStr">
         <is>
-          <t>IGRF000460003</t>
+          <t>IGRF000462009</t>
         </is>
       </c>
       <c r="B301" s="13" t="n">
-        <v>45236</v>
+        <v>45252</v>
       </c>
       <c r="C301" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS INCOME 2025 EUROPEAN BOND FUND</t>
+          <t>GREEK FUND TARGET MATURITY VII BOND FUND - EUROBANK DIS CLASS</t>
         </is>
       </c>
       <c r="D301" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01053</t>
+          <t>EGRAK01054</t>
         </is>
       </c>
     </row>
     <row r="302" ht="36" customHeight="1">
       <c r="A302" s="10" t="inlineStr">
         <is>
-          <t>IGRF000462009</t>
+          <t>IGRF000464005</t>
         </is>
       </c>
       <c r="B302" s="11" t="n">
-        <v>45252</v>
+        <v>45268</v>
       </c>
       <c r="C302" s="6" t="inlineStr">
         <is>
-          <t>GREEK FUND TARGET MATURITY VII BOND FUND - EUROBANK DIS CLASS</t>
+          <t>DELOS EXTRA INCOME III 18months - BOND FUND</t>
         </is>
       </c>
       <c r="D302" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01054</t>
+          <t>EGRAK01056</t>
         </is>
       </c>
     </row>
     <row r="303" ht="36" customHeight="1">
       <c r="A303" s="12" t="inlineStr">
         <is>
-          <t>IGRF000464005</t>
+          <t>IGRF000281003</t>
         </is>
       </c>
       <c r="B303" s="13" t="n">
-        <v>45268</v>
+        <v>45274</v>
       </c>
       <c r="C303" s="4" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME III 18months - BOND FUND</t>
+          <t>PIRAEUS EUROPEAN BALANCED FUND (U)</t>
         </is>
       </c>
       <c r="D303" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01056</t>
+          <t>EGRAK00828</t>
         </is>
       </c>
     </row>
     <row r="304" ht="36" customHeight="1">
       <c r="A304" s="10" t="inlineStr">
         <is>
-          <t>IGRF000281003</t>
+          <t>IGRF000445004</t>
         </is>
       </c>
       <c r="B304" s="11" t="n">
@@ -19240,19 +19348,19 @@
       </c>
       <c r="C304" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS EUROPEAN BALANCED FUND (U)</t>
+          <t>PIRAEUS ESG EURO AGGREGATE BOND FUND (U)</t>
         </is>
       </c>
       <c r="D304" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00828</t>
+          <t>EGRAK00253</t>
         </is>
       </c>
     </row>
     <row r="305" ht="36" customHeight="1">
       <c r="A305" s="12" t="inlineStr">
         <is>
-          <t>IGRF000445004</t>
+          <t>IGRF000446002</t>
         </is>
       </c>
       <c r="B305" s="13" t="n">
@@ -19260,95 +19368,95 @@
       </c>
       <c r="C305" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS ESG EURO AGGREGATE BOND FUND (U)</t>
+          <t>PIRAEUS US EQUITY FUND (U)</t>
         </is>
       </c>
       <c r="D305" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00253</t>
+          <t>EGRAK00512</t>
         </is>
       </c>
     </row>
     <row r="306" ht="36" customHeight="1">
       <c r="A306" s="10" t="inlineStr">
         <is>
-          <t>IGRF000446002</t>
+          <t>IGRF000466000</t>
         </is>
       </c>
       <c r="B306" s="11" t="n">
-        <v>45274</v>
+        <v>45282</v>
       </c>
       <c r="C306" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS US EQUITY FUND (U)</t>
+          <t>ALPHA TARGET MATURITY VI 2026 BOND FUND Classic D</t>
         </is>
       </c>
       <c r="D306" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00512</t>
+          <t>EGRAK01055</t>
         </is>
       </c>
     </row>
     <row r="307" ht="36" customHeight="1">
       <c r="A307" s="12" t="inlineStr">
         <is>
-          <t>IGRF000466000</t>
+          <t>PEGRAEEAP012_SHR</t>
         </is>
       </c>
       <c r="B307" s="13" t="n">
-        <v>45282</v>
-      </c>
-      <c r="C307" s="4" t="inlineStr">
-        <is>
-          <t>ALPHA TARGET MATURITY VI 2026 BOND FUND Classic D</t>
-        </is>
-      </c>
+        <v>45287</v>
+      </c>
+      <c r="C307" s="4" t="inlineStr"/>
       <c r="D307" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01055</t>
+          <t>EGRAEEAP012</t>
         </is>
       </c>
     </row>
     <row r="308" ht="36" customHeight="1">
       <c r="A308" s="10" t="inlineStr">
         <is>
-          <t>PEGRAEEAP012_SHR</t>
+          <t>IGRF000472008</t>
         </is>
       </c>
       <c r="B308" s="11" t="n">
-        <v>45287</v>
-      </c>
-      <c r="C308" s="6" t="inlineStr"/>
+        <v>45307</v>
+      </c>
+      <c r="C308" s="6" t="inlineStr">
+        <is>
+          <t>DELOS EXTRA INCOME II 24months - BOND FUND</t>
+        </is>
+      </c>
       <c r="D308" s="6" t="inlineStr">
         <is>
-          <t>EGRAEEAP012</t>
+          <t>EGRAK01081</t>
         </is>
       </c>
     </row>
     <row r="309" ht="36" customHeight="1">
       <c r="A309" s="12" t="inlineStr">
         <is>
-          <t>IGRF000472008</t>
+          <t>IGRF000467008</t>
         </is>
       </c>
       <c r="B309" s="13" t="n">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="C309" s="4" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME II 24months - BOND FUND</t>
+          <t>ALPHA Bancassurance EE107 Structured Fund</t>
         </is>
       </c>
       <c r="D309" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01081</t>
+          <t>EGRAK01079</t>
         </is>
       </c>
     </row>
     <row r="310" ht="36" customHeight="1">
       <c r="A310" s="10" t="inlineStr">
         <is>
-          <t>IGRF000467008</t>
+          <t>IGRF000473006</t>
         </is>
       </c>
       <c r="B310" s="11" t="n">
@@ -19356,19 +19464,19 @@
       </c>
       <c r="C310" s="6" t="inlineStr">
         <is>
-          <t>ALPHA Bancassurance EE107 Structured Fund</t>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2029 II EUROREAN BOND FUND</t>
         </is>
       </c>
       <c r="D310" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01079</t>
+          <t>EGRAK01077</t>
         </is>
       </c>
     </row>
     <row r="311" ht="36" customHeight="1">
       <c r="A311" s="12" t="inlineStr">
         <is>
-          <t>IGRF000473006</t>
+          <t>IGRF000474004</t>
         </is>
       </c>
       <c r="B311" s="13" t="n">
@@ -19376,59 +19484,59 @@
       </c>
       <c r="C311" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2029 II EUROREAN BOND FUND</t>
+          <t>PIRAEUS INCOME 2026 EUROPEAN BOND FUND</t>
         </is>
       </c>
       <c r="D311" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01077</t>
+          <t>EGRAK01078</t>
         </is>
       </c>
     </row>
     <row r="312" ht="36" customHeight="1">
       <c r="A312" s="10" t="inlineStr">
         <is>
-          <t>IGRF000474004</t>
+          <t>IGRF000471000</t>
         </is>
       </c>
       <c r="B312" s="11" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="C312" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS INCOME 2026 EUROPEAN BOND FUND</t>
+          <t>Optima income 2028 bond fund</t>
         </is>
       </c>
       <c r="D312" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01078</t>
+          <t>EGRAK01080</t>
         </is>
       </c>
     </row>
     <row r="313" ht="36" customHeight="1">
       <c r="A313" s="12" t="inlineStr">
         <is>
-          <t>IGRF000471000</t>
+          <t>IGRF000468006</t>
         </is>
       </c>
       <c r="B313" s="13" t="n">
-        <v>45313</v>
+        <v>45327</v>
       </c>
       <c r="C313" s="4" t="inlineStr">
         <is>
-          <t>Optima income 2028 bond fund</t>
+          <t>ALPHA EURO SHORT-TERM BOND FUND Classic</t>
         </is>
       </c>
       <c r="D313" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01080</t>
+          <t>EGRAK01082</t>
         </is>
       </c>
     </row>
     <row r="314" ht="36" customHeight="1">
       <c r="A314" s="10" t="inlineStr">
         <is>
-          <t>IGRF000468006</t>
+          <t>IGRF000469004</t>
         </is>
       </c>
       <c r="B314" s="11" t="n">
@@ -19436,7 +19544,7 @@
       </c>
       <c r="C314" s="6" t="inlineStr">
         <is>
-          <t>ALPHA EURO SHORT-TERM BOND FUND Classic</t>
+          <t>ALPHA EURO SHORT-TERM BOND FUND Classic D</t>
         </is>
       </c>
       <c r="D314" s="6" t="inlineStr">
@@ -19448,7 +19556,7 @@
     <row r="315" ht="36" customHeight="1">
       <c r="A315" s="12" t="inlineStr">
         <is>
-          <t>IGRF000469004</t>
+          <t>IGRF000470002</t>
         </is>
       </c>
       <c r="B315" s="13" t="n">
@@ -19456,7 +19564,7 @@
       </c>
       <c r="C315" s="4" t="inlineStr">
         <is>
-          <t>ALPHA EURO SHORT-TERM BOND FUND Classic D</t>
+          <t>ALPHA EURO SHORT-TERM BOND FUND Institutional</t>
         </is>
       </c>
       <c r="D315" s="4" t="inlineStr">
@@ -19468,47 +19576,47 @@
     <row r="316" ht="36" customHeight="1">
       <c r="A316" s="10" t="inlineStr">
         <is>
-          <t>IGRF000470002</t>
+          <t>IGRF000482007</t>
         </is>
       </c>
       <c r="B316" s="11" t="n">
-        <v>45327</v>
+        <v>45372</v>
       </c>
       <c r="C316" s="6" t="inlineStr">
         <is>
-          <t>ALPHA EURO SHORT-TERM BOND FUND Institutional</t>
+          <t>3K/BANK OF ATTICA PREMIER INCOME BOND FUND 2026</t>
         </is>
       </c>
       <c r="D316" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01082</t>
+          <t>EGRAK01087</t>
         </is>
       </c>
     </row>
     <row r="317" ht="36" customHeight="1">
       <c r="A317" s="12" t="inlineStr">
         <is>
-          <t>IGRF000482007</t>
+          <t>IGRF000478005</t>
         </is>
       </c>
       <c r="B317" s="13" t="n">
-        <v>45372</v>
+        <v>45377</v>
       </c>
       <c r="C317" s="4" t="inlineStr">
         <is>
-          <t>3K/BANK OF ATTICA PREMIER INCOME BOND FUND 2026</t>
+          <t>NBG Asset Allocation Balanced - Balanced Fund of Funds</t>
         </is>
       </c>
       <c r="D317" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01087</t>
+          <t>EGRAK01085</t>
         </is>
       </c>
     </row>
     <row r="318" ht="36" customHeight="1">
       <c r="A318" s="10" t="inlineStr">
         <is>
-          <t>IGRF000478005</t>
+          <t>IGRF000479003</t>
         </is>
       </c>
       <c r="B318" s="11" t="n">
@@ -19516,19 +19624,19 @@
       </c>
       <c r="C318" s="6" t="inlineStr">
         <is>
-          <t>NBG Asset Allocation Balanced - Balanced Fund of Funds</t>
+          <t>NBG Asset Allocation Conservative -  Balanced Fund of Funds</t>
         </is>
       </c>
       <c r="D318" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01085</t>
+          <t>EGRAK01084</t>
         </is>
       </c>
     </row>
     <row r="319" ht="36" customHeight="1">
       <c r="A319" s="12" t="inlineStr">
         <is>
-          <t>IGRF000479003</t>
+          <t>IGRF000480001</t>
         </is>
       </c>
       <c r="B319" s="13" t="n">
@@ -19536,39 +19644,39 @@
       </c>
       <c r="C319" s="4" t="inlineStr">
         <is>
-          <t>NBG Asset Allocation Conservative -  Balanced Fund of Funds</t>
+          <t>NBG Asset Allocation Dynamic - Balanced Fund of Funds</t>
         </is>
       </c>
       <c r="D319" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01084</t>
+          <t>EGRAK01086</t>
         </is>
       </c>
     </row>
     <row r="320" ht="36" customHeight="1">
       <c r="A320" s="10" t="inlineStr">
         <is>
-          <t>IGRF000480001</t>
+          <t>IGRF000477007</t>
         </is>
       </c>
       <c r="B320" s="11" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="C320" s="6" t="inlineStr">
         <is>
-          <t>NBG Asset Allocation Dynamic - Balanced Fund of Funds</t>
+          <t>ALPHA TARGET MATURITY VII 2026 BOND FUND CLASSIC D</t>
         </is>
       </c>
       <c r="D320" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01086</t>
+          <t>EGRAK01088</t>
         </is>
       </c>
     </row>
     <row r="321" ht="36" customHeight="1">
       <c r="A321" s="12" t="inlineStr">
         <is>
-          <t>IGRF000477007</t>
+          <t>IGRF000481009</t>
         </is>
       </c>
       <c r="B321" s="13" t="n">
@@ -19576,359 +19684,359 @@
       </c>
       <c r="C321" s="4" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY VII 2026 BOND FUND CLASSIC D</t>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 EUROREAN BOND FUND</t>
         </is>
       </c>
       <c r="D321" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01088</t>
+          <t>EGRAK01089</t>
         </is>
       </c>
     </row>
     <row r="322" ht="36" customHeight="1">
       <c r="A322" s="10" t="inlineStr">
         <is>
-          <t>IGRF000481009</t>
+          <t>IGRF000486008</t>
         </is>
       </c>
       <c r="B322" s="11" t="n">
-        <v>45379</v>
+        <v>45397</v>
       </c>
       <c r="C322" s="6" t="inlineStr">
         <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 EUROREAN BOND FUND</t>
+          <t>DELOS EXTRA INCOME IV 24MONTHS - BOND FUND</t>
         </is>
       </c>
       <c r="D322" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01089</t>
+          <t>EGRAK01090</t>
         </is>
       </c>
     </row>
     <row r="323" ht="36" customHeight="1">
       <c r="A323" s="12" t="inlineStr">
         <is>
-          <t>IGRF000486008</t>
+          <t>PEGRAK01100_SHR</t>
         </is>
       </c>
       <c r="B323" s="13" t="n">
-        <v>45397</v>
-      </c>
-      <c r="C323" s="4" t="inlineStr">
-        <is>
-          <t>DELOS EXTRA INCOME IV 24MONTHS - BOND FUND</t>
-        </is>
-      </c>
+        <v>45408</v>
+      </c>
+      <c r="C323" s="4" t="inlineStr"/>
       <c r="D323" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01090</t>
+          <t>EGRAK01100</t>
         </is>
       </c>
     </row>
     <row r="324" ht="36" customHeight="1">
       <c r="A324" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01100_SHR</t>
+          <t>PEGRAK01099_SHR</t>
         </is>
       </c>
       <c r="B324" s="11" t="n">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="C324" s="6" t="inlineStr"/>
       <c r="D324" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01100</t>
+          <t>EGRAK01099</t>
         </is>
       </c>
     </row>
     <row r="325" ht="36" customHeight="1">
       <c r="A325" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01099_SHR</t>
+          <t>IGRF000487006</t>
         </is>
       </c>
       <c r="B325" s="13" t="n">
-        <v>45411</v>
-      </c>
-      <c r="C325" s="4" t="inlineStr"/>
+        <v>45412</v>
+      </c>
+      <c r="C325" s="4" t="inlineStr">
+        <is>
+          <t>Piraeus Income 2026 (II) European Bond Fund</t>
+        </is>
+      </c>
       <c r="D325" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01099</t>
+          <t>EGRAK01091</t>
         </is>
       </c>
     </row>
     <row r="326" ht="36" customHeight="1">
       <c r="A326" s="10" t="inlineStr">
         <is>
-          <t>IGRF000487006</t>
+          <t>IGRF000490000</t>
         </is>
       </c>
       <c r="B326" s="11" t="n">
-        <v>45412</v>
+        <v>45422</v>
       </c>
       <c r="C326" s="6" t="inlineStr">
         <is>
-          <t>Piraeus Income 2026 (II) European Bond Fund</t>
+          <t>OPTIMA INCOME 2029 BOND FUND</t>
         </is>
       </c>
       <c r="D326" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01091</t>
+          <t>EGRAK01092</t>
         </is>
       </c>
     </row>
     <row r="327" ht="36" customHeight="1">
       <c r="A327" s="12" t="inlineStr">
         <is>
-          <t>IGRF000490000</t>
+          <t>IGRF000489002</t>
         </is>
       </c>
       <c r="B327" s="13" t="n">
-        <v>45422</v>
+        <v>45442</v>
       </c>
       <c r="C327" s="4" t="inlineStr">
         <is>
-          <t>OPTIMA INCOME 2029 BOND FUND</t>
+          <t>ALPHA BANCASSURANCE EE108 STRUCTURED FUND</t>
         </is>
       </c>
       <c r="D327" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01092</t>
+          <t>EGRAK01093</t>
         </is>
       </c>
     </row>
     <row r="328" ht="36" customHeight="1">
       <c r="A328" s="10" t="inlineStr">
         <is>
-          <t>IGRF000489002</t>
+          <t>IGRF000491008</t>
         </is>
       </c>
       <c r="B328" s="11" t="n">
-        <v>45442</v>
+        <v>45446</v>
       </c>
       <c r="C328" s="6" t="inlineStr">
         <is>
-          <t>ALPHA BANCASSURANCE EE108 STRUCTURED FUND</t>
+          <t>DELOS EXTRA INCOME V 24MONTHS - BOND FUND</t>
         </is>
       </c>
       <c r="D328" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01093</t>
+          <t>EGRAK01094</t>
         </is>
       </c>
     </row>
     <row r="329" ht="36" customHeight="1">
       <c r="A329" s="12" t="inlineStr">
         <is>
-          <t>IGRF000491008</t>
+          <t>IGRF000492006</t>
         </is>
       </c>
       <c r="B329" s="13" t="n">
-        <v>45446</v>
+        <v>45492</v>
       </c>
       <c r="C329" s="4" t="inlineStr">
         <is>
-          <t>DELOS EXTRA INCOME V 24MONTHS - BOND FUND</t>
+          <t>DELOS EXTRA INCOME VI 24MONTHS - BOND FUND</t>
         </is>
       </c>
       <c r="D329" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01094</t>
+          <t>EGRAK01095</t>
         </is>
       </c>
     </row>
     <row r="330" ht="36" customHeight="1">
       <c r="A330" s="10" t="inlineStr">
         <is>
-          <t>IGRF000492006</t>
+          <t>PEGRAK01102_SHR</t>
         </is>
       </c>
       <c r="B330" s="11" t="n">
-        <v>45492</v>
-      </c>
-      <c r="C330" s="6" t="inlineStr">
-        <is>
-          <t>DELOS EXTRA INCOME VI 24MONTHS - BOND FUND</t>
-        </is>
-      </c>
+        <v>45496</v>
+      </c>
+      <c r="C330" s="6" t="inlineStr"/>
       <c r="D330" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01095</t>
+          <t>EGRAK01102</t>
         </is>
       </c>
     </row>
     <row r="331" ht="36" customHeight="1">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>PEGRAK01102_SHR</t>
+          <t>PEGRAK01104_SHR</t>
         </is>
       </c>
       <c r="B331" s="13" t="n">
-        <v>45496</v>
+        <v>45502</v>
       </c>
       <c r="C331" s="4" t="inlineStr"/>
       <c r="D331" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01102</t>
+          <t>EGRAK01104</t>
         </is>
       </c>
     </row>
     <row r="332" ht="36" customHeight="1">
       <c r="A332" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01104_SHR</t>
+          <t>IGRF000493004</t>
         </is>
       </c>
       <c r="B332" s="11" t="n">
-        <v>45502</v>
-      </c>
-      <c r="C332" s="6" t="inlineStr"/>
+        <v>45504</v>
+      </c>
+      <c r="C332" s="6" t="inlineStr">
+        <is>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 (II) EUROPEAN BOND FUND</t>
+        </is>
+      </c>
       <c r="D332" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01104</t>
+          <t>EGRAK01096</t>
         </is>
       </c>
     </row>
     <row r="333" ht="36" customHeight="1">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>IGRF000493004</t>
+          <t>IGRF000495009</t>
         </is>
       </c>
       <c r="B333" s="13" t="n">
-        <v>45504</v>
+        <v>45513</v>
       </c>
       <c r="C333" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2027 (II) EUROPEAN BOND FUND</t>
+          <t>TRITON Target Maturity Class A</t>
         </is>
       </c>
       <c r="D333" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01096</t>
+          <t>EGRAK01097</t>
         </is>
       </c>
     </row>
     <row r="334" ht="36" customHeight="1">
       <c r="A334" s="10" t="inlineStr">
         <is>
-          <t>IGRF000495009</t>
+          <t>IGRF000494002</t>
         </is>
       </c>
       <c r="B334" s="11" t="n">
-        <v>45513</v>
+        <v>45546</v>
       </c>
       <c r="C334" s="6" t="inlineStr">
         <is>
-          <t>TRITON Target Maturity Class A</t>
+          <t>PIRAEUS IDEAS GLOBAL EQUITY FUND (R)</t>
         </is>
       </c>
       <c r="D334" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01097</t>
+          <t>EGRAK01004</t>
         </is>
       </c>
     </row>
     <row r="335" ht="36" customHeight="1">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>IGRF000494002</t>
+          <t>IGRF000496007</t>
         </is>
       </c>
       <c r="B335" s="13" t="n">
-        <v>45546</v>
+        <v>45547</v>
       </c>
       <c r="C335" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS IDEAS GLOBAL EQUITY FUND (R)</t>
+          <t>TRITON Target Maturity Class E</t>
         </is>
       </c>
       <c r="D335" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01004</t>
+          <t>EGRAK01097</t>
         </is>
       </c>
     </row>
     <row r="336" ht="36" customHeight="1">
       <c r="A336" s="10" t="inlineStr">
         <is>
-          <t>IGRF000496007</t>
+          <t>IGRF000497005</t>
         </is>
       </c>
       <c r="B336" s="11" t="n">
-        <v>45547</v>
+        <v>45551</v>
       </c>
       <c r="C336" s="6" t="inlineStr">
         <is>
-          <t>TRITON Target Maturity Class E</t>
+          <t>DELOS EXTRA INCOME VII 24MONTHS - BOND FUND</t>
         </is>
       </c>
       <c r="D336" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01097</t>
+          <t>EGRAK01098</t>
         </is>
       </c>
     </row>
     <row r="337" ht="36" customHeight="1">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>IGRF000497005</t>
+          <t>PEGRAK01103_SHR</t>
         </is>
       </c>
       <c r="B337" s="13" t="n">
-        <v>45551</v>
-      </c>
-      <c r="C337" s="4" t="inlineStr">
-        <is>
-          <t>DELOS EXTRA INCOME VII 24MONTHS - BOND FUND</t>
-        </is>
-      </c>
+        <v>45552</v>
+      </c>
+      <c r="C337" s="4" t="inlineStr"/>
       <c r="D337" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01098</t>
+          <t>EGRAK01103</t>
         </is>
       </c>
     </row>
     <row r="338" ht="36" customHeight="1">
       <c r="A338" s="10" t="inlineStr">
         <is>
-          <t>PEGRAK01103_SHR</t>
+          <t>IGRF000504008</t>
         </is>
       </c>
       <c r="B338" s="11" t="n">
-        <v>45552</v>
-      </c>
-      <c r="C338" s="6" t="inlineStr"/>
+        <v>45572</v>
+      </c>
+      <c r="C338" s="6" t="inlineStr">
+        <is>
+          <t>OPTIMA INCOME 2026 BOND FUND</t>
+        </is>
+      </c>
       <c r="D338" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01103</t>
+          <t>EGRAK01107</t>
         </is>
       </c>
     </row>
     <row r="339" ht="36" customHeight="1">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>IGRF000504008</t>
+          <t>IGRF000499001</t>
         </is>
       </c>
       <c r="B339" s="13" t="n">
-        <v>45572</v>
+        <v>45576</v>
       </c>
       <c r="C339" s="4" t="inlineStr">
         <is>
-          <t>OPTIMA INCOME 2026 BOND FUND</t>
+          <t>ALPHA TARGET MATURITY VIII 2029 BOND FUND CLASSIC D</t>
         </is>
       </c>
       <c r="D339" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01107</t>
+          <t>EGRAK01105</t>
         </is>
       </c>
     </row>
     <row r="340" ht="36" customHeight="1">
       <c r="A340" s="10" t="inlineStr">
         <is>
-          <t>IGRF000499001</t>
+          <t>IGRF000501004</t>
         </is>
       </c>
       <c r="B340" s="11" t="n">
@@ -19936,57 +20044,37 @@
       </c>
       <c r="C340" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY VIII 2029 BOND FUND CLASSIC D</t>
+          <t>PIRAEUS REGULAR INCOME STRATEGY 2029 (III) EUROPEAN BOND FUND</t>
         </is>
       </c>
       <c r="D340" s="6" t="inlineStr">
         <is>
-          <t>EGRAK01105</t>
+          <t>EGRAK01101</t>
         </is>
       </c>
     </row>
     <row r="341" ht="36" customHeight="1">
       <c r="A341" s="12" t="inlineStr">
         <is>
-          <t>IGRF000501004</t>
+          <t>IGRF000500006</t>
         </is>
       </c>
       <c r="B341" s="13" t="n">
-        <v>45576</v>
+        <v>45586</v>
       </c>
       <c r="C341" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS REGULAR INCOME STRATEGY 2029 (III) EUROPEAN BOND FUND</t>
+          <t>ALPHA BANCASSURANCE EE109 STRUCTURED FUND</t>
         </is>
       </c>
       <c r="D341" s="4" t="inlineStr">
         <is>
-          <t>EGRAK01101</t>
-        </is>
-      </c>
-    </row>
-    <row r="342" ht="36" customHeight="1">
-      <c r="A342" s="10" t="inlineStr">
-        <is>
-          <t>IGRF000500006</t>
-        </is>
-      </c>
-      <c r="B342" s="11" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C342" s="6" t="inlineStr">
-        <is>
-          <t>ALPHA BANCASSURANCE EE109 STRUCTURED FUND</t>
-        </is>
-      </c>
-      <c r="D342" s="6" t="inlineStr">
-        <is>
           <t>EGRAK01106</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D342"/>
+  <autoFilter ref="A1:D341"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/docs/source/_static/structure/IFDAT-LIST.xlsx
+++ b/docs/source/_static/structure/IFDAT-LIST.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ΠΕΡΙΕΧΟΜΕΝΑ'!$A$1:$A$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ΜΠΣ'!$A$1:$F$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EO'!$A$1:$I$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EO'!$A$1:$J$260</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ'!$A$1:$D$341</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ΕΚΔΟΣΕΙΣ ΟΜΟΛΟΓΩΝ ΕΟ'!$A$1:$D$4</definedName>
   </definedNames>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>TGR094036844, BGR000352001000, L213800BEX8X28DTL5391</t>
+          <t>BGR000352001000, L213800BEX8X28DTL5391, TGR094036844</t>
         </is>
       </c>
       <c r="C3" s="13" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>BGR002292401000, L213800SMPWZVT6GGQZ69, TGR094493219</t>
+          <t>TGR094493219, L213800SMPWZVT6GGQZ69, BGR002292401000</t>
         </is>
       </c>
       <c r="C4" s="11" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>BGR006314201000, L213800CF8C4B9AKV1Z96, TGR999081601</t>
+          <t>TGR999081601, L213800CF8C4B9AKV1Z96, BGR006314201000</t>
         </is>
       </c>
       <c r="C6" s="11" t="n">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>TGR094304867, L213800UWXVWAKFGVLB36, BGR001003501000</t>
+          <t>L213800UWXVWAKFGVLB36, BGR001003501000, TGR094304867</t>
         </is>
       </c>
       <c r="C7" s="13" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>TGR094354938, L213800U6WAX3YXMFVH22, BGR000942001000</t>
+          <t>BGR000942001000, TGR094354938, L213800U6WAX3YXMFVH22</t>
         </is>
       </c>
       <c r="C8" s="11" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>BGR000832401000, L213800YSZHWSCLXXRI37, TGR094325107</t>
+          <t>TGR094325107, BGR000832401000, L213800YSZHWSCLXXRI37</t>
         </is>
       </c>
       <c r="C9" s="13" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>TGR094351475, BGR000918601000, L635400S5G5WWGN6B8T87</t>
+          <t>BGR000918601000, TGR094351475, L635400S5G5WWGN6B8T87</t>
         </is>
       </c>
       <c r="C10" s="11" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>TGR099553209, BGR003581901000, L213800XXMES8I6GQVQ47</t>
+          <t>BGR003581901000, L213800XXMES8I6GQVQ47, TGR099553209</t>
         </is>
       </c>
       <c r="C11" s="13" t="n">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>BGR122032001000, TGR099757323, L9845003A94A6F41EB779</t>
+          <t>L9845003A94A6F41EB779, TGR099757323, BGR122032001000</t>
         </is>
       </c>
       <c r="C13" s="13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>L213800USGL7Q5UR9M221, BGR003882701000, TGR099759863</t>
+          <t>TGR099759863, L213800USGL7Q5UR9M221, BGR003882701000</t>
         </is>
       </c>
       <c r="C14" s="11" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>BGR004373001000, TGR999984680, L984500EE5E3BA3F08B21</t>
+          <t>TGR999984680, BGR004373001000, L984500EE5E3BA3F08B21</t>
         </is>
       </c>
       <c r="C15" s="13" t="n">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>L213800U7SBKWW79CBG88, TGR099554901, BGR003548801000</t>
+          <t>L213800U7SBKWW79CBG88, BGR003548801000, TGR099554901</t>
         </is>
       </c>
       <c r="C16" s="11" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>BGR006816701000, TGR998940936, L213800P8QPUPE3SOGX14</t>
+          <t>L213800P8QPUPE3SOGX14, BGR006816701000, TGR998940936</t>
         </is>
       </c>
       <c r="C17" s="13" t="n">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>TGR099555020, BGR003546201000, L549300XDXYOF57JOFT72</t>
+          <t>L549300XDXYOF57JOFT72, BGR003546201000, TGR099555020</t>
         </is>
       </c>
       <c r="C19" s="13" t="n">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>L213800ESHXNWYJAEMO70, BGR008234001000, TGR998159392</t>
+          <t>BGR008234001000, L213800ESHXNWYJAEMO70, TGR998159392</t>
         </is>
       </c>
       <c r="C21" s="13" t="n">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>L213800QM2ZFRARYU6C87, TGR800397001, BGR120108101000</t>
+          <t>BGR120108101000, L213800QM2ZFRARYU6C87, TGR800397001</t>
         </is>
       </c>
       <c r="C22" s="11" t="n">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>TGR800398384, BGR120129501000, L21380099L8WQI3DI3Y74</t>
+          <t>L21380099L8WQI3DI3Y74, TGR800398384, BGR120129501000</t>
         </is>
       </c>
       <c r="C23" s="13" t="n">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>TGR997656128, L213800Q23BDHSW1OQT90, BGR128686346000</t>
+          <t>BGR128686346000, L213800Q23BDHSW1OQT90, TGR997656128</t>
         </is>
       </c>
       <c r="C25" s="13" t="n">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>L213800PZN3W777G7XR07, TGR800792234, BGR141064201000</t>
+          <t>TGR800792234, BGR141064201000, L213800PZN3W777G7XR07</t>
         </is>
       </c>
       <c r="C27" s="13" t="n">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>TGR800903737, BGR144560003000, L9845007DB3RB2B4DN624</t>
+          <t>L9845007DB3RB2B4DN624, TGR800903737, BGR144560003000</t>
         </is>
       </c>
       <c r="C29" s="13" t="n">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>TGR800911079, BGR144725001000</t>
+          <t>BGR144725001000, TGR800911079</t>
         </is>
       </c>
       <c r="C30" s="11" t="n">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>L213800DTEZE6R8BZ9K19, TGR801077433, BGR148547901000</t>
+          <t>TGR801077433, L213800DTEZE6R8BZ9K19, BGR148547901000</t>
         </is>
       </c>
       <c r="C31" s="13" t="n">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>L213800XKY8GHKN57D970, TGR996899546, BGR152321260000</t>
+          <t>TGR996899546, BGR152321260000, L213800XKY8GHKN57D970</t>
         </is>
       </c>
       <c r="C32" s="11" t="n">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>TGR801296814, BGR153787304000, L9845007855485B71CC46</t>
+          <t>BGR153787304000, TGR801296814, L9845007855485B71CC46</t>
         </is>
       </c>
       <c r="C33" s="13" t="n">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>BGR154382104000, TGR801322351</t>
+          <t>TGR801322351, BGR154382104000</t>
         </is>
       </c>
       <c r="C34" s="11" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>TGR801446949, BGR157036301000, L9845004F1F377E786787</t>
+          <t>BGR157036301000, TGR801446949, L9845004F1F377E786787</t>
         </is>
       </c>
       <c r="C36" s="11" t="n">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>TGR801470046, BGR157511601000, L2138006VXU6UDW7P6H67</t>
+          <t>BGR157511601000, TGR801470046, L2138006VXU6UDW7P6H67</t>
         </is>
       </c>
       <c r="C37" s="13" t="n">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>BGR159031301000, TGR801554045, L213800YJOZGHVAPEJP93</t>
+          <t>TGR801554045, BGR159031301000, L213800YJOZGHVAPEJP93</t>
         </is>
       </c>
       <c r="C39" s="13" t="n">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>BGR161709401000, TGR801698110, L984500E6O0A11A6C4E59</t>
+          <t>TGR801698110, BGR161709401000, L984500E6O0A11A6C4E59</t>
         </is>
       </c>
       <c r="C41" s="13" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
-          <t>TGR094321237, L213800MU91F1752AVM79, BGR000861301000</t>
+          <t>L213800MU91F1752AVM79, TGR094321237, BGR000861301000</t>
         </is>
       </c>
       <c r="C42" s="11" t="n">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
-          <t>TGR801878297, BGR165052501000, L984500F87AF5652C5A91</t>
+          <t>L984500F87AF5652C5A91, BGR165052501000, TGR801878297</t>
         </is>
       </c>
       <c r="C44" s="11" t="n">
@@ -2521,8 +2521,8 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 
-BGR168398401000, TGR802025852, BGR168398401000</t>
+          <t>BGR168398401000, TGR802025852,  
+BGR168398401000</t>
         </is>
       </c>
       <c r="C45" s="13" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
-          <t>L2138007QOK3W75DIHX50, TGR802047322, BGR168862301000</t>
+          <t>BGR168862301000, L2138007QOK3W75DIHX50, TGR802047322</t>
         </is>
       </c>
       <c r="C46" s="11" t="n">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
-          <t>L984500EE58FDEBF8BF32, TGR802177269, BGR171519601000</t>
+          <t>TGR802177269, L984500EE58FDEBF8BF32, BGR171519601000</t>
         </is>
       </c>
       <c r="C48" s="11" t="n">
@@ -2792,7 +2792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I260"/>
+  <dimension ref="A1:J260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2808,10 +2808,11 @@
     <col width="27.3" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="14.3" customWidth="1" min="5" max="5"/>
-    <col width="18.2" customWidth="1" min="6" max="6"/>
+    <col width="6.5" customWidth="1" min="6" max="6"/>
     <col width="18.2" customWidth="1" min="7" max="7"/>
-    <col width="50" customWidth="1" min="8" max="8"/>
-    <col width="19.5" customWidth="1" min="9" max="9"/>
+    <col width="18.2" customWidth="1" min="8" max="8"/>
+    <col width="50" customWidth="1" min="9" max="9"/>
+    <col width="24.7" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1">
@@ -2841,22 +2842,27 @@
       </c>
       <c r="F1" s="8" t="inlineStr">
         <is>
+          <t>IEK</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
           <t>ΔΙΑΧΕΙΡΙΣΤΗΣ</t>
         </is>
       </c>
-      <c r="G1" s="8" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>ΜΠΣ</t>
         </is>
       </c>
-      <c r="H1" s="8" t="inlineStr">
-        <is>
-          <t>ΙΔΙΕΣ ΜΕΤΟΧΕΣ</t>
-        </is>
-      </c>
       <c r="I1" s="8" t="inlineStr">
         <is>
-          <t>ΙΔΙΑ ΟΜΟΛΟΓΑ</t>
+          <t>ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ</t>
+        </is>
+      </c>
+      <c r="J1" s="8" t="inlineStr">
+        <is>
+          <t>ΕΚΔΟΣΕΙΣ ΟΜΟΛΟΓΩΝ</t>
         </is>
       </c>
     </row>
@@ -2884,22 +2890,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr"/>
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="I2" s="6" t="inlineStr">
         <is>
           <t>IGRF000220001, IGRF000221009</t>
         </is>
       </c>
-      <c r="I2" s="6" t="inlineStr"/>
+      <c r="J2" s="6" t="inlineStr"/>
     </row>
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="12" t="inlineStr">
@@ -2925,22 +2932,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr"/>
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>IGRF000031002</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="J3" s="4" t="inlineStr"/>
     </row>
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="10" t="inlineStr">
@@ -2966,22 +2974,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>IGRF000149002, IGRF000306008</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="12" t="inlineStr">
@@ -3007,22 +3016,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>IGRF000203007, IGRF000204005</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr"/>
     </row>
     <row r="6" ht="36" customHeight="1">
       <c r="A6" s="10" t="inlineStr">
@@ -3048,22 +3058,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="I6" s="6" t="inlineStr">
         <is>
           <t>IGRF000216009, IGRF000217007</t>
         </is>
       </c>
-      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
     </row>
     <row r="7" ht="36" customHeight="1">
       <c r="A7" s="12" t="inlineStr">
@@ -3089,22 +3100,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>IGRF000158003, IGRF000362001</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="J7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="36" customHeight="1">
       <c r="A8" s="10" t="inlineStr">
@@ -3130,22 +3142,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr"/>
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H8" s="6" t="inlineStr">
+      <c r="I8" s="6" t="inlineStr">
         <is>
           <t>IGRF000148004, IGRF000308004</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="12" t="inlineStr">
@@ -3171,22 +3184,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr"/>
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t>IGRF000211000</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr"/>
+      <c r="J9" s="4" t="inlineStr"/>
     </row>
     <row r="10" ht="36" customHeight="1">
       <c r="A10" s="10" t="inlineStr">
@@ -3212,22 +3226,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr"/>
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H10" s="6" t="inlineStr">
+      <c r="I10" s="6" t="inlineStr">
         <is>
           <t>IGRF000200003, IGRF000201001</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="inlineStr"/>
     </row>
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="12" t="inlineStr">
@@ -3253,22 +3268,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="I11" s="4" t="inlineStr">
         <is>
           <t>IGRF000087004</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr"/>
     </row>
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="10" t="inlineStr">
@@ -3294,22 +3310,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G12" s="6" t="inlineStr">
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="I12" s="6" t="inlineStr">
         <is>
           <t>IGRF000151008, IGRF000313004</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
     </row>
     <row r="13" ht="36" customHeight="1">
       <c r="A13" s="12" t="inlineStr">
@@ -3335,22 +3352,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr"/>
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="I13" s="4" t="inlineStr">
         <is>
           <t>IGRF000023009</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr"/>
+      <c r="J13" s="4" t="inlineStr"/>
     </row>
     <row r="14" ht="36" customHeight="1">
       <c r="A14" s="10" t="inlineStr">
@@ -3376,22 +3394,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="F14" s="6" t="inlineStr"/>
+      <c r="G14" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="H14" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H14" s="6" t="inlineStr">
+      <c r="I14" s="6" t="inlineStr">
         <is>
           <t>IGRF000037009</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15" ht="36" customHeight="1">
       <c r="A15" s="12" t="inlineStr">
@@ -3417,22 +3436,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="I15" s="4" t="inlineStr">
         <is>
           <t>IGRF000078003</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
     </row>
     <row r="16" ht="36" customHeight="1">
       <c r="A16" s="10" t="inlineStr">
@@ -3458,22 +3478,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
+      <c r="F16" s="6" t="inlineStr"/>
+      <c r="G16" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G16" s="6" t="inlineStr">
+      <c r="H16" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H16" s="6" t="inlineStr">
+      <c r="I16" s="6" t="inlineStr">
         <is>
           <t>IGRF000077005</t>
         </is>
       </c>
-      <c r="I16" s="6" t="inlineStr"/>
+      <c r="J16" s="6" t="inlineStr"/>
     </row>
     <row r="17" ht="36" customHeight="1">
       <c r="A17" s="12" t="inlineStr">
@@ -3499,22 +3520,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr">
+      <c r="I17" s="4" t="inlineStr">
         <is>
           <t>IGRF000088002</t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr"/>
+      <c r="J17" s="4" t="inlineStr"/>
     </row>
     <row r="18" ht="36" customHeight="1">
       <c r="A18" s="10" t="inlineStr">
@@ -3540,22 +3562,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F18" s="6" t="inlineStr"/>
+      <c r="G18" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr">
+      <c r="H18" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H18" s="6" t="inlineStr">
+      <c r="I18" s="6" t="inlineStr">
         <is>
           <t>IGRF000287000</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="inlineStr"/>
     </row>
     <row r="19" ht="36" customHeight="1">
       <c r="A19" s="12" t="inlineStr">
@@ -3581,22 +3604,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="H19" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr">
+      <c r="I19" s="4" t="inlineStr">
         <is>
           <t>IGRF000205002, IGRF000206000, IGRF000373008</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr"/>
+      <c r="J19" s="4" t="inlineStr"/>
     </row>
     <row r="20" ht="36" customHeight="1">
       <c r="A20" s="10" t="inlineStr">
@@ -3622,22 +3646,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G20" s="6" t="inlineStr">
+      <c r="H20" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H20" s="6" t="inlineStr">
+      <c r="I20" s="6" t="inlineStr">
         <is>
           <t>IGRF000288008</t>
         </is>
       </c>
-      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
     </row>
     <row r="21" ht="36" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -3663,22 +3688,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="H21" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H21" s="4" t="inlineStr">
+      <c r="I21" s="4" t="inlineStr">
         <is>
           <t>IGRF000143005, IGRF000176005, IGRF000301009</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr"/>
     </row>
     <row r="22" ht="36" customHeight="1">
       <c r="A22" s="10" t="inlineStr">
@@ -3704,22 +3730,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
+      <c r="F22" s="6" t="inlineStr"/>
+      <c r="G22" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G22" s="6" t="inlineStr">
+      <c r="H22" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H22" s="6" t="inlineStr">
+      <c r="I22" s="6" t="inlineStr">
         <is>
           <t>IGRF000142007, IGRF000172004</t>
         </is>
       </c>
-      <c r="I22" s="6" t="inlineStr"/>
+      <c r="J22" s="6" t="inlineStr"/>
     </row>
     <row r="23" ht="36" customHeight="1">
       <c r="A23" s="12" t="inlineStr">
@@ -3745,22 +3772,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr"/>
+      <c r="G23" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="H23" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H23" s="4" t="inlineStr">
+      <c r="I23" s="4" t="inlineStr">
         <is>
           <t>IGRF000004009</t>
         </is>
       </c>
-      <c r="I23" s="4" t="inlineStr"/>
+      <c r="J23" s="4" t="inlineStr"/>
     </row>
     <row r="24" ht="36" customHeight="1">
       <c r="A24" s="10" t="inlineStr">
@@ -3786,22 +3814,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
+      <c r="F24" s="6" t="inlineStr"/>
+      <c r="G24" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G24" s="6" t="inlineStr">
+      <c r="H24" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H24" s="6" t="inlineStr">
+      <c r="I24" s="6" t="inlineStr">
         <is>
           <t>IGRF000006004</t>
         </is>
       </c>
-      <c r="I24" s="6" t="inlineStr"/>
+      <c r="J24" s="6" t="inlineStr"/>
     </row>
     <row r="25" ht="36" customHeight="1">
       <c r="A25" s="12" t="inlineStr">
@@ -3827,22 +3856,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="H25" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H25" s="4" t="inlineStr">
+      <c r="I25" s="4" t="inlineStr">
         <is>
           <t>IGRF000089000</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr"/>
     </row>
     <row r="26" ht="36" customHeight="1">
       <c r="A26" s="10" t="inlineStr">
@@ -3868,22 +3898,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
+      <c r="F26" s="6" t="inlineStr"/>
+      <c r="G26" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G26" s="6" t="inlineStr">
+      <c r="H26" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H26" s="6" t="inlineStr">
+      <c r="I26" s="6" t="inlineStr">
         <is>
           <t>IGRF000024007</t>
         </is>
       </c>
-      <c r="I26" s="6" t="inlineStr"/>
+      <c r="J26" s="6" t="inlineStr"/>
     </row>
     <row r="27" ht="36" customHeight="1">
       <c r="A27" s="12" t="inlineStr">
@@ -3909,22 +3940,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr"/>
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="H27" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H27" s="4" t="inlineStr">
+      <c r="I27" s="4" t="inlineStr">
         <is>
           <t>IGRF000147006, IGRF000309002</t>
         </is>
       </c>
-      <c r="I27" s="4" t="inlineStr"/>
+      <c r="J27" s="4" t="inlineStr"/>
     </row>
     <row r="28" ht="36" customHeight="1">
       <c r="A28" s="10" t="inlineStr">
@@ -3950,22 +3982,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr">
+      <c r="F28" s="6" t="inlineStr"/>
+      <c r="G28" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G28" s="6" t="inlineStr">
+      <c r="H28" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H28" s="6" t="inlineStr">
+      <c r="I28" s="6" t="inlineStr">
         <is>
           <t>IGRF000290004</t>
         </is>
       </c>
-      <c r="I28" s="6" t="inlineStr"/>
+      <c r="J28" s="6" t="inlineStr"/>
     </row>
     <row r="29" ht="36" customHeight="1">
       <c r="A29" s="12" t="inlineStr">
@@ -3991,22 +4024,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="H29" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
+      <c r="I29" s="4" t="inlineStr">
         <is>
           <t>IGRF000062007, IGRF000304003</t>
         </is>
       </c>
-      <c r="I29" s="4" t="inlineStr"/>
+      <c r="J29" s="4" t="inlineStr"/>
     </row>
     <row r="30" ht="36" customHeight="1">
       <c r="A30" s="10" t="inlineStr">
@@ -4032,22 +4066,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
+      <c r="F30" s="6" t="inlineStr"/>
+      <c r="G30" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G30" s="6" t="inlineStr">
+      <c r="H30" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H30" s="6" t="inlineStr">
+      <c r="I30" s="6" t="inlineStr">
         <is>
           <t>IGRF000146008</t>
         </is>
       </c>
-      <c r="I30" s="6" t="inlineStr"/>
+      <c r="J30" s="6" t="inlineStr"/>
     </row>
     <row r="31" ht="36" customHeight="1">
       <c r="A31" s="12" t="inlineStr">
@@ -4073,22 +4108,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="H31" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H31" s="4" t="inlineStr">
+      <c r="I31" s="4" t="inlineStr">
         <is>
           <t>IGRF000103009, IGRF000282001</t>
         </is>
       </c>
-      <c r="I31" s="4" t="inlineStr"/>
+      <c r="J31" s="4" t="inlineStr"/>
     </row>
     <row r="32" ht="36" customHeight="1">
       <c r="A32" s="10" t="inlineStr">
@@ -4114,22 +4150,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
+      <c r="F32" s="6" t="inlineStr"/>
+      <c r="G32" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G32" s="6" t="inlineStr">
+      <c r="H32" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H32" s="6" t="inlineStr">
+      <c r="I32" s="6" t="inlineStr">
         <is>
           <t>IGRF000090008</t>
         </is>
       </c>
-      <c r="I32" s="6" t="inlineStr"/>
+      <c r="J32" s="6" t="inlineStr"/>
     </row>
     <row r="33" ht="36" customHeight="1">
       <c r="A33" s="12" t="inlineStr">
@@ -4155,22 +4192,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr"/>
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="H33" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H33" s="4" t="inlineStr">
+      <c r="I33" s="4" t="inlineStr">
         <is>
           <t>IGRF000209004, IGRF000237005, IGRF000375003</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr"/>
+      <c r="J33" s="4" t="inlineStr"/>
     </row>
     <row r="34" ht="36" customHeight="1">
       <c r="A34" s="10" t="inlineStr">
@@ -4196,22 +4234,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F34" s="6" t="inlineStr">
+      <c r="F34" s="6" t="inlineStr"/>
+      <c r="G34" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G34" s="6" t="inlineStr">
+      <c r="H34" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H34" s="6" t="inlineStr">
+      <c r="I34" s="6" t="inlineStr">
         <is>
           <t>IGRF000065000, IGRF000303005</t>
         </is>
       </c>
-      <c r="I34" s="6" t="inlineStr"/>
+      <c r="J34" s="6" t="inlineStr"/>
     </row>
     <row r="35" ht="36" customHeight="1">
       <c r="A35" s="12" t="inlineStr">
@@ -4237,22 +4276,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="H35" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H35" s="4" t="inlineStr">
+      <c r="I35" s="4" t="inlineStr">
         <is>
           <t>IGRF000107000, IGRF000284007, IGRF000286002</t>
         </is>
       </c>
-      <c r="I35" s="4" t="inlineStr"/>
+      <c r="J35" s="4" t="inlineStr"/>
     </row>
     <row r="36" ht="36" customHeight="1">
       <c r="A36" s="10" t="inlineStr">
@@ -4278,22 +4318,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F36" s="6" t="inlineStr">
+      <c r="F36" s="6" t="inlineStr"/>
+      <c r="G36" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G36" s="6" t="inlineStr">
+      <c r="H36" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H36" s="6" t="inlineStr">
+      <c r="I36" s="6" t="inlineStr">
         <is>
           <t>IGRF000105004, IGRF000265006, IGRF000445004</t>
         </is>
       </c>
-      <c r="I36" s="6" t="inlineStr"/>
+      <c r="J36" s="6" t="inlineStr"/>
     </row>
     <row r="37" ht="36" customHeight="1">
       <c r="A37" s="12" t="inlineStr">
@@ -4319,22 +4360,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr"/>
+      <c r="G37" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="H37" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H37" s="4" t="inlineStr">
+      <c r="I37" s="4" t="inlineStr">
         <is>
           <t>IGRF000104007, IGRF000256005, IGRF000446002</t>
         </is>
       </c>
-      <c r="I37" s="4" t="inlineStr"/>
+      <c r="J37" s="4" t="inlineStr"/>
     </row>
     <row r="38" ht="36" customHeight="1">
       <c r="A38" s="10" t="inlineStr">
@@ -4360,22 +4402,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F38" s="6" t="inlineStr">
+      <c r="F38" s="6" t="inlineStr"/>
+      <c r="G38" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G38" s="6" t="inlineStr">
+      <c r="H38" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H38" s="6" t="inlineStr">
+      <c r="I38" s="6" t="inlineStr">
         <is>
           <t>IGRF000025004</t>
         </is>
       </c>
-      <c r="I38" s="6" t="inlineStr"/>
+      <c r="J38" s="6" t="inlineStr"/>
     </row>
     <row r="39" ht="36" customHeight="1">
       <c r="A39" s="12" t="inlineStr">
@@ -4401,22 +4444,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="H39" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H39" s="4" t="inlineStr">
+      <c r="I39" s="4" t="inlineStr">
         <is>
           <t>IGRF000009008</t>
         </is>
       </c>
-      <c r="I39" s="4" t="inlineStr"/>
+      <c r="J39" s="4" t="inlineStr"/>
     </row>
     <row r="40" ht="36" customHeight="1">
       <c r="A40" s="10" t="inlineStr">
@@ -4442,22 +4486,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr">
+      <c r="F40" s="6" t="inlineStr"/>
+      <c r="G40" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G40" s="6" t="inlineStr">
+      <c r="H40" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H40" s="6" t="inlineStr">
+      <c r="I40" s="6" t="inlineStr">
         <is>
           <t>IGRF000058005, IGRF000302007</t>
         </is>
       </c>
-      <c r="I40" s="6" t="inlineStr"/>
+      <c r="J40" s="6" t="inlineStr"/>
     </row>
     <row r="41" ht="36" customHeight="1">
       <c r="A41" s="12" t="inlineStr">
@@ -4483,22 +4528,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr"/>
+      <c r="G41" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="H41" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="H41" s="4" t="inlineStr">
+      <c r="I41" s="4" t="inlineStr">
         <is>
           <t>IGRF000318003</t>
         </is>
       </c>
-      <c r="I41" s="4" t="inlineStr"/>
+      <c r="J41" s="4" t="inlineStr"/>
     </row>
     <row r="42" ht="36" customHeight="1">
       <c r="A42" s="10" t="inlineStr">
@@ -4524,22 +4570,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F42" s="6" t="inlineStr">
+      <c r="F42" s="6" t="inlineStr"/>
+      <c r="G42" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G42" s="6" t="inlineStr">
+      <c r="H42" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H42" s="6" t="inlineStr">
+      <c r="I42" s="6" t="inlineStr">
         <is>
           <t>IGRF000106002, IGRF000267002, IGRF000269008</t>
         </is>
       </c>
-      <c r="I42" s="6" t="inlineStr"/>
+      <c r="J42" s="6" t="inlineStr"/>
     </row>
     <row r="43" ht="36" customHeight="1">
       <c r="A43" s="12" t="inlineStr">
@@ -4565,22 +4612,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="F43" s="4" t="inlineStr"/>
+      <c r="G43" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="H43" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H43" s="4" t="inlineStr">
+      <c r="I43" s="4" t="inlineStr">
         <is>
           <t>IGRF000002003</t>
         </is>
       </c>
-      <c r="I43" s="4" t="inlineStr"/>
+      <c r="J43" s="4" t="inlineStr"/>
     </row>
     <row r="44" ht="36" customHeight="1">
       <c r="A44" s="10" t="inlineStr">
@@ -4606,22 +4654,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F44" s="6" t="inlineStr">
+      <c r="F44" s="6" t="inlineStr"/>
+      <c r="G44" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G44" s="6" t="inlineStr">
+      <c r="H44" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H44" s="6" t="inlineStr">
+      <c r="I44" s="6" t="inlineStr">
         <is>
           <t>IGRF000064003</t>
         </is>
       </c>
-      <c r="I44" s="6" t="inlineStr"/>
+      <c r="J44" s="6" t="inlineStr"/>
     </row>
     <row r="45" ht="36" customHeight="1">
       <c r="A45" s="12" t="inlineStr">
@@ -4647,22 +4696,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="F45" s="4" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="H45" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="H45" s="4" t="inlineStr">
+      <c r="I45" s="4" t="inlineStr">
         <is>
           <t>IGRF000319001</t>
         </is>
       </c>
-      <c r="I45" s="4" t="inlineStr"/>
+      <c r="J45" s="4" t="inlineStr"/>
     </row>
     <row r="46" ht="36" customHeight="1">
       <c r="A46" s="10" t="inlineStr">
@@ -4688,22 +4738,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F46" s="6" t="inlineStr">
+      <c r="F46" s="6" t="inlineStr"/>
+      <c r="G46" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G46" s="6" t="inlineStr">
+      <c r="H46" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H46" s="6" t="inlineStr">
+      <c r="I46" s="6" t="inlineStr">
         <is>
           <t>IGRF000101003, IGRF000279007, IGRF000281003</t>
         </is>
       </c>
-      <c r="I46" s="6" t="inlineStr"/>
+      <c r="J46" s="6" t="inlineStr"/>
     </row>
     <row r="47" ht="36" customHeight="1">
       <c r="A47" s="12" t="inlineStr">
@@ -4729,22 +4780,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F47" s="4" t="inlineStr">
+      <c r="F47" s="4" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G47" s="4" t="inlineStr">
+      <c r="H47" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H47" s="4" t="inlineStr">
+      <c r="I47" s="4" t="inlineStr">
         <is>
           <t>IGRF000005006</t>
         </is>
       </c>
-      <c r="I47" s="4" t="inlineStr"/>
+      <c r="J47" s="4" t="inlineStr"/>
     </row>
     <row r="48" ht="36" customHeight="1">
       <c r="A48" s="10" t="inlineStr">
@@ -4770,22 +4822,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr">
+      <c r="F48" s="6" t="inlineStr"/>
+      <c r="G48" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G48" s="6" t="inlineStr">
+      <c r="H48" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H48" s="6" t="inlineStr">
+      <c r="I48" s="6" t="inlineStr">
         <is>
           <t>IGRF000034006</t>
         </is>
       </c>
-      <c r="I48" s="6" t="inlineStr"/>
+      <c r="J48" s="6" t="inlineStr"/>
     </row>
     <row r="49" ht="36" customHeight="1">
       <c r="A49" s="12" t="inlineStr">
@@ -4811,22 +4864,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G49" s="4" t="inlineStr">
+      <c r="H49" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H49" s="4" t="inlineStr">
+      <c r="I49" s="4" t="inlineStr">
         <is>
           <t>IGRF000076007</t>
         </is>
       </c>
-      <c r="I49" s="4" t="inlineStr"/>
+      <c r="J49" s="4" t="inlineStr"/>
     </row>
     <row r="50" ht="36" customHeight="1">
       <c r="A50" s="10" t="inlineStr">
@@ -4852,22 +4906,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F50" s="6" t="inlineStr">
+      <c r="F50" s="6" t="inlineStr"/>
+      <c r="G50" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G50" s="6" t="inlineStr">
+      <c r="H50" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H50" s="6" t="inlineStr">
+      <c r="I50" s="6" t="inlineStr">
         <is>
           <t>IGRF000296001</t>
         </is>
       </c>
-      <c r="I50" s="6" t="inlineStr"/>
+      <c r="J50" s="6" t="inlineStr"/>
     </row>
     <row r="51" ht="36" customHeight="1">
       <c r="A51" s="12" t="inlineStr">
@@ -4893,22 +4948,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr">
+      <c r="F51" s="4" t="inlineStr"/>
+      <c r="G51" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G51" s="4" t="inlineStr">
+      <c r="H51" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H51" s="4" t="inlineStr">
+      <c r="I51" s="4" t="inlineStr">
         <is>
           <t>IGRF000144003</t>
         </is>
       </c>
-      <c r="I51" s="4" t="inlineStr"/>
+      <c r="J51" s="4" t="inlineStr"/>
     </row>
     <row r="52" ht="36" customHeight="1">
       <c r="A52" s="10" t="inlineStr">
@@ -4934,22 +4990,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F52" s="6" t="inlineStr">
+      <c r="F52" s="6" t="inlineStr"/>
+      <c r="G52" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G52" s="6" t="inlineStr">
+      <c r="H52" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H52" s="6" t="inlineStr">
+      <c r="I52" s="6" t="inlineStr">
         <is>
           <t>IGRF000010006</t>
         </is>
       </c>
-      <c r="I52" s="6" t="inlineStr"/>
+      <c r="J52" s="6" t="inlineStr"/>
     </row>
     <row r="53" ht="36" customHeight="1">
       <c r="A53" s="12" t="inlineStr">
@@ -4975,22 +5032,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="F53" s="4" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="H53" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H53" s="4" t="inlineStr">
+      <c r="I53" s="4" t="inlineStr">
         <is>
           <t>IGRF000038007</t>
         </is>
       </c>
-      <c r="I53" s="4" t="inlineStr"/>
+      <c r="J53" s="4" t="inlineStr"/>
     </row>
     <row r="54" ht="36" customHeight="1">
       <c r="A54" s="10" t="inlineStr">
@@ -5016,22 +5074,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F54" s="6" t="inlineStr">
+      <c r="F54" s="6" t="inlineStr"/>
+      <c r="G54" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G54" s="6" t="inlineStr">
+      <c r="H54" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H54" s="6" t="inlineStr">
+      <c r="I54" s="6" t="inlineStr">
         <is>
           <t>IGRF000155009</t>
         </is>
       </c>
-      <c r="I54" s="6" t="inlineStr"/>
+      <c r="J54" s="6" t="inlineStr"/>
     </row>
     <row r="55" ht="36" customHeight="1">
       <c r="A55" s="12" t="inlineStr">
@@ -5057,22 +5116,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
+      <c r="F55" s="4" t="inlineStr"/>
+      <c r="G55" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G55" s="4" t="inlineStr">
+      <c r="H55" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H55" s="4" t="inlineStr">
+      <c r="I55" s="4" t="inlineStr">
         <is>
           <t>IGRF000156007</t>
         </is>
       </c>
-      <c r="I55" s="4" t="inlineStr"/>
+      <c r="J55" s="4" t="inlineStr"/>
     </row>
     <row r="56" ht="36" customHeight="1">
       <c r="A56" s="10" t="inlineStr">
@@ -5098,22 +5158,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F56" s="6" t="inlineStr">
+      <c r="F56" s="6" t="inlineStr"/>
+      <c r="G56" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G56" s="6" t="inlineStr">
+      <c r="H56" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H56" s="6" t="inlineStr">
+      <c r="I56" s="6" t="inlineStr">
         <is>
           <t>IGRF000333002, IGRF000340007</t>
         </is>
       </c>
-      <c r="I56" s="6" t="inlineStr"/>
+      <c r="J56" s="6" t="inlineStr"/>
     </row>
     <row r="57" ht="36" customHeight="1">
       <c r="A57" s="12" t="inlineStr">
@@ -5139,22 +5200,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr"/>
+      <c r="G57" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G57" s="4" t="inlineStr">
+      <c r="H57" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H57" s="4" t="inlineStr">
+      <c r="I57" s="4" t="inlineStr">
         <is>
           <t>IGRF000100005, IGRF000270006</t>
         </is>
       </c>
-      <c r="I57" s="4" t="inlineStr"/>
+      <c r="J57" s="4" t="inlineStr"/>
     </row>
     <row r="58" ht="36" customHeight="1">
       <c r="A58" s="10" t="inlineStr">
@@ -5180,22 +5242,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F58" s="6" t="inlineStr">
+      <c r="F58" s="6" t="inlineStr"/>
+      <c r="G58" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="G58" s="6" t="inlineStr">
+      <c r="H58" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="H58" s="6" t="inlineStr">
+      <c r="I58" s="6" t="inlineStr">
         <is>
           <t>IGRF000320009</t>
         </is>
       </c>
-      <c r="I58" s="6" t="inlineStr"/>
+      <c r="J58" s="6" t="inlineStr"/>
     </row>
     <row r="59" ht="36" customHeight="1">
       <c r="A59" s="12" t="inlineStr">
@@ -5205,7 +5268,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>L213800USGL7Q5UR9M221, BGR003882701000, TGR099759863</t>
+          <t>TGR099759863, L213800USGL7Q5UR9M221, BGR003882701000</t>
         </is>
       </c>
       <c r="C59" s="13" t="n">
@@ -5222,17 +5285,18 @@
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr"/>
-      <c r="G59" s="4" t="inlineStr">
+      <c r="G59" s="4" t="inlineStr"/>
+      <c r="H59" s="4" t="inlineStr">
         <is>
           <t>EGRAEEX002</t>
         </is>
       </c>
-      <c r="H59" s="4" t="inlineStr">
+      <c r="I59" s="4" t="inlineStr">
         <is>
           <t>IGRS433003019</t>
         </is>
       </c>
-      <c r="I59" s="4" t="inlineStr"/>
+      <c r="J59" s="4" t="inlineStr"/>
     </row>
     <row r="60" ht="36" customHeight="1">
       <c r="A60" s="10" t="inlineStr">
@@ -5258,22 +5322,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F60" s="6" t="inlineStr">
+      <c r="F60" s="6" t="inlineStr"/>
+      <c r="G60" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G60" s="6" t="inlineStr">
+      <c r="H60" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H60" s="6" t="inlineStr">
+      <c r="I60" s="6" t="inlineStr">
         <is>
           <t>IGRF000096005, IGRF000248002</t>
         </is>
       </c>
-      <c r="I60" s="6" t="inlineStr"/>
+      <c r="J60" s="6" t="inlineStr"/>
     </row>
     <row r="61" ht="36" customHeight="1">
       <c r="A61" s="12" t="inlineStr">
@@ -5299,22 +5364,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
+      <c r="F61" s="4" t="inlineStr"/>
+      <c r="G61" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G61" s="4" t="inlineStr">
+      <c r="H61" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H61" s="4" t="inlineStr">
+      <c r="I61" s="4" t="inlineStr">
         <is>
           <t>IGRF000092004</t>
         </is>
       </c>
-      <c r="I61" s="4" t="inlineStr"/>
+      <c r="J61" s="4" t="inlineStr"/>
     </row>
     <row r="62" ht="36" customHeight="1">
       <c r="A62" s="10" t="inlineStr">
@@ -5340,22 +5406,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F62" s="6" t="inlineStr">
+      <c r="F62" s="6" t="inlineStr"/>
+      <c r="G62" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G62" s="6" t="inlineStr">
+      <c r="H62" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H62" s="6" t="inlineStr">
+      <c r="I62" s="6" t="inlineStr">
         <is>
           <t>IGRF000091006</t>
         </is>
       </c>
-      <c r="I62" s="6" t="inlineStr"/>
+      <c r="J62" s="6" t="inlineStr"/>
     </row>
     <row r="63" ht="36" customHeight="1">
       <c r="A63" s="12" t="inlineStr">
@@ -5381,22 +5448,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F63" s="4" t="inlineStr">
+      <c r="F63" s="4" t="inlineStr"/>
+      <c r="G63" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G63" s="4" t="inlineStr">
+      <c r="H63" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H63" s="4" t="inlineStr">
+      <c r="I63" s="4" t="inlineStr">
         <is>
           <t>IGRF000141009, IGRF000173002, IGRF000300001</t>
         </is>
       </c>
-      <c r="I63" s="4" t="inlineStr"/>
+      <c r="J63" s="4" t="inlineStr"/>
     </row>
     <row r="64" ht="36" customHeight="1">
       <c r="A64" s="10" t="inlineStr">
@@ -5422,22 +5490,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F64" s="6" t="inlineStr">
+      <c r="F64" s="6" t="inlineStr"/>
+      <c r="G64" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G64" s="6" t="inlineStr">
+      <c r="H64" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H64" s="6" t="inlineStr">
+      <c r="I64" s="6" t="inlineStr">
         <is>
           <t>IGRF000334000</t>
         </is>
       </c>
-      <c r="I64" s="6" t="inlineStr"/>
+      <c r="J64" s="6" t="inlineStr"/>
     </row>
     <row r="65" ht="36" customHeight="1">
       <c r="A65" s="12" t="inlineStr">
@@ -5463,22 +5532,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F65" s="4" t="inlineStr">
+      <c r="F65" s="4" t="inlineStr"/>
+      <c r="G65" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G65" s="4" t="inlineStr">
+      <c r="H65" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H65" s="4" t="inlineStr">
+      <c r="I65" s="4" t="inlineStr">
         <is>
           <t>IGRF000001005</t>
         </is>
       </c>
-      <c r="I65" s="4" t="inlineStr"/>
+      <c r="J65" s="4" t="inlineStr"/>
     </row>
     <row r="66" ht="36" customHeight="1">
       <c r="A66" s="10" t="inlineStr">
@@ -5504,22 +5574,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F66" s="6" t="inlineStr">
+      <c r="F66" s="6" t="inlineStr"/>
+      <c r="G66" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G66" s="6" t="inlineStr">
+      <c r="H66" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H66" s="6" t="inlineStr">
+      <c r="I66" s="6" t="inlineStr">
         <is>
           <t>IGRF000097003, IGRF000263001</t>
         </is>
       </c>
-      <c r="I66" s="6" t="inlineStr"/>
+      <c r="J66" s="6" t="inlineStr"/>
     </row>
     <row r="67" ht="36" customHeight="1">
       <c r="A67" s="12" t="inlineStr">
@@ -5545,22 +5616,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F67" s="4" t="inlineStr">
+      <c r="F67" s="4" t="inlineStr"/>
+      <c r="G67" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G67" s="4" t="inlineStr">
+      <c r="H67" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H67" s="4" t="inlineStr">
+      <c r="I67" s="4" t="inlineStr">
         <is>
           <t>IGRF000292000</t>
         </is>
       </c>
-      <c r="I67" s="4" t="inlineStr"/>
+      <c r="J67" s="4" t="inlineStr"/>
     </row>
     <row r="68" ht="36" customHeight="1">
       <c r="A68" s="10" t="inlineStr">
@@ -5586,22 +5658,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F68" s="6" t="inlineStr">
+      <c r="F68" s="6" t="inlineStr"/>
+      <c r="G68" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G68" s="6" t="inlineStr">
+      <c r="H68" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H68" s="6" t="inlineStr">
+      <c r="I68" s="6" t="inlineStr">
         <is>
           <t>IGRF000293008, IGRF000414000</t>
         </is>
       </c>
-      <c r="I68" s="6" t="inlineStr"/>
+      <c r="J68" s="6" t="inlineStr"/>
     </row>
     <row r="69" ht="36" customHeight="1">
       <c r="A69" s="12" t="inlineStr">
@@ -5627,22 +5700,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F69" s="4" t="inlineStr">
+      <c r="F69" s="4" t="inlineStr"/>
+      <c r="G69" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G69" s="4" t="inlineStr">
+      <c r="H69" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H69" s="4" t="inlineStr">
+      <c r="I69" s="4" t="inlineStr">
         <is>
           <t>IGRF000011004</t>
         </is>
       </c>
-      <c r="I69" s="4" t="inlineStr"/>
+      <c r="J69" s="4" t="inlineStr"/>
     </row>
     <row r="70" ht="36" customHeight="1">
       <c r="A70" s="10" t="inlineStr">
@@ -5668,22 +5742,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F70" s="6" t="inlineStr">
+      <c r="F70" s="6" t="inlineStr"/>
+      <c r="G70" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G70" s="6" t="inlineStr">
+      <c r="H70" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H70" s="6" t="inlineStr">
+      <c r="I70" s="6" t="inlineStr">
         <is>
           <t>IGRF000022001</t>
         </is>
       </c>
-      <c r="I70" s="6" t="inlineStr"/>
+      <c r="J70" s="6" t="inlineStr"/>
     </row>
     <row r="71" ht="36" customHeight="1">
       <c r="A71" s="12" t="inlineStr">
@@ -5705,18 +5780,19 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F71" s="4" t="inlineStr">
+      <c r="F71" s="4" t="inlineStr"/>
+      <c r="G71" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC005</t>
         </is>
       </c>
-      <c r="G71" s="4" t="inlineStr">
+      <c r="H71" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC005</t>
         </is>
       </c>
-      <c r="H71" s="4" t="inlineStr"/>
       <c r="I71" s="4" t="inlineStr"/>
+      <c r="J71" s="4" t="inlineStr"/>
     </row>
     <row r="72" ht="36" customHeight="1">
       <c r="A72" s="10" t="inlineStr">
@@ -5726,7 +5802,7 @@
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>L213800U7SBKWW79CBG88, TGR099554901, BGR003548801000</t>
+          <t>L213800U7SBKWW79CBG88, BGR003548801000, TGR099554901</t>
         </is>
       </c>
       <c r="C72" s="11" t="n">
@@ -5743,17 +5819,18 @@
         </is>
       </c>
       <c r="F72" s="6" t="inlineStr"/>
-      <c r="G72" s="6" t="inlineStr">
+      <c r="G72" s="6" t="inlineStr"/>
+      <c r="H72" s="6" t="inlineStr">
         <is>
           <t>EGRAEEAP002</t>
         </is>
       </c>
-      <c r="H72" s="6" t="inlineStr">
+      <c r="I72" s="6" t="inlineStr">
         <is>
           <t>IGRS487003006</t>
         </is>
       </c>
-      <c r="I72" s="6" t="inlineStr"/>
+      <c r="J72" s="6" t="inlineStr"/>
     </row>
     <row r="73" ht="36" customHeight="1">
       <c r="A73" s="12" t="inlineStr">
@@ -5779,22 +5856,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F73" s="4" t="inlineStr">
+      <c r="F73" s="4" t="inlineStr"/>
+      <c r="G73" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G73" s="4" t="inlineStr">
+      <c r="H73" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H73" s="4" t="inlineStr">
+      <c r="I73" s="4" t="inlineStr">
         <is>
           <t>IGRF000032000</t>
         </is>
       </c>
-      <c r="I73" s="4" t="inlineStr"/>
+      <c r="J73" s="4" t="inlineStr"/>
     </row>
     <row r="74" ht="36" customHeight="1">
       <c r="A74" s="10" t="inlineStr">
@@ -5820,22 +5898,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr">
+      <c r="F74" s="6" t="inlineStr"/>
+      <c r="G74" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G74" s="6" t="inlineStr">
+      <c r="H74" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H74" s="6" t="inlineStr">
+      <c r="I74" s="6" t="inlineStr">
         <is>
           <t>IGRF000048006, IGRF000189008</t>
         </is>
       </c>
-      <c r="I74" s="6" t="inlineStr"/>
+      <c r="J74" s="6" t="inlineStr"/>
     </row>
     <row r="75" ht="36" customHeight="1">
       <c r="A75" s="12" t="inlineStr">
@@ -5861,22 +5940,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F75" s="4" t="inlineStr">
+      <c r="F75" s="4" t="inlineStr"/>
+      <c r="G75" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G75" s="4" t="inlineStr">
+      <c r="H75" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H75" s="4" t="inlineStr">
+      <c r="I75" s="4" t="inlineStr">
         <is>
           <t>IGRF000051000, IGRF000197001</t>
         </is>
       </c>
-      <c r="I75" s="4" t="inlineStr"/>
+      <c r="J75" s="4" t="inlineStr"/>
     </row>
     <row r="76" ht="36" customHeight="1">
       <c r="A76" s="10" t="inlineStr">
@@ -5898,18 +5978,19 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F76" s="6" t="inlineStr">
+      <c r="F76" s="6" t="inlineStr"/>
+      <c r="G76" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC005</t>
         </is>
       </c>
-      <c r="G76" s="6" t="inlineStr">
+      <c r="H76" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC005</t>
         </is>
       </c>
-      <c r="H76" s="6" t="inlineStr"/>
       <c r="I76" s="6" t="inlineStr"/>
+      <c r="J76" s="6" t="inlineStr"/>
     </row>
     <row r="77" ht="36" customHeight="1">
       <c r="A77" s="12" t="inlineStr">
@@ -5935,22 +6016,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F77" s="4" t="inlineStr">
+      <c r="F77" s="4" t="inlineStr"/>
+      <c r="G77" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G77" s="4" t="inlineStr">
+      <c r="H77" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H77" s="4" t="inlineStr">
+      <c r="I77" s="4" t="inlineStr">
         <is>
           <t>IGRF000218005, IGRF000239001</t>
         </is>
       </c>
-      <c r="I77" s="4" t="inlineStr"/>
+      <c r="J77" s="4" t="inlineStr"/>
     </row>
     <row r="78" ht="36" customHeight="1">
       <c r="A78" s="10" t="inlineStr">
@@ -5976,22 +6058,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F78" s="6" t="inlineStr">
+      <c r="F78" s="6" t="inlineStr"/>
+      <c r="G78" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G78" s="6" t="inlineStr">
+      <c r="H78" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H78" s="6" t="inlineStr">
+      <c r="I78" s="6" t="inlineStr">
         <is>
           <t>IGRF000138005, IGRF000175007</t>
         </is>
       </c>
-      <c r="I78" s="6" t="inlineStr"/>
+      <c r="J78" s="6" t="inlineStr"/>
     </row>
     <row r="79" ht="36" customHeight="1">
       <c r="A79" s="12" t="inlineStr">
@@ -6017,22 +6100,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F79" s="4" t="inlineStr">
+      <c r="F79" s="4" t="inlineStr"/>
+      <c r="G79" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G79" s="4" t="inlineStr">
+      <c r="H79" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H79" s="4" t="inlineStr">
+      <c r="I79" s="4" t="inlineStr">
         <is>
           <t>IGRF000066008</t>
         </is>
       </c>
-      <c r="I79" s="4" t="inlineStr"/>
+      <c r="J79" s="4" t="inlineStr"/>
     </row>
     <row r="80" ht="36" customHeight="1">
       <c r="A80" s="10" t="inlineStr">
@@ -6058,22 +6142,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F80" s="6" t="inlineStr">
+      <c r="F80" s="6" t="inlineStr"/>
+      <c r="G80" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G80" s="6" t="inlineStr">
+      <c r="H80" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H80" s="6" t="inlineStr">
+      <c r="I80" s="6" t="inlineStr">
         <is>
           <t>IGRF000294006, IGRF000415007</t>
         </is>
       </c>
-      <c r="I80" s="6" t="inlineStr"/>
+      <c r="J80" s="6" t="inlineStr"/>
     </row>
     <row r="81" ht="36" customHeight="1">
       <c r="A81" s="12" t="inlineStr">
@@ -6099,22 +6184,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F81" s="4" t="inlineStr">
+      <c r="F81" s="4" t="inlineStr"/>
+      <c r="G81" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G81" s="4" t="inlineStr">
+      <c r="H81" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H81" s="4" t="inlineStr">
+      <c r="I81" s="4" t="inlineStr">
         <is>
           <t>IGRF000140001</t>
         </is>
       </c>
-      <c r="I81" s="4" t="inlineStr"/>
+      <c r="J81" s="4" t="inlineStr"/>
     </row>
     <row r="82" ht="36" customHeight="1">
       <c r="A82" s="10" t="inlineStr">
@@ -6140,22 +6226,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F82" s="6" t="inlineStr">
+      <c r="F82" s="6" t="inlineStr"/>
+      <c r="G82" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G82" s="6" t="inlineStr">
+      <c r="H82" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H82" s="6" t="inlineStr">
+      <c r="I82" s="6" t="inlineStr">
         <is>
           <t>IGRF000137007, IGRF000192002</t>
         </is>
       </c>
-      <c r="I82" s="6" t="inlineStr"/>
+      <c r="J82" s="6" t="inlineStr"/>
     </row>
     <row r="83" ht="36" customHeight="1">
       <c r="A83" s="12" t="inlineStr">
@@ -6181,22 +6268,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F83" s="4" t="inlineStr">
+      <c r="F83" s="4" t="inlineStr"/>
+      <c r="G83" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="G83" s="4" t="inlineStr">
+      <c r="H83" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="H83" s="4" t="inlineStr">
+      <c r="I83" s="4" t="inlineStr">
         <is>
           <t>IGRF000322005</t>
         </is>
       </c>
-      <c r="I83" s="4" t="inlineStr"/>
+      <c r="J83" s="4" t="inlineStr"/>
     </row>
     <row r="84" ht="36" customHeight="1">
       <c r="A84" s="10" t="inlineStr">
@@ -6222,22 +6310,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F84" s="6" t="inlineStr">
+      <c r="F84" s="6" t="inlineStr"/>
+      <c r="G84" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="G84" s="6" t="inlineStr">
+      <c r="H84" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="H84" s="6" t="inlineStr">
+      <c r="I84" s="6" t="inlineStr">
         <is>
           <t>IGRF000321007</t>
         </is>
       </c>
-      <c r="I84" s="6" t="inlineStr"/>
+      <c r="J84" s="6" t="inlineStr"/>
     </row>
     <row r="85" ht="36" customHeight="1">
       <c r="A85" s="12" t="inlineStr">
@@ -6263,22 +6352,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F85" s="4" t="inlineStr">
+      <c r="F85" s="4" t="inlineStr"/>
+      <c r="G85" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G85" s="4" t="inlineStr">
+      <c r="H85" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H85" s="4" t="inlineStr">
+      <c r="I85" s="4" t="inlineStr">
         <is>
           <t>IGRF000233004, IGRF000234002</t>
         </is>
       </c>
-      <c r="I85" s="4" t="inlineStr"/>
+      <c r="J85" s="4" t="inlineStr"/>
     </row>
     <row r="86" ht="36" customHeight="1">
       <c r="A86" s="10" t="inlineStr">
@@ -6304,22 +6394,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F86" s="6" t="inlineStr">
+      <c r="F86" s="6" t="inlineStr"/>
+      <c r="G86" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G86" s="6" t="inlineStr">
+      <c r="H86" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H86" s="6" t="inlineStr">
+      <c r="I86" s="6" t="inlineStr">
         <is>
           <t>IGRF000227006, IGRF000228004</t>
         </is>
       </c>
-      <c r="I86" s="6" t="inlineStr"/>
+      <c r="J86" s="6" t="inlineStr"/>
     </row>
     <row r="87" ht="36" customHeight="1">
       <c r="A87" s="12" t="inlineStr">
@@ -6345,22 +6436,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F87" s="4" t="inlineStr">
+      <c r="F87" s="4" t="inlineStr"/>
+      <c r="G87" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G87" s="4" t="inlineStr">
+      <c r="H87" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H87" s="4" t="inlineStr">
+      <c r="I87" s="4" t="inlineStr">
         <is>
           <t>IGRF000229002, IGRF000230000</t>
         </is>
       </c>
-      <c r="I87" s="4" t="inlineStr"/>
+      <c r="J87" s="4" t="inlineStr"/>
     </row>
     <row r="88" ht="36" customHeight="1">
       <c r="A88" s="10" t="inlineStr">
@@ -6386,22 +6478,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F88" s="6" t="inlineStr">
+      <c r="F88" s="6" t="inlineStr"/>
+      <c r="G88" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G88" s="6" t="inlineStr">
+      <c r="H88" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H88" s="6" t="inlineStr">
+      <c r="I88" s="6" t="inlineStr">
         <is>
           <t>IGRF000108008, IGRF000260007, IGRF000262003</t>
         </is>
       </c>
-      <c r="I88" s="6" t="inlineStr"/>
+      <c r="J88" s="6" t="inlineStr"/>
     </row>
     <row r="89" ht="36" customHeight="1">
       <c r="A89" s="12" t="inlineStr">
@@ -6427,22 +6520,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F89" s="4" t="inlineStr">
+      <c r="F89" s="4" t="inlineStr"/>
+      <c r="G89" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G89" s="4" t="inlineStr">
+      <c r="H89" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H89" s="4" t="inlineStr">
+      <c r="I89" s="4" t="inlineStr">
         <is>
           <t>IGRF000070000, IGRF000316007</t>
         </is>
       </c>
-      <c r="I89" s="4" t="inlineStr"/>
+      <c r="J89" s="4" t="inlineStr"/>
     </row>
     <row r="90" ht="36" customHeight="1">
       <c r="A90" s="10" t="inlineStr">
@@ -6468,22 +6562,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F90" s="6" t="inlineStr">
+      <c r="F90" s="6" t="inlineStr"/>
+      <c r="G90" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G90" s="6" t="inlineStr">
+      <c r="H90" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H90" s="6" t="inlineStr">
+      <c r="I90" s="6" t="inlineStr">
         <is>
           <t>IGRF000113008, IGRF000272002, IGRF000274008</t>
         </is>
       </c>
-      <c r="I90" s="6" t="inlineStr"/>
+      <c r="J90" s="6" t="inlineStr"/>
     </row>
     <row r="91" ht="36" customHeight="1">
       <c r="A91" s="12" t="inlineStr">
@@ -6509,22 +6604,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F91" s="4" t="inlineStr">
+      <c r="F91" s="4" t="inlineStr"/>
+      <c r="G91" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G91" s="4" t="inlineStr">
+      <c r="H91" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H91" s="4" t="inlineStr">
+      <c r="I91" s="4" t="inlineStr">
         <is>
           <t>IGRF000072006, IGRF000115003</t>
         </is>
       </c>
-      <c r="I91" s="4" t="inlineStr"/>
+      <c r="J91" s="4" t="inlineStr"/>
     </row>
     <row r="92" ht="36" customHeight="1">
       <c r="A92" s="10" t="inlineStr">
@@ -6550,22 +6646,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F92" s="6" t="inlineStr">
+      <c r="F92" s="6" t="inlineStr"/>
+      <c r="G92" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G92" s="6" t="inlineStr">
+      <c r="H92" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H92" s="6" t="inlineStr">
+      <c r="I92" s="6" t="inlineStr">
         <is>
           <t>IGRF000071008</t>
         </is>
       </c>
-      <c r="I92" s="6" t="inlineStr"/>
+      <c r="J92" s="6" t="inlineStr"/>
     </row>
     <row r="93" ht="36" customHeight="1">
       <c r="A93" s="12" t="inlineStr">
@@ -6591,22 +6688,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F93" s="4" t="inlineStr">
+      <c r="F93" s="4" t="inlineStr"/>
+      <c r="G93" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G93" s="4" t="inlineStr">
+      <c r="H93" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H93" s="4" t="inlineStr">
+      <c r="I93" s="4" t="inlineStr">
         <is>
           <t>IGRF000111002, IGRF000277001</t>
         </is>
       </c>
-      <c r="I93" s="4" t="inlineStr"/>
+      <c r="J93" s="4" t="inlineStr"/>
     </row>
     <row r="94" ht="36" customHeight="1">
       <c r="A94" s="10" t="inlineStr">
@@ -6632,22 +6730,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F94" s="6" t="inlineStr">
+      <c r="F94" s="6" t="inlineStr"/>
+      <c r="G94" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G94" s="6" t="inlineStr">
+      <c r="H94" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H94" s="6" t="inlineStr">
+      <c r="I94" s="6" t="inlineStr">
         <is>
           <t>IGRF000159001</t>
         </is>
       </c>
-      <c r="I94" s="6" t="inlineStr"/>
+      <c r="J94" s="6" t="inlineStr"/>
     </row>
     <row r="95" ht="36" customHeight="1">
       <c r="A95" s="12" t="inlineStr">
@@ -6673,22 +6772,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F95" s="4" t="inlineStr">
+      <c r="F95" s="4" t="inlineStr"/>
+      <c r="G95" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G95" s="4" t="inlineStr">
+      <c r="H95" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H95" s="4" t="inlineStr">
+      <c r="I95" s="4" t="inlineStr">
         <is>
           <t>IGRF000099009, IGRF000245008, IGRF000247004</t>
         </is>
       </c>
-      <c r="I95" s="4" t="inlineStr"/>
+      <c r="J95" s="4" t="inlineStr"/>
     </row>
     <row r="96" ht="36" customHeight="1">
       <c r="A96" s="10" t="inlineStr">
@@ -6714,22 +6814,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F96" s="6" t="inlineStr">
+      <c r="F96" s="6" t="inlineStr"/>
+      <c r="G96" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G96" s="6" t="inlineStr">
+      <c r="H96" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H96" s="6" t="inlineStr">
+      <c r="I96" s="6" t="inlineStr">
         <is>
           <t>IGRF000029006</t>
         </is>
       </c>
-      <c r="I96" s="6" t="inlineStr"/>
+      <c r="J96" s="6" t="inlineStr"/>
     </row>
     <row r="97" ht="36" customHeight="1">
       <c r="A97" s="12" t="inlineStr">
@@ -6755,22 +6856,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F97" s="4" t="inlineStr">
+      <c r="F97" s="4" t="inlineStr"/>
+      <c r="G97" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G97" s="4" t="inlineStr">
+      <c r="H97" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H97" s="4" t="inlineStr">
+      <c r="I97" s="4" t="inlineStr">
         <is>
           <t>IGRF000036001</t>
         </is>
       </c>
-      <c r="I97" s="4" t="inlineStr"/>
+      <c r="J97" s="4" t="inlineStr"/>
     </row>
     <row r="98" ht="36" customHeight="1">
       <c r="A98" s="10" t="inlineStr">
@@ -6796,22 +6898,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F98" s="6" t="inlineStr">
+      <c r="F98" s="6" t="inlineStr"/>
+      <c r="G98" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G98" s="6" t="inlineStr">
+      <c r="H98" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H98" s="6" t="inlineStr">
+      <c r="I98" s="6" t="inlineStr">
         <is>
           <t>IGRF000045002</t>
         </is>
       </c>
-      <c r="I98" s="6" t="inlineStr"/>
+      <c r="J98" s="6" t="inlineStr"/>
     </row>
     <row r="99" ht="36" customHeight="1">
       <c r="A99" s="12" t="inlineStr">
@@ -6837,22 +6940,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F99" s="4" t="inlineStr">
+      <c r="F99" s="4" t="inlineStr"/>
+      <c r="G99" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G99" s="4" t="inlineStr">
+      <c r="H99" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H99" s="4" t="inlineStr">
+      <c r="I99" s="4" t="inlineStr">
         <is>
           <t>IGRF000030004</t>
         </is>
       </c>
-      <c r="I99" s="4" t="inlineStr"/>
+      <c r="J99" s="4" t="inlineStr"/>
     </row>
     <row r="100" ht="36" customHeight="1">
       <c r="A100" s="10" t="inlineStr">
@@ -6878,22 +6982,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F100" s="6" t="inlineStr">
+      <c r="F100" s="6" t="inlineStr"/>
+      <c r="G100" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G100" s="6" t="inlineStr">
+      <c r="H100" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H100" s="6" t="inlineStr">
+      <c r="I100" s="6" t="inlineStr">
         <is>
           <t>IGRF000212008, IGRF000213006, IGRF000381001</t>
         </is>
       </c>
-      <c r="I100" s="6" t="inlineStr"/>
+      <c r="J100" s="6" t="inlineStr"/>
     </row>
     <row r="101" ht="36" customHeight="1">
       <c r="A101" s="12" t="inlineStr">
@@ -6919,22 +7024,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F101" s="4" t="inlineStr">
+      <c r="F101" s="4" t="inlineStr"/>
+      <c r="G101" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G101" s="4" t="inlineStr">
+      <c r="H101" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H101" s="4" t="inlineStr">
+      <c r="I101" s="4" t="inlineStr">
         <is>
           <t>IGRF000289006</t>
         </is>
       </c>
-      <c r="I101" s="4" t="inlineStr"/>
+      <c r="J101" s="4" t="inlineStr"/>
     </row>
     <row r="102" ht="36" customHeight="1">
       <c r="A102" s="10" t="inlineStr">
@@ -6960,22 +7066,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F102" s="6" t="inlineStr">
+      <c r="F102" s="6" t="inlineStr"/>
+      <c r="G102" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G102" s="6" t="inlineStr">
+      <c r="H102" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H102" s="6" t="inlineStr">
+      <c r="I102" s="6" t="inlineStr">
         <is>
           <t>IGRF000291002</t>
         </is>
       </c>
-      <c r="I102" s="6" t="inlineStr"/>
+      <c r="J102" s="6" t="inlineStr"/>
     </row>
     <row r="103" ht="36" customHeight="1">
       <c r="A103" s="12" t="inlineStr">
@@ -7001,22 +7108,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F103" s="4" t="inlineStr">
+      <c r="F103" s="4" t="inlineStr"/>
+      <c r="G103" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G103" s="4" t="inlineStr">
+      <c r="H103" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H103" s="4" t="inlineStr">
+      <c r="I103" s="4" t="inlineStr">
         <is>
           <t>IGRF000094000, IGRF000254000</t>
         </is>
       </c>
-      <c r="I103" s="4" t="inlineStr"/>
+      <c r="J103" s="4" t="inlineStr"/>
     </row>
     <row r="104" ht="36" customHeight="1">
       <c r="A104" s="10" t="inlineStr">
@@ -7042,22 +7150,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F104" s="6" t="inlineStr">
+      <c r="F104" s="6" t="inlineStr"/>
+      <c r="G104" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G104" s="6" t="inlineStr">
+      <c r="H104" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H104" s="6" t="inlineStr">
+      <c r="I104" s="6" t="inlineStr">
         <is>
           <t>IGRF000095007, IGRF000250008</t>
         </is>
       </c>
-      <c r="I104" s="6" t="inlineStr"/>
+      <c r="J104" s="6" t="inlineStr"/>
     </row>
     <row r="105" ht="36" customHeight="1">
       <c r="A105" s="12" t="inlineStr">
@@ -7083,22 +7192,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F105" s="4" t="inlineStr">
+      <c r="F105" s="4" t="inlineStr"/>
+      <c r="G105" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G105" s="4" t="inlineStr">
+      <c r="H105" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H105" s="4" t="inlineStr">
+      <c r="I105" s="4" t="inlineStr">
         <is>
           <t>IGRF000110004, IGRF000328002</t>
         </is>
       </c>
-      <c r="I105" s="4" t="inlineStr"/>
+      <c r="J105" s="4" t="inlineStr"/>
     </row>
     <row r="106" ht="36" customHeight="1">
       <c r="A106" s="10" t="inlineStr">
@@ -7124,22 +7234,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F106" s="6" t="inlineStr">
+      <c r="F106" s="6" t="inlineStr"/>
+      <c r="G106" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G106" s="6" t="inlineStr">
+      <c r="H106" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H106" s="6" t="inlineStr">
+      <c r="I106" s="6" t="inlineStr">
         <is>
           <t>IGRF000098001, IGRF000252004</t>
         </is>
       </c>
-      <c r="I106" s="6" t="inlineStr"/>
+      <c r="J106" s="6" t="inlineStr"/>
     </row>
     <row r="107" ht="36" customHeight="1">
       <c r="A107" s="12" t="inlineStr">
@@ -7165,22 +7276,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F107" s="4" t="inlineStr">
+      <c r="F107" s="4" t="inlineStr"/>
+      <c r="G107" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G107" s="4" t="inlineStr">
+      <c r="H107" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H107" s="4" t="inlineStr">
+      <c r="I107" s="4" t="inlineStr">
         <is>
           <t>IGRF000014008</t>
         </is>
       </c>
-      <c r="I107" s="4" t="inlineStr"/>
+      <c r="J107" s="4" t="inlineStr"/>
     </row>
     <row r="108" ht="36" customHeight="1">
       <c r="A108" s="10" t="inlineStr">
@@ -7206,22 +7318,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F108" s="6" t="inlineStr">
+      <c r="F108" s="6" t="inlineStr"/>
+      <c r="G108" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G108" s="6" t="inlineStr">
+      <c r="H108" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H108" s="6" t="inlineStr">
+      <c r="I108" s="6" t="inlineStr">
         <is>
           <t>IGRF000295003</t>
         </is>
       </c>
-      <c r="I108" s="6" t="inlineStr"/>
+      <c r="J108" s="6" t="inlineStr"/>
     </row>
     <row r="109" ht="36" customHeight="1">
       <c r="A109" s="12" t="inlineStr">
@@ -7231,7 +7344,7 @@
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>TGR099555020, BGR003546201000, L549300XDXYOF57JOFT72</t>
+          <t>L549300XDXYOF57JOFT72, BGR003546201000, TGR099555020</t>
         </is>
       </c>
       <c r="C109" s="13" t="n">
@@ -7248,17 +7361,18 @@
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr"/>
-      <c r="G109" s="4" t="inlineStr">
+      <c r="G109" s="4" t="inlineStr"/>
+      <c r="H109" s="4" t="inlineStr">
         <is>
           <t>EGRAEEAP003</t>
         </is>
       </c>
-      <c r="H109" s="4" t="inlineStr">
+      <c r="I109" s="4" t="inlineStr">
         <is>
           <t>IGRS509003018</t>
         </is>
       </c>
-      <c r="I109" s="4" t="inlineStr">
+      <c r="J109" s="4" t="inlineStr">
         <is>
           <t>IGRC5091217D9</t>
         </is>
@@ -7288,22 +7402,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F110" s="6" t="inlineStr">
+      <c r="F110" s="6" t="inlineStr"/>
+      <c r="G110" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G110" s="6" t="inlineStr">
+      <c r="H110" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H110" s="6" t="inlineStr">
+      <c r="I110" s="6" t="inlineStr">
         <is>
           <t>IGRF000153004</t>
         </is>
       </c>
-      <c r="I110" s="6" t="inlineStr"/>
+      <c r="J110" s="6" t="inlineStr"/>
     </row>
     <row r="111" ht="36" customHeight="1">
       <c r="A111" s="12" t="inlineStr">
@@ -7329,22 +7444,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F111" s="4" t="inlineStr">
+      <c r="F111" s="4" t="inlineStr"/>
+      <c r="G111" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G111" s="4" t="inlineStr">
+      <c r="H111" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H111" s="4" t="inlineStr">
+      <c r="I111" s="4" t="inlineStr">
         <is>
           <t>IGRF000084001</t>
         </is>
       </c>
-      <c r="I111" s="4" t="inlineStr"/>
+      <c r="J111" s="4" t="inlineStr"/>
     </row>
     <row r="112" ht="36" customHeight="1">
       <c r="A112" s="10" t="inlineStr">
@@ -7370,22 +7486,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F112" s="6" t="inlineStr">
+      <c r="F112" s="6" t="inlineStr"/>
+      <c r="G112" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G112" s="6" t="inlineStr">
+      <c r="H112" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H112" s="6" t="inlineStr">
+      <c r="I112" s="6" t="inlineStr">
         <is>
           <t>IGRF000336005</t>
         </is>
       </c>
-      <c r="I112" s="6" t="inlineStr"/>
+      <c r="J112" s="6" t="inlineStr"/>
     </row>
     <row r="113" ht="36" customHeight="1">
       <c r="A113" s="12" t="inlineStr">
@@ -7411,22 +7528,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F113" s="4" t="inlineStr">
+      <c r="F113" s="4" t="inlineStr"/>
+      <c r="G113" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G113" s="4" t="inlineStr">
+      <c r="H113" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H113" s="4" t="inlineStr">
+      <c r="I113" s="4" t="inlineStr">
         <is>
           <t>IGRF000444007</t>
         </is>
       </c>
-      <c r="I113" s="4" t="inlineStr"/>
+      <c r="J113" s="4" t="inlineStr"/>
     </row>
     <row r="114" ht="36" customHeight="1">
       <c r="A114" s="10" t="inlineStr">
@@ -7450,20 +7568,25 @@
       </c>
       <c r="F114" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G114" s="6" t="inlineStr">
+        <is>
           <t>EGR998159392</t>
         </is>
       </c>
-      <c r="G114" s="6" t="inlineStr">
+      <c r="H114" s="6" t="inlineStr">
         <is>
           <t>EGR998159392</t>
         </is>
       </c>
-      <c r="H114" s="6" t="inlineStr">
+      <c r="I114" s="6" t="inlineStr">
         <is>
           <t>PEGRAK90014_SHR</t>
         </is>
       </c>
-      <c r="I114" s="6" t="inlineStr"/>
+      <c r="J114" s="6" t="inlineStr"/>
     </row>
     <row r="115" ht="36" customHeight="1">
       <c r="A115" s="12" t="inlineStr">
@@ -7489,22 +7612,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F115" s="4" t="inlineStr">
+      <c r="F115" s="4" t="inlineStr"/>
+      <c r="G115" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G115" s="4" t="inlineStr">
+      <c r="H115" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H115" s="4" t="inlineStr">
+      <c r="I115" s="4" t="inlineStr">
         <is>
           <t>IGRF000067006</t>
         </is>
       </c>
-      <c r="I115" s="4" t="inlineStr"/>
+      <c r="J115" s="4" t="inlineStr"/>
     </row>
     <row r="116" ht="36" customHeight="1">
       <c r="A116" s="10" t="inlineStr">
@@ -7530,22 +7654,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F116" s="6" t="inlineStr">
+      <c r="F116" s="6" t="inlineStr"/>
+      <c r="G116" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G116" s="6" t="inlineStr">
+      <c r="H116" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H116" s="6" t="inlineStr">
+      <c r="I116" s="6" t="inlineStr">
         <is>
           <t>IGRF000339009</t>
         </is>
       </c>
-      <c r="I116" s="6" t="inlineStr"/>
+      <c r="J116" s="6" t="inlineStr"/>
     </row>
     <row r="117" ht="36" customHeight="1">
       <c r="A117" s="12" t="inlineStr">
@@ -7569,20 +7694,25 @@
       </c>
       <c r="F117" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G117" s="4" t="inlineStr">
+        <is>
           <t>EGR998279015</t>
         </is>
       </c>
-      <c r="G117" s="4" t="inlineStr">
+      <c r="H117" s="4" t="inlineStr">
         <is>
           <t>EGR998279015</t>
         </is>
       </c>
-      <c r="H117" s="4" t="inlineStr">
+      <c r="I117" s="4" t="inlineStr">
         <is>
           <t>PEGRAK90005_SHR</t>
         </is>
       </c>
-      <c r="I117" s="4" t="inlineStr"/>
+      <c r="J117" s="4" t="inlineStr"/>
     </row>
     <row r="118" ht="36" customHeight="1">
       <c r="A118" s="10" t="inlineStr">
@@ -7606,20 +7736,25 @@
       </c>
       <c r="F118" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G118" s="6" t="inlineStr">
+        <is>
           <t>EGRAEPEY059</t>
         </is>
       </c>
-      <c r="G118" s="6" t="inlineStr">
+      <c r="H118" s="6" t="inlineStr">
         <is>
           <t>EGRAEPEY059</t>
         </is>
       </c>
-      <c r="H118" s="6" t="inlineStr">
+      <c r="I118" s="6" t="inlineStr">
         <is>
           <t>PEGRAK90012_SHR</t>
         </is>
       </c>
-      <c r="I118" s="6" t="inlineStr"/>
+      <c r="J118" s="6" t="inlineStr"/>
     </row>
     <row r="119" ht="36" customHeight="1">
       <c r="A119" s="12" t="inlineStr">
@@ -7645,22 +7780,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F119" s="4" t="inlineStr">
+      <c r="F119" s="4" t="inlineStr"/>
+      <c r="G119" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="G119" s="4" t="inlineStr">
+      <c r="H119" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC001</t>
         </is>
       </c>
-      <c r="H119" s="4" t="inlineStr">
+      <c r="I119" s="4" t="inlineStr">
         <is>
           <t>IGRF000298007, IGRF000416005</t>
         </is>
       </c>
-      <c r="I119" s="4" t="inlineStr"/>
+      <c r="J119" s="4" t="inlineStr"/>
     </row>
     <row r="120" ht="36" customHeight="1">
       <c r="A120" s="10" t="inlineStr">
@@ -7688,20 +7824,25 @@
       </c>
       <c r="F120" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G120" s="6" t="inlineStr">
+        <is>
           <t>EGR999984680</t>
         </is>
       </c>
-      <c r="G120" s="6" t="inlineStr">
+      <c r="H120" s="6" t="inlineStr">
         <is>
           <t>EGR999984680</t>
         </is>
       </c>
-      <c r="H120" s="6" t="inlineStr">
+      <c r="I120" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01061_SHR</t>
         </is>
       </c>
-      <c r="I120" s="6" t="inlineStr"/>
+      <c r="J120" s="6" t="inlineStr"/>
     </row>
     <row r="121" ht="36" customHeight="1">
       <c r="A121" s="12" t="inlineStr">
@@ -7727,22 +7868,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F121" s="4" t="inlineStr">
+      <c r="F121" s="4" t="inlineStr"/>
+      <c r="G121" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G121" s="4" t="inlineStr">
+      <c r="H121" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H121" s="4" t="inlineStr">
+      <c r="I121" s="4" t="inlineStr">
         <is>
           <t>IGRF000068004</t>
         </is>
       </c>
-      <c r="I121" s="4" t="inlineStr"/>
+      <c r="J121" s="4" t="inlineStr"/>
     </row>
     <row r="122" ht="36" customHeight="1">
       <c r="A122" s="10" t="inlineStr">
@@ -7768,22 +7910,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F122" s="6" t="inlineStr">
+      <c r="F122" s="6" t="inlineStr"/>
+      <c r="G122" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G122" s="6" t="inlineStr">
+      <c r="H122" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H122" s="6" t="inlineStr">
+      <c r="I122" s="6" t="inlineStr">
         <is>
           <t>IGRF000061009, IGRF000327004</t>
         </is>
       </c>
-      <c r="I122" s="6" t="inlineStr"/>
+      <c r="J122" s="6" t="inlineStr"/>
     </row>
     <row r="123" ht="36" customHeight="1">
       <c r="A123" s="12" t="inlineStr">
@@ -7809,22 +7952,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F123" s="4" t="inlineStr">
+      <c r="F123" s="4" t="inlineStr"/>
+      <c r="G123" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G123" s="4" t="inlineStr">
+      <c r="H123" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H123" s="4" t="inlineStr">
+      <c r="I123" s="4" t="inlineStr">
         <is>
           <t>IGRF000335007</t>
         </is>
       </c>
-      <c r="I123" s="4" t="inlineStr"/>
+      <c r="J123" s="4" t="inlineStr"/>
     </row>
     <row r="124" ht="36" customHeight="1">
       <c r="A124" s="10" t="inlineStr">
@@ -7850,22 +7994,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F124" s="6" t="inlineStr">
+      <c r="F124" s="6" t="inlineStr"/>
+      <c r="G124" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G124" s="6" t="inlineStr">
+      <c r="H124" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H124" s="6" t="inlineStr">
+      <c r="I124" s="6" t="inlineStr">
         <is>
           <t>IGRF000063005, IGRF000305000</t>
         </is>
       </c>
-      <c r="I124" s="6" t="inlineStr"/>
+      <c r="J124" s="6" t="inlineStr"/>
     </row>
     <row r="125" ht="36" customHeight="1">
       <c r="A125" s="12" t="inlineStr">
@@ -7891,22 +8036,23 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="F125" s="4" t="inlineStr">
+      <c r="F125" s="4" t="inlineStr"/>
+      <c r="G125" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G125" s="4" t="inlineStr">
+      <c r="H125" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H125" s="4" t="inlineStr">
+      <c r="I125" s="4" t="inlineStr">
         <is>
           <t>IGRF000112000, IGRF000258001</t>
         </is>
       </c>
-      <c r="I125" s="4" t="inlineStr"/>
+      <c r="J125" s="4" t="inlineStr"/>
     </row>
     <row r="126" ht="36" customHeight="1">
       <c r="A126" s="10" t="inlineStr">
@@ -7916,7 +8062,7 @@
       </c>
       <c r="B126" s="6" t="inlineStr">
         <is>
-          <t>L213800QM2ZFRARYU6C87, TGR800397001, BGR120108101000</t>
+          <t>BGR120108101000, L213800QM2ZFRARYU6C87, TGR800397001</t>
         </is>
       </c>
       <c r="C126" s="11" t="n">
@@ -7933,17 +8079,18 @@
         </is>
       </c>
       <c r="F126" s="6" t="inlineStr"/>
-      <c r="G126" s="6" t="inlineStr">
+      <c r="G126" s="6" t="inlineStr"/>
+      <c r="H126" s="6" t="inlineStr">
         <is>
           <t>EGRAEEAP005</t>
         </is>
       </c>
-      <c r="H126" s="6" t="inlineStr">
+      <c r="I126" s="6" t="inlineStr">
         <is>
           <t>IGRS516003001</t>
         </is>
       </c>
-      <c r="I126" s="6" t="inlineStr"/>
+      <c r="J126" s="6" t="inlineStr"/>
     </row>
     <row r="127" ht="36" customHeight="1">
       <c r="A127" s="12" t="inlineStr">
@@ -7971,20 +8118,25 @@
       </c>
       <c r="F127" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G127" s="4" t="inlineStr">
+        <is>
           <t>EGR800398384</t>
         </is>
       </c>
-      <c r="G127" s="4" t="inlineStr">
+      <c r="H127" s="4" t="inlineStr">
         <is>
           <t>EGR800398384</t>
         </is>
       </c>
-      <c r="H127" s="4" t="inlineStr">
+      <c r="I127" s="4" t="inlineStr">
         <is>
           <t>PEGRAK90007_SHR</t>
         </is>
       </c>
-      <c r="I127" s="4" t="inlineStr"/>
+      <c r="J127" s="4" t="inlineStr"/>
     </row>
     <row r="128" ht="36" customHeight="1">
       <c r="A128" s="10" t="inlineStr">
@@ -8012,20 +8164,25 @@
       </c>
       <c r="F128" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G128" s="6" t="inlineStr">
+        <is>
           <t>EGR800433747</t>
         </is>
       </c>
-      <c r="G128" s="6" t="inlineStr">
+      <c r="H128" s="6" t="inlineStr">
         <is>
           <t>EGR800433747</t>
         </is>
       </c>
-      <c r="H128" s="6" t="inlineStr">
+      <c r="I128" s="6" t="inlineStr">
         <is>
           <t>PEGRAK90006_SHR</t>
         </is>
       </c>
-      <c r="I128" s="6" t="inlineStr"/>
+      <c r="J128" s="6" t="inlineStr"/>
     </row>
     <row r="129" ht="36" customHeight="1">
       <c r="A129" s="12" t="inlineStr">
@@ -8051,22 +8208,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F129" s="4" t="inlineStr">
+      <c r="F129" s="4" t="inlineStr"/>
+      <c r="G129" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G129" s="4" t="inlineStr">
+      <c r="H129" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H129" s="4" t="inlineStr">
+      <c r="I129" s="4" t="inlineStr">
         <is>
           <t>IGRF000081007</t>
         </is>
       </c>
-      <c r="I129" s="4" t="inlineStr"/>
+      <c r="J129" s="4" t="inlineStr"/>
     </row>
     <row r="130" ht="36" customHeight="1">
       <c r="A130" s="10" t="inlineStr">
@@ -8092,22 +8250,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F130" s="6" t="inlineStr">
+      <c r="F130" s="6" t="inlineStr"/>
+      <c r="G130" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G130" s="6" t="inlineStr">
+      <c r="H130" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H130" s="6" t="inlineStr">
+      <c r="I130" s="6" t="inlineStr">
         <is>
           <t>IGRF000215001</t>
         </is>
       </c>
-      <c r="I130" s="6" t="inlineStr"/>
+      <c r="J130" s="6" t="inlineStr"/>
     </row>
     <row r="131" ht="36" customHeight="1">
       <c r="A131" s="12" t="inlineStr">
@@ -8117,7 +8276,7 @@
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>TGR997656128, L213800Q23BDHSW1OQT90, BGR128686346000</t>
+          <t>BGR128686346000, L213800Q23BDHSW1OQT90, TGR997656128</t>
         </is>
       </c>
       <c r="C131" s="13" t="n">
@@ -8134,17 +8293,18 @@
         </is>
       </c>
       <c r="F131" s="4" t="inlineStr"/>
-      <c r="G131" s="4" t="inlineStr">
+      <c r="G131" s="4" t="inlineStr"/>
+      <c r="H131" s="4" t="inlineStr">
         <is>
           <t>EGRAEEAP007</t>
         </is>
       </c>
-      <c r="H131" s="4" t="inlineStr">
+      <c r="I131" s="4" t="inlineStr">
         <is>
           <t>IGRS524003001</t>
         </is>
       </c>
-      <c r="I131" s="4" t="inlineStr"/>
+      <c r="J131" s="4" t="inlineStr"/>
     </row>
     <row r="132" ht="36" customHeight="1">
       <c r="A132" s="10" t="inlineStr">
@@ -8170,22 +8330,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F132" s="6" t="inlineStr">
+      <c r="F132" s="6" t="inlineStr"/>
+      <c r="G132" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G132" s="6" t="inlineStr">
+      <c r="H132" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H132" s="6" t="inlineStr">
+      <c r="I132" s="6" t="inlineStr">
         <is>
           <t>IGRF000093002</t>
         </is>
       </c>
-      <c r="I132" s="6" t="inlineStr"/>
+      <c r="J132" s="6" t="inlineStr"/>
     </row>
     <row r="133" ht="36" customHeight="1">
       <c r="A133" s="12" t="inlineStr">
@@ -8195,7 +8356,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>L213800DDNBUCO6A2RT84, TGR800596087, BGR131359701000</t>
+          <t>BGR131359701000, L213800DDNBUCO6A2RT84, TGR800596087</t>
         </is>
       </c>
       <c r="C133" s="13" t="n">
@@ -8213,20 +8374,25 @@
       </c>
       <c r="F133" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G133" s="4" t="inlineStr">
+        <is>
           <t>EGR998642355</t>
         </is>
       </c>
-      <c r="G133" s="4" t="inlineStr">
+      <c r="H133" s="4" t="inlineStr">
         <is>
           <t>EGR998642355</t>
         </is>
       </c>
-      <c r="H133" s="4" t="inlineStr">
+      <c r="I133" s="4" t="inlineStr">
         <is>
           <t>IGRS520003005</t>
         </is>
       </c>
-      <c r="I133" s="4" t="inlineStr"/>
+      <c r="J133" s="4" t="inlineStr"/>
     </row>
     <row r="134" ht="36" customHeight="1">
       <c r="A134" s="10" t="inlineStr">
@@ -8252,22 +8418,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F134" s="6" t="inlineStr">
+      <c r="F134" s="6" t="inlineStr"/>
+      <c r="G134" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G134" s="6" t="inlineStr">
+      <c r="H134" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H134" s="6" t="inlineStr">
+      <c r="I134" s="6" t="inlineStr">
         <is>
           <t>IGRF000214004</t>
         </is>
       </c>
-      <c r="I134" s="6" t="inlineStr"/>
+      <c r="J134" s="6" t="inlineStr"/>
     </row>
     <row r="135" ht="36" customHeight="1">
       <c r="A135" s="12" t="inlineStr">
@@ -8293,22 +8460,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F135" s="4" t="inlineStr">
+      <c r="F135" s="4" t="inlineStr"/>
+      <c r="G135" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G135" s="4" t="inlineStr">
+      <c r="H135" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H135" s="4" t="inlineStr">
+      <c r="I135" s="4" t="inlineStr">
         <is>
           <t>IGRF000135001, IGRF000136009</t>
         </is>
       </c>
-      <c r="I135" s="4" t="inlineStr"/>
+      <c r="J135" s="4" t="inlineStr"/>
     </row>
     <row r="136" ht="36" customHeight="1">
       <c r="A136" s="10" t="inlineStr">
@@ -8334,22 +8502,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F136" s="6" t="inlineStr">
+      <c r="F136" s="6" t="inlineStr"/>
+      <c r="G136" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G136" s="6" t="inlineStr">
+      <c r="H136" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H136" s="6" t="inlineStr">
+      <c r="I136" s="6" t="inlineStr">
         <is>
           <t>IGRF000154002</t>
         </is>
       </c>
-      <c r="I136" s="6" t="inlineStr"/>
+      <c r="J136" s="6" t="inlineStr"/>
     </row>
     <row r="137" ht="36" customHeight="1">
       <c r="A137" s="12" t="inlineStr">
@@ -8376,17 +8545,18 @@
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr"/>
-      <c r="G137" s="4" t="inlineStr">
+      <c r="G137" s="4" t="inlineStr"/>
+      <c r="H137" s="4" t="inlineStr">
         <is>
           <t>EGRAEEAP006</t>
         </is>
       </c>
-      <c r="H137" s="4" t="inlineStr">
+      <c r="I137" s="4" t="inlineStr">
         <is>
           <t>IGRS517003000</t>
         </is>
       </c>
-      <c r="I137" s="4" t="inlineStr"/>
+      <c r="J137" s="4" t="inlineStr"/>
     </row>
     <row r="138" ht="36" customHeight="1">
       <c r="A138" s="10" t="inlineStr">
@@ -8414,20 +8584,25 @@
       </c>
       <c r="F138" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G138" s="6" t="inlineStr">
+        <is>
           <t>EGR800792234</t>
         </is>
       </c>
-      <c r="G138" s="6" t="inlineStr">
+      <c r="H138" s="6" t="inlineStr">
         <is>
           <t>EGR800792234</t>
         </is>
       </c>
-      <c r="H138" s="6" t="inlineStr">
+      <c r="I138" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01062_SHR</t>
         </is>
       </c>
-      <c r="I138" s="6" t="inlineStr"/>
+      <c r="J138" s="6" t="inlineStr"/>
     </row>
     <row r="139" ht="36" customHeight="1">
       <c r="A139" s="12" t="inlineStr">
@@ -8453,22 +8628,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F139" s="4" t="inlineStr">
+      <c r="F139" s="4" t="inlineStr"/>
+      <c r="G139" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G139" s="4" t="inlineStr">
+      <c r="H139" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H139" s="4" t="inlineStr">
+      <c r="I139" s="4" t="inlineStr">
         <is>
           <t>IGRF000163003</t>
         </is>
       </c>
-      <c r="I139" s="4" t="inlineStr"/>
+      <c r="J139" s="4" t="inlineStr"/>
     </row>
     <row r="140" ht="36" customHeight="1">
       <c r="A140" s="10" t="inlineStr">
@@ -8494,22 +8670,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F140" s="6" t="inlineStr">
+      <c r="F140" s="6" t="inlineStr"/>
+      <c r="G140" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G140" s="6" t="inlineStr">
+      <c r="H140" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H140" s="6" t="inlineStr">
+      <c r="I140" s="6" t="inlineStr">
         <is>
           <t>IGRF000162005</t>
         </is>
       </c>
-      <c r="I140" s="6" t="inlineStr"/>
+      <c r="J140" s="6" t="inlineStr"/>
     </row>
     <row r="141" ht="36" customHeight="1">
       <c r="A141" s="12" t="inlineStr">
@@ -8535,22 +8712,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F141" s="4" t="inlineStr">
+      <c r="F141" s="4" t="inlineStr"/>
+      <c r="G141" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G141" s="4" t="inlineStr">
+      <c r="H141" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H141" s="4" t="inlineStr">
+      <c r="I141" s="4" t="inlineStr">
         <is>
           <t>IGRF000164001, IGRF000177003</t>
         </is>
       </c>
-      <c r="I141" s="4" t="inlineStr"/>
+      <c r="J141" s="4" t="inlineStr"/>
     </row>
     <row r="142" ht="36" customHeight="1">
       <c r="A142" s="10" t="inlineStr">
@@ -8576,22 +8754,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F142" s="6" t="inlineStr">
+      <c r="F142" s="6" t="inlineStr"/>
+      <c r="G142" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G142" s="6" t="inlineStr">
+      <c r="H142" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H142" s="6" t="inlineStr">
+      <c r="I142" s="6" t="inlineStr">
         <is>
           <t>IGRF000166006, IGRF000167004, IGRF000178001</t>
         </is>
       </c>
-      <c r="I142" s="6" t="inlineStr"/>
+      <c r="J142" s="6" t="inlineStr"/>
     </row>
     <row r="143" ht="36" customHeight="1">
       <c r="A143" s="12" t="inlineStr">
@@ -8617,22 +8796,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F143" s="4" t="inlineStr">
+      <c r="F143" s="4" t="inlineStr"/>
+      <c r="G143" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G143" s="4" t="inlineStr">
+      <c r="H143" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H143" s="4" t="inlineStr">
+      <c r="I143" s="4" t="inlineStr">
         <is>
           <t>IGRF000168002, IGRF000169000, IGRF000179009</t>
         </is>
       </c>
-      <c r="I143" s="4" t="inlineStr"/>
+      <c r="J143" s="4" t="inlineStr"/>
     </row>
     <row r="144" ht="36" customHeight="1">
       <c r="A144" s="10" t="inlineStr">
@@ -8640,11 +8820,7 @@
           <t>EGRAK01070</t>
         </is>
       </c>
-      <c r="B144" s="6" t="inlineStr">
-        <is>
-          <t>T800911079</t>
-        </is>
-      </c>
+      <c r="B144" s="6" t="inlineStr"/>
       <c r="C144" s="11" t="n">
         <v>43088</v>
       </c>
@@ -8660,20 +8836,25 @@
       </c>
       <c r="F144" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G144" s="6" t="inlineStr">
+        <is>
           <t>EGR800911079</t>
         </is>
       </c>
-      <c r="G144" s="6" t="inlineStr">
+      <c r="H144" s="6" t="inlineStr">
         <is>
           <t>EGR800911079</t>
         </is>
       </c>
-      <c r="H144" s="6" t="inlineStr">
+      <c r="I144" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01070_SHR</t>
         </is>
       </c>
-      <c r="I144" s="6" t="inlineStr"/>
+      <c r="J144" s="6" t="inlineStr"/>
     </row>
     <row r="145" ht="36" customHeight="1">
       <c r="A145" s="12" t="inlineStr">
@@ -8697,20 +8878,25 @@
       </c>
       <c r="F145" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G145" s="4" t="inlineStr">
+        <is>
           <t>EGR800903737</t>
         </is>
       </c>
-      <c r="G145" s="4" t="inlineStr">
+      <c r="H145" s="4" t="inlineStr">
         <is>
           <t>EGR800903737</t>
         </is>
       </c>
-      <c r="H145" s="4" t="inlineStr">
+      <c r="I145" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01064_SHR</t>
         </is>
       </c>
-      <c r="I145" s="4" t="inlineStr"/>
+      <c r="J145" s="4" t="inlineStr"/>
     </row>
     <row r="146" ht="36" customHeight="1">
       <c r="A146" s="10" t="inlineStr">
@@ -8736,22 +8922,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F146" s="6" t="inlineStr">
+      <c r="F146" s="6" t="inlineStr"/>
+      <c r="G146" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G146" s="6" t="inlineStr">
+      <c r="H146" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H146" s="6" t="inlineStr">
+      <c r="I146" s="6" t="inlineStr">
         <is>
           <t>IGRF000181005, IGRF000385002</t>
         </is>
       </c>
-      <c r="I146" s="6" t="inlineStr"/>
+      <c r="J146" s="6" t="inlineStr"/>
     </row>
     <row r="147" ht="36" customHeight="1">
       <c r="A147" s="12" t="inlineStr">
@@ -8777,22 +8964,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F147" s="4" t="inlineStr">
+      <c r="F147" s="4" t="inlineStr"/>
+      <c r="G147" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G147" s="4" t="inlineStr">
+      <c r="H147" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H147" s="4" t="inlineStr">
+      <c r="I147" s="4" t="inlineStr">
         <is>
           <t>IGRF000243003, IGRF000244001</t>
         </is>
       </c>
-      <c r="I147" s="4" t="inlineStr"/>
+      <c r="J147" s="4" t="inlineStr"/>
     </row>
     <row r="148" ht="36" customHeight="1">
       <c r="A148" s="10" t="inlineStr">
@@ -8802,7 +8990,7 @@
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
-          <t>L213800DTEZE6R8BZ9K19, TGR801077433, BGR148547901000</t>
+          <t>TGR801077433, L213800DTEZE6R8BZ9K19, BGR148547901000</t>
         </is>
       </c>
       <c r="C148" s="11" t="n">
@@ -8819,17 +9007,18 @@
         </is>
       </c>
       <c r="F148" s="6" t="inlineStr"/>
-      <c r="G148" s="6" t="inlineStr">
+      <c r="G148" s="6" t="inlineStr"/>
+      <c r="H148" s="6" t="inlineStr">
         <is>
           <t>EGRAEEAP008</t>
         </is>
       </c>
-      <c r="H148" s="6" t="inlineStr">
+      <c r="I148" s="6" t="inlineStr">
         <is>
           <t>IGRS535003008</t>
         </is>
       </c>
-      <c r="I148" s="6" t="inlineStr"/>
+      <c r="J148" s="6" t="inlineStr"/>
     </row>
     <row r="149" ht="36" customHeight="1">
       <c r="A149" s="12" t="inlineStr">
@@ -8855,22 +9044,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F149" s="4" t="inlineStr">
+      <c r="F149" s="4" t="inlineStr"/>
+      <c r="G149" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G149" s="4" t="inlineStr">
+      <c r="H149" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H149" s="4" t="inlineStr">
+      <c r="I149" s="4" t="inlineStr">
         <is>
           <t>IGRF000170008, IGRF000171006</t>
         </is>
       </c>
-      <c r="I149" s="4" t="inlineStr"/>
+      <c r="J149" s="4" t="inlineStr"/>
     </row>
     <row r="150" ht="36" customHeight="1">
       <c r="A150" s="10" t="inlineStr">
@@ -8896,22 +9086,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F150" s="6" t="inlineStr">
+      <c r="F150" s="6" t="inlineStr"/>
+      <c r="G150" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G150" s="6" t="inlineStr">
+      <c r="H150" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H150" s="6" t="inlineStr">
+      <c r="I150" s="6" t="inlineStr">
         <is>
           <t>IGRF000332004</t>
         </is>
       </c>
-      <c r="I150" s="6" t="inlineStr"/>
+      <c r="J150" s="6" t="inlineStr"/>
     </row>
     <row r="151" ht="36" customHeight="1">
       <c r="A151" s="12" t="inlineStr">
@@ -8939,20 +9130,25 @@
       </c>
       <c r="F151" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G151" s="4" t="inlineStr">
+        <is>
           <t>EGR999984680</t>
         </is>
       </c>
-      <c r="G151" s="4" t="inlineStr">
+      <c r="H151" s="4" t="inlineStr">
         <is>
           <t>EGR999984680</t>
         </is>
       </c>
-      <c r="H151" s="4" t="inlineStr">
+      <c r="I151" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01068_SHR</t>
         </is>
       </c>
-      <c r="I151" s="4" t="inlineStr"/>
+      <c r="J151" s="4" t="inlineStr"/>
     </row>
     <row r="152" ht="36" customHeight="1">
       <c r="A152" s="10" t="inlineStr">
@@ -8962,7 +9158,7 @@
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>L213800XKY8GHKN57D970, TGR996899546, BGR152321260000</t>
+          <t>TGR996899546, BGR152321260000, L213800XKY8GHKN57D970</t>
         </is>
       </c>
       <c r="C152" s="11" t="n">
@@ -8979,17 +9175,18 @@
         </is>
       </c>
       <c r="F152" s="6" t="inlineStr"/>
-      <c r="G152" s="6" t="inlineStr">
+      <c r="G152" s="6" t="inlineStr"/>
+      <c r="H152" s="6" t="inlineStr">
         <is>
           <t>EGRAEEAP010</t>
         </is>
       </c>
-      <c r="H152" s="6" t="inlineStr">
+      <c r="I152" s="6" t="inlineStr">
         <is>
           <t>IGRS824003008</t>
         </is>
       </c>
-      <c r="I152" s="6" t="inlineStr">
+      <c r="J152" s="6" t="inlineStr">
         <is>
           <t>IGRC824121CD0</t>
         </is>
@@ -9019,22 +9216,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F153" s="4" t="inlineStr">
+      <c r="F153" s="4" t="inlineStr"/>
+      <c r="G153" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G153" s="4" t="inlineStr">
+      <c r="H153" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H153" s="4" t="inlineStr">
+      <c r="I153" s="4" t="inlineStr">
         <is>
           <t>IGRF000329000</t>
         </is>
       </c>
-      <c r="I153" s="4" t="inlineStr"/>
+      <c r="J153" s="4" t="inlineStr"/>
     </row>
     <row r="154" ht="36" customHeight="1">
       <c r="A154" s="10" t="inlineStr">
@@ -9060,22 +9258,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F154" s="6" t="inlineStr">
+      <c r="F154" s="6" t="inlineStr"/>
+      <c r="G154" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="G154" s="6" t="inlineStr">
+      <c r="H154" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC030</t>
         </is>
       </c>
-      <c r="H154" s="6" t="inlineStr">
+      <c r="I154" s="6" t="inlineStr">
         <is>
           <t>IGRF000323003, IGRF000324001, IGRF000325008, IGRF000326006</t>
         </is>
       </c>
-      <c r="I154" s="6" t="inlineStr"/>
+      <c r="J154" s="6" t="inlineStr"/>
     </row>
     <row r="155" ht="36" customHeight="1">
       <c r="A155" s="12" t="inlineStr">
@@ -9099,20 +9298,25 @@
       </c>
       <c r="F155" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G155" s="4" t="inlineStr">
+        <is>
           <t>EGR801322351</t>
         </is>
       </c>
-      <c r="G155" s="4" t="inlineStr">
+      <c r="H155" s="4" t="inlineStr">
         <is>
           <t>EGR801322351</t>
         </is>
       </c>
-      <c r="H155" s="4" t="inlineStr">
+      <c r="I155" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01069_SHR</t>
         </is>
       </c>
-      <c r="I155" s="4" t="inlineStr"/>
+      <c r="J155" s="4" t="inlineStr"/>
     </row>
     <row r="156" ht="36" customHeight="1">
       <c r="A156" s="10" t="inlineStr">
@@ -9138,22 +9342,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F156" s="6" t="inlineStr">
+      <c r="F156" s="6" t="inlineStr"/>
+      <c r="G156" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G156" s="6" t="inlineStr">
+      <c r="H156" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H156" s="6" t="inlineStr">
+      <c r="I156" s="6" t="inlineStr">
         <is>
           <t>IGRF000337003</t>
         </is>
       </c>
-      <c r="I156" s="6" t="inlineStr"/>
+      <c r="J156" s="6" t="inlineStr"/>
     </row>
     <row r="157" ht="36" customHeight="1">
       <c r="A157" s="12" t="inlineStr">
@@ -9179,22 +9384,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F157" s="4" t="inlineStr">
+      <c r="F157" s="4" t="inlineStr"/>
+      <c r="G157" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="G157" s="4" t="inlineStr">
+      <c r="H157" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC008</t>
         </is>
       </c>
-      <c r="H157" s="4" t="inlineStr">
+      <c r="I157" s="4" t="inlineStr">
         <is>
           <t>IGRF000338001</t>
         </is>
       </c>
-      <c r="I157" s="4" t="inlineStr"/>
+      <c r="J157" s="4" t="inlineStr"/>
     </row>
     <row r="158" ht="36" customHeight="1">
       <c r="A158" s="10" t="inlineStr">
@@ -9222,20 +9428,25 @@
       </c>
       <c r="F158" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G158" s="6" t="inlineStr">
+        <is>
           <t>EGR800792234</t>
         </is>
       </c>
-      <c r="G158" s="6" t="inlineStr">
+      <c r="H158" s="6" t="inlineStr">
         <is>
           <t>EGR800792234</t>
         </is>
       </c>
-      <c r="H158" s="6" t="inlineStr">
+      <c r="I158" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01063_SHR</t>
         </is>
       </c>
-      <c r="I158" s="6" t="inlineStr"/>
+      <c r="J158" s="6" t="inlineStr"/>
     </row>
     <row r="159" ht="36" customHeight="1">
       <c r="A159" s="12" t="inlineStr">
@@ -9243,11 +9454,7 @@
           <t>EGRAK01060</t>
         </is>
       </c>
-      <c r="B159" s="4" t="inlineStr">
-        <is>
-          <t>T801446949</t>
-        </is>
-      </c>
+      <c r="B159" s="4" t="inlineStr"/>
       <c r="C159" s="13" t="n">
         <v>44142</v>
       </c>
@@ -9263,20 +9470,25 @@
       </c>
       <c r="F159" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G159" s="4" t="inlineStr">
+        <is>
           <t>EGR801446949</t>
         </is>
       </c>
-      <c r="G159" s="4" t="inlineStr">
+      <c r="H159" s="4" t="inlineStr">
         <is>
           <t>EGR801446949</t>
         </is>
       </c>
-      <c r="H159" s="4" t="inlineStr">
+      <c r="I159" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01060_SHR</t>
         </is>
       </c>
-      <c r="I159" s="4" t="inlineStr"/>
+      <c r="J159" s="4" t="inlineStr"/>
     </row>
     <row r="160" ht="36" customHeight="1">
       <c r="A160" s="10" t="inlineStr">
@@ -9300,20 +9512,25 @@
       </c>
       <c r="F160" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G160" s="6" t="inlineStr">
+        <is>
           <t>EGR801446716</t>
         </is>
       </c>
-      <c r="G160" s="6" t="inlineStr">
+      <c r="H160" s="6" t="inlineStr">
         <is>
           <t>EGR801446716</t>
         </is>
       </c>
-      <c r="H160" s="6" t="inlineStr">
+      <c r="I160" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01058_SHR</t>
         </is>
       </c>
-      <c r="I160" s="6" t="inlineStr"/>
+      <c r="J160" s="6" t="inlineStr"/>
     </row>
     <row r="161" ht="36" customHeight="1">
       <c r="A161" s="12" t="inlineStr">
@@ -9339,22 +9556,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F161" s="4" t="inlineStr">
+      <c r="F161" s="4" t="inlineStr"/>
+      <c r="G161" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="G161" s="4" t="inlineStr">
+      <c r="H161" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC023</t>
         </is>
       </c>
-      <c r="H161" s="4" t="inlineStr">
+      <c r="I161" s="4" t="inlineStr">
         <is>
           <t>IGRF000341005</t>
         </is>
       </c>
-      <c r="I161" s="4" t="inlineStr"/>
+      <c r="J161" s="4" t="inlineStr"/>
     </row>
     <row r="162" ht="36" customHeight="1">
       <c r="A162" s="10" t="inlineStr">
@@ -9382,20 +9600,25 @@
       </c>
       <c r="F162" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G162" s="6" t="inlineStr">
+        <is>
           <t>EGR801296864</t>
         </is>
       </c>
-      <c r="G162" s="6" t="inlineStr">
+      <c r="H162" s="6" t="inlineStr">
         <is>
           <t>EGR801296864</t>
         </is>
       </c>
-      <c r="H162" s="6" t="inlineStr">
+      <c r="I162" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01027_SHR</t>
         </is>
       </c>
-      <c r="I162" s="6" t="inlineStr"/>
+      <c r="J162" s="6" t="inlineStr"/>
     </row>
     <row r="163" ht="36" customHeight="1">
       <c r="A163" s="12" t="inlineStr">
@@ -9421,22 +9644,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F163" s="4" t="inlineStr">
+      <c r="F163" s="4" t="inlineStr"/>
+      <c r="G163" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G163" s="4" t="inlineStr">
+      <c r="H163" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H163" s="4" t="inlineStr">
+      <c r="I163" s="4" t="inlineStr">
         <is>
           <t>IGRF000342003</t>
         </is>
       </c>
-      <c r="I163" s="4" t="inlineStr"/>
+      <c r="J163" s="4" t="inlineStr"/>
     </row>
     <row r="164" ht="36" customHeight="1">
       <c r="A164" s="10" t="inlineStr">
@@ -9460,20 +9684,25 @@
       </c>
       <c r="F164" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G164" s="6" t="inlineStr">
+        <is>
           <t>EGR801470046</t>
         </is>
       </c>
-      <c r="G164" s="6" t="inlineStr">
+      <c r="H164" s="6" t="inlineStr">
         <is>
           <t>EGR801470046</t>
         </is>
       </c>
-      <c r="H164" s="6" t="inlineStr">
+      <c r="I164" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01066_SHR</t>
         </is>
       </c>
-      <c r="I164" s="6" t="inlineStr"/>
+      <c r="J164" s="6" t="inlineStr"/>
     </row>
     <row r="165" ht="36" customHeight="1">
       <c r="A165" s="12" t="inlineStr">
@@ -9499,22 +9728,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F165" s="4" t="inlineStr">
+      <c r="F165" s="4" t="inlineStr"/>
+      <c r="G165" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G165" s="4" t="inlineStr">
+      <c r="H165" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H165" s="4" t="inlineStr">
+      <c r="I165" s="4" t="inlineStr">
         <is>
           <t>IGRF000343001</t>
         </is>
       </c>
-      <c r="I165" s="4" t="inlineStr"/>
+      <c r="J165" s="4" t="inlineStr"/>
     </row>
     <row r="166" ht="36" customHeight="1">
       <c r="A166" s="10" t="inlineStr">
@@ -9542,20 +9772,25 @@
       </c>
       <c r="F166" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G166" s="6" t="inlineStr">
+        <is>
           <t>EGR801554045</t>
         </is>
       </c>
-      <c r="G166" s="6" t="inlineStr">
+      <c r="H166" s="6" t="inlineStr">
         <is>
           <t>EGR801554045</t>
         </is>
       </c>
-      <c r="H166" s="6" t="inlineStr">
+      <c r="I166" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01059_SHR</t>
         </is>
       </c>
-      <c r="I166" s="6" t="inlineStr"/>
+      <c r="J166" s="6" t="inlineStr"/>
     </row>
     <row r="167" ht="36" customHeight="1">
       <c r="A167" s="12" t="inlineStr">
@@ -9582,17 +9817,18 @@
         </is>
       </c>
       <c r="F167" s="4" t="inlineStr"/>
-      <c r="G167" s="4" t="inlineStr">
+      <c r="G167" s="4" t="inlineStr"/>
+      <c r="H167" s="4" t="inlineStr">
         <is>
           <t>EGRAEEAP009</t>
         </is>
       </c>
-      <c r="H167" s="4" t="inlineStr">
+      <c r="I167" s="4" t="inlineStr">
         <is>
           <t>IGRS534003009</t>
         </is>
       </c>
-      <c r="I167" s="4" t="inlineStr"/>
+      <c r="J167" s="4" t="inlineStr"/>
     </row>
     <row r="168" ht="36" customHeight="1">
       <c r="A168" s="10" t="inlineStr">
@@ -9618,22 +9854,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F168" s="6" t="inlineStr">
+      <c r="F168" s="6" t="inlineStr"/>
+      <c r="G168" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G168" s="6" t="inlineStr">
+      <c r="H168" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H168" s="6" t="inlineStr">
+      <c r="I168" s="6" t="inlineStr">
         <is>
           <t>IGRF000351004, IGRF000352002, IGRF000494002</t>
         </is>
       </c>
-      <c r="I168" s="6" t="inlineStr"/>
+      <c r="J168" s="6" t="inlineStr"/>
     </row>
     <row r="169" ht="36" customHeight="1">
       <c r="A169" s="12" t="inlineStr">
@@ -9659,22 +9896,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F169" s="4" t="inlineStr">
+      <c r="F169" s="4" t="inlineStr"/>
+      <c r="G169" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="G169" s="4" t="inlineStr">
+      <c r="H169" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC002</t>
         </is>
       </c>
-      <c r="H169" s="4" t="inlineStr">
+      <c r="I169" s="4" t="inlineStr">
         <is>
           <t>IGRF000353000</t>
         </is>
       </c>
-      <c r="I169" s="4" t="inlineStr"/>
+      <c r="J169" s="4" t="inlineStr"/>
     </row>
     <row r="170" ht="36" customHeight="1">
       <c r="A170" s="10" t="inlineStr">
@@ -9700,22 +9938,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F170" s="6" t="inlineStr">
+      <c r="F170" s="6" t="inlineStr"/>
+      <c r="G170" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G170" s="6" t="inlineStr">
+      <c r="H170" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H170" s="6" t="inlineStr">
+      <c r="I170" s="6" t="inlineStr">
         <is>
           <t>IGRF000356003</t>
         </is>
       </c>
-      <c r="I170" s="6" t="inlineStr"/>
+      <c r="J170" s="6" t="inlineStr"/>
     </row>
     <row r="171" ht="36" customHeight="1">
       <c r="A171" s="12" t="inlineStr">
@@ -9741,22 +9980,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F171" s="4" t="inlineStr">
+      <c r="F171" s="4" t="inlineStr"/>
+      <c r="G171" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G171" s="4" t="inlineStr">
+      <c r="H171" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H171" s="4" t="inlineStr">
+      <c r="I171" s="4" t="inlineStr">
         <is>
           <t>IGRF000363009</t>
         </is>
       </c>
-      <c r="I171" s="4" t="inlineStr"/>
+      <c r="J171" s="4" t="inlineStr"/>
     </row>
     <row r="172" ht="36" customHeight="1">
       <c r="A172" s="10" t="inlineStr">
@@ -9782,22 +10022,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F172" s="6" t="inlineStr">
+      <c r="F172" s="6" t="inlineStr"/>
+      <c r="G172" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G172" s="6" t="inlineStr">
+      <c r="H172" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H172" s="6" t="inlineStr">
+      <c r="I172" s="6" t="inlineStr">
         <is>
           <t>IGRF000365004, IGRF000367000</t>
         </is>
       </c>
-      <c r="I172" s="6" t="inlineStr"/>
+      <c r="J172" s="6" t="inlineStr"/>
     </row>
     <row r="173" ht="36" customHeight="1">
       <c r="A173" s="12" t="inlineStr">
@@ -9823,22 +10064,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F173" s="4" t="inlineStr">
+      <c r="F173" s="4" t="inlineStr"/>
+      <c r="G173" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G173" s="4" t="inlineStr">
+      <c r="H173" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H173" s="4" t="inlineStr">
+      <c r="I173" s="4" t="inlineStr">
         <is>
           <t>IGRF000377009, IGRF000378007, IGRF000379005</t>
         </is>
       </c>
-      <c r="I173" s="4" t="inlineStr"/>
+      <c r="J173" s="4" t="inlineStr"/>
     </row>
     <row r="174" ht="36" customHeight="1">
       <c r="A174" s="10" t="inlineStr">
@@ -9848,7 +10090,7 @@
       </c>
       <c r="B174" s="6" t="inlineStr">
         <is>
-          <t>TGR094321237, L213800MU91F1752AVM79, BGR000861301000</t>
+          <t>L213800MU91F1752AVM79, TGR094321237, BGR000861301000</t>
         </is>
       </c>
       <c r="C174" s="11" t="n">
@@ -9865,17 +10107,18 @@
         </is>
       </c>
       <c r="F174" s="6" t="inlineStr"/>
-      <c r="G174" s="6" t="inlineStr">
+      <c r="G174" s="6" t="inlineStr"/>
+      <c r="H174" s="6" t="inlineStr">
         <is>
           <t>EGR094321237</t>
         </is>
       </c>
-      <c r="H174" s="6" t="inlineStr">
+      <c r="I174" s="6" t="inlineStr">
         <is>
           <t>IGRS497003012</t>
         </is>
       </c>
-      <c r="I174" s="6" t="inlineStr">
+      <c r="J174" s="6" t="inlineStr">
         <is>
           <t>IGRC4971221B3</t>
         </is>
@@ -9903,20 +10146,25 @@
       </c>
       <c r="F175" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G175" s="4" t="inlineStr">
+        <is>
           <t>EGR996764210</t>
         </is>
       </c>
-      <c r="G175" s="4" t="inlineStr">
+      <c r="H175" s="4" t="inlineStr">
         <is>
           <t>EGR996764210</t>
         </is>
       </c>
-      <c r="H175" s="4" t="inlineStr">
+      <c r="I175" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01067_SHR</t>
         </is>
       </c>
-      <c r="I175" s="4" t="inlineStr"/>
+      <c r="J175" s="4" t="inlineStr"/>
     </row>
     <row r="176" ht="36" customHeight="1">
       <c r="A176" s="10" t="inlineStr">
@@ -9942,22 +10190,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F176" s="6" t="inlineStr">
+      <c r="F176" s="6" t="inlineStr"/>
+      <c r="G176" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G176" s="6" t="inlineStr">
+      <c r="H176" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H176" s="6" t="inlineStr">
+      <c r="I176" s="6" t="inlineStr">
         <is>
           <t>IGRF000386000</t>
         </is>
       </c>
-      <c r="I176" s="6" t="inlineStr"/>
+      <c r="J176" s="6" t="inlineStr"/>
     </row>
     <row r="177" ht="36" customHeight="1">
       <c r="A177" s="12" t="inlineStr">
@@ -9983,22 +10232,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F177" s="4" t="inlineStr">
+      <c r="F177" s="4" t="inlineStr"/>
+      <c r="G177" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G177" s="4" t="inlineStr">
+      <c r="H177" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H177" s="4" t="inlineStr">
+      <c r="I177" s="4" t="inlineStr">
         <is>
           <t>IGRF000389004</t>
         </is>
       </c>
-      <c r="I177" s="4" t="inlineStr"/>
+      <c r="J177" s="4" t="inlineStr"/>
     </row>
     <row r="178" ht="36" customHeight="1">
       <c r="A178" s="10" t="inlineStr">
@@ -10024,22 +10274,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F178" s="6" t="inlineStr">
+      <c r="F178" s="6" t="inlineStr"/>
+      <c r="G178" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G178" s="6" t="inlineStr">
+      <c r="H178" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H178" s="6" t="inlineStr">
+      <c r="I178" s="6" t="inlineStr">
         <is>
           <t>IGRF000390002</t>
         </is>
       </c>
-      <c r="I178" s="6" t="inlineStr"/>
+      <c r="J178" s="6" t="inlineStr"/>
     </row>
     <row r="179" ht="36" customHeight="1">
       <c r="A179" s="12" t="inlineStr">
@@ -10067,20 +10318,25 @@
       </c>
       <c r="F179" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G179" s="4" t="inlineStr">
+        <is>
           <t>EGR099757323</t>
         </is>
       </c>
-      <c r="G179" s="4" t="inlineStr">
+      <c r="H179" s="4" t="inlineStr">
         <is>
           <t>EGR099757323</t>
         </is>
       </c>
-      <c r="H179" s="4" t="inlineStr">
+      <c r="I179" s="4" t="inlineStr">
         <is>
           <t>IGRF000506003</t>
         </is>
       </c>
-      <c r="I179" s="4" t="inlineStr"/>
+      <c r="J179" s="4" t="inlineStr"/>
     </row>
     <row r="180" ht="36" customHeight="1">
       <c r="A180" s="10" t="inlineStr">
@@ -10106,22 +10362,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F180" s="6" t="inlineStr">
+      <c r="F180" s="6" t="inlineStr"/>
+      <c r="G180" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G180" s="6" t="inlineStr">
+      <c r="H180" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H180" s="6" t="inlineStr">
+      <c r="I180" s="6" t="inlineStr">
         <is>
           <t>IGRF000392008</t>
         </is>
       </c>
-      <c r="I180" s="6" t="inlineStr"/>
+      <c r="J180" s="6" t="inlineStr"/>
     </row>
     <row r="181" ht="36" customHeight="1">
       <c r="A181" s="12" t="inlineStr">
@@ -10145,20 +10402,25 @@
       </c>
       <c r="F181" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G181" s="4" t="inlineStr">
+        <is>
           <t>EGR801812106</t>
         </is>
       </c>
-      <c r="G181" s="4" t="inlineStr">
+      <c r="H181" s="4" t="inlineStr">
         <is>
           <t>EGR801812106</t>
         </is>
       </c>
-      <c r="H181" s="4" t="inlineStr">
+      <c r="I181" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01072_SHR</t>
         </is>
       </c>
-      <c r="I181" s="4" t="inlineStr"/>
+      <c r="J181" s="4" t="inlineStr"/>
     </row>
     <row r="182" ht="36" customHeight="1">
       <c r="A182" s="10" t="inlineStr">
@@ -10184,22 +10446,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F182" s="6" t="inlineStr">
+      <c r="F182" s="6" t="inlineStr"/>
+      <c r="G182" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G182" s="6" t="inlineStr">
+      <c r="H182" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H182" s="6" t="inlineStr">
+      <c r="I182" s="6" t="inlineStr">
         <is>
           <t>IGRF000394004</t>
         </is>
       </c>
-      <c r="I182" s="6" t="inlineStr"/>
+      <c r="J182" s="6" t="inlineStr"/>
     </row>
     <row r="183" ht="36" customHeight="1">
       <c r="A183" s="12" t="inlineStr">
@@ -10225,22 +10488,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F183" s="4" t="inlineStr">
+      <c r="F183" s="4" t="inlineStr"/>
+      <c r="G183" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G183" s="4" t="inlineStr">
+      <c r="H183" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H183" s="4" t="inlineStr">
+      <c r="I183" s="4" t="inlineStr">
         <is>
           <t>IGRF000393006</t>
         </is>
       </c>
-      <c r="I183" s="4" t="inlineStr"/>
+      <c r="J183" s="4" t="inlineStr"/>
     </row>
     <row r="184" ht="36" customHeight="1">
       <c r="A184" s="10" t="inlineStr">
@@ -10266,22 +10530,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F184" s="6" t="inlineStr">
+      <c r="F184" s="6" t="inlineStr"/>
+      <c r="G184" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G184" s="6" t="inlineStr">
+      <c r="H184" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H184" s="6" t="inlineStr">
+      <c r="I184" s="6" t="inlineStr">
         <is>
           <t>IGRF000395001</t>
         </is>
       </c>
-      <c r="I184" s="6" t="inlineStr"/>
+      <c r="J184" s="6" t="inlineStr"/>
     </row>
     <row r="185" ht="36" customHeight="1">
       <c r="A185" s="12" t="inlineStr">
@@ -10307,22 +10572,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F185" s="4" t="inlineStr">
+      <c r="F185" s="4" t="inlineStr"/>
+      <c r="G185" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G185" s="4" t="inlineStr">
+      <c r="H185" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H185" s="4" t="inlineStr">
+      <c r="I185" s="4" t="inlineStr">
         <is>
           <t>IGRF000397007</t>
         </is>
       </c>
-      <c r="I185" s="4" t="inlineStr"/>
+      <c r="J185" s="4" t="inlineStr"/>
     </row>
     <row r="186" ht="36" customHeight="1">
       <c r="A186" s="10" t="inlineStr">
@@ -10348,22 +10614,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F186" s="6" t="inlineStr">
+      <c r="F186" s="6" t="inlineStr"/>
+      <c r="G186" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G186" s="6" t="inlineStr">
+      <c r="H186" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H186" s="6" t="inlineStr">
+      <c r="I186" s="6" t="inlineStr">
         <is>
           <t>IGRF000408002</t>
         </is>
       </c>
-      <c r="I186" s="6" t="inlineStr"/>
+      <c r="J186" s="6" t="inlineStr"/>
     </row>
     <row r="187" ht="36" customHeight="1">
       <c r="A187" s="12" t="inlineStr">
@@ -10387,20 +10654,25 @@
       </c>
       <c r="F187" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G187" s="4" t="inlineStr">
+        <is>
           <t>EGR801878297</t>
         </is>
       </c>
-      <c r="G187" s="4" t="inlineStr">
+      <c r="H187" s="4" t="inlineStr">
         <is>
           <t>EGR801878297</t>
         </is>
       </c>
-      <c r="H187" s="4" t="inlineStr">
+      <c r="I187" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01073_SHR</t>
         </is>
       </c>
-      <c r="I187" s="4" t="inlineStr"/>
+      <c r="J187" s="4" t="inlineStr"/>
     </row>
     <row r="188" ht="36" customHeight="1">
       <c r="A188" s="10" t="inlineStr">
@@ -10426,22 +10698,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F188" s="6" t="inlineStr">
+      <c r="F188" s="6" t="inlineStr"/>
+      <c r="G188" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G188" s="6" t="inlineStr">
+      <c r="H188" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H188" s="6" t="inlineStr">
+      <c r="I188" s="6" t="inlineStr">
         <is>
           <t>IGRF000411006</t>
         </is>
       </c>
-      <c r="I188" s="6" t="inlineStr"/>
+      <c r="J188" s="6" t="inlineStr"/>
     </row>
     <row r="189" ht="36" customHeight="1">
       <c r="A189" s="12" t="inlineStr">
@@ -10467,22 +10740,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F189" s="4" t="inlineStr">
+      <c r="F189" s="4" t="inlineStr"/>
+      <c r="G189" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G189" s="4" t="inlineStr">
+      <c r="H189" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H189" s="4" t="inlineStr">
+      <c r="I189" s="4" t="inlineStr">
         <is>
           <t>IGRF000409000</t>
         </is>
       </c>
-      <c r="I189" s="4" t="inlineStr"/>
+      <c r="J189" s="4" t="inlineStr"/>
     </row>
     <row r="190" ht="36" customHeight="1">
       <c r="A190" s="10" t="inlineStr">
@@ -10508,22 +10782,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F190" s="6" t="inlineStr">
+      <c r="F190" s="6" t="inlineStr"/>
+      <c r="G190" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G190" s="6" t="inlineStr">
+      <c r="H190" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H190" s="6" t="inlineStr">
+      <c r="I190" s="6" t="inlineStr">
         <is>
           <t>IGRF000417003</t>
         </is>
       </c>
-      <c r="I190" s="6" t="inlineStr"/>
+      <c r="J190" s="6" t="inlineStr"/>
     </row>
     <row r="191" ht="36" customHeight="1">
       <c r="A191" s="12" t="inlineStr">
@@ -10549,22 +10824,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F191" s="4" t="inlineStr">
+      <c r="F191" s="4" t="inlineStr"/>
+      <c r="G191" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G191" s="4" t="inlineStr">
+      <c r="H191" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H191" s="4" t="inlineStr">
+      <c r="I191" s="4" t="inlineStr">
         <is>
           <t>IGRF000412004</t>
         </is>
       </c>
-      <c r="I191" s="4" t="inlineStr"/>
+      <c r="J191" s="4" t="inlineStr"/>
     </row>
     <row r="192" ht="36" customHeight="1">
       <c r="A192" s="10" t="inlineStr">
@@ -10590,22 +10866,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F192" s="6" t="inlineStr">
+      <c r="F192" s="6" t="inlineStr"/>
+      <c r="G192" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G192" s="6" t="inlineStr">
+      <c r="H192" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H192" s="6" t="inlineStr">
+      <c r="I192" s="6" t="inlineStr">
         <is>
           <t>IGRF000418001</t>
         </is>
       </c>
-      <c r="I192" s="6" t="inlineStr"/>
+      <c r="J192" s="6" t="inlineStr"/>
     </row>
     <row r="193" ht="36" customHeight="1">
       <c r="A193" s="12" t="inlineStr">
@@ -10631,22 +10908,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F193" s="4" t="inlineStr">
+      <c r="F193" s="4" t="inlineStr"/>
+      <c r="G193" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G193" s="4" t="inlineStr">
+      <c r="H193" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H193" s="4" t="inlineStr">
+      <c r="I193" s="4" t="inlineStr">
         <is>
           <t>IGRF000423001</t>
         </is>
       </c>
-      <c r="I193" s="4" t="inlineStr"/>
+      <c r="J193" s="4" t="inlineStr"/>
     </row>
     <row r="194" ht="36" customHeight="1">
       <c r="A194" s="10" t="inlineStr">
@@ -10672,22 +10950,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F194" s="6" t="inlineStr">
+      <c r="F194" s="6" t="inlineStr"/>
+      <c r="G194" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G194" s="6" t="inlineStr">
+      <c r="H194" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H194" s="6" t="inlineStr">
+      <c r="I194" s="6" t="inlineStr">
         <is>
           <t>IGRF000422003</t>
         </is>
       </c>
-      <c r="I194" s="6" t="inlineStr"/>
+      <c r="J194" s="6" t="inlineStr"/>
     </row>
     <row r="195" ht="36" customHeight="1">
       <c r="A195" s="12" t="inlineStr">
@@ -10713,22 +10992,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F195" s="4" t="inlineStr">
+      <c r="F195" s="4" t="inlineStr"/>
+      <c r="G195" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G195" s="4" t="inlineStr">
+      <c r="H195" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H195" s="4" t="inlineStr">
+      <c r="I195" s="4" t="inlineStr">
         <is>
           <t>IGRF000421005</t>
         </is>
       </c>
-      <c r="I195" s="4" t="inlineStr"/>
+      <c r="J195" s="4" t="inlineStr"/>
     </row>
     <row r="196" ht="36" customHeight="1">
       <c r="A196" s="10" t="inlineStr">
@@ -10754,22 +11034,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F196" s="6" t="inlineStr">
+      <c r="F196" s="6" t="inlineStr"/>
+      <c r="G196" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G196" s="6" t="inlineStr">
+      <c r="H196" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H196" s="6" t="inlineStr">
+      <c r="I196" s="6" t="inlineStr">
         <is>
           <t>IGRF000430006</t>
         </is>
       </c>
-      <c r="I196" s="6" t="inlineStr"/>
+      <c r="J196" s="6" t="inlineStr"/>
     </row>
     <row r="197" ht="36" customHeight="1">
       <c r="A197" s="12" t="inlineStr">
@@ -10795,22 +11076,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F197" s="4" t="inlineStr">
+      <c r="F197" s="4" t="inlineStr"/>
+      <c r="G197" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G197" s="4" t="inlineStr">
+      <c r="H197" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H197" s="4" t="inlineStr">
+      <c r="I197" s="4" t="inlineStr">
         <is>
           <t>IGRF000428000</t>
         </is>
       </c>
-      <c r="I197" s="4" t="inlineStr"/>
+      <c r="J197" s="4" t="inlineStr"/>
     </row>
     <row r="198" ht="36" customHeight="1">
       <c r="A198" s="10" t="inlineStr">
@@ -10836,22 +11118,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F198" s="6" t="inlineStr">
+      <c r="F198" s="6" t="inlineStr"/>
+      <c r="G198" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G198" s="6" t="inlineStr">
+      <c r="H198" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H198" s="6" t="inlineStr">
+      <c r="I198" s="6" t="inlineStr">
         <is>
           <t>IGRF000426004</t>
         </is>
       </c>
-      <c r="I198" s="6" t="inlineStr"/>
+      <c r="J198" s="6" t="inlineStr"/>
     </row>
     <row r="199" ht="36" customHeight="1">
       <c r="A199" s="12" t="inlineStr">
@@ -10877,22 +11160,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F199" s="4" t="inlineStr">
+      <c r="F199" s="4" t="inlineStr"/>
+      <c r="G199" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G199" s="4" t="inlineStr">
+      <c r="H199" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H199" s="4" t="inlineStr">
+      <c r="I199" s="4" t="inlineStr">
         <is>
           <t>IGRF000432002</t>
         </is>
       </c>
-      <c r="I199" s="4" t="inlineStr"/>
+      <c r="J199" s="4" t="inlineStr"/>
     </row>
     <row r="200" ht="36" customHeight="1">
       <c r="A200" s="10" t="inlineStr">
@@ -10918,22 +11202,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F200" s="6" t="inlineStr">
+      <c r="F200" s="6" t="inlineStr"/>
+      <c r="G200" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G200" s="6" t="inlineStr">
+      <c r="H200" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H200" s="6" t="inlineStr">
+      <c r="I200" s="6" t="inlineStr">
         <is>
           <t>IGRF000433000</t>
         </is>
       </c>
-      <c r="I200" s="6" t="inlineStr"/>
+      <c r="J200" s="6" t="inlineStr"/>
     </row>
     <row r="201" ht="36" customHeight="1">
       <c r="A201" s="12" t="inlineStr">
@@ -10961,20 +11246,25 @@
       </c>
       <c r="F201" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G201" s="4" t="inlineStr">
+        <is>
           <t>EGR800903737</t>
         </is>
       </c>
-      <c r="G201" s="4" t="inlineStr">
+      <c r="H201" s="4" t="inlineStr">
         <is>
           <t>EGR800903737</t>
         </is>
       </c>
-      <c r="H201" s="4" t="inlineStr">
+      <c r="I201" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01065_SHR</t>
         </is>
       </c>
-      <c r="I201" s="4" t="inlineStr"/>
+      <c r="J201" s="4" t="inlineStr"/>
     </row>
     <row r="202" ht="36" customHeight="1">
       <c r="A202" s="10" t="inlineStr">
@@ -11000,22 +11290,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F202" s="6" t="inlineStr">
+      <c r="F202" s="6" t="inlineStr"/>
+      <c r="G202" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G202" s="6" t="inlineStr">
+      <c r="H202" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H202" s="6" t="inlineStr">
+      <c r="I202" s="6" t="inlineStr">
         <is>
           <t>IGRF000434008</t>
         </is>
       </c>
-      <c r="I202" s="6" t="inlineStr"/>
+      <c r="J202" s="6" t="inlineStr"/>
     </row>
     <row r="203" ht="36" customHeight="1">
       <c r="A203" s="12" t="inlineStr">
@@ -11041,22 +11332,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F203" s="4" t="inlineStr">
+      <c r="F203" s="4" t="inlineStr"/>
+      <c r="G203" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G203" s="4" t="inlineStr">
+      <c r="H203" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H203" s="4" t="inlineStr">
+      <c r="I203" s="4" t="inlineStr">
         <is>
           <t>IGRF000437001</t>
         </is>
       </c>
-      <c r="I203" s="4" t="inlineStr"/>
+      <c r="J203" s="4" t="inlineStr"/>
     </row>
     <row r="204" ht="36" customHeight="1">
       <c r="A204" s="10" t="inlineStr">
@@ -11082,22 +11374,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F204" s="6" t="inlineStr">
+      <c r="F204" s="6" t="inlineStr"/>
+      <c r="G204" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G204" s="6" t="inlineStr">
+      <c r="H204" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H204" s="6" t="inlineStr">
+      <c r="I204" s="6" t="inlineStr">
         <is>
           <t>IGRF000441003</t>
         </is>
       </c>
-      <c r="I204" s="6" t="inlineStr"/>
+      <c r="J204" s="6" t="inlineStr"/>
     </row>
     <row r="205" ht="36" customHeight="1">
       <c r="A205" s="12" t="inlineStr">
@@ -11123,22 +11416,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F205" s="4" t="inlineStr">
+      <c r="F205" s="4" t="inlineStr"/>
+      <c r="G205" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G205" s="4" t="inlineStr">
+      <c r="H205" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H205" s="4" t="inlineStr">
+      <c r="I205" s="4" t="inlineStr">
         <is>
           <t>IGRF000436003</t>
         </is>
       </c>
-      <c r="I205" s="4" t="inlineStr"/>
+      <c r="J205" s="4" t="inlineStr"/>
     </row>
     <row r="206" ht="36" customHeight="1">
       <c r="A206" s="10" t="inlineStr">
@@ -11164,22 +11458,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F206" s="6" t="inlineStr">
+      <c r="F206" s="6" t="inlineStr"/>
+      <c r="G206" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G206" s="6" t="inlineStr">
+      <c r="H206" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H206" s="6" t="inlineStr">
+      <c r="I206" s="6" t="inlineStr">
         <is>
           <t>IGRF000440005</t>
         </is>
       </c>
-      <c r="I206" s="6" t="inlineStr"/>
+      <c r="J206" s="6" t="inlineStr"/>
     </row>
     <row r="207" ht="36" customHeight="1">
       <c r="A207" s="12" t="inlineStr">
@@ -11205,22 +11500,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F207" s="4" t="inlineStr">
+      <c r="F207" s="4" t="inlineStr"/>
+      <c r="G207" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G207" s="4" t="inlineStr">
+      <c r="H207" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H207" s="4" t="inlineStr">
+      <c r="I207" s="4" t="inlineStr">
         <is>
           <t>IGRF000439007</t>
         </is>
       </c>
-      <c r="I207" s="4" t="inlineStr"/>
+      <c r="J207" s="4" t="inlineStr"/>
     </row>
     <row r="208" ht="36" customHeight="1">
       <c r="A208" s="10" t="inlineStr">
@@ -11246,22 +11542,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F208" s="6" t="inlineStr">
+      <c r="F208" s="6" t="inlineStr"/>
+      <c r="G208" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G208" s="6" t="inlineStr">
+      <c r="H208" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H208" s="6" t="inlineStr">
+      <c r="I208" s="6" t="inlineStr">
         <is>
           <t>IGRF000443009</t>
         </is>
       </c>
-      <c r="I208" s="6" t="inlineStr"/>
+      <c r="J208" s="6" t="inlineStr"/>
     </row>
     <row r="209" ht="36" customHeight="1">
       <c r="A209" s="12" t="inlineStr">
@@ -11285,20 +11582,25 @@
       </c>
       <c r="F209" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G209" s="4" t="inlineStr">
+        <is>
           <t>EGR800911079</t>
         </is>
       </c>
-      <c r="G209" s="4" t="inlineStr">
+      <c r="H209" s="4" t="inlineStr">
         <is>
           <t>EGR800911079</t>
         </is>
       </c>
-      <c r="H209" s="4" t="inlineStr">
+      <c r="I209" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01071_SHR</t>
         </is>
       </c>
-      <c r="I209" s="4" t="inlineStr"/>
+      <c r="J209" s="4" t="inlineStr"/>
     </row>
     <row r="210" ht="36" customHeight="1">
       <c r="A210" s="10" t="inlineStr">
@@ -11324,22 +11626,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F210" s="6" t="inlineStr">
+      <c r="F210" s="6" t="inlineStr"/>
+      <c r="G210" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G210" s="6" t="inlineStr">
+      <c r="H210" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H210" s="6" t="inlineStr">
+      <c r="I210" s="6" t="inlineStr">
         <is>
           <t>IGRF000448008</t>
         </is>
       </c>
-      <c r="I210" s="6" t="inlineStr"/>
+      <c r="J210" s="6" t="inlineStr"/>
     </row>
     <row r="211" ht="36" customHeight="1">
       <c r="A211" s="12" t="inlineStr">
@@ -11365,22 +11668,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F211" s="4" t="inlineStr">
+      <c r="F211" s="4" t="inlineStr"/>
+      <c r="G211" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G211" s="4" t="inlineStr">
+      <c r="H211" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H211" s="4" t="inlineStr">
+      <c r="I211" s="4" t="inlineStr">
         <is>
           <t>IGRF000447000</t>
         </is>
       </c>
-      <c r="I211" s="4" t="inlineStr"/>
+      <c r="J211" s="4" t="inlineStr"/>
     </row>
     <row r="212" ht="36" customHeight="1">
       <c r="A212" s="10" t="inlineStr">
@@ -11402,22 +11706,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F212" s="6" t="inlineStr">
+      <c r="F212" s="6" t="inlineStr"/>
+      <c r="G212" s="6" t="inlineStr">
         <is>
           <t>EGR802047322</t>
         </is>
       </c>
-      <c r="G212" s="6" t="inlineStr">
+      <c r="H212" s="6" t="inlineStr">
         <is>
           <t>EGR802047322</t>
         </is>
       </c>
-      <c r="H212" s="6" t="inlineStr">
+      <c r="I212" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01075_SHR</t>
         </is>
       </c>
-      <c r="I212" s="6" t="inlineStr"/>
+      <c r="J212" s="6" t="inlineStr"/>
     </row>
     <row r="213" ht="36" customHeight="1">
       <c r="A213" s="12" t="inlineStr">
@@ -11439,22 +11744,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F213" s="4" t="inlineStr">
+      <c r="F213" s="4" t="inlineStr"/>
+      <c r="G213" s="4" t="inlineStr">
         <is>
           <t>EGR802177269</t>
         </is>
       </c>
-      <c r="G213" s="4" t="inlineStr">
+      <c r="H213" s="4" t="inlineStr">
         <is>
           <t>EGR802177269</t>
         </is>
       </c>
-      <c r="H213" s="4" t="inlineStr">
+      <c r="I213" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01074_SHR</t>
         </is>
       </c>
-      <c r="I213" s="4" t="inlineStr"/>
+      <c r="J213" s="4" t="inlineStr"/>
     </row>
     <row r="214" ht="36" customHeight="1">
       <c r="A214" s="10" t="inlineStr">
@@ -11480,22 +11786,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F214" s="6" t="inlineStr">
+      <c r="F214" s="6" t="inlineStr"/>
+      <c r="G214" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G214" s="6" t="inlineStr">
+      <c r="H214" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H214" s="6" t="inlineStr">
+      <c r="I214" s="6" t="inlineStr">
         <is>
           <t>IGRF000449006</t>
         </is>
       </c>
-      <c r="I214" s="6" t="inlineStr"/>
+      <c r="J214" s="6" t="inlineStr"/>
     </row>
     <row r="215" ht="36" customHeight="1">
       <c r="A215" s="12" t="inlineStr">
@@ -11521,22 +11828,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F215" s="4" t="inlineStr">
+      <c r="F215" s="4" t="inlineStr"/>
+      <c r="G215" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G215" s="4" t="inlineStr">
+      <c r="H215" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H215" s="4" t="inlineStr">
+      <c r="I215" s="4" t="inlineStr">
         <is>
           <t>IGRF000450004</t>
         </is>
       </c>
-      <c r="I215" s="4" t="inlineStr"/>
+      <c r="J215" s="4" t="inlineStr"/>
     </row>
     <row r="216" ht="36" customHeight="1">
       <c r="A216" s="10" t="inlineStr">
@@ -11562,22 +11870,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F216" s="6" t="inlineStr">
+      <c r="F216" s="6" t="inlineStr"/>
+      <c r="G216" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G216" s="6" t="inlineStr">
+      <c r="H216" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H216" s="6" t="inlineStr">
+      <c r="I216" s="6" t="inlineStr">
         <is>
           <t>IGRF000451002</t>
         </is>
       </c>
-      <c r="I216" s="6" t="inlineStr"/>
+      <c r="J216" s="6" t="inlineStr"/>
     </row>
     <row r="217" ht="36" customHeight="1">
       <c r="A217" s="12" t="inlineStr">
@@ -11603,22 +11912,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F217" s="4" t="inlineStr">
+      <c r="F217" s="4" t="inlineStr"/>
+      <c r="G217" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G217" s="4" t="inlineStr">
+      <c r="H217" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H217" s="4" t="inlineStr">
+      <c r="I217" s="4" t="inlineStr">
         <is>
           <t>IGRF000454006</t>
         </is>
       </c>
-      <c r="I217" s="4" t="inlineStr"/>
+      <c r="J217" s="4" t="inlineStr"/>
     </row>
     <row r="218" ht="36" customHeight="1">
       <c r="A218" s="10" t="inlineStr">
@@ -11644,22 +11954,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F218" s="6" t="inlineStr">
+      <c r="F218" s="6" t="inlineStr"/>
+      <c r="G218" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G218" s="6" t="inlineStr">
+      <c r="H218" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H218" s="6" t="inlineStr">
+      <c r="I218" s="6" t="inlineStr">
         <is>
           <t>IGRF000453008</t>
         </is>
       </c>
-      <c r="I218" s="6" t="inlineStr"/>
+      <c r="J218" s="6" t="inlineStr"/>
     </row>
     <row r="219" ht="36" customHeight="1">
       <c r="A219" s="12" t="inlineStr">
@@ -11685,22 +11996,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F219" s="4" t="inlineStr">
+      <c r="F219" s="4" t="inlineStr"/>
+      <c r="G219" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G219" s="4" t="inlineStr">
+      <c r="H219" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H219" s="4" t="inlineStr">
+      <c r="I219" s="4" t="inlineStr">
         <is>
           <t>IGRF000455003</t>
         </is>
       </c>
-      <c r="I219" s="4" t="inlineStr"/>
+      <c r="J219" s="4" t="inlineStr"/>
     </row>
     <row r="220" ht="36" customHeight="1">
       <c r="A220" s="10" t="inlineStr">
@@ -11722,22 +12034,23 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F220" s="6" t="inlineStr">
+      <c r="F220" s="6" t="inlineStr"/>
+      <c r="G220" s="6" t="inlineStr">
         <is>
           <t>EGR802071555</t>
         </is>
       </c>
-      <c r="G220" s="6" t="inlineStr">
+      <c r="H220" s="6" t="inlineStr">
         <is>
           <t>EGR802071555</t>
         </is>
       </c>
-      <c r="H220" s="6" t="inlineStr">
+      <c r="I220" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01076_SHR</t>
         </is>
       </c>
-      <c r="I220" s="6" t="inlineStr"/>
+      <c r="J220" s="6" t="inlineStr"/>
     </row>
     <row r="221" ht="36" customHeight="1">
       <c r="A221" s="12" t="inlineStr">
@@ -11763,22 +12076,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F221" s="4" t="inlineStr">
+      <c r="F221" s="4" t="inlineStr"/>
+      <c r="G221" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G221" s="4" t="inlineStr">
+      <c r="H221" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H221" s="4" t="inlineStr">
+      <c r="I221" s="4" t="inlineStr">
         <is>
           <t>IGRF000457009</t>
         </is>
       </c>
-      <c r="I221" s="4" t="inlineStr"/>
+      <c r="J221" s="4" t="inlineStr"/>
     </row>
     <row r="222" ht="36" customHeight="1">
       <c r="A222" s="10" t="inlineStr">
@@ -11804,22 +12118,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F222" s="6" t="inlineStr">
+      <c r="F222" s="6" t="inlineStr"/>
+      <c r="G222" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G222" s="6" t="inlineStr">
+      <c r="H222" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H222" s="6" t="inlineStr">
+      <c r="I222" s="6" t="inlineStr">
         <is>
           <t>IGRF000459005</t>
         </is>
       </c>
-      <c r="I222" s="6" t="inlineStr"/>
+      <c r="J222" s="6" t="inlineStr"/>
     </row>
     <row r="223" ht="36" customHeight="1">
       <c r="A223" s="12" t="inlineStr">
@@ -11845,22 +12160,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F223" s="4" t="inlineStr">
+      <c r="F223" s="4" t="inlineStr"/>
+      <c r="G223" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G223" s="4" t="inlineStr">
+      <c r="H223" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H223" s="4" t="inlineStr">
+      <c r="I223" s="4" t="inlineStr">
         <is>
           <t>IGRF000460003</t>
         </is>
       </c>
-      <c r="I223" s="4" t="inlineStr"/>
+      <c r="J223" s="4" t="inlineStr"/>
     </row>
     <row r="224" ht="36" customHeight="1">
       <c r="A224" s="10" t="inlineStr">
@@ -11886,22 +12202,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F224" s="6" t="inlineStr">
+      <c r="F224" s="6" t="inlineStr"/>
+      <c r="G224" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="G224" s="6" t="inlineStr">
+      <c r="H224" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC010</t>
         </is>
       </c>
-      <c r="H224" s="6" t="inlineStr">
+      <c r="I224" s="6" t="inlineStr">
         <is>
           <t>IGRF000462009</t>
         </is>
       </c>
-      <c r="I224" s="6" t="inlineStr"/>
+      <c r="J224" s="6" t="inlineStr"/>
     </row>
     <row r="225" ht="36" customHeight="1">
       <c r="A225" s="12" t="inlineStr">
@@ -11927,22 +12244,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F225" s="4" t="inlineStr">
+      <c r="F225" s="4" t="inlineStr"/>
+      <c r="G225" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G225" s="4" t="inlineStr">
+      <c r="H225" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H225" s="4" t="inlineStr">
+      <c r="I225" s="4" t="inlineStr">
         <is>
           <t>IGRF000464005</t>
         </is>
       </c>
-      <c r="I225" s="4" t="inlineStr"/>
+      <c r="J225" s="4" t="inlineStr"/>
     </row>
     <row r="226" ht="36" customHeight="1">
       <c r="A226" s="10" t="inlineStr">
@@ -11968,22 +12286,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F226" s="6" t="inlineStr">
+      <c r="F226" s="6" t="inlineStr"/>
+      <c r="G226" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G226" s="6" t="inlineStr">
+      <c r="H226" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H226" s="6" t="inlineStr">
+      <c r="I226" s="6" t="inlineStr">
         <is>
           <t>IGRF000466000</t>
         </is>
       </c>
-      <c r="I226" s="6" t="inlineStr"/>
+      <c r="J226" s="6" t="inlineStr"/>
     </row>
     <row r="227" ht="36" customHeight="1">
       <c r="A227" s="12" t="inlineStr">
@@ -12010,17 +12329,18 @@
         </is>
       </c>
       <c r="F227" s="4" t="inlineStr"/>
-      <c r="G227" s="4" t="inlineStr">
+      <c r="G227" s="4" t="inlineStr"/>
+      <c r="H227" s="4" t="inlineStr">
         <is>
           <t>EGRAEEAP012</t>
         </is>
       </c>
-      <c r="H227" s="4" t="inlineStr">
+      <c r="I227" s="4" t="inlineStr">
         <is>
           <t>PEGRAEEAP012_SHR</t>
         </is>
       </c>
-      <c r="I227" s="4" t="inlineStr"/>
+      <c r="J227" s="4" t="inlineStr"/>
     </row>
     <row r="228" ht="36" customHeight="1">
       <c r="A228" s="10" t="inlineStr">
@@ -12046,22 +12366,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F228" s="6" t="inlineStr">
+      <c r="F228" s="6" t="inlineStr"/>
+      <c r="G228" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G228" s="6" t="inlineStr">
+      <c r="H228" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H228" s="6" t="inlineStr">
+      <c r="I228" s="6" t="inlineStr">
         <is>
           <t>IGRF000472008</t>
         </is>
       </c>
-      <c r="I228" s="6" t="inlineStr"/>
+      <c r="J228" s="6" t="inlineStr"/>
     </row>
     <row r="229" ht="36" customHeight="1">
       <c r="A229" s="12" t="inlineStr">
@@ -12087,22 +12408,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F229" s="4" t="inlineStr">
+      <c r="F229" s="4" t="inlineStr"/>
+      <c r="G229" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G229" s="4" t="inlineStr">
+      <c r="H229" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H229" s="4" t="inlineStr">
+      <c r="I229" s="4" t="inlineStr">
         <is>
           <t>IGRF000473006</t>
         </is>
       </c>
-      <c r="I229" s="4" t="inlineStr"/>
+      <c r="J229" s="4" t="inlineStr"/>
     </row>
     <row r="230" ht="36" customHeight="1">
       <c r="A230" s="10" t="inlineStr">
@@ -12128,22 +12450,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F230" s="6" t="inlineStr">
+      <c r="F230" s="6" t="inlineStr"/>
+      <c r="G230" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G230" s="6" t="inlineStr">
+      <c r="H230" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H230" s="6" t="inlineStr">
+      <c r="I230" s="6" t="inlineStr">
         <is>
           <t>IGRF000474004</t>
         </is>
       </c>
-      <c r="I230" s="6" t="inlineStr"/>
+      <c r="J230" s="6" t="inlineStr"/>
     </row>
     <row r="231" ht="36" customHeight="1">
       <c r="A231" s="12" t="inlineStr">
@@ -12169,22 +12492,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F231" s="4" t="inlineStr">
+      <c r="F231" s="4" t="inlineStr"/>
+      <c r="G231" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G231" s="4" t="inlineStr">
+      <c r="H231" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H231" s="4" t="inlineStr">
+      <c r="I231" s="4" t="inlineStr">
         <is>
           <t>IGRF000467008</t>
         </is>
       </c>
-      <c r="I231" s="4" t="inlineStr"/>
+      <c r="J231" s="4" t="inlineStr"/>
     </row>
     <row r="232" ht="36" customHeight="1">
       <c r="A232" s="10" t="inlineStr">
@@ -12210,22 +12534,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F232" s="6" t="inlineStr">
+      <c r="F232" s="6" t="inlineStr"/>
+      <c r="G232" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G232" s="6" t="inlineStr">
+      <c r="H232" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H232" s="6" t="inlineStr">
+      <c r="I232" s="6" t="inlineStr">
         <is>
           <t>IGRF000471000</t>
         </is>
       </c>
-      <c r="I232" s="6" t="inlineStr"/>
+      <c r="J232" s="6" t="inlineStr"/>
     </row>
     <row r="233" ht="36" customHeight="1">
       <c r="A233" s="12" t="inlineStr">
@@ -12251,22 +12576,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F233" s="4" t="inlineStr">
+      <c r="F233" s="4" t="inlineStr"/>
+      <c r="G233" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G233" s="4" t="inlineStr">
+      <c r="H233" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H233" s="4" t="inlineStr">
+      <c r="I233" s="4" t="inlineStr">
         <is>
           <t>IGRF000468006, IGRF000469004, IGRF000470002</t>
         </is>
       </c>
-      <c r="I233" s="4" t="inlineStr"/>
+      <c r="J233" s="4" t="inlineStr"/>
     </row>
     <row r="234" ht="36" customHeight="1">
       <c r="A234" s="10" t="inlineStr">
@@ -12292,22 +12618,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F234" s="6" t="inlineStr">
+      <c r="F234" s="6" t="inlineStr"/>
+      <c r="G234" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G234" s="6" t="inlineStr">
+      <c r="H234" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H234" s="6" t="inlineStr">
+      <c r="I234" s="6" t="inlineStr">
         <is>
           <t>IGRF000475001</t>
         </is>
       </c>
-      <c r="I234" s="6" t="inlineStr"/>
+      <c r="J234" s="6" t="inlineStr"/>
     </row>
     <row r="235" ht="36" customHeight="1">
       <c r="A235" s="12" t="inlineStr">
@@ -12333,22 +12660,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F235" s="4" t="inlineStr">
+      <c r="F235" s="4" t="inlineStr"/>
+      <c r="G235" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="G235" s="4" t="inlineStr">
+      <c r="H235" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC014</t>
         </is>
       </c>
-      <c r="H235" s="4" t="inlineStr">
+      <c r="I235" s="4" t="inlineStr">
         <is>
           <t>IGRF000482007</t>
         </is>
       </c>
-      <c r="I235" s="4" t="inlineStr"/>
+      <c r="J235" s="4" t="inlineStr"/>
     </row>
     <row r="236" ht="36" customHeight="1">
       <c r="A236" s="10" t="inlineStr">
@@ -12374,22 +12702,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F236" s="6" t="inlineStr">
+      <c r="F236" s="6" t="inlineStr"/>
+      <c r="G236" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G236" s="6" t="inlineStr">
+      <c r="H236" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H236" s="6" t="inlineStr">
+      <c r="I236" s="6" t="inlineStr">
         <is>
           <t>IGRF000479003</t>
         </is>
       </c>
-      <c r="I236" s="6" t="inlineStr"/>
+      <c r="J236" s="6" t="inlineStr"/>
     </row>
     <row r="237" ht="36" customHeight="1">
       <c r="A237" s="12" t="inlineStr">
@@ -12415,22 +12744,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F237" s="4" t="inlineStr">
+      <c r="F237" s="4" t="inlineStr"/>
+      <c r="G237" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G237" s="4" t="inlineStr">
+      <c r="H237" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H237" s="4" t="inlineStr">
+      <c r="I237" s="4" t="inlineStr">
         <is>
           <t>IGRF000478005</t>
         </is>
       </c>
-      <c r="I237" s="4" t="inlineStr"/>
+      <c r="J237" s="4" t="inlineStr"/>
     </row>
     <row r="238" ht="36" customHeight="1">
       <c r="A238" s="10" t="inlineStr">
@@ -12456,22 +12786,23 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="F238" s="6" t="inlineStr">
+      <c r="F238" s="6" t="inlineStr"/>
+      <c r="G238" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G238" s="6" t="inlineStr">
+      <c r="H238" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H238" s="6" t="inlineStr">
+      <c r="I238" s="6" t="inlineStr">
         <is>
           <t>IGRF000480001</t>
         </is>
       </c>
-      <c r="I238" s="6" t="inlineStr"/>
+      <c r="J238" s="6" t="inlineStr"/>
     </row>
     <row r="239" ht="36" customHeight="1">
       <c r="A239" s="12" t="inlineStr">
@@ -12497,22 +12828,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F239" s="4" t="inlineStr">
+      <c r="F239" s="4" t="inlineStr"/>
+      <c r="G239" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G239" s="4" t="inlineStr">
+      <c r="H239" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H239" s="4" t="inlineStr">
+      <c r="I239" s="4" t="inlineStr">
         <is>
           <t>IGRF000477007</t>
         </is>
       </c>
-      <c r="I239" s="4" t="inlineStr"/>
+      <c r="J239" s="4" t="inlineStr"/>
     </row>
     <row r="240" ht="36" customHeight="1">
       <c r="A240" s="10" t="inlineStr">
@@ -12538,22 +12870,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F240" s="6" t="inlineStr">
+      <c r="F240" s="6" t="inlineStr"/>
+      <c r="G240" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G240" s="6" t="inlineStr">
+      <c r="H240" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H240" s="6" t="inlineStr">
+      <c r="I240" s="6" t="inlineStr">
         <is>
           <t>IGRF000481009</t>
         </is>
       </c>
-      <c r="I240" s="6" t="inlineStr"/>
+      <c r="J240" s="6" t="inlineStr"/>
     </row>
     <row r="241" ht="36" customHeight="1">
       <c r="A241" s="12" t="inlineStr">
@@ -12579,22 +12912,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F241" s="4" t="inlineStr">
+      <c r="F241" s="4" t="inlineStr"/>
+      <c r="G241" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G241" s="4" t="inlineStr">
+      <c r="H241" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H241" s="4" t="inlineStr">
+      <c r="I241" s="4" t="inlineStr">
         <is>
           <t>IGRF000486008</t>
         </is>
       </c>
-      <c r="I241" s="4" t="inlineStr"/>
+      <c r="J241" s="4" t="inlineStr"/>
     </row>
     <row r="242" ht="36" customHeight="1">
       <c r="A242" s="10" t="inlineStr">
@@ -12618,20 +12952,25 @@
       </c>
       <c r="F242" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G242" s="6" t="inlineStr">
+        <is>
           <t>EGR802025852</t>
         </is>
       </c>
-      <c r="G242" s="6" t="inlineStr">
+      <c r="H242" s="6" t="inlineStr">
         <is>
           <t>EGR802025852</t>
         </is>
       </c>
-      <c r="H242" s="6" t="inlineStr">
+      <c r="I242" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01100_SHR</t>
         </is>
       </c>
-      <c r="I242" s="6" t="inlineStr"/>
+      <c r="J242" s="6" t="inlineStr"/>
     </row>
     <row r="243" ht="36" customHeight="1">
       <c r="A243" s="12" t="inlineStr">
@@ -12655,20 +12994,25 @@
       </c>
       <c r="F243" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G243" s="4" t="inlineStr">
+        <is>
           <t>EGR802190685</t>
         </is>
       </c>
-      <c r="G243" s="4" t="inlineStr">
+      <c r="H243" s="4" t="inlineStr">
         <is>
           <t>EGR802190685</t>
         </is>
       </c>
-      <c r="H243" s="4" t="inlineStr">
+      <c r="I243" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01099_SHR</t>
         </is>
       </c>
-      <c r="I243" s="4" t="inlineStr"/>
+      <c r="J243" s="4" t="inlineStr"/>
     </row>
     <row r="244" ht="36" customHeight="1">
       <c r="A244" s="10" t="inlineStr">
@@ -12694,22 +13038,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F244" s="6" t="inlineStr">
+      <c r="F244" s="6" t="inlineStr"/>
+      <c r="G244" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G244" s="6" t="inlineStr">
+      <c r="H244" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H244" s="6" t="inlineStr">
+      <c r="I244" s="6" t="inlineStr">
         <is>
           <t>IGRF000487006</t>
         </is>
       </c>
-      <c r="I244" s="6" t="inlineStr"/>
+      <c r="J244" s="6" t="inlineStr"/>
     </row>
     <row r="245" ht="36" customHeight="1">
       <c r="A245" s="12" t="inlineStr">
@@ -12735,22 +13080,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F245" s="4" t="inlineStr">
+      <c r="F245" s="4" t="inlineStr"/>
+      <c r="G245" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G245" s="4" t="inlineStr">
+      <c r="H245" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H245" s="4" t="inlineStr">
+      <c r="I245" s="4" t="inlineStr">
         <is>
           <t>IGRF000490000</t>
         </is>
       </c>
-      <c r="I245" s="4" t="inlineStr"/>
+      <c r="J245" s="4" t="inlineStr"/>
     </row>
     <row r="246" ht="36" customHeight="1">
       <c r="A246" s="10" t="inlineStr">
@@ -12776,22 +13122,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F246" s="6" t="inlineStr">
+      <c r="F246" s="6" t="inlineStr"/>
+      <c r="G246" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G246" s="6" t="inlineStr">
+      <c r="H246" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H246" s="6" t="inlineStr">
+      <c r="I246" s="6" t="inlineStr">
         <is>
           <t>IGRF000489002</t>
         </is>
       </c>
-      <c r="I246" s="6" t="inlineStr"/>
+      <c r="J246" s="6" t="inlineStr"/>
     </row>
     <row r="247" ht="36" customHeight="1">
       <c r="A247" s="12" t="inlineStr">
@@ -12817,22 +13164,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F247" s="4" t="inlineStr">
+      <c r="F247" s="4" t="inlineStr"/>
+      <c r="G247" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G247" s="4" t="inlineStr">
+      <c r="H247" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H247" s="4" t="inlineStr">
+      <c r="I247" s="4" t="inlineStr">
         <is>
           <t>IGRF000491008</t>
         </is>
       </c>
-      <c r="I247" s="4" t="inlineStr"/>
+      <c r="J247" s="4" t="inlineStr"/>
     </row>
     <row r="248" ht="36" customHeight="1">
       <c r="A248" s="10" t="inlineStr">
@@ -12858,22 +13206,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F248" s="6" t="inlineStr">
+      <c r="F248" s="6" t="inlineStr"/>
+      <c r="G248" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G248" s="6" t="inlineStr">
+      <c r="H248" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H248" s="6" t="inlineStr">
+      <c r="I248" s="6" t="inlineStr">
         <is>
           <t>IGRF000492006</t>
         </is>
       </c>
-      <c r="I248" s="6" t="inlineStr"/>
+      <c r="J248" s="6" t="inlineStr"/>
     </row>
     <row r="249" ht="36" customHeight="1">
       <c r="A249" s="12" t="inlineStr">
@@ -12897,20 +13246,25 @@
       </c>
       <c r="F249" s="4" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G249" s="4" t="inlineStr">
+        <is>
           <t>EGR802458356</t>
         </is>
       </c>
-      <c r="G249" s="4" t="inlineStr">
+      <c r="H249" s="4" t="inlineStr">
         <is>
           <t>EGR802458356</t>
         </is>
       </c>
-      <c r="H249" s="4" t="inlineStr">
+      <c r="I249" s="4" t="inlineStr">
         <is>
           <t>PEGRAK01102_SHR</t>
         </is>
       </c>
-      <c r="I249" s="4" t="inlineStr"/>
+      <c r="J249" s="4" t="inlineStr"/>
     </row>
     <row r="250" ht="36" customHeight="1">
       <c r="A250" s="10" t="inlineStr">
@@ -12934,20 +13288,25 @@
       </c>
       <c r="F250" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G250" s="6" t="inlineStr">
+        <is>
           <t>EGR802187644</t>
         </is>
       </c>
-      <c r="G250" s="6" t="inlineStr">
+      <c r="H250" s="6" t="inlineStr">
         <is>
           <t>EGR802187644</t>
         </is>
       </c>
-      <c r="H250" s="6" t="inlineStr">
+      <c r="I250" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01104_SHR</t>
         </is>
       </c>
-      <c r="I250" s="6" t="inlineStr"/>
+      <c r="J250" s="6" t="inlineStr"/>
     </row>
     <row r="251" ht="36" customHeight="1">
       <c r="A251" s="12" t="inlineStr">
@@ -12973,22 +13332,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F251" s="4" t="inlineStr">
+      <c r="F251" s="4" t="inlineStr"/>
+      <c r="G251" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G251" s="4" t="inlineStr">
+      <c r="H251" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H251" s="4" t="inlineStr">
+      <c r="I251" s="4" t="inlineStr">
         <is>
           <t>IGRF000493004</t>
         </is>
       </c>
-      <c r="I251" s="4" t="inlineStr"/>
+      <c r="J251" s="4" t="inlineStr"/>
     </row>
     <row r="252" ht="36" customHeight="1">
       <c r="A252" s="10" t="inlineStr">
@@ -13014,22 +13374,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F252" s="6" t="inlineStr">
+      <c r="F252" s="6" t="inlineStr"/>
+      <c r="G252" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="G252" s="6" t="inlineStr">
+      <c r="H252" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC013</t>
         </is>
       </c>
-      <c r="H252" s="6" t="inlineStr">
+      <c r="I252" s="6" t="inlineStr">
         <is>
           <t>IGRF000495009, IGRF000496007</t>
         </is>
       </c>
-      <c r="I252" s="6" t="inlineStr"/>
+      <c r="J252" s="6" t="inlineStr"/>
     </row>
     <row r="253" ht="36" customHeight="1">
       <c r="A253" s="12" t="inlineStr">
@@ -13055,22 +13416,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F253" s="4" t="inlineStr">
+      <c r="F253" s="4" t="inlineStr"/>
+      <c r="G253" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G253" s="4" t="inlineStr">
+      <c r="H253" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H253" s="4" t="inlineStr">
+      <c r="I253" s="4" t="inlineStr">
         <is>
           <t>IGRF000497005</t>
         </is>
       </c>
-      <c r="I253" s="4" t="inlineStr"/>
+      <c r="J253" s="4" t="inlineStr"/>
     </row>
     <row r="254" ht="36" customHeight="1">
       <c r="A254" s="10" t="inlineStr">
@@ -13094,20 +13456,25 @@
       </c>
       <c r="F254" s="6" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G254" s="6" t="inlineStr">
+        <is>
           <t>EGR801698110</t>
         </is>
       </c>
-      <c r="G254" s="6" t="inlineStr">
+      <c r="H254" s="6" t="inlineStr">
         <is>
           <t>EGR801698110</t>
         </is>
       </c>
-      <c r="H254" s="6" t="inlineStr">
+      <c r="I254" s="6" t="inlineStr">
         <is>
           <t>PEGRAK01103_SHR</t>
         </is>
       </c>
-      <c r="I254" s="6" t="inlineStr"/>
+      <c r="J254" s="6" t="inlineStr"/>
     </row>
     <row r="255" ht="36" customHeight="1">
       <c r="A255" s="12" t="inlineStr">
@@ -13133,22 +13500,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F255" s="4" t="inlineStr">
+      <c r="F255" s="4" t="inlineStr"/>
+      <c r="G255" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="G255" s="4" t="inlineStr">
+      <c r="H255" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC018</t>
         </is>
       </c>
-      <c r="H255" s="4" t="inlineStr">
+      <c r="I255" s="4" t="inlineStr">
         <is>
           <t>IGRF000504008</t>
         </is>
       </c>
-      <c r="I255" s="4" t="inlineStr"/>
+      <c r="J255" s="4" t="inlineStr"/>
     </row>
     <row r="256" ht="36" customHeight="1">
       <c r="A256" s="10" t="inlineStr">
@@ -13174,22 +13542,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F256" s="6" t="inlineStr">
+      <c r="F256" s="6" t="inlineStr"/>
+      <c r="G256" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="G256" s="6" t="inlineStr">
+      <c r="H256" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC015</t>
         </is>
       </c>
-      <c r="H256" s="6" t="inlineStr">
+      <c r="I256" s="6" t="inlineStr">
         <is>
           <t>IGRF000501004</t>
         </is>
       </c>
-      <c r="I256" s="6" t="inlineStr"/>
+      <c r="J256" s="6" t="inlineStr"/>
     </row>
     <row r="257" ht="36" customHeight="1">
       <c r="A257" s="12" t="inlineStr">
@@ -13215,22 +13584,23 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F257" s="4" t="inlineStr">
+      <c r="F257" s="4" t="inlineStr"/>
+      <c r="G257" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G257" s="4" t="inlineStr">
+      <c r="H257" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H257" s="4" t="inlineStr">
+      <c r="I257" s="4" t="inlineStr">
         <is>
           <t>IGRF000499001</t>
         </is>
       </c>
-      <c r="I257" s="4" t="inlineStr"/>
+      <c r="J257" s="4" t="inlineStr"/>
     </row>
     <row r="258" ht="36" customHeight="1">
       <c r="A258" s="10" t="inlineStr">
@@ -13256,22 +13626,23 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="F258" s="6" t="inlineStr">
+      <c r="F258" s="6" t="inlineStr"/>
+      <c r="G258" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G258" s="6" t="inlineStr">
+      <c r="H258" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H258" s="6" t="inlineStr">
+      <c r="I258" s="6" t="inlineStr">
         <is>
           <t>IGRF000500006</t>
         </is>
       </c>
-      <c r="I258" s="6" t="inlineStr"/>
+      <c r="J258" s="6" t="inlineStr"/>
     </row>
     <row r="259" ht="36" customHeight="1">
       <c r="A259" s="12" t="inlineStr">
@@ -13297,18 +13668,19 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F259" s="4" t="inlineStr">
+      <c r="F259" s="4" t="inlineStr"/>
+      <c r="G259" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="G259" s="4" t="inlineStr">
+      <c r="H259" s="4" t="inlineStr">
         <is>
           <t>EGRMFMC009</t>
         </is>
       </c>
-      <c r="H259" s="4" t="inlineStr"/>
       <c r="I259" s="4" t="inlineStr"/>
+      <c r="J259" s="4" t="inlineStr"/>
     </row>
     <row r="260" ht="36" customHeight="1">
       <c r="A260" s="10" t="inlineStr">
@@ -13334,21 +13706,22 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="F260" s="6" t="inlineStr">
+      <c r="F260" s="6" t="inlineStr"/>
+      <c r="G260" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="G260" s="6" t="inlineStr">
+      <c r="H260" s="6" t="inlineStr">
         <is>
           <t>EGRMFMC003</t>
         </is>
       </c>
-      <c r="H260" s="6" t="inlineStr"/>
       <c r="I260" s="6" t="inlineStr"/>
+      <c r="J260" s="6" t="inlineStr"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I260"/>
+  <autoFilter ref="A1:J260"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/docs/source/_static/structure/IFDAT-LIST.xlsx
+++ b/docs/source/_static/structure/IFDAT-LIST.xlsx
@@ -17,8 +17,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ΠΕΡΙΕΧΟΜΕΝΑ'!$A$1:$A$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ΜΠΣ'!$A$1:$F$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EO'!$A$1:$J$260</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ'!$A$1:$D$341</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EO'!$A$1:$J$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ΕΚΔΟΣΕΙΣ ΜΕΤΟΧΩΝ ΕΟ'!$A$1:$D$349</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ΕΚΔΟΣΕΙΣ ΟΜΟΛΟΓΩΝ ΕΟ'!$A$1:$D$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -586,7 +586,7 @@
         <is>
           <t>Μονάδες Παροχής Στοιχείων
 IFDAT
-ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2024-11-27</t>
+ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2025-01-03</t>
         </is>
       </c>
       <c r="D3" s="1" t="n"/>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>BGR000352001000, L213800BEX8X28DTL5391, TGR094036844</t>
+          <t>TGR094036844, BGR000352001000, L213800BEX8X28DTL5391</t>
         </is>
       </c>
       <c r="C3" s="13" t="n">
@@ -1314,12 +1314,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00022, EGRAK00115, EGRAK00117, EGRAK00118, EGRAK00224, EGRAK00239, EGRAK00243, EGRAK00261, EGRAK00296, EGRAK00459, EGRAK00473, EGRAK00802, EGRAK00817, EGRAK00822, EGRAK00837, EGRAK00856, EGRAK00909, EGRAK01013, EGRAK01020, EGRAK01026, EGRAK01033, EGRAK01034, EGRAK01040, EGRAK01042, EGRAK01049, EGRAK01051, EGRAK01056, EGRAK01081, EGRAK01083, EGRAK01084, EGRAK01085, EGRAK01086, EGRAK01090, EGRAK01094, EGRAK01095, EGRAK01098, EGRAK01108</t>
+          <t>EGRAK00022, EGRAK00115, EGRAK00117, EGRAK00118, EGRAK00224, EGRAK00239, EGRAK00243, EGRAK00261, EGRAK00296, EGRAK00459, EGRAK00473, EGRAK00802, EGRAK00817, EGRAK00822, EGRAK00837, EGRAK00856, EGRAK00909, EGRAK01013, EGRAK01020, EGRAK01026, EGRAK01033, EGRAK01034, EGRAK01040, EGRAK01042, EGRAK01049, EGRAK01051, EGRAK01056, EGRAK01081, EGRAK01083, EGRAK01084, EGRAK01085, EGRAK01086, EGRAK01090, EGRAK01094, EGRAK01095, EGRAK01098, EGRAK01108, EGRAK01111</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00022, EGRAK00115, EGRAK00117, EGRAK00118, EGRAK00224, EGRAK00239, EGRAK00243, EGRAK00261, EGRAK00296, EGRAK00459, EGRAK00473, EGRAK00802, EGRAK00817, EGRAK00822, EGRAK00837, EGRAK00856, EGRAK00909, EGRAK01013, EGRAK01020, EGRAK01026, EGRAK01033, EGRAK01034, EGRAK01040, EGRAK01042, EGRAK01049, EGRAK01051, EGRAK01056, EGRAK01081, EGRAK01083, EGRAK01084, EGRAK01085, EGRAK01086, EGRAK01090, EGRAK01094, EGRAK01095, EGRAK01098, EGRAK01108</t>
+          <t>EGRAK00022, EGRAK00115, EGRAK00117, EGRAK00118, EGRAK00224, EGRAK00239, EGRAK00243, EGRAK00261, EGRAK00296, EGRAK00459, EGRAK00473, EGRAK00802, EGRAK00817, EGRAK00822, EGRAK00837, EGRAK00856, EGRAK00909, EGRAK01013, EGRAK01020, EGRAK01026, EGRAK01033, EGRAK01034, EGRAK01040, EGRAK01042, EGRAK01049, EGRAK01051, EGRAK01056, EGRAK01081, EGRAK01083, EGRAK01084, EGRAK01085, EGRAK01086, EGRAK01090, EGRAK01094, EGRAK01095, EGRAK01098, EGRAK01108, EGRAK01111</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>TGR094493219, L213800SMPWZVT6GGQZ69, BGR002292401000</t>
+          <t>TGR094493219, BGR002292401000, L213800SMPWZVT6GGQZ69</t>
         </is>
       </c>
       <c r="C4" s="11" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>TGR999081601, L213800CF8C4B9AKV1Z96, BGR006314201000</t>
+          <t>TGR999081601, BGR006314201000, L213800CF8C4B9AKV1Z96</t>
         </is>
       </c>
       <c r="C6" s="11" t="n">
@@ -1404,12 +1404,12 @@
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00003, EGRAK00014, EGRAK00124, EGRAK00125, EGRAK00136, EGRAK00139, EGRAK00215, EGRAK00219, EGRAK00253, EGRAK00270, EGRAK00401, EGRAK00428, EGRAK00450, EGRAK00469, EGRAK00512, EGRAK00559, EGRAK00560, EGRAK00823, EGRAK00828, EGRAK00848, EGRAK01004, EGRAK01006, EGRAK01007, EGRAK01014, EGRAK01018, EGRAK01028, EGRAK01044, EGRAK01048, EGRAK01053, EGRAK01077, EGRAK01078, EGRAK01089, EGRAK01091, EGRAK01096, EGRAK01101</t>
+          <t>EGRAK00003, EGRAK00014, EGRAK00124, EGRAK00125, EGRAK00136, EGRAK00139, EGRAK00215, EGRAK00219, EGRAK00253, EGRAK00270, EGRAK00401, EGRAK00428, EGRAK00450, EGRAK00469, EGRAK00512, EGRAK00560, EGRAK00823, EGRAK00828, EGRAK00848, EGRAK01004, EGRAK01006, EGRAK01014, EGRAK01018, EGRAK01028, EGRAK01044, EGRAK01048, EGRAK01053, EGRAK01077, EGRAK01078, EGRAK01089, EGRAK01091, EGRAK01096, EGRAK01101</t>
         </is>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00003, EGRAK00014, EGRAK00124, EGRAK00125, EGRAK00136, EGRAK00139, EGRAK00215, EGRAK00219, EGRAK00253, EGRAK00270, EGRAK00401, EGRAK00428, EGRAK00450, EGRAK00469, EGRAK00512, EGRAK00559, EGRAK00560, EGRAK00823, EGRAK00828, EGRAK00848, EGRAK01004, EGRAK01006, EGRAK01007, EGRAK01014, EGRAK01018, EGRAK01028, EGRAK01044, EGRAK01048, EGRAK01053, EGRAK01077, EGRAK01078, EGRAK01089, EGRAK01091, EGRAK01096, EGRAK01101</t>
+          <t>EGRAK00003, EGRAK00014, EGRAK00124, EGRAK00125, EGRAK00136, EGRAK00139, EGRAK00215, EGRAK00219, EGRAK00253, EGRAK00270, EGRAK00401, EGRAK00428, EGRAK00450, EGRAK00469, EGRAK00512, EGRAK00560, EGRAK00823, EGRAK00828, EGRAK00848, EGRAK01004, EGRAK01006, EGRAK01014, EGRAK01018, EGRAK01028, EGRAK01044, EGRAK01048, EGRAK01053, EGRAK01077, EGRAK01078, EGRAK01089, EGRAK01091, EGRAK01096, EGRAK01101</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>L213800UWXVWAKFGVLB36, BGR001003501000, TGR094304867</t>
+          <t>TGR094304867, L213800UWXVWAKFGVLB36, BGR001003501000</t>
         </is>
       </c>
       <c r="C7" s="13" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>BGR000942001000, TGR094354938, L213800U6WAX3YXMFVH22</t>
+          <t>L213800U6WAX3YXMFVH22, BGR000942001000, TGR094354938</t>
         </is>
       </c>
       <c r="C8" s="11" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>TGR094325107, BGR000832401000, L213800YSZHWSCLXXRI37</t>
+          <t>BGR000832401000, L213800YSZHWSCLXXRI37, TGR094325107</t>
         </is>
       </c>
       <c r="C9" s="13" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>BGR000918601000, TGR094351475, L635400S5G5WWGN6B8T87</t>
+          <t>TGR094351475, BGR000918601000, L635400S5G5WWGN6B8T87</t>
         </is>
       </c>
       <c r="C10" s="11" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>BGR003581901000, L213800XXMES8I6GQVQ47, TGR099553209</t>
+          <t>TGR099553209, BGR003581901000, L213800XXMES8I6GQVQ47</t>
         </is>
       </c>
       <c r="C11" s="13" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>L549300JSLNCWDXJT4U81, BGR003931601000, TGR099760120</t>
+          <t>TGR099760120, L549300JSLNCWDXJT4U81, BGR003931601000</t>
         </is>
       </c>
       <c r="C12" s="11" t="n">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>L9845003A94A6F41EB779, TGR099757323, BGR122032001000</t>
+          <t>BGR122032001000, TGR099757323, L9845003A94A6F41EB779</t>
         </is>
       </c>
       <c r="C13" s="13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>TGR099759863, L213800USGL7Q5UR9M221, BGR003882701000</t>
+          <t>BGR003882701000, TGR099759863, L213800USGL7Q5UR9M221</t>
         </is>
       </c>
       <c r="C14" s="11" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>TGR999984680, BGR004373001000, L984500EE5E3BA3F08B21</t>
+          <t>L984500EE5E3BA3F08B21, BGR004373001000, TGR999984680</t>
         </is>
       </c>
       <c r="C15" s="13" t="n">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>L213800U7SBKWW79CBG88, BGR003548801000, TGR099554901</t>
+          <t>TGR099554901, L213800U7SBKWW79CBG88, BGR003548801000</t>
         </is>
       </c>
       <c r="C16" s="11" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>L213800P8QPUPE3SOGX14, BGR006816701000, TGR998940936</t>
+          <t>TGR998940936, L213800P8QPUPE3SOGX14, BGR006816701000</t>
         </is>
       </c>
       <c r="C17" s="13" t="n">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>BGR120108101000, L213800QM2ZFRARYU6C87, TGR800397001</t>
+          <t>TGR800397001, L213800QM2ZFRARYU6C87, BGR120108101000</t>
         </is>
       </c>
       <c r="C22" s="11" t="n">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>BGR122339001000, L2138006SQBPKYG6GZX87, TGR800433747</t>
+          <t>L2138006SQBPKYG6GZX87, TGR800433747, BGR122339001000</t>
         </is>
       </c>
       <c r="C24" s="11" t="n">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>BGR128686346000, L213800Q23BDHSW1OQT90, TGR997656128</t>
+          <t>TGR997656128, L213800Q23BDHSW1OQT90, BGR128686346000</t>
         </is>
       </c>
       <c r="C25" s="13" t="n">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>L213800TBZBVWRUAOPV78, TGR997521479, BGR140330201000</t>
+          <t>TGR997521479, BGR140330201000, L213800TBZBVWRUAOPV78</t>
         </is>
       </c>
       <c r="C26" s="11" t="n">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>TGR800792234, BGR141064201000, L213800PZN3W777G7XR07</t>
+          <t>TGR800792234, L213800PZN3W777G7XR07, BGR141064201000</t>
         </is>
       </c>
       <c r="C27" s="13" t="n">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>L254900CCGB73PBHKXL72, TGR997010182, BGR142754460000</t>
+          <t>BGR142754460000, L254900CCGB73PBHKXL72, TGR997010182</t>
         </is>
       </c>
       <c r="C28" s="11" t="n">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00238, EGRAK00465, EGRAK00552, EGRAK00553, EGRAK00554, EGRAK00555, EGRAK00592, EGRAK00835, EGRAK00854</t>
+          <t>EGRAK00238, EGRAK00465, EGRAK00552, EGRAK00553, EGRAK00554, EGRAK00555, EGRAK00592, EGRAK00835, EGRAK00854, EGRAK01112</t>
         </is>
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
-          <t>EGRAK00238, EGRAK00465, EGRAK00552, EGRAK00553, EGRAK00554, EGRAK00555, EGRAK00592, EGRAK00835, EGRAK00854</t>
+          <t>EGRAK00238, EGRAK00465, EGRAK00552, EGRAK00553, EGRAK00554, EGRAK00555, EGRAK00592, EGRAK00835, EGRAK00854, EGRAK01112</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>L9845007DB3RB2B4DN624, TGR800903737, BGR144560003000</t>
+          <t>BGR144560003000, L9845007DB3RB2B4DN624, TGR800903737</t>
         </is>
       </c>
       <c r="C29" s="13" t="n">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>TGR996899546, BGR152321260000, L213800XKY8GHKN57D970</t>
+          <t>L213800XKY8GHKN57D970, BGR152321260000, TGR996899546</t>
         </is>
       </c>
       <c r="C32" s="11" t="n">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>BGR153787304000, TGR801296814, L9845007855485B71CC46</t>
+          <t>TGR801296814, L9845007855485B71CC46, BGR153787304000</t>
         </is>
       </c>
       <c r="C33" s="13" t="n">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>TGR801322351, BGR154382104000</t>
+          <t>BGR154382104000, TGR801322351</t>
         </is>
       </c>
       <c r="C34" s="11" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>BGR157033507000, TGR801446716, L9845003A111B06B9D568</t>
+          <t>BGR157033507000, L9845003A111B06B9D568, TGR801446716</t>
         </is>
       </c>
       <c r="C35" s="13" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>BGR157036301000, TGR801446949, L9845004F1F377E786787</t>
+          <t>BGR157036301000, L9845004F1F377E786787, TGR801446949</t>
         </is>
       </c>
       <c r="C36" s="11" t="n">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>BGR157511601000, TGR801470046, L2138006VXU6UDW7P6H67</t>
+          <t>BGR157511601000, L2138006VXU6UDW7P6H67, TGR801470046</t>
         </is>
       </c>
       <c r="C37" s="13" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>TGR996764210, BGR157802360000</t>
+          <t>BGR157802360000, TGR996764210</t>
         </is>
       </c>
       <c r="C38" s="11" t="n">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>TGR801554045, BGR159031301000, L213800YJOZGHVAPEJP93</t>
+          <t>BGR159031301000, TGR801554045, L213800YJOZGHVAPEJP93</t>
         </is>
       </c>
       <c r="C39" s="13" t="n">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>L2138006STLTDFRIZTC42, BGR160110060000, TGR996805731</t>
+          <t>TGR996805731, BGR160110060000, L2138006STLTDFRIZTC42</t>
         </is>
       </c>
       <c r="C40" s="11" t="n">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>TGR801698110, BGR161709401000, L984500E6O0A11A6C4E59</t>
+          <t>L984500E6O0A11A6C4E59, TGR801698110, BGR161709401000</t>
         </is>
       </c>
       <c r="C41" s="13" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
-          <t>L213800MU91F1752AVM79, TGR094321237, BGR000861301000</t>
+          <t>TGR094321237, L213800MU91F1752AVM79, BGR000861301000</t>
         </is>
       </c>
       <c r="C42" s="11" t="n">
@@ -2521,8 +2521,8 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>BGR168398401000, TGR802025852,  
-BGR168398401000</t>
+          <t xml:space="preserve"> 
+BGR168398401000, BGR168398401000, TGR802025852</t>
         </is>
       </c>
       <c r="C45" s="13" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
-          <t>BGR168862301000, L2138007QOK3W75DIHX50, TGR802047322</t>
+          <t>TGR802047322, L2138007QOK3W75DIHX50, BGR168862301000</t>
         </is>
       </c>
       <c r="C46" s="11" t="n">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>BGR169369101000, TGR802071555</t>
+          <t>TGR802071555, BGR169369101000</t>
         </is>
       </c>
       <c r="C47" s="13" t="n">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
-          <t>TGR802177269, L984500EE58FDEBF8BF32, BGR171519601000</t>
+          <t>L984500EE58FDEBF8BF32, BGR171519601000, TGR802177269</t>
         </is>
       </c>
       <c r="C48" s="11" t="n">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>L213800G7J7NDXVAS3P11, BGR173975960000, TGR996542649</t>
+          <t>BGR173975960000, TGR996542649, L213800G7J7NDXVAS3P11</t>
         </is>
       </c>
       <c r="C51" s="13" t="n">
@@ -2715,12 +2715,12 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
+          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001, EGRAK01110</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001</t>
+          <t>EGRAK00020, EGRAK00106, EGRAK00135, EGRAK00205, EGRAK00206, EGRAK00443, EGRAK00462, EGRAK00820, EGRAK00827, EGRAK00850, EGRAK00892, EGRAK01001, EGRAK01110</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>BGR176733801000, TGR802458356</t>
+          <t>TGR802458356, BGR176733801000</t>
         </is>
       </c>
       <c r="C53" s="13" t="n">
@@ -2792,7 +2792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J260"/>
+  <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>TGR099759863, L213800USGL7Q5UR9M221, BGR003882701000</t>
+          <t>BGR003882701000, TGR099759863, L213800USGL7Q5UR9M221</t>
         </is>
       </c>
       <c r="C59" s="13" t="n">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>L213800U7SBKWW79CBG88, BGR003548801000, TGR099554901</t>
+          <t>TGR099554901, L213800U7SBKWW79CBG88, BGR003548801000</t>
         </is>
       </c>
       <c r="C72" s="11" t="n">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="B126" s="6" t="inlineStr">
         <is>
-          <t>BGR120108101000, L213800QM2ZFRARYU6C87, TGR800397001</t>
+          <t>TGR800397001, L213800QM2ZFRARYU6C87, BGR120108101000</t>
         </is>
       </c>
       <c r="C126" s="11" t="n">
@@ -8276,7 +8276,7 @@
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>BGR128686346000, L213800Q23BDHSW1OQT90, TGR997656128</t>
+          <t>TGR997656128, L213800Q23BDHSW1OQT90, BGR128686346000</t>
         </is>
       </c>
       <c r="C131" s="13" t="n">
@@ -8356,7 +8356,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>BGR131359701000, L213800DDNBUCO6A2RT84, TGR800596087</t>
+          <t>TGR800596087, L213800DDNBUCO6A2RT84, BGR131359701000</t>
         </is>
       </c>
       <c r="C133" s="13" t="n">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>L213800TBZBVWRUAOPV78, TGR997521479, BGR140330201000</t>
+          <t>TGR997521479, BGR140330201000, L213800TBZBVWRUAOPV78</t>
         </is>
       </c>
       <c r="C137" s="13" t="n">
@@ -9158,7 +9158,7 @@
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>TGR996899546, BGR152321260000, L213800XKY8GHKN57D970</t>
+          <t>L213800XKY8GHKN57D970, BGR152321260000, TGR996899546</t>
         </is>
       </c>
       <c r="C152" s="11" t="n">
@@ -9195,41 +9195,41 @@
     <row r="153" ht="36" customHeight="1">
       <c r="A153" s="12" t="inlineStr">
         <is>
-          <t>EGRAK00559</t>
+          <t>EGRAK00592</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>L213800NLJQZF8L2GQH25</t>
+          <t>L25490059HVOIK8T5C125</t>
         </is>
       </c>
       <c r="C153" s="13" t="n">
-        <v>43859</v>
+        <v>43900</v>
       </c>
       <c r="D153" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS PRIVATE BANKING ESG BALANCED FUND</t>
+          <t>ATHOS Discovery Διεθνές Μετοχικό Αναπτυγμένων Αγορών</t>
         </is>
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>MIX</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="F153" s="4" t="inlineStr"/>
       <c r="G153" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC030</t>
         </is>
       </c>
       <c r="H153" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC030</t>
         </is>
       </c>
       <c r="I153" s="4" t="inlineStr">
         <is>
-          <t>IGRF000329000</t>
+          <t>IGRF000323003, IGRF000324001, IGRF000325008, IGRF000326006</t>
         </is>
       </c>
       <c r="J153" s="4" t="inlineStr"/>
@@ -9237,20 +9237,16 @@
     <row r="154" ht="36" customHeight="1">
       <c r="A154" s="10" t="inlineStr">
         <is>
-          <t>EGRAK00592</t>
-        </is>
-      </c>
-      <c r="B154" s="6" t="inlineStr">
-        <is>
-          <t>L25490059HVOIK8T5C125</t>
-        </is>
-      </c>
+          <t>EGRAK01069</t>
+        </is>
+      </c>
+      <c r="B154" s="6" t="inlineStr"/>
       <c r="C154" s="11" t="n">
-        <v>43900</v>
+        <v>44035</v>
       </c>
       <c r="D154" s="6" t="inlineStr">
         <is>
-          <t>ATHOS Discovery Διεθνές Μετοχικό Αναπτυγμένων Αγορών</t>
+          <t>TECS Fund Α.Κ.Ε.Σ.</t>
         </is>
       </c>
       <c r="E154" s="6" t="inlineStr">
@@ -9258,20 +9254,24 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F154" s="6" t="inlineStr"/>
+      <c r="F154" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G154" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC030</t>
+          <t>EGR801322351</t>
         </is>
       </c>
       <c r="H154" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC030</t>
+          <t>EGR801322351</t>
         </is>
       </c>
       <c r="I154" s="6" t="inlineStr">
         <is>
-          <t>IGRF000323003, IGRF000324001, IGRF000325008, IGRF000326006</t>
+          <t>PEGRAK01069_SHR</t>
         </is>
       </c>
       <c r="J154" s="6" t="inlineStr"/>
@@ -9279,16 +9279,20 @@
     <row r="155" ht="36" customHeight="1">
       <c r="A155" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01069</t>
-        </is>
-      </c>
-      <c r="B155" s="4" t="inlineStr"/>
+          <t>EGRAK00575</t>
+        </is>
+      </c>
+      <c r="B155" s="4" t="inlineStr">
+        <is>
+          <t>L213800WYFCG9PFTLIE56</t>
+        </is>
+      </c>
       <c r="C155" s="13" t="n">
-        <v>44035</v>
+        <v>44039</v>
       </c>
       <c r="D155" s="4" t="inlineStr">
         <is>
-          <t>TECS Fund Α.Κ.Ε.Σ.</t>
+          <t>Ευρωπαϊκή Πίστη European Value Fund</t>
         </is>
       </c>
       <c r="E155" s="4" t="inlineStr">
@@ -9296,24 +9300,20 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F155" s="4" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+      <c r="F155" s="4" t="inlineStr"/>
       <c r="G155" s="4" t="inlineStr">
         <is>
-          <t>EGR801322351</t>
+          <t>EGRMFMC002</t>
         </is>
       </c>
       <c r="H155" s="4" t="inlineStr">
         <is>
-          <t>EGR801322351</t>
+          <t>EGRMFMC002</t>
         </is>
       </c>
       <c r="I155" s="4" t="inlineStr">
         <is>
-          <t>PEGRAK01069_SHR</t>
+          <t>IGRF000337003</t>
         </is>
       </c>
       <c r="J155" s="4" t="inlineStr"/>
@@ -9321,20 +9321,20 @@
     <row r="156" ht="36" customHeight="1">
       <c r="A156" s="10" t="inlineStr">
         <is>
-          <t>EGRAK00575</t>
+          <t>EGRAK01000</t>
         </is>
       </c>
       <c r="B156" s="6" t="inlineStr">
         <is>
-          <t>L213800WYFCG9PFTLIE56</t>
+          <t>L213800L21Z86G349JZ48</t>
         </is>
       </c>
       <c r="C156" s="11" t="n">
-        <v>44039</v>
+        <v>44105</v>
       </c>
       <c r="D156" s="6" t="inlineStr">
         <is>
-          <t>Ευρωπαϊκή Πίστη European Value Fund</t>
+          <t>Ypsilon Global Growth Fund Μετοχικό Εξωτερικού</t>
         </is>
       </c>
       <c r="E156" s="6" t="inlineStr">
@@ -9345,17 +9345,17 @@
       <c r="F156" s="6" t="inlineStr"/>
       <c r="G156" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
+          <t>EGRMFMC008</t>
         </is>
       </c>
       <c r="H156" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
+          <t>EGRMFMC008</t>
         </is>
       </c>
       <c r="I156" s="6" t="inlineStr">
         <is>
-          <t>IGRF000337003</t>
+          <t>IGRF000338001</t>
         </is>
       </c>
       <c r="J156" s="6" t="inlineStr"/>
@@ -9363,20 +9363,20 @@
     <row r="157" ht="36" customHeight="1">
       <c r="A157" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01000</t>
+          <t>EGRAK01063</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>L213800L21Z86G349JZ48</t>
+          <t>L213800MZH99ZAE4QGF42</t>
         </is>
       </c>
       <c r="C157" s="13" t="n">
-        <v>44105</v>
+        <v>44131</v>
       </c>
       <c r="D157" s="4" t="inlineStr">
         <is>
-          <t>Ypsilon Global Growth Fund Μετοχικό Εξωτερικού</t>
+          <t>Marathon Venture Capital Mutual Fund II</t>
         </is>
       </c>
       <c r="E157" s="4" t="inlineStr">
@@ -9384,20 +9384,24 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="F157" s="4" t="inlineStr"/>
+      <c r="F157" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G157" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC008</t>
+          <t>EGR800792234</t>
         </is>
       </c>
       <c r="H157" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC008</t>
+          <t>EGR800792234</t>
         </is>
       </c>
       <c r="I157" s="4" t="inlineStr">
         <is>
-          <t>IGRF000338001</t>
+          <t>PEGRAK01063_SHR</t>
         </is>
       </c>
       <c r="J157" s="4" t="inlineStr"/>
@@ -9405,20 +9409,16 @@
     <row r="158" ht="36" customHeight="1">
       <c r="A158" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01063</t>
-        </is>
-      </c>
-      <c r="B158" s="6" t="inlineStr">
-        <is>
-          <t>L213800MZH99ZAE4QGF42</t>
-        </is>
-      </c>
+          <t>EGRAK01060</t>
+        </is>
+      </c>
+      <c r="B158" s="6" t="inlineStr"/>
       <c r="C158" s="11" t="n">
-        <v>44131</v>
+        <v>44142</v>
       </c>
       <c r="D158" s="6" t="inlineStr">
         <is>
-          <t>Marathon Venture Capital Mutual Fund II</t>
+          <t>GREEK BRANDS VCMF</t>
         </is>
       </c>
       <c r="E158" s="6" t="inlineStr">
@@ -9433,17 +9433,17 @@
       </c>
       <c r="G158" s="6" t="inlineStr">
         <is>
-          <t>EGR800792234</t>
+          <t>EGR801446949</t>
         </is>
       </c>
       <c r="H158" s="6" t="inlineStr">
         <is>
-          <t>EGR800792234</t>
+          <t>EGR801446949</t>
         </is>
       </c>
       <c r="I158" s="6" t="inlineStr">
         <is>
-          <t>PEGRAK01063_SHR</t>
+          <t>PEGRAK01060_SHR</t>
         </is>
       </c>
       <c r="J158" s="6" t="inlineStr"/>
@@ -9451,16 +9451,16 @@
     <row r="159" ht="36" customHeight="1">
       <c r="A159" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01060</t>
+          <t>EGRAK01058</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr"/>
       <c r="C159" s="13" t="n">
-        <v>44142</v>
+        <v>44161</v>
       </c>
       <c r="D159" s="4" t="inlineStr">
         <is>
-          <t>GREEK BRANDS VCMF</t>
+          <t>BLUE GREEN WHITE VCMF</t>
         </is>
       </c>
       <c r="E159" s="4" t="inlineStr">
@@ -9475,17 +9475,17 @@
       </c>
       <c r="G159" s="4" t="inlineStr">
         <is>
-          <t>EGR801446949</t>
+          <t>EGR801446716</t>
         </is>
       </c>
       <c r="H159" s="4" t="inlineStr">
         <is>
-          <t>EGR801446949</t>
+          <t>EGR801446716</t>
         </is>
       </c>
       <c r="I159" s="4" t="inlineStr">
         <is>
-          <t>PEGRAK01060_SHR</t>
+          <t>PEGRAK01058_SHR</t>
         </is>
       </c>
       <c r="J159" s="4" t="inlineStr"/>
@@ -9493,41 +9493,41 @@
     <row r="160" ht="36" customHeight="1">
       <c r="A160" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01058</t>
-        </is>
-      </c>
-      <c r="B160" s="6" t="inlineStr"/>
+          <t>EGRAK01001</t>
+        </is>
+      </c>
+      <c r="B160" s="6" t="inlineStr">
+        <is>
+          <t>L2138006T56ICO5IY6R82</t>
+        </is>
+      </c>
       <c r="C160" s="11" t="n">
-        <v>44161</v>
+        <v>44267</v>
       </c>
       <c r="D160" s="6" t="inlineStr">
         <is>
-          <t>BLUE GREEN WHITE VCMF</t>
+          <t>ΤΕΑ ΓΕΩΤΕΧΝΙΚΩΝ ΜΙΚΤΟ</t>
         </is>
       </c>
       <c r="E160" s="6" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F160" s="6" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>MIX</t>
+        </is>
+      </c>
+      <c r="F160" s="6" t="inlineStr"/>
       <c r="G160" s="6" t="inlineStr">
         <is>
-          <t>EGR801446716</t>
+          <t>EGRMFMC023</t>
         </is>
       </c>
       <c r="H160" s="6" t="inlineStr">
         <is>
-          <t>EGR801446716</t>
+          <t>EGRMFMC023</t>
         </is>
       </c>
       <c r="I160" s="6" t="inlineStr">
         <is>
-          <t>PEGRAK01058_SHR</t>
+          <t>IGRF000341005</t>
         </is>
       </c>
       <c r="J160" s="6" t="inlineStr"/>
@@ -9535,41 +9535,45 @@
     <row r="161" ht="36" customHeight="1">
       <c r="A161" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01001</t>
+          <t>EGRAK01027</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>L2138006T56ICO5IY6R82</t>
+          <t>L984500E57C6ACBJ84381</t>
         </is>
       </c>
       <c r="C161" s="13" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="D161" s="4" t="inlineStr">
         <is>
-          <t>ΤΕΑ ΓΕΩΤΕΧΝΙΚΩΝ ΜΙΚΤΟ</t>
+          <t>NORTHERN GREECE INVESTMENT FUND</t>
         </is>
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>MIX</t>
-        </is>
-      </c>
-      <c r="F161" s="4" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F161" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G161" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
+          <t>EGR801296864</t>
         </is>
       </c>
       <c r="H161" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC023</t>
+          <t>EGR801296864</t>
         </is>
       </c>
       <c r="I161" s="4" t="inlineStr">
         <is>
-          <t>IGRF000341005</t>
+          <t>PEGRAK01027_SHR</t>
         </is>
       </c>
       <c r="J161" s="4" t="inlineStr"/>
@@ -9577,45 +9581,41 @@
     <row r="162" ht="36" customHeight="1">
       <c r="A162" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01027</t>
+          <t>EGRAK01002</t>
         </is>
       </c>
       <c r="B162" s="6" t="inlineStr">
         <is>
-          <t>L984500E57C6ACBJ84381</t>
+          <t>L213800IDJYL81PTN8Q32</t>
         </is>
       </c>
       <c r="C162" s="11" t="n">
-        <v>44270</v>
+        <v>44292</v>
       </c>
       <c r="D162" s="6" t="inlineStr">
         <is>
-          <t>NORTHERN GREECE INVESTMENT FUND</t>
+          <t>Optima greek balanced μικτό εσωτερικού</t>
         </is>
       </c>
       <c r="E162" s="6" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F162" s="6" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>MIX</t>
+        </is>
+      </c>
+      <c r="F162" s="6" t="inlineStr"/>
       <c r="G162" s="6" t="inlineStr">
         <is>
-          <t>EGR801296864</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="H162" s="6" t="inlineStr">
         <is>
-          <t>EGR801296864</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="I162" s="6" t="inlineStr">
         <is>
-          <t>PEGRAK01027_SHR</t>
+          <t>IGRF000342003</t>
         </is>
       </c>
       <c r="J162" s="6" t="inlineStr"/>
@@ -9623,41 +9623,41 @@
     <row r="163" ht="36" customHeight="1">
       <c r="A163" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01002</t>
-        </is>
-      </c>
-      <c r="B163" s="4" t="inlineStr">
-        <is>
-          <t>L213800IDJYL81PTN8Q32</t>
-        </is>
-      </c>
+          <t>EGRAK01066</t>
+        </is>
+      </c>
+      <c r="B163" s="4" t="inlineStr"/>
       <c r="C163" s="13" t="n">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="D163" s="4" t="inlineStr">
         <is>
-          <t>Optima greek balanced μικτό εσωτερικού</t>
+          <t>NEW ENERGY CAPITAL Α.Κ.Ε.Σ.</t>
         </is>
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>MIX</t>
-        </is>
-      </c>
-      <c r="F163" s="4" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F163" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G163" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGR801470046</t>
         </is>
       </c>
       <c r="H163" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGR801470046</t>
         </is>
       </c>
       <c r="I163" s="4" t="inlineStr">
         <is>
-          <t>IGRF000342003</t>
+          <t>PEGRAK01066_SHR</t>
         </is>
       </c>
       <c r="J163" s="4" t="inlineStr"/>
@@ -9665,41 +9665,41 @@
     <row r="164" ht="36" customHeight="1">
       <c r="A164" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01066</t>
-        </is>
-      </c>
-      <c r="B164" s="6" t="inlineStr"/>
+          <t>EGRAK01003</t>
+        </is>
+      </c>
+      <c r="B164" s="6" t="inlineStr">
+        <is>
+          <t>L213800KFXOXTB569LH55</t>
+        </is>
+      </c>
       <c r="C164" s="11" t="n">
-        <v>44293</v>
+        <v>44323</v>
       </c>
       <c r="D164" s="6" t="inlineStr">
         <is>
-          <t>NEW ENERGY CAPITAL Α.Κ.Ε.Σ.</t>
+          <t>Fast Finance Growth and Income Strategy μικτό εσωτερικού</t>
         </is>
       </c>
       <c r="E164" s="6" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F164" s="6" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>MIX</t>
+        </is>
+      </c>
+      <c r="F164" s="6" t="inlineStr"/>
       <c r="G164" s="6" t="inlineStr">
         <is>
-          <t>EGR801470046</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="H164" s="6" t="inlineStr">
         <is>
-          <t>EGR801470046</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="I164" s="6" t="inlineStr">
         <is>
-          <t>PEGRAK01066_SHR</t>
+          <t>IGRF000343001</t>
         </is>
       </c>
       <c r="J164" s="6" t="inlineStr"/>
@@ -9707,41 +9707,45 @@
     <row r="165" ht="36" customHeight="1">
       <c r="A165" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01003</t>
+          <t>EGRAK01059</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>L213800KFXOXTB569LH55</t>
+          <t>L2138002GMJQPAIRM1N72</t>
         </is>
       </c>
       <c r="C165" s="13" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="D165" s="4" t="inlineStr">
         <is>
-          <t>Fast Finance Growth and Income Strategy μικτό εσωτερικού</t>
+          <t>European Sustainable Investments Fund</t>
         </is>
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>MIX</t>
-        </is>
-      </c>
-      <c r="F165" s="4" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F165" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G165" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGR801554045</t>
         </is>
       </c>
       <c r="H165" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGR801554045</t>
         </is>
       </c>
       <c r="I165" s="4" t="inlineStr">
         <is>
-          <t>IGRF000343001</t>
+          <t>PEGRAK01059_SHR</t>
         </is>
       </c>
       <c r="J165" s="4" t="inlineStr"/>
@@ -9749,45 +9753,37 @@
     <row r="166" ht="36" customHeight="1">
       <c r="A166" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01059</t>
+          <t>EGRAEEAP009</t>
         </is>
       </c>
       <c r="B166" s="6" t="inlineStr">
         <is>
-          <t>L2138002GMJQPAIRM1N72</t>
+          <t>TGR996805731, BGR160110060000, L2138006STLTDFRIZTC42</t>
         </is>
       </c>
       <c r="C166" s="11" t="n">
-        <v>44358</v>
+        <v>44389</v>
       </c>
       <c r="D166" s="6" t="inlineStr">
         <is>
-          <t>European Sustainable Investments Fund</t>
+          <t>TRADE ESTATES ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ</t>
         </is>
       </c>
       <c r="E166" s="6" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F166" s="6" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G166" s="6" t="inlineStr">
-        <is>
-          <t>EGR801554045</t>
-        </is>
-      </c>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F166" s="6" t="inlineStr"/>
+      <c r="G166" s="6" t="inlineStr"/>
       <c r="H166" s="6" t="inlineStr">
         <is>
-          <t>EGR801554045</t>
+          <t>EGRAEEAP009</t>
         </is>
       </c>
       <c r="I166" s="6" t="inlineStr">
         <is>
-          <t>PEGRAK01059_SHR</t>
+          <t>IGRS534003009</t>
         </is>
       </c>
       <c r="J166" s="6" t="inlineStr"/>
@@ -9795,12 +9791,12 @@
     <row r="167" ht="36" customHeight="1">
       <c r="A167" s="12" t="inlineStr">
         <is>
-          <t>EGRAEEAP009</t>
+          <t>EGRAK01004</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>L2138006STLTDFRIZTC42, BGR160110060000, TGR996805731</t>
+          <t>L213800X1UFRU9V3SRX48</t>
         </is>
       </c>
       <c r="C167" s="13" t="n">
@@ -9808,24 +9804,28 @@
       </c>
       <c r="D167" s="4" t="inlineStr">
         <is>
-          <t>TRADE ESTATES ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ</t>
+          <t>Piraeus Ideas Global Equity Fund</t>
         </is>
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>RES</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="F167" s="4" t="inlineStr"/>
-      <c r="G167" s="4" t="inlineStr"/>
+      <c r="G167" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="H167" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP009</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I167" s="4" t="inlineStr">
         <is>
-          <t>IGRS534003009</t>
+          <t>IGRF000351004, IGRF000352002, IGRF000494002</t>
         </is>
       </c>
       <c r="J167" s="4" t="inlineStr"/>
@@ -9833,41 +9833,41 @@
     <row r="168" ht="36" customHeight="1">
       <c r="A168" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01004</t>
+          <t>EGRAK01005</t>
         </is>
       </c>
       <c r="B168" s="6" t="inlineStr">
         <is>
-          <t>L213800X1UFRU9V3SRX48</t>
+          <t>L21380056NKY9TECRAK95</t>
         </is>
       </c>
       <c r="C168" s="11" t="n">
-        <v>44389</v>
+        <v>44431</v>
       </c>
       <c r="D168" s="6" t="inlineStr">
         <is>
-          <t>Piraeus Ideas Global Equity Fund</t>
+          <t>ΤΕΑ ΥΠΟΥΡΓΕΙΟΥ ΟΙΚΟΝΟΜΙΚΩΝ ΜΙΚΤΟ FUND OF FUNDS</t>
         </is>
       </c>
       <c r="E168" s="6" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>MIX</t>
         </is>
       </c>
       <c r="F168" s="6" t="inlineStr"/>
       <c r="G168" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC002</t>
         </is>
       </c>
       <c r="H168" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC002</t>
         </is>
       </c>
       <c r="I168" s="6" t="inlineStr">
         <is>
-          <t>IGRF000351004, IGRF000352002, IGRF000494002</t>
+          <t>IGRF000353000</t>
         </is>
       </c>
       <c r="J168" s="6" t="inlineStr"/>
@@ -9875,20 +9875,20 @@
     <row r="169" ht="36" customHeight="1">
       <c r="A169" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01005</t>
+          <t>EGRAK01006</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>L21380056NKY9TECRAK95</t>
+          <t>L213800NCJ6D5AJ6YV808</t>
         </is>
       </c>
       <c r="C169" s="13" t="n">
-        <v>44431</v>
+        <v>44440</v>
       </c>
       <c r="D169" s="4" t="inlineStr">
         <is>
-          <t>ΤΕΑ ΥΠΟΥΡΓΕΙΟΥ ΟΙΚΟΝΟΜΙΚΩΝ ΜΙΚΤΟ FUND OF FUNDS</t>
+          <t>Πειραιώς Low Volatility Fund of Funds Μικτό</t>
         </is>
       </c>
       <c r="E169" s="4" t="inlineStr">
@@ -9899,17 +9899,17 @@
       <c r="F169" s="4" t="inlineStr"/>
       <c r="G169" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="H169" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC002</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I169" s="4" t="inlineStr">
         <is>
-          <t>IGRF000353000</t>
+          <t>IGRF000356003</t>
         </is>
       </c>
       <c r="J169" s="4" t="inlineStr"/>
@@ -9917,41 +9917,41 @@
     <row r="170" ht="36" customHeight="1">
       <c r="A170" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01006</t>
+          <t>EGRAK01008</t>
         </is>
       </c>
       <c r="B170" s="6" t="inlineStr">
         <is>
-          <t>L213800NCJ6D5AJ6YV808</t>
+          <t>L21380036QQBPBD197J24</t>
         </is>
       </c>
       <c r="C170" s="11" t="n">
-        <v>44440</v>
+        <v>44564</v>
       </c>
       <c r="D170" s="6" t="inlineStr">
         <is>
-          <t>Πειραιώς Low Volatility Fund of Funds Μικτό</t>
+          <t>3Κ Α/Κ Μετοχικό Διεθνές Θεσμικών Επενδυτών</t>
         </is>
       </c>
       <c r="E170" s="6" t="inlineStr">
         <is>
-          <t>MIX</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="F170" s="6" t="inlineStr"/>
       <c r="G170" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC014</t>
         </is>
       </c>
       <c r="H170" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC014</t>
         </is>
       </c>
       <c r="I170" s="6" t="inlineStr">
         <is>
-          <t>IGRF000356003</t>
+          <t>IGRF000365004, IGRF000367000</t>
         </is>
       </c>
       <c r="J170" s="6" t="inlineStr"/>
@@ -9959,41 +9959,41 @@
     <row r="171" ht="36" customHeight="1">
       <c r="A171" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01007</t>
+          <t>EGRAK01009</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>L213800RT7GXG15OGW591</t>
+          <t>L213800Q7GB9FUCLB4O40</t>
         </is>
       </c>
       <c r="C171" s="13" t="n">
-        <v>44531</v>
+        <v>44594</v>
       </c>
       <c r="D171" s="4" t="inlineStr">
         <is>
-          <t>PIRAEUS PRIVATE BANKING ESG GREECE EQUITY FUND</t>
+          <t>ALPHA ΣΥΝΤΗΡΗΤΙΚΟ ΕΛΛΗΝΙΚΟ ΜΙΚΤΟ</t>
         </is>
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>MIX</t>
         </is>
       </c>
       <c r="F171" s="4" t="inlineStr"/>
       <c r="G171" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H171" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I171" s="4" t="inlineStr">
         <is>
-          <t>IGRF000363009</t>
+          <t>IGRF000377009, IGRF000378007, IGRF000379005</t>
         </is>
       </c>
       <c r="J171" s="4" t="inlineStr"/>
@@ -10001,83 +10001,83 @@
     <row r="172" ht="36" customHeight="1">
       <c r="A172" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01008</t>
+          <t>EGR094321237</t>
         </is>
       </c>
       <c r="B172" s="6" t="inlineStr">
         <is>
-          <t>L21380036QQBPBD197J24</t>
+          <t>TGR094321237, L213800MU91F1752AVM79, BGR000861301000</t>
         </is>
       </c>
       <c r="C172" s="11" t="n">
-        <v>44564</v>
+        <v>44635</v>
       </c>
       <c r="D172" s="6" t="inlineStr">
         <is>
-          <t>3Κ Α/Κ Μετοχικό Διεθνές Θεσμικών Επενδυτών</t>
+          <t>PREMIA ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
         </is>
       </c>
       <c r="E172" s="6" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="F172" s="6" t="inlineStr"/>
-      <c r="G172" s="6" t="inlineStr">
-        <is>
-          <t>EGRMFMC014</t>
-        </is>
-      </c>
+      <c r="G172" s="6" t="inlineStr"/>
       <c r="H172" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
+          <t>EGR094321237</t>
         </is>
       </c>
       <c r="I172" s="6" t="inlineStr">
         <is>
-          <t>IGRF000365004, IGRF000367000</t>
-        </is>
-      </c>
-      <c r="J172" s="6" t="inlineStr"/>
+          <t>IGRS497003012</t>
+        </is>
+      </c>
+      <c r="J172" s="6" t="inlineStr">
+        <is>
+          <t>IGRC4971221B3</t>
+        </is>
+      </c>
     </row>
     <row r="173" ht="36" customHeight="1">
       <c r="A173" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01009</t>
-        </is>
-      </c>
-      <c r="B173" s="4" t="inlineStr">
-        <is>
-          <t>L213800Q7GB9FUCLB4O40</t>
-        </is>
-      </c>
+          <t>EGRAK01067</t>
+        </is>
+      </c>
+      <c r="B173" s="4" t="inlineStr"/>
       <c r="C173" s="13" t="n">
-        <v>44594</v>
+        <v>44636</v>
       </c>
       <c r="D173" s="4" t="inlineStr">
         <is>
-          <t>ALPHA ΣΥΝΤΗΡΗΤΙΚΟ ΕΛΛΗΝΙΚΟ ΜΙΚΤΟ</t>
+          <t>PHAISTOS INVESTMENT FUND</t>
         </is>
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>MIX</t>
-        </is>
-      </c>
-      <c r="F173" s="4" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F173" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G173" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGR996764210</t>
         </is>
       </c>
       <c r="H173" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGR996764210</t>
         </is>
       </c>
       <c r="I173" s="4" t="inlineStr">
         <is>
-          <t>IGRF000377009, IGRF000378007, IGRF000379005</t>
+          <t>PEGRAK01067_SHR</t>
         </is>
       </c>
       <c r="J173" s="4" t="inlineStr"/>
@@ -10085,83 +10085,83 @@
     <row r="174" ht="36" customHeight="1">
       <c r="A174" s="10" t="inlineStr">
         <is>
-          <t>EGR094321237</t>
+          <t>EGRAK01010</t>
         </is>
       </c>
       <c r="B174" s="6" t="inlineStr">
         <is>
-          <t>L213800MU91F1752AVM79, TGR094321237, BGR000861301000</t>
+          <t>L213800YZSJOH2EKQHC09</t>
         </is>
       </c>
       <c r="C174" s="11" t="n">
-        <v>44635</v>
+        <v>44713</v>
       </c>
       <c r="D174" s="6" t="inlineStr">
         <is>
-          <t>PREMIA ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΣΕ ΑΚΙΝΗΤΗ ΠΕΡΙΟΥΣΙΑ</t>
+          <t>ALPHA BANCASSURANCE EE103 ΣΥΝΘΕΤΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
         </is>
       </c>
       <c r="E174" s="6" t="inlineStr">
         <is>
-          <t>RES</t>
+          <t>OTH</t>
         </is>
       </c>
       <c r="F174" s="6" t="inlineStr"/>
-      <c r="G174" s="6" t="inlineStr"/>
+      <c r="G174" s="6" t="inlineStr">
+        <is>
+          <t>EGRMFMC003</t>
+        </is>
+      </c>
       <c r="H174" s="6" t="inlineStr">
         <is>
-          <t>EGR094321237</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I174" s="6" t="inlineStr">
         <is>
-          <t>IGRS497003012</t>
-        </is>
-      </c>
-      <c r="J174" s="6" t="inlineStr">
-        <is>
-          <t>IGRC4971221B3</t>
-        </is>
-      </c>
+          <t>IGRF000386000</t>
+        </is>
+      </c>
+      <c r="J174" s="6" t="inlineStr"/>
     </row>
     <row r="175" ht="36" customHeight="1">
       <c r="A175" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01067</t>
-        </is>
-      </c>
-      <c r="B175" s="4" t="inlineStr"/>
+          <t>EGRAK01011</t>
+        </is>
+      </c>
+      <c r="B175" s="4" t="inlineStr">
+        <is>
+          <t>L213800SMPWZVT6GGQZ69</t>
+        </is>
+      </c>
       <c r="C175" s="13" t="n">
-        <v>44636</v>
+        <v>44805</v>
       </c>
       <c r="D175" s="4" t="inlineStr">
         <is>
-          <t>PHAISTOS INVESTMENT FUND</t>
+          <t>GF TARGET MATURITY ΟΜΟΛΟΓΙΑΚΟ ΕΣΩΤΕΡΙΚΟΥ</t>
         </is>
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F175" s="4" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F175" s="4" t="inlineStr"/>
       <c r="G175" s="4" t="inlineStr">
         <is>
-          <t>EGR996764210</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="H175" s="4" t="inlineStr">
         <is>
-          <t>EGR996764210</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="I175" s="4" t="inlineStr">
         <is>
-          <t>PEGRAK01067_SHR</t>
+          <t>IGRF000389004</t>
         </is>
       </c>
       <c r="J175" s="4" t="inlineStr"/>
@@ -10169,20 +10169,20 @@
     <row r="176" ht="36" customHeight="1">
       <c r="A176" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01010</t>
+          <t>EGRAK01012</t>
         </is>
       </c>
       <c r="B176" s="6" t="inlineStr">
         <is>
-          <t>L213800YZSJOH2EKQHC09</t>
+          <t>L2138001R7I83O3I3ZA45</t>
         </is>
       </c>
       <c r="C176" s="11" t="n">
-        <v>44713</v>
+        <v>44816</v>
       </c>
       <c r="D176" s="6" t="inlineStr">
         <is>
-          <t>ALPHA BANCASSURANCE EE103 ΣΥΝΘΕΤΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+          <t>GF GLOBAL PROTECT 90 ΣΥΝΘΕΤΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
         </is>
       </c>
       <c r="E176" s="6" t="inlineStr">
@@ -10193,17 +10193,17 @@
       <c r="F176" s="6" t="inlineStr"/>
       <c r="G176" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="H176" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="I176" s="6" t="inlineStr">
         <is>
-          <t>IGRF000386000</t>
+          <t>IGRF000390002</t>
         </is>
       </c>
       <c r="J176" s="6" t="inlineStr"/>
@@ -10211,41 +10211,45 @@
     <row r="177" ht="36" customHeight="1">
       <c r="A177" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01011</t>
+          <t>EGRAK01057</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>L213800SMPWZVT6GGQZ69</t>
+          <t>L984500B9CA37BD647A60</t>
         </is>
       </c>
       <c r="C177" s="13" t="n">
-        <v>44805</v>
+        <v>44827</v>
       </c>
       <c r="D177" s="4" t="inlineStr">
         <is>
-          <t>GF TARGET MATURITY ΟΜΟΛΟΓΙΑΚΟ ΕΣΩΤΕΡΙΚΟΥ</t>
+          <t>Ε3 Ο.Ε.Ε.</t>
         </is>
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="F177" s="4" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F177" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G177" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGR099757323</t>
         </is>
       </c>
       <c r="H177" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGR099757323</t>
         </is>
       </c>
       <c r="I177" s="4" t="inlineStr">
         <is>
-          <t>IGRF000389004</t>
+          <t>IGRF000506003</t>
         </is>
       </c>
       <c r="J177" s="4" t="inlineStr"/>
@@ -10253,20 +10257,20 @@
     <row r="178" ht="36" customHeight="1">
       <c r="A178" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01012</t>
+          <t>EGRAK01015</t>
         </is>
       </c>
       <c r="B178" s="6" t="inlineStr">
         <is>
-          <t>L2138001R7I83O3I3ZA45</t>
+          <t>L213800AGGW734ZWU5A21</t>
         </is>
       </c>
       <c r="C178" s="11" t="n">
-        <v>44816</v>
+        <v>44846</v>
       </c>
       <c r="D178" s="6" t="inlineStr">
         <is>
-          <t>GF GLOBAL PROTECT 90 ΣΥΝΘΕΤΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+          <t>ALPHA Bancassurance EE104 Σύνθετο Αμοιβαίο Κεφάλαιο</t>
         </is>
       </c>
       <c r="E178" s="6" t="inlineStr">
@@ -10277,17 +10281,17 @@
       <c r="F178" s="6" t="inlineStr"/>
       <c r="G178" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H178" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I178" s="6" t="inlineStr">
         <is>
-          <t>IGRF000390002</t>
+          <t>IGRF000392008</t>
         </is>
       </c>
       <c r="J178" s="6" t="inlineStr"/>
@@ -10295,20 +10299,16 @@
     <row r="179" ht="36" customHeight="1">
       <c r="A179" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01057</t>
-        </is>
-      </c>
-      <c r="B179" s="4" t="inlineStr">
-        <is>
-          <t>L984500B9CA37BD647A60</t>
-        </is>
-      </c>
+          <t>EGRAK01072</t>
+        </is>
+      </c>
+      <c r="B179" s="4" t="inlineStr"/>
       <c r="C179" s="13" t="n">
-        <v>44827</v>
+        <v>44851</v>
       </c>
       <c r="D179" s="4" t="inlineStr">
         <is>
-          <t>Ε3 Ο.Ε.Ε.</t>
+          <t>LSTONE CAPITAL I A.K.E.S.</t>
         </is>
       </c>
       <c r="E179" s="4" t="inlineStr">
@@ -10323,17 +10323,17 @@
       </c>
       <c r="G179" s="4" t="inlineStr">
         <is>
-          <t>EGR099757323</t>
+          <t>EGR801812106</t>
         </is>
       </c>
       <c r="H179" s="4" t="inlineStr">
         <is>
-          <t>EGR099757323</t>
+          <t>EGR801812106</t>
         </is>
       </c>
       <c r="I179" s="4" t="inlineStr">
         <is>
-          <t>IGRF000506003</t>
+          <t>PEGRAK01072_SHR</t>
         </is>
       </c>
       <c r="J179" s="4" t="inlineStr"/>
@@ -10341,41 +10341,41 @@
     <row r="180" ht="36" customHeight="1">
       <c r="A180" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01015</t>
+          <t>EGRAK01013</t>
         </is>
       </c>
       <c r="B180" s="6" t="inlineStr">
         <is>
-          <t>L213800AGGW734ZWU5A21</t>
+          <t>L213800TSOIHVEHXG1R50</t>
         </is>
       </c>
       <c r="C180" s="11" t="n">
-        <v>44846</v>
+        <v>44865</v>
       </c>
       <c r="D180" s="6" t="inlineStr">
         <is>
-          <t>ALPHA Bancassurance EE104 Σύνθετο Αμοιβαίο Κεφάλαιο</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME 5ετές - ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E180" s="6" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>BON</t>
         </is>
       </c>
       <c r="F180" s="6" t="inlineStr"/>
       <c r="G180" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H180" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I180" s="6" t="inlineStr">
         <is>
-          <t>IGRF000392008</t>
+          <t>IGRF000394004</t>
         </is>
       </c>
       <c r="J180" s="6" t="inlineStr"/>
@@ -10383,41 +10383,41 @@
     <row r="181" ht="36" customHeight="1">
       <c r="A181" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01072</t>
-        </is>
-      </c>
-      <c r="B181" s="4" t="inlineStr"/>
+          <t>EGRAK01016</t>
+        </is>
+      </c>
+      <c r="B181" s="4" t="inlineStr">
+        <is>
+          <t>L213800SI8DUTK7L3GV90</t>
+        </is>
+      </c>
       <c r="C181" s="13" t="n">
-        <v>44851</v>
+        <v>44865</v>
       </c>
       <c r="D181" s="4" t="inlineStr">
         <is>
-          <t>LSTONE CAPITAL I A.K.E.S.</t>
+          <t>ALPHA Prosperity I 90-140 Σύνθετο Αμοιβαίο Κεφάλαιο</t>
         </is>
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F181" s="4" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="F181" s="4" t="inlineStr"/>
       <c r="G181" s="4" t="inlineStr">
         <is>
-          <t>EGR801812106</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H181" s="4" t="inlineStr">
         <is>
-          <t>EGR801812106</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I181" s="4" t="inlineStr">
         <is>
-          <t>PEGRAK01072_SHR</t>
+          <t>IGRF000393006</t>
         </is>
       </c>
       <c r="J181" s="4" t="inlineStr"/>
@@ -10425,20 +10425,20 @@
     <row r="182" ht="36" customHeight="1">
       <c r="A182" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01013</t>
+          <t>EGRAK01014</t>
         </is>
       </c>
       <c r="B182" s="6" t="inlineStr">
         <is>
-          <t>L213800TSOIHVEHXG1R50</t>
+          <t>L2138006EZZNYFVPPRY45</t>
         </is>
       </c>
       <c r="C182" s="11" t="n">
-        <v>44865</v>
+        <v>44873</v>
       </c>
       <c r="D182" s="6" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME 5ετές - ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ΠΕΙΡΑΙΩΣ Α/Κ ΣΤΡΑΤ.ΤΑΚΤ.ΕΙΣΟΔΗΜ. 2027 ΟΜΟΛ.ΕΣΩΤ.</t>
         </is>
       </c>
       <c r="E182" s="6" t="inlineStr">
@@ -10449,17 +10449,17 @@
       <c r="F182" s="6" t="inlineStr"/>
       <c r="G182" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="H182" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I182" s="6" t="inlineStr">
         <is>
-          <t>IGRF000394004</t>
+          <t>IGRF000395001</t>
         </is>
       </c>
       <c r="J182" s="6" t="inlineStr"/>
@@ -10467,41 +10467,41 @@
     <row r="183" ht="36" customHeight="1">
       <c r="A183" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01016</t>
+          <t>EGRAK01017</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>L213800SI8DUTK7L3GV90</t>
+          <t>L213800SGCV8STMYYZ329</t>
         </is>
       </c>
       <c r="C183" s="13" t="n">
-        <v>44865</v>
+        <v>44879</v>
       </c>
       <c r="D183" s="4" t="inlineStr">
         <is>
-          <t>ALPHA Prosperity I 90-140 Σύνθετο Αμοιβαίο Κεφάλαιο</t>
+          <t>EUROBANK DIS GF TARGET MATURITY II ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>BON</t>
         </is>
       </c>
       <c r="F183" s="4" t="inlineStr"/>
       <c r="G183" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="H183" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="I183" s="4" t="inlineStr">
         <is>
-          <t>IGRF000393006</t>
+          <t>IGRF000397007</t>
         </is>
       </c>
       <c r="J183" s="4" t="inlineStr"/>
@@ -10509,20 +10509,20 @@
     <row r="184" ht="36" customHeight="1">
       <c r="A184" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01014</t>
+          <t>EGRAK01019</t>
         </is>
       </c>
       <c r="B184" s="6" t="inlineStr">
         <is>
-          <t>L2138006EZZNYFVPPRY45</t>
+          <t>L2138008KZSQHAWN76E32</t>
         </is>
       </c>
       <c r="C184" s="11" t="n">
-        <v>44873</v>
+        <v>44936</v>
       </c>
       <c r="D184" s="6" t="inlineStr">
         <is>
-          <t>ΠΕΙΡΑΙΩΣ Α/Κ ΣΤΡΑΤ.ΤΑΚΤ.ΕΙΣΟΔΗΜ. 2027 ΟΜΟΛ.ΕΣΩΤ.</t>
+          <t>ALPHA TARGET MATURITY I 2028 ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E184" s="6" t="inlineStr">
@@ -10533,17 +10533,17 @@
       <c r="F184" s="6" t="inlineStr"/>
       <c r="G184" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H184" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I184" s="6" t="inlineStr">
         <is>
-          <t>IGRF000395001</t>
+          <t>IGRF000408002</t>
         </is>
       </c>
       <c r="J184" s="6" t="inlineStr"/>
@@ -10551,41 +10551,41 @@
     <row r="185" ht="36" customHeight="1">
       <c r="A185" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01017</t>
-        </is>
-      </c>
-      <c r="B185" s="4" t="inlineStr">
-        <is>
-          <t>L213800SGCV8STMYYZ329</t>
-        </is>
-      </c>
+          <t>EGRAK01073</t>
+        </is>
+      </c>
+      <c r="B185" s="4" t="inlineStr"/>
       <c r="C185" s="13" t="n">
-        <v>44879</v>
+        <v>44944</v>
       </c>
       <c r="D185" s="4" t="inlineStr">
         <is>
-          <t>EUROBANK DIS GF TARGET MATURITY II ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>BIG PI VENTURES II Α.Κ.Ε.Σ.</t>
         </is>
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="F185" s="4" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F185" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G185" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGR801878297</t>
         </is>
       </c>
       <c r="H185" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGR801878297</t>
         </is>
       </c>
       <c r="I185" s="4" t="inlineStr">
         <is>
-          <t>IGRF000397007</t>
+          <t>PEGRAK01073_SHR</t>
         </is>
       </c>
       <c r="J185" s="4" t="inlineStr"/>
@@ -10593,20 +10593,20 @@
     <row r="186" ht="36" customHeight="1">
       <c r="A186" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01019</t>
+          <t>EGRAK01021</t>
         </is>
       </c>
       <c r="B186" s="6" t="inlineStr">
         <is>
-          <t>L2138008KZSQHAWN76E32</t>
+          <t>L2138005FSPX2A9EPPI88</t>
         </is>
       </c>
       <c r="C186" s="11" t="n">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="D186" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY I 2028 ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>GF TARGET MATURITY III ΟΜΟΛΟΓΙΑΚΟ ΕΣΩΤΕΡΙΚΟΥ</t>
         </is>
       </c>
       <c r="E186" s="6" t="inlineStr">
@@ -10617,17 +10617,17 @@
       <c r="F186" s="6" t="inlineStr"/>
       <c r="G186" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="H186" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="I186" s="6" t="inlineStr">
         <is>
-          <t>IGRF000408002</t>
+          <t>IGRF000411006</t>
         </is>
       </c>
       <c r="J186" s="6" t="inlineStr"/>
@@ -10635,41 +10635,41 @@
     <row r="187" ht="36" customHeight="1">
       <c r="A187" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01073</t>
-        </is>
-      </c>
-      <c r="B187" s="4" t="inlineStr"/>
+          <t>EGRAK01018</t>
+        </is>
+      </c>
+      <c r="B187" s="4" t="inlineStr">
+        <is>
+          <t>L213800G9APXPWDCEF671</t>
+        </is>
+      </c>
       <c r="C187" s="13" t="n">
-        <v>44944</v>
+        <v>44963</v>
       </c>
       <c r="D187" s="4" t="inlineStr">
         <is>
-          <t>BIG PI VENTURES II Α.Κ.Ε.Σ.</t>
+          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2028 ΕΥΡΩΠΑΙΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F187" s="4" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F187" s="4" t="inlineStr"/>
       <c r="G187" s="4" t="inlineStr">
         <is>
-          <t>EGR801878297</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="H187" s="4" t="inlineStr">
         <is>
-          <t>EGR801878297</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I187" s="4" t="inlineStr">
         <is>
-          <t>PEGRAK01073_SHR</t>
+          <t>IGRF000409000</t>
         </is>
       </c>
       <c r="J187" s="4" t="inlineStr"/>
@@ -10677,20 +10677,20 @@
     <row r="188" ht="36" customHeight="1">
       <c r="A188" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01021</t>
+          <t>EGRAK01020</t>
         </is>
       </c>
       <c r="B188" s="6" t="inlineStr">
         <is>
-          <t>L2138005FSPX2A9EPPI88</t>
+          <t>L213800OTUNOFT5R44I95</t>
         </is>
       </c>
       <c r="C188" s="11" t="n">
-        <v>44951</v>
+        <v>44971</v>
       </c>
       <c r="D188" s="6" t="inlineStr">
         <is>
-          <t>GF TARGET MATURITY III ΟΜΟΛΟΓΙΑΚΟ ΕΣΩΤΕΡΙΚΟΥ</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME ΙΙ 5ετές - ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E188" s="6" t="inlineStr">
@@ -10701,17 +10701,17 @@
       <c r="F188" s="6" t="inlineStr"/>
       <c r="G188" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H188" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I188" s="6" t="inlineStr">
         <is>
-          <t>IGRF000411006</t>
+          <t>IGRF000417003</t>
         </is>
       </c>
       <c r="J188" s="6" t="inlineStr"/>
@@ -10719,20 +10719,20 @@
     <row r="189" ht="36" customHeight="1">
       <c r="A189" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01018</t>
+          <t>EGRAK01023</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>L213800G9APXPWDCEF671</t>
+          <t>L213800RU4CI7O56XPZ07</t>
         </is>
       </c>
       <c r="C189" s="13" t="n">
-        <v>44963</v>
+        <v>44972</v>
       </c>
       <c r="D189" s="4" t="inlineStr">
         <is>
-          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2028 ΕΥΡΩΠΑΙΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>EUROBANK  GF TARGET MATURITY IV ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E189" s="4" t="inlineStr">
@@ -10743,17 +10743,17 @@
       <c r="F189" s="4" t="inlineStr"/>
       <c r="G189" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="H189" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="I189" s="4" t="inlineStr">
         <is>
-          <t>IGRF000409000</t>
+          <t>IGRF000412004</t>
         </is>
       </c>
       <c r="J189" s="4" t="inlineStr"/>
@@ -10761,20 +10761,20 @@
     <row r="190" ht="36" customHeight="1">
       <c r="A190" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01020</t>
+          <t>EGRAK01022</t>
         </is>
       </c>
       <c r="B190" s="6" t="inlineStr">
         <is>
-          <t>L213800OTUNOFT5R44I95</t>
+          <t>L213800OQOSVJBQFBI291</t>
         </is>
       </c>
       <c r="C190" s="11" t="n">
-        <v>44971</v>
+        <v>44977</v>
       </c>
       <c r="D190" s="6" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME ΙΙ 5ετές - ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>Optima greek income ομολογιακό εσωτερικού</t>
         </is>
       </c>
       <c r="E190" s="6" t="inlineStr">
@@ -10785,17 +10785,17 @@
       <c r="F190" s="6" t="inlineStr"/>
       <c r="G190" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="H190" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="I190" s="6" t="inlineStr">
         <is>
-          <t>IGRF000417003</t>
+          <t>IGRF000418001</t>
         </is>
       </c>
       <c r="J190" s="6" t="inlineStr"/>
@@ -10803,20 +10803,20 @@
     <row r="191" ht="36" customHeight="1">
       <c r="A191" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01023</t>
+          <t>EGRAK01026</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>L213800RU4CI7O56XPZ07</t>
+          <t>L213800QJP4FMIJRM1521</t>
         </is>
       </c>
       <c r="C191" s="13" t="n">
-        <v>44972</v>
+        <v>45005</v>
       </c>
       <c r="D191" s="4" t="inlineStr">
         <is>
-          <t>EUROBANK  GF TARGET MATURITY IV ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME ΙIΙ 5ετές - ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E191" s="4" t="inlineStr">
@@ -10827,17 +10827,17 @@
       <c r="F191" s="4" t="inlineStr"/>
       <c r="G191" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H191" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I191" s="4" t="inlineStr">
         <is>
-          <t>IGRF000412004</t>
+          <t>IGRF000423001</t>
         </is>
       </c>
       <c r="J191" s="4" t="inlineStr"/>
@@ -10845,20 +10845,20 @@
     <row r="192" ht="36" customHeight="1">
       <c r="A192" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01022</t>
+          <t>EGRAK01028</t>
         </is>
       </c>
       <c r="B192" s="6" t="inlineStr">
         <is>
-          <t>L213800OQOSVJBQFBI291</t>
+          <t>L213800W5CZ97NDTG1715</t>
         </is>
       </c>
       <c r="C192" s="11" t="n">
-        <v>44977</v>
+        <v>45019</v>
       </c>
       <c r="D192" s="6" t="inlineStr">
         <is>
-          <t>Optima greek income ομολογιακό εσωτερικού</t>
+          <t>ΠΕΙΡΑΙΩΣ Α/Κ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2029 ΕΥΡΩΠΑΪΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E192" s="6" t="inlineStr">
@@ -10869,17 +10869,17 @@
       <c r="F192" s="6" t="inlineStr"/>
       <c r="G192" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="H192" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I192" s="6" t="inlineStr">
         <is>
-          <t>IGRF000418001</t>
+          <t>IGRF000422003</t>
         </is>
       </c>
       <c r="J192" s="6" t="inlineStr"/>
@@ -10887,20 +10887,20 @@
     <row r="193" ht="36" customHeight="1">
       <c r="A193" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01026</t>
+          <t>EGRAK01048</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>L213800QJP4FMIJRM1521</t>
+          <t>L213800986AE336VYQP62</t>
         </is>
       </c>
       <c r="C193" s="13" t="n">
-        <v>45005</v>
+        <v>45019</v>
       </c>
       <c r="D193" s="4" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME ΙIΙ 5ετές - ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ΠΕΙΡΑΙΩΣ Α/Κ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2028 II ΕΥΡΩΠΑΪΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E193" s="4" t="inlineStr">
@@ -10911,17 +10911,17 @@
       <c r="F193" s="4" t="inlineStr"/>
       <c r="G193" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="H193" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I193" s="4" t="inlineStr">
         <is>
-          <t>IGRF000423001</t>
+          <t>IGRF000421005</t>
         </is>
       </c>
       <c r="J193" s="4" t="inlineStr"/>
@@ -10929,41 +10929,41 @@
     <row r="194" ht="36" customHeight="1">
       <c r="A194" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01028</t>
+          <t>EGRAK01029</t>
         </is>
       </c>
       <c r="B194" s="6" t="inlineStr">
         <is>
-          <t>L213800W5CZ97NDTG1715</t>
+          <t>L2138004PZA4D3246H893</t>
         </is>
       </c>
       <c r="C194" s="11" t="n">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="D194" s="6" t="inlineStr">
         <is>
-          <t>ΠΕΙΡΑΙΩΣ Α/Κ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2029 ΕΥΡΩΠΑΪΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>TRITON Maximizer Dynamic Fund of Funds</t>
         </is>
       </c>
       <c r="E194" s="6" t="inlineStr">
         <is>
-          <t>BON</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="F194" s="6" t="inlineStr"/>
       <c r="G194" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC013</t>
         </is>
       </c>
       <c r="H194" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC013</t>
         </is>
       </c>
       <c r="I194" s="6" t="inlineStr">
         <is>
-          <t>IGRF000422003</t>
+          <t>IGRF000430006</t>
         </is>
       </c>
       <c r="J194" s="6" t="inlineStr"/>
@@ -10971,41 +10971,41 @@
     <row r="195" ht="36" customHeight="1">
       <c r="A195" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01048</t>
+          <t>EGRAK01030</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>L213800986AE336VYQP62</t>
+          <t>L213800JSMY372Z6VJH89</t>
         </is>
       </c>
       <c r="C195" s="13" t="n">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="D195" s="4" t="inlineStr">
         <is>
-          <t>ΠΕΙΡΑΙΩΣ Α/Κ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2028 II ΕΥΡΩΠΑΪΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ΤRΙΤΟΝ Maximizer Balanced Fund of Funds</t>
         </is>
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>BON</t>
+          <t>MIX</t>
         </is>
       </c>
       <c r="F195" s="4" t="inlineStr"/>
       <c r="G195" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC013</t>
         </is>
       </c>
       <c r="H195" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC013</t>
         </is>
       </c>
       <c r="I195" s="4" t="inlineStr">
         <is>
-          <t>IGRF000421005</t>
+          <t>IGRF000428000</t>
         </is>
       </c>
       <c r="J195" s="4" t="inlineStr"/>
@@ -11013,12 +11013,12 @@
     <row r="196" ht="36" customHeight="1">
       <c r="A196" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01029</t>
+          <t>EGRAK01031</t>
         </is>
       </c>
       <c r="B196" s="6" t="inlineStr">
         <is>
-          <t>L2138004PZA4D3246H893</t>
+          <t>L213800JUZ978IWK8V472</t>
         </is>
       </c>
       <c r="C196" s="11" t="n">
@@ -11026,12 +11026,12 @@
       </c>
       <c r="D196" s="6" t="inlineStr">
         <is>
-          <t>TRITON Maximizer Dynamic Fund of Funds</t>
+          <t>ΤRΙΤΟΝ Maximizer Conservative Fund of Funds</t>
         </is>
       </c>
       <c r="E196" s="6" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>BON</t>
         </is>
       </c>
       <c r="F196" s="6" t="inlineStr"/>
@@ -11047,7 +11047,7 @@
       </c>
       <c r="I196" s="6" t="inlineStr">
         <is>
-          <t>IGRF000430006</t>
+          <t>IGRF000426004</t>
         </is>
       </c>
       <c r="J196" s="6" t="inlineStr"/>
@@ -11055,41 +11055,41 @@
     <row r="197" ht="36" customHeight="1">
       <c r="A197" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01030</t>
+          <t>EGRAK01032</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>L213800JSMY372Z6VJH89</t>
+          <t>L2138006OYLZ2DL6JR802</t>
         </is>
       </c>
       <c r="C197" s="13" t="n">
-        <v>45021</v>
+        <v>45044</v>
       </c>
       <c r="D197" s="4" t="inlineStr">
         <is>
-          <t>ΤRΙΤΟΝ Maximizer Balanced Fund of Funds</t>
+          <t>ALPHA BANCASSURANCE EE105 ΣΥΝΘΕΤΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
         </is>
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>MIX</t>
+          <t>OTH</t>
         </is>
       </c>
       <c r="F197" s="4" t="inlineStr"/>
       <c r="G197" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H197" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I197" s="4" t="inlineStr">
         <is>
-          <t>IGRF000428000</t>
+          <t>IGRF000432002</t>
         </is>
       </c>
       <c r="J197" s="4" t="inlineStr"/>
@@ -11097,20 +11097,20 @@
     <row r="198" ht="36" customHeight="1">
       <c r="A198" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01031</t>
+          <t>EGRAK01033</t>
         </is>
       </c>
       <c r="B198" s="6" t="inlineStr">
         <is>
-          <t>L213800JUZ978IWK8V472</t>
+          <t>L2138007NEDIYH3A6XC85</t>
         </is>
       </c>
       <c r="C198" s="11" t="n">
-        <v>45021</v>
+        <v>45058</v>
       </c>
       <c r="D198" s="6" t="inlineStr">
         <is>
-          <t>ΤRΙΤΟΝ Maximizer Conservative Fund of Funds</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME IV 5ετές - ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E198" s="6" t="inlineStr">
@@ -11121,17 +11121,17 @@
       <c r="F198" s="6" t="inlineStr"/>
       <c r="G198" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H198" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I198" s="6" t="inlineStr">
         <is>
-          <t>IGRF000426004</t>
+          <t>IGRF000433000</t>
         </is>
       </c>
       <c r="J198" s="6" t="inlineStr"/>
@@ -11139,41 +11139,45 @@
     <row r="199" ht="36" customHeight="1">
       <c r="A199" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01032</t>
+          <t>EGRAK01065</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>L2138006OYLZ2DL6JR802</t>
+          <t>L9845007DB3RB2B4DN624</t>
         </is>
       </c>
       <c r="C199" s="13" t="n">
-        <v>45044</v>
+        <v>45061</v>
       </c>
       <c r="D199" s="4" t="inlineStr">
         <is>
-          <t>ALPHA BANCASSURANCE EE105 ΣΥΝΘΕΤΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+          <t>METAVALLON II Α.Κ.Ε.Σ.</t>
         </is>
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>OTH</t>
-        </is>
-      </c>
-      <c r="F199" s="4" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F199" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G199" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGR800903737</t>
         </is>
       </c>
       <c r="H199" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGR800903737</t>
         </is>
       </c>
       <c r="I199" s="4" t="inlineStr">
         <is>
-          <t>IGRF000432002</t>
+          <t>PEGRAK01065_SHR</t>
         </is>
       </c>
       <c r="J199" s="4" t="inlineStr"/>
@@ -11181,20 +11185,20 @@
     <row r="200" ht="36" customHeight="1">
       <c r="A200" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01033</t>
+          <t>EGRAK01034</t>
         </is>
       </c>
       <c r="B200" s="6" t="inlineStr">
         <is>
-          <t>L2138007NEDIYH3A6XC85</t>
+          <t>L213800FAL8TJ2PPL9P89</t>
         </is>
       </c>
       <c r="C200" s="11" t="n">
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="D200" s="6" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME IV 5ετές - ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME USD 3ετές - ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E200" s="6" t="inlineStr">
@@ -11215,7 +11219,7 @@
       </c>
       <c r="I200" s="6" t="inlineStr">
         <is>
-          <t>IGRF000433000</t>
+          <t>IGRF000434008</t>
         </is>
       </c>
       <c r="J200" s="6" t="inlineStr"/>
@@ -11223,45 +11227,41 @@
     <row r="201" ht="36" customHeight="1">
       <c r="A201" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01065</t>
+          <t>EGRAK01035</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>L9845007DB3RB2B4DN624</t>
+          <t>L213800AE444K4X9JHC03</t>
         </is>
       </c>
       <c r="C201" s="13" t="n">
-        <v>45061</v>
+        <v>45070</v>
       </c>
       <c r="D201" s="4" t="inlineStr">
         <is>
-          <t>METAVALLON II Α.Κ.Ε.Σ.</t>
+          <t>EUROBANK GF TARGET MATURITY VI ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F201" s="4" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F201" s="4" t="inlineStr"/>
       <c r="G201" s="4" t="inlineStr">
         <is>
-          <t>EGR800903737</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="H201" s="4" t="inlineStr">
         <is>
-          <t>EGR800903737</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="I201" s="4" t="inlineStr">
         <is>
-          <t>PEGRAK01065_SHR</t>
+          <t>IGRF000437001</t>
         </is>
       </c>
       <c r="J201" s="4" t="inlineStr"/>
@@ -11269,41 +11269,41 @@
     <row r="202" ht="36" customHeight="1">
       <c r="A202" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01034</t>
+          <t>EGRAK01037</t>
         </is>
       </c>
       <c r="B202" s="6" t="inlineStr">
         <is>
-          <t>L213800FAL8TJ2PPL9P89</t>
+          <t>L213800N9U1VXSJKJW535</t>
         </is>
       </c>
       <c r="C202" s="11" t="n">
-        <v>45065</v>
+        <v>45078</v>
       </c>
       <c r="D202" s="6" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME USD 3ετές - ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>Eurobank  GF Top 30 Select Σύνθετο</t>
         </is>
       </c>
       <c r="E202" s="6" t="inlineStr">
         <is>
-          <t>BON</t>
+          <t>OTH</t>
         </is>
       </c>
       <c r="F202" s="6" t="inlineStr"/>
       <c r="G202" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="H202" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="I202" s="6" t="inlineStr">
         <is>
-          <t>IGRF000434008</t>
+          <t>IGRF000441003</t>
         </is>
       </c>
       <c r="J202" s="6" t="inlineStr"/>
@@ -11311,20 +11311,20 @@
     <row r="203" ht="36" customHeight="1">
       <c r="A203" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01035</t>
+          <t>EGRAK01038</t>
         </is>
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t>L213800AE444K4X9JHC03</t>
+          <t>L213800O54I619SIPQT46</t>
         </is>
       </c>
       <c r="C203" s="13" t="n">
-        <v>45070</v>
+        <v>45078</v>
       </c>
       <c r="D203" s="4" t="inlineStr">
         <is>
-          <t>EUROBANK GF TARGET MATURITY VI ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>Eurobank GF Target Maturity V Ομολογιακό</t>
         </is>
       </c>
       <c r="E203" s="4" t="inlineStr">
@@ -11345,7 +11345,7 @@
       </c>
       <c r="I203" s="4" t="inlineStr">
         <is>
-          <t>IGRF000437001</t>
+          <t>IGRF000436003</t>
         </is>
       </c>
       <c r="J203" s="4" t="inlineStr"/>
@@ -11353,41 +11353,41 @@
     <row r="204" ht="36" customHeight="1">
       <c r="A204" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01037</t>
+          <t>EGRAK01039</t>
         </is>
       </c>
       <c r="B204" s="6" t="inlineStr">
         <is>
-          <t>L213800N9U1VXSJKJW535</t>
+          <t>L2138001PB8IKORR1PL23</t>
         </is>
       </c>
       <c r="C204" s="11" t="n">
-        <v>45078</v>
+        <v>45083</v>
       </c>
       <c r="D204" s="6" t="inlineStr">
         <is>
-          <t>Eurobank  GF Top 30 Select Σύνθετο</t>
+          <t>ΑLΡΗΑ ΜΕLLΟΝ ΙΙ ΜΙΚΤΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
         </is>
       </c>
       <c r="E204" s="6" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>MIX</t>
         </is>
       </c>
       <c r="F204" s="6" t="inlineStr"/>
       <c r="G204" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H204" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I204" s="6" t="inlineStr">
         <is>
-          <t>IGRF000441003</t>
+          <t>IGRF000440005</t>
         </is>
       </c>
       <c r="J204" s="6" t="inlineStr"/>
@@ -11395,20 +11395,20 @@
     <row r="205" ht="36" customHeight="1">
       <c r="A205" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01038</t>
+          <t>EGRAK01041</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>L213800O54I619SIPQT46</t>
+          <t>L2138008KFVPOWZOI8984</t>
         </is>
       </c>
       <c r="C205" s="13" t="n">
-        <v>45078</v>
+        <v>45083</v>
       </c>
       <c r="D205" s="4" t="inlineStr">
         <is>
-          <t>Eurobank GF Target Maturity V Ομολογιακό</t>
+          <t>ALPHA TARGET MATURITY IΙΙ 2028 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
         </is>
       </c>
       <c r="E205" s="4" t="inlineStr">
@@ -11419,17 +11419,17 @@
       <c r="F205" s="4" t="inlineStr"/>
       <c r="G205" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H205" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I205" s="4" t="inlineStr">
         <is>
-          <t>IGRF000436003</t>
+          <t>IGRF000439007</t>
         </is>
       </c>
       <c r="J205" s="4" t="inlineStr"/>
@@ -11437,41 +11437,41 @@
     <row r="206" ht="36" customHeight="1">
       <c r="A206" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01039</t>
+          <t>EGRAK01036</t>
         </is>
       </c>
       <c r="B206" s="6" t="inlineStr">
         <is>
-          <t>L2138001PB8IKORR1PL23</t>
+          <t>L213800CJ7CND5GIXFH91</t>
         </is>
       </c>
       <c r="C206" s="11" t="n">
-        <v>45083</v>
+        <v>45089</v>
       </c>
       <c r="D206" s="6" t="inlineStr">
         <is>
-          <t>ΑLΡΗΑ ΜΕLLΟΝ ΙΙ ΜΙΚΤΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+          <t>Optima income ομολογιακό εσωτερικού</t>
         </is>
       </c>
       <c r="E206" s="6" t="inlineStr">
         <is>
-          <t>MIX</t>
+          <t>BON</t>
         </is>
       </c>
       <c r="F206" s="6" t="inlineStr"/>
       <c r="G206" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="H206" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="I206" s="6" t="inlineStr">
         <is>
-          <t>IGRF000440005</t>
+          <t>IGRF000443009</t>
         </is>
       </c>
       <c r="J206" s="6" t="inlineStr"/>
@@ -11479,41 +11479,41 @@
     <row r="207" ht="36" customHeight="1">
       <c r="A207" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01041</t>
-        </is>
-      </c>
-      <c r="B207" s="4" t="inlineStr">
-        <is>
-          <t>L2138008KFVPOWZOI8984</t>
-        </is>
-      </c>
+          <t>EGRAK01071</t>
+        </is>
+      </c>
+      <c r="B207" s="4" t="inlineStr"/>
       <c r="C207" s="13" t="n">
-        <v>45083</v>
+        <v>45105</v>
       </c>
       <c r="D207" s="4" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY IΙΙ 2028 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+          <t>UNIFUND II</t>
         </is>
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="F207" s="4" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F207" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G207" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGR800911079</t>
         </is>
       </c>
       <c r="H207" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGR800911079</t>
         </is>
       </c>
       <c r="I207" s="4" t="inlineStr">
         <is>
-          <t>IGRF000439007</t>
+          <t>PEGRAK01071_SHR</t>
         </is>
       </c>
       <c r="J207" s="4" t="inlineStr"/>
@@ -11521,20 +11521,20 @@
     <row r="208" ht="36" customHeight="1">
       <c r="A208" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01036</t>
+          <t>EGRAK01040</t>
         </is>
       </c>
       <c r="B208" s="6" t="inlineStr">
         <is>
-          <t>L213800CJ7CND5GIXFH91</t>
+          <t>L2138008A82R68XABP834</t>
         </is>
       </c>
       <c r="C208" s="11" t="n">
-        <v>45089</v>
+        <v>45110</v>
       </c>
       <c r="D208" s="6" t="inlineStr">
         <is>
-          <t>Optima income ομολογιακό εσωτερικού</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME 18months - ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E208" s="6" t="inlineStr">
@@ -11545,17 +11545,17 @@
       <c r="F208" s="6" t="inlineStr"/>
       <c r="G208" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H208" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I208" s="6" t="inlineStr">
         <is>
-          <t>IGRF000443009</t>
+          <t>IGRF000448008</t>
         </is>
       </c>
       <c r="J208" s="6" t="inlineStr"/>
@@ -11563,41 +11563,41 @@
     <row r="209" ht="36" customHeight="1">
       <c r="A209" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01071</t>
-        </is>
-      </c>
-      <c r="B209" s="4" t="inlineStr"/>
+          <t>EGRAK01043</t>
+        </is>
+      </c>
+      <c r="B209" s="4" t="inlineStr">
+        <is>
+          <t>L213800E8ALTAS7F5O817</t>
+        </is>
+      </c>
       <c r="C209" s="13" t="n">
-        <v>45105</v>
+        <v>45114</v>
       </c>
       <c r="D209" s="4" t="inlineStr">
         <is>
-          <t>UNIFUND II</t>
+          <t>EUROBANK GF HELLAS INVEST ΜΙΚΤΟ ΕΣΩΤΕΡΙΚΟΥ</t>
         </is>
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F209" s="4" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>MIX</t>
+        </is>
+      </c>
+      <c r="F209" s="4" t="inlineStr"/>
       <c r="G209" s="4" t="inlineStr">
         <is>
-          <t>EGR800911079</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="H209" s="4" t="inlineStr">
         <is>
-          <t>EGR800911079</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="I209" s="4" t="inlineStr">
         <is>
-          <t>PEGRAK01071_SHR</t>
+          <t>IGRF000447000</t>
         </is>
       </c>
       <c r="J209" s="4" t="inlineStr"/>
@@ -11605,41 +11605,37 @@
     <row r="210" ht="36" customHeight="1">
       <c r="A210" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01040</t>
-        </is>
-      </c>
-      <c r="B210" s="6" t="inlineStr">
-        <is>
-          <t>L2138008A82R68XABP834</t>
-        </is>
-      </c>
+          <t>EGRAK01075</t>
+        </is>
+      </c>
+      <c r="B210" s="6" t="inlineStr"/>
       <c r="C210" s="11" t="n">
-        <v>45110</v>
+        <v>45121</v>
       </c>
       <c r="D210" s="6" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME 18months - ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>SPOROS PLATFORM AKES</t>
         </is>
       </c>
       <c r="E210" s="6" t="inlineStr">
         <is>
-          <t>BON</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="F210" s="6" t="inlineStr"/>
       <c r="G210" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGR802047322</t>
         </is>
       </c>
       <c r="H210" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGR802047322</t>
         </is>
       </c>
       <c r="I210" s="6" t="inlineStr">
         <is>
-          <t>IGRF000448008</t>
+          <t>PEGRAK01075_SHR</t>
         </is>
       </c>
       <c r="J210" s="6" t="inlineStr"/>
@@ -11647,41 +11643,37 @@
     <row r="211" ht="36" customHeight="1">
       <c r="A211" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01043</t>
-        </is>
-      </c>
-      <c r="B211" s="4" t="inlineStr">
-        <is>
-          <t>L213800E8ALTAS7F5O817</t>
-        </is>
-      </c>
+          <t>EGRAK01074</t>
+        </is>
+      </c>
+      <c r="B211" s="4" t="inlineStr"/>
       <c r="C211" s="13" t="n">
-        <v>45114</v>
+        <v>45133</v>
       </c>
       <c r="D211" s="4" t="inlineStr">
         <is>
-          <t>EUROBANK GF HELLAS INVEST ΜΙΚΤΟ ΕΣΩΤΕΡΙΚΟΥ</t>
+          <t>OIKOS FUND  Α.Κ.Ε.Σ.</t>
         </is>
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>MIX</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="F211" s="4" t="inlineStr"/>
       <c r="G211" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGR802177269</t>
         </is>
       </c>
       <c r="H211" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGR802177269</t>
         </is>
       </c>
       <c r="I211" s="4" t="inlineStr">
         <is>
-          <t>IGRF000447000</t>
+          <t>PEGRAK01074_SHR</t>
         </is>
       </c>
       <c r="J211" s="4" t="inlineStr"/>
@@ -11689,37 +11681,41 @@
     <row r="212" ht="36" customHeight="1">
       <c r="A212" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01075</t>
-        </is>
-      </c>
-      <c r="B212" s="6" t="inlineStr"/>
+          <t>EGRAK01042</t>
+        </is>
+      </c>
+      <c r="B212" s="6" t="inlineStr">
+        <is>
+          <t>L213800ELB4WFZK2XXH23</t>
+        </is>
+      </c>
       <c r="C212" s="11" t="n">
-        <v>45121</v>
+        <v>45138</v>
       </c>
       <c r="D212" s="6" t="inlineStr">
         <is>
-          <t>SPOROS PLATFORM AKES</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME V 5ετές - ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E212" s="6" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>BON</t>
         </is>
       </c>
       <c r="F212" s="6" t="inlineStr"/>
       <c r="G212" s="6" t="inlineStr">
         <is>
-          <t>EGR802047322</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H212" s="6" t="inlineStr">
         <is>
-          <t>EGR802047322</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I212" s="6" t="inlineStr">
         <is>
-          <t>PEGRAK01075_SHR</t>
+          <t>IGRF000449006</t>
         </is>
       </c>
       <c r="J212" s="6" t="inlineStr"/>
@@ -11727,37 +11723,41 @@
     <row r="213" ht="36" customHeight="1">
       <c r="A213" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01074</t>
-        </is>
-      </c>
-      <c r="B213" s="4" t="inlineStr"/>
+          <t>EGRAK01044</t>
+        </is>
+      </c>
+      <c r="B213" s="4" t="inlineStr">
+        <is>
+          <t>L213800RWWVDLLX7LLP70</t>
+        </is>
+      </c>
       <c r="C213" s="13" t="n">
-        <v>45133</v>
+        <v>45146</v>
       </c>
       <c r="D213" s="4" t="inlineStr">
         <is>
-          <t>OIKOS FUND  Α.Κ.Ε.Σ.</t>
+          <t>ΠΕΙΡΑΙΩΣ Α/Κ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2026 ΕΥΡΩΠΑΪΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>BON</t>
         </is>
       </c>
       <c r="F213" s="4" t="inlineStr"/>
       <c r="G213" s="4" t="inlineStr">
         <is>
-          <t>EGR802177269</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="H213" s="4" t="inlineStr">
         <is>
-          <t>EGR802177269</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I213" s="4" t="inlineStr">
         <is>
-          <t>PEGRAK01074_SHR</t>
+          <t>IGRF000450004</t>
         </is>
       </c>
       <c r="J213" s="4" t="inlineStr"/>
@@ -11765,20 +11765,20 @@
     <row r="214" ht="36" customHeight="1">
       <c r="A214" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01042</t>
+          <t>EGRAK01045</t>
         </is>
       </c>
       <c r="B214" s="6" t="inlineStr">
         <is>
-          <t>L213800ELB4WFZK2XXH23</t>
+          <t>L213800EB3WI4CL7GAE48</t>
         </is>
       </c>
       <c r="C214" s="11" t="n">
-        <v>45138</v>
+        <v>45166</v>
       </c>
       <c r="D214" s="6" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME V 5ετές - ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ALPHA TARGET MATURITY IV 2028 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
         </is>
       </c>
       <c r="E214" s="6" t="inlineStr">
@@ -11789,17 +11789,17 @@
       <c r="F214" s="6" t="inlineStr"/>
       <c r="G214" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H214" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I214" s="6" t="inlineStr">
         <is>
-          <t>IGRF000449006</t>
+          <t>IGRF000451002</t>
         </is>
       </c>
       <c r="J214" s="6" t="inlineStr"/>
@@ -11807,20 +11807,20 @@
     <row r="215" ht="36" customHeight="1">
       <c r="A215" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01044</t>
+          <t>EGRAK01049</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>L213800RWWVDLLX7LLP70</t>
+          <t>L213800XML1JT6Y7RV779</t>
         </is>
       </c>
       <c r="C215" s="13" t="n">
-        <v>45146</v>
+        <v>45173</v>
       </c>
       <c r="D215" s="4" t="inlineStr">
         <is>
-          <t>ΠΕΙΡΑΙΩΣ Α/Κ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2026 ΕΥΡΩΠΑΪΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME ΙΙ 18months - ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E215" s="4" t="inlineStr">
@@ -11831,17 +11831,17 @@
       <c r="F215" s="4" t="inlineStr"/>
       <c r="G215" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H215" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I215" s="4" t="inlineStr">
         <is>
-          <t>IGRF000450004</t>
+          <t>IGRF000454006</t>
         </is>
       </c>
       <c r="J215" s="4" t="inlineStr"/>
@@ -11849,25 +11849,25 @@
     <row r="216" ht="36" customHeight="1">
       <c r="A216" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01045</t>
+          <t>EGRAK01050</t>
         </is>
       </c>
       <c r="B216" s="6" t="inlineStr">
         <is>
-          <t>L213800EB3WI4CL7GAE48</t>
+          <t>L21380084GW7DILC1P263</t>
         </is>
       </c>
       <c r="C216" s="11" t="n">
-        <v>45166</v>
+        <v>45181</v>
       </c>
       <c r="D216" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY IV 2028 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+          <t>ALPHA Bancassurance EE106 Σύνθετο Αμοιβαίο Κεφάλαιο</t>
         </is>
       </c>
       <c r="E216" s="6" t="inlineStr">
         <is>
-          <t>BON</t>
+          <t>OTH</t>
         </is>
       </c>
       <c r="F216" s="6" t="inlineStr"/>
@@ -11883,7 +11883,7 @@
       </c>
       <c r="I216" s="6" t="inlineStr">
         <is>
-          <t>IGRF000451002</t>
+          <t>IGRF000453008</t>
         </is>
       </c>
       <c r="J216" s="6" t="inlineStr"/>
@@ -11891,20 +11891,20 @@
     <row r="217" ht="36" customHeight="1">
       <c r="A217" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01049</t>
+          <t>EGRAK01047</t>
         </is>
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>L213800XML1JT6Y7RV779</t>
+          <t>L2138001S3W5HRLAY3A59</t>
         </is>
       </c>
       <c r="C217" s="13" t="n">
-        <v>45173</v>
+        <v>45187</v>
       </c>
       <c r="D217" s="4" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME ΙΙ 18months - ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>3Κ/Τράπεζα Αττικής Premier Income Ομολογιακό</t>
         </is>
       </c>
       <c r="E217" s="4" t="inlineStr">
@@ -11915,17 +11915,17 @@
       <c r="F217" s="4" t="inlineStr"/>
       <c r="G217" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC014</t>
         </is>
       </c>
       <c r="H217" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC014</t>
         </is>
       </c>
       <c r="I217" s="4" t="inlineStr">
         <is>
-          <t>IGRF000454006</t>
+          <t>IGRF000455003</t>
         </is>
       </c>
       <c r="J217" s="4" t="inlineStr"/>
@@ -11933,41 +11933,37 @@
     <row r="218" ht="36" customHeight="1">
       <c r="A218" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01050</t>
-        </is>
-      </c>
-      <c r="B218" s="6" t="inlineStr">
-        <is>
-          <t>L21380084GW7DILC1P263</t>
-        </is>
-      </c>
+          <t>EGRAK01076</t>
+        </is>
+      </c>
+      <c r="B218" s="6" t="inlineStr"/>
       <c r="C218" s="11" t="n">
-        <v>45181</v>
+        <v>45219</v>
       </c>
       <c r="D218" s="6" t="inlineStr">
         <is>
-          <t>ALPHA Bancassurance EE106 Σύνθετο Αμοιβαίο Κεφάλαιο</t>
+          <t>FOS CAPITAL FUND</t>
         </is>
       </c>
       <c r="E218" s="6" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="F218" s="6" t="inlineStr"/>
       <c r="G218" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGR802071555</t>
         </is>
       </c>
       <c r="H218" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGR802071555</t>
         </is>
       </c>
       <c r="I218" s="6" t="inlineStr">
         <is>
-          <t>IGRF000453008</t>
+          <t>PEGRAK01076_SHR</t>
         </is>
       </c>
       <c r="J218" s="6" t="inlineStr"/>
@@ -11975,20 +11971,20 @@
     <row r="219" ht="36" customHeight="1">
       <c r="A219" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01047</t>
+          <t>EGRAK01051</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>L2138001S3W5HRLAY3A59</t>
+          <t>L213800NDCVVBI4F3U425</t>
         </is>
       </c>
       <c r="C219" s="13" t="n">
-        <v>45187</v>
+        <v>45231</v>
       </c>
       <c r="D219" s="4" t="inlineStr">
         <is>
-          <t>3Κ/Τράπεζα Αττικής Premier Income Ομολογιακό</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME 24months - ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E219" s="4" t="inlineStr">
@@ -11999,17 +11995,17 @@
       <c r="F219" s="4" t="inlineStr"/>
       <c r="G219" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H219" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I219" s="4" t="inlineStr">
         <is>
-          <t>IGRF000455003</t>
+          <t>IGRF000457009</t>
         </is>
       </c>
       <c r="J219" s="4" t="inlineStr"/>
@@ -12017,37 +12013,41 @@
     <row r="220" ht="36" customHeight="1">
       <c r="A220" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01076</t>
-        </is>
-      </c>
-      <c r="B220" s="6" t="inlineStr"/>
+          <t>EGRAK01052</t>
+        </is>
+      </c>
+      <c r="B220" s="6" t="inlineStr">
+        <is>
+          <t>L213800ZBDQCJAM63QP38</t>
+        </is>
+      </c>
       <c r="C220" s="11" t="n">
-        <v>45219</v>
+        <v>45236</v>
       </c>
       <c r="D220" s="6" t="inlineStr">
         <is>
-          <t>FOS CAPITAL FUND</t>
+          <t>ALPHA TARGET MATURITY V 2028 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
         </is>
       </c>
       <c r="E220" s="6" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>BON</t>
         </is>
       </c>
       <c r="F220" s="6" t="inlineStr"/>
       <c r="G220" s="6" t="inlineStr">
         <is>
-          <t>EGR802071555</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H220" s="6" t="inlineStr">
         <is>
-          <t>EGR802071555</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I220" s="6" t="inlineStr">
         <is>
-          <t>PEGRAK01076_SHR</t>
+          <t>IGRF000459005</t>
         </is>
       </c>
       <c r="J220" s="6" t="inlineStr"/>
@@ -12055,20 +12055,20 @@
     <row r="221" ht="36" customHeight="1">
       <c r="A221" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01051</t>
+          <t>EGRAK01053</t>
         </is>
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t>L213800NDCVVBI4F3U425</t>
+          <t>L213800D1EMMODY9VQD31</t>
         </is>
       </c>
       <c r="C221" s="13" t="n">
-        <v>45231</v>
+        <v>45236</v>
       </c>
       <c r="D221" s="4" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME 24months - ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΕΙΣΟΔΗΜΑΤΟΣ 2025 ΕΥΡΩΠΑΙΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E221" s="4" t="inlineStr">
@@ -12079,17 +12079,17 @@
       <c r="F221" s="4" t="inlineStr"/>
       <c r="G221" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="H221" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I221" s="4" t="inlineStr">
         <is>
-          <t>IGRF000457009</t>
+          <t>IGRF000460003</t>
         </is>
       </c>
       <c r="J221" s="4" t="inlineStr"/>
@@ -12097,20 +12097,20 @@
     <row r="222" ht="36" customHeight="1">
       <c r="A222" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01052</t>
+          <t>EGRAK01054</t>
         </is>
       </c>
       <c r="B222" s="6" t="inlineStr">
         <is>
-          <t>L213800ZBDQCJAM63QP38</t>
+          <t>L213800LT9ATVL616CG80</t>
         </is>
       </c>
       <c r="C222" s="11" t="n">
-        <v>45236</v>
+        <v>45252</v>
       </c>
       <c r="D222" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY V 2028 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+          <t>Greek Fund Target Maturity VII Ομολογιακό</t>
         </is>
       </c>
       <c r="E222" s="6" t="inlineStr">
@@ -12121,17 +12121,17 @@
       <c r="F222" s="6" t="inlineStr"/>
       <c r="G222" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="H222" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC010</t>
         </is>
       </c>
       <c r="I222" s="6" t="inlineStr">
         <is>
-          <t>IGRF000459005</t>
+          <t>IGRF000462009</t>
         </is>
       </c>
       <c r="J222" s="6" t="inlineStr"/>
@@ -12139,20 +12139,20 @@
     <row r="223" ht="36" customHeight="1">
       <c r="A223" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01053</t>
+          <t>EGRAK01056</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t>L213800D1EMMODY9VQD31</t>
+          <t>L2138004SB7AMRNG3HY63</t>
         </is>
       </c>
       <c r="C223" s="13" t="n">
-        <v>45236</v>
+        <v>45268</v>
       </c>
       <c r="D223" s="4" t="inlineStr">
         <is>
-          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΕΙΣΟΔΗΜΑΤΟΣ 2025 ΕΥΡΩΠΑΙΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME ΙIΙ 18months - ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E223" s="4" t="inlineStr">
@@ -12163,17 +12163,17 @@
       <c r="F223" s="4" t="inlineStr"/>
       <c r="G223" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H223" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I223" s="4" t="inlineStr">
         <is>
-          <t>IGRF000460003</t>
+          <t>IGRF000464005</t>
         </is>
       </c>
       <c r="J223" s="4" t="inlineStr"/>
@@ -12181,20 +12181,20 @@
     <row r="224" ht="36" customHeight="1">
       <c r="A224" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01054</t>
+          <t>EGRAK01055</t>
         </is>
       </c>
       <c r="B224" s="6" t="inlineStr">
         <is>
-          <t>L213800LT9ATVL616CG80</t>
+          <t>L213800QJG8THVMTXHQ37</t>
         </is>
       </c>
       <c r="C224" s="11" t="n">
-        <v>45252</v>
+        <v>45282</v>
       </c>
       <c r="D224" s="6" t="inlineStr">
         <is>
-          <t>Greek Fund Target Maturity VII Ομολογιακό</t>
+          <t>ALPHA TARGET MATURITY VI 2026 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
         </is>
       </c>
       <c r="E224" s="6" t="inlineStr">
@@ -12205,17 +12205,17 @@
       <c r="F224" s="6" t="inlineStr"/>
       <c r="G224" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H224" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC010</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I224" s="6" t="inlineStr">
         <is>
-          <t>IGRF000462009</t>
+          <t>IGRF000466000</t>
         </is>
       </c>
       <c r="J224" s="6" t="inlineStr"/>
@@ -12223,41 +12223,37 @@
     <row r="225" ht="36" customHeight="1">
       <c r="A225" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01056</t>
+          <t>EGRAEEAP012</t>
         </is>
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t>L2138004SB7AMRNG3HY63</t>
+          <t>TGR996723817, BGR174106158000</t>
         </is>
       </c>
       <c r="C225" s="13" t="n">
-        <v>45268</v>
+        <v>45287</v>
       </c>
       <c r="D225" s="4" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME ΙIΙ 18months - ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ ΧΑΝΙΩΝ</t>
         </is>
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>BON</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="F225" s="4" t="inlineStr"/>
-      <c r="G225" s="4" t="inlineStr">
-        <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
+      <c r="G225" s="4" t="inlineStr"/>
       <c r="H225" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRAEEAP012</t>
         </is>
       </c>
       <c r="I225" s="4" t="inlineStr">
         <is>
-          <t>IGRF000464005</t>
+          <t>PEGRAEEAP012_SHR</t>
         </is>
       </c>
       <c r="J225" s="4" t="inlineStr"/>
@@ -12265,20 +12261,20 @@
     <row r="226" ht="36" customHeight="1">
       <c r="A226" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01055</t>
+          <t>EGRAK01081</t>
         </is>
       </c>
       <c r="B226" s="6" t="inlineStr">
         <is>
-          <t>L213800QJG8THVMTXHQ37</t>
+          <t>L213800TMXNS7PAP2LQ63</t>
         </is>
       </c>
       <c r="C226" s="11" t="n">
-        <v>45282</v>
+        <v>45307</v>
       </c>
       <c r="D226" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY VI 2026 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME  II 24months - ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E226" s="6" t="inlineStr">
@@ -12289,17 +12285,17 @@
       <c r="F226" s="6" t="inlineStr"/>
       <c r="G226" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H226" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I226" s="6" t="inlineStr">
         <is>
-          <t>IGRF000466000</t>
+          <t>IGRF000472008</t>
         </is>
       </c>
       <c r="J226" s="6" t="inlineStr"/>
@@ -12307,37 +12303,41 @@
     <row r="227" ht="36" customHeight="1">
       <c r="A227" s="12" t="inlineStr">
         <is>
-          <t>EGRAEEAP012</t>
+          <t>EGRAK01077</t>
         </is>
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t>TGR996723817, BGR174106158000</t>
+          <t>L213800YCBOEO8SGH4D17</t>
         </is>
       </c>
       <c r="C227" s="13" t="n">
-        <v>45287</v>
+        <v>45310</v>
       </c>
       <c r="D227" s="4" t="inlineStr">
         <is>
-          <t>ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΕΠΕΝΔΥΣΕΩΝ ΑΚΙΝΗΤΗΣ ΠΕΡΙΟΥΣΙΑΣ ΧΑΝΙΩΝ</t>
+          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2029 ΙΙ ΕΥΡΩΠΑΙΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>RES</t>
+          <t>BON</t>
         </is>
       </c>
       <c r="F227" s="4" t="inlineStr"/>
-      <c r="G227" s="4" t="inlineStr"/>
+      <c r="G227" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC015</t>
+        </is>
+      </c>
       <c r="H227" s="4" t="inlineStr">
         <is>
-          <t>EGRAEEAP012</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I227" s="4" t="inlineStr">
         <is>
-          <t>PEGRAEEAP012_SHR</t>
+          <t>IGRF000473006</t>
         </is>
       </c>
       <c r="J227" s="4" t="inlineStr"/>
@@ -12345,20 +12345,20 @@
     <row r="228" ht="36" customHeight="1">
       <c r="A228" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01081</t>
+          <t>EGRAK01078</t>
         </is>
       </c>
       <c r="B228" s="6" t="inlineStr">
         <is>
-          <t>L213800TMXNS7PAP2LQ63</t>
+          <t>L213800KS25XUZR4YX639</t>
         </is>
       </c>
       <c r="C228" s="11" t="n">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="D228" s="6" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME  II 24months - ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΕΙΣΟΔΗΜΑΤΟΣ 2026  ΕΥΡΩΠΑΙΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E228" s="6" t="inlineStr">
@@ -12369,17 +12369,17 @@
       <c r="F228" s="6" t="inlineStr"/>
       <c r="G228" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="H228" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I228" s="6" t="inlineStr">
         <is>
-          <t>IGRF000472008</t>
+          <t>IGRF000474004</t>
         </is>
       </c>
       <c r="J228" s="6" t="inlineStr"/>
@@ -12387,12 +12387,12 @@
     <row r="229" ht="36" customHeight="1">
       <c r="A229" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01077</t>
+          <t>EGRAK01079</t>
         </is>
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>L213800YCBOEO8SGH4D17</t>
+          <t>L213800JLK8K87ENMO7297</t>
         </is>
       </c>
       <c r="C229" s="13" t="n">
@@ -12400,28 +12400,28 @@
       </c>
       <c r="D229" s="4" t="inlineStr">
         <is>
-          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2029 ΙΙ ΕΥΡΩΠΑΙΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ALPHA Bancassurance EE107 Σύνθετο Αμοιβαίο Κεφάλαιο</t>
         </is>
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>BON</t>
+          <t>OTH</t>
         </is>
       </c>
       <c r="F229" s="4" t="inlineStr"/>
       <c r="G229" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H229" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I229" s="4" t="inlineStr">
         <is>
-          <t>IGRF000473006</t>
+          <t>IGRF000467008</t>
         </is>
       </c>
       <c r="J229" s="4" t="inlineStr"/>
@@ -12429,20 +12429,20 @@
     <row r="230" ht="36" customHeight="1">
       <c r="A230" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01078</t>
+          <t>EGRAK01080</t>
         </is>
       </c>
       <c r="B230" s="6" t="inlineStr">
         <is>
-          <t>L213800KS25XUZR4YX639</t>
+          <t>L2138008BP342ESMMHA37</t>
         </is>
       </c>
       <c r="C230" s="11" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="D230" s="6" t="inlineStr">
         <is>
-          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΕΙΣΟΔΗΜΑΤΟΣ 2026  ΕΥΡΩΠΑΙΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>Optima income 2028 ομολογιακό</t>
         </is>
       </c>
       <c r="E230" s="6" t="inlineStr">
@@ -12453,17 +12453,17 @@
       <c r="F230" s="6" t="inlineStr"/>
       <c r="G230" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="H230" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="I230" s="6" t="inlineStr">
         <is>
-          <t>IGRF000474004</t>
+          <t>IGRF000471000</t>
         </is>
       </c>
       <c r="J230" s="6" t="inlineStr"/>
@@ -12471,25 +12471,25 @@
     <row r="231" ht="36" customHeight="1">
       <c r="A231" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01079</t>
+          <t>EGRAK01082</t>
         </is>
       </c>
       <c r="B231" s="4" t="inlineStr">
         <is>
-          <t>L213800JLK8K87ENMO7297</t>
+          <t>L213800RWD3L1RV3LWR22</t>
         </is>
       </c>
       <c r="C231" s="13" t="n">
-        <v>45310</v>
+        <v>45327</v>
       </c>
       <c r="D231" s="4" t="inlineStr">
         <is>
-          <t>ALPHA Bancassurance EE107 Σύνθετο Αμοιβαίο Κεφάλαιο</t>
+          <t>ALPHA EURO SHORT-TERM ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>BON</t>
         </is>
       </c>
       <c r="F231" s="4" t="inlineStr"/>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I231" s="4" t="inlineStr">
         <is>
-          <t>IGRF000467008</t>
+          <t>IGRF000468006, IGRF000469004, IGRF000470002</t>
         </is>
       </c>
       <c r="J231" s="4" t="inlineStr"/>
@@ -12513,20 +12513,20 @@
     <row r="232" ht="36" customHeight="1">
       <c r="A232" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01080</t>
+          <t>EGRAK01083</t>
         </is>
       </c>
       <c r="B232" s="6" t="inlineStr">
         <is>
-          <t>L2138008BP342ESMMHA37</t>
+          <t>L213800ABM8XTPKQSVA83</t>
         </is>
       </c>
       <c r="C232" s="11" t="n">
-        <v>45313</v>
+        <v>45352</v>
       </c>
       <c r="D232" s="6" t="inlineStr">
         <is>
-          <t>Optima income 2028 ομολογιακό</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME ΙΙΙ 24months - Ομολογιακό</t>
         </is>
       </c>
       <c r="E232" s="6" t="inlineStr">
@@ -12537,17 +12537,17 @@
       <c r="F232" s="6" t="inlineStr"/>
       <c r="G232" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H232" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I232" s="6" t="inlineStr">
         <is>
-          <t>IGRF000471000</t>
+          <t>IGRF000475001</t>
         </is>
       </c>
       <c r="J232" s="6" t="inlineStr"/>
@@ -12555,20 +12555,20 @@
     <row r="233" ht="36" customHeight="1">
       <c r="A233" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01082</t>
+          <t>EGRAK01087</t>
         </is>
       </c>
       <c r="B233" s="4" t="inlineStr">
         <is>
-          <t>L213800RWD3L1RV3LWR22</t>
+          <t>L2138001S3W5HRLAY3A59</t>
         </is>
       </c>
       <c r="C233" s="13" t="n">
-        <v>45327</v>
+        <v>45372</v>
       </c>
       <c r="D233" s="4" t="inlineStr">
         <is>
-          <t>ALPHA EURO SHORT-TERM ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>3K/Τράπεζα Αττικής Premier Income Ομολογιακό 2026</t>
         </is>
       </c>
       <c r="E233" s="4" t="inlineStr">
@@ -12579,17 +12579,17 @@
       <c r="F233" s="4" t="inlineStr"/>
       <c r="G233" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC014</t>
         </is>
       </c>
       <c r="H233" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC014</t>
         </is>
       </c>
       <c r="I233" s="4" t="inlineStr">
         <is>
-          <t>IGRF000468006, IGRF000469004, IGRF000470002</t>
+          <t>IGRF000482007</t>
         </is>
       </c>
       <c r="J233" s="4" t="inlineStr"/>
@@ -12597,25 +12597,25 @@
     <row r="234" ht="36" customHeight="1">
       <c r="A234" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01083</t>
+          <t>EGRAK01084</t>
         </is>
       </c>
       <c r="B234" s="6" t="inlineStr">
         <is>
-          <t>L213800ABM8XTPKQSVA83</t>
+          <t>L213800Q12A8MMJT7MJ72</t>
         </is>
       </c>
       <c r="C234" s="11" t="n">
-        <v>45352</v>
+        <v>45377</v>
       </c>
       <c r="D234" s="6" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME ΙΙΙ 24months - Ομολογιακό</t>
+          <t>NBG Asset Allocation Conservative - Fund of Funds Μικτό</t>
         </is>
       </c>
       <c r="E234" s="6" t="inlineStr">
         <is>
-          <t>BON</t>
+          <t>MIX</t>
         </is>
       </c>
       <c r="F234" s="6" t="inlineStr"/>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="I234" s="6" t="inlineStr">
         <is>
-          <t>IGRF000475001</t>
+          <t>IGRF000479003</t>
         </is>
       </c>
       <c r="J234" s="6" t="inlineStr"/>
@@ -12639,41 +12639,41 @@
     <row r="235" ht="36" customHeight="1">
       <c r="A235" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01087</t>
+          <t>EGRAK01085</t>
         </is>
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t>L2138001S3W5HRLAY3A59</t>
+          <t>L21380054HK2T3AJY4M11</t>
         </is>
       </c>
       <c r="C235" s="13" t="n">
-        <v>45372</v>
+        <v>45377</v>
       </c>
       <c r="D235" s="4" t="inlineStr">
         <is>
-          <t>3K/Τράπεζα Αττικής Premier Income Ομολογιακό 2026</t>
+          <t>NBG Asset Allocation Balanced - Fund of Funds Μικτό</t>
         </is>
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>BON</t>
+          <t>MIX</t>
         </is>
       </c>
       <c r="F235" s="4" t="inlineStr"/>
       <c r="G235" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H235" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC014</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I235" s="4" t="inlineStr">
         <is>
-          <t>IGRF000482007</t>
+          <t>IGRF000478005</t>
         </is>
       </c>
       <c r="J235" s="4" t="inlineStr"/>
@@ -12681,12 +12681,12 @@
     <row r="236" ht="36" customHeight="1">
       <c r="A236" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01084</t>
+          <t>EGRAK01086</t>
         </is>
       </c>
       <c r="B236" s="6" t="inlineStr">
         <is>
-          <t>L213800Q12A8MMJT7MJ72</t>
+          <t>L2138008UV7ABVUE6Y292</t>
         </is>
       </c>
       <c r="C236" s="11" t="n">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="D236" s="6" t="inlineStr">
         <is>
-          <t>NBG Asset Allocation Conservative - Fund of Funds Μικτό</t>
+          <t>NBG Asset Allocation Dynamic - Fund of Funds Μικτό</t>
         </is>
       </c>
       <c r="E236" s="6" t="inlineStr">
@@ -12715,7 +12715,7 @@
       </c>
       <c r="I236" s="6" t="inlineStr">
         <is>
-          <t>IGRF000479003</t>
+          <t>IGRF000480001</t>
         </is>
       </c>
       <c r="J236" s="6" t="inlineStr"/>
@@ -12723,41 +12723,41 @@
     <row r="237" ht="36" customHeight="1">
       <c r="A237" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01085</t>
+          <t>EGRAK01088</t>
         </is>
       </c>
       <c r="B237" s="4" t="inlineStr">
         <is>
-          <t>L21380054HK2T3AJY4M11</t>
+          <t>L21380082X3MNAZZCMX33</t>
         </is>
       </c>
       <c r="C237" s="13" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="D237" s="4" t="inlineStr">
         <is>
-          <t>NBG Asset Allocation Balanced - Fund of Funds Μικτό</t>
+          <t>ALPHA TARGET MATURITY VΙI 2026 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
         </is>
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>MIX</t>
+          <t>BON</t>
         </is>
       </c>
       <c r="F237" s="4" t="inlineStr"/>
       <c r="G237" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H237" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I237" s="4" t="inlineStr">
         <is>
-          <t>IGRF000478005</t>
+          <t>IGRF000477007</t>
         </is>
       </c>
       <c r="J237" s="4" t="inlineStr"/>
@@ -12765,41 +12765,41 @@
     <row r="238" ht="36" customHeight="1">
       <c r="A238" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01086</t>
+          <t>EGRAK01089</t>
         </is>
       </c>
       <c r="B238" s="6" t="inlineStr">
         <is>
-          <t>L2138008UV7ABVUE6Y292</t>
+          <t>L213800ARHEJUW1PXXT16</t>
         </is>
       </c>
       <c r="C238" s="11" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="D238" s="6" t="inlineStr">
         <is>
-          <t>NBG Asset Allocation Dynamic - Fund of Funds Μικτό</t>
+          <t>ΠΕΙΡΑΙΩΣ Α/K ΣΤΡATΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2027 ΕΥΡΩΠΑΪΚΟ ΟΜΟΛΟΓΙΑΚ</t>
         </is>
       </c>
       <c r="E238" s="6" t="inlineStr">
         <is>
-          <t>MIX</t>
+          <t>BON</t>
         </is>
       </c>
       <c r="F238" s="6" t="inlineStr"/>
       <c r="G238" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="H238" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I238" s="6" t="inlineStr">
         <is>
-          <t>IGRF000480001</t>
+          <t>IGRF000481009</t>
         </is>
       </c>
       <c r="J238" s="6" t="inlineStr"/>
@@ -12807,20 +12807,20 @@
     <row r="239" ht="36" customHeight="1">
       <c r="A239" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01088</t>
+          <t>EGRAK01090</t>
         </is>
       </c>
       <c r="B239" s="4" t="inlineStr">
         <is>
-          <t>L21380082X3MNAZZCMX33</t>
+          <t>L2138008ZGZBUNFTK1T72</t>
         </is>
       </c>
       <c r="C239" s="13" t="n">
-        <v>45379</v>
+        <v>45397</v>
       </c>
       <c r="D239" s="4" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY VΙI 2026 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME ΙV 24months - Ομολογιακό</t>
         </is>
       </c>
       <c r="E239" s="4" t="inlineStr">
@@ -12831,17 +12831,17 @@
       <c r="F239" s="4" t="inlineStr"/>
       <c r="G239" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H239" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I239" s="4" t="inlineStr">
         <is>
-          <t>IGRF000477007</t>
+          <t>IGRF000486008</t>
         </is>
       </c>
       <c r="J239" s="4" t="inlineStr"/>
@@ -12849,41 +12849,41 @@
     <row r="240" ht="36" customHeight="1">
       <c r="A240" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01089</t>
-        </is>
-      </c>
-      <c r="B240" s="6" t="inlineStr">
-        <is>
-          <t>L213800ARHEJUW1PXXT16</t>
-        </is>
-      </c>
+          <t>EGRAK01100</t>
+        </is>
+      </c>
+      <c r="B240" s="6" t="inlineStr"/>
       <c r="C240" s="11" t="n">
-        <v>45379</v>
+        <v>45408</v>
       </c>
       <c r="D240" s="6" t="inlineStr">
         <is>
-          <t>ΠΕΙΡΑΙΩΣ Α/K ΣΤΡATΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2027 ΕΥΡΩΠΑΪΚΟ ΟΜΟΛΟΓΙΑΚ</t>
+          <t>iGROW VENTURE CAPITAL FUND</t>
         </is>
       </c>
       <c r="E240" s="6" t="inlineStr">
         <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="F240" s="6" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F240" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G240" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGR802025852</t>
         </is>
       </c>
       <c r="H240" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGR802025852</t>
         </is>
       </c>
       <c r="I240" s="6" t="inlineStr">
         <is>
-          <t>IGRF000481009</t>
+          <t>PEGRAK01100_SHR</t>
         </is>
       </c>
       <c r="J240" s="6" t="inlineStr"/>
@@ -12891,41 +12891,41 @@
     <row r="241" ht="36" customHeight="1">
       <c r="A241" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01090</t>
-        </is>
-      </c>
-      <c r="B241" s="4" t="inlineStr">
-        <is>
-          <t>L2138008ZGZBUNFTK1T72</t>
-        </is>
-      </c>
+          <t>EGRAK01099</t>
+        </is>
+      </c>
+      <c r="B241" s="4" t="inlineStr"/>
       <c r="C241" s="13" t="n">
-        <v>45397</v>
+        <v>45411</v>
       </c>
       <c r="D241" s="4" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME ΙV 24months - Ομολογιακό</t>
+          <t>APEIRON VENTURES ΑΚΕΣ</t>
         </is>
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="F241" s="4" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F241" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G241" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGR802190685</t>
         </is>
       </c>
       <c r="H241" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGR802190685</t>
         </is>
       </c>
       <c r="I241" s="4" t="inlineStr">
         <is>
-          <t>IGRF000486008</t>
+          <t>PEGRAK01099_SHR</t>
         </is>
       </c>
       <c r="J241" s="4" t="inlineStr"/>
@@ -12933,41 +12933,41 @@
     <row r="242" ht="36" customHeight="1">
       <c r="A242" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01100</t>
-        </is>
-      </c>
-      <c r="B242" s="6" t="inlineStr"/>
+          <t>EGRAK01091</t>
+        </is>
+      </c>
+      <c r="B242" s="6" t="inlineStr">
+        <is>
+          <t>L213800NXJHJLCAPH7B07</t>
+        </is>
+      </c>
       <c r="C242" s="11" t="n">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="D242" s="6" t="inlineStr">
         <is>
-          <t>iGROW VENTURE CAPITAL FUND</t>
+          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΕΙΣΟΔΗΜΑΤΟΣ 2026 (II)  ΕΥΡΩΠΑΙΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E242" s="6" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F242" s="6" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F242" s="6" t="inlineStr"/>
       <c r="G242" s="6" t="inlineStr">
         <is>
-          <t>EGR802025852</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="H242" s="6" t="inlineStr">
         <is>
-          <t>EGR802025852</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I242" s="6" t="inlineStr">
         <is>
-          <t>PEGRAK01100_SHR</t>
+          <t>IGRF000487006</t>
         </is>
       </c>
       <c r="J242" s="6" t="inlineStr"/>
@@ -12975,41 +12975,41 @@
     <row r="243" ht="36" customHeight="1">
       <c r="A243" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01099</t>
-        </is>
-      </c>
-      <c r="B243" s="4" t="inlineStr"/>
+          <t>EGRAK01092</t>
+        </is>
+      </c>
+      <c r="B243" s="4" t="inlineStr">
+        <is>
+          <t>L213800OACFCCVQCMWB44</t>
+        </is>
+      </c>
       <c r="C243" s="13" t="n">
-        <v>45411</v>
+        <v>45422</v>
       </c>
       <c r="D243" s="4" t="inlineStr">
         <is>
-          <t>APEIRON VENTURES ΑΚΕΣ</t>
+          <t>Optima income 2029 ομολογιακό</t>
         </is>
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F243" s="4" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F243" s="4" t="inlineStr"/>
       <c r="G243" s="4" t="inlineStr">
         <is>
-          <t>EGR802190685</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="H243" s="4" t="inlineStr">
         <is>
-          <t>EGR802190685</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="I243" s="4" t="inlineStr">
         <is>
-          <t>PEGRAK01099_SHR</t>
+          <t>IGRF000490000</t>
         </is>
       </c>
       <c r="J243" s="4" t="inlineStr"/>
@@ -13017,20 +13017,20 @@
     <row r="244" ht="36" customHeight="1">
       <c r="A244" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01091</t>
+          <t>EGRAK01093</t>
         </is>
       </c>
       <c r="B244" s="6" t="inlineStr">
         <is>
-          <t>L213800NXJHJLCAPH7B07</t>
+          <t>L213800JOVUOZT4XO7E72</t>
         </is>
       </c>
       <c r="C244" s="11" t="n">
-        <v>45412</v>
+        <v>45442</v>
       </c>
       <c r="D244" s="6" t="inlineStr">
         <is>
-          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΕΙΣΟΔΗΜΑΤΟΣ 2026 (II)  ΕΥΡΩΠΑΙΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ALPHA BANCASSURANCE EE108 ΣΥΝΘΕΤΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
         </is>
       </c>
       <c r="E244" s="6" t="inlineStr">
@@ -13041,17 +13041,17 @@
       <c r="F244" s="6" t="inlineStr"/>
       <c r="G244" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H244" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I244" s="6" t="inlineStr">
         <is>
-          <t>IGRF000487006</t>
+          <t>IGRF000489002</t>
         </is>
       </c>
       <c r="J244" s="6" t="inlineStr"/>
@@ -13059,20 +13059,20 @@
     <row r="245" ht="36" customHeight="1">
       <c r="A245" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01092</t>
+          <t>EGRAK01094</t>
         </is>
       </c>
       <c r="B245" s="4" t="inlineStr">
         <is>
-          <t>L213800OACFCCVQCMWB44</t>
+          <t>L213800FIDTY2HKQVA374</t>
         </is>
       </c>
       <c r="C245" s="13" t="n">
-        <v>45422</v>
+        <v>45446</v>
       </c>
       <c r="D245" s="4" t="inlineStr">
         <is>
-          <t>Optima income 2029 ομολογιακό</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME V 24months - Ομολογιακό</t>
         </is>
       </c>
       <c r="E245" s="4" t="inlineStr">
@@ -13083,17 +13083,17 @@
       <c r="F245" s="4" t="inlineStr"/>
       <c r="G245" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H245" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I245" s="4" t="inlineStr">
         <is>
-          <t>IGRF000490000</t>
+          <t>IGRF000491008</t>
         </is>
       </c>
       <c r="J245" s="4" t="inlineStr"/>
@@ -13101,20 +13101,20 @@
     <row r="246" ht="36" customHeight="1">
       <c r="A246" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01093</t>
+          <t>EGRAK01095</t>
         </is>
       </c>
       <c r="B246" s="6" t="inlineStr">
         <is>
-          <t>L213800JOVUOZT4XO7E72</t>
+          <t>L213800PEO8TFAIG6OZ47</t>
         </is>
       </c>
       <c r="C246" s="11" t="n">
-        <v>45442</v>
+        <v>45492</v>
       </c>
       <c r="D246" s="6" t="inlineStr">
         <is>
-          <t>ALPHA BANCASSURANCE EE108 ΣΥΝΘΕΤΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME VI 24months - Ομολογιακό</t>
         </is>
       </c>
       <c r="E246" s="6" t="inlineStr">
@@ -13125,17 +13125,17 @@
       <c r="F246" s="6" t="inlineStr"/>
       <c r="G246" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H246" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I246" s="6" t="inlineStr">
         <is>
-          <t>IGRF000489002</t>
+          <t>IGRF000492006</t>
         </is>
       </c>
       <c r="J246" s="6" t="inlineStr"/>
@@ -13143,41 +13143,41 @@
     <row r="247" ht="36" customHeight="1">
       <c r="A247" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01094</t>
-        </is>
-      </c>
-      <c r="B247" s="4" t="inlineStr">
-        <is>
-          <t>L213800FIDTY2HKQVA374</t>
-        </is>
-      </c>
+          <t>EGRAK01102</t>
+        </is>
+      </c>
+      <c r="B247" s="4" t="inlineStr"/>
       <c r="C247" s="13" t="n">
-        <v>45446</v>
+        <v>45496</v>
       </c>
       <c r="D247" s="4" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME V 24months - Ομολογιακό</t>
+          <t>CORALLIA VENTURES TT A.K.E.Σ</t>
         </is>
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="F247" s="4" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F247" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G247" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGR802458356</t>
         </is>
       </c>
       <c r="H247" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGR802458356</t>
         </is>
       </c>
       <c r="I247" s="4" t="inlineStr">
         <is>
-          <t>IGRF000491008</t>
+          <t>PEGRAK01102_SHR</t>
         </is>
       </c>
       <c r="J247" s="4" t="inlineStr"/>
@@ -13185,41 +13185,41 @@
     <row r="248" ht="36" customHeight="1">
       <c r="A248" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01095</t>
-        </is>
-      </c>
-      <c r="B248" s="6" t="inlineStr">
-        <is>
-          <t>L213800PEO8TFAIG6OZ47</t>
-        </is>
-      </c>
+          <t>EGRAK01104</t>
+        </is>
+      </c>
+      <c r="B248" s="6" t="inlineStr"/>
       <c r="C248" s="11" t="n">
-        <v>45492</v>
+        <v>45502</v>
       </c>
       <c r="D248" s="6" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME VI 24months - Ομολογιακό</t>
+          <t>LOGGERHEAD VENTURE FUND VCMF</t>
         </is>
       </c>
       <c r="E248" s="6" t="inlineStr">
         <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="F248" s="6" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F248" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G248" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGR802187644</t>
         </is>
       </c>
       <c r="H248" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGR802187644</t>
         </is>
       </c>
       <c r="I248" s="6" t="inlineStr">
         <is>
-          <t>IGRF000492006</t>
+          <t>PEGRAK01104_SHR</t>
         </is>
       </c>
       <c r="J248" s="6" t="inlineStr"/>
@@ -13227,41 +13227,41 @@
     <row r="249" ht="36" customHeight="1">
       <c r="A249" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01102</t>
-        </is>
-      </c>
-      <c r="B249" s="4" t="inlineStr"/>
+          <t>EGRAK01096</t>
+        </is>
+      </c>
+      <c r="B249" s="4" t="inlineStr">
+        <is>
+          <t>L21380042AZBV7UBFTB47</t>
+        </is>
+      </c>
       <c r="C249" s="13" t="n">
-        <v>45496</v>
+        <v>45504</v>
       </c>
       <c r="D249" s="4" t="inlineStr">
         <is>
-          <t>CORALLIA VENTURES TT A.K.E.Σ</t>
+          <t>Πειραιώς Α/Κ Στρατηγικής Τακτικού Εισοδήματος 2027 II Ευρωπαϊκό Ομολογιακό</t>
         </is>
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F249" s="4" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F249" s="4" t="inlineStr"/>
       <c r="G249" s="4" t="inlineStr">
         <is>
-          <t>EGR802458356</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="H249" s="4" t="inlineStr">
         <is>
-          <t>EGR802458356</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I249" s="4" t="inlineStr">
         <is>
-          <t>PEGRAK01102_SHR</t>
+          <t>IGRF000493004</t>
         </is>
       </c>
       <c r="J249" s="4" t="inlineStr"/>
@@ -13269,41 +13269,41 @@
     <row r="250" ht="36" customHeight="1">
       <c r="A250" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01104</t>
-        </is>
-      </c>
-      <c r="B250" s="6" t="inlineStr"/>
+          <t>EGRAK01097</t>
+        </is>
+      </c>
+      <c r="B250" s="6" t="inlineStr">
+        <is>
+          <t>L213800OA6YI2FW5NXW69</t>
+        </is>
+      </c>
       <c r="C250" s="11" t="n">
-        <v>45502</v>
+        <v>45513</v>
       </c>
       <c r="D250" s="6" t="inlineStr">
         <is>
-          <t>LOGGERHEAD VENTURE FUND VCMF</t>
+          <t>TRITON Target Maturity</t>
         </is>
       </c>
       <c r="E250" s="6" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F250" s="6" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F250" s="6" t="inlineStr"/>
       <c r="G250" s="6" t="inlineStr">
         <is>
-          <t>EGR802187644</t>
+          <t>EGRMFMC013</t>
         </is>
       </c>
       <c r="H250" s="6" t="inlineStr">
         <is>
-          <t>EGR802187644</t>
+          <t>EGRMFMC013</t>
         </is>
       </c>
       <c r="I250" s="6" t="inlineStr">
         <is>
-          <t>PEGRAK01104_SHR</t>
+          <t>IGRF000495009, IGRF000496007</t>
         </is>
       </c>
       <c r="J250" s="6" t="inlineStr"/>
@@ -13311,20 +13311,20 @@
     <row r="251" ht="36" customHeight="1">
       <c r="A251" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01096</t>
+          <t>EGRAK01098</t>
         </is>
       </c>
       <c r="B251" s="4" t="inlineStr">
         <is>
-          <t>L21380042AZBV7UBFTB47</t>
+          <t>L213800WRF79PG1L12R79</t>
         </is>
       </c>
       <c r="C251" s="13" t="n">
-        <v>45504</v>
+        <v>45551</v>
       </c>
       <c r="D251" s="4" t="inlineStr">
         <is>
-          <t>Πειραιώς Α/Κ Στρατηγικής Τακτικού Εισοδήματος 2027 II Ευρωπαϊκό Ομολογιακό</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME VIΙ 24months - Ομολογιακό</t>
         </is>
       </c>
       <c r="E251" s="4" t="inlineStr">
@@ -13335,17 +13335,17 @@
       <c r="F251" s="4" t="inlineStr"/>
       <c r="G251" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H251" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I251" s="4" t="inlineStr">
         <is>
-          <t>IGRF000493004</t>
+          <t>IGRF000497005</t>
         </is>
       </c>
       <c r="J251" s="4" t="inlineStr"/>
@@ -13353,41 +13353,41 @@
     <row r="252" ht="36" customHeight="1">
       <c r="A252" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01097</t>
-        </is>
-      </c>
-      <c r="B252" s="6" t="inlineStr">
-        <is>
-          <t>L213800OA6YI2FW5NXW69</t>
-        </is>
-      </c>
+          <t>EGRAK01103</t>
+        </is>
+      </c>
+      <c r="B252" s="6" t="inlineStr"/>
       <c r="C252" s="11" t="n">
-        <v>45513</v>
+        <v>45552</v>
       </c>
       <c r="D252" s="6" t="inlineStr">
         <is>
-          <t>TRITON Target Maturity</t>
+          <t>Elbridge Capital Fund I</t>
         </is>
       </c>
       <c r="E252" s="6" t="inlineStr">
         <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="F252" s="6" t="inlineStr"/>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F252" s="6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="G252" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
+          <t>EGR801698110</t>
         </is>
       </c>
       <c r="H252" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC013</t>
+          <t>EGR801698110</t>
         </is>
       </c>
       <c r="I252" s="6" t="inlineStr">
         <is>
-          <t>IGRF000495009, IGRF000496007</t>
+          <t>PEGRAK01103_SHR</t>
         </is>
       </c>
       <c r="J252" s="6" t="inlineStr"/>
@@ -13395,20 +13395,20 @@
     <row r="253" ht="36" customHeight="1">
       <c r="A253" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01098</t>
+          <t>EGRAK01107</t>
         </is>
       </c>
       <c r="B253" s="4" t="inlineStr">
         <is>
-          <t>L213800WRF79PG1L12R79</t>
+          <t>L213800JT7C27QJCI5V97</t>
         </is>
       </c>
       <c r="C253" s="13" t="n">
-        <v>45551</v>
+        <v>45572</v>
       </c>
       <c r="D253" s="4" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME VIΙ 24months - Ομολογιακό</t>
+          <t>OPTIMA INCOME 2026 ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E253" s="4" t="inlineStr">
@@ -13419,17 +13419,17 @@
       <c r="F253" s="4" t="inlineStr"/>
       <c r="G253" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="H253" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC018</t>
         </is>
       </c>
       <c r="I253" s="4" t="inlineStr">
         <is>
-          <t>IGRF000497005</t>
+          <t>IGRF000504008</t>
         </is>
       </c>
       <c r="J253" s="4" t="inlineStr"/>
@@ -13437,41 +13437,41 @@
     <row r="254" ht="36" customHeight="1">
       <c r="A254" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01103</t>
-        </is>
-      </c>
-      <c r="B254" s="6" t="inlineStr"/>
+          <t>EGRAK01101</t>
+        </is>
+      </c>
+      <c r="B254" s="6" t="inlineStr">
+        <is>
+          <t>L2138009Q38X6LDR8C221</t>
+        </is>
+      </c>
       <c r="C254" s="11" t="n">
-        <v>45552</v>
+        <v>45576</v>
       </c>
       <c r="D254" s="6" t="inlineStr">
         <is>
-          <t>Elbridge Capital Fund I</t>
+          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2029 (IΙI) ΕΥΡΩΠΑΪΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E254" s="6" t="inlineStr">
         <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F254" s="6" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="F254" s="6" t="inlineStr"/>
       <c r="G254" s="6" t="inlineStr">
         <is>
-          <t>EGR801698110</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="H254" s="6" t="inlineStr">
         <is>
-          <t>EGR801698110</t>
+          <t>EGRMFMC015</t>
         </is>
       </c>
       <c r="I254" s="6" t="inlineStr">
         <is>
-          <t>PEGRAK01103_SHR</t>
+          <t>IGRF000501004</t>
         </is>
       </c>
       <c r="J254" s="6" t="inlineStr"/>
@@ -13479,20 +13479,20 @@
     <row r="255" ht="36" customHeight="1">
       <c r="A255" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01107</t>
+          <t>EGRAK01105</t>
         </is>
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>L213800JT7C27QJCI5V97</t>
+          <t>L213800KBA89IGMNLZ852</t>
         </is>
       </c>
       <c r="C255" s="13" t="n">
-        <v>45572</v>
+        <v>45576</v>
       </c>
       <c r="D255" s="4" t="inlineStr">
         <is>
-          <t>OPTIMA INCOME 2026 ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ALPHA TARGET MATURITY VΙΙΙ 2029 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
         </is>
       </c>
       <c r="E255" s="4" t="inlineStr">
@@ -13503,17 +13503,17 @@
       <c r="F255" s="4" t="inlineStr"/>
       <c r="G255" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H255" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC018</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I255" s="4" t="inlineStr">
         <is>
-          <t>IGRF000504008</t>
+          <t>IGRF000499001</t>
         </is>
       </c>
       <c r="J255" s="4" t="inlineStr"/>
@@ -13521,41 +13521,41 @@
     <row r="256" ht="36" customHeight="1">
       <c r="A256" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01101</t>
+          <t>EGRAK01106</t>
         </is>
       </c>
       <c r="B256" s="6" t="inlineStr">
         <is>
-          <t>L2138009Q38X6LDR8C221</t>
+          <t>L213800YDYIJARUDYVT64</t>
         </is>
       </c>
       <c r="C256" s="11" t="n">
-        <v>45576</v>
+        <v>45586</v>
       </c>
       <c r="D256" s="6" t="inlineStr">
         <is>
-          <t>ΠΕΙΡΑΙΩΣ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ ΣΤΡΑΤΗΓΙΚΗΣ ΤΑΚΤΙΚΟΥ ΕΙΣΟΔΗΜΑΤΟΣ 2029 (IΙI) ΕΥΡΩΠΑΪΚΟ ΟΜΟΛΟΓΙΑΚΟ</t>
+          <t>ALPHA BANCASSURANCE EE109 ΣΥΝΘΕΤΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
         </is>
       </c>
       <c r="E256" s="6" t="inlineStr">
         <is>
-          <t>BON</t>
+          <t>OTH</t>
         </is>
       </c>
       <c r="F256" s="6" t="inlineStr"/>
       <c r="G256" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="H256" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC015</t>
+          <t>EGRMFMC003</t>
         </is>
       </c>
       <c r="I256" s="6" t="inlineStr">
         <is>
-          <t>IGRF000501004</t>
+          <t>IGRF000500006</t>
         </is>
       </c>
       <c r="J256" s="6" t="inlineStr"/>
@@ -13563,20 +13563,20 @@
     <row r="257" ht="36" customHeight="1">
       <c r="A257" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01105</t>
+          <t>EGRAK01108</t>
         </is>
       </c>
       <c r="B257" s="4" t="inlineStr">
         <is>
-          <t>L213800KBA89IGMNLZ852</t>
+          <t>L213800AYZH4V1M8L3W41</t>
         </is>
       </c>
       <c r="C257" s="13" t="n">
-        <v>45576</v>
+        <v>45600</v>
       </c>
       <c r="D257" s="4" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY VΙΙΙ 2029 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME VIII 24months - Ομολογιακό</t>
         </is>
       </c>
       <c r="E257" s="4" t="inlineStr">
@@ -13587,17 +13587,17 @@
       <c r="F257" s="4" t="inlineStr"/>
       <c r="G257" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H257" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="I257" s="4" t="inlineStr">
         <is>
-          <t>IGRF000499001</t>
+          <t>IGRF000505005</t>
         </is>
       </c>
       <c r="J257" s="4" t="inlineStr"/>
@@ -13605,25 +13605,25 @@
     <row r="258" ht="36" customHeight="1">
       <c r="A258" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01106</t>
+          <t>EGRAK01109</t>
         </is>
       </c>
       <c r="B258" s="6" t="inlineStr">
         <is>
-          <t>L213800YDYIJARUDYVT64</t>
+          <t>L213800RPKB4M79UR6U37</t>
         </is>
       </c>
       <c r="C258" s="11" t="n">
-        <v>45586</v>
+        <v>45604</v>
       </c>
       <c r="D258" s="6" t="inlineStr">
         <is>
-          <t>ALPHA BANCASSURANCE EE109 ΣΥΝΘΕΤΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+          <t>ALPHA TARGET MATURITY ΙΧ 2029 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
         </is>
       </c>
       <c r="E258" s="6" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>BON</t>
         </is>
       </c>
       <c r="F258" s="6" t="inlineStr"/>
@@ -13639,7 +13639,7 @@
       </c>
       <c r="I258" s="6" t="inlineStr">
         <is>
-          <t>IGRF000500006</t>
+          <t>IGRF000503000</t>
         </is>
       </c>
       <c r="J258" s="6" t="inlineStr"/>
@@ -13647,58 +13647,62 @@
     <row r="259" ht="36" customHeight="1">
       <c r="A259" s="12" t="inlineStr">
         <is>
-          <t>EGRAK01108</t>
+          <t>EGRAK01110</t>
         </is>
       </c>
       <c r="B259" s="4" t="inlineStr">
         <is>
-          <t>L213800AYZH4V1M8L3W41</t>
+          <t>L213800IDDNHWFT2H2346</t>
         </is>
       </c>
       <c r="C259" s="13" t="n">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="D259" s="4" t="inlineStr">
         <is>
-          <t>ΔΗΛΟΣ EXTRA INCOME VIII 24months - Ομολογιακό</t>
+          <t>ALPHA TRUST APOLLO 11 GREEK EQUITY FUND</t>
         </is>
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>BON</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="F259" s="4" t="inlineStr"/>
       <c r="G259" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
+          <t>EGRMFMC023</t>
         </is>
       </c>
       <c r="H259" s="4" t="inlineStr">
         <is>
-          <t>EGRMFMC009</t>
-        </is>
-      </c>
-      <c r="I259" s="4" t="inlineStr"/>
+          <t>EGRMFMC023</t>
+        </is>
+      </c>
+      <c r="I259" s="4" t="inlineStr">
+        <is>
+          <t>IGRF000507001</t>
+        </is>
+      </c>
       <c r="J259" s="4" t="inlineStr"/>
     </row>
     <row r="260" ht="36" customHeight="1">
       <c r="A260" s="10" t="inlineStr">
         <is>
-          <t>EGRAK01109</t>
+          <t>EGRAK01111</t>
         </is>
       </c>
       <c r="B260" s="6" t="inlineStr">
         <is>
-          <t>L213800RPKB4M79UR6U37</t>
+          <t>L213800EWIMVSDOISY112</t>
         </is>
       </c>
       <c r="C260" s="11" t="n">
-        <v>45604</v>
+        <v>45642</v>
       </c>
       <c r="D260" s="6" t="inlineStr">
         <is>
-          <t>ALPHA TARGET MATURITY ΙΧ 2029 ΟΜΟΛΟΓΙΑΚΟ ΑΜΟΙΒΑΙΟ ΚΕΦΑΛΑΙΟ</t>
+          <t>ΔΗΛΟΣ EXTRA INCOME IX 24MONTHS - ΟΜΟΛΟΓΙΑΚΟ</t>
         </is>
       </c>
       <c r="E260" s="6" t="inlineStr">
@@ -13709,19 +13713,65 @@
       <c r="F260" s="6" t="inlineStr"/>
       <c r="G260" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
+          <t>EGRMFMC009</t>
         </is>
       </c>
       <c r="H260" s="6" t="inlineStr">
         <is>
-          <t>EGRMFMC003</t>
-        </is>
-      </c>
-      <c r="I260" s="6" t="inlineStr"/>
+          <t>EGRMFMC009</t>
+        </is>
+      </c>
+      <c r="I260" s="6" t="inlineStr">
+        <is>
+          <t>IGRF000508009</t>
+        </is>
+      </c>
       <c r="J260" s="6" t="inlineStr"/>
     </row>
+    <row r="261" ht="36" customHeight="1">
+      <c r="A261" s="12" t="inlineStr">
+        <is>
+          <t>EGRAK01112</t>
+        </is>
+      </c>
+      <c r="B261" s="4" t="inlineStr">
+        <is>
+          <t>L254900C0JPGKD60NLW45</t>
+        </is>
+      </c>
+      <c r="C261" s="13" t="n">
+        <v>45653</v>
+      </c>
+      <c r="D261" s="4" t="inlineStr">
+        <is>
+          <t>ATHOS – KM Cube – SkyNet US Equities Fund</t>
+        </is>
+      </c>
+      <c r="E261" s="4" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F261" s="4" t="inlineStr"/>
+      <c r="G261" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC030</t>
+        </is>
+      </c>
+      <c r="H261" s="4" t="inlineStr">
+        <is>
+          <t>EGRMFMC030</t>
+        </is>
+      </c>
+      <c r="I261" s="4" t="inlineStr">
+        <is>
+          <t>IGRF000509007, IGRF000510005, IGRF000511003, IGRF000512001</t>
+        </is>
+      </c>
+      <c r="J261" s="4" t="inlineStr"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J260"/>
+  <autoFilter ref="A1:J261"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -13732,7 +13782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D341"/>
+  <dimension ref="A1:D349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -18164,11 +18214,7 @@
           <t>PIRAEUS PRIVATE BANKING ESG BALANCED FUND (P)</t>
         </is>
       </c>
-      <c r="D223" s="4" t="inlineStr">
-        <is>
-          <t>EGRAK00559</t>
-        </is>
-      </c>
+      <c r="D223" s="4" t="inlineStr"/>
     </row>
     <row r="224" ht="36" customHeight="1">
       <c r="A224" s="10" t="inlineStr">
@@ -18576,11 +18622,7 @@
           <t>PIRAEUS PRIVATE BANKING ESG GREECE EQUITY FUND (P)</t>
         </is>
       </c>
-      <c r="D245" s="4" t="inlineStr">
-        <is>
-          <t>EGRAK01007</t>
-        </is>
-      </c>
+      <c r="D245" s="4" t="inlineStr"/>
     </row>
     <row r="246" ht="36" customHeight="1">
       <c r="A246" s="10" t="inlineStr">
@@ -20446,8 +20488,168 @@
         </is>
       </c>
     </row>
+    <row r="342" ht="36" customHeight="1">
+      <c r="A342" s="10" t="inlineStr">
+        <is>
+          <t>IGRF000505005</t>
+        </is>
+      </c>
+      <c r="B342" s="11" t="n">
+        <v>45600</v>
+      </c>
+      <c r="C342" s="6" t="inlineStr">
+        <is>
+          <t>DELOS EXTRA INCOME VIII 24MONTHS - BOND FUND</t>
+        </is>
+      </c>
+      <c r="D342" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK01108</t>
+        </is>
+      </c>
+    </row>
+    <row r="343" ht="36" customHeight="1">
+      <c r="A343" s="12" t="inlineStr">
+        <is>
+          <t>IGRF000503000</t>
+        </is>
+      </c>
+      <c r="B343" s="13" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C343" s="4" t="inlineStr">
+        <is>
+          <t>ALPHA TARGET MATURITY IX 2029 BOND FUND Classic D</t>
+        </is>
+      </c>
+      <c r="D343" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK01109</t>
+        </is>
+      </c>
+    </row>
+    <row r="344" ht="36" customHeight="1">
+      <c r="A344" s="10" t="inlineStr">
+        <is>
+          <t>IGRF000507001</t>
+        </is>
+      </c>
+      <c r="B344" s="11" t="n">
+        <v>45642</v>
+      </c>
+      <c r="C344" s="6" t="inlineStr">
+        <is>
+          <t>ALPHA TRUST APOLLO 11 GREEK EQUITY FUND</t>
+        </is>
+      </c>
+      <c r="D344" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK01110</t>
+        </is>
+      </c>
+    </row>
+    <row r="345" ht="36" customHeight="1">
+      <c r="A345" s="12" t="inlineStr">
+        <is>
+          <t>IGRF000508009</t>
+        </is>
+      </c>
+      <c r="B345" s="13" t="n">
+        <v>45642</v>
+      </c>
+      <c r="C345" s="4" t="inlineStr">
+        <is>
+          <t>DELOS EXTRA INCOME IX 24MONTHS - BOND FUND</t>
+        </is>
+      </c>
+      <c r="D345" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK01111</t>
+        </is>
+      </c>
+    </row>
+    <row r="346" ht="36" customHeight="1">
+      <c r="A346" s="10" t="inlineStr">
+        <is>
+          <t>IGRF000509007</t>
+        </is>
+      </c>
+      <c r="B346" s="11" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C346" s="6" t="inlineStr">
+        <is>
+          <t>ATHOS - KM Cube - SkyNet US Equities Fund (Class A)</t>
+        </is>
+      </c>
+      <c r="D346" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK01112</t>
+        </is>
+      </c>
+    </row>
+    <row r="347" ht="36" customHeight="1">
+      <c r="A347" s="12" t="inlineStr">
+        <is>
+          <t>IGRF000510005</t>
+        </is>
+      </c>
+      <c r="B347" s="13" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C347" s="4" t="inlineStr">
+        <is>
+          <t>ATHOS - KM Cube - SkyNet US Equities Fund (Class B)</t>
+        </is>
+      </c>
+      <c r="D347" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK01112</t>
+        </is>
+      </c>
+    </row>
+    <row r="348" ht="36" customHeight="1">
+      <c r="A348" s="10" t="inlineStr">
+        <is>
+          <t>IGRF000511003</t>
+        </is>
+      </c>
+      <c r="B348" s="11" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C348" s="6" t="inlineStr">
+        <is>
+          <t>ATHOS - KM Cube - SkyNet US Equities Fund (Class I)</t>
+        </is>
+      </c>
+      <c r="D348" s="6" t="inlineStr">
+        <is>
+          <t>EGRAK01112</t>
+        </is>
+      </c>
+    </row>
+    <row r="349" ht="36" customHeight="1">
+      <c r="A349" s="12" t="inlineStr">
+        <is>
+          <t>IGRF000512001</t>
+        </is>
+      </c>
+      <c r="B349" s="13" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C349" s="4" t="inlineStr">
+        <is>
+          <t>ATHOS - KM Cube - SkyNet US Equities Fund (Class E-USD)</t>
+        </is>
+      </c>
+      <c r="D349" s="4" t="inlineStr">
+        <is>
+          <t>EGRAK01112</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D341"/>
+  <autoFilter ref="A1:D349"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
